--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="307">
   <si>
     <t>Positions</t>
   </si>
@@ -577,6 +577,9 @@
     <t>BahrainMOT</t>
   </si>
   <si>
+    <t>BahrainCD</t>
+  </si>
+  <si>
     <t>MiamiSprintPlace</t>
   </si>
   <si>
@@ -592,6 +595,9 @@
     <t>MiamiSprintMOT</t>
   </si>
   <si>
+    <t>MiamiSprintCD</t>
+  </si>
+  <si>
     <t>MiamiSprintPoints</t>
   </si>
   <si>
@@ -601,24 +607,36 @@
     <t>MiamiMOT</t>
   </si>
   <si>
+    <t>MiamiCD</t>
+  </si>
+  <si>
     <t>SpainDOTD</t>
   </si>
   <si>
     <t>SpainMOT</t>
   </si>
   <si>
+    <t>SpainCD</t>
+  </si>
+  <si>
     <t>MexicoDOTD</t>
   </si>
   <si>
     <t>MexicoMOT</t>
   </si>
   <si>
+    <t>MexicoCD</t>
+  </si>
+  <si>
     <t>BakuDOTD</t>
   </si>
   <si>
     <t>BakuMOT</t>
   </si>
   <si>
+    <t>BakuCD</t>
+  </si>
+  <si>
     <t>AustriaReversePlace</t>
   </si>
   <si>
@@ -634,6 +652,9 @@
     <t>AustriaReverseMOT</t>
   </si>
   <si>
+    <t>AustriaReverseCD</t>
+  </si>
+  <si>
     <t>AustriaReversePoints</t>
   </si>
   <si>
@@ -652,6 +673,9 @@
     <t>SpaSprintMOT</t>
   </si>
   <si>
+    <t>SpaSprintCD</t>
+  </si>
+  <si>
     <t>SpaSprintPoints</t>
   </si>
   <si>
@@ -661,6 +685,9 @@
     <t>SpaMOT</t>
   </si>
   <si>
+    <t>SpaCD</t>
+  </si>
+  <si>
     <t>BrazilSprintPlace</t>
   </si>
   <si>
@@ -676,6 +703,9 @@
     <t>BrazilSprintMOT</t>
   </si>
   <si>
+    <t>BrazilSprintCD</t>
+  </si>
+  <si>
     <t>BrazilSprintPoints</t>
   </si>
   <si>
@@ -685,18 +715,27 @@
     <t>BrazilMOT</t>
   </si>
   <si>
+    <t>BrazilCD</t>
+  </si>
+  <si>
     <t>AustriaDOTD</t>
   </si>
   <si>
     <t>AustriaMOT</t>
   </si>
   <si>
+    <t>AustriaCD</t>
+  </si>
+  <si>
     <t>ZandvoortDOTD</t>
   </si>
   <si>
     <t>ZandvoortMOT</t>
   </si>
   <si>
+    <t>ZandvoortCD</t>
+  </si>
+  <si>
     <t>JeddahPlace</t>
   </si>
   <si>
@@ -712,6 +751,9 @@
     <t>JeddahMOT</t>
   </si>
   <si>
+    <t>JeddahCD</t>
+  </si>
+  <si>
     <t>JeddahPoints</t>
   </si>
   <si>
@@ -730,6 +772,9 @@
     <t>LasVegasMOT</t>
   </si>
   <si>
+    <t>LasVegasCD</t>
+  </si>
+  <si>
     <t>LasVegasPoints</t>
   </si>
   <si>
@@ -748,6 +793,9 @@
     <t>AbuDhabiMOT</t>
   </si>
   <si>
+    <t>AbuDhabiCD</t>
+  </si>
+  <si>
     <t>AbuDhabiPoints</t>
   </si>
   <si>
@@ -766,9 +814,15 @@
     <t>ImolaMOT</t>
   </si>
   <si>
+    <t>ImolaCD</t>
+  </si>
+  <si>
     <t>ImolaPoints</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>Josh</t>
   </si>
   <si>
@@ -811,16 +865,22 @@
     <t>9/24/2025</t>
   </si>
   <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>10/1/2025</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>Miami Sprint</t>
+  </si>
+  <si>
+    <t>10/8/2025</t>
+  </si>
+  <si>
     <t>Tentative</t>
-  </si>
-  <si>
-    <t>10/1/2025</t>
-  </si>
-  <si>
-    <t>Miami Sprint</t>
-  </si>
-  <si>
-    <t>10/8/2025</t>
   </si>
   <si>
     <t>10/22/2025</t>
@@ -909,7 +969,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -948,12 +1008,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border/>
     <border>
       <left style="thick">
@@ -1038,14 +1104,6 @@
       </top>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
@@ -1060,14 +1118,6 @@
     </border>
     <border>
       <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <bottom style="thin">
@@ -1099,7 +1149,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1133,7 +1183,10 @@
     <xf borderId="5" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1157,11 +1210,15 @@
     <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1177,11 +1234,15 @@
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1206,71 +1267,81 @@
     <xf borderId="10" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="12" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="17" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="18" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="18" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="18" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="18" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="19" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1593,219 +1664,219 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>262</v>
+        <v>279</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>280</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="75" t="s">
-        <v>264</v>
+      <c r="B3" s="84" t="s">
+        <v>282</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>266</v>
+        <v>284</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>285</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="75" t="s">
-        <v>266</v>
+      <c r="B5" s="84" t="s">
+        <v>285</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="75" t="s">
-        <v>267</v>
+      <c r="B6" s="84" t="s">
+        <v>287</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="75" t="s">
-        <v>268</v>
+      <c r="B7" s="84" t="s">
+        <v>288</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="75" t="s">
-        <v>269</v>
+      <c r="B8" s="84" t="s">
+        <v>289</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>271</v>
+        <v>290</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>291</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>273</v>
+        <v>292</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>293</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="75" t="s">
-        <v>273</v>
+      <c r="B11" s="84" t="s">
+        <v>293</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>275</v>
+        <v>294</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>295</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="75" t="s">
-        <v>275</v>
+      <c r="B13" s="84" t="s">
+        <v>295</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="75" t="s">
-        <v>276</v>
+      <c r="B14" s="84" t="s">
+        <v>296</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="75" t="s">
-        <v>277</v>
+      <c r="B15" s="84" t="s">
+        <v>297</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B16" s="75" t="s">
-        <v>279</v>
+        <v>298</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>299</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B17" s="75" t="s">
-        <v>281</v>
+        <v>300</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>301</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="75" t="s">
-        <v>282</v>
+      <c r="B18" s="84" t="s">
+        <v>302</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>284</v>
+        <v>303</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>304</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B20" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="B20" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -9518,115 +9589,115 @@
         <v>184</v>
       </c>
       <c r="I1" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="X1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AI1" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="AK1" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AP1" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR1" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS1" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="AO1" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="AP1" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AQ1" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS1" s="11" t="s">
-        <v>204</v>
       </c>
       <c r="AT1" s="6" t="s">
         <v>205</v>
@@ -9646,2602 +9717,2919 @@
       <c r="AY1" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="BB1" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="BD1" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="BE1" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="BF1" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="BG1" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="BH1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BI1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="BC1" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="BD1" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="BE1" s="11" t="s">
+      <c r="BK1" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="BL1" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="BM1" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="BN1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="BF1" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="BG1" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="BH1" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="BI1" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="BJ1" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="BK1" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BO1" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="BP1" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="BQ1" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="BR1" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="BS1" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BT1" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="BU1" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="BV1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BW1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BX1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="BO1" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="BP1" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="BQ1" s="11" t="s">
+      <c r="BY1" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="BZ1" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="CA1" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="CB1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="BR1" s="6" t="s">
+      <c r="CC1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="BS1" s="7" t="s">
+      <c r="CD1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="BT1" s="8" t="s">
+      <c r="CE1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="BU1" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="BV1" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="BW1" s="11" t="s">
+      <c r="CF1" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="CG1" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="CH1" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="CI1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="BX1" s="6" t="s">
+      <c r="CJ1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="BY1" s="7" t="s">
+      <c r="CK1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BZ1" s="8" t="s">
+      <c r="CL1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="CA1" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="CB1" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="CC1" s="11" t="s">
+      <c r="CM1" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="CN1" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="CO1" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="CP1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="CD1" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="CE1" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="CF1" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="CG1" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="CH1" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="CI1" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="CJ1" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="CK1" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="CL1" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="CM1" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="CN1" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="CO1" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="CP1" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="CQ1" s="7" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="CR1" s="8" t="s">
+      <c r="CR1" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="CS1" s="9" t="s">
+      <c r="CS1" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="CT1" s="10" t="s">
+      <c r="CT1" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="CU1" s="11" t="s">
+      <c r="CU1" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="CV1" s="6" t="s">
+      <c r="CV1" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="CW1" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="CX1" s="8" t="s">
+      <c r="CX1" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CY1" s="9" t="s">
+      <c r="CY1" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="CZ1" s="10" t="s">
+      <c r="CZ1" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="DA1" s="11" t="s">
+      <c r="DA1" s="9" t="s">
         <v>248</v>
       </c>
+      <c r="DB1" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="DC1" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="DD1" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="DE1" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="DF1" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="DG1" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="DH1" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="DI1" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="DJ1" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="DK1" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="DL1" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="DM1" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="DN1" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="DO1" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="DP1" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="DQ1" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="DR1" s="12" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="19">
-        <f>IFERROR((VLOOKUP(D2,Scoring!$A:$B,2,0))+IF(F2="y",1,0)+IF(G2="y",1,0)+IF(H2="y",1,0),0)</f>
-        <v>28</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="19">
-        <f>IFERROR((VLOOKUP(J2,Scoring!$D:$E,2,0))+IF(L2="y",1,0)+IF(M2="y",1,0)+IF(N2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
+      <c r="D2" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="J2" s="21">
+        <f>IFERROR((VLOOKUP(D2,Scoring!$A:$B,2,0))+IF(F2="y",1,0)+IF(G2="y",1,0)+IF(H2="y",1,0)+IF(I2="y",1,0),0)</f>
+        <v>25</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="21">
+        <f>IFERROR((VLOOKUP(K2,Scoring!$A:$B,2,0))+IF(M2="y",1,0)+IF(N2="y",1,0)+IF(O2="y",1,0)+IF(P2="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="15"/>
       <c r="S2" s="22"/>
       <c r="T2" s="23"/>
-      <c r="U2" s="19">
-        <f>IFERROR((VLOOKUP(P2,Scoring!$A:$B,2,0))+IF(R2="y",1,0)+IF(S2="y",1,0)+IF(T2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="14"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="19">
-        <f>IFERROR((VLOOKUP(V2,Scoring!$A:$B,2,0))+IF(X2="y",1,0)+IF(Y2="y",1,0)+IF(Z2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="19">
-        <f>IFERROR((VLOOKUP(AB2,Scoring!$A:$B,2,0))+IF(AD2="y",1,0)+IF(AE2="y",1,0)+IF(AF2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="19">
-        <f>IFERROR((VLOOKUP(AH2,Scoring!$A:$B,2,0))+IF(AJ2="y",1,0)+IF(AK2="y",1,0)+IF(AL2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="19">
-        <f>IFERROR((VLOOKUP(AN2,Scoring!$A:$B,2,0))+IF(AP2="y",1,0)+IF(AQ2="y",1,0)+IF(AR2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="22"/>
-      <c r="AX2" s="23"/>
-      <c r="AY2" s="19">
-        <f>IFERROR((VLOOKUP(AT2,Scoring!$D:$E,2,0))+IF(AV2="y",1,0)+IF(AW2="y",1,0)+IF(AX2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="22"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="19">
-        <f>IFERROR((VLOOKUP(AZ2,Scoring!$A:$B,2,0))+IF(BB2="y",1,0)+IF(BC2="y",1,0)+IF(BD2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="20"/>
-      <c r="BH2" s="21"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="21">
+        <f>IFERROR((VLOOKUP(R2,Scoring!$A:$B,2,0))+IF(T2="y",1,0)+IF(U2="y",1,0)+IF(V2="y",1,0)+IF(W2="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="21">
+        <f>IFERROR((VLOOKUP(Y2,Scoring!$A:$B,2,0))+IF(AA2="y",1,0)+IF(AB2="y",1,0)+IF(AC2="y",1,0)+IF(AD2="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="21">
+        <f>IFERROR((VLOOKUP(AF2,Scoring!$A:$B,2,0))+IF(AH2="y",1,0)+IF(AI2="y",1,0)+IF(AJ2="y",1,0)+IF(AK2="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="21">
+        <f>IFERROR((VLOOKUP(AM2,Scoring!$A:$B,2,0))+IF(AO2="y",1,0)+IF(AP2="y",1,0)+IF(AQ2="y",1,0)+IF(AR2="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="21">
+        <f>IFERROR((VLOOKUP(AT2,Scoring!$A:$B,2,0))+IF(AV2="y",1,0)+IF(AW2="y",1,0)+IF(AX2="y",1,0)+IF(AY2="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="25"/>
+      <c r="BF2" s="26"/>
+      <c r="BG2" s="21">
+        <f>IFERROR((VLOOKUP(BA2,Scoring!$A:$B,2,0))+IF(BC2="y",1,0)+IF(BD2="y",1,0)+IF(BE2="y",1,0)+IF(BF2="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH2" s="15"/>
       <c r="BI2" s="22"/>
       <c r="BJ2" s="23"/>
-      <c r="BK2" s="19">
-        <f>IFERROR((VLOOKUP(BF2,Scoring!$D:$E,2,0))+IF(BH2="y",1,0)+IF(BI2="y",1,0)+IF(BJ2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="21"/>
-      <c r="BO2" s="22"/>
-      <c r="BP2" s="23"/>
-      <c r="BQ2" s="19">
-        <f>IFERROR((VLOOKUP(BL2,Scoring!$A:$B,2,0))+IF(BN2="y",1,0)+IF(BO2="y",1,0)+IF(BP2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR2" s="14"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="21"/>
-      <c r="BU2" s="22"/>
-      <c r="BV2" s="23"/>
-      <c r="BW2" s="19">
-        <f>IFERROR((VLOOKUP(BR2,Scoring!$A:$B,2,0))+IF(BT2="y",1,0)+IF(BU2="y",1,0)+IF(BV2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BX2" s="14"/>
-      <c r="BY2" s="20"/>
-      <c r="BZ2" s="21"/>
-      <c r="CA2" s="22"/>
-      <c r="CB2" s="23"/>
-      <c r="CC2" s="19">
-        <f>IFERROR((VLOOKUP(BX2,Scoring!$A:$B,2,0))+IF(BZ2="y",1,0)+IF(CA2="y",1,0)+IF(CB2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD2" s="14"/>
-      <c r="CE2" s="20"/>
-      <c r="CF2" s="21"/>
-      <c r="CG2" s="22"/>
-      <c r="CH2" s="23"/>
-      <c r="CI2" s="19">
-        <f>IFERROR((VLOOKUP(CD2,Scoring!$A:$B,2,0))+IF(CF2="y",1,0)+IF(CG2="y",1,0)+IF(CH2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="14"/>
-      <c r="CK2" s="20"/>
-      <c r="CL2" s="21"/>
-      <c r="CM2" s="22"/>
-      <c r="CN2" s="23"/>
-      <c r="CO2" s="19">
-        <f>IFERROR((VLOOKUP(CJ2,Scoring!$A:$B,2,0))+IF(CL2="y",1,0)+IF(CM2="y",1,0)+IF(CN2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CP2" s="14"/>
-      <c r="CQ2" s="20"/>
-      <c r="CR2" s="21"/>
-      <c r="CS2" s="22"/>
-      <c r="CT2" s="23"/>
-      <c r="CU2" s="19">
-        <f>IFERROR((VLOOKUP(CP2,Scoring!$A:$B,2,0))+IF(CR2="y",1,0)+IF(CS2="y",1,0)+IF(CT2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CV2" s="14"/>
-      <c r="CW2" s="20"/>
-      <c r="CX2" s="21"/>
+      <c r="BK2" s="24"/>
+      <c r="BL2" s="25"/>
+      <c r="BM2" s="26"/>
+      <c r="BN2" s="21">
+        <f>IFERROR((VLOOKUP(BH2,Scoring!$A:$B,2,0))+IF(BJ2="y",1,0)+IF(BK2="y",1,0)+IF(BL2="y",1,0)+IF(BM2="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="22"/>
+      <c r="BQ2" s="23"/>
+      <c r="BR2" s="24"/>
+      <c r="BS2" s="25"/>
+      <c r="BT2" s="26"/>
+      <c r="BU2" s="21">
+        <f>IFERROR((VLOOKUP(BO2,Scoring!$A:$B,2,0))+IF(BQ2="y",1,0)+IF(BR2="y",1,0)+IF(BS2="y",1,0)+IF(BT2="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV2" s="15"/>
+      <c r="BW2" s="22"/>
+      <c r="BX2" s="23"/>
+      <c r="BY2" s="24"/>
+      <c r="BZ2" s="25"/>
+      <c r="CA2" s="26"/>
+      <c r="CB2" s="21">
+        <f>IFERROR((VLOOKUP(BV2,Scoring!$A:$B,2,0))+IF(BX2="y",1,0)+IF(BY2="y",1,0)+IF(BZ2="y",1,0)+IF(CA2="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC2" s="15"/>
+      <c r="CD2" s="22"/>
+      <c r="CE2" s="23"/>
+      <c r="CF2" s="24"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="26"/>
+      <c r="CI2" s="21">
+        <f>IFERROR((VLOOKUP(CC2,Scoring!$A:$B,2,0))+IF(CE2="y",1,0)+IF(CF2="y",1,0)+IF(CG2="y",1,0)+IF(CH2="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="15"/>
+      <c r="CK2" s="22"/>
+      <c r="CL2" s="23"/>
+      <c r="CM2" s="24"/>
+      <c r="CN2" s="25"/>
+      <c r="CO2" s="26"/>
+      <c r="CP2" s="21">
+        <f>IFERROR((VLOOKUP(CJ2,Scoring!$A:$B,2,0))+IF(CL2="y",1,0)+IF(CM2="y",1,0)+IF(CN2="y",1,0)+IF(CO2="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="22"/>
+      <c r="CS2" s="23"/>
+      <c r="CT2" s="24"/>
+      <c r="CU2" s="25"/>
+      <c r="CV2" s="26"/>
+      <c r="CW2" s="21">
+        <f>IFERROR((VLOOKUP(CQ2,Scoring!$A:$B,2,0))+IF(CS2="y",1,0)+IF(CT2="y",1,0)+IF(CU2="y",1,0)+IF(CV2="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CX2" s="15"/>
       <c r="CY2" s="22"/>
       <c r="CZ2" s="23"/>
-      <c r="DA2" s="19">
-        <f>IFERROR((VLOOKUP(CV2,Scoring!$A:$B,2,0))+IF(CX2="y",1,0)+IF(CY2="y",1,0)+IF(CZ2="y",1,0),0)</f>
+      <c r="DA2" s="24"/>
+      <c r="DB2" s="25"/>
+      <c r="DC2" s="26"/>
+      <c r="DD2" s="21">
+        <f>IFERROR((VLOOKUP(CX2,Scoring!$A:$B,2,0))+IF(CZ2="y",1,0)+IF(DA2="y",1,0)+IF(DB2="y",1,0)+IF(DC2="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DE2" s="15"/>
+      <c r="DF2" s="22"/>
+      <c r="DG2" s="23"/>
+      <c r="DH2" s="24"/>
+      <c r="DI2" s="25"/>
+      <c r="DJ2" s="26"/>
+      <c r="DK2" s="21">
+        <f>IFERROR((VLOOKUP(DE2,Scoring!$A:$B,2,0))+IF(DG2="y",1,0)+IF(DH2="y",1,0)+IF(DI2="y",1,0)+IF(DJ2="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DL2" s="15"/>
+      <c r="DM2" s="22"/>
+      <c r="DN2" s="23"/>
+      <c r="DO2" s="24"/>
+      <c r="DP2" s="25"/>
+      <c r="DQ2" s="26"/>
+      <c r="DR2" s="21">
+        <f>IFERROR((VLOOKUP(DL2,Scoring!$A:$B,2,0))+IF(DN2="y",1,0)+IF(DO2="y",1,0)+IF(DP2="y",1,0)+IF(DQ2="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="24">
-        <v>2.0</v>
-      </c>
-      <c r="E3" s="25">
-        <v>2.0</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="29">
-        <f>IFERROR((VLOOKUP(D3,Scoring!$A:$B,2,0))+IF(F3="y",1,0)+IF(G3="y",1,0)+IF(H3="y",1,0),0)</f>
-        <v>18</v>
-      </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="29">
-        <f>IFERROR((VLOOKUP(J3,Scoring!$D:$E,2,0))+IF(L3="y",1,0)+IF(M3="y",1,0)+IF(N3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="29">
-        <f>IFERROR((VLOOKUP(P3,Scoring!$A:$B,2,0))+IF(R3="y",1,0)+IF(S3="y",1,0)+IF(T3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="24"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="29">
-        <f>IFERROR((VLOOKUP(V3,Scoring!$A:$B,2,0))+IF(X3="y",1,0)+IF(Y3="y",1,0)+IF(Z3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="29">
-        <f>IFERROR((VLOOKUP(AB3,Scoring!$A:$B,2,0))+IF(AD3="y",1,0)+IF(AE3="y",1,0)+IF(AF3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="29">
-        <f>IFERROR((VLOOKUP(AH3,Scoring!$A:$B,2,0))+IF(AJ3="y",1,0)+IF(AK3="y",1,0)+IF(AL3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="33"/>
-      <c r="AS3" s="29">
-        <f>IFERROR((VLOOKUP(AN3,Scoring!$A:$B,2,0))+IF(AP3="y",1,0)+IF(AQ3="y",1,0)+IF(AR3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT3" s="24"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="31"/>
-      <c r="AW3" s="32"/>
-      <c r="AX3" s="33"/>
-      <c r="AY3" s="29">
-        <f>IFERROR((VLOOKUP(AT3,Scoring!$D:$E,2,0))+IF(AV3="y",1,0)+IF(AW3="y",1,0)+IF(AX3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="32"/>
-      <c r="BD3" s="33"/>
-      <c r="BE3" s="29">
-        <f>IFERROR((VLOOKUP(AZ3,Scoring!$A:$B,2,0))+IF(BB3="y",1,0)+IF(BC3="y",1,0)+IF(BD3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BF3" s="24"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="31"/>
-      <c r="BI3" s="32"/>
-      <c r="BJ3" s="33"/>
-      <c r="BK3" s="29">
-        <f>IFERROR((VLOOKUP(BF3,Scoring!$D:$E,2,0))+IF(BH3="y",1,0)+IF(BI3="y",1,0)+IF(BJ3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL3" s="24"/>
-      <c r="BM3" s="30"/>
-      <c r="BN3" s="31"/>
-      <c r="BO3" s="32"/>
-      <c r="BP3" s="33"/>
-      <c r="BQ3" s="29">
-        <f>IFERROR((VLOOKUP(BL3,Scoring!$A:$B,2,0))+IF(BN3="y",1,0)+IF(BO3="y",1,0)+IF(BP3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR3" s="24"/>
-      <c r="BS3" s="30"/>
-      <c r="BT3" s="31"/>
-      <c r="BU3" s="32"/>
-      <c r="BV3" s="33"/>
-      <c r="BW3" s="29">
-        <f>IFERROR((VLOOKUP(BR3,Scoring!$A:$B,2,0))+IF(BT3="y",1,0)+IF(BU3="y",1,0)+IF(BV3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BX3" s="24"/>
-      <c r="BY3" s="30"/>
-      <c r="BZ3" s="31"/>
-      <c r="CA3" s="32"/>
-      <c r="CB3" s="33"/>
-      <c r="CC3" s="29">
-        <f>IFERROR((VLOOKUP(BX3,Scoring!$A:$B,2,0))+IF(BZ3="y",1,0)+IF(CA3="y",1,0)+IF(CB3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD3" s="24"/>
-      <c r="CE3" s="30"/>
-      <c r="CF3" s="31"/>
-      <c r="CG3" s="32"/>
-      <c r="CH3" s="33"/>
-      <c r="CI3" s="29">
-        <f>IFERROR((VLOOKUP(CD3,Scoring!$A:$B,2,0))+IF(CF3="y",1,0)+IF(CG3="y",1,0)+IF(CH3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="24"/>
-      <c r="CK3" s="30"/>
-      <c r="CL3" s="31"/>
-      <c r="CM3" s="32"/>
-      <c r="CN3" s="33"/>
-      <c r="CO3" s="29">
-        <f>IFERROR((VLOOKUP(CJ3,Scoring!$A:$B,2,0))+IF(CL3="y",1,0)+IF(CM3="y",1,0)+IF(CN3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CP3" s="24"/>
-      <c r="CQ3" s="30"/>
-      <c r="CR3" s="31"/>
-      <c r="CS3" s="32"/>
-      <c r="CT3" s="33"/>
-      <c r="CU3" s="29">
-        <f>IFERROR((VLOOKUP(CP3,Scoring!$A:$B,2,0))+IF(CR3="y",1,0)+IF(CS3="y",1,0)+IF(CT3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CV3" s="24"/>
-      <c r="CW3" s="30"/>
-      <c r="CX3" s="31"/>
-      <c r="CY3" s="32"/>
-      <c r="CZ3" s="33"/>
-      <c r="DA3" s="29">
-        <f>IFERROR((VLOOKUP(CV3,Scoring!$A:$B,2,0))+IF(CX3="y",1,0)+IF(CY3="y",1,0)+IF(CZ3="y",1,0),0)</f>
+      <c r="D3" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="J3" s="33">
+        <f>IFERROR((VLOOKUP(D3,Scoring!$A:$B,2,0))+IF(F3="y",1,0)+IF(G3="y",1,0)+IF(H3="y",1,0)+IF(I3="y",1,0),0)</f>
+        <v>25</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="33">
+        <f>IFERROR((VLOOKUP(K3,Scoring!$A:$B,2,0))+IF(M3="y",1,0)+IF(N3="y",1,0)+IF(O3="y",1,0)+IF(P3="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="27"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="33">
+        <f>IFERROR((VLOOKUP(R3,Scoring!$A:$B,2,0))+IF(T3="y",1,0)+IF(U3="y",1,0)+IF(V3="y",1,0)+IF(W3="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="33">
+        <f>IFERROR((VLOOKUP(Y3,Scoring!$A:$B,2,0))+IF(AA3="y",1,0)+IF(AB3="y",1,0)+IF(AC3="y",1,0)+IF(AD3="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="33">
+        <f>IFERROR((VLOOKUP(AF3,Scoring!$A:$B,2,0))+IF(AH3="y",1,0)+IF(AI3="y",1,0)+IF(AJ3="y",1,0)+IF(AK3="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="33">
+        <f>IFERROR((VLOOKUP(AM3,Scoring!$A:$B,2,0))+IF(AO3="y",1,0)+IF(AP3="y",1,0)+IF(AQ3="y",1,0)+IF(AR3="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="35"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="37"/>
+      <c r="AY3" s="38"/>
+      <c r="AZ3" s="33">
+        <f>IFERROR((VLOOKUP(AT3,Scoring!$A:$B,2,0))+IF(AV3="y",1,0)+IF(AW3="y",1,0)+IF(AX3="y",1,0)+IF(AY3="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="35"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="37"/>
+      <c r="BF3" s="38"/>
+      <c r="BG3" s="33">
+        <f>IFERROR((VLOOKUP(BA3,Scoring!$A:$B,2,0))+IF(BC3="y",1,0)+IF(BD3="y",1,0)+IF(BE3="y",1,0)+IF(BF3="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH3" s="27"/>
+      <c r="BI3" s="34"/>
+      <c r="BJ3" s="35"/>
+      <c r="BK3" s="36"/>
+      <c r="BL3" s="37"/>
+      <c r="BM3" s="38"/>
+      <c r="BN3" s="33">
+        <f>IFERROR((VLOOKUP(BH3,Scoring!$A:$B,2,0))+IF(BJ3="y",1,0)+IF(BK3="y",1,0)+IF(BL3="y",1,0)+IF(BM3="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO3" s="27"/>
+      <c r="BP3" s="34"/>
+      <c r="BQ3" s="35"/>
+      <c r="BR3" s="36"/>
+      <c r="BS3" s="37"/>
+      <c r="BT3" s="38"/>
+      <c r="BU3" s="33">
+        <f>IFERROR((VLOOKUP(BO3,Scoring!$A:$B,2,0))+IF(BQ3="y",1,0)+IF(BR3="y",1,0)+IF(BS3="y",1,0)+IF(BT3="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV3" s="27"/>
+      <c r="BW3" s="34"/>
+      <c r="BX3" s="35"/>
+      <c r="BY3" s="36"/>
+      <c r="BZ3" s="37"/>
+      <c r="CA3" s="38"/>
+      <c r="CB3" s="33">
+        <f>IFERROR((VLOOKUP(BV3,Scoring!$A:$B,2,0))+IF(BX3="y",1,0)+IF(BY3="y",1,0)+IF(BZ3="y",1,0)+IF(CA3="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC3" s="27"/>
+      <c r="CD3" s="34"/>
+      <c r="CE3" s="35"/>
+      <c r="CF3" s="36"/>
+      <c r="CG3" s="37"/>
+      <c r="CH3" s="38"/>
+      <c r="CI3" s="33">
+        <f>IFERROR((VLOOKUP(CC3,Scoring!$A:$B,2,0))+IF(CE3="y",1,0)+IF(CF3="y",1,0)+IF(CG3="y",1,0)+IF(CH3="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="27"/>
+      <c r="CK3" s="34"/>
+      <c r="CL3" s="35"/>
+      <c r="CM3" s="36"/>
+      <c r="CN3" s="37"/>
+      <c r="CO3" s="38"/>
+      <c r="CP3" s="33">
+        <f>IFERROR((VLOOKUP(CJ3,Scoring!$A:$B,2,0))+IF(CL3="y",1,0)+IF(CM3="y",1,0)+IF(CN3="y",1,0)+IF(CO3="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="27"/>
+      <c r="CR3" s="34"/>
+      <c r="CS3" s="35"/>
+      <c r="CT3" s="36"/>
+      <c r="CU3" s="37"/>
+      <c r="CV3" s="38"/>
+      <c r="CW3" s="33">
+        <f>IFERROR((VLOOKUP(CQ3,Scoring!$A:$B,2,0))+IF(CS3="y",1,0)+IF(CT3="y",1,0)+IF(CU3="y",1,0)+IF(CV3="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CX3" s="27"/>
+      <c r="CY3" s="34"/>
+      <c r="CZ3" s="35"/>
+      <c r="DA3" s="36"/>
+      <c r="DB3" s="37"/>
+      <c r="DC3" s="38"/>
+      <c r="DD3" s="33">
+        <f>IFERROR((VLOOKUP(CX3,Scoring!$A:$B,2,0))+IF(CZ3="y",1,0)+IF(DA3="y",1,0)+IF(DB3="y",1,0)+IF(DC3="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DE3" s="27"/>
+      <c r="DF3" s="34"/>
+      <c r="DG3" s="35"/>
+      <c r="DH3" s="36"/>
+      <c r="DI3" s="37"/>
+      <c r="DJ3" s="38"/>
+      <c r="DK3" s="33">
+        <f>IFERROR((VLOOKUP(DE3,Scoring!$A:$B,2,0))+IF(DG3="y",1,0)+IF(DH3="y",1,0)+IF(DI3="y",1,0)+IF(DJ3="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DL3" s="27"/>
+      <c r="DM3" s="34"/>
+      <c r="DN3" s="35"/>
+      <c r="DO3" s="36"/>
+      <c r="DP3" s="37"/>
+      <c r="DQ3" s="38"/>
+      <c r="DR3" s="33">
+        <f>IFERROR((VLOOKUP(DL3,Scoring!$A:$B,2,0))+IF(DN3="y",1,0)+IF(DO3="y",1,0)+IF(DP3="y",1,0)+IF(DQ3="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="37">
-        <v>3.0</v>
-      </c>
-      <c r="E4" s="38">
-        <v>3.0</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="42">
-        <f>IFERROR((VLOOKUP(D4,Scoring!$A:$B,2,0))+IF(F4="y",1,0)+IF(G4="y",1,0)+IF(H4="y",1,0),0)</f>
-        <v>15</v>
-      </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="42">
-        <f>IFERROR((VLOOKUP(J4,Scoring!$D:$E,2,0))+IF(L4="y",1,0)+IF(M4="y",1,0)+IF(N4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="42">
-        <f>IFERROR((VLOOKUP(P4,Scoring!$A:$B,2,0))+IF(R4="y",1,0)+IF(S4="y",1,0)+IF(T4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="37"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="42">
-        <f>IFERROR((VLOOKUP(V4,Scoring!$A:$B,2,0))+IF(X4="y",1,0)+IF(Y4="y",1,0)+IF(Z4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="42">
-        <f>IFERROR((VLOOKUP(AB4,Scoring!$A:$B,2,0))+IF(AD4="y",1,0)+IF(AE4="y",1,0)+IF(AF4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="45"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="42">
-        <f>IFERROR((VLOOKUP(AH4,Scoring!$A:$B,2,0))+IF(AJ4="y",1,0)+IF(AK4="y",1,0)+IF(AL4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="42">
-        <f>IFERROR((VLOOKUP(AN4,Scoring!$A:$B,2,0))+IF(AP4="y",1,0)+IF(AQ4="y",1,0)+IF(AR4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT4" s="37"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="45"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="42">
-        <f>IFERROR((VLOOKUP(AT4,Scoring!$D:$E,2,0))+IF(AV4="y",1,0)+IF(AW4="y",1,0)+IF(AX4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="37"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="44"/>
-      <c r="BC4" s="45"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="42">
-        <f>IFERROR((VLOOKUP(AZ4,Scoring!$A:$B,2,0))+IF(BB4="y",1,0)+IF(BC4="y",1,0)+IF(BD4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BF4" s="37"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="44"/>
-      <c r="BI4" s="45"/>
-      <c r="BJ4" s="46"/>
-      <c r="BK4" s="42">
-        <f>IFERROR((VLOOKUP(BF4,Scoring!$D:$E,2,0))+IF(BH4="y",1,0)+IF(BI4="y",1,0)+IF(BJ4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL4" s="37"/>
-      <c r="BM4" s="43"/>
-      <c r="BN4" s="44"/>
-      <c r="BO4" s="45"/>
-      <c r="BP4" s="46"/>
-      <c r="BQ4" s="42">
-        <f>IFERROR((VLOOKUP(BL4,Scoring!$A:$B,2,0))+IF(BN4="y",1,0)+IF(BO4="y",1,0)+IF(BP4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR4" s="37"/>
-      <c r="BS4" s="43"/>
-      <c r="BT4" s="44"/>
-      <c r="BU4" s="45"/>
-      <c r="BV4" s="46"/>
-      <c r="BW4" s="42">
-        <f>IFERROR((VLOOKUP(BR4,Scoring!$A:$B,2,0))+IF(BT4="y",1,0)+IF(BU4="y",1,0)+IF(BV4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BX4" s="37"/>
-      <c r="BY4" s="43"/>
-      <c r="BZ4" s="44"/>
-      <c r="CA4" s="45"/>
-      <c r="CB4" s="46"/>
-      <c r="CC4" s="42">
-        <f>IFERROR((VLOOKUP(BX4,Scoring!$A:$B,2,0))+IF(BZ4="y",1,0)+IF(CA4="y",1,0)+IF(CB4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD4" s="37"/>
-      <c r="CE4" s="43"/>
-      <c r="CF4" s="44"/>
-      <c r="CG4" s="45"/>
-      <c r="CH4" s="46"/>
-      <c r="CI4" s="42">
-        <f>IFERROR((VLOOKUP(CD4,Scoring!$A:$B,2,0))+IF(CF4="y",1,0)+IF(CG4="y",1,0)+IF(CH4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ4" s="37"/>
-      <c r="CK4" s="43"/>
-      <c r="CL4" s="44"/>
-      <c r="CM4" s="45"/>
-      <c r="CN4" s="46"/>
-      <c r="CO4" s="42">
-        <f>IFERROR((VLOOKUP(CJ4,Scoring!$A:$B,2,0))+IF(CL4="y",1,0)+IF(CM4="y",1,0)+IF(CN4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CP4" s="37"/>
-      <c r="CQ4" s="43"/>
-      <c r="CR4" s="44"/>
-      <c r="CS4" s="45"/>
-      <c r="CT4" s="46"/>
-      <c r="CU4" s="42">
-        <f>IFERROR((VLOOKUP(CP4,Scoring!$A:$B,2,0))+IF(CR4="y",1,0)+IF(CS4="y",1,0)+IF(CT4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CV4" s="37"/>
-      <c r="CW4" s="43"/>
-      <c r="CX4" s="44"/>
-      <c r="CY4" s="45"/>
-      <c r="CZ4" s="46"/>
-      <c r="DA4" s="47">
-        <f>IFERROR((VLOOKUP(CV4,Scoring!$A:$B,2,0))+IF(CX4="y",1,0)+IF(CY4="y",1,0)+IF(CZ4="y",1,0),0)</f>
+      <c r="D4" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="48">
+        <f>IFERROR((VLOOKUP(D4,Scoring!$A:$B,2,0))+IF(F4="y",1,0)+IF(G4="y",1,0)+IF(H4="y",1,0)+IF(I4="y",1,0),0)</f>
+        <v>25</v>
+      </c>
+      <c r="K4" s="42"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="48">
+        <f>IFERROR((VLOOKUP(K4,Scoring!$A:$B,2,0))+IF(M4="y",1,0)+IF(N4="y",1,0)+IF(O4="y",1,0)+IF(P4="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="42"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="48">
+        <f>IFERROR((VLOOKUP(R4,Scoring!$A:$B,2,0))+IF(T4="y",1,0)+IF(U4="y",1,0)+IF(V4="y",1,0)+IF(W4="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="48">
+        <f>IFERROR((VLOOKUP(Y4,Scoring!$A:$B,2,0))+IF(AA4="y",1,0)+IF(AB4="y",1,0)+IF(AC4="y",1,0)+IF(AD4="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="48">
+        <f>IFERROR((VLOOKUP(AF4,Scoring!$A:$B,2,0))+IF(AH4="y",1,0)+IF(AI4="y",1,0)+IF(AJ4="y",1,0)+IF(AK4="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="48">
+        <f>IFERROR((VLOOKUP(AM4,Scoring!$A:$B,2,0))+IF(AO4="y",1,0)+IF(AP4="y",1,0)+IF(AQ4="y",1,0)+IF(AR4="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="52"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="48">
+        <f>IFERROR((VLOOKUP(AT4,Scoring!$A:$B,2,0))+IF(AV4="y",1,0)+IF(AW4="y",1,0)+IF(AX4="y",1,0)+IF(AY4="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="50"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="53"/>
+      <c r="BG4" s="48">
+        <f>IFERROR((VLOOKUP(BA4,Scoring!$A:$B,2,0))+IF(BC4="y",1,0)+IF(BD4="y",1,0)+IF(BE4="y",1,0)+IF(BF4="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH4" s="42"/>
+      <c r="BI4" s="49"/>
+      <c r="BJ4" s="50"/>
+      <c r="BK4" s="51"/>
+      <c r="BL4" s="52"/>
+      <c r="BM4" s="53"/>
+      <c r="BN4" s="48">
+        <f>IFERROR((VLOOKUP(BH4,Scoring!$A:$B,2,0))+IF(BJ4="y",1,0)+IF(BK4="y",1,0)+IF(BL4="y",1,0)+IF(BM4="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="49"/>
+      <c r="BQ4" s="50"/>
+      <c r="BR4" s="51"/>
+      <c r="BS4" s="52"/>
+      <c r="BT4" s="53"/>
+      <c r="BU4" s="48">
+        <f>IFERROR((VLOOKUP(BO4,Scoring!$A:$B,2,0))+IF(BQ4="y",1,0)+IF(BR4="y",1,0)+IF(BS4="y",1,0)+IF(BT4="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV4" s="42"/>
+      <c r="BW4" s="49"/>
+      <c r="BX4" s="50"/>
+      <c r="BY4" s="51"/>
+      <c r="BZ4" s="52"/>
+      <c r="CA4" s="53"/>
+      <c r="CB4" s="48">
+        <f>IFERROR((VLOOKUP(BV4,Scoring!$A:$B,2,0))+IF(BX4="y",1,0)+IF(BY4="y",1,0)+IF(BZ4="y",1,0)+IF(CA4="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC4" s="42"/>
+      <c r="CD4" s="49"/>
+      <c r="CE4" s="50"/>
+      <c r="CF4" s="51"/>
+      <c r="CG4" s="52"/>
+      <c r="CH4" s="53"/>
+      <c r="CI4" s="48">
+        <f>IFERROR((VLOOKUP(CC4,Scoring!$A:$B,2,0))+IF(CE4="y",1,0)+IF(CF4="y",1,0)+IF(CG4="y",1,0)+IF(CH4="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="42"/>
+      <c r="CK4" s="49"/>
+      <c r="CL4" s="50"/>
+      <c r="CM4" s="51"/>
+      <c r="CN4" s="52"/>
+      <c r="CO4" s="53"/>
+      <c r="CP4" s="48">
+        <f>IFERROR((VLOOKUP(CJ4,Scoring!$A:$B,2,0))+IF(CL4="y",1,0)+IF(CM4="y",1,0)+IF(CN4="y",1,0)+IF(CO4="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="42"/>
+      <c r="CR4" s="49"/>
+      <c r="CS4" s="50"/>
+      <c r="CT4" s="51"/>
+      <c r="CU4" s="52"/>
+      <c r="CV4" s="53"/>
+      <c r="CW4" s="48">
+        <f>IFERROR((VLOOKUP(CQ4,Scoring!$A:$B,2,0))+IF(CS4="y",1,0)+IF(CT4="y",1,0)+IF(CU4="y",1,0)+IF(CV4="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CX4" s="42"/>
+      <c r="CY4" s="49"/>
+      <c r="CZ4" s="50"/>
+      <c r="DA4" s="51"/>
+      <c r="DB4" s="52"/>
+      <c r="DC4" s="53"/>
+      <c r="DD4" s="48">
+        <f>IFERROR((VLOOKUP(CX4,Scoring!$A:$B,2,0))+IF(CZ4="y",1,0)+IF(DA4="y",1,0)+IF(DB4="y",1,0)+IF(DC4="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DE4" s="42"/>
+      <c r="DF4" s="49"/>
+      <c r="DG4" s="50"/>
+      <c r="DH4" s="51"/>
+      <c r="DI4" s="52"/>
+      <c r="DJ4" s="53"/>
+      <c r="DK4" s="48">
+        <f>IFERROR((VLOOKUP(DE4,Scoring!$A:$B,2,0))+IF(DG4="y",1,0)+IF(DH4="y",1,0)+IF(DI4="y",1,0)+IF(DJ4="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DL4" s="42"/>
+      <c r="DM4" s="49"/>
+      <c r="DN4" s="50"/>
+      <c r="DO4" s="51"/>
+      <c r="DP4" s="52"/>
+      <c r="DQ4" s="53"/>
+      <c r="DR4" s="48">
+        <f>IFERROR((VLOOKUP(DL4,Scoring!$A:$B,2,0))+IF(DN4="y",1,0)+IF(DO4="y",1,0)+IF(DP4="y",1,0)+IF(DQ4="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="51">
-        <v>4.0</v>
-      </c>
-      <c r="E5" s="52">
-        <v>4.0</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="56">
-        <f>IFERROR((VLOOKUP(D5,Scoring!$A:$B,2,0))+IF(F5="y",1,0)+IF(G5="y",1,0)+IF(H5="y",1,0),0)</f>
-        <v>12</v>
-      </c>
-      <c r="J5" s="51"/>
+      <c r="D5" s="57">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="J5" s="63">
+        <f>IFERROR((VLOOKUP(D5,Scoring!$A:$B,2,0))+IF(F5="y",1,0)+IF(G5="y",1,0)+IF(H5="y",1,0)+IF(I5="y",1,0),0)</f>
+        <v>25</v>
+      </c>
       <c r="K5" s="57"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="56">
-        <f>IFERROR((VLOOKUP(J5,Scoring!$D:$E,2,0))+IF(L5="y",1,0)+IF(M5="y",1,0)+IF(N5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="56">
-        <f>IFERROR((VLOOKUP(P5,Scoring!$A:$B,2,0))+IF(R5="y",1,0)+IF(S5="y",1,0)+IF(T5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="51"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="56">
-        <f>IFERROR((VLOOKUP(V5,Scoring!$A:$B,2,0))+IF(X5="y",1,0)+IF(Y5="y",1,0)+IF(Z5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="56">
-        <f>IFERROR((VLOOKUP(AB5,Scoring!$A:$B,2,0))+IF(AD5="y",1,0)+IF(AE5="y",1,0)+IF(AF5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="57"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="60"/>
-      <c r="AM5" s="56">
-        <f>IFERROR((VLOOKUP(AH5,Scoring!$A:$B,2,0))+IF(AJ5="y",1,0)+IF(AK5="y",1,0)+IF(AL5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="57"/>
-      <c r="AP5" s="58"/>
-      <c r="AQ5" s="59"/>
-      <c r="AR5" s="60"/>
-      <c r="AS5" s="56">
-        <f>IFERROR((VLOOKUP(AN5,Scoring!$A:$B,2,0))+IF(AP5="y",1,0)+IF(AQ5="y",1,0)+IF(AR5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT5" s="51"/>
-      <c r="AU5" s="57"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="59"/>
-      <c r="AX5" s="60"/>
-      <c r="AY5" s="56">
-        <f>IFERROR((VLOOKUP(AT5,Scoring!$D:$E,2,0))+IF(AV5="y",1,0)+IF(AW5="y",1,0)+IF(AX5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="51"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="63">
+        <f>IFERROR((VLOOKUP(K5,Scoring!$A:$B,2,0))+IF(M5="y",1,0)+IF(N5="y",1,0)+IF(O5="y",1,0)+IF(P5="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="57"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="63">
+        <f>IFERROR((VLOOKUP(R5,Scoring!$A:$B,2,0))+IF(T5="y",1,0)+IF(U5="y",1,0)+IF(V5="y",1,0)+IF(W5="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="63">
+        <f>IFERROR((VLOOKUP(Y5,Scoring!$A:$B,2,0))+IF(AA5="y",1,0)+IF(AB5="y",1,0)+IF(AC5="y",1,0)+IF(AD5="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="65"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="63">
+        <f>IFERROR((VLOOKUP(AF5,Scoring!$A:$B,2,0))+IF(AH5="y",1,0)+IF(AI5="y",1,0)+IF(AJ5="y",1,0)+IF(AK5="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="65"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="63">
+        <f>IFERROR((VLOOKUP(AM5,Scoring!$A:$B,2,0))+IF(AO5="y",1,0)+IF(AP5="y",1,0)+IF(AQ5="y",1,0)+IF(AR5="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="64"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="66"/>
+      <c r="AX5" s="67"/>
+      <c r="AY5" s="68"/>
+      <c r="AZ5" s="63">
+        <f>IFERROR((VLOOKUP(AT5,Scoring!$A:$B,2,0))+IF(AV5="y",1,0)+IF(AW5="y",1,0)+IF(AX5="y",1,0)+IF(AY5="y",1,0),0)</f>
+        <v>0</v>
+      </c>
       <c r="BA5" s="57"/>
-      <c r="BB5" s="58"/>
-      <c r="BC5" s="59"/>
-      <c r="BD5" s="60"/>
-      <c r="BE5" s="56">
-        <f>IFERROR((VLOOKUP(AZ5,Scoring!$A:$B,2,0))+IF(BB5="y",1,0)+IF(BC5="y",1,0)+IF(BD5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BF5" s="51"/>
-      <c r="BG5" s="57"/>
-      <c r="BH5" s="58"/>
-      <c r="BI5" s="59"/>
-      <c r="BJ5" s="60"/>
-      <c r="BK5" s="56">
-        <f>IFERROR((VLOOKUP(BF5,Scoring!$D:$E,2,0))+IF(BH5="y",1,0)+IF(BI5="y",1,0)+IF(BJ5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL5" s="51"/>
-      <c r="BM5" s="57"/>
-      <c r="BN5" s="58"/>
-      <c r="BO5" s="59"/>
-      <c r="BP5" s="60"/>
-      <c r="BQ5" s="56">
-        <f>IFERROR((VLOOKUP(BL5,Scoring!$A:$B,2,0))+IF(BN5="y",1,0)+IF(BO5="y",1,0)+IF(BP5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR5" s="51"/>
-      <c r="BS5" s="57"/>
-      <c r="BT5" s="58"/>
-      <c r="BU5" s="59"/>
-      <c r="BV5" s="60"/>
-      <c r="BW5" s="56">
-        <f>IFERROR((VLOOKUP(BR5,Scoring!$A:$B,2,0))+IF(BT5="y",1,0)+IF(BU5="y",1,0)+IF(BV5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BX5" s="51"/>
-      <c r="BY5" s="57"/>
-      <c r="BZ5" s="58"/>
-      <c r="CA5" s="59"/>
-      <c r="CB5" s="60"/>
-      <c r="CC5" s="56">
-        <f>IFERROR((VLOOKUP(BX5,Scoring!$A:$B,2,0))+IF(BZ5="y",1,0)+IF(CA5="y",1,0)+IF(CB5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD5" s="51"/>
-      <c r="CE5" s="57"/>
-      <c r="CF5" s="58"/>
-      <c r="CG5" s="59"/>
-      <c r="CH5" s="60"/>
-      <c r="CI5" s="56">
-        <f>IFERROR((VLOOKUP(CD5,Scoring!$A:$B,2,0))+IF(CF5="y",1,0)+IF(CG5="y",1,0)+IF(CH5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="51"/>
-      <c r="CK5" s="57"/>
-      <c r="CL5" s="58"/>
-      <c r="CM5" s="59"/>
-      <c r="CN5" s="60"/>
-      <c r="CO5" s="56">
-        <f>IFERROR((VLOOKUP(CJ5,Scoring!$A:$B,2,0))+IF(CL5="y",1,0)+IF(CM5="y",1,0)+IF(CN5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CP5" s="51"/>
+      <c r="BB5" s="64"/>
+      <c r="BC5" s="65"/>
+      <c r="BD5" s="66"/>
+      <c r="BE5" s="67"/>
+      <c r="BF5" s="68"/>
+      <c r="BG5" s="63">
+        <f>IFERROR((VLOOKUP(BA5,Scoring!$A:$B,2,0))+IF(BC5="y",1,0)+IF(BD5="y",1,0)+IF(BE5="y",1,0)+IF(BF5="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH5" s="57"/>
+      <c r="BI5" s="64"/>
+      <c r="BJ5" s="65"/>
+      <c r="BK5" s="66"/>
+      <c r="BL5" s="67"/>
+      <c r="BM5" s="68"/>
+      <c r="BN5" s="63">
+        <f>IFERROR((VLOOKUP(BH5,Scoring!$A:$B,2,0))+IF(BJ5="y",1,0)+IF(BK5="y",1,0)+IF(BL5="y",1,0)+IF(BM5="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO5" s="57"/>
+      <c r="BP5" s="64"/>
+      <c r="BQ5" s="65"/>
+      <c r="BR5" s="66"/>
+      <c r="BS5" s="67"/>
+      <c r="BT5" s="68"/>
+      <c r="BU5" s="63">
+        <f>IFERROR((VLOOKUP(BO5,Scoring!$A:$B,2,0))+IF(BQ5="y",1,0)+IF(BR5="y",1,0)+IF(BS5="y",1,0)+IF(BT5="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV5" s="57"/>
+      <c r="BW5" s="64"/>
+      <c r="BX5" s="65"/>
+      <c r="BY5" s="66"/>
+      <c r="BZ5" s="67"/>
+      <c r="CA5" s="68"/>
+      <c r="CB5" s="63">
+        <f>IFERROR((VLOOKUP(BV5,Scoring!$A:$B,2,0))+IF(BX5="y",1,0)+IF(BY5="y",1,0)+IF(BZ5="y",1,0)+IF(CA5="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC5" s="57"/>
+      <c r="CD5" s="64"/>
+      <c r="CE5" s="65"/>
+      <c r="CF5" s="66"/>
+      <c r="CG5" s="67"/>
+      <c r="CH5" s="68"/>
+      <c r="CI5" s="63">
+        <f>IFERROR((VLOOKUP(CC5,Scoring!$A:$B,2,0))+IF(CE5="y",1,0)+IF(CF5="y",1,0)+IF(CG5="y",1,0)+IF(CH5="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="57"/>
+      <c r="CK5" s="64"/>
+      <c r="CL5" s="65"/>
+      <c r="CM5" s="66"/>
+      <c r="CN5" s="67"/>
+      <c r="CO5" s="68"/>
+      <c r="CP5" s="63">
+        <f>IFERROR((VLOOKUP(CJ5,Scoring!$A:$B,2,0))+IF(CL5="y",1,0)+IF(CM5="y",1,0)+IF(CN5="y",1,0)+IF(CO5="y",1,0),0)</f>
+        <v>0</v>
+      </c>
       <c r="CQ5" s="57"/>
-      <c r="CR5" s="58"/>
-      <c r="CS5" s="59"/>
-      <c r="CT5" s="60"/>
-      <c r="CU5" s="56">
-        <f>IFERROR((VLOOKUP(CP5,Scoring!$A:$B,2,0))+IF(CR5="y",1,0)+IF(CS5="y",1,0)+IF(CT5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CV5" s="51"/>
-      <c r="CW5" s="57"/>
-      <c r="CX5" s="58"/>
-      <c r="CY5" s="59"/>
-      <c r="CZ5" s="60"/>
-      <c r="DA5" s="61">
-        <f>IFERROR((VLOOKUP(CV5,Scoring!$A:$B,2,0))+IF(CX5="y",1,0)+IF(CY5="y",1,0)+IF(CZ5="y",1,0),0)</f>
+      <c r="CR5" s="64"/>
+      <c r="CS5" s="65"/>
+      <c r="CT5" s="66"/>
+      <c r="CU5" s="67"/>
+      <c r="CV5" s="68"/>
+      <c r="CW5" s="63">
+        <f>IFERROR((VLOOKUP(CQ5,Scoring!$A:$B,2,0))+IF(CS5="y",1,0)+IF(CT5="y",1,0)+IF(CU5="y",1,0)+IF(CV5="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CX5" s="57"/>
+      <c r="CY5" s="64"/>
+      <c r="CZ5" s="65"/>
+      <c r="DA5" s="66"/>
+      <c r="DB5" s="67"/>
+      <c r="DC5" s="68"/>
+      <c r="DD5" s="63">
+        <f>IFERROR((VLOOKUP(CX5,Scoring!$A:$B,2,0))+IF(CZ5="y",1,0)+IF(DA5="y",1,0)+IF(DB5="y",1,0)+IF(DC5="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DE5" s="57"/>
+      <c r="DF5" s="64"/>
+      <c r="DG5" s="65"/>
+      <c r="DH5" s="66"/>
+      <c r="DI5" s="67"/>
+      <c r="DJ5" s="68"/>
+      <c r="DK5" s="63">
+        <f>IFERROR((VLOOKUP(DE5,Scoring!$A:$B,2,0))+IF(DG5="y",1,0)+IF(DH5="y",1,0)+IF(DI5="y",1,0)+IF(DJ5="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DL5" s="57"/>
+      <c r="DM5" s="64"/>
+      <c r="DN5" s="65"/>
+      <c r="DO5" s="66"/>
+      <c r="DP5" s="67"/>
+      <c r="DQ5" s="68"/>
+      <c r="DR5" s="63">
+        <f>IFERROR((VLOOKUP(DL5,Scoring!$A:$B,2,0))+IF(DN5="y",1,0)+IF(DO5="y",1,0)+IF(DP5="y",1,0)+IF(DQ5="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>173</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="E6" s="25">
-        <v>5.0</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="29">
-        <f>IFERROR((VLOOKUP(D6,Scoring!$A:$B,2,0))+IF(F6="y",1,0)+IF(G6="y",1,0)+IF(H6="y",1,0),0)</f>
-        <v>10</v>
-      </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="29">
-        <f>IFERROR((VLOOKUP(J6,Scoring!$D:$E,2,0))+IF(L6="y",1,0)+IF(M6="y",1,0)+IF(N6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="29">
-        <f>IFERROR((VLOOKUP(P6,Scoring!$A:$B,2,0))+IF(R6="y",1,0)+IF(S6="y",1,0)+IF(T6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="24"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="29">
-        <f>IFERROR((VLOOKUP(V6,Scoring!$A:$B,2,0))+IF(X6="y",1,0)+IF(Y6="y",1,0)+IF(Z6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="29">
-        <f>IFERROR((VLOOKUP(AB6,Scoring!$A:$B,2,0))+IF(AD6="y",1,0)+IF(AE6="y",1,0)+IF(AF6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="29">
-        <f>IFERROR((VLOOKUP(AH6,Scoring!$A:$B,2,0))+IF(AJ6="y",1,0)+IF(AK6="y",1,0)+IF(AL6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="31"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="33"/>
-      <c r="AS6" s="29">
-        <f>IFERROR((VLOOKUP(AN6,Scoring!$A:$B,2,0))+IF(AP6="y",1,0)+IF(AQ6="y",1,0)+IF(AR6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT6" s="24"/>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="31"/>
-      <c r="AW6" s="32"/>
-      <c r="AX6" s="33"/>
-      <c r="AY6" s="29">
-        <f>IFERROR((VLOOKUP(AT6,Scoring!$D:$E,2,0))+IF(AV6="y",1,0)+IF(AW6="y",1,0)+IF(AX6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="24"/>
-      <c r="BA6" s="30"/>
-      <c r="BB6" s="31"/>
-      <c r="BC6" s="32"/>
-      <c r="BD6" s="33"/>
-      <c r="BE6" s="29">
-        <f>IFERROR((VLOOKUP(AZ6,Scoring!$A:$B,2,0))+IF(BB6="y",1,0)+IF(BC6="y",1,0)+IF(BD6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BF6" s="24"/>
-      <c r="BG6" s="30"/>
-      <c r="BH6" s="31"/>
-      <c r="BI6" s="32"/>
-      <c r="BJ6" s="33"/>
-      <c r="BK6" s="29">
-        <f>IFERROR((VLOOKUP(BF6,Scoring!$D:$E,2,0))+IF(BH6="y",1,0)+IF(BI6="y",1,0)+IF(BJ6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL6" s="24"/>
-      <c r="BM6" s="30"/>
-      <c r="BN6" s="31"/>
-      <c r="BO6" s="32"/>
-      <c r="BP6" s="33"/>
-      <c r="BQ6" s="29">
-        <f>IFERROR((VLOOKUP(BL6,Scoring!$A:$B,2,0))+IF(BN6="y",1,0)+IF(BO6="y",1,0)+IF(BP6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR6" s="24"/>
-      <c r="BS6" s="30"/>
-      <c r="BT6" s="31"/>
-      <c r="BU6" s="32"/>
-      <c r="BV6" s="33"/>
-      <c r="BW6" s="29">
-        <f>IFERROR((VLOOKUP(BR6,Scoring!$A:$B,2,0))+IF(BT6="y",1,0)+IF(BU6="y",1,0)+IF(BV6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BX6" s="24"/>
-      <c r="BY6" s="30"/>
-      <c r="BZ6" s="31"/>
-      <c r="CA6" s="32"/>
-      <c r="CB6" s="33"/>
-      <c r="CC6" s="29">
-        <f>IFERROR((VLOOKUP(BX6,Scoring!$A:$B,2,0))+IF(BZ6="y",1,0)+IF(CA6="y",1,0)+IF(CB6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD6" s="24"/>
-      <c r="CE6" s="30"/>
-      <c r="CF6" s="31"/>
-      <c r="CG6" s="32"/>
-      <c r="CH6" s="33"/>
-      <c r="CI6" s="29">
-        <f>IFERROR((VLOOKUP(CD6,Scoring!$A:$B,2,0))+IF(CF6="y",1,0)+IF(CG6="y",1,0)+IF(CH6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="24"/>
-      <c r="CK6" s="30"/>
-      <c r="CL6" s="31"/>
-      <c r="CM6" s="32"/>
-      <c r="CN6" s="33"/>
-      <c r="CO6" s="29">
-        <f>IFERROR((VLOOKUP(CJ6,Scoring!$A:$B,2,0))+IF(CL6="y",1,0)+IF(CM6="y",1,0)+IF(CN6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CP6" s="24"/>
-      <c r="CQ6" s="30"/>
-      <c r="CR6" s="31"/>
-      <c r="CS6" s="32"/>
-      <c r="CT6" s="33"/>
-      <c r="CU6" s="29">
-        <f>IFERROR((VLOOKUP(CP6,Scoring!$A:$B,2,0))+IF(CR6="y",1,0)+IF(CS6="y",1,0)+IF(CT6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CV6" s="24"/>
-      <c r="CW6" s="30"/>
-      <c r="CX6" s="31"/>
-      <c r="CY6" s="32"/>
-      <c r="CZ6" s="33"/>
-      <c r="DA6" s="29">
-        <f>IFERROR((VLOOKUP(CV6,Scoring!$A:$B,2,0))+IF(CX6="y",1,0)+IF(CY6="y",1,0)+IF(CZ6="y",1,0),0)</f>
+      <c r="D6" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="J6" s="33">
+        <f>IFERROR((VLOOKUP(D6,Scoring!$A:$B,2,0))+IF(F6="y",1,0)+IF(G6="y",1,0)+IF(H6="y",1,0)+IF(I6="y",1,0),0)</f>
+        <v>25</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="33">
+        <f>IFERROR((VLOOKUP(K6,Scoring!$A:$B,2,0))+IF(M6="y",1,0)+IF(N6="y",1,0)+IF(O6="y",1,0)+IF(P6="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="27"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="33">
+        <f>IFERROR((VLOOKUP(R6,Scoring!$A:$B,2,0))+IF(T6="y",1,0)+IF(U6="y",1,0)+IF(V6="y",1,0)+IF(W6="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="33">
+        <f>IFERROR((VLOOKUP(Y6,Scoring!$A:$B,2,0))+IF(AA6="y",1,0)+IF(AB6="y",1,0)+IF(AC6="y",1,0)+IF(AD6="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="33">
+        <f>IFERROR((VLOOKUP(AF6,Scoring!$A:$B,2,0))+IF(AH6="y",1,0)+IF(AI6="y",1,0)+IF(AJ6="y",1,0)+IF(AK6="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="37"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="33">
+        <f>IFERROR((VLOOKUP(AM6,Scoring!$A:$B,2,0))+IF(AO6="y",1,0)+IF(AP6="y",1,0)+IF(AQ6="y",1,0)+IF(AR6="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT6" s="27"/>
+      <c r="AU6" s="34"/>
+      <c r="AV6" s="35"/>
+      <c r="AW6" s="36"/>
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="38"/>
+      <c r="AZ6" s="33">
+        <f>IFERROR((VLOOKUP(AT6,Scoring!$A:$B,2,0))+IF(AV6="y",1,0)+IF(AW6="y",1,0)+IF(AX6="y",1,0)+IF(AY6="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA6" s="27"/>
+      <c r="BB6" s="34"/>
+      <c r="BC6" s="35"/>
+      <c r="BD6" s="36"/>
+      <c r="BE6" s="37"/>
+      <c r="BF6" s="38"/>
+      <c r="BG6" s="33">
+        <f>IFERROR((VLOOKUP(BA6,Scoring!$A:$B,2,0))+IF(BC6="y",1,0)+IF(BD6="y",1,0)+IF(BE6="y",1,0)+IF(BF6="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH6" s="27"/>
+      <c r="BI6" s="34"/>
+      <c r="BJ6" s="35"/>
+      <c r="BK6" s="36"/>
+      <c r="BL6" s="37"/>
+      <c r="BM6" s="38"/>
+      <c r="BN6" s="33">
+        <f>IFERROR((VLOOKUP(BH6,Scoring!$A:$B,2,0))+IF(BJ6="y",1,0)+IF(BK6="y",1,0)+IF(BL6="y",1,0)+IF(BM6="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO6" s="27"/>
+      <c r="BP6" s="34"/>
+      <c r="BQ6" s="35"/>
+      <c r="BR6" s="36"/>
+      <c r="BS6" s="37"/>
+      <c r="BT6" s="38"/>
+      <c r="BU6" s="33">
+        <f>IFERROR((VLOOKUP(BO6,Scoring!$A:$B,2,0))+IF(BQ6="y",1,0)+IF(BR6="y",1,0)+IF(BS6="y",1,0)+IF(BT6="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV6" s="27"/>
+      <c r="BW6" s="34"/>
+      <c r="BX6" s="35"/>
+      <c r="BY6" s="36"/>
+      <c r="BZ6" s="37"/>
+      <c r="CA6" s="38"/>
+      <c r="CB6" s="33">
+        <f>IFERROR((VLOOKUP(BV6,Scoring!$A:$B,2,0))+IF(BX6="y",1,0)+IF(BY6="y",1,0)+IF(BZ6="y",1,0)+IF(CA6="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC6" s="27"/>
+      <c r="CD6" s="34"/>
+      <c r="CE6" s="35"/>
+      <c r="CF6" s="36"/>
+      <c r="CG6" s="37"/>
+      <c r="CH6" s="38"/>
+      <c r="CI6" s="33">
+        <f>IFERROR((VLOOKUP(CC6,Scoring!$A:$B,2,0))+IF(CE6="y",1,0)+IF(CF6="y",1,0)+IF(CG6="y",1,0)+IF(CH6="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="27"/>
+      <c r="CK6" s="34"/>
+      <c r="CL6" s="35"/>
+      <c r="CM6" s="36"/>
+      <c r="CN6" s="37"/>
+      <c r="CO6" s="38"/>
+      <c r="CP6" s="33">
+        <f>IFERROR((VLOOKUP(CJ6,Scoring!$A:$B,2,0))+IF(CL6="y",1,0)+IF(CM6="y",1,0)+IF(CN6="y",1,0)+IF(CO6="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="27"/>
+      <c r="CR6" s="34"/>
+      <c r="CS6" s="35"/>
+      <c r="CT6" s="36"/>
+      <c r="CU6" s="37"/>
+      <c r="CV6" s="38"/>
+      <c r="CW6" s="33">
+        <f>IFERROR((VLOOKUP(CQ6,Scoring!$A:$B,2,0))+IF(CS6="y",1,0)+IF(CT6="y",1,0)+IF(CU6="y",1,0)+IF(CV6="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CX6" s="27"/>
+      <c r="CY6" s="34"/>
+      <c r="CZ6" s="35"/>
+      <c r="DA6" s="36"/>
+      <c r="DB6" s="37"/>
+      <c r="DC6" s="38"/>
+      <c r="DD6" s="33">
+        <f>IFERROR((VLOOKUP(CX6,Scoring!$A:$B,2,0))+IF(CZ6="y",1,0)+IF(DA6="y",1,0)+IF(DB6="y",1,0)+IF(DC6="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DE6" s="27"/>
+      <c r="DF6" s="34"/>
+      <c r="DG6" s="35"/>
+      <c r="DH6" s="36"/>
+      <c r="DI6" s="37"/>
+      <c r="DJ6" s="38"/>
+      <c r="DK6" s="33">
+        <f>IFERROR((VLOOKUP(DE6,Scoring!$A:$B,2,0))+IF(DG6="y",1,0)+IF(DH6="y",1,0)+IF(DI6="y",1,0)+IF(DJ6="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DL6" s="27"/>
+      <c r="DM6" s="34"/>
+      <c r="DN6" s="35"/>
+      <c r="DO6" s="36"/>
+      <c r="DP6" s="37"/>
+      <c r="DQ6" s="38"/>
+      <c r="DR6" s="33">
+        <f>IFERROR((VLOOKUP(DL6,Scoring!$A:$B,2,0))+IF(DN6="y",1,0)+IF(DO6="y",1,0)+IF(DP6="y",1,0)+IF(DQ6="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>173</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="D7" s="24">
-        <v>6.0</v>
-      </c>
-      <c r="E7" s="25">
-        <v>6.0</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="29">
-        <f>IFERROR((VLOOKUP(D7,Scoring!$A:$B,2,0))+IF(F7="y",1,0)+IF(G7="y",1,0)+IF(H7="y",1,0),0)</f>
-        <v>8</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="29">
-        <f>IFERROR((VLOOKUP(J7,Scoring!$D:$E,2,0))+IF(L7="y",1,0)+IF(M7="y",1,0)+IF(N7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="29">
-        <f>IFERROR((VLOOKUP(P7,Scoring!$A:$B,2,0))+IF(R7="y",1,0)+IF(S7="y",1,0)+IF(T7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="24"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="29">
-        <f>IFERROR((VLOOKUP(V7,Scoring!$A:$B,2,0))+IF(X7="y",1,0)+IF(Y7="y",1,0)+IF(Z7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="29">
-        <f>IFERROR((VLOOKUP(AB7,Scoring!$A:$B,2,0))+IF(AD7="y",1,0)+IF(AE7="y",1,0)+IF(AF7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="29">
-        <f>IFERROR((VLOOKUP(AH7,Scoring!$A:$B,2,0))+IF(AJ7="y",1,0)+IF(AK7="y",1,0)+IF(AL7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="30"/>
-      <c r="AP7" s="31"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="33"/>
-      <c r="AS7" s="29">
-        <f>IFERROR((VLOOKUP(AN7,Scoring!$A:$B,2,0))+IF(AP7="y",1,0)+IF(AQ7="y",1,0)+IF(AR7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT7" s="24"/>
-      <c r="AU7" s="30"/>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="33"/>
-      <c r="AY7" s="29">
-        <f>IFERROR((VLOOKUP(AT7,Scoring!$D:$E,2,0))+IF(AV7="y",1,0)+IF(AW7="y",1,0)+IF(AX7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="24"/>
-      <c r="BA7" s="30"/>
-      <c r="BB7" s="31"/>
-      <c r="BC7" s="32"/>
-      <c r="BD7" s="33"/>
-      <c r="BE7" s="29">
-        <f>IFERROR((VLOOKUP(AZ7,Scoring!$A:$B,2,0))+IF(BB7="y",1,0)+IF(BC7="y",1,0)+IF(BD7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BF7" s="24"/>
-      <c r="BG7" s="30"/>
-      <c r="BH7" s="31"/>
-      <c r="BI7" s="32"/>
-      <c r="BJ7" s="33"/>
-      <c r="BK7" s="29">
-        <f>IFERROR((VLOOKUP(BF7,Scoring!$D:$E,2,0))+IF(BH7="y",1,0)+IF(BI7="y",1,0)+IF(BJ7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL7" s="24"/>
-      <c r="BM7" s="30"/>
-      <c r="BN7" s="31"/>
-      <c r="BO7" s="32"/>
-      <c r="BP7" s="33"/>
-      <c r="BQ7" s="29">
-        <f>IFERROR((VLOOKUP(BL7,Scoring!$A:$B,2,0))+IF(BN7="y",1,0)+IF(BO7="y",1,0)+IF(BP7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR7" s="24"/>
-      <c r="BS7" s="30"/>
-      <c r="BT7" s="31"/>
-      <c r="BU7" s="32"/>
-      <c r="BV7" s="33"/>
-      <c r="BW7" s="29">
-        <f>IFERROR((VLOOKUP(BR7,Scoring!$A:$B,2,0))+IF(BT7="y",1,0)+IF(BU7="y",1,0)+IF(BV7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BX7" s="24"/>
-      <c r="BY7" s="30"/>
-      <c r="BZ7" s="31"/>
-      <c r="CA7" s="32"/>
-      <c r="CB7" s="33"/>
-      <c r="CC7" s="29">
-        <f>IFERROR((VLOOKUP(BX7,Scoring!$A:$B,2,0))+IF(BZ7="y",1,0)+IF(CA7="y",1,0)+IF(CB7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD7" s="24"/>
-      <c r="CE7" s="30"/>
-      <c r="CF7" s="31"/>
-      <c r="CG7" s="32"/>
-      <c r="CH7" s="33"/>
-      <c r="CI7" s="29">
-        <f>IFERROR((VLOOKUP(CD7,Scoring!$A:$B,2,0))+IF(CF7="y",1,0)+IF(CG7="y",1,0)+IF(CH7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="24"/>
-      <c r="CK7" s="30"/>
-      <c r="CL7" s="31"/>
-      <c r="CM7" s="32"/>
-      <c r="CN7" s="33"/>
-      <c r="CO7" s="29">
-        <f>IFERROR((VLOOKUP(CJ7,Scoring!$A:$B,2,0))+IF(CL7="y",1,0)+IF(CM7="y",1,0)+IF(CN7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CP7" s="24"/>
-      <c r="CQ7" s="30"/>
-      <c r="CR7" s="31"/>
-      <c r="CS7" s="32"/>
-      <c r="CT7" s="33"/>
-      <c r="CU7" s="29">
-        <f>IFERROR((VLOOKUP(CP7,Scoring!$A:$B,2,0))+IF(CR7="y",1,0)+IF(CS7="y",1,0)+IF(CT7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CV7" s="24"/>
-      <c r="CW7" s="30"/>
-      <c r="CX7" s="31"/>
-      <c r="CY7" s="32"/>
-      <c r="CZ7" s="33"/>
-      <c r="DA7" s="29">
-        <f>IFERROR((VLOOKUP(CV7,Scoring!$A:$B,2,0))+IF(CX7="y",1,0)+IF(CY7="y",1,0)+IF(CZ7="y",1,0),0)</f>
+        <v>267</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="J7" s="33">
+        <f>IFERROR((VLOOKUP(D7,Scoring!$A:$B,2,0))+IF(F7="y",1,0)+IF(G7="y",1,0)+IF(H7="y",1,0)+IF(I7="y",1,0),0)</f>
+        <v>25</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="33">
+        <f>IFERROR((VLOOKUP(K7,Scoring!$A:$B,2,0))+IF(M7="y",1,0)+IF(N7="y",1,0)+IF(O7="y",1,0)+IF(P7="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="27"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="33">
+        <f>IFERROR((VLOOKUP(R7,Scoring!$A:$B,2,0))+IF(T7="y",1,0)+IF(U7="y",1,0)+IF(V7="y",1,0)+IF(W7="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="33">
+        <f>IFERROR((VLOOKUP(Y7,Scoring!$A:$B,2,0))+IF(AA7="y",1,0)+IF(AB7="y",1,0)+IF(AC7="y",1,0)+IF(AD7="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="33">
+        <f>IFERROR((VLOOKUP(AF7,Scoring!$A:$B,2,0))+IF(AH7="y",1,0)+IF(AI7="y",1,0)+IF(AJ7="y",1,0)+IF(AK7="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="36"/>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="33">
+        <f>IFERROR((VLOOKUP(AM7,Scoring!$A:$B,2,0))+IF(AO7="y",1,0)+IF(AP7="y",1,0)+IF(AQ7="y",1,0)+IF(AR7="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="27"/>
+      <c r="AU7" s="34"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="36"/>
+      <c r="AX7" s="37"/>
+      <c r="AY7" s="38"/>
+      <c r="AZ7" s="33">
+        <f>IFERROR((VLOOKUP(AT7,Scoring!$A:$B,2,0))+IF(AV7="y",1,0)+IF(AW7="y",1,0)+IF(AX7="y",1,0)+IF(AY7="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA7" s="27"/>
+      <c r="BB7" s="34"/>
+      <c r="BC7" s="35"/>
+      <c r="BD7" s="36"/>
+      <c r="BE7" s="37"/>
+      <c r="BF7" s="38"/>
+      <c r="BG7" s="33">
+        <f>IFERROR((VLOOKUP(BA7,Scoring!$A:$B,2,0))+IF(BC7="y",1,0)+IF(BD7="y",1,0)+IF(BE7="y",1,0)+IF(BF7="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH7" s="27"/>
+      <c r="BI7" s="34"/>
+      <c r="BJ7" s="35"/>
+      <c r="BK7" s="36"/>
+      <c r="BL7" s="37"/>
+      <c r="BM7" s="38"/>
+      <c r="BN7" s="33">
+        <f>IFERROR((VLOOKUP(BH7,Scoring!$A:$B,2,0))+IF(BJ7="y",1,0)+IF(BK7="y",1,0)+IF(BL7="y",1,0)+IF(BM7="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO7" s="27"/>
+      <c r="BP7" s="34"/>
+      <c r="BQ7" s="35"/>
+      <c r="BR7" s="36"/>
+      <c r="BS7" s="37"/>
+      <c r="BT7" s="38"/>
+      <c r="BU7" s="33">
+        <f>IFERROR((VLOOKUP(BO7,Scoring!$A:$B,2,0))+IF(BQ7="y",1,0)+IF(BR7="y",1,0)+IF(BS7="y",1,0)+IF(BT7="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV7" s="27"/>
+      <c r="BW7" s="34"/>
+      <c r="BX7" s="35"/>
+      <c r="BY7" s="36"/>
+      <c r="BZ7" s="37"/>
+      <c r="CA7" s="38"/>
+      <c r="CB7" s="33">
+        <f>IFERROR((VLOOKUP(BV7,Scoring!$A:$B,2,0))+IF(BX7="y",1,0)+IF(BY7="y",1,0)+IF(BZ7="y",1,0)+IF(CA7="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC7" s="27"/>
+      <c r="CD7" s="34"/>
+      <c r="CE7" s="35"/>
+      <c r="CF7" s="36"/>
+      <c r="CG7" s="37"/>
+      <c r="CH7" s="38"/>
+      <c r="CI7" s="33">
+        <f>IFERROR((VLOOKUP(CC7,Scoring!$A:$B,2,0))+IF(CE7="y",1,0)+IF(CF7="y",1,0)+IF(CG7="y",1,0)+IF(CH7="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="27"/>
+      <c r="CK7" s="34"/>
+      <c r="CL7" s="35"/>
+      <c r="CM7" s="36"/>
+      <c r="CN7" s="37"/>
+      <c r="CO7" s="38"/>
+      <c r="CP7" s="33">
+        <f>IFERROR((VLOOKUP(CJ7,Scoring!$A:$B,2,0))+IF(CL7="y",1,0)+IF(CM7="y",1,0)+IF(CN7="y",1,0)+IF(CO7="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="27"/>
+      <c r="CR7" s="34"/>
+      <c r="CS7" s="35"/>
+      <c r="CT7" s="36"/>
+      <c r="CU7" s="37"/>
+      <c r="CV7" s="38"/>
+      <c r="CW7" s="33">
+        <f>IFERROR((VLOOKUP(CQ7,Scoring!$A:$B,2,0))+IF(CS7="y",1,0)+IF(CT7="y",1,0)+IF(CU7="y",1,0)+IF(CV7="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CX7" s="27"/>
+      <c r="CY7" s="34"/>
+      <c r="CZ7" s="35"/>
+      <c r="DA7" s="36"/>
+      <c r="DB7" s="37"/>
+      <c r="DC7" s="38"/>
+      <c r="DD7" s="33">
+        <f>IFERROR((VLOOKUP(CX7,Scoring!$A:$B,2,0))+IF(CZ7="y",1,0)+IF(DA7="y",1,0)+IF(DB7="y",1,0)+IF(DC7="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DE7" s="27"/>
+      <c r="DF7" s="34"/>
+      <c r="DG7" s="35"/>
+      <c r="DH7" s="36"/>
+      <c r="DI7" s="37"/>
+      <c r="DJ7" s="38"/>
+      <c r="DK7" s="33">
+        <f>IFERROR((VLOOKUP(DE7,Scoring!$A:$B,2,0))+IF(DG7="y",1,0)+IF(DH7="y",1,0)+IF(DI7="y",1,0)+IF(DJ7="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DL7" s="27"/>
+      <c r="DM7" s="34"/>
+      <c r="DN7" s="35"/>
+      <c r="DO7" s="36"/>
+      <c r="DP7" s="37"/>
+      <c r="DQ7" s="38"/>
+      <c r="DR7" s="33">
+        <f>IFERROR((VLOOKUP(DL7,Scoring!$A:$B,2,0))+IF(DN7="y",1,0)+IF(DO7="y",1,0)+IF(DP7="y",1,0)+IF(DQ7="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="37">
-        <v>7.0</v>
-      </c>
-      <c r="E8" s="38">
-        <v>7.0</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="42">
-        <f>IFERROR((VLOOKUP(D8,Scoring!$A:$B,2,0))+IF(F8="y",1,0)+IF(G8="y",1,0)+IF(H8="y",1,0),0)</f>
-        <v>6</v>
-      </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="42">
-        <f>IFERROR((VLOOKUP(J8,Scoring!$D:$E,2,0))+IF(L8="y",1,0)+IF(M8="y",1,0)+IF(N8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="42">
-        <f>IFERROR((VLOOKUP(P8,Scoring!$A:$B,2,0))+IF(R8="y",1,0)+IF(S8="y",1,0)+IF(T8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="37"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="42">
-        <f>IFERROR((VLOOKUP(V8,Scoring!$A:$B,2,0))+IF(X8="y",1,0)+IF(Y8="y",1,0)+IF(Z8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="42">
-        <f>IFERROR((VLOOKUP(AB8,Scoring!$A:$B,2,0))+IF(AD8="y",1,0)+IF(AE8="y",1,0)+IF(AF8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="43"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="46"/>
-      <c r="AM8" s="42">
-        <f>IFERROR((VLOOKUP(AH8,Scoring!$A:$B,2,0))+IF(AJ8="y",1,0)+IF(AK8="y",1,0)+IF(AL8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="43"/>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="42">
-        <f>IFERROR((VLOOKUP(AN8,Scoring!$A:$B,2,0))+IF(AP8="y",1,0)+IF(AQ8="y",1,0)+IF(AR8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="43"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="45"/>
-      <c r="AX8" s="46"/>
-      <c r="AY8" s="42">
-        <f>IFERROR((VLOOKUP(AT8,Scoring!$D:$E,2,0))+IF(AV8="y",1,0)+IF(AW8="y",1,0)+IF(AX8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="37"/>
-      <c r="BA8" s="43"/>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="45"/>
-      <c r="BD8" s="46"/>
-      <c r="BE8" s="42">
-        <f>IFERROR((VLOOKUP(AZ8,Scoring!$A:$B,2,0))+IF(BB8="y",1,0)+IF(BC8="y",1,0)+IF(BD8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BF8" s="37"/>
-      <c r="BG8" s="43"/>
-      <c r="BH8" s="44"/>
-      <c r="BI8" s="45"/>
-      <c r="BJ8" s="46"/>
-      <c r="BK8" s="42">
-        <f>IFERROR((VLOOKUP(BF8,Scoring!$D:$E,2,0))+IF(BH8="y",1,0)+IF(BI8="y",1,0)+IF(BJ8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL8" s="37"/>
-      <c r="BM8" s="43"/>
-      <c r="BN8" s="44"/>
-      <c r="BO8" s="45"/>
-      <c r="BP8" s="46"/>
-      <c r="BQ8" s="42">
-        <f>IFERROR((VLOOKUP(BL8,Scoring!$A:$B,2,0))+IF(BN8="y",1,0)+IF(BO8="y",1,0)+IF(BP8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR8" s="37"/>
-      <c r="BS8" s="43"/>
-      <c r="BT8" s="44"/>
-      <c r="BU8" s="45"/>
-      <c r="BV8" s="46"/>
-      <c r="BW8" s="42">
-        <f>IFERROR((VLOOKUP(BR8,Scoring!$A:$B,2,0))+IF(BT8="y",1,0)+IF(BU8="y",1,0)+IF(BV8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BX8" s="37"/>
-      <c r="BY8" s="43"/>
-      <c r="BZ8" s="44"/>
-      <c r="CA8" s="45"/>
-      <c r="CB8" s="46"/>
-      <c r="CC8" s="42">
-        <f>IFERROR((VLOOKUP(BX8,Scoring!$A:$B,2,0))+IF(BZ8="y",1,0)+IF(CA8="y",1,0)+IF(CB8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD8" s="37"/>
-      <c r="CE8" s="43"/>
-      <c r="CF8" s="44"/>
-      <c r="CG8" s="45"/>
-      <c r="CH8" s="46"/>
-      <c r="CI8" s="42">
-        <f>IFERROR((VLOOKUP(CD8,Scoring!$A:$B,2,0))+IF(CF8="y",1,0)+IF(CG8="y",1,0)+IF(CH8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ8" s="37"/>
-      <c r="CK8" s="43"/>
-      <c r="CL8" s="44"/>
-      <c r="CM8" s="45"/>
-      <c r="CN8" s="46"/>
-      <c r="CO8" s="42">
-        <f>IFERROR((VLOOKUP(CJ8,Scoring!$A:$B,2,0))+IF(CL8="y",1,0)+IF(CM8="y",1,0)+IF(CN8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CP8" s="37"/>
-      <c r="CQ8" s="43"/>
-      <c r="CR8" s="44"/>
-      <c r="CS8" s="45"/>
-      <c r="CT8" s="46"/>
-      <c r="CU8" s="42">
-        <f>IFERROR((VLOOKUP(CP8,Scoring!$A:$B,2,0))+IF(CR8="y",1,0)+IF(CS8="y",1,0)+IF(CT8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CV8" s="37"/>
-      <c r="CW8" s="43"/>
-      <c r="CX8" s="44"/>
-      <c r="CY8" s="45"/>
-      <c r="CZ8" s="46"/>
-      <c r="DA8" s="47">
-        <f>IFERROR((VLOOKUP(CV8,Scoring!$A:$B,2,0))+IF(CX8="y",1,0)+IF(CY8="y",1,0)+IF(CZ8="y",1,0),0)</f>
+      <c r="D8" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="J8" s="48">
+        <f>IFERROR((VLOOKUP(D8,Scoring!$A:$B,2,0))+IF(F8="y",1,0)+IF(G8="y",1,0)+IF(H8="y",1,0)+IF(I8="y",1,0),0)</f>
+        <v>25</v>
+      </c>
+      <c r="K8" s="42"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="48">
+        <f>IFERROR((VLOOKUP(K8,Scoring!$A:$B,2,0))+IF(M8="y",1,0)+IF(N8="y",1,0)+IF(O8="y",1,0)+IF(P8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="42"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="48">
+        <f>IFERROR((VLOOKUP(R8,Scoring!$A:$B,2,0))+IF(T8="y",1,0)+IF(U8="y",1,0)+IF(V8="y",1,0)+IF(W8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="48">
+        <f>IFERROR((VLOOKUP(Y8,Scoring!$A:$B,2,0))+IF(AA8="y",1,0)+IF(AB8="y",1,0)+IF(AC8="y",1,0)+IF(AD8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="52"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="48">
+        <f>IFERROR((VLOOKUP(AF8,Scoring!$A:$B,2,0))+IF(AH8="y",1,0)+IF(AI8="y",1,0)+IF(AJ8="y",1,0)+IF(AK8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="50"/>
+      <c r="AP8" s="51"/>
+      <c r="AQ8" s="52"/>
+      <c r="AR8" s="53"/>
+      <c r="AS8" s="48">
+        <f>IFERROR((VLOOKUP(AM8,Scoring!$A:$B,2,0))+IF(AO8="y",1,0)+IF(AP8="y",1,0)+IF(AQ8="y",1,0)+IF(AR8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="42"/>
+      <c r="AU8" s="49"/>
+      <c r="AV8" s="50"/>
+      <c r="AW8" s="51"/>
+      <c r="AX8" s="52"/>
+      <c r="AY8" s="53"/>
+      <c r="AZ8" s="48">
+        <f>IFERROR((VLOOKUP(AT8,Scoring!$A:$B,2,0))+IF(AV8="y",1,0)+IF(AW8="y",1,0)+IF(AX8="y",1,0)+IF(AY8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA8" s="42"/>
+      <c r="BB8" s="49"/>
+      <c r="BC8" s="50"/>
+      <c r="BD8" s="51"/>
+      <c r="BE8" s="52"/>
+      <c r="BF8" s="53"/>
+      <c r="BG8" s="48">
+        <f>IFERROR((VLOOKUP(BA8,Scoring!$A:$B,2,0))+IF(BC8="y",1,0)+IF(BD8="y",1,0)+IF(BE8="y",1,0)+IF(BF8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH8" s="42"/>
+      <c r="BI8" s="49"/>
+      <c r="BJ8" s="50"/>
+      <c r="BK8" s="51"/>
+      <c r="BL8" s="52"/>
+      <c r="BM8" s="53"/>
+      <c r="BN8" s="48">
+        <f>IFERROR((VLOOKUP(BH8,Scoring!$A:$B,2,0))+IF(BJ8="y",1,0)+IF(BK8="y",1,0)+IF(BL8="y",1,0)+IF(BM8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO8" s="42"/>
+      <c r="BP8" s="49"/>
+      <c r="BQ8" s="50"/>
+      <c r="BR8" s="51"/>
+      <c r="BS8" s="52"/>
+      <c r="BT8" s="53"/>
+      <c r="BU8" s="48">
+        <f>IFERROR((VLOOKUP(BO8,Scoring!$A:$B,2,0))+IF(BQ8="y",1,0)+IF(BR8="y",1,0)+IF(BS8="y",1,0)+IF(BT8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV8" s="42"/>
+      <c r="BW8" s="49"/>
+      <c r="BX8" s="50"/>
+      <c r="BY8" s="51"/>
+      <c r="BZ8" s="52"/>
+      <c r="CA8" s="53"/>
+      <c r="CB8" s="48">
+        <f>IFERROR((VLOOKUP(BV8,Scoring!$A:$B,2,0))+IF(BX8="y",1,0)+IF(BY8="y",1,0)+IF(BZ8="y",1,0)+IF(CA8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC8" s="42"/>
+      <c r="CD8" s="49"/>
+      <c r="CE8" s="50"/>
+      <c r="CF8" s="51"/>
+      <c r="CG8" s="52"/>
+      <c r="CH8" s="53"/>
+      <c r="CI8" s="48">
+        <f>IFERROR((VLOOKUP(CC8,Scoring!$A:$B,2,0))+IF(CE8="y",1,0)+IF(CF8="y",1,0)+IF(CG8="y",1,0)+IF(CH8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="42"/>
+      <c r="CK8" s="49"/>
+      <c r="CL8" s="50"/>
+      <c r="CM8" s="51"/>
+      <c r="CN8" s="52"/>
+      <c r="CO8" s="53"/>
+      <c r="CP8" s="48">
+        <f>IFERROR((VLOOKUP(CJ8,Scoring!$A:$B,2,0))+IF(CL8="y",1,0)+IF(CM8="y",1,0)+IF(CN8="y",1,0)+IF(CO8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="42"/>
+      <c r="CR8" s="49"/>
+      <c r="CS8" s="50"/>
+      <c r="CT8" s="51"/>
+      <c r="CU8" s="52"/>
+      <c r="CV8" s="53"/>
+      <c r="CW8" s="48">
+        <f>IFERROR((VLOOKUP(CQ8,Scoring!$A:$B,2,0))+IF(CS8="y",1,0)+IF(CT8="y",1,0)+IF(CU8="y",1,0)+IF(CV8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CX8" s="42"/>
+      <c r="CY8" s="49"/>
+      <c r="CZ8" s="50"/>
+      <c r="DA8" s="51"/>
+      <c r="DB8" s="52"/>
+      <c r="DC8" s="53"/>
+      <c r="DD8" s="48">
+        <f>IFERROR((VLOOKUP(CX8,Scoring!$A:$B,2,0))+IF(CZ8="y",1,0)+IF(DA8="y",1,0)+IF(DB8="y",1,0)+IF(DC8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DE8" s="42"/>
+      <c r="DF8" s="49"/>
+      <c r="DG8" s="50"/>
+      <c r="DH8" s="51"/>
+      <c r="DI8" s="52"/>
+      <c r="DJ8" s="53"/>
+      <c r="DK8" s="48">
+        <f>IFERROR((VLOOKUP(DE8,Scoring!$A:$B,2,0))+IF(DG8="y",1,0)+IF(DH8="y",1,0)+IF(DI8="y",1,0)+IF(DJ8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DL8" s="42"/>
+      <c r="DM8" s="49"/>
+      <c r="DN8" s="50"/>
+      <c r="DO8" s="51"/>
+      <c r="DP8" s="52"/>
+      <c r="DQ8" s="53"/>
+      <c r="DR8" s="48">
+        <f>IFERROR((VLOOKUP(DL8,Scoring!$A:$B,2,0))+IF(DN8="y",1,0)+IF(DO8="y",1,0)+IF(DP8="y",1,0)+IF(DQ8="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="49" t="s">
-        <v>251</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="D9" s="51">
-        <v>8.0</v>
-      </c>
-      <c r="E9" s="52">
-        <v>8.0</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="56">
-        <f>IFERROR((VLOOKUP(D9,Scoring!$A:$B,2,0))+IF(F9="y",1,0)+IF(G9="y",1,0)+IF(H9="y",1,0),0)</f>
-        <v>4</v>
-      </c>
-      <c r="J9" s="51"/>
+      <c r="B9" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="57">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" s="63">
+        <f>IFERROR((VLOOKUP(D9,Scoring!$A:$B,2,0))+IF(F9="y",1,0)+IF(G9="y",1,0)+IF(H9="y",1,0)+IF(I9="y",1,0),0)</f>
+        <v>25</v>
+      </c>
       <c r="K9" s="57"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="56">
-        <f>IFERROR((VLOOKUP(J9,Scoring!$D:$E,2,0))+IF(L9="y",1,0)+IF(M9="y",1,0)+IF(N9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="56">
-        <f>IFERROR((VLOOKUP(P9,Scoring!$A:$B,2,0))+IF(R9="y",1,0)+IF(S9="y",1,0)+IF(T9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="51"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="56">
-        <f>IFERROR((VLOOKUP(V9,Scoring!$A:$B,2,0))+IF(X9="y",1,0)+IF(Y9="y",1,0)+IF(Z9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="56">
-        <f>IFERROR((VLOOKUP(AB9,Scoring!$A:$B,2,0))+IF(AD9="y",1,0)+IF(AE9="y",1,0)+IF(AF9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="57"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="59"/>
-      <c r="AL9" s="60"/>
-      <c r="AM9" s="56">
-        <f>IFERROR((VLOOKUP(AH9,Scoring!$A:$B,2,0))+IF(AJ9="y",1,0)+IF(AK9="y",1,0)+IF(AL9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="57"/>
-      <c r="AP9" s="58"/>
-      <c r="AQ9" s="59"/>
-      <c r="AR9" s="60"/>
-      <c r="AS9" s="56">
-        <f>IFERROR((VLOOKUP(AN9,Scoring!$A:$B,2,0))+IF(AP9="y",1,0)+IF(AQ9="y",1,0)+IF(AR9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT9" s="51"/>
-      <c r="AU9" s="57"/>
-      <c r="AV9" s="58"/>
-      <c r="AW9" s="59"/>
-      <c r="AX9" s="60"/>
-      <c r="AY9" s="56">
-        <f>IFERROR((VLOOKUP(AT9,Scoring!$D:$E,2,0))+IF(AV9="y",1,0)+IF(AW9="y",1,0)+IF(AX9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="51"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="63">
+        <f>IFERROR((VLOOKUP(K9,Scoring!$A:$B,2,0))+IF(M9="y",1,0)+IF(N9="y",1,0)+IF(O9="y",1,0)+IF(P9="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="57"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="63">
+        <f>IFERROR((VLOOKUP(R9,Scoring!$A:$B,2,0))+IF(T9="y",1,0)+IF(U9="y",1,0)+IF(V9="y",1,0)+IF(W9="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="63">
+        <f>IFERROR((VLOOKUP(Y9,Scoring!$A:$B,2,0))+IF(AA9="y",1,0)+IF(AB9="y",1,0)+IF(AC9="y",1,0)+IF(AD9="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="65"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="67"/>
+      <c r="AK9" s="68"/>
+      <c r="AL9" s="63">
+        <f>IFERROR((VLOOKUP(AF9,Scoring!$A:$B,2,0))+IF(AH9="y",1,0)+IF(AI9="y",1,0)+IF(AJ9="y",1,0)+IF(AK9="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="57"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="67"/>
+      <c r="AR9" s="68"/>
+      <c r="AS9" s="63">
+        <f>IFERROR((VLOOKUP(AM9,Scoring!$A:$B,2,0))+IF(AO9="y",1,0)+IF(AP9="y",1,0)+IF(AQ9="y",1,0)+IF(AR9="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="57"/>
+      <c r="AU9" s="64"/>
+      <c r="AV9" s="65"/>
+      <c r="AW9" s="66"/>
+      <c r="AX9" s="67"/>
+      <c r="AY9" s="68"/>
+      <c r="AZ9" s="63">
+        <f>IFERROR((VLOOKUP(AT9,Scoring!$A:$B,2,0))+IF(AV9="y",1,0)+IF(AW9="y",1,0)+IF(AX9="y",1,0)+IF(AY9="y",1,0),0)</f>
+        <v>0</v>
+      </c>
       <c r="BA9" s="57"/>
-      <c r="BB9" s="58"/>
-      <c r="BC9" s="59"/>
-      <c r="BD9" s="60"/>
-      <c r="BE9" s="56">
-        <f>IFERROR((VLOOKUP(AZ9,Scoring!$A:$B,2,0))+IF(BB9="y",1,0)+IF(BC9="y",1,0)+IF(BD9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BF9" s="51"/>
-      <c r="BG9" s="57"/>
-      <c r="BH9" s="58"/>
-      <c r="BI9" s="59"/>
-      <c r="BJ9" s="60"/>
-      <c r="BK9" s="56">
-        <f>IFERROR((VLOOKUP(BF9,Scoring!$D:$E,2,0))+IF(BH9="y",1,0)+IF(BI9="y",1,0)+IF(BJ9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL9" s="51"/>
-      <c r="BM9" s="57"/>
-      <c r="BN9" s="58"/>
-      <c r="BO9" s="59"/>
-      <c r="BP9" s="60"/>
-      <c r="BQ9" s="56">
-        <f>IFERROR((VLOOKUP(BL9,Scoring!$A:$B,2,0))+IF(BN9="y",1,0)+IF(BO9="y",1,0)+IF(BP9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR9" s="51"/>
-      <c r="BS9" s="57"/>
-      <c r="BT9" s="58"/>
-      <c r="BU9" s="59"/>
-      <c r="BV9" s="60"/>
-      <c r="BW9" s="56">
-        <f>IFERROR((VLOOKUP(BR9,Scoring!$A:$B,2,0))+IF(BT9="y",1,0)+IF(BU9="y",1,0)+IF(BV9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BX9" s="51"/>
-      <c r="BY9" s="57"/>
-      <c r="BZ9" s="58"/>
-      <c r="CA9" s="59"/>
-      <c r="CB9" s="60"/>
-      <c r="CC9" s="56">
-        <f>IFERROR((VLOOKUP(BX9,Scoring!$A:$B,2,0))+IF(BZ9="y",1,0)+IF(CA9="y",1,0)+IF(CB9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD9" s="51"/>
-      <c r="CE9" s="57"/>
-      <c r="CF9" s="58"/>
-      <c r="CG9" s="59"/>
-      <c r="CH9" s="60"/>
-      <c r="CI9" s="56">
-        <f>IFERROR((VLOOKUP(CD9,Scoring!$A:$B,2,0))+IF(CF9="y",1,0)+IF(CG9="y",1,0)+IF(CH9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ9" s="51"/>
-      <c r="CK9" s="57"/>
-      <c r="CL9" s="58"/>
-      <c r="CM9" s="59"/>
-      <c r="CN9" s="60"/>
-      <c r="CO9" s="56">
-        <f>IFERROR((VLOOKUP(CJ9,Scoring!$A:$B,2,0))+IF(CL9="y",1,0)+IF(CM9="y",1,0)+IF(CN9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CP9" s="51"/>
+      <c r="BB9" s="64"/>
+      <c r="BC9" s="65"/>
+      <c r="BD9" s="66"/>
+      <c r="BE9" s="67"/>
+      <c r="BF9" s="68"/>
+      <c r="BG9" s="63">
+        <f>IFERROR((VLOOKUP(BA9,Scoring!$A:$B,2,0))+IF(BC9="y",1,0)+IF(BD9="y",1,0)+IF(BE9="y",1,0)+IF(BF9="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH9" s="57"/>
+      <c r="BI9" s="64"/>
+      <c r="BJ9" s="65"/>
+      <c r="BK9" s="66"/>
+      <c r="BL9" s="67"/>
+      <c r="BM9" s="68"/>
+      <c r="BN9" s="63">
+        <f>IFERROR((VLOOKUP(BH9,Scoring!$A:$B,2,0))+IF(BJ9="y",1,0)+IF(BK9="y",1,0)+IF(BL9="y",1,0)+IF(BM9="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO9" s="57"/>
+      <c r="BP9" s="64"/>
+      <c r="BQ9" s="65"/>
+      <c r="BR9" s="66"/>
+      <c r="BS9" s="67"/>
+      <c r="BT9" s="68"/>
+      <c r="BU9" s="63">
+        <f>IFERROR((VLOOKUP(BO9,Scoring!$A:$B,2,0))+IF(BQ9="y",1,0)+IF(BR9="y",1,0)+IF(BS9="y",1,0)+IF(BT9="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV9" s="57"/>
+      <c r="BW9" s="64"/>
+      <c r="BX9" s="65"/>
+      <c r="BY9" s="66"/>
+      <c r="BZ9" s="67"/>
+      <c r="CA9" s="68"/>
+      <c r="CB9" s="63">
+        <f>IFERROR((VLOOKUP(BV9,Scoring!$A:$B,2,0))+IF(BX9="y",1,0)+IF(BY9="y",1,0)+IF(BZ9="y",1,0)+IF(CA9="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC9" s="57"/>
+      <c r="CD9" s="64"/>
+      <c r="CE9" s="65"/>
+      <c r="CF9" s="66"/>
+      <c r="CG9" s="67"/>
+      <c r="CH9" s="68"/>
+      <c r="CI9" s="63">
+        <f>IFERROR((VLOOKUP(CC9,Scoring!$A:$B,2,0))+IF(CE9="y",1,0)+IF(CF9="y",1,0)+IF(CG9="y",1,0)+IF(CH9="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="57"/>
+      <c r="CK9" s="64"/>
+      <c r="CL9" s="65"/>
+      <c r="CM9" s="66"/>
+      <c r="CN9" s="67"/>
+      <c r="CO9" s="68"/>
+      <c r="CP9" s="63">
+        <f>IFERROR((VLOOKUP(CJ9,Scoring!$A:$B,2,0))+IF(CL9="y",1,0)+IF(CM9="y",1,0)+IF(CN9="y",1,0)+IF(CO9="y",1,0),0)</f>
+        <v>0</v>
+      </c>
       <c r="CQ9" s="57"/>
-      <c r="CR9" s="58"/>
-      <c r="CS9" s="59"/>
-      <c r="CT9" s="60"/>
-      <c r="CU9" s="56">
-        <f>IFERROR((VLOOKUP(CP9,Scoring!$A:$B,2,0))+IF(CR9="y",1,0)+IF(CS9="y",1,0)+IF(CT9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CV9" s="51"/>
-      <c r="CW9" s="57"/>
-      <c r="CX9" s="58"/>
-      <c r="CY9" s="59"/>
-      <c r="CZ9" s="60"/>
-      <c r="DA9" s="61">
-        <f>IFERROR((VLOOKUP(CV9,Scoring!$A:$B,2,0))+IF(CX9="y",1,0)+IF(CY9="y",1,0)+IF(CZ9="y",1,0),0)</f>
+      <c r="CR9" s="64"/>
+      <c r="CS9" s="65"/>
+      <c r="CT9" s="66"/>
+      <c r="CU9" s="67"/>
+      <c r="CV9" s="68"/>
+      <c r="CW9" s="63">
+        <f>IFERROR((VLOOKUP(CQ9,Scoring!$A:$B,2,0))+IF(CS9="y",1,0)+IF(CT9="y",1,0)+IF(CU9="y",1,0)+IF(CV9="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CX9" s="57"/>
+      <c r="CY9" s="64"/>
+      <c r="CZ9" s="65"/>
+      <c r="DA9" s="66"/>
+      <c r="DB9" s="67"/>
+      <c r="DC9" s="68"/>
+      <c r="DD9" s="63">
+        <f>IFERROR((VLOOKUP(CX9,Scoring!$A:$B,2,0))+IF(CZ9="y",1,0)+IF(DA9="y",1,0)+IF(DB9="y",1,0)+IF(DC9="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DE9" s="57"/>
+      <c r="DF9" s="64"/>
+      <c r="DG9" s="65"/>
+      <c r="DH9" s="66"/>
+      <c r="DI9" s="67"/>
+      <c r="DJ9" s="68"/>
+      <c r="DK9" s="63">
+        <f>IFERROR((VLOOKUP(DE9,Scoring!$A:$B,2,0))+IF(DG9="y",1,0)+IF(DH9="y",1,0)+IF(DI9="y",1,0)+IF(DJ9="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DL9" s="57"/>
+      <c r="DM9" s="64"/>
+      <c r="DN9" s="65"/>
+      <c r="DO9" s="66"/>
+      <c r="DP9" s="67"/>
+      <c r="DQ9" s="68"/>
+      <c r="DR9" s="63">
+        <f>IFERROR((VLOOKUP(DL9,Scoring!$A:$B,2,0))+IF(DN9="y",1,0)+IF(DO9="y",1,0)+IF(DP9="y",1,0)+IF(DQ9="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="24">
-        <v>9.0</v>
-      </c>
-      <c r="E10" s="25">
-        <v>9.0</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="29">
-        <f>IFERROR((VLOOKUP(D10,Scoring!$A:$B,2,0))+IF(F10="y",1,0)+IF(G10="y",1,0)+IF(H10="y",1,0),0)</f>
-        <v>3</v>
-      </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="29">
-        <f>IFERROR((VLOOKUP(J10,Scoring!$D:$E,2,0))+IF(L10="y",1,0)+IF(M10="y",1,0)+IF(N10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="29">
-        <f>IFERROR((VLOOKUP(P10,Scoring!$A:$B,2,0))+IF(R10="y",1,0)+IF(S10="y",1,0)+IF(T10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="24"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="29">
-        <f>IFERROR((VLOOKUP(V10,Scoring!$A:$B,2,0))+IF(X10="y",1,0)+IF(Y10="y",1,0)+IF(Z10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="29">
-        <f>IFERROR((VLOOKUP(AB10,Scoring!$A:$B,2,0))+IF(AD10="y",1,0)+IF(AE10="y",1,0)+IF(AF10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="30"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="32"/>
-      <c r="AL10" s="33"/>
-      <c r="AM10" s="29">
-        <f>IFERROR((VLOOKUP(AH10,Scoring!$A:$B,2,0))+IF(AJ10="y",1,0)+IF(AK10="y",1,0)+IF(AL10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="30"/>
-      <c r="AP10" s="31"/>
-      <c r="AQ10" s="32"/>
-      <c r="AR10" s="33"/>
-      <c r="AS10" s="29">
-        <f>IFERROR((VLOOKUP(AN10,Scoring!$A:$B,2,0))+IF(AP10="y",1,0)+IF(AQ10="y",1,0)+IF(AR10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT10" s="24"/>
-      <c r="AU10" s="30"/>
-      <c r="AV10" s="31"/>
-      <c r="AW10" s="32"/>
-      <c r="AX10" s="33"/>
-      <c r="AY10" s="29">
-        <f>IFERROR((VLOOKUP(AT10,Scoring!$D:$E,2,0))+IF(AV10="y",1,0)+IF(AW10="y",1,0)+IF(AX10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="24"/>
-      <c r="BA10" s="30"/>
-      <c r="BB10" s="31"/>
-      <c r="BC10" s="32"/>
-      <c r="BD10" s="33"/>
-      <c r="BE10" s="29">
-        <f>IFERROR((VLOOKUP(AZ10,Scoring!$A:$B,2,0))+IF(BB10="y",1,0)+IF(BC10="y",1,0)+IF(BD10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BF10" s="24"/>
-      <c r="BG10" s="30"/>
-      <c r="BH10" s="31"/>
-      <c r="BI10" s="32"/>
-      <c r="BJ10" s="33"/>
-      <c r="BK10" s="29">
-        <f>IFERROR((VLOOKUP(BF10,Scoring!$D:$E,2,0))+IF(BH10="y",1,0)+IF(BI10="y",1,0)+IF(BJ10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL10" s="24"/>
-      <c r="BM10" s="30"/>
-      <c r="BN10" s="31"/>
-      <c r="BO10" s="32"/>
-      <c r="BP10" s="33"/>
-      <c r="BQ10" s="29">
-        <f>IFERROR((VLOOKUP(BL10,Scoring!$A:$B,2,0))+IF(BN10="y",1,0)+IF(BO10="y",1,0)+IF(BP10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR10" s="24"/>
-      <c r="BS10" s="30"/>
-      <c r="BT10" s="31"/>
-      <c r="BU10" s="32"/>
-      <c r="BV10" s="33"/>
-      <c r="BW10" s="29">
-        <f>IFERROR((VLOOKUP(BR10,Scoring!$A:$B,2,0))+IF(BT10="y",1,0)+IF(BU10="y",1,0)+IF(BV10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BX10" s="24"/>
-      <c r="BY10" s="30"/>
-      <c r="BZ10" s="31"/>
-      <c r="CA10" s="32"/>
-      <c r="CB10" s="33"/>
-      <c r="CC10" s="29">
-        <f>IFERROR((VLOOKUP(BX10,Scoring!$A:$B,2,0))+IF(BZ10="y",1,0)+IF(CA10="y",1,0)+IF(CB10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD10" s="24"/>
-      <c r="CE10" s="30"/>
-      <c r="CF10" s="31"/>
-      <c r="CG10" s="32"/>
-      <c r="CH10" s="33"/>
-      <c r="CI10" s="29">
-        <f>IFERROR((VLOOKUP(CD10,Scoring!$A:$B,2,0))+IF(CF10="y",1,0)+IF(CG10="y",1,0)+IF(CH10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ10" s="24"/>
-      <c r="CK10" s="30"/>
-      <c r="CL10" s="31"/>
-      <c r="CM10" s="32"/>
-      <c r="CN10" s="33"/>
-      <c r="CO10" s="29">
-        <f>IFERROR((VLOOKUP(CJ10,Scoring!$A:$B,2,0))+IF(CL10="y",1,0)+IF(CM10="y",1,0)+IF(CN10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CP10" s="24"/>
-      <c r="CQ10" s="30"/>
-      <c r="CR10" s="31"/>
-      <c r="CS10" s="32"/>
-      <c r="CT10" s="33"/>
-      <c r="CU10" s="29">
-        <f>IFERROR((VLOOKUP(CP10,Scoring!$A:$B,2,0))+IF(CR10="y",1,0)+IF(CS10="y",1,0)+IF(CT10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CV10" s="24"/>
-      <c r="CW10" s="30"/>
-      <c r="CX10" s="31"/>
-      <c r="CY10" s="32"/>
-      <c r="CZ10" s="33"/>
-      <c r="DA10" s="29">
-        <f>IFERROR((VLOOKUP(CV10,Scoring!$A:$B,2,0))+IF(CX10="y",1,0)+IF(CY10="y",1,0)+IF(CZ10="y",1,0),0)</f>
+      <c r="D10" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="J10" s="33">
+        <f>IFERROR((VLOOKUP(D10,Scoring!$A:$B,2,0))+IF(F10="y",1,0)+IF(G10="y",1,0)+IF(H10="y",1,0)+IF(I10="y",1,0),0)</f>
+        <v>25</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="33">
+        <f>IFERROR((VLOOKUP(K10,Scoring!$A:$B,2,0))+IF(M10="y",1,0)+IF(N10="y",1,0)+IF(O10="y",1,0)+IF(P10="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="27"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="33">
+        <f>IFERROR((VLOOKUP(R10,Scoring!$A:$B,2,0))+IF(T10="y",1,0)+IF(U10="y",1,0)+IF(V10="y",1,0)+IF(W10="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="33">
+        <f>IFERROR((VLOOKUP(Y10,Scoring!$A:$B,2,0))+IF(AA10="y",1,0)+IF(AB10="y",1,0)+IF(AC10="y",1,0)+IF(AD10="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="33">
+        <f>IFERROR((VLOOKUP(AF10,Scoring!$A:$B,2,0))+IF(AH10="y",1,0)+IF(AI10="y",1,0)+IF(AJ10="y",1,0)+IF(AK10="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="35"/>
+      <c r="AP10" s="36"/>
+      <c r="AQ10" s="37"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="33">
+        <f>IFERROR((VLOOKUP(AM10,Scoring!$A:$B,2,0))+IF(AO10="y",1,0)+IF(AP10="y",1,0)+IF(AQ10="y",1,0)+IF(AR10="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="27"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="35"/>
+      <c r="AW10" s="36"/>
+      <c r="AX10" s="37"/>
+      <c r="AY10" s="38"/>
+      <c r="AZ10" s="33">
+        <f>IFERROR((VLOOKUP(AT10,Scoring!$A:$B,2,0))+IF(AV10="y",1,0)+IF(AW10="y",1,0)+IF(AX10="y",1,0)+IF(AY10="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA10" s="27"/>
+      <c r="BB10" s="34"/>
+      <c r="BC10" s="35"/>
+      <c r="BD10" s="36"/>
+      <c r="BE10" s="37"/>
+      <c r="BF10" s="38"/>
+      <c r="BG10" s="33">
+        <f>IFERROR((VLOOKUP(BA10,Scoring!$A:$B,2,0))+IF(BC10="y",1,0)+IF(BD10="y",1,0)+IF(BE10="y",1,0)+IF(BF10="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH10" s="27"/>
+      <c r="BI10" s="34"/>
+      <c r="BJ10" s="35"/>
+      <c r="BK10" s="36"/>
+      <c r="BL10" s="37"/>
+      <c r="BM10" s="38"/>
+      <c r="BN10" s="33">
+        <f>IFERROR((VLOOKUP(BH10,Scoring!$A:$B,2,0))+IF(BJ10="y",1,0)+IF(BK10="y",1,0)+IF(BL10="y",1,0)+IF(BM10="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO10" s="27"/>
+      <c r="BP10" s="34"/>
+      <c r="BQ10" s="35"/>
+      <c r="BR10" s="36"/>
+      <c r="BS10" s="37"/>
+      <c r="BT10" s="38"/>
+      <c r="BU10" s="33">
+        <f>IFERROR((VLOOKUP(BO10,Scoring!$A:$B,2,0))+IF(BQ10="y",1,0)+IF(BR10="y",1,0)+IF(BS10="y",1,0)+IF(BT10="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV10" s="27"/>
+      <c r="BW10" s="34"/>
+      <c r="BX10" s="35"/>
+      <c r="BY10" s="36"/>
+      <c r="BZ10" s="37"/>
+      <c r="CA10" s="38"/>
+      <c r="CB10" s="33">
+        <f>IFERROR((VLOOKUP(BV10,Scoring!$A:$B,2,0))+IF(BX10="y",1,0)+IF(BY10="y",1,0)+IF(BZ10="y",1,0)+IF(CA10="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC10" s="27"/>
+      <c r="CD10" s="34"/>
+      <c r="CE10" s="35"/>
+      <c r="CF10" s="36"/>
+      <c r="CG10" s="37"/>
+      <c r="CH10" s="38"/>
+      <c r="CI10" s="33">
+        <f>IFERROR((VLOOKUP(CC10,Scoring!$A:$B,2,0))+IF(CE10="y",1,0)+IF(CF10="y",1,0)+IF(CG10="y",1,0)+IF(CH10="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="27"/>
+      <c r="CK10" s="34"/>
+      <c r="CL10" s="35"/>
+      <c r="CM10" s="36"/>
+      <c r="CN10" s="37"/>
+      <c r="CO10" s="38"/>
+      <c r="CP10" s="33">
+        <f>IFERROR((VLOOKUP(CJ10,Scoring!$A:$B,2,0))+IF(CL10="y",1,0)+IF(CM10="y",1,0)+IF(CN10="y",1,0)+IF(CO10="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CQ10" s="27"/>
+      <c r="CR10" s="34"/>
+      <c r="CS10" s="35"/>
+      <c r="CT10" s="36"/>
+      <c r="CU10" s="37"/>
+      <c r="CV10" s="38"/>
+      <c r="CW10" s="33">
+        <f>IFERROR((VLOOKUP(CQ10,Scoring!$A:$B,2,0))+IF(CS10="y",1,0)+IF(CT10="y",1,0)+IF(CU10="y",1,0)+IF(CV10="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CX10" s="27"/>
+      <c r="CY10" s="34"/>
+      <c r="CZ10" s="35"/>
+      <c r="DA10" s="36"/>
+      <c r="DB10" s="37"/>
+      <c r="DC10" s="38"/>
+      <c r="DD10" s="33">
+        <f>IFERROR((VLOOKUP(CX10,Scoring!$A:$B,2,0))+IF(CZ10="y",1,0)+IF(DA10="y",1,0)+IF(DB10="y",1,0)+IF(DC10="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DE10" s="27"/>
+      <c r="DF10" s="34"/>
+      <c r="DG10" s="35"/>
+      <c r="DH10" s="36"/>
+      <c r="DI10" s="37"/>
+      <c r="DJ10" s="38"/>
+      <c r="DK10" s="33">
+        <f>IFERROR((VLOOKUP(DE10,Scoring!$A:$B,2,0))+IF(DG10="y",1,0)+IF(DH10="y",1,0)+IF(DI10="y",1,0)+IF(DJ10="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DL10" s="27"/>
+      <c r="DM10" s="34"/>
+      <c r="DN10" s="35"/>
+      <c r="DO10" s="36"/>
+      <c r="DP10" s="37"/>
+      <c r="DQ10" s="38"/>
+      <c r="DR10" s="33">
+        <f>IFERROR((VLOOKUP(DL10,Scoring!$A:$B,2,0))+IF(DN10="y",1,0)+IF(DO10="y",1,0)+IF(DP10="y",1,0)+IF(DQ10="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="E11" s="25">
-        <v>10.0</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="29">
-        <f>IFERROR((VLOOKUP(D11,Scoring!$A:$B,2,0))+IF(F11="y",1,0)+IF(G11="y",1,0)+IF(H11="y",1,0),0)</f>
-        <v>2</v>
-      </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="29">
-        <f>IFERROR((VLOOKUP(J11,Scoring!$D:$E,2,0))+IF(L11="y",1,0)+IF(M11="y",1,0)+IF(N11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="29">
-        <f>IFERROR((VLOOKUP(P11,Scoring!$A:$B,2,0))+IF(R11="y",1,0)+IF(S11="y",1,0)+IF(T11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="24"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="29">
-        <f>IFERROR((VLOOKUP(V11,Scoring!$A:$B,2,0))+IF(X11="y",1,0)+IF(Y11="y",1,0)+IF(Z11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="29">
-        <f>IFERROR((VLOOKUP(AB11,Scoring!$A:$B,2,0))+IF(AD11="y",1,0)+IF(AE11="y",1,0)+IF(AF11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="29">
-        <f>IFERROR((VLOOKUP(AH11,Scoring!$A:$B,2,0))+IF(AJ11="y",1,0)+IF(AK11="y",1,0)+IF(AL11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN11" s="24"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="31"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="33"/>
-      <c r="AS11" s="29">
-        <f>IFERROR((VLOOKUP(AN11,Scoring!$A:$B,2,0))+IF(AP11="y",1,0)+IF(AQ11="y",1,0)+IF(AR11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT11" s="24"/>
-      <c r="AU11" s="30"/>
-      <c r="AV11" s="31"/>
-      <c r="AW11" s="32"/>
-      <c r="AX11" s="33"/>
-      <c r="AY11" s="29">
-        <f>IFERROR((VLOOKUP(AT11,Scoring!$D:$E,2,0))+IF(AV11="y",1,0)+IF(AW11="y",1,0)+IF(AX11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="24"/>
-      <c r="BA11" s="30"/>
-      <c r="BB11" s="31"/>
-      <c r="BC11" s="32"/>
-      <c r="BD11" s="33"/>
-      <c r="BE11" s="29">
-        <f>IFERROR((VLOOKUP(AZ11,Scoring!$A:$B,2,0))+IF(BB11="y",1,0)+IF(BC11="y",1,0)+IF(BD11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BF11" s="24"/>
-      <c r="BG11" s="30"/>
-      <c r="BH11" s="31"/>
-      <c r="BI11" s="32"/>
-      <c r="BJ11" s="33"/>
-      <c r="BK11" s="29">
-        <f>IFERROR((VLOOKUP(BF11,Scoring!$D:$E,2,0))+IF(BH11="y",1,0)+IF(BI11="y",1,0)+IF(BJ11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL11" s="24"/>
-      <c r="BM11" s="30"/>
-      <c r="BN11" s="31"/>
-      <c r="BO11" s="32"/>
-      <c r="BP11" s="33"/>
-      <c r="BQ11" s="29">
-        <f>IFERROR((VLOOKUP(BL11,Scoring!$A:$B,2,0))+IF(BN11="y",1,0)+IF(BO11="y",1,0)+IF(BP11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR11" s="24"/>
-      <c r="BS11" s="30"/>
-      <c r="BT11" s="31"/>
-      <c r="BU11" s="32"/>
-      <c r="BV11" s="33"/>
-      <c r="BW11" s="29">
-        <f>IFERROR((VLOOKUP(BR11,Scoring!$A:$B,2,0))+IF(BT11="y",1,0)+IF(BU11="y",1,0)+IF(BV11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BX11" s="24"/>
-      <c r="BY11" s="30"/>
-      <c r="BZ11" s="31"/>
-      <c r="CA11" s="32"/>
-      <c r="CB11" s="33"/>
-      <c r="CC11" s="29">
-        <f>IFERROR((VLOOKUP(BX11,Scoring!$A:$B,2,0))+IF(BZ11="y",1,0)+IF(CA11="y",1,0)+IF(CB11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD11" s="24"/>
-      <c r="CE11" s="30"/>
-      <c r="CF11" s="31"/>
-      <c r="CG11" s="32"/>
-      <c r="CH11" s="33"/>
-      <c r="CI11" s="29">
-        <f>IFERROR((VLOOKUP(CD11,Scoring!$A:$B,2,0))+IF(CF11="y",1,0)+IF(CG11="y",1,0)+IF(CH11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ11" s="24"/>
-      <c r="CK11" s="30"/>
-      <c r="CL11" s="31"/>
-      <c r="CM11" s="32"/>
-      <c r="CN11" s="33"/>
-      <c r="CO11" s="29">
-        <f>IFERROR((VLOOKUP(CJ11,Scoring!$A:$B,2,0))+IF(CL11="y",1,0)+IF(CM11="y",1,0)+IF(CN11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CP11" s="24"/>
-      <c r="CQ11" s="30"/>
-      <c r="CR11" s="31"/>
-      <c r="CS11" s="32"/>
-      <c r="CT11" s="33"/>
-      <c r="CU11" s="29">
-        <f>IFERROR((VLOOKUP(CP11,Scoring!$A:$B,2,0))+IF(CR11="y",1,0)+IF(CS11="y",1,0)+IF(CT11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CV11" s="24"/>
-      <c r="CW11" s="30"/>
-      <c r="CX11" s="31"/>
-      <c r="CY11" s="32"/>
-      <c r="CZ11" s="33"/>
-      <c r="DA11" s="29">
-        <f>IFERROR((VLOOKUP(CV11,Scoring!$A:$B,2,0))+IF(CX11="y",1,0)+IF(CY11="y",1,0)+IF(CZ11="y",1,0),0)</f>
+      <c r="D11" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="J11" s="33">
+        <f>IFERROR((VLOOKUP(D11,Scoring!$A:$B,2,0))+IF(F11="y",1,0)+IF(G11="y",1,0)+IF(H11="y",1,0)+IF(I11="y",1,0),0)</f>
+        <v>25</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="33">
+        <f>IFERROR((VLOOKUP(K11,Scoring!$A:$B,2,0))+IF(M11="y",1,0)+IF(N11="y",1,0)+IF(O11="y",1,0)+IF(P11="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="27"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="33">
+        <f>IFERROR((VLOOKUP(R11,Scoring!$A:$B,2,0))+IF(T11="y",1,0)+IF(U11="y",1,0)+IF(V11="y",1,0)+IF(W11="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="33">
+        <f>IFERROR((VLOOKUP(Y11,Scoring!$A:$B,2,0))+IF(AA11="y",1,0)+IF(AB11="y",1,0)+IF(AC11="y",1,0)+IF(AD11="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="33">
+        <f>IFERROR((VLOOKUP(AF11,Scoring!$A:$B,2,0))+IF(AH11="y",1,0)+IF(AI11="y",1,0)+IF(AJ11="y",1,0)+IF(AK11="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="37"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="33">
+        <f>IFERROR((VLOOKUP(AM11,Scoring!$A:$B,2,0))+IF(AO11="y",1,0)+IF(AP11="y",1,0)+IF(AQ11="y",1,0)+IF(AR11="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="35"/>
+      <c r="AW11" s="36"/>
+      <c r="AX11" s="37"/>
+      <c r="AY11" s="38"/>
+      <c r="AZ11" s="33">
+        <f>IFERROR((VLOOKUP(AT11,Scoring!$A:$B,2,0))+IF(AV11="y",1,0)+IF(AW11="y",1,0)+IF(AX11="y",1,0)+IF(AY11="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA11" s="27"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="35"/>
+      <c r="BD11" s="36"/>
+      <c r="BE11" s="37"/>
+      <c r="BF11" s="38"/>
+      <c r="BG11" s="33">
+        <f>IFERROR((VLOOKUP(BA11,Scoring!$A:$B,2,0))+IF(BC11="y",1,0)+IF(BD11="y",1,0)+IF(BE11="y",1,0)+IF(BF11="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH11" s="27"/>
+      <c r="BI11" s="34"/>
+      <c r="BJ11" s="35"/>
+      <c r="BK11" s="36"/>
+      <c r="BL11" s="37"/>
+      <c r="BM11" s="38"/>
+      <c r="BN11" s="33">
+        <f>IFERROR((VLOOKUP(BH11,Scoring!$A:$B,2,0))+IF(BJ11="y",1,0)+IF(BK11="y",1,0)+IF(BL11="y",1,0)+IF(BM11="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO11" s="27"/>
+      <c r="BP11" s="34"/>
+      <c r="BQ11" s="35"/>
+      <c r="BR11" s="36"/>
+      <c r="BS11" s="37"/>
+      <c r="BT11" s="38"/>
+      <c r="BU11" s="33">
+        <f>IFERROR((VLOOKUP(BO11,Scoring!$A:$B,2,0))+IF(BQ11="y",1,0)+IF(BR11="y",1,0)+IF(BS11="y",1,0)+IF(BT11="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV11" s="27"/>
+      <c r="BW11" s="34"/>
+      <c r="BX11" s="35"/>
+      <c r="BY11" s="36"/>
+      <c r="BZ11" s="37"/>
+      <c r="CA11" s="38"/>
+      <c r="CB11" s="33">
+        <f>IFERROR((VLOOKUP(BV11,Scoring!$A:$B,2,0))+IF(BX11="y",1,0)+IF(BY11="y",1,0)+IF(BZ11="y",1,0)+IF(CA11="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC11" s="27"/>
+      <c r="CD11" s="34"/>
+      <c r="CE11" s="35"/>
+      <c r="CF11" s="36"/>
+      <c r="CG11" s="37"/>
+      <c r="CH11" s="38"/>
+      <c r="CI11" s="33">
+        <f>IFERROR((VLOOKUP(CC11,Scoring!$A:$B,2,0))+IF(CE11="y",1,0)+IF(CF11="y",1,0)+IF(CG11="y",1,0)+IF(CH11="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="27"/>
+      <c r="CK11" s="34"/>
+      <c r="CL11" s="35"/>
+      <c r="CM11" s="36"/>
+      <c r="CN11" s="37"/>
+      <c r="CO11" s="38"/>
+      <c r="CP11" s="33">
+        <f>IFERROR((VLOOKUP(CJ11,Scoring!$A:$B,2,0))+IF(CL11="y",1,0)+IF(CM11="y",1,0)+IF(CN11="y",1,0)+IF(CO11="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CQ11" s="27"/>
+      <c r="CR11" s="34"/>
+      <c r="CS11" s="35"/>
+      <c r="CT11" s="36"/>
+      <c r="CU11" s="37"/>
+      <c r="CV11" s="38"/>
+      <c r="CW11" s="33">
+        <f>IFERROR((VLOOKUP(CQ11,Scoring!$A:$B,2,0))+IF(CS11="y",1,0)+IF(CT11="y",1,0)+IF(CU11="y",1,0)+IF(CV11="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CX11" s="27"/>
+      <c r="CY11" s="34"/>
+      <c r="CZ11" s="35"/>
+      <c r="DA11" s="36"/>
+      <c r="DB11" s="37"/>
+      <c r="DC11" s="38"/>
+      <c r="DD11" s="33">
+        <f>IFERROR((VLOOKUP(CX11,Scoring!$A:$B,2,0))+IF(CZ11="y",1,0)+IF(DA11="y",1,0)+IF(DB11="y",1,0)+IF(DC11="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DE11" s="27"/>
+      <c r="DF11" s="34"/>
+      <c r="DG11" s="35"/>
+      <c r="DH11" s="36"/>
+      <c r="DI11" s="37"/>
+      <c r="DJ11" s="38"/>
+      <c r="DK11" s="33">
+        <f>IFERROR((VLOOKUP(DE11,Scoring!$A:$B,2,0))+IF(DG11="y",1,0)+IF(DH11="y",1,0)+IF(DI11="y",1,0)+IF(DJ11="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DL11" s="27"/>
+      <c r="DM11" s="34"/>
+      <c r="DN11" s="35"/>
+      <c r="DO11" s="36"/>
+      <c r="DP11" s="37"/>
+      <c r="DQ11" s="38"/>
+      <c r="DR11" s="33">
+        <f>IFERROR((VLOOKUP(DL11,Scoring!$A:$B,2,0))+IF(DN11="y",1,0)+IF(DO11="y",1,0)+IF(DP11="y",1,0)+IF(DQ11="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="37">
-        <v>11.0</v>
-      </c>
-      <c r="E12" s="38">
-        <v>11.0</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="42">
-        <f>IFERROR((VLOOKUP(D12,Scoring!$A:$B,2,0))+IF(F12="y",1,0)+IF(G12="y",1,0)+IF(H12="y",1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="42">
-        <f>IFERROR((VLOOKUP(J12,Scoring!$D:$E,2,0))+IF(L12="y",1,0)+IF(M12="y",1,0)+IF(N12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="42">
-        <f>IFERROR((VLOOKUP(P12,Scoring!$A:$B,2,0))+IF(R12="y",1,0)+IF(S12="y",1,0)+IF(T12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="37"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="42">
-        <f>IFERROR((VLOOKUP(V12,Scoring!$A:$B,2,0))+IF(X12="y",1,0)+IF(Y12="y",1,0)+IF(Z12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="42">
-        <f>IFERROR((VLOOKUP(AB12,Scoring!$A:$B,2,0))+IF(AD12="y",1,0)+IF(AE12="y",1,0)+IF(AF12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="43"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="42">
-        <f>IFERROR((VLOOKUP(AH12,Scoring!$A:$B,2,0))+IF(AJ12="y",1,0)+IF(AK12="y",1,0)+IF(AL12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN12" s="37"/>
-      <c r="AO12" s="43"/>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="45"/>
-      <c r="AR12" s="46"/>
-      <c r="AS12" s="42">
-        <f>IFERROR((VLOOKUP(AN12,Scoring!$A:$B,2,0))+IF(AP12="y",1,0)+IF(AQ12="y",1,0)+IF(AR12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT12" s="37"/>
-      <c r="AU12" s="43"/>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="46"/>
-      <c r="AY12" s="42">
-        <f>IFERROR((VLOOKUP(AT12,Scoring!$D:$E,2,0))+IF(AV12="y",1,0)+IF(AW12="y",1,0)+IF(AX12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="37"/>
-      <c r="BA12" s="43"/>
-      <c r="BB12" s="44"/>
-      <c r="BC12" s="45"/>
-      <c r="BD12" s="46"/>
-      <c r="BE12" s="42">
-        <f>IFERROR((VLOOKUP(AZ12,Scoring!$A:$B,2,0))+IF(BB12="y",1,0)+IF(BC12="y",1,0)+IF(BD12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BF12" s="37"/>
-      <c r="BG12" s="43"/>
-      <c r="BH12" s="44"/>
-      <c r="BI12" s="45"/>
-      <c r="BJ12" s="46"/>
-      <c r="BK12" s="42">
-        <f>IFERROR((VLOOKUP(BF12,Scoring!$D:$E,2,0))+IF(BH12="y",1,0)+IF(BI12="y",1,0)+IF(BJ12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL12" s="37"/>
-      <c r="BM12" s="43"/>
-      <c r="BN12" s="44"/>
-      <c r="BO12" s="45"/>
-      <c r="BP12" s="46"/>
-      <c r="BQ12" s="42">
-        <f>IFERROR((VLOOKUP(BL12,Scoring!$A:$B,2,0))+IF(BN12="y",1,0)+IF(BO12="y",1,0)+IF(BP12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR12" s="37"/>
-      <c r="BS12" s="43"/>
-      <c r="BT12" s="44"/>
-      <c r="BU12" s="45"/>
-      <c r="BV12" s="46"/>
-      <c r="BW12" s="42">
-        <f>IFERROR((VLOOKUP(BR12,Scoring!$A:$B,2,0))+IF(BT12="y",1,0)+IF(BU12="y",1,0)+IF(BV12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BX12" s="37"/>
-      <c r="BY12" s="43"/>
-      <c r="BZ12" s="44"/>
-      <c r="CA12" s="45"/>
-      <c r="CB12" s="46"/>
-      <c r="CC12" s="42">
-        <f>IFERROR((VLOOKUP(BX12,Scoring!$A:$B,2,0))+IF(BZ12="y",1,0)+IF(CA12="y",1,0)+IF(CB12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD12" s="37"/>
-      <c r="CE12" s="43"/>
-      <c r="CF12" s="44"/>
-      <c r="CG12" s="45"/>
-      <c r="CH12" s="46"/>
-      <c r="CI12" s="42">
-        <f>IFERROR((VLOOKUP(CD12,Scoring!$A:$B,2,0))+IF(CF12="y",1,0)+IF(CG12="y",1,0)+IF(CH12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ12" s="37"/>
-      <c r="CK12" s="43"/>
-      <c r="CL12" s="44"/>
-      <c r="CM12" s="45"/>
-      <c r="CN12" s="46"/>
-      <c r="CO12" s="42">
-        <f>IFERROR((VLOOKUP(CJ12,Scoring!$A:$B,2,0))+IF(CL12="y",1,0)+IF(CM12="y",1,0)+IF(CN12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CP12" s="37"/>
-      <c r="CQ12" s="43"/>
-      <c r="CR12" s="44"/>
-      <c r="CS12" s="45"/>
-      <c r="CT12" s="46"/>
-      <c r="CU12" s="42">
-        <f>IFERROR((VLOOKUP(CP12,Scoring!$A:$B,2,0))+IF(CR12="y",1,0)+IF(CS12="y",1,0)+IF(CT12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CV12" s="37"/>
-      <c r="CW12" s="43"/>
-      <c r="CX12" s="44"/>
-      <c r="CY12" s="45"/>
-      <c r="CZ12" s="46"/>
-      <c r="DA12" s="47">
-        <f>IFERROR((VLOOKUP(CV12,Scoring!$A:$B,2,0))+IF(CX12="y",1,0)+IF(CY12="y",1,0)+IF(CZ12="y",1,0),0)</f>
+      <c r="D12" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="J12" s="48">
+        <f>IFERROR((VLOOKUP(D12,Scoring!$A:$B,2,0))+IF(F12="y",1,0)+IF(G12="y",1,0)+IF(H12="y",1,0)+IF(I12="y",1,0),0)</f>
+        <v>25</v>
+      </c>
+      <c r="K12" s="42"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="48">
+        <f>IFERROR((VLOOKUP(K12,Scoring!$A:$B,2,0))+IF(M12="y",1,0)+IF(N12="y",1,0)+IF(O12="y",1,0)+IF(P12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="42"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="48">
+        <f>IFERROR((VLOOKUP(R12,Scoring!$A:$B,2,0))+IF(T12="y",1,0)+IF(U12="y",1,0)+IF(V12="y",1,0)+IF(W12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="48">
+        <f>IFERROR((VLOOKUP(Y12,Scoring!$A:$B,2,0))+IF(AA12="y",1,0)+IF(AB12="y",1,0)+IF(AC12="y",1,0)+IF(AD12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="50"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="52"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="48">
+        <f>IFERROR((VLOOKUP(AF12,Scoring!$A:$B,2,0))+IF(AH12="y",1,0)+IF(AI12="y",1,0)+IF(AJ12="y",1,0)+IF(AK12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="52"/>
+      <c r="AR12" s="53"/>
+      <c r="AS12" s="48">
+        <f>IFERROR((VLOOKUP(AM12,Scoring!$A:$B,2,0))+IF(AO12="y",1,0)+IF(AP12="y",1,0)+IF(AQ12="y",1,0)+IF(AR12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="49"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="52"/>
+      <c r="AY12" s="53"/>
+      <c r="AZ12" s="48">
+        <f>IFERROR((VLOOKUP(AT12,Scoring!$A:$B,2,0))+IF(AV12="y",1,0)+IF(AW12="y",1,0)+IF(AX12="y",1,0)+IF(AY12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA12" s="42"/>
+      <c r="BB12" s="49"/>
+      <c r="BC12" s="50"/>
+      <c r="BD12" s="51"/>
+      <c r="BE12" s="52"/>
+      <c r="BF12" s="53"/>
+      <c r="BG12" s="48">
+        <f>IFERROR((VLOOKUP(BA12,Scoring!$A:$B,2,0))+IF(BC12="y",1,0)+IF(BD12="y",1,0)+IF(BE12="y",1,0)+IF(BF12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH12" s="42"/>
+      <c r="BI12" s="49"/>
+      <c r="BJ12" s="50"/>
+      <c r="BK12" s="51"/>
+      <c r="BL12" s="52"/>
+      <c r="BM12" s="53"/>
+      <c r="BN12" s="48">
+        <f>IFERROR((VLOOKUP(BH12,Scoring!$A:$B,2,0))+IF(BJ12="y",1,0)+IF(BK12="y",1,0)+IF(BL12="y",1,0)+IF(BM12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO12" s="42"/>
+      <c r="BP12" s="49"/>
+      <c r="BQ12" s="50"/>
+      <c r="BR12" s="51"/>
+      <c r="BS12" s="52"/>
+      <c r="BT12" s="53"/>
+      <c r="BU12" s="48">
+        <f>IFERROR((VLOOKUP(BO12,Scoring!$A:$B,2,0))+IF(BQ12="y",1,0)+IF(BR12="y",1,0)+IF(BS12="y",1,0)+IF(BT12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV12" s="42"/>
+      <c r="BW12" s="49"/>
+      <c r="BX12" s="50"/>
+      <c r="BY12" s="51"/>
+      <c r="BZ12" s="52"/>
+      <c r="CA12" s="53"/>
+      <c r="CB12" s="48">
+        <f>IFERROR((VLOOKUP(BV12,Scoring!$A:$B,2,0))+IF(BX12="y",1,0)+IF(BY12="y",1,0)+IF(BZ12="y",1,0)+IF(CA12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC12" s="42"/>
+      <c r="CD12" s="49"/>
+      <c r="CE12" s="50"/>
+      <c r="CF12" s="51"/>
+      <c r="CG12" s="52"/>
+      <c r="CH12" s="53"/>
+      <c r="CI12" s="48">
+        <f>IFERROR((VLOOKUP(CC12,Scoring!$A:$B,2,0))+IF(CE12="y",1,0)+IF(CF12="y",1,0)+IF(CG12="y",1,0)+IF(CH12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="42"/>
+      <c r="CK12" s="49"/>
+      <c r="CL12" s="50"/>
+      <c r="CM12" s="51"/>
+      <c r="CN12" s="52"/>
+      <c r="CO12" s="53"/>
+      <c r="CP12" s="48">
+        <f>IFERROR((VLOOKUP(CJ12,Scoring!$A:$B,2,0))+IF(CL12="y",1,0)+IF(CM12="y",1,0)+IF(CN12="y",1,0)+IF(CO12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CQ12" s="42"/>
+      <c r="CR12" s="49"/>
+      <c r="CS12" s="50"/>
+      <c r="CT12" s="51"/>
+      <c r="CU12" s="52"/>
+      <c r="CV12" s="53"/>
+      <c r="CW12" s="48">
+        <f>IFERROR((VLOOKUP(CQ12,Scoring!$A:$B,2,0))+IF(CS12="y",1,0)+IF(CT12="y",1,0)+IF(CU12="y",1,0)+IF(CV12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CX12" s="42"/>
+      <c r="CY12" s="49"/>
+      <c r="CZ12" s="50"/>
+      <c r="DA12" s="51"/>
+      <c r="DB12" s="52"/>
+      <c r="DC12" s="53"/>
+      <c r="DD12" s="48">
+        <f>IFERROR((VLOOKUP(CX12,Scoring!$A:$B,2,0))+IF(CZ12="y",1,0)+IF(DA12="y",1,0)+IF(DB12="y",1,0)+IF(DC12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DE12" s="42"/>
+      <c r="DF12" s="49"/>
+      <c r="DG12" s="50"/>
+      <c r="DH12" s="51"/>
+      <c r="DI12" s="52"/>
+      <c r="DJ12" s="53"/>
+      <c r="DK12" s="48">
+        <f>IFERROR((VLOOKUP(DE12,Scoring!$A:$B,2,0))+IF(DG12="y",1,0)+IF(DH12="y",1,0)+IF(DI12="y",1,0)+IF(DJ12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DL12" s="42"/>
+      <c r="DM12" s="49"/>
+      <c r="DN12" s="50"/>
+      <c r="DO12" s="51"/>
+      <c r="DP12" s="52"/>
+      <c r="DQ12" s="53"/>
+      <c r="DR12" s="48">
+        <f>IFERROR((VLOOKUP(DL12,Scoring!$A:$B,2,0))+IF(DN12="y",1,0)+IF(DO12="y",1,0)+IF(DP12="y",1,0)+IF(DQ12="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="D13" s="51">
-        <v>12.0</v>
-      </c>
-      <c r="E13" s="52">
-        <v>12.0</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="56">
-        <f>IFERROR((VLOOKUP(D13,Scoring!$A:$B,2,0))+IF(F13="y",1,0)+IF(G13="y",1,0)+IF(H13="y",1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="51"/>
+      <c r="B13" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="57">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="J13" s="63">
+        <f>IFERROR((VLOOKUP(D13,Scoring!$A:$B,2,0))+IF(F13="y",1,0)+IF(G13="y",1,0)+IF(H13="y",1,0)+IF(I13="y",1,0),0)</f>
+        <v>25</v>
+      </c>
       <c r="K13" s="57"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="56">
-        <f>IFERROR((VLOOKUP(J13,Scoring!$D:$E,2,0))+IF(L13="y",1,0)+IF(M13="y",1,0)+IF(N13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="56">
-        <f>IFERROR((VLOOKUP(P13,Scoring!$A:$B,2,0))+IF(R13="y",1,0)+IF(S13="y",1,0)+IF(T13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="51"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="56">
-        <f>IFERROR((VLOOKUP(V13,Scoring!$A:$B,2,0))+IF(X13="y",1,0)+IF(Y13="y",1,0)+IF(Z13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="56">
-        <f>IFERROR((VLOOKUP(AB13,Scoring!$A:$B,2,0))+IF(AD13="y",1,0)+IF(AE13="y",1,0)+IF(AF13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="57"/>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="59"/>
-      <c r="AL13" s="60"/>
-      <c r="AM13" s="56">
-        <f>IFERROR((VLOOKUP(AH13,Scoring!$A:$B,2,0))+IF(AJ13="y",1,0)+IF(AK13="y",1,0)+IF(AL13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="57"/>
-      <c r="AP13" s="58"/>
-      <c r="AQ13" s="59"/>
-      <c r="AR13" s="60"/>
-      <c r="AS13" s="56">
-        <f>IFERROR((VLOOKUP(AN13,Scoring!$A:$B,2,0))+IF(AP13="y",1,0)+IF(AQ13="y",1,0)+IF(AR13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT13" s="51"/>
-      <c r="AU13" s="57"/>
-      <c r="AV13" s="58"/>
-      <c r="AW13" s="59"/>
-      <c r="AX13" s="60"/>
-      <c r="AY13" s="56">
-        <f>IFERROR((VLOOKUP(AT13,Scoring!$D:$E,2,0))+IF(AV13="y",1,0)+IF(AW13="y",1,0)+IF(AX13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="51"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="63">
+        <f>IFERROR((VLOOKUP(K13,Scoring!$A:$B,2,0))+IF(M13="y",1,0)+IF(N13="y",1,0)+IF(O13="y",1,0)+IF(P13="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="57"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="63">
+        <f>IFERROR((VLOOKUP(R13,Scoring!$A:$B,2,0))+IF(T13="y",1,0)+IF(U13="y",1,0)+IF(V13="y",1,0)+IF(W13="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="63">
+        <f>IFERROR((VLOOKUP(Y13,Scoring!$A:$B,2,0))+IF(AA13="y",1,0)+IF(AB13="y",1,0)+IF(AC13="y",1,0)+IF(AD13="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="64"/>
+      <c r="AH13" s="65"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="67"/>
+      <c r="AK13" s="68"/>
+      <c r="AL13" s="63">
+        <f>IFERROR((VLOOKUP(AF13,Scoring!$A:$B,2,0))+IF(AH13="y",1,0)+IF(AI13="y",1,0)+IF(AJ13="y",1,0)+IF(AK13="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="57"/>
+      <c r="AN13" s="64"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="67"/>
+      <c r="AR13" s="68"/>
+      <c r="AS13" s="63">
+        <f>IFERROR((VLOOKUP(AM13,Scoring!$A:$B,2,0))+IF(AO13="y",1,0)+IF(AP13="y",1,0)+IF(AQ13="y",1,0)+IF(AR13="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="57"/>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="65"/>
+      <c r="AW13" s="66"/>
+      <c r="AX13" s="67"/>
+      <c r="AY13" s="68"/>
+      <c r="AZ13" s="63">
+        <f>IFERROR((VLOOKUP(AT13,Scoring!$A:$B,2,0))+IF(AV13="y",1,0)+IF(AW13="y",1,0)+IF(AX13="y",1,0)+IF(AY13="y",1,0),0)</f>
+        <v>0</v>
+      </c>
       <c r="BA13" s="57"/>
-      <c r="BB13" s="58"/>
-      <c r="BC13" s="59"/>
-      <c r="BD13" s="60"/>
-      <c r="BE13" s="56">
-        <f>IFERROR((VLOOKUP(AZ13,Scoring!$A:$B,2,0))+IF(BB13="y",1,0)+IF(BC13="y",1,0)+IF(BD13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BF13" s="51"/>
-      <c r="BG13" s="57"/>
-      <c r="BH13" s="58"/>
-      <c r="BI13" s="59"/>
-      <c r="BJ13" s="60"/>
-      <c r="BK13" s="56">
-        <f>IFERROR((VLOOKUP(BF13,Scoring!$D:$E,2,0))+IF(BH13="y",1,0)+IF(BI13="y",1,0)+IF(BJ13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL13" s="51"/>
-      <c r="BM13" s="57"/>
-      <c r="BN13" s="58"/>
-      <c r="BO13" s="59"/>
-      <c r="BP13" s="60"/>
-      <c r="BQ13" s="56">
-        <f>IFERROR((VLOOKUP(BL13,Scoring!$A:$B,2,0))+IF(BN13="y",1,0)+IF(BO13="y",1,0)+IF(BP13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR13" s="51"/>
-      <c r="BS13" s="57"/>
-      <c r="BT13" s="58"/>
-      <c r="BU13" s="59"/>
-      <c r="BV13" s="60"/>
-      <c r="BW13" s="56">
-        <f>IFERROR((VLOOKUP(BR13,Scoring!$A:$B,2,0))+IF(BT13="y",1,0)+IF(BU13="y",1,0)+IF(BV13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BX13" s="51"/>
-      <c r="BY13" s="57"/>
-      <c r="BZ13" s="58"/>
-      <c r="CA13" s="59"/>
-      <c r="CB13" s="60"/>
-      <c r="CC13" s="56">
-        <f>IFERROR((VLOOKUP(BX13,Scoring!$A:$B,2,0))+IF(BZ13="y",1,0)+IF(CA13="y",1,0)+IF(CB13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD13" s="51"/>
-      <c r="CE13" s="57"/>
-      <c r="CF13" s="58"/>
-      <c r="CG13" s="59"/>
-      <c r="CH13" s="60"/>
-      <c r="CI13" s="56">
-        <f>IFERROR((VLOOKUP(CD13,Scoring!$A:$B,2,0))+IF(CF13="y",1,0)+IF(CG13="y",1,0)+IF(CH13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ13" s="51"/>
-      <c r="CK13" s="57"/>
-      <c r="CL13" s="58"/>
-      <c r="CM13" s="59"/>
-      <c r="CN13" s="60"/>
-      <c r="CO13" s="56">
-        <f>IFERROR((VLOOKUP(CJ13,Scoring!$A:$B,2,0))+IF(CL13="y",1,0)+IF(CM13="y",1,0)+IF(CN13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CP13" s="51"/>
+      <c r="BB13" s="64"/>
+      <c r="BC13" s="65"/>
+      <c r="BD13" s="66"/>
+      <c r="BE13" s="67"/>
+      <c r="BF13" s="68"/>
+      <c r="BG13" s="63">
+        <f>IFERROR((VLOOKUP(BA13,Scoring!$A:$B,2,0))+IF(BC13="y",1,0)+IF(BD13="y",1,0)+IF(BE13="y",1,0)+IF(BF13="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH13" s="57"/>
+      <c r="BI13" s="64"/>
+      <c r="BJ13" s="65"/>
+      <c r="BK13" s="66"/>
+      <c r="BL13" s="67"/>
+      <c r="BM13" s="68"/>
+      <c r="BN13" s="63">
+        <f>IFERROR((VLOOKUP(BH13,Scoring!$A:$B,2,0))+IF(BJ13="y",1,0)+IF(BK13="y",1,0)+IF(BL13="y",1,0)+IF(BM13="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO13" s="57"/>
+      <c r="BP13" s="64"/>
+      <c r="BQ13" s="65"/>
+      <c r="BR13" s="66"/>
+      <c r="BS13" s="67"/>
+      <c r="BT13" s="68"/>
+      <c r="BU13" s="63">
+        <f>IFERROR((VLOOKUP(BO13,Scoring!$A:$B,2,0))+IF(BQ13="y",1,0)+IF(BR13="y",1,0)+IF(BS13="y",1,0)+IF(BT13="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV13" s="57"/>
+      <c r="BW13" s="64"/>
+      <c r="BX13" s="65"/>
+      <c r="BY13" s="66"/>
+      <c r="BZ13" s="67"/>
+      <c r="CA13" s="68"/>
+      <c r="CB13" s="63">
+        <f>IFERROR((VLOOKUP(BV13,Scoring!$A:$B,2,0))+IF(BX13="y",1,0)+IF(BY13="y",1,0)+IF(BZ13="y",1,0)+IF(CA13="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC13" s="57"/>
+      <c r="CD13" s="64"/>
+      <c r="CE13" s="65"/>
+      <c r="CF13" s="66"/>
+      <c r="CG13" s="67"/>
+      <c r="CH13" s="68"/>
+      <c r="CI13" s="63">
+        <f>IFERROR((VLOOKUP(CC13,Scoring!$A:$B,2,0))+IF(CE13="y",1,0)+IF(CF13="y",1,0)+IF(CG13="y",1,0)+IF(CH13="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="57"/>
+      <c r="CK13" s="64"/>
+      <c r="CL13" s="65"/>
+      <c r="CM13" s="66"/>
+      <c r="CN13" s="67"/>
+      <c r="CO13" s="68"/>
+      <c r="CP13" s="63">
+        <f>IFERROR((VLOOKUP(CJ13,Scoring!$A:$B,2,0))+IF(CL13="y",1,0)+IF(CM13="y",1,0)+IF(CN13="y",1,0)+IF(CO13="y",1,0),0)</f>
+        <v>0</v>
+      </c>
       <c r="CQ13" s="57"/>
-      <c r="CR13" s="58"/>
-      <c r="CS13" s="59"/>
-      <c r="CT13" s="60"/>
-      <c r="CU13" s="56">
-        <f>IFERROR((VLOOKUP(CP13,Scoring!$A:$B,2,0))+IF(CR13="y",1,0)+IF(CS13="y",1,0)+IF(CT13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CV13" s="51"/>
-      <c r="CW13" s="57"/>
-      <c r="CX13" s="58"/>
-      <c r="CY13" s="59"/>
-      <c r="CZ13" s="60"/>
-      <c r="DA13" s="61">
-        <f>IFERROR((VLOOKUP(CV13,Scoring!$A:$B,2,0))+IF(CX13="y",1,0)+IF(CY13="y",1,0)+IF(CZ13="y",1,0),0)</f>
+      <c r="CR13" s="64"/>
+      <c r="CS13" s="65"/>
+      <c r="CT13" s="66"/>
+      <c r="CU13" s="67"/>
+      <c r="CV13" s="68"/>
+      <c r="CW13" s="63">
+        <f>IFERROR((VLOOKUP(CQ13,Scoring!$A:$B,2,0))+IF(CS13="y",1,0)+IF(CT13="y",1,0)+IF(CU13="y",1,0)+IF(CV13="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CX13" s="57"/>
+      <c r="CY13" s="64"/>
+      <c r="CZ13" s="65"/>
+      <c r="DA13" s="66"/>
+      <c r="DB13" s="67"/>
+      <c r="DC13" s="68"/>
+      <c r="DD13" s="63">
+        <f>IFERROR((VLOOKUP(CX13,Scoring!$A:$B,2,0))+IF(CZ13="y",1,0)+IF(DA13="y",1,0)+IF(DB13="y",1,0)+IF(DC13="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DE13" s="57"/>
+      <c r="DF13" s="64"/>
+      <c r="DG13" s="65"/>
+      <c r="DH13" s="66"/>
+      <c r="DI13" s="67"/>
+      <c r="DJ13" s="68"/>
+      <c r="DK13" s="63">
+        <f>IFERROR((VLOOKUP(DE13,Scoring!$A:$B,2,0))+IF(DG13="y",1,0)+IF(DH13="y",1,0)+IF(DI13="y",1,0)+IF(DJ13="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DL13" s="57"/>
+      <c r="DM13" s="64"/>
+      <c r="DN13" s="65"/>
+      <c r="DO13" s="66"/>
+      <c r="DP13" s="67"/>
+      <c r="DQ13" s="68"/>
+      <c r="DR13" s="63">
+        <f>IFERROR((VLOOKUP(DL13,Scoring!$A:$B,2,0))+IF(DN13="y",1,0)+IF(DO13="y",1,0)+IF(DP13="y",1,0)+IF(DQ13="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D14" s="24">
-        <v>13.0</v>
-      </c>
-      <c r="E14" s="25">
-        <v>13.0</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="29">
-        <f>IFERROR((VLOOKUP(D14,Scoring!$A:$B,2,0))+IF(F14="y",1,0)+IF(G14="y",1,0)+IF(H14="y",1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="29">
-        <f>IFERROR((VLOOKUP(J14,Scoring!$D:$E,2,0))+IF(L14="y",1,0)+IF(M14="y",1,0)+IF(N14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="29">
-        <f>IFERROR((VLOOKUP(P14,Scoring!$A:$B,2,0))+IF(R14="y",1,0)+IF(S14="y",1,0)+IF(T14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V14" s="24"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="29">
-        <f>IFERROR((VLOOKUP(V14,Scoring!$A:$B,2,0))+IF(X14="y",1,0)+IF(Y14="y",1,0)+IF(Z14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="29">
-        <f>IFERROR((VLOOKUP(AB14,Scoring!$A:$B,2,0))+IF(AD14="y",1,0)+IF(AE14="y",1,0)+IF(AF14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="29">
-        <f>IFERROR((VLOOKUP(AH14,Scoring!$A:$B,2,0))+IF(AJ14="y",1,0)+IF(AK14="y",1,0)+IF(AL14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN14" s="24"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="31"/>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="33"/>
-      <c r="AS14" s="29">
-        <f>IFERROR((VLOOKUP(AN14,Scoring!$A:$B,2,0))+IF(AP14="y",1,0)+IF(AQ14="y",1,0)+IF(AR14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT14" s="24"/>
-      <c r="AU14" s="30"/>
-      <c r="AV14" s="31"/>
-      <c r="AW14" s="32"/>
-      <c r="AX14" s="33"/>
-      <c r="AY14" s="29">
-        <f>IFERROR((VLOOKUP(AT14,Scoring!$D:$E,2,0))+IF(AV14="y",1,0)+IF(AW14="y",1,0)+IF(AX14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="24"/>
-      <c r="BA14" s="30"/>
-      <c r="BB14" s="31"/>
-      <c r="BC14" s="32"/>
-      <c r="BD14" s="33"/>
-      <c r="BE14" s="29">
-        <f>IFERROR((VLOOKUP(AZ14,Scoring!$A:$B,2,0))+IF(BB14="y",1,0)+IF(BC14="y",1,0)+IF(BD14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BF14" s="24"/>
-      <c r="BG14" s="30"/>
-      <c r="BH14" s="31"/>
-      <c r="BI14" s="32"/>
-      <c r="BJ14" s="33"/>
-      <c r="BK14" s="29">
-        <f>IFERROR((VLOOKUP(BF14,Scoring!$D:$E,2,0))+IF(BH14="y",1,0)+IF(BI14="y",1,0)+IF(BJ14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL14" s="24"/>
-      <c r="BM14" s="30"/>
-      <c r="BN14" s="31"/>
-      <c r="BO14" s="32"/>
-      <c r="BP14" s="33"/>
-      <c r="BQ14" s="29">
-        <f>IFERROR((VLOOKUP(BL14,Scoring!$A:$B,2,0))+IF(BN14="y",1,0)+IF(BO14="y",1,0)+IF(BP14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR14" s="24"/>
-      <c r="BS14" s="30"/>
-      <c r="BT14" s="31"/>
-      <c r="BU14" s="32"/>
-      <c r="BV14" s="33"/>
-      <c r="BW14" s="29">
-        <f>IFERROR((VLOOKUP(BR14,Scoring!$A:$B,2,0))+IF(BT14="y",1,0)+IF(BU14="y",1,0)+IF(BV14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BX14" s="24"/>
-      <c r="BY14" s="30"/>
-      <c r="BZ14" s="31"/>
-      <c r="CA14" s="32"/>
-      <c r="CB14" s="33"/>
-      <c r="CC14" s="29">
-        <f>IFERROR((VLOOKUP(BX14,Scoring!$A:$B,2,0))+IF(BZ14="y",1,0)+IF(CA14="y",1,0)+IF(CB14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD14" s="24"/>
-      <c r="CE14" s="30"/>
-      <c r="CF14" s="31"/>
-      <c r="CG14" s="32"/>
-      <c r="CH14" s="33"/>
-      <c r="CI14" s="29">
-        <f>IFERROR((VLOOKUP(CD14,Scoring!$A:$B,2,0))+IF(CF14="y",1,0)+IF(CG14="y",1,0)+IF(CH14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ14" s="24"/>
-      <c r="CK14" s="30"/>
-      <c r="CL14" s="31"/>
-      <c r="CM14" s="32"/>
-      <c r="CN14" s="33"/>
-      <c r="CO14" s="29">
-        <f>IFERROR((VLOOKUP(CJ14,Scoring!$A:$B,2,0))+IF(CL14="y",1,0)+IF(CM14="y",1,0)+IF(CN14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CP14" s="24"/>
-      <c r="CQ14" s="30"/>
-      <c r="CR14" s="31"/>
-      <c r="CS14" s="32"/>
-      <c r="CT14" s="33"/>
-      <c r="CU14" s="29">
-        <f>IFERROR((VLOOKUP(CP14,Scoring!$A:$B,2,0))+IF(CR14="y",1,0)+IF(CS14="y",1,0)+IF(CT14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CV14" s="24"/>
-      <c r="CW14" s="30"/>
-      <c r="CX14" s="31"/>
-      <c r="CY14" s="32"/>
-      <c r="CZ14" s="33"/>
-      <c r="DA14" s="29">
-        <f>IFERROR((VLOOKUP(CV14,Scoring!$A:$B,2,0))+IF(CX14="y",1,0)+IF(CY14="y",1,0)+IF(CZ14="y",1,0),0)</f>
+        <v>273</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="J14" s="33">
+        <f>IFERROR((VLOOKUP(D14,Scoring!$A:$B,2,0))+IF(F14="y",1,0)+IF(G14="y",1,0)+IF(H14="y",1,0)+IF(I14="y",1,0),0)</f>
+        <v>25</v>
+      </c>
+      <c r="K14" s="27"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="33">
+        <f>IFERROR((VLOOKUP(K14,Scoring!$A:$B,2,0))+IF(M14="y",1,0)+IF(N14="y",1,0)+IF(O14="y",1,0)+IF(P14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="27"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="33">
+        <f>IFERROR((VLOOKUP(R14,Scoring!$A:$B,2,0))+IF(T14="y",1,0)+IF(U14="y",1,0)+IF(V14="y",1,0)+IF(W14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="33">
+        <f>IFERROR((VLOOKUP(Y14,Scoring!$A:$B,2,0))+IF(AA14="y",1,0)+IF(AB14="y",1,0)+IF(AC14="y",1,0)+IF(AD14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="33">
+        <f>IFERROR((VLOOKUP(AF14,Scoring!$A:$B,2,0))+IF(AH14="y",1,0)+IF(AI14="y",1,0)+IF(AJ14="y",1,0)+IF(AK14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="37"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="33">
+        <f>IFERROR((VLOOKUP(AM14,Scoring!$A:$B,2,0))+IF(AO14="y",1,0)+IF(AP14="y",1,0)+IF(AQ14="y",1,0)+IF(AR14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="34"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="36"/>
+      <c r="AX14" s="37"/>
+      <c r="AY14" s="38"/>
+      <c r="AZ14" s="33">
+        <f>IFERROR((VLOOKUP(AT14,Scoring!$A:$B,2,0))+IF(AV14="y",1,0)+IF(AW14="y",1,0)+IF(AX14="y",1,0)+IF(AY14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA14" s="27"/>
+      <c r="BB14" s="34"/>
+      <c r="BC14" s="35"/>
+      <c r="BD14" s="36"/>
+      <c r="BE14" s="37"/>
+      <c r="BF14" s="38"/>
+      <c r="BG14" s="33">
+        <f>IFERROR((VLOOKUP(BA14,Scoring!$A:$B,2,0))+IF(BC14="y",1,0)+IF(BD14="y",1,0)+IF(BE14="y",1,0)+IF(BF14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH14" s="27"/>
+      <c r="BI14" s="34"/>
+      <c r="BJ14" s="35"/>
+      <c r="BK14" s="36"/>
+      <c r="BL14" s="37"/>
+      <c r="BM14" s="38"/>
+      <c r="BN14" s="33">
+        <f>IFERROR((VLOOKUP(BH14,Scoring!$A:$B,2,0))+IF(BJ14="y",1,0)+IF(BK14="y",1,0)+IF(BL14="y",1,0)+IF(BM14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO14" s="27"/>
+      <c r="BP14" s="34"/>
+      <c r="BQ14" s="35"/>
+      <c r="BR14" s="36"/>
+      <c r="BS14" s="37"/>
+      <c r="BT14" s="38"/>
+      <c r="BU14" s="33">
+        <f>IFERROR((VLOOKUP(BO14,Scoring!$A:$B,2,0))+IF(BQ14="y",1,0)+IF(BR14="y",1,0)+IF(BS14="y",1,0)+IF(BT14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV14" s="27"/>
+      <c r="BW14" s="34"/>
+      <c r="BX14" s="35"/>
+      <c r="BY14" s="36"/>
+      <c r="BZ14" s="37"/>
+      <c r="CA14" s="38"/>
+      <c r="CB14" s="33">
+        <f>IFERROR((VLOOKUP(BV14,Scoring!$A:$B,2,0))+IF(BX14="y",1,0)+IF(BY14="y",1,0)+IF(BZ14="y",1,0)+IF(CA14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC14" s="27"/>
+      <c r="CD14" s="34"/>
+      <c r="CE14" s="35"/>
+      <c r="CF14" s="36"/>
+      <c r="CG14" s="37"/>
+      <c r="CH14" s="38"/>
+      <c r="CI14" s="33">
+        <f>IFERROR((VLOOKUP(CC14,Scoring!$A:$B,2,0))+IF(CE14="y",1,0)+IF(CF14="y",1,0)+IF(CG14="y",1,0)+IF(CH14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ14" s="27"/>
+      <c r="CK14" s="34"/>
+      <c r="CL14" s="35"/>
+      <c r="CM14" s="36"/>
+      <c r="CN14" s="37"/>
+      <c r="CO14" s="38"/>
+      <c r="CP14" s="33">
+        <f>IFERROR((VLOOKUP(CJ14,Scoring!$A:$B,2,0))+IF(CL14="y",1,0)+IF(CM14="y",1,0)+IF(CN14="y",1,0)+IF(CO14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CQ14" s="27"/>
+      <c r="CR14" s="34"/>
+      <c r="CS14" s="35"/>
+      <c r="CT14" s="36"/>
+      <c r="CU14" s="37"/>
+      <c r="CV14" s="38"/>
+      <c r="CW14" s="33">
+        <f>IFERROR((VLOOKUP(CQ14,Scoring!$A:$B,2,0))+IF(CS14="y",1,0)+IF(CT14="y",1,0)+IF(CU14="y",1,0)+IF(CV14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CX14" s="27"/>
+      <c r="CY14" s="34"/>
+      <c r="CZ14" s="35"/>
+      <c r="DA14" s="36"/>
+      <c r="DB14" s="37"/>
+      <c r="DC14" s="38"/>
+      <c r="DD14" s="33">
+        <f>IFERROR((VLOOKUP(CX14,Scoring!$A:$B,2,0))+IF(CZ14="y",1,0)+IF(DA14="y",1,0)+IF(DB14="y",1,0)+IF(DC14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DE14" s="27"/>
+      <c r="DF14" s="34"/>
+      <c r="DG14" s="35"/>
+      <c r="DH14" s="36"/>
+      <c r="DI14" s="37"/>
+      <c r="DJ14" s="38"/>
+      <c r="DK14" s="33">
+        <f>IFERROR((VLOOKUP(DE14,Scoring!$A:$B,2,0))+IF(DG14="y",1,0)+IF(DH14="y",1,0)+IF(DI14="y",1,0)+IF(DJ14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DL14" s="27"/>
+      <c r="DM14" s="34"/>
+      <c r="DN14" s="35"/>
+      <c r="DO14" s="36"/>
+      <c r="DP14" s="37"/>
+      <c r="DQ14" s="38"/>
+      <c r="DR14" s="33">
+        <f>IFERROR((VLOOKUP(DL14,Scoring!$A:$B,2,0))+IF(DN14="y",1,0)+IF(DO14="y",1,0)+IF(DP14="y",1,0)+IF(DQ14="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>257</v>
-      </c>
-      <c r="C15" s="64" t="s">
-        <v>258</v>
-      </c>
-      <c r="D15" s="65">
-        <v>14.0</v>
-      </c>
-      <c r="E15" s="66">
-        <v>14.0</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="70">
-        <f>IFERROR((VLOOKUP(D15,Scoring!$A:$B,2,0))+IF(F15="y",1,0)+IF(G15="y",1,0)+IF(H15="y",1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="J15" s="65"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="70">
-        <f>IFERROR((VLOOKUP(J15,Scoring!$D:$E,2,0))+IF(L15="y",1,0)+IF(M15="y",1,0)+IF(N15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="71"/>
+      <c r="B15" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" s="72">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="73">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" s="76" t="s">
+        <v>266</v>
+      </c>
+      <c r="I15" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="J15" s="78">
+        <f>IFERROR((VLOOKUP(D15,Scoring!$A:$B,2,0))+IF(F15="y",1,0)+IF(G15="y",1,0)+IF(H15="y",1,0)+IF(I15="y",1,0),0)</f>
+        <v>25</v>
+      </c>
+      <c r="K15" s="72"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="78">
+        <f>IFERROR((VLOOKUP(K15,Scoring!$A:$B,2,0))+IF(M15="y",1,0)+IF(N15="y",1,0)+IF(O15="y",1,0)+IF(P15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
       <c r="R15" s="72"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="70">
-        <f>IFERROR((VLOOKUP(P15,Scoring!$A:$B,2,0))+IF(R15="y",1,0)+IF(S15="y",1,0)+IF(T15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="65"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="70">
-        <f>IFERROR((VLOOKUP(V15,Scoring!$A:$B,2,0))+IF(X15="y",1,0)+IF(Y15="y",1,0)+IF(Z15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="73"/>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="70">
-        <f>IFERROR((VLOOKUP(AB15,Scoring!$A:$B,2,0))+IF(AD15="y",1,0)+IF(AE15="y",1,0)+IF(AF15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="73"/>
-      <c r="AL15" s="74"/>
-      <c r="AM15" s="70">
-        <f>IFERROR((VLOOKUP(AH15,Scoring!$A:$B,2,0))+IF(AJ15="y",1,0)+IF(AK15="y",1,0)+IF(AL15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="71"/>
-      <c r="AP15" s="72"/>
-      <c r="AQ15" s="73"/>
-      <c r="AR15" s="74"/>
-      <c r="AS15" s="70">
-        <f>IFERROR((VLOOKUP(AN15,Scoring!$A:$B,2,0))+IF(AP15="y",1,0)+IF(AQ15="y",1,0)+IF(AR15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="71"/>
-      <c r="AV15" s="72"/>
-      <c r="AW15" s="73"/>
-      <c r="AX15" s="74"/>
-      <c r="AY15" s="70">
-        <f>IFERROR((VLOOKUP(AT15,Scoring!$D:$E,2,0))+IF(AV15="y",1,0)+IF(AW15="y",1,0)+IF(AX15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="65"/>
-      <c r="BA15" s="71"/>
-      <c r="BB15" s="72"/>
-      <c r="BC15" s="73"/>
-      <c r="BD15" s="74"/>
-      <c r="BE15" s="70">
-        <f>IFERROR((VLOOKUP(AZ15,Scoring!$A:$B,2,0))+IF(BB15="y",1,0)+IF(BC15="y",1,0)+IF(BD15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BF15" s="65"/>
-      <c r="BG15" s="71"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="78">
+        <f>IFERROR((VLOOKUP(R15,Scoring!$A:$B,2,0))+IF(T15="y",1,0)+IF(U15="y",1,0)+IF(V15="y",1,0)+IF(W15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="80"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="83"/>
+      <c r="AE15" s="78">
+        <f>IFERROR((VLOOKUP(Y15,Scoring!$A:$B,2,0))+IF(AA15="y",1,0)+IF(AB15="y",1,0)+IF(AC15="y",1,0)+IF(AD15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="79"/>
+      <c r="AH15" s="80"/>
+      <c r="AI15" s="81"/>
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="83"/>
+      <c r="AL15" s="78">
+        <f>IFERROR((VLOOKUP(AF15,Scoring!$A:$B,2,0))+IF(AH15="y",1,0)+IF(AI15="y",1,0)+IF(AJ15="y",1,0)+IF(AK15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="72"/>
+      <c r="AN15" s="79"/>
+      <c r="AO15" s="80"/>
+      <c r="AP15" s="81"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="83"/>
+      <c r="AS15" s="78">
+        <f>IFERROR((VLOOKUP(AM15,Scoring!$A:$B,2,0))+IF(AO15="y",1,0)+IF(AP15="y",1,0)+IF(AQ15="y",1,0)+IF(AR15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="79"/>
+      <c r="AV15" s="80"/>
+      <c r="AW15" s="81"/>
+      <c r="AX15" s="82"/>
+      <c r="AY15" s="83"/>
+      <c r="AZ15" s="78">
+        <f>IFERROR((VLOOKUP(AT15,Scoring!$A:$B,2,0))+IF(AV15="y",1,0)+IF(AW15="y",1,0)+IF(AX15="y",1,0)+IF(AY15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA15" s="72"/>
+      <c r="BB15" s="79"/>
+      <c r="BC15" s="80"/>
+      <c r="BD15" s="81"/>
+      <c r="BE15" s="82"/>
+      <c r="BF15" s="83"/>
+      <c r="BG15" s="78">
+        <f>IFERROR((VLOOKUP(BA15,Scoring!$A:$B,2,0))+IF(BC15="y",1,0)+IF(BD15="y",1,0)+IF(BE15="y",1,0)+IF(BF15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
       <c r="BH15" s="72"/>
-      <c r="BI15" s="73"/>
-      <c r="BJ15" s="74"/>
-      <c r="BK15" s="70">
-        <f>IFERROR((VLOOKUP(BF15,Scoring!$D:$E,2,0))+IF(BH15="y",1,0)+IF(BI15="y",1,0)+IF(BJ15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL15" s="65"/>
-      <c r="BM15" s="71"/>
-      <c r="BN15" s="72"/>
-      <c r="BO15" s="73"/>
-      <c r="BP15" s="74"/>
-      <c r="BQ15" s="70">
-        <f>IFERROR((VLOOKUP(BL15,Scoring!$A:$B,2,0))+IF(BN15="y",1,0)+IF(BO15="y",1,0)+IF(BP15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR15" s="65"/>
-      <c r="BS15" s="71"/>
-      <c r="BT15" s="72"/>
-      <c r="BU15" s="73"/>
-      <c r="BV15" s="74"/>
-      <c r="BW15" s="70">
-        <f>IFERROR((VLOOKUP(BR15,Scoring!$A:$B,2,0))+IF(BT15="y",1,0)+IF(BU15="y",1,0)+IF(BV15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BX15" s="65"/>
-      <c r="BY15" s="71"/>
-      <c r="BZ15" s="72"/>
-      <c r="CA15" s="73"/>
-      <c r="CB15" s="74"/>
-      <c r="CC15" s="70">
-        <f>IFERROR((VLOOKUP(BX15,Scoring!$A:$B,2,0))+IF(BZ15="y",1,0)+IF(CA15="y",1,0)+IF(CB15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD15" s="65"/>
-      <c r="CE15" s="71"/>
-      <c r="CF15" s="72"/>
-      <c r="CG15" s="73"/>
-      <c r="CH15" s="74"/>
-      <c r="CI15" s="70">
-        <f>IFERROR((VLOOKUP(CD15,Scoring!$A:$B,2,0))+IF(CF15="y",1,0)+IF(CG15="y",1,0)+IF(CH15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ15" s="65"/>
-      <c r="CK15" s="71"/>
-      <c r="CL15" s="72"/>
-      <c r="CM15" s="73"/>
-      <c r="CN15" s="74"/>
-      <c r="CO15" s="70">
-        <f>IFERROR((VLOOKUP(CJ15,Scoring!$A:$B,2,0))+IF(CL15="y",1,0)+IF(CM15="y",1,0)+IF(CN15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CP15" s="65"/>
-      <c r="CQ15" s="71"/>
-      <c r="CR15" s="72"/>
-      <c r="CS15" s="73"/>
-      <c r="CT15" s="74"/>
-      <c r="CU15" s="70">
-        <f>IFERROR((VLOOKUP(CP15,Scoring!$A:$B,2,0))+IF(CR15="y",1,0)+IF(CS15="y",1,0)+IF(CT15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CV15" s="65"/>
-      <c r="CW15" s="71"/>
+      <c r="BI15" s="79"/>
+      <c r="BJ15" s="80"/>
+      <c r="BK15" s="81"/>
+      <c r="BL15" s="82"/>
+      <c r="BM15" s="83"/>
+      <c r="BN15" s="78">
+        <f>IFERROR((VLOOKUP(BH15,Scoring!$A:$B,2,0))+IF(BJ15="y",1,0)+IF(BK15="y",1,0)+IF(BL15="y",1,0)+IF(BM15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO15" s="72"/>
+      <c r="BP15" s="79"/>
+      <c r="BQ15" s="80"/>
+      <c r="BR15" s="81"/>
+      <c r="BS15" s="82"/>
+      <c r="BT15" s="83"/>
+      <c r="BU15" s="78">
+        <f>IFERROR((VLOOKUP(BO15,Scoring!$A:$B,2,0))+IF(BQ15="y",1,0)+IF(BR15="y",1,0)+IF(BS15="y",1,0)+IF(BT15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV15" s="72"/>
+      <c r="BW15" s="79"/>
+      <c r="BX15" s="80"/>
+      <c r="BY15" s="81"/>
+      <c r="BZ15" s="82"/>
+      <c r="CA15" s="83"/>
+      <c r="CB15" s="78">
+        <f>IFERROR((VLOOKUP(BV15,Scoring!$A:$B,2,0))+IF(BX15="y",1,0)+IF(BY15="y",1,0)+IF(BZ15="y",1,0)+IF(CA15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC15" s="72"/>
+      <c r="CD15" s="79"/>
+      <c r="CE15" s="80"/>
+      <c r="CF15" s="81"/>
+      <c r="CG15" s="82"/>
+      <c r="CH15" s="83"/>
+      <c r="CI15" s="78">
+        <f>IFERROR((VLOOKUP(CC15,Scoring!$A:$B,2,0))+IF(CE15="y",1,0)+IF(CF15="y",1,0)+IF(CG15="y",1,0)+IF(CH15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="72"/>
+      <c r="CK15" s="79"/>
+      <c r="CL15" s="80"/>
+      <c r="CM15" s="81"/>
+      <c r="CN15" s="82"/>
+      <c r="CO15" s="83"/>
+      <c r="CP15" s="78">
+        <f>IFERROR((VLOOKUP(CJ15,Scoring!$A:$B,2,0))+IF(CL15="y",1,0)+IF(CM15="y",1,0)+IF(CN15="y",1,0)+IF(CO15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CQ15" s="72"/>
+      <c r="CR15" s="79"/>
+      <c r="CS15" s="80"/>
+      <c r="CT15" s="81"/>
+      <c r="CU15" s="82"/>
+      <c r="CV15" s="83"/>
+      <c r="CW15" s="78">
+        <f>IFERROR((VLOOKUP(CQ15,Scoring!$A:$B,2,0))+IF(CS15="y",1,0)+IF(CT15="y",1,0)+IF(CU15="y",1,0)+IF(CV15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
       <c r="CX15" s="72"/>
-      <c r="CY15" s="73"/>
-      <c r="CZ15" s="74"/>
-      <c r="DA15" s="70">
-        <f>IFERROR((VLOOKUP(CV15,Scoring!$A:$B,2,0))+IF(CX15="y",1,0)+IF(CY15="y",1,0)+IF(CZ15="y",1,0),0)</f>
+      <c r="CY15" s="79"/>
+      <c r="CZ15" s="80"/>
+      <c r="DA15" s="81"/>
+      <c r="DB15" s="82"/>
+      <c r="DC15" s="83"/>
+      <c r="DD15" s="78">
+        <f>IFERROR((VLOOKUP(CX15,Scoring!$A:$B,2,0))+IF(CZ15="y",1,0)+IF(DA15="y",1,0)+IF(DB15="y",1,0)+IF(DC15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DE15" s="72"/>
+      <c r="DF15" s="79"/>
+      <c r="DG15" s="80"/>
+      <c r="DH15" s="81"/>
+      <c r="DI15" s="82"/>
+      <c r="DJ15" s="83"/>
+      <c r="DK15" s="78">
+        <f>IFERROR((VLOOKUP(DE15,Scoring!$A:$B,2,0))+IF(DG15="y",1,0)+IF(DH15="y",1,0)+IF(DI15="y",1,0)+IF(DJ15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DL15" s="72"/>
+      <c r="DM15" s="79"/>
+      <c r="DN15" s="80"/>
+      <c r="DO15" s="81"/>
+      <c r="DP15" s="82"/>
+      <c r="DQ15" s="83"/>
+      <c r="DR15" s="78">
+        <f>IFERROR((VLOOKUP(DL15,Scoring!$A:$B,2,0))+IF(DN15="y",1,0)+IF(DO15="y",1,0)+IF(DP15="y",1,0)+IF(DQ15="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="309">
   <si>
     <t>Positions</t>
   </si>
@@ -820,6 +820,9 @@
     <t>ImolaPoints</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
@@ -871,19 +874,22 @@
     <t>10/1/2025</t>
   </si>
   <si>
+    <t>FIA Review</t>
+  </si>
+  <si>
+    <t>Miami Sprint</t>
+  </si>
+  <si>
+    <t>10/8/2025</t>
+  </si>
+  <si>
     <t>Confirmed</t>
   </si>
   <si>
-    <t>Miami Sprint</t>
-  </si>
-  <si>
-    <t>10/8/2025</t>
+    <t>10/22/2025</t>
   </si>
   <si>
     <t>Tentative</t>
-  </si>
-  <si>
-    <t>10/22/2025</t>
   </si>
   <si>
     <t>10/29/2025</t>
@@ -1664,21 +1670,21 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3">
@@ -1686,21 +1692,21 @@
         <v>116</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5">
@@ -1708,10 +1714,10 @@
         <v>119</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6">
@@ -1719,10 +1725,10 @@
         <v>120</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7">
@@ -1730,10 +1736,10 @@
         <v>131</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8">
@@ -1741,32 +1747,32 @@
         <v>180</v>
       </c>
       <c r="B8" s="84" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11">
@@ -1774,21 +1780,21 @@
         <v>124</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B12" s="84" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13">
@@ -1796,10 +1802,10 @@
         <v>132</v>
       </c>
       <c r="B13" s="84" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14">
@@ -1807,10 +1813,10 @@
         <v>122</v>
       </c>
       <c r="B14" s="84" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15">
@@ -1818,32 +1824,32 @@
         <v>125</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18">
@@ -1851,32 +1857,32 @@
         <v>134</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B20" s="84" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -9942,26 +9948,26 @@
         <v>147</v>
       </c>
       <c r="D2" s="15">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" s="16">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>266</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J2" s="21">
         <f>IFERROR((VLOOKUP(D2,Scoring!$A:$B,2,0))+IF(F2="y",1,0)+IF(G2="y",1,0)+IF(H2="y",1,0)+IF(I2="y",1,0),0)</f>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="22"/>
@@ -10135,13 +10141,13 @@
         <v>149</v>
       </c>
       <c r="D3" s="27">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E3" s="28">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>266</v>
@@ -10150,11 +10156,11 @@
         <v>266</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J3" s="33">
         <f>IFERROR((VLOOKUP(D3,Scoring!$A:$B,2,0))+IF(F3="y",1,0)+IF(G3="y",1,0)+IF(H3="y",1,0)+IF(I3="y",1,0),0)</f>
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="34"/>
@@ -10328,26 +10334,26 @@
         <v>93</v>
       </c>
       <c r="D4" s="42">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E4" s="43">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J4" s="48">
         <f>IFERROR((VLOOKUP(D4,Scoring!$A:$B,2,0))+IF(F4="y",1,0)+IF(G4="y",1,0)+IF(H4="y",1,0)+IF(I4="y",1,0),0)</f>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K4" s="42"/>
       <c r="L4" s="49"/>
@@ -10521,26 +10527,26 @@
         <v>172</v>
       </c>
       <c r="D5" s="57">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="E5" s="58">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I5" s="62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J5" s="63">
         <f>IFERROR((VLOOKUP(D5,Scoring!$A:$B,2,0))+IF(F5="y",1,0)+IF(G5="y",1,0)+IF(H5="y",1,0)+IF(I5="y",1,0),0)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K5" s="57"/>
       <c r="L5" s="64"/>
@@ -10717,19 +10723,19 @@
         <v>1.0</v>
       </c>
       <c r="E6" s="28">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J6" s="33">
         <f>IFERROR((VLOOKUP(D6,Scoring!$A:$B,2,0))+IF(F6="y",1,0)+IF(G6="y",1,0)+IF(H6="y",1,0)+IF(I6="y",1,0),0)</f>
@@ -10901,32 +10907,32 @@
         <v>173</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="E7" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>266</v>
-      </c>
       <c r="G7" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J7" s="33">
         <f>IFERROR((VLOOKUP(D7,Scoring!$A:$B,2,0))+IF(F7="y",1,0)+IF(G7="y",1,0)+IF(H7="y",1,0)+IF(I7="y",1,0),0)</f>
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="K7" s="27"/>
       <c r="L7" s="34"/>
@@ -11100,26 +11106,26 @@
         <v>177</v>
       </c>
       <c r="D8" s="42">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="E8" s="43">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I8" s="47" t="s">
         <v>266</v>
       </c>
       <c r="J8" s="48">
         <f>IFERROR((VLOOKUP(D8,Scoring!$A:$B,2,0))+IF(F8="y",1,0)+IF(G8="y",1,0)+IF(H8="y",1,0)+IF(I8="y",1,0),0)</f>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K8" s="42"/>
       <c r="L8" s="49"/>
@@ -11287,32 +11293,32 @@
         <v>108</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D9" s="57">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="E9" s="58">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H9" s="61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I9" s="62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J9" s="63">
         <f>IFERROR((VLOOKUP(D9,Scoring!$A:$B,2,0))+IF(F9="y",1,0)+IF(G9="y",1,0)+IF(H9="y",1,0)+IF(I9="y",1,0),0)</f>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="K9" s="57"/>
       <c r="L9" s="64"/>
@@ -11486,26 +11492,26 @@
         <v>144</v>
       </c>
       <c r="D10" s="27">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E10" s="28">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J10" s="33">
         <f>IFERROR((VLOOKUP(D10,Scoring!$A:$B,2,0))+IF(F10="y",1,0)+IF(G10="y",1,0)+IF(H10="y",1,0)+IF(I10="y",1,0),0)</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="34"/>
@@ -11679,26 +11685,26 @@
         <v>112</v>
       </c>
       <c r="D11" s="27">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E11" s="28">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J11" s="33">
         <f>IFERROR((VLOOKUP(D11,Scoring!$A:$B,2,0))+IF(F11="y",1,0)+IF(G11="y",1,0)+IF(H11="y",1,0)+IF(I11="y",1,0),0)</f>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="34"/>
@@ -11872,26 +11878,26 @@
         <v>105</v>
       </c>
       <c r="D12" s="42">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E12" s="43">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J12" s="48">
         <f>IFERROR((VLOOKUP(D12,Scoring!$A:$B,2,0))+IF(F12="y",1,0)+IF(G12="y",1,0)+IF(H12="y",1,0)+IF(I12="y",1,0),0)</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K12" s="42"/>
       <c r="L12" s="49"/>
@@ -12059,32 +12065,32 @@
         <v>113</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D13" s="57">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="E13" s="58">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H13" s="61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I13" s="62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J13" s="63">
         <f>IFERROR((VLOOKUP(D13,Scoring!$A:$B,2,0))+IF(F13="y",1,0)+IF(G13="y",1,0)+IF(H13="y",1,0)+IF(I13="y",1,0),0)</f>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="K13" s="57"/>
       <c r="L13" s="64"/>
@@ -12252,32 +12258,32 @@
         <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D14" s="27">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="E14" s="28">
         <v>1.0</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J14" s="33">
         <f>IFERROR((VLOOKUP(D14,Scoring!$A:$B,2,0))+IF(F14="y",1,0)+IF(G14="y",1,0)+IF(H14="y",1,0)+IF(I14="y",1,0),0)</f>
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="K14" s="27"/>
       <c r="L14" s="34"/>
@@ -12445,32 +12451,32 @@
         <v>103</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D15" s="72">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="E15" s="73">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F15" s="74" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G15" s="75" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H15" s="76" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I15" s="77" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J15" s="78">
         <f>IFERROR((VLOOKUP(D15,Scoring!$A:$B,2,0))+IF(F15="y",1,0)+IF(G15="y",1,0)+IF(H15="y",1,0)+IF(I15="y",1,0),0)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K15" s="72"/>
       <c r="L15" s="79"/>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="308">
   <si>
     <t>Positions</t>
   </si>
@@ -872,9 +872,6 @@
   </si>
   <si>
     <t>10/1/2025</t>
-  </si>
-  <si>
-    <t>FIA Review</t>
   </si>
   <si>
     <t>Miami Sprint</t>
@@ -1695,18 +1692,18 @@
         <v>283</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="C4" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="5">
@@ -1714,10 +1711,10 @@
         <v>119</v>
       </c>
       <c r="B5" s="84" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="6">
@@ -1725,10 +1722,10 @@
         <v>120</v>
       </c>
       <c r="B6" s="84" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="7">
@@ -1736,10 +1733,10 @@
         <v>131</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8">
@@ -1747,32 +1744,32 @@
         <v>180</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="B9" s="84" t="s">
-        <v>293</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" s="84" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="84" t="s">
-        <v>295</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11">
@@ -1780,21 +1777,21 @@
         <v>124</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="84" t="s">
         <v>296</v>
       </c>
-      <c r="B12" s="84" t="s">
-        <v>297</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13">
@@ -1802,10 +1799,10 @@
         <v>132</v>
       </c>
       <c r="B13" s="84" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14">
@@ -1813,10 +1810,10 @@
         <v>122</v>
       </c>
       <c r="B14" s="84" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15">
@@ -1824,32 +1821,32 @@
         <v>125</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="84" t="s">
         <v>300</v>
       </c>
-      <c r="B16" s="84" t="s">
-        <v>301</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" s="84" t="s">
         <v>302</v>
       </c>
-      <c r="B17" s="84" t="s">
-        <v>303</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18">
@@ -1857,32 +1854,32 @@
         <v>134</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" s="84" t="s">
         <v>305</v>
       </c>
-      <c r="B19" s="84" t="s">
-        <v>306</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B20" s="84" t="s">
         <v>307</v>
       </c>
-      <c r="B20" s="84" t="s">
-        <v>308</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -11106,7 +11103,7 @@
         <v>177</v>
       </c>
       <c r="D8" s="42">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E8" s="43">
         <v>10.0</v>
@@ -11125,7 +11122,7 @@
       </c>
       <c r="J8" s="48">
         <f>IFERROR((VLOOKUP(D8,Scoring!$A:$B,2,0))+IF(F8="y",1,0)+IF(G8="y",1,0)+IF(H8="y",1,0)+IF(I8="y",1,0),0)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K8" s="42"/>
       <c r="L8" s="49"/>
@@ -11299,7 +11296,7 @@
         <v>271</v>
       </c>
       <c r="D9" s="57">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="E9" s="58">
         <v>5.0</v>
@@ -11492,7 +11489,7 @@
         <v>144</v>
       </c>
       <c r="D10" s="27">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E10" s="28">
         <v>8.0</v>
@@ -11511,7 +11508,7 @@
       </c>
       <c r="J10" s="33">
         <f>IFERROR((VLOOKUP(D10,Scoring!$A:$B,2,0))+IF(F10="y",1,0)+IF(G10="y",1,0)+IF(H10="y",1,0)+IF(I10="y",1,0),0)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="34"/>
@@ -11685,7 +11682,7 @@
         <v>112</v>
       </c>
       <c r="D11" s="27">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E11" s="28">
         <v>12.0</v>
@@ -11704,7 +11701,7 @@
       </c>
       <c r="J11" s="33">
         <f>IFERROR((VLOOKUP(D11,Scoring!$A:$B,2,0))+IF(F11="y",1,0)+IF(G11="y",1,0)+IF(H11="y",1,0)+IF(I11="y",1,0),0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="34"/>
@@ -11878,7 +11875,7 @@
         <v>105</v>
       </c>
       <c r="D12" s="42">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E12" s="43">
         <v>9.0</v>
@@ -11897,7 +11894,7 @@
       </c>
       <c r="J12" s="48">
         <f>IFERROR((VLOOKUP(D12,Scoring!$A:$B,2,0))+IF(F12="y",1,0)+IF(G12="y",1,0)+IF(H12="y",1,0)+IF(I12="y",1,0),0)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K12" s="42"/>
       <c r="L12" s="49"/>
@@ -12264,7 +12261,7 @@
         <v>275</v>
       </c>
       <c r="D14" s="27">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="E14" s="28">
         <v>1.0</v>
@@ -12283,7 +12280,7 @@
       </c>
       <c r="J14" s="33">
         <f>IFERROR((VLOOKUP(D14,Scoring!$A:$B,2,0))+IF(F14="y",1,0)+IF(G14="y",1,0)+IF(H14="y",1,0)+IF(I14="y",1,0),0)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K14" s="27"/>
       <c r="L14" s="34"/>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="308">
   <si>
     <t>Positions</t>
   </si>
@@ -972,7 +972,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1019,6 +1019,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1152,7 +1158,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1217,6 +1223,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1241,6 +1250,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1274,6 +1286,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1307,6 +1322,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="13" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1340,6 +1358,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="16" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="16" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1677,7 +1698,7 @@
       <c r="A2" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="89" t="s">
         <v>281</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1688,7 +1709,7 @@
       <c r="A3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="89" t="s">
         <v>283</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1699,7 +1720,7 @@
       <c r="A4" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="89" t="s">
         <v>285</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1710,7 +1731,7 @@
       <c r="A5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="89" t="s">
         <v>285</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1721,7 +1742,7 @@
       <c r="A6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="89" t="s">
         <v>287</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1732,7 +1753,7 @@
       <c r="A7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="89" t="s">
         <v>289</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1743,7 +1764,7 @@
       <c r="A8" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="89" t="s">
         <v>290</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1754,7 +1775,7 @@
       <c r="A9" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="89" t="s">
         <v>292</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1765,7 +1786,7 @@
       <c r="A10" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="89" t="s">
         <v>294</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1776,7 +1797,7 @@
       <c r="A11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="89" t="s">
         <v>294</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1787,7 +1808,7 @@
       <c r="A12" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="89" t="s">
         <v>296</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1798,7 +1819,7 @@
       <c r="A13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="89" t="s">
         <v>296</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1809,7 +1830,7 @@
       <c r="A14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="89" t="s">
         <v>297</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1820,7 +1841,7 @@
       <c r="A15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="89" t="s">
         <v>298</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1831,7 +1852,7 @@
       <c r="A16" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="89" t="s">
         <v>300</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1842,7 +1863,7 @@
       <c r="A17" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="89" t="s">
         <v>302</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1853,7 +1874,7 @@
       <c r="A18" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="89" t="s">
         <v>303</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1864,7 +1885,7 @@
       <c r="A19" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="89" t="s">
         <v>305</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1875,7 +1896,7 @@
       <c r="A20" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="89" t="s">
         <v>307</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -9966,162 +9987,186 @@
         <f>IFERROR((VLOOKUP(D2,Scoring!$A:$B,2,0))+IF(F2="y",1,0)+IF(G2="y",1,0)+IF(H2="y",1,0)+IF(I2="y",1,0),0)</f>
         <v>19</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="21">
-        <f>IFERROR((VLOOKUP(K2,Scoring!$A:$B,2,0))+IF(M2="y",1,0)+IF(N2="y",1,0)+IF(O2="y",1,0)+IF(P2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="26"/>
+      <c r="K2" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="L2" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q2" s="22">
+        <f>IFERROR((VLOOKUP(K2,Scoring!$D:$E,2,0))+IF(M2="y",1,0)+IF(N2="y",1,0)+IF(O2="y",1,0)+IF(P2="y",1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="R2" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="S2" s="16">
+        <v>7.0</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>267</v>
+      </c>
       <c r="X2" s="21">
         <f>IFERROR((VLOOKUP(R2,Scoring!$A:$B,2,0))+IF(T2="y",1,0)+IF(U2="y",1,0)+IF(V2="y",1,0)+IF(W2="y",1,0),0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y2" s="15"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="26"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="27"/>
       <c r="AE2" s="21">
         <f>IFERROR((VLOOKUP(Y2,Scoring!$A:$B,2,0))+IF(AA2="y",1,0)+IF(AB2="y",1,0)+IF(AC2="y",1,0)+IF(AD2="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AF2" s="15"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="26"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="27"/>
       <c r="AL2" s="21">
         <f>IFERROR((VLOOKUP(AF2,Scoring!$A:$B,2,0))+IF(AH2="y",1,0)+IF(AI2="y",1,0)+IF(AJ2="y",1,0)+IF(AK2="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AM2" s="15"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="26"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="27"/>
       <c r="AS2" s="21">
         <f>IFERROR((VLOOKUP(AM2,Scoring!$A:$B,2,0))+IF(AO2="y",1,0)+IF(AP2="y",1,0)+IF(AQ2="y",1,0)+IF(AR2="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AT2" s="15"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="26"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="27"/>
       <c r="AZ2" s="21">
         <f>IFERROR((VLOOKUP(AT2,Scoring!$A:$B,2,0))+IF(AV2="y",1,0)+IF(AW2="y",1,0)+IF(AX2="y",1,0)+IF(AY2="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BA2" s="15"/>
-      <c r="BB2" s="22"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="25"/>
-      <c r="BF2" s="26"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="25"/>
+      <c r="BE2" s="26"/>
+      <c r="BF2" s="27"/>
       <c r="BG2" s="21">
         <f>IFERROR((VLOOKUP(BA2,Scoring!$A:$B,2,0))+IF(BC2="y",1,0)+IF(BD2="y",1,0)+IF(BE2="y",1,0)+IF(BF2="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="15"/>
-      <c r="BI2" s="22"/>
-      <c r="BJ2" s="23"/>
-      <c r="BK2" s="24"/>
-      <c r="BL2" s="25"/>
-      <c r="BM2" s="26"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="24"/>
+      <c r="BK2" s="25"/>
+      <c r="BL2" s="26"/>
+      <c r="BM2" s="27"/>
       <c r="BN2" s="21">
         <f>IFERROR((VLOOKUP(BH2,Scoring!$A:$B,2,0))+IF(BJ2="y",1,0)+IF(BK2="y",1,0)+IF(BL2="y",1,0)+IF(BM2="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BO2" s="15"/>
-      <c r="BP2" s="22"/>
-      <c r="BQ2" s="23"/>
-      <c r="BR2" s="24"/>
-      <c r="BS2" s="25"/>
-      <c r="BT2" s="26"/>
+      <c r="BP2" s="23"/>
+      <c r="BQ2" s="24"/>
+      <c r="BR2" s="25"/>
+      <c r="BS2" s="26"/>
+      <c r="BT2" s="27"/>
       <c r="BU2" s="21">
         <f>IFERROR((VLOOKUP(BO2,Scoring!$A:$B,2,0))+IF(BQ2="y",1,0)+IF(BR2="y",1,0)+IF(BS2="y",1,0)+IF(BT2="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BV2" s="15"/>
-      <c r="BW2" s="22"/>
-      <c r="BX2" s="23"/>
-      <c r="BY2" s="24"/>
-      <c r="BZ2" s="25"/>
-      <c r="CA2" s="26"/>
+      <c r="BW2" s="23"/>
+      <c r="BX2" s="24"/>
+      <c r="BY2" s="25"/>
+      <c r="BZ2" s="26"/>
+      <c r="CA2" s="27"/>
       <c r="CB2" s="21">
         <f>IFERROR((VLOOKUP(BV2,Scoring!$A:$B,2,0))+IF(BX2="y",1,0)+IF(BY2="y",1,0)+IF(BZ2="y",1,0)+IF(CA2="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CC2" s="15"/>
-      <c r="CD2" s="22"/>
-      <c r="CE2" s="23"/>
-      <c r="CF2" s="24"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="26"/>
+      <c r="CD2" s="23"/>
+      <c r="CE2" s="24"/>
+      <c r="CF2" s="25"/>
+      <c r="CG2" s="26"/>
+      <c r="CH2" s="27"/>
       <c r="CI2" s="21">
         <f>IFERROR((VLOOKUP(CC2,Scoring!$A:$B,2,0))+IF(CE2="y",1,0)+IF(CF2="y",1,0)+IF(CG2="y",1,0)+IF(CH2="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CJ2" s="15"/>
-      <c r="CK2" s="22"/>
-      <c r="CL2" s="23"/>
-      <c r="CM2" s="24"/>
-      <c r="CN2" s="25"/>
-      <c r="CO2" s="26"/>
+      <c r="CK2" s="23"/>
+      <c r="CL2" s="24"/>
+      <c r="CM2" s="25"/>
+      <c r="CN2" s="26"/>
+      <c r="CO2" s="27"/>
       <c r="CP2" s="21">
         <f>IFERROR((VLOOKUP(CJ2,Scoring!$A:$B,2,0))+IF(CL2="y",1,0)+IF(CM2="y",1,0)+IF(CN2="y",1,0)+IF(CO2="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CQ2" s="15"/>
-      <c r="CR2" s="22"/>
-      <c r="CS2" s="23"/>
-      <c r="CT2" s="24"/>
-      <c r="CU2" s="25"/>
-      <c r="CV2" s="26"/>
+      <c r="CR2" s="23"/>
+      <c r="CS2" s="24"/>
+      <c r="CT2" s="25"/>
+      <c r="CU2" s="26"/>
+      <c r="CV2" s="27"/>
       <c r="CW2" s="21">
         <f>IFERROR((VLOOKUP(CQ2,Scoring!$A:$B,2,0))+IF(CS2="y",1,0)+IF(CT2="y",1,0)+IF(CU2="y",1,0)+IF(CV2="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CX2" s="15"/>
-      <c r="CY2" s="22"/>
-      <c r="CZ2" s="23"/>
-      <c r="DA2" s="24"/>
-      <c r="DB2" s="25"/>
-      <c r="DC2" s="26"/>
+      <c r="CY2" s="23"/>
+      <c r="CZ2" s="24"/>
+      <c r="DA2" s="25"/>
+      <c r="DB2" s="26"/>
+      <c r="DC2" s="27"/>
       <c r="DD2" s="21">
         <f>IFERROR((VLOOKUP(CX2,Scoring!$A:$B,2,0))+IF(CZ2="y",1,0)+IF(DA2="y",1,0)+IF(DB2="y",1,0)+IF(DC2="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="DE2" s="15"/>
-      <c r="DF2" s="22"/>
-      <c r="DG2" s="23"/>
-      <c r="DH2" s="24"/>
-      <c r="DI2" s="25"/>
-      <c r="DJ2" s="26"/>
+      <c r="DF2" s="23"/>
+      <c r="DG2" s="24"/>
+      <c r="DH2" s="25"/>
+      <c r="DI2" s="26"/>
+      <c r="DJ2" s="27"/>
       <c r="DK2" s="21">
         <f>IFERROR((VLOOKUP(DE2,Scoring!$A:$B,2,0))+IF(DG2="y",1,0)+IF(DH2="y",1,0)+IF(DI2="y",1,0)+IF(DJ2="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="DL2" s="15"/>
-      <c r="DM2" s="22"/>
-      <c r="DN2" s="23"/>
-      <c r="DO2" s="24"/>
-      <c r="DP2" s="25"/>
-      <c r="DQ2" s="26"/>
+      <c r="DM2" s="23"/>
+      <c r="DN2" s="24"/>
+      <c r="DO2" s="25"/>
+      <c r="DP2" s="26"/>
+      <c r="DQ2" s="27"/>
       <c r="DR2" s="21">
         <f>IFERROR((VLOOKUP(DL2,Scoring!$A:$B,2,0))+IF(DN2="y",1,0)+IF(DO2="y",1,0)+IF(DP2="y",1,0)+IF(DQ2="y",1,0),0)</f>
         <v>0</v>
@@ -10137,571 +10182,643 @@
       <c r="C3" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="28">
         <v>10.0</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="29">
         <v>6.0</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="I3" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="J3" s="33">
+      <c r="I3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J3" s="34">
         <f>IFERROR((VLOOKUP(D3,Scoring!$A:$B,2,0))+IF(F3="y",1,0)+IF(G3="y",1,0)+IF(H3="y",1,0)+IF(I3="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="33">
-        <f>IFERROR((VLOOKUP(K3,Scoring!$A:$B,2,0))+IF(M3="y",1,0)+IF(N3="y",1,0)+IF(O3="y",1,0)+IF(P3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="27"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="33">
+      <c r="K3" s="28">
+        <v>22.0</v>
+      </c>
+      <c r="L3" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q3" s="35">
+        <f>IFERROR((VLOOKUP(K3,Scoring!$D:$E,2,0))+IF(M3="y",1,0)+IF(N3="y",1,0)+IF(O3="y",1,0)+IF(P3="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="28">
+        <v>22.0</v>
+      </c>
+      <c r="S3" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="U3" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="V3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="W3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="X3" s="34">
         <f>IFERROR((VLOOKUP(R3,Scoring!$A:$B,2,0))+IF(T3="y",1,0)+IF(U3="y",1,0)+IF(V3="y",1,0)+IF(W3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="33">
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="34">
         <f>IFERROR((VLOOKUP(Y3,Scoring!$A:$B,2,0))+IF(AA3="y",1,0)+IF(AB3="y",1,0)+IF(AC3="y",1,0)+IF(AD3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="33">
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="34">
         <f>IFERROR((VLOOKUP(AF3,Scoring!$A:$B,2,0))+IF(AH3="y",1,0)+IF(AI3="y",1,0)+IF(AJ3="y",1,0)+IF(AK3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="33">
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="39"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="34">
         <f>IFERROR((VLOOKUP(AM3,Scoring!$A:$B,2,0))+IF(AO3="y",1,0)+IF(AP3="y",1,0)+IF(AQ3="y",1,0)+IF(AR3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="34"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="37"/>
-      <c r="AY3" s="38"/>
-      <c r="AZ3" s="33">
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="34">
         <f>IFERROR((VLOOKUP(AT3,Scoring!$A:$B,2,0))+IF(AV3="y",1,0)+IF(AW3="y",1,0)+IF(AX3="y",1,0)+IF(AY3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="34"/>
-      <c r="BC3" s="35"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="38"/>
-      <c r="BG3" s="33">
+      <c r="BA3" s="28"/>
+      <c r="BB3" s="36"/>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="38"/>
+      <c r="BE3" s="39"/>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="34">
         <f>IFERROR((VLOOKUP(BA3,Scoring!$A:$B,2,0))+IF(BC3="y",1,0)+IF(BD3="y",1,0)+IF(BE3="y",1,0)+IF(BF3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH3" s="27"/>
-      <c r="BI3" s="34"/>
-      <c r="BJ3" s="35"/>
-      <c r="BK3" s="36"/>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="38"/>
-      <c r="BN3" s="33">
+      <c r="BH3" s="28"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="38"/>
+      <c r="BL3" s="39"/>
+      <c r="BM3" s="40"/>
+      <c r="BN3" s="34">
         <f>IFERROR((VLOOKUP(BH3,Scoring!$A:$B,2,0))+IF(BJ3="y",1,0)+IF(BK3="y",1,0)+IF(BL3="y",1,0)+IF(BM3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO3" s="27"/>
-      <c r="BP3" s="34"/>
-      <c r="BQ3" s="35"/>
-      <c r="BR3" s="36"/>
-      <c r="BS3" s="37"/>
-      <c r="BT3" s="38"/>
-      <c r="BU3" s="33">
+      <c r="BO3" s="28"/>
+      <c r="BP3" s="36"/>
+      <c r="BQ3" s="37"/>
+      <c r="BR3" s="38"/>
+      <c r="BS3" s="39"/>
+      <c r="BT3" s="40"/>
+      <c r="BU3" s="34">
         <f>IFERROR((VLOOKUP(BO3,Scoring!$A:$B,2,0))+IF(BQ3="y",1,0)+IF(BR3="y",1,0)+IF(BS3="y",1,0)+IF(BT3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV3" s="27"/>
-      <c r="BW3" s="34"/>
-      <c r="BX3" s="35"/>
-      <c r="BY3" s="36"/>
-      <c r="BZ3" s="37"/>
-      <c r="CA3" s="38"/>
-      <c r="CB3" s="33">
+      <c r="BV3" s="28"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="37"/>
+      <c r="BY3" s="38"/>
+      <c r="BZ3" s="39"/>
+      <c r="CA3" s="40"/>
+      <c r="CB3" s="34">
         <f>IFERROR((VLOOKUP(BV3,Scoring!$A:$B,2,0))+IF(BX3="y",1,0)+IF(BY3="y",1,0)+IF(BZ3="y",1,0)+IF(CA3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC3" s="27"/>
-      <c r="CD3" s="34"/>
-      <c r="CE3" s="35"/>
-      <c r="CF3" s="36"/>
-      <c r="CG3" s="37"/>
-      <c r="CH3" s="38"/>
-      <c r="CI3" s="33">
+      <c r="CC3" s="28"/>
+      <c r="CD3" s="36"/>
+      <c r="CE3" s="37"/>
+      <c r="CF3" s="38"/>
+      <c r="CG3" s="39"/>
+      <c r="CH3" s="40"/>
+      <c r="CI3" s="34">
         <f>IFERROR((VLOOKUP(CC3,Scoring!$A:$B,2,0))+IF(CE3="y",1,0)+IF(CF3="y",1,0)+IF(CG3="y",1,0)+IF(CH3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ3" s="27"/>
-      <c r="CK3" s="34"/>
-      <c r="CL3" s="35"/>
-      <c r="CM3" s="36"/>
-      <c r="CN3" s="37"/>
-      <c r="CO3" s="38"/>
-      <c r="CP3" s="33">
+      <c r="CJ3" s="28"/>
+      <c r="CK3" s="36"/>
+      <c r="CL3" s="37"/>
+      <c r="CM3" s="38"/>
+      <c r="CN3" s="39"/>
+      <c r="CO3" s="40"/>
+      <c r="CP3" s="34">
         <f>IFERROR((VLOOKUP(CJ3,Scoring!$A:$B,2,0))+IF(CL3="y",1,0)+IF(CM3="y",1,0)+IF(CN3="y",1,0)+IF(CO3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ3" s="27"/>
-      <c r="CR3" s="34"/>
-      <c r="CS3" s="35"/>
-      <c r="CT3" s="36"/>
-      <c r="CU3" s="37"/>
-      <c r="CV3" s="38"/>
-      <c r="CW3" s="33">
+      <c r="CQ3" s="28"/>
+      <c r="CR3" s="36"/>
+      <c r="CS3" s="37"/>
+      <c r="CT3" s="38"/>
+      <c r="CU3" s="39"/>
+      <c r="CV3" s="40"/>
+      <c r="CW3" s="34">
         <f>IFERROR((VLOOKUP(CQ3,Scoring!$A:$B,2,0))+IF(CS3="y",1,0)+IF(CT3="y",1,0)+IF(CU3="y",1,0)+IF(CV3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX3" s="27"/>
-      <c r="CY3" s="34"/>
-      <c r="CZ3" s="35"/>
-      <c r="DA3" s="36"/>
-      <c r="DB3" s="37"/>
-      <c r="DC3" s="38"/>
-      <c r="DD3" s="33">
+      <c r="CX3" s="28"/>
+      <c r="CY3" s="36"/>
+      <c r="CZ3" s="37"/>
+      <c r="DA3" s="38"/>
+      <c r="DB3" s="39"/>
+      <c r="DC3" s="40"/>
+      <c r="DD3" s="34">
         <f>IFERROR((VLOOKUP(CX3,Scoring!$A:$B,2,0))+IF(CZ3="y",1,0)+IF(DA3="y",1,0)+IF(DB3="y",1,0)+IF(DC3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE3" s="27"/>
-      <c r="DF3" s="34"/>
-      <c r="DG3" s="35"/>
-      <c r="DH3" s="36"/>
-      <c r="DI3" s="37"/>
-      <c r="DJ3" s="38"/>
-      <c r="DK3" s="33">
+      <c r="DE3" s="28"/>
+      <c r="DF3" s="36"/>
+      <c r="DG3" s="37"/>
+      <c r="DH3" s="38"/>
+      <c r="DI3" s="39"/>
+      <c r="DJ3" s="40"/>
+      <c r="DK3" s="34">
         <f>IFERROR((VLOOKUP(DE3,Scoring!$A:$B,2,0))+IF(DG3="y",1,0)+IF(DH3="y",1,0)+IF(DI3="y",1,0)+IF(DJ3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL3" s="27"/>
-      <c r="DM3" s="34"/>
-      <c r="DN3" s="35"/>
-      <c r="DO3" s="36"/>
-      <c r="DP3" s="37"/>
-      <c r="DQ3" s="38"/>
-      <c r="DR3" s="33">
+      <c r="DL3" s="28"/>
+      <c r="DM3" s="36"/>
+      <c r="DN3" s="37"/>
+      <c r="DO3" s="38"/>
+      <c r="DP3" s="39"/>
+      <c r="DQ3" s="40"/>
+      <c r="DR3" s="34">
         <f>IFERROR((VLOOKUP(DL3,Scoring!$A:$B,2,0))+IF(DN3="y",1,0)+IF(DO3="y",1,0)+IF(DP3="y",1,0)+IF(DQ3="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="44">
         <v>3.0</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="45">
         <v>2.0</v>
       </c>
-      <c r="F4" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="H4" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="J4" s="48">
+      <c r="F4" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="J4" s="50">
         <f>IFERROR((VLOOKUP(D4,Scoring!$A:$B,2,0))+IF(F4="y",1,0)+IF(G4="y",1,0)+IF(H4="y",1,0)+IF(I4="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="48">
-        <f>IFERROR((VLOOKUP(K4,Scoring!$A:$B,2,0))+IF(M4="y",1,0)+IF(N4="y",1,0)+IF(O4="y",1,0)+IF(P4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="42"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="48">
+      <c r="K4" s="44">
+        <v>4.0</v>
+      </c>
+      <c r="L4" s="45">
+        <v>3.0</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q4" s="51">
+        <f>IFERROR((VLOOKUP(K4,Scoring!$D:$E,2,0))+IF(M4="y",1,0)+IF(N4="y",1,0)+IF(O4="y",1,0)+IF(P4="y",1,0),0)</f>
+        <v>5</v>
+      </c>
+      <c r="R4" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="S4" s="45">
+        <v>11.0</v>
+      </c>
+      <c r="T4" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="U4" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="V4" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="W4" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="X4" s="50">
         <f>IFERROR((VLOOKUP(R4,Scoring!$A:$B,2,0))+IF(T4="y",1,0)+IF(U4="y",1,0)+IF(V4="y",1,0)+IF(W4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="48">
+        <v>26</v>
+      </c>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="50">
         <f>IFERROR((VLOOKUP(Y4,Scoring!$A:$B,2,0))+IF(AA4="y",1,0)+IF(AB4="y",1,0)+IF(AC4="y",1,0)+IF(AD4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="48">
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="50">
         <f>IFERROR((VLOOKUP(AF4,Scoring!$A:$B,2,0))+IF(AH4="y",1,0)+IF(AI4="y",1,0)+IF(AJ4="y",1,0)+IF(AK4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="53"/>
-      <c r="AS4" s="48">
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="56"/>
+      <c r="AS4" s="50">
         <f>IFERROR((VLOOKUP(AM4,Scoring!$A:$B,2,0))+IF(AO4="y",1,0)+IF(AP4="y",1,0)+IF(AQ4="y",1,0)+IF(AR4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="48">
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="50">
         <f>IFERROR((VLOOKUP(AT4,Scoring!$A:$B,2,0))+IF(AV4="y",1,0)+IF(AW4="y",1,0)+IF(AX4="y",1,0)+IF(AY4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA4" s="42"/>
-      <c r="BB4" s="49"/>
-      <c r="BC4" s="50"/>
-      <c r="BD4" s="51"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="53"/>
-      <c r="BG4" s="48">
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="52"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="56"/>
+      <c r="BG4" s="50">
         <f>IFERROR((VLOOKUP(BA4,Scoring!$A:$B,2,0))+IF(BC4="y",1,0)+IF(BD4="y",1,0)+IF(BE4="y",1,0)+IF(BF4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH4" s="42"/>
-      <c r="BI4" s="49"/>
-      <c r="BJ4" s="50"/>
-      <c r="BK4" s="51"/>
-      <c r="BL4" s="52"/>
-      <c r="BM4" s="53"/>
-      <c r="BN4" s="48">
+      <c r="BH4" s="44"/>
+      <c r="BI4" s="52"/>
+      <c r="BJ4" s="53"/>
+      <c r="BK4" s="54"/>
+      <c r="BL4" s="55"/>
+      <c r="BM4" s="56"/>
+      <c r="BN4" s="50">
         <f>IFERROR((VLOOKUP(BH4,Scoring!$A:$B,2,0))+IF(BJ4="y",1,0)+IF(BK4="y",1,0)+IF(BL4="y",1,0)+IF(BM4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO4" s="42"/>
-      <c r="BP4" s="49"/>
-      <c r="BQ4" s="50"/>
-      <c r="BR4" s="51"/>
-      <c r="BS4" s="52"/>
-      <c r="BT4" s="53"/>
-      <c r="BU4" s="48">
+      <c r="BO4" s="44"/>
+      <c r="BP4" s="52"/>
+      <c r="BQ4" s="53"/>
+      <c r="BR4" s="54"/>
+      <c r="BS4" s="55"/>
+      <c r="BT4" s="56"/>
+      <c r="BU4" s="50">
         <f>IFERROR((VLOOKUP(BO4,Scoring!$A:$B,2,0))+IF(BQ4="y",1,0)+IF(BR4="y",1,0)+IF(BS4="y",1,0)+IF(BT4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV4" s="42"/>
-      <c r="BW4" s="49"/>
-      <c r="BX4" s="50"/>
-      <c r="BY4" s="51"/>
-      <c r="BZ4" s="52"/>
-      <c r="CA4" s="53"/>
-      <c r="CB4" s="48">
+      <c r="BV4" s="44"/>
+      <c r="BW4" s="52"/>
+      <c r="BX4" s="53"/>
+      <c r="BY4" s="54"/>
+      <c r="BZ4" s="55"/>
+      <c r="CA4" s="56"/>
+      <c r="CB4" s="50">
         <f>IFERROR((VLOOKUP(BV4,Scoring!$A:$B,2,0))+IF(BX4="y",1,0)+IF(BY4="y",1,0)+IF(BZ4="y",1,0)+IF(CA4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC4" s="42"/>
-      <c r="CD4" s="49"/>
-      <c r="CE4" s="50"/>
-      <c r="CF4" s="51"/>
-      <c r="CG4" s="52"/>
-      <c r="CH4" s="53"/>
-      <c r="CI4" s="48">
+      <c r="CC4" s="44"/>
+      <c r="CD4" s="52"/>
+      <c r="CE4" s="53"/>
+      <c r="CF4" s="54"/>
+      <c r="CG4" s="55"/>
+      <c r="CH4" s="56"/>
+      <c r="CI4" s="50">
         <f>IFERROR((VLOOKUP(CC4,Scoring!$A:$B,2,0))+IF(CE4="y",1,0)+IF(CF4="y",1,0)+IF(CG4="y",1,0)+IF(CH4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ4" s="42"/>
-      <c r="CK4" s="49"/>
-      <c r="CL4" s="50"/>
-      <c r="CM4" s="51"/>
-      <c r="CN4" s="52"/>
-      <c r="CO4" s="53"/>
-      <c r="CP4" s="48">
+      <c r="CJ4" s="44"/>
+      <c r="CK4" s="52"/>
+      <c r="CL4" s="53"/>
+      <c r="CM4" s="54"/>
+      <c r="CN4" s="55"/>
+      <c r="CO4" s="56"/>
+      <c r="CP4" s="50">
         <f>IFERROR((VLOOKUP(CJ4,Scoring!$A:$B,2,0))+IF(CL4="y",1,0)+IF(CM4="y",1,0)+IF(CN4="y",1,0)+IF(CO4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ4" s="42"/>
-      <c r="CR4" s="49"/>
-      <c r="CS4" s="50"/>
-      <c r="CT4" s="51"/>
-      <c r="CU4" s="52"/>
-      <c r="CV4" s="53"/>
-      <c r="CW4" s="48">
+      <c r="CQ4" s="44"/>
+      <c r="CR4" s="52"/>
+      <c r="CS4" s="53"/>
+      <c r="CT4" s="54"/>
+      <c r="CU4" s="55"/>
+      <c r="CV4" s="56"/>
+      <c r="CW4" s="50">
         <f>IFERROR((VLOOKUP(CQ4,Scoring!$A:$B,2,0))+IF(CS4="y",1,0)+IF(CT4="y",1,0)+IF(CU4="y",1,0)+IF(CV4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX4" s="42"/>
-      <c r="CY4" s="49"/>
-      <c r="CZ4" s="50"/>
-      <c r="DA4" s="51"/>
-      <c r="DB4" s="52"/>
-      <c r="DC4" s="53"/>
-      <c r="DD4" s="48">
+      <c r="CX4" s="44"/>
+      <c r="CY4" s="52"/>
+      <c r="CZ4" s="53"/>
+      <c r="DA4" s="54"/>
+      <c r="DB4" s="55"/>
+      <c r="DC4" s="56"/>
+      <c r="DD4" s="50">
         <f>IFERROR((VLOOKUP(CX4,Scoring!$A:$B,2,0))+IF(CZ4="y",1,0)+IF(DA4="y",1,0)+IF(DB4="y",1,0)+IF(DC4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE4" s="42"/>
-      <c r="DF4" s="49"/>
-      <c r="DG4" s="50"/>
-      <c r="DH4" s="51"/>
-      <c r="DI4" s="52"/>
-      <c r="DJ4" s="53"/>
-      <c r="DK4" s="48">
+      <c r="DE4" s="44"/>
+      <c r="DF4" s="52"/>
+      <c r="DG4" s="53"/>
+      <c r="DH4" s="54"/>
+      <c r="DI4" s="55"/>
+      <c r="DJ4" s="56"/>
+      <c r="DK4" s="50">
         <f>IFERROR((VLOOKUP(DE4,Scoring!$A:$B,2,0))+IF(DG4="y",1,0)+IF(DH4="y",1,0)+IF(DI4="y",1,0)+IF(DJ4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL4" s="42"/>
-      <c r="DM4" s="49"/>
-      <c r="DN4" s="50"/>
-      <c r="DO4" s="51"/>
-      <c r="DP4" s="52"/>
-      <c r="DQ4" s="53"/>
-      <c r="DR4" s="48">
+      <c r="DL4" s="44"/>
+      <c r="DM4" s="52"/>
+      <c r="DN4" s="53"/>
+      <c r="DO4" s="54"/>
+      <c r="DP4" s="55"/>
+      <c r="DQ4" s="56"/>
+      <c r="DR4" s="50">
         <f>IFERROR((VLOOKUP(DL4,Scoring!$A:$B,2,0))+IF(DN4="y",1,0)+IF(DO4="y",1,0)+IF(DP4="y",1,0)+IF(DQ4="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="57">
-        <v>22.0</v>
-      </c>
-      <c r="E5" s="58">
-        <v>22.0</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="I5" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="J5" s="63">
+      <c r="D5" s="60">
+        <v>22.0</v>
+      </c>
+      <c r="E5" s="61">
+        <v>22.0</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="J5" s="66">
         <f>IFERROR((VLOOKUP(D5,Scoring!$A:$B,2,0))+IF(F5="y",1,0)+IF(G5="y",1,0)+IF(H5="y",1,0)+IF(I5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="63">
-        <f>IFERROR((VLOOKUP(K5,Scoring!$A:$B,2,0))+IF(M5="y",1,0)+IF(N5="y",1,0)+IF(O5="y",1,0)+IF(P5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="57"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="63">
+      <c r="K5" s="60">
+        <v>7.0</v>
+      </c>
+      <c r="L5" s="61">
+        <v>9.0</v>
+      </c>
+      <c r="M5" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="N5" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="O5" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="P5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q5" s="67">
+        <f>IFERROR((VLOOKUP(K5,Scoring!$D:$E,2,0))+IF(M5="y",1,0)+IF(N5="y",1,0)+IF(O5="y",1,0)+IF(P5="y",1,0),0)</f>
+        <v>2</v>
+      </c>
+      <c r="R5" s="60">
+        <v>6.0</v>
+      </c>
+      <c r="S5" s="61">
+        <v>8.0</v>
+      </c>
+      <c r="T5" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="U5" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="V5" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="W5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="X5" s="66">
         <f>IFERROR((VLOOKUP(R5,Scoring!$A:$B,2,0))+IF(T5="y",1,0)+IF(U5="y",1,0)+IF(V5="y",1,0)+IF(W5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="63">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="71"/>
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="66">
         <f>IFERROR((VLOOKUP(Y5,Scoring!$A:$B,2,0))+IF(AA5="y",1,0)+IF(AB5="y",1,0)+IF(AC5="y",1,0)+IF(AD5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="65"/>
-      <c r="AI5" s="66"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="68"/>
-      <c r="AL5" s="63">
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="70"/>
+      <c r="AJ5" s="71"/>
+      <c r="AK5" s="72"/>
+      <c r="AL5" s="66">
         <f>IFERROR((VLOOKUP(AF5,Scoring!$A:$B,2,0))+IF(AH5="y",1,0)+IF(AI5="y",1,0)+IF(AJ5="y",1,0)+IF(AK5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="57"/>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="65"/>
-      <c r="AP5" s="66"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="63">
+      <c r="AM5" s="60"/>
+      <c r="AN5" s="68"/>
+      <c r="AO5" s="69"/>
+      <c r="AP5" s="70"/>
+      <c r="AQ5" s="71"/>
+      <c r="AR5" s="72"/>
+      <c r="AS5" s="66">
         <f>IFERROR((VLOOKUP(AM5,Scoring!$A:$B,2,0))+IF(AO5="y",1,0)+IF(AP5="y",1,0)+IF(AQ5="y",1,0)+IF(AR5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="64"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="66"/>
-      <c r="AX5" s="67"/>
-      <c r="AY5" s="68"/>
-      <c r="AZ5" s="63">
+      <c r="AT5" s="60"/>
+      <c r="AU5" s="68"/>
+      <c r="AV5" s="69"/>
+      <c r="AW5" s="70"/>
+      <c r="AX5" s="71"/>
+      <c r="AY5" s="72"/>
+      <c r="AZ5" s="66">
         <f>IFERROR((VLOOKUP(AT5,Scoring!$A:$B,2,0))+IF(AV5="y",1,0)+IF(AW5="y",1,0)+IF(AX5="y",1,0)+IF(AY5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA5" s="57"/>
-      <c r="BB5" s="64"/>
-      <c r="BC5" s="65"/>
-      <c r="BD5" s="66"/>
-      <c r="BE5" s="67"/>
-      <c r="BF5" s="68"/>
-      <c r="BG5" s="63">
+      <c r="BA5" s="60"/>
+      <c r="BB5" s="68"/>
+      <c r="BC5" s="69"/>
+      <c r="BD5" s="70"/>
+      <c r="BE5" s="71"/>
+      <c r="BF5" s="72"/>
+      <c r="BG5" s="66">
         <f>IFERROR((VLOOKUP(BA5,Scoring!$A:$B,2,0))+IF(BC5="y",1,0)+IF(BD5="y",1,0)+IF(BE5="y",1,0)+IF(BF5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH5" s="57"/>
-      <c r="BI5" s="64"/>
-      <c r="BJ5" s="65"/>
-      <c r="BK5" s="66"/>
-      <c r="BL5" s="67"/>
-      <c r="BM5" s="68"/>
-      <c r="BN5" s="63">
+      <c r="BH5" s="60"/>
+      <c r="BI5" s="68"/>
+      <c r="BJ5" s="69"/>
+      <c r="BK5" s="70"/>
+      <c r="BL5" s="71"/>
+      <c r="BM5" s="72"/>
+      <c r="BN5" s="66">
         <f>IFERROR((VLOOKUP(BH5,Scoring!$A:$B,2,0))+IF(BJ5="y",1,0)+IF(BK5="y",1,0)+IF(BL5="y",1,0)+IF(BM5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO5" s="57"/>
-      <c r="BP5" s="64"/>
-      <c r="BQ5" s="65"/>
-      <c r="BR5" s="66"/>
-      <c r="BS5" s="67"/>
-      <c r="BT5" s="68"/>
-      <c r="BU5" s="63">
+      <c r="BO5" s="60"/>
+      <c r="BP5" s="68"/>
+      <c r="BQ5" s="69"/>
+      <c r="BR5" s="70"/>
+      <c r="BS5" s="71"/>
+      <c r="BT5" s="72"/>
+      <c r="BU5" s="66">
         <f>IFERROR((VLOOKUP(BO5,Scoring!$A:$B,2,0))+IF(BQ5="y",1,0)+IF(BR5="y",1,0)+IF(BS5="y",1,0)+IF(BT5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV5" s="57"/>
-      <c r="BW5" s="64"/>
-      <c r="BX5" s="65"/>
-      <c r="BY5" s="66"/>
-      <c r="BZ5" s="67"/>
-      <c r="CA5" s="68"/>
-      <c r="CB5" s="63">
+      <c r="BV5" s="60"/>
+      <c r="BW5" s="68"/>
+      <c r="BX5" s="69"/>
+      <c r="BY5" s="70"/>
+      <c r="BZ5" s="71"/>
+      <c r="CA5" s="72"/>
+      <c r="CB5" s="66">
         <f>IFERROR((VLOOKUP(BV5,Scoring!$A:$B,2,0))+IF(BX5="y",1,0)+IF(BY5="y",1,0)+IF(BZ5="y",1,0)+IF(CA5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC5" s="57"/>
-      <c r="CD5" s="64"/>
-      <c r="CE5" s="65"/>
-      <c r="CF5" s="66"/>
-      <c r="CG5" s="67"/>
-      <c r="CH5" s="68"/>
-      <c r="CI5" s="63">
+      <c r="CC5" s="60"/>
+      <c r="CD5" s="68"/>
+      <c r="CE5" s="69"/>
+      <c r="CF5" s="70"/>
+      <c r="CG5" s="71"/>
+      <c r="CH5" s="72"/>
+      <c r="CI5" s="66">
         <f>IFERROR((VLOOKUP(CC5,Scoring!$A:$B,2,0))+IF(CE5="y",1,0)+IF(CF5="y",1,0)+IF(CG5="y",1,0)+IF(CH5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ5" s="57"/>
-      <c r="CK5" s="64"/>
-      <c r="CL5" s="65"/>
-      <c r="CM5" s="66"/>
-      <c r="CN5" s="67"/>
-      <c r="CO5" s="68"/>
-      <c r="CP5" s="63">
+      <c r="CJ5" s="60"/>
+      <c r="CK5" s="68"/>
+      <c r="CL5" s="69"/>
+      <c r="CM5" s="70"/>
+      <c r="CN5" s="71"/>
+      <c r="CO5" s="72"/>
+      <c r="CP5" s="66">
         <f>IFERROR((VLOOKUP(CJ5,Scoring!$A:$B,2,0))+IF(CL5="y",1,0)+IF(CM5="y",1,0)+IF(CN5="y",1,0)+IF(CO5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ5" s="57"/>
-      <c r="CR5" s="64"/>
-      <c r="CS5" s="65"/>
-      <c r="CT5" s="66"/>
-      <c r="CU5" s="67"/>
-      <c r="CV5" s="68"/>
-      <c r="CW5" s="63">
+      <c r="CQ5" s="60"/>
+      <c r="CR5" s="68"/>
+      <c r="CS5" s="69"/>
+      <c r="CT5" s="70"/>
+      <c r="CU5" s="71"/>
+      <c r="CV5" s="72"/>
+      <c r="CW5" s="66">
         <f>IFERROR((VLOOKUP(CQ5,Scoring!$A:$B,2,0))+IF(CS5="y",1,0)+IF(CT5="y",1,0)+IF(CU5="y",1,0)+IF(CV5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX5" s="57"/>
-      <c r="CY5" s="64"/>
-      <c r="CZ5" s="65"/>
-      <c r="DA5" s="66"/>
-      <c r="DB5" s="67"/>
-      <c r="DC5" s="68"/>
-      <c r="DD5" s="63">
+      <c r="CX5" s="60"/>
+      <c r="CY5" s="68"/>
+      <c r="CZ5" s="69"/>
+      <c r="DA5" s="70"/>
+      <c r="DB5" s="71"/>
+      <c r="DC5" s="72"/>
+      <c r="DD5" s="66">
         <f>IFERROR((VLOOKUP(CX5,Scoring!$A:$B,2,0))+IF(CZ5="y",1,0)+IF(DA5="y",1,0)+IF(DB5="y",1,0)+IF(DC5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE5" s="57"/>
-      <c r="DF5" s="64"/>
-      <c r="DG5" s="65"/>
-      <c r="DH5" s="66"/>
-      <c r="DI5" s="67"/>
-      <c r="DJ5" s="68"/>
-      <c r="DK5" s="63">
+      <c r="DE5" s="60"/>
+      <c r="DF5" s="68"/>
+      <c r="DG5" s="69"/>
+      <c r="DH5" s="70"/>
+      <c r="DI5" s="71"/>
+      <c r="DJ5" s="72"/>
+      <c r="DK5" s="66">
         <f>IFERROR((VLOOKUP(DE5,Scoring!$A:$B,2,0))+IF(DG5="y",1,0)+IF(DH5="y",1,0)+IF(DI5="y",1,0)+IF(DJ5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL5" s="57"/>
-      <c r="DM5" s="64"/>
-      <c r="DN5" s="65"/>
-      <c r="DO5" s="66"/>
-      <c r="DP5" s="67"/>
-      <c r="DQ5" s="68"/>
-      <c r="DR5" s="63">
+      <c r="DL5" s="60"/>
+      <c r="DM5" s="68"/>
+      <c r="DN5" s="69"/>
+      <c r="DO5" s="70"/>
+      <c r="DP5" s="71"/>
+      <c r="DQ5" s="72"/>
+      <c r="DR5" s="66">
         <f>IFERROR((VLOOKUP(DL5,Scoring!$A:$B,2,0))+IF(DN5="y",1,0)+IF(DO5="y",1,0)+IF(DP5="y",1,0)+IF(DQ5="y",1,0),0)</f>
         <v>0</v>
       </c>
@@ -10716,185 +10833,209 @@
       <c r="C6" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="28">
+      <c r="D6" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="29">
         <v>4.0</v>
       </c>
-      <c r="F6" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="J6" s="33">
+      <c r="F6" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J6" s="34">
         <f>IFERROR((VLOOKUP(D6,Scoring!$A:$B,2,0))+IF(F6="y",1,0)+IF(G6="y",1,0)+IF(H6="y",1,0)+IF(I6="y",1,0),0)</f>
         <v>25</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="33">
-        <f>IFERROR((VLOOKUP(K6,Scoring!$A:$B,2,0))+IF(M6="y",1,0)+IF(N6="y",1,0)+IF(O6="y",1,0)+IF(P6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="27"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="33">
+      <c r="K6" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="L6" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q6" s="35">
+        <f>IFERROR((VLOOKUP(K6,Scoring!$D:$E,2,0))+IF(M6="y",1,0)+IF(N6="y",1,0)+IF(O6="y",1,0)+IF(P6="y",1,0),0)</f>
+        <v>6</v>
+      </c>
+      <c r="R6" s="28">
+        <v>9.0</v>
+      </c>
+      <c r="S6" s="29">
+        <v>12.0</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="U6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="V6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="W6" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="X6" s="34">
         <f>IFERROR((VLOOKUP(R6,Scoring!$A:$B,2,0))+IF(T6="y",1,0)+IF(U6="y",1,0)+IF(V6="y",1,0)+IF(W6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="33">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="34">
         <f>IFERROR((VLOOKUP(Y6,Scoring!$A:$B,2,0))+IF(AA6="y",1,0)+IF(AB6="y",1,0)+IF(AC6="y",1,0)+IF(AD6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="33">
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="34">
         <f>IFERROR((VLOOKUP(AF6,Scoring!$A:$B,2,0))+IF(AH6="y",1,0)+IF(AI6="y",1,0)+IF(AJ6="y",1,0)+IF(AK6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="37"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="33">
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="40"/>
+      <c r="AS6" s="34">
         <f>IFERROR((VLOOKUP(AM6,Scoring!$A:$B,2,0))+IF(AO6="y",1,0)+IF(AP6="y",1,0)+IF(AQ6="y",1,0)+IF(AR6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT6" s="27"/>
-      <c r="AU6" s="34"/>
-      <c r="AV6" s="35"/>
-      <c r="AW6" s="36"/>
-      <c r="AX6" s="37"/>
-      <c r="AY6" s="38"/>
-      <c r="AZ6" s="33">
+      <c r="AT6" s="28"/>
+      <c r="AU6" s="36"/>
+      <c r="AV6" s="37"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="39"/>
+      <c r="AY6" s="40"/>
+      <c r="AZ6" s="34">
         <f>IFERROR((VLOOKUP(AT6,Scoring!$A:$B,2,0))+IF(AV6="y",1,0)+IF(AW6="y",1,0)+IF(AX6="y",1,0)+IF(AY6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA6" s="27"/>
-      <c r="BB6" s="34"/>
-      <c r="BC6" s="35"/>
-      <c r="BD6" s="36"/>
-      <c r="BE6" s="37"/>
-      <c r="BF6" s="38"/>
-      <c r="BG6" s="33">
+      <c r="BA6" s="28"/>
+      <c r="BB6" s="36"/>
+      <c r="BC6" s="37"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="39"/>
+      <c r="BF6" s="40"/>
+      <c r="BG6" s="34">
         <f>IFERROR((VLOOKUP(BA6,Scoring!$A:$B,2,0))+IF(BC6="y",1,0)+IF(BD6="y",1,0)+IF(BE6="y",1,0)+IF(BF6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH6" s="27"/>
-      <c r="BI6" s="34"/>
-      <c r="BJ6" s="35"/>
-      <c r="BK6" s="36"/>
-      <c r="BL6" s="37"/>
-      <c r="BM6" s="38"/>
-      <c r="BN6" s="33">
+      <c r="BH6" s="28"/>
+      <c r="BI6" s="36"/>
+      <c r="BJ6" s="37"/>
+      <c r="BK6" s="38"/>
+      <c r="BL6" s="39"/>
+      <c r="BM6" s="40"/>
+      <c r="BN6" s="34">
         <f>IFERROR((VLOOKUP(BH6,Scoring!$A:$B,2,0))+IF(BJ6="y",1,0)+IF(BK6="y",1,0)+IF(BL6="y",1,0)+IF(BM6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO6" s="27"/>
-      <c r="BP6" s="34"/>
-      <c r="BQ6" s="35"/>
-      <c r="BR6" s="36"/>
-      <c r="BS6" s="37"/>
-      <c r="BT6" s="38"/>
-      <c r="BU6" s="33">
+      <c r="BO6" s="28"/>
+      <c r="BP6" s="36"/>
+      <c r="BQ6" s="37"/>
+      <c r="BR6" s="38"/>
+      <c r="BS6" s="39"/>
+      <c r="BT6" s="40"/>
+      <c r="BU6" s="34">
         <f>IFERROR((VLOOKUP(BO6,Scoring!$A:$B,2,0))+IF(BQ6="y",1,0)+IF(BR6="y",1,0)+IF(BS6="y",1,0)+IF(BT6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV6" s="27"/>
-      <c r="BW6" s="34"/>
-      <c r="BX6" s="35"/>
-      <c r="BY6" s="36"/>
-      <c r="BZ6" s="37"/>
-      <c r="CA6" s="38"/>
-      <c r="CB6" s="33">
+      <c r="BV6" s="28"/>
+      <c r="BW6" s="36"/>
+      <c r="BX6" s="37"/>
+      <c r="BY6" s="38"/>
+      <c r="BZ6" s="39"/>
+      <c r="CA6" s="40"/>
+      <c r="CB6" s="34">
         <f>IFERROR((VLOOKUP(BV6,Scoring!$A:$B,2,0))+IF(BX6="y",1,0)+IF(BY6="y",1,0)+IF(BZ6="y",1,0)+IF(CA6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC6" s="27"/>
-      <c r="CD6" s="34"/>
-      <c r="CE6" s="35"/>
-      <c r="CF6" s="36"/>
-      <c r="CG6" s="37"/>
-      <c r="CH6" s="38"/>
-      <c r="CI6" s="33">
+      <c r="CC6" s="28"/>
+      <c r="CD6" s="36"/>
+      <c r="CE6" s="37"/>
+      <c r="CF6" s="38"/>
+      <c r="CG6" s="39"/>
+      <c r="CH6" s="40"/>
+      <c r="CI6" s="34">
         <f>IFERROR((VLOOKUP(CC6,Scoring!$A:$B,2,0))+IF(CE6="y",1,0)+IF(CF6="y",1,0)+IF(CG6="y",1,0)+IF(CH6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ6" s="27"/>
-      <c r="CK6" s="34"/>
-      <c r="CL6" s="35"/>
-      <c r="CM6" s="36"/>
-      <c r="CN6" s="37"/>
-      <c r="CO6" s="38"/>
-      <c r="CP6" s="33">
+      <c r="CJ6" s="28"/>
+      <c r="CK6" s="36"/>
+      <c r="CL6" s="37"/>
+      <c r="CM6" s="38"/>
+      <c r="CN6" s="39"/>
+      <c r="CO6" s="40"/>
+      <c r="CP6" s="34">
         <f>IFERROR((VLOOKUP(CJ6,Scoring!$A:$B,2,0))+IF(CL6="y",1,0)+IF(CM6="y",1,0)+IF(CN6="y",1,0)+IF(CO6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ6" s="27"/>
-      <c r="CR6" s="34"/>
-      <c r="CS6" s="35"/>
-      <c r="CT6" s="36"/>
-      <c r="CU6" s="37"/>
-      <c r="CV6" s="38"/>
-      <c r="CW6" s="33">
+      <c r="CQ6" s="28"/>
+      <c r="CR6" s="36"/>
+      <c r="CS6" s="37"/>
+      <c r="CT6" s="38"/>
+      <c r="CU6" s="39"/>
+      <c r="CV6" s="40"/>
+      <c r="CW6" s="34">
         <f>IFERROR((VLOOKUP(CQ6,Scoring!$A:$B,2,0))+IF(CS6="y",1,0)+IF(CT6="y",1,0)+IF(CU6="y",1,0)+IF(CV6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX6" s="27"/>
-      <c r="CY6" s="34"/>
-      <c r="CZ6" s="35"/>
-      <c r="DA6" s="36"/>
-      <c r="DB6" s="37"/>
-      <c r="DC6" s="38"/>
-      <c r="DD6" s="33">
+      <c r="CX6" s="28"/>
+      <c r="CY6" s="36"/>
+      <c r="CZ6" s="37"/>
+      <c r="DA6" s="38"/>
+      <c r="DB6" s="39"/>
+      <c r="DC6" s="40"/>
+      <c r="DD6" s="34">
         <f>IFERROR((VLOOKUP(CX6,Scoring!$A:$B,2,0))+IF(CZ6="y",1,0)+IF(DA6="y",1,0)+IF(DB6="y",1,0)+IF(DC6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE6" s="27"/>
-      <c r="DF6" s="34"/>
-      <c r="DG6" s="35"/>
-      <c r="DH6" s="36"/>
-      <c r="DI6" s="37"/>
-      <c r="DJ6" s="38"/>
-      <c r="DK6" s="33">
+      <c r="DE6" s="28"/>
+      <c r="DF6" s="36"/>
+      <c r="DG6" s="37"/>
+      <c r="DH6" s="38"/>
+      <c r="DI6" s="39"/>
+      <c r="DJ6" s="40"/>
+      <c r="DK6" s="34">
         <f>IFERROR((VLOOKUP(DE6,Scoring!$A:$B,2,0))+IF(DG6="y",1,0)+IF(DH6="y",1,0)+IF(DI6="y",1,0)+IF(DJ6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL6" s="27"/>
-      <c r="DM6" s="34"/>
-      <c r="DN6" s="35"/>
-      <c r="DO6" s="36"/>
-      <c r="DP6" s="37"/>
-      <c r="DQ6" s="38"/>
-      <c r="DR6" s="33">
+      <c r="DL6" s="28"/>
+      <c r="DM6" s="36"/>
+      <c r="DN6" s="37"/>
+      <c r="DO6" s="38"/>
+      <c r="DP6" s="39"/>
+      <c r="DQ6" s="40"/>
+      <c r="DR6" s="34">
         <f>IFERROR((VLOOKUP(DL6,Scoring!$A:$B,2,0))+IF(DN6="y",1,0)+IF(DO6="y",1,0)+IF(DP6="y",1,0)+IF(DQ6="y",1,0),0)</f>
         <v>0</v>
       </c>
@@ -10909,571 +11050,643 @@
       <c r="C7" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="28">
         <v>9.0</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="29">
         <v>7.0</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="J7" s="33">
+      <c r="F7" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J7" s="34">
         <f>IFERROR((VLOOKUP(D7,Scoring!$A:$B,2,0))+IF(F7="y",1,0)+IF(G7="y",1,0)+IF(H7="y",1,0)+IF(I7="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="33">
-        <f>IFERROR((VLOOKUP(K7,Scoring!$A:$B,2,0))+IF(M7="y",1,0)+IF(N7="y",1,0)+IF(O7="y",1,0)+IF(P7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="27"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="33">
+      <c r="K7" s="28">
+        <v>6.0</v>
+      </c>
+      <c r="L7" s="29">
+        <v>7.0</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q7" s="35">
+        <f>IFERROR((VLOOKUP(K7,Scoring!$D:$E,2,0))+IF(M7="y",1,0)+IF(N7="y",1,0)+IF(O7="y",1,0)+IF(P7="y",1,0),0)</f>
+        <v>3</v>
+      </c>
+      <c r="R7" s="28">
+        <v>21.0</v>
+      </c>
+      <c r="S7" s="29">
+        <v>9.0</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="V7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="W7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="X7" s="34">
         <f>IFERROR((VLOOKUP(R7,Scoring!$A:$B,2,0))+IF(T7="y",1,0)+IF(U7="y",1,0)+IF(V7="y",1,0)+IF(W7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="33">
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="34">
         <f>IFERROR((VLOOKUP(Y7,Scoring!$A:$B,2,0))+IF(AA7="y",1,0)+IF(AB7="y",1,0)+IF(AC7="y",1,0)+IF(AD7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="33">
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="34">
         <f>IFERROR((VLOOKUP(AF7,Scoring!$A:$B,2,0))+IF(AH7="y",1,0)+IF(AI7="y",1,0)+IF(AJ7="y",1,0)+IF(AK7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="34"/>
-      <c r="AO7" s="35"/>
-      <c r="AP7" s="36"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="33">
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="37"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="39"/>
+      <c r="AR7" s="40"/>
+      <c r="AS7" s="34">
         <f>IFERROR((VLOOKUP(AM7,Scoring!$A:$B,2,0))+IF(AO7="y",1,0)+IF(AP7="y",1,0)+IF(AQ7="y",1,0)+IF(AR7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="27"/>
-      <c r="AU7" s="34"/>
-      <c r="AV7" s="35"/>
-      <c r="AW7" s="36"/>
-      <c r="AX7" s="37"/>
-      <c r="AY7" s="38"/>
-      <c r="AZ7" s="33">
+      <c r="AT7" s="28"/>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="37"/>
+      <c r="AW7" s="38"/>
+      <c r="AX7" s="39"/>
+      <c r="AY7" s="40"/>
+      <c r="AZ7" s="34">
         <f>IFERROR((VLOOKUP(AT7,Scoring!$A:$B,2,0))+IF(AV7="y",1,0)+IF(AW7="y",1,0)+IF(AX7="y",1,0)+IF(AY7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="27"/>
-      <c r="BB7" s="34"/>
-      <c r="BC7" s="35"/>
-      <c r="BD7" s="36"/>
-      <c r="BE7" s="37"/>
-      <c r="BF7" s="38"/>
-      <c r="BG7" s="33">
+      <c r="BA7" s="28"/>
+      <c r="BB7" s="36"/>
+      <c r="BC7" s="37"/>
+      <c r="BD7" s="38"/>
+      <c r="BE7" s="39"/>
+      <c r="BF7" s="40"/>
+      <c r="BG7" s="34">
         <f>IFERROR((VLOOKUP(BA7,Scoring!$A:$B,2,0))+IF(BC7="y",1,0)+IF(BD7="y",1,0)+IF(BE7="y",1,0)+IF(BF7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH7" s="27"/>
-      <c r="BI7" s="34"/>
-      <c r="BJ7" s="35"/>
-      <c r="BK7" s="36"/>
-      <c r="BL7" s="37"/>
-      <c r="BM7" s="38"/>
-      <c r="BN7" s="33">
+      <c r="BH7" s="28"/>
+      <c r="BI7" s="36"/>
+      <c r="BJ7" s="37"/>
+      <c r="BK7" s="38"/>
+      <c r="BL7" s="39"/>
+      <c r="BM7" s="40"/>
+      <c r="BN7" s="34">
         <f>IFERROR((VLOOKUP(BH7,Scoring!$A:$B,2,0))+IF(BJ7="y",1,0)+IF(BK7="y",1,0)+IF(BL7="y",1,0)+IF(BM7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO7" s="27"/>
-      <c r="BP7" s="34"/>
-      <c r="BQ7" s="35"/>
-      <c r="BR7" s="36"/>
-      <c r="BS7" s="37"/>
-      <c r="BT7" s="38"/>
-      <c r="BU7" s="33">
+      <c r="BO7" s="28"/>
+      <c r="BP7" s="36"/>
+      <c r="BQ7" s="37"/>
+      <c r="BR7" s="38"/>
+      <c r="BS7" s="39"/>
+      <c r="BT7" s="40"/>
+      <c r="BU7" s="34">
         <f>IFERROR((VLOOKUP(BO7,Scoring!$A:$B,2,0))+IF(BQ7="y",1,0)+IF(BR7="y",1,0)+IF(BS7="y",1,0)+IF(BT7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV7" s="27"/>
-      <c r="BW7" s="34"/>
-      <c r="BX7" s="35"/>
-      <c r="BY7" s="36"/>
-      <c r="BZ7" s="37"/>
-      <c r="CA7" s="38"/>
-      <c r="CB7" s="33">
+      <c r="BV7" s="28"/>
+      <c r="BW7" s="36"/>
+      <c r="BX7" s="37"/>
+      <c r="BY7" s="38"/>
+      <c r="BZ7" s="39"/>
+      <c r="CA7" s="40"/>
+      <c r="CB7" s="34">
         <f>IFERROR((VLOOKUP(BV7,Scoring!$A:$B,2,0))+IF(BX7="y",1,0)+IF(BY7="y",1,0)+IF(BZ7="y",1,0)+IF(CA7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC7" s="27"/>
-      <c r="CD7" s="34"/>
-      <c r="CE7" s="35"/>
-      <c r="CF7" s="36"/>
-      <c r="CG7" s="37"/>
-      <c r="CH7" s="38"/>
-      <c r="CI7" s="33">
+      <c r="CC7" s="28"/>
+      <c r="CD7" s="36"/>
+      <c r="CE7" s="37"/>
+      <c r="CF7" s="38"/>
+      <c r="CG7" s="39"/>
+      <c r="CH7" s="40"/>
+      <c r="CI7" s="34">
         <f>IFERROR((VLOOKUP(CC7,Scoring!$A:$B,2,0))+IF(CE7="y",1,0)+IF(CF7="y",1,0)+IF(CG7="y",1,0)+IF(CH7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ7" s="27"/>
-      <c r="CK7" s="34"/>
-      <c r="CL7" s="35"/>
-      <c r="CM7" s="36"/>
-      <c r="CN7" s="37"/>
-      <c r="CO7" s="38"/>
-      <c r="CP7" s="33">
+      <c r="CJ7" s="28"/>
+      <c r="CK7" s="36"/>
+      <c r="CL7" s="37"/>
+      <c r="CM7" s="38"/>
+      <c r="CN7" s="39"/>
+      <c r="CO7" s="40"/>
+      <c r="CP7" s="34">
         <f>IFERROR((VLOOKUP(CJ7,Scoring!$A:$B,2,0))+IF(CL7="y",1,0)+IF(CM7="y",1,0)+IF(CN7="y",1,0)+IF(CO7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ7" s="27"/>
-      <c r="CR7" s="34"/>
-      <c r="CS7" s="35"/>
-      <c r="CT7" s="36"/>
-      <c r="CU7" s="37"/>
-      <c r="CV7" s="38"/>
-      <c r="CW7" s="33">
+      <c r="CQ7" s="28"/>
+      <c r="CR7" s="36"/>
+      <c r="CS7" s="37"/>
+      <c r="CT7" s="38"/>
+      <c r="CU7" s="39"/>
+      <c r="CV7" s="40"/>
+      <c r="CW7" s="34">
         <f>IFERROR((VLOOKUP(CQ7,Scoring!$A:$B,2,0))+IF(CS7="y",1,0)+IF(CT7="y",1,0)+IF(CU7="y",1,0)+IF(CV7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX7" s="27"/>
-      <c r="CY7" s="34"/>
-      <c r="CZ7" s="35"/>
-      <c r="DA7" s="36"/>
-      <c r="DB7" s="37"/>
-      <c r="DC7" s="38"/>
-      <c r="DD7" s="33">
+      <c r="CX7" s="28"/>
+      <c r="CY7" s="36"/>
+      <c r="CZ7" s="37"/>
+      <c r="DA7" s="38"/>
+      <c r="DB7" s="39"/>
+      <c r="DC7" s="40"/>
+      <c r="DD7" s="34">
         <f>IFERROR((VLOOKUP(CX7,Scoring!$A:$B,2,0))+IF(CZ7="y",1,0)+IF(DA7="y",1,0)+IF(DB7="y",1,0)+IF(DC7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE7" s="27"/>
-      <c r="DF7" s="34"/>
-      <c r="DG7" s="35"/>
-      <c r="DH7" s="36"/>
-      <c r="DI7" s="37"/>
-      <c r="DJ7" s="38"/>
-      <c r="DK7" s="33">
+      <c r="DE7" s="28"/>
+      <c r="DF7" s="36"/>
+      <c r="DG7" s="37"/>
+      <c r="DH7" s="38"/>
+      <c r="DI7" s="39"/>
+      <c r="DJ7" s="40"/>
+      <c r="DK7" s="34">
         <f>IFERROR((VLOOKUP(DE7,Scoring!$A:$B,2,0))+IF(DG7="y",1,0)+IF(DH7="y",1,0)+IF(DI7="y",1,0)+IF(DJ7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL7" s="27"/>
-      <c r="DM7" s="34"/>
-      <c r="DN7" s="35"/>
-      <c r="DO7" s="36"/>
-      <c r="DP7" s="37"/>
-      <c r="DQ7" s="38"/>
-      <c r="DR7" s="33">
+      <c r="DL7" s="28"/>
+      <c r="DM7" s="36"/>
+      <c r="DN7" s="37"/>
+      <c r="DO7" s="38"/>
+      <c r="DP7" s="39"/>
+      <c r="DQ7" s="40"/>
+      <c r="DR7" s="34">
         <f>IFERROR((VLOOKUP(DL7,Scoring!$A:$B,2,0))+IF(DN7="y",1,0)+IF(DO7="y",1,0)+IF(DP7="y",1,0)+IF(DQ7="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="44">
         <v>4.0</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="45">
         <v>10.0</v>
       </c>
-      <c r="F8" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="I8" s="47" t="s">
+      <c r="F8" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="50">
         <f>IFERROR((VLOOKUP(D8,Scoring!$A:$B,2,0))+IF(F8="y",1,0)+IF(G8="y",1,0)+IF(H8="y",1,0)+IF(I8="y",1,0),0)</f>
         <v>13</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="48">
-        <f>IFERROR((VLOOKUP(K8,Scoring!$A:$B,2,0))+IF(M8="y",1,0)+IF(N8="y",1,0)+IF(O8="y",1,0)+IF(P8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="42"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="48">
+      <c r="K8" s="44">
+        <v>13.0</v>
+      </c>
+      <c r="L8" s="45">
+        <v>6.0</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="O8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="P8" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q8" s="51">
+        <f>IFERROR((VLOOKUP(K8,Scoring!$D:$E,2,0))+IF(M8="y",1,0)+IF(N8="y",1,0)+IF(O8="y",1,0)+IF(P8="y",1,0),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R8" s="44">
+        <v>2.0</v>
+      </c>
+      <c r="S8" s="45">
+        <v>3.0</v>
+      </c>
+      <c r="T8" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="U8" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="V8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="W8" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="X8" s="50">
         <f>IFERROR((VLOOKUP(R8,Scoring!$A:$B,2,0))+IF(T8="y",1,0)+IF(U8="y",1,0)+IF(V8="y",1,0)+IF(W8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="48">
+        <v>18</v>
+      </c>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="50">
         <f>IFERROR((VLOOKUP(Y8,Scoring!$A:$B,2,0))+IF(AA8="y",1,0)+IF(AB8="y",1,0)+IF(AC8="y",1,0)+IF(AD8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="48">
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="50">
         <f>IFERROR((VLOOKUP(AF8,Scoring!$A:$B,2,0))+IF(AH8="y",1,0)+IF(AI8="y",1,0)+IF(AJ8="y",1,0)+IF(AK8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="49"/>
-      <c r="AO8" s="50"/>
-      <c r="AP8" s="51"/>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="53"/>
-      <c r="AS8" s="48">
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="52"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="54"/>
+      <c r="AQ8" s="55"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="50">
         <f>IFERROR((VLOOKUP(AM8,Scoring!$A:$B,2,0))+IF(AO8="y",1,0)+IF(AP8="y",1,0)+IF(AQ8="y",1,0)+IF(AR8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="49"/>
-      <c r="AV8" s="50"/>
-      <c r="AW8" s="51"/>
-      <c r="AX8" s="52"/>
-      <c r="AY8" s="53"/>
-      <c r="AZ8" s="48">
+      <c r="AT8" s="44"/>
+      <c r="AU8" s="52"/>
+      <c r="AV8" s="53"/>
+      <c r="AW8" s="54"/>
+      <c r="AX8" s="55"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="50">
         <f>IFERROR((VLOOKUP(AT8,Scoring!$A:$B,2,0))+IF(AV8="y",1,0)+IF(AW8="y",1,0)+IF(AX8="y",1,0)+IF(AY8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA8" s="42"/>
-      <c r="BB8" s="49"/>
-      <c r="BC8" s="50"/>
-      <c r="BD8" s="51"/>
-      <c r="BE8" s="52"/>
-      <c r="BF8" s="53"/>
-      <c r="BG8" s="48">
+      <c r="BA8" s="44"/>
+      <c r="BB8" s="52"/>
+      <c r="BC8" s="53"/>
+      <c r="BD8" s="54"/>
+      <c r="BE8" s="55"/>
+      <c r="BF8" s="56"/>
+      <c r="BG8" s="50">
         <f>IFERROR((VLOOKUP(BA8,Scoring!$A:$B,2,0))+IF(BC8="y",1,0)+IF(BD8="y",1,0)+IF(BE8="y",1,0)+IF(BF8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH8" s="42"/>
-      <c r="BI8" s="49"/>
-      <c r="BJ8" s="50"/>
-      <c r="BK8" s="51"/>
-      <c r="BL8" s="52"/>
-      <c r="BM8" s="53"/>
-      <c r="BN8" s="48">
+      <c r="BH8" s="44"/>
+      <c r="BI8" s="52"/>
+      <c r="BJ8" s="53"/>
+      <c r="BK8" s="54"/>
+      <c r="BL8" s="55"/>
+      <c r="BM8" s="56"/>
+      <c r="BN8" s="50">
         <f>IFERROR((VLOOKUP(BH8,Scoring!$A:$B,2,0))+IF(BJ8="y",1,0)+IF(BK8="y",1,0)+IF(BL8="y",1,0)+IF(BM8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO8" s="42"/>
-      <c r="BP8" s="49"/>
-      <c r="BQ8" s="50"/>
-      <c r="BR8" s="51"/>
-      <c r="BS8" s="52"/>
-      <c r="BT8" s="53"/>
-      <c r="BU8" s="48">
+      <c r="BO8" s="44"/>
+      <c r="BP8" s="52"/>
+      <c r="BQ8" s="53"/>
+      <c r="BR8" s="54"/>
+      <c r="BS8" s="55"/>
+      <c r="BT8" s="56"/>
+      <c r="BU8" s="50">
         <f>IFERROR((VLOOKUP(BO8,Scoring!$A:$B,2,0))+IF(BQ8="y",1,0)+IF(BR8="y",1,0)+IF(BS8="y",1,0)+IF(BT8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV8" s="42"/>
-      <c r="BW8" s="49"/>
-      <c r="BX8" s="50"/>
-      <c r="BY8" s="51"/>
-      <c r="BZ8" s="52"/>
-      <c r="CA8" s="53"/>
-      <c r="CB8" s="48">
+      <c r="BV8" s="44"/>
+      <c r="BW8" s="52"/>
+      <c r="BX8" s="53"/>
+      <c r="BY8" s="54"/>
+      <c r="BZ8" s="55"/>
+      <c r="CA8" s="56"/>
+      <c r="CB8" s="50">
         <f>IFERROR((VLOOKUP(BV8,Scoring!$A:$B,2,0))+IF(BX8="y",1,0)+IF(BY8="y",1,0)+IF(BZ8="y",1,0)+IF(CA8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC8" s="42"/>
-      <c r="CD8" s="49"/>
-      <c r="CE8" s="50"/>
-      <c r="CF8" s="51"/>
-      <c r="CG8" s="52"/>
-      <c r="CH8" s="53"/>
-      <c r="CI8" s="48">
+      <c r="CC8" s="44"/>
+      <c r="CD8" s="52"/>
+      <c r="CE8" s="53"/>
+      <c r="CF8" s="54"/>
+      <c r="CG8" s="55"/>
+      <c r="CH8" s="56"/>
+      <c r="CI8" s="50">
         <f>IFERROR((VLOOKUP(CC8,Scoring!$A:$B,2,0))+IF(CE8="y",1,0)+IF(CF8="y",1,0)+IF(CG8="y",1,0)+IF(CH8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ8" s="42"/>
-      <c r="CK8" s="49"/>
-      <c r="CL8" s="50"/>
-      <c r="CM8" s="51"/>
-      <c r="CN8" s="52"/>
-      <c r="CO8" s="53"/>
-      <c r="CP8" s="48">
+      <c r="CJ8" s="44"/>
+      <c r="CK8" s="52"/>
+      <c r="CL8" s="53"/>
+      <c r="CM8" s="54"/>
+      <c r="CN8" s="55"/>
+      <c r="CO8" s="56"/>
+      <c r="CP8" s="50">
         <f>IFERROR((VLOOKUP(CJ8,Scoring!$A:$B,2,0))+IF(CL8="y",1,0)+IF(CM8="y",1,0)+IF(CN8="y",1,0)+IF(CO8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ8" s="42"/>
-      <c r="CR8" s="49"/>
-      <c r="CS8" s="50"/>
-      <c r="CT8" s="51"/>
-      <c r="CU8" s="52"/>
-      <c r="CV8" s="53"/>
-      <c r="CW8" s="48">
+      <c r="CQ8" s="44"/>
+      <c r="CR8" s="52"/>
+      <c r="CS8" s="53"/>
+      <c r="CT8" s="54"/>
+      <c r="CU8" s="55"/>
+      <c r="CV8" s="56"/>
+      <c r="CW8" s="50">
         <f>IFERROR((VLOOKUP(CQ8,Scoring!$A:$B,2,0))+IF(CS8="y",1,0)+IF(CT8="y",1,0)+IF(CU8="y",1,0)+IF(CV8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX8" s="42"/>
-      <c r="CY8" s="49"/>
-      <c r="CZ8" s="50"/>
-      <c r="DA8" s="51"/>
-      <c r="DB8" s="52"/>
-      <c r="DC8" s="53"/>
-      <c r="DD8" s="48">
+      <c r="CX8" s="44"/>
+      <c r="CY8" s="52"/>
+      <c r="CZ8" s="53"/>
+      <c r="DA8" s="54"/>
+      <c r="DB8" s="55"/>
+      <c r="DC8" s="56"/>
+      <c r="DD8" s="50">
         <f>IFERROR((VLOOKUP(CX8,Scoring!$A:$B,2,0))+IF(CZ8="y",1,0)+IF(DA8="y",1,0)+IF(DB8="y",1,0)+IF(DC8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE8" s="42"/>
-      <c r="DF8" s="49"/>
-      <c r="DG8" s="50"/>
-      <c r="DH8" s="51"/>
-      <c r="DI8" s="52"/>
-      <c r="DJ8" s="53"/>
-      <c r="DK8" s="48">
+      <c r="DE8" s="44"/>
+      <c r="DF8" s="52"/>
+      <c r="DG8" s="53"/>
+      <c r="DH8" s="54"/>
+      <c r="DI8" s="55"/>
+      <c r="DJ8" s="56"/>
+      <c r="DK8" s="50">
         <f>IFERROR((VLOOKUP(DE8,Scoring!$A:$B,2,0))+IF(DG8="y",1,0)+IF(DH8="y",1,0)+IF(DI8="y",1,0)+IF(DJ8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL8" s="42"/>
-      <c r="DM8" s="49"/>
-      <c r="DN8" s="50"/>
-      <c r="DO8" s="51"/>
-      <c r="DP8" s="52"/>
-      <c r="DQ8" s="53"/>
-      <c r="DR8" s="48">
+      <c r="DL8" s="44"/>
+      <c r="DM8" s="52"/>
+      <c r="DN8" s="53"/>
+      <c r="DO8" s="54"/>
+      <c r="DP8" s="55"/>
+      <c r="DQ8" s="56"/>
+      <c r="DR8" s="50">
         <f>IFERROR((VLOOKUP(DL8,Scoring!$A:$B,2,0))+IF(DN8="y",1,0)+IF(DO8="y",1,0)+IF(DP8="y",1,0)+IF(DQ8="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="60">
         <v>15.0</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="61">
         <v>5.0</v>
       </c>
-      <c r="F9" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="G9" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="I9" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="J9" s="63">
+      <c r="F9" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="J9" s="66">
         <f>IFERROR((VLOOKUP(D9,Scoring!$A:$B,2,0))+IF(F9="y",1,0)+IF(G9="y",1,0)+IF(H9="y",1,0)+IF(I9="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="63">
-        <f>IFERROR((VLOOKUP(K9,Scoring!$A:$B,2,0))+IF(M9="y",1,0)+IF(N9="y",1,0)+IF(O9="y",1,0)+IF(P9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="57"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="63">
+      <c r="K9" s="60">
+        <v>9.0</v>
+      </c>
+      <c r="L9" s="61">
+        <v>8.0</v>
+      </c>
+      <c r="M9" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="N9" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="O9" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="P9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q9" s="67">
+        <f>IFERROR((VLOOKUP(K9,Scoring!$D:$E,2,0))+IF(M9="y",1,0)+IF(N9="y",1,0)+IF(O9="y",1,0)+IF(P9="y",1,0),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R9" s="60">
+        <v>21.0</v>
+      </c>
+      <c r="S9" s="61">
+        <v>6.0</v>
+      </c>
+      <c r="T9" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="U9" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="V9" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="W9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="X9" s="66">
         <f>IFERROR((VLOOKUP(R9,Scoring!$A:$B,2,0))+IF(T9="y",1,0)+IF(U9="y",1,0)+IF(V9="y",1,0)+IF(W9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="68"/>
-      <c r="AE9" s="63">
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="66">
         <f>IFERROR((VLOOKUP(Y9,Scoring!$A:$B,2,0))+IF(AA9="y",1,0)+IF(AB9="y",1,0)+IF(AC9="y",1,0)+IF(AD9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="67"/>
-      <c r="AK9" s="68"/>
-      <c r="AL9" s="63">
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="69"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="72"/>
+      <c r="AL9" s="66">
         <f>IFERROR((VLOOKUP(AF9,Scoring!$A:$B,2,0))+IF(AH9="y",1,0)+IF(AI9="y",1,0)+IF(AJ9="y",1,0)+IF(AK9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="57"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="67"/>
-      <c r="AR9" s="68"/>
-      <c r="AS9" s="63">
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="68"/>
+      <c r="AO9" s="69"/>
+      <c r="AP9" s="70"/>
+      <c r="AQ9" s="71"/>
+      <c r="AR9" s="72"/>
+      <c r="AS9" s="66">
         <f>IFERROR((VLOOKUP(AM9,Scoring!$A:$B,2,0))+IF(AO9="y",1,0)+IF(AP9="y",1,0)+IF(AQ9="y",1,0)+IF(AR9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT9" s="57"/>
-      <c r="AU9" s="64"/>
-      <c r="AV9" s="65"/>
-      <c r="AW9" s="66"/>
-      <c r="AX9" s="67"/>
-      <c r="AY9" s="68"/>
-      <c r="AZ9" s="63">
+      <c r="AT9" s="60"/>
+      <c r="AU9" s="68"/>
+      <c r="AV9" s="69"/>
+      <c r="AW9" s="70"/>
+      <c r="AX9" s="71"/>
+      <c r="AY9" s="72"/>
+      <c r="AZ9" s="66">
         <f>IFERROR((VLOOKUP(AT9,Scoring!$A:$B,2,0))+IF(AV9="y",1,0)+IF(AW9="y",1,0)+IF(AX9="y",1,0)+IF(AY9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA9" s="57"/>
-      <c r="BB9" s="64"/>
-      <c r="BC9" s="65"/>
-      <c r="BD9" s="66"/>
-      <c r="BE9" s="67"/>
-      <c r="BF9" s="68"/>
-      <c r="BG9" s="63">
+      <c r="BA9" s="60"/>
+      <c r="BB9" s="68"/>
+      <c r="BC9" s="69"/>
+      <c r="BD9" s="70"/>
+      <c r="BE9" s="71"/>
+      <c r="BF9" s="72"/>
+      <c r="BG9" s="66">
         <f>IFERROR((VLOOKUP(BA9,Scoring!$A:$B,2,0))+IF(BC9="y",1,0)+IF(BD9="y",1,0)+IF(BE9="y",1,0)+IF(BF9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH9" s="57"/>
-      <c r="BI9" s="64"/>
-      <c r="BJ9" s="65"/>
-      <c r="BK9" s="66"/>
-      <c r="BL9" s="67"/>
-      <c r="BM9" s="68"/>
-      <c r="BN9" s="63">
+      <c r="BH9" s="60"/>
+      <c r="BI9" s="68"/>
+      <c r="BJ9" s="69"/>
+      <c r="BK9" s="70"/>
+      <c r="BL9" s="71"/>
+      <c r="BM9" s="72"/>
+      <c r="BN9" s="66">
         <f>IFERROR((VLOOKUP(BH9,Scoring!$A:$B,2,0))+IF(BJ9="y",1,0)+IF(BK9="y",1,0)+IF(BL9="y",1,0)+IF(BM9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO9" s="57"/>
-      <c r="BP9" s="64"/>
-      <c r="BQ9" s="65"/>
-      <c r="BR9" s="66"/>
-      <c r="BS9" s="67"/>
-      <c r="BT9" s="68"/>
-      <c r="BU9" s="63">
+      <c r="BO9" s="60"/>
+      <c r="BP9" s="68"/>
+      <c r="BQ9" s="69"/>
+      <c r="BR9" s="70"/>
+      <c r="BS9" s="71"/>
+      <c r="BT9" s="72"/>
+      <c r="BU9" s="66">
         <f>IFERROR((VLOOKUP(BO9,Scoring!$A:$B,2,0))+IF(BQ9="y",1,0)+IF(BR9="y",1,0)+IF(BS9="y",1,0)+IF(BT9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV9" s="57"/>
-      <c r="BW9" s="64"/>
-      <c r="BX9" s="65"/>
-      <c r="BY9" s="66"/>
-      <c r="BZ9" s="67"/>
-      <c r="CA9" s="68"/>
-      <c r="CB9" s="63">
+      <c r="BV9" s="60"/>
+      <c r="BW9" s="68"/>
+      <c r="BX9" s="69"/>
+      <c r="BY9" s="70"/>
+      <c r="BZ9" s="71"/>
+      <c r="CA9" s="72"/>
+      <c r="CB9" s="66">
         <f>IFERROR((VLOOKUP(BV9,Scoring!$A:$B,2,0))+IF(BX9="y",1,0)+IF(BY9="y",1,0)+IF(BZ9="y",1,0)+IF(CA9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC9" s="57"/>
-      <c r="CD9" s="64"/>
-      <c r="CE9" s="65"/>
-      <c r="CF9" s="66"/>
-      <c r="CG9" s="67"/>
-      <c r="CH9" s="68"/>
-      <c r="CI9" s="63">
+      <c r="CC9" s="60"/>
+      <c r="CD9" s="68"/>
+      <c r="CE9" s="69"/>
+      <c r="CF9" s="70"/>
+      <c r="CG9" s="71"/>
+      <c r="CH9" s="72"/>
+      <c r="CI9" s="66">
         <f>IFERROR((VLOOKUP(CC9,Scoring!$A:$B,2,0))+IF(CE9="y",1,0)+IF(CF9="y",1,0)+IF(CG9="y",1,0)+IF(CH9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ9" s="57"/>
-      <c r="CK9" s="64"/>
-      <c r="CL9" s="65"/>
-      <c r="CM9" s="66"/>
-      <c r="CN9" s="67"/>
-      <c r="CO9" s="68"/>
-      <c r="CP9" s="63">
+      <c r="CJ9" s="60"/>
+      <c r="CK9" s="68"/>
+      <c r="CL9" s="69"/>
+      <c r="CM9" s="70"/>
+      <c r="CN9" s="71"/>
+      <c r="CO9" s="72"/>
+      <c r="CP9" s="66">
         <f>IFERROR((VLOOKUP(CJ9,Scoring!$A:$B,2,0))+IF(CL9="y",1,0)+IF(CM9="y",1,0)+IF(CN9="y",1,0)+IF(CO9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ9" s="57"/>
-      <c r="CR9" s="64"/>
-      <c r="CS9" s="65"/>
-      <c r="CT9" s="66"/>
-      <c r="CU9" s="67"/>
-      <c r="CV9" s="68"/>
-      <c r="CW9" s="63">
+      <c r="CQ9" s="60"/>
+      <c r="CR9" s="68"/>
+      <c r="CS9" s="69"/>
+      <c r="CT9" s="70"/>
+      <c r="CU9" s="71"/>
+      <c r="CV9" s="72"/>
+      <c r="CW9" s="66">
         <f>IFERROR((VLOOKUP(CQ9,Scoring!$A:$B,2,0))+IF(CS9="y",1,0)+IF(CT9="y",1,0)+IF(CU9="y",1,0)+IF(CV9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX9" s="57"/>
-      <c r="CY9" s="64"/>
-      <c r="CZ9" s="65"/>
-      <c r="DA9" s="66"/>
-      <c r="DB9" s="67"/>
-      <c r="DC9" s="68"/>
-      <c r="DD9" s="63">
+      <c r="CX9" s="60"/>
+      <c r="CY9" s="68"/>
+      <c r="CZ9" s="69"/>
+      <c r="DA9" s="70"/>
+      <c r="DB9" s="71"/>
+      <c r="DC9" s="72"/>
+      <c r="DD9" s="66">
         <f>IFERROR((VLOOKUP(CX9,Scoring!$A:$B,2,0))+IF(CZ9="y",1,0)+IF(DA9="y",1,0)+IF(DB9="y",1,0)+IF(DC9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE9" s="57"/>
-      <c r="DF9" s="64"/>
-      <c r="DG9" s="65"/>
-      <c r="DH9" s="66"/>
-      <c r="DI9" s="67"/>
-      <c r="DJ9" s="68"/>
-      <c r="DK9" s="63">
+      <c r="DE9" s="60"/>
+      <c r="DF9" s="68"/>
+      <c r="DG9" s="69"/>
+      <c r="DH9" s="70"/>
+      <c r="DI9" s="71"/>
+      <c r="DJ9" s="72"/>
+      <c r="DK9" s="66">
         <f>IFERROR((VLOOKUP(DE9,Scoring!$A:$B,2,0))+IF(DG9="y",1,0)+IF(DH9="y",1,0)+IF(DI9="y",1,0)+IF(DJ9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL9" s="57"/>
-      <c r="DM9" s="64"/>
-      <c r="DN9" s="65"/>
-      <c r="DO9" s="66"/>
-      <c r="DP9" s="67"/>
-      <c r="DQ9" s="68"/>
-      <c r="DR9" s="63">
+      <c r="DL9" s="60"/>
+      <c r="DM9" s="68"/>
+      <c r="DN9" s="69"/>
+      <c r="DO9" s="70"/>
+      <c r="DP9" s="71"/>
+      <c r="DQ9" s="72"/>
+      <c r="DR9" s="66">
         <f>IFERROR((VLOOKUP(DL9,Scoring!$A:$B,2,0))+IF(DN9="y",1,0)+IF(DO9="y",1,0)+IF(DP9="y",1,0)+IF(DQ9="y",1,0),0)</f>
         <v>0</v>
       </c>
@@ -11488,185 +11701,209 @@
       <c r="C10" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="28">
         <v>5.0</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="29">
         <v>8.0</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="J10" s="33">
+      <c r="F10" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J10" s="34">
         <f>IFERROR((VLOOKUP(D10,Scoring!$A:$B,2,0))+IF(F10="y",1,0)+IF(G10="y",1,0)+IF(H10="y",1,0)+IF(I10="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="33">
-        <f>IFERROR((VLOOKUP(K10,Scoring!$A:$B,2,0))+IF(M10="y",1,0)+IF(N10="y",1,0)+IF(O10="y",1,0)+IF(P10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="27"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="33">
+      <c r="K10" s="28">
+        <v>5.0</v>
+      </c>
+      <c r="L10" s="29">
+        <v>11.0</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q10" s="35">
+        <f>IFERROR((VLOOKUP(K10,Scoring!$D:$E,2,0))+IF(M10="y",1,0)+IF(N10="y",1,0)+IF(O10="y",1,0)+IF(P10="y",1,0),0)</f>
+        <v>4</v>
+      </c>
+      <c r="R10" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="S10" s="29">
+        <v>10.0</v>
+      </c>
+      <c r="T10" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="U10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="V10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="W10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="X10" s="34">
         <f>IFERROR((VLOOKUP(R10,Scoring!$A:$B,2,0))+IF(T10="y",1,0)+IF(U10="y",1,0)+IF(V10="y",1,0)+IF(W10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="33">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="34">
         <f>IFERROR((VLOOKUP(Y10,Scoring!$A:$B,2,0))+IF(AA10="y",1,0)+IF(AB10="y",1,0)+IF(AC10="y",1,0)+IF(AD10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="35"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="38"/>
-      <c r="AL10" s="33">
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="38"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="40"/>
+      <c r="AL10" s="34">
         <f>IFERROR((VLOOKUP(AF10,Scoring!$A:$B,2,0))+IF(AH10="y",1,0)+IF(AI10="y",1,0)+IF(AJ10="y",1,0)+IF(AK10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="35"/>
-      <c r="AP10" s="36"/>
-      <c r="AQ10" s="37"/>
-      <c r="AR10" s="38"/>
-      <c r="AS10" s="33">
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="36"/>
+      <c r="AO10" s="37"/>
+      <c r="AP10" s="38"/>
+      <c r="AQ10" s="39"/>
+      <c r="AR10" s="40"/>
+      <c r="AS10" s="34">
         <f>IFERROR((VLOOKUP(AM10,Scoring!$A:$B,2,0))+IF(AO10="y",1,0)+IF(AP10="y",1,0)+IF(AQ10="y",1,0)+IF(AR10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT10" s="27"/>
-      <c r="AU10" s="34"/>
-      <c r="AV10" s="35"/>
-      <c r="AW10" s="36"/>
-      <c r="AX10" s="37"/>
-      <c r="AY10" s="38"/>
-      <c r="AZ10" s="33">
+      <c r="AT10" s="28"/>
+      <c r="AU10" s="36"/>
+      <c r="AV10" s="37"/>
+      <c r="AW10" s="38"/>
+      <c r="AX10" s="39"/>
+      <c r="AY10" s="40"/>
+      <c r="AZ10" s="34">
         <f>IFERROR((VLOOKUP(AT10,Scoring!$A:$B,2,0))+IF(AV10="y",1,0)+IF(AW10="y",1,0)+IF(AX10="y",1,0)+IF(AY10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA10" s="27"/>
-      <c r="BB10" s="34"/>
-      <c r="BC10" s="35"/>
-      <c r="BD10" s="36"/>
-      <c r="BE10" s="37"/>
-      <c r="BF10" s="38"/>
-      <c r="BG10" s="33">
+      <c r="BA10" s="28"/>
+      <c r="BB10" s="36"/>
+      <c r="BC10" s="37"/>
+      <c r="BD10" s="38"/>
+      <c r="BE10" s="39"/>
+      <c r="BF10" s="40"/>
+      <c r="BG10" s="34">
         <f>IFERROR((VLOOKUP(BA10,Scoring!$A:$B,2,0))+IF(BC10="y",1,0)+IF(BD10="y",1,0)+IF(BE10="y",1,0)+IF(BF10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH10" s="27"/>
-      <c r="BI10" s="34"/>
-      <c r="BJ10" s="35"/>
-      <c r="BK10" s="36"/>
-      <c r="BL10" s="37"/>
-      <c r="BM10" s="38"/>
-      <c r="BN10" s="33">
+      <c r="BH10" s="28"/>
+      <c r="BI10" s="36"/>
+      <c r="BJ10" s="37"/>
+      <c r="BK10" s="38"/>
+      <c r="BL10" s="39"/>
+      <c r="BM10" s="40"/>
+      <c r="BN10" s="34">
         <f>IFERROR((VLOOKUP(BH10,Scoring!$A:$B,2,0))+IF(BJ10="y",1,0)+IF(BK10="y",1,0)+IF(BL10="y",1,0)+IF(BM10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO10" s="27"/>
-      <c r="BP10" s="34"/>
-      <c r="BQ10" s="35"/>
-      <c r="BR10" s="36"/>
-      <c r="BS10" s="37"/>
-      <c r="BT10" s="38"/>
-      <c r="BU10" s="33">
+      <c r="BO10" s="28"/>
+      <c r="BP10" s="36"/>
+      <c r="BQ10" s="37"/>
+      <c r="BR10" s="38"/>
+      <c r="BS10" s="39"/>
+      <c r="BT10" s="40"/>
+      <c r="BU10" s="34">
         <f>IFERROR((VLOOKUP(BO10,Scoring!$A:$B,2,0))+IF(BQ10="y",1,0)+IF(BR10="y",1,0)+IF(BS10="y",1,0)+IF(BT10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV10" s="27"/>
-      <c r="BW10" s="34"/>
-      <c r="BX10" s="35"/>
-      <c r="BY10" s="36"/>
-      <c r="BZ10" s="37"/>
-      <c r="CA10" s="38"/>
-      <c r="CB10" s="33">
+      <c r="BV10" s="28"/>
+      <c r="BW10" s="36"/>
+      <c r="BX10" s="37"/>
+      <c r="BY10" s="38"/>
+      <c r="BZ10" s="39"/>
+      <c r="CA10" s="40"/>
+      <c r="CB10" s="34">
         <f>IFERROR((VLOOKUP(BV10,Scoring!$A:$B,2,0))+IF(BX10="y",1,0)+IF(BY10="y",1,0)+IF(BZ10="y",1,0)+IF(CA10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC10" s="27"/>
-      <c r="CD10" s="34"/>
-      <c r="CE10" s="35"/>
-      <c r="CF10" s="36"/>
-      <c r="CG10" s="37"/>
-      <c r="CH10" s="38"/>
-      <c r="CI10" s="33">
+      <c r="CC10" s="28"/>
+      <c r="CD10" s="36"/>
+      <c r="CE10" s="37"/>
+      <c r="CF10" s="38"/>
+      <c r="CG10" s="39"/>
+      <c r="CH10" s="40"/>
+      <c r="CI10" s="34">
         <f>IFERROR((VLOOKUP(CC10,Scoring!$A:$B,2,0))+IF(CE10="y",1,0)+IF(CF10="y",1,0)+IF(CG10="y",1,0)+IF(CH10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ10" s="27"/>
-      <c r="CK10" s="34"/>
-      <c r="CL10" s="35"/>
-      <c r="CM10" s="36"/>
-      <c r="CN10" s="37"/>
-      <c r="CO10" s="38"/>
-      <c r="CP10" s="33">
+      <c r="CJ10" s="28"/>
+      <c r="CK10" s="36"/>
+      <c r="CL10" s="37"/>
+      <c r="CM10" s="38"/>
+      <c r="CN10" s="39"/>
+      <c r="CO10" s="40"/>
+      <c r="CP10" s="34">
         <f>IFERROR((VLOOKUP(CJ10,Scoring!$A:$B,2,0))+IF(CL10="y",1,0)+IF(CM10="y",1,0)+IF(CN10="y",1,0)+IF(CO10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ10" s="27"/>
-      <c r="CR10" s="34"/>
-      <c r="CS10" s="35"/>
-      <c r="CT10" s="36"/>
-      <c r="CU10" s="37"/>
-      <c r="CV10" s="38"/>
-      <c r="CW10" s="33">
+      <c r="CQ10" s="28"/>
+      <c r="CR10" s="36"/>
+      <c r="CS10" s="37"/>
+      <c r="CT10" s="38"/>
+      <c r="CU10" s="39"/>
+      <c r="CV10" s="40"/>
+      <c r="CW10" s="34">
         <f>IFERROR((VLOOKUP(CQ10,Scoring!$A:$B,2,0))+IF(CS10="y",1,0)+IF(CT10="y",1,0)+IF(CU10="y",1,0)+IF(CV10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX10" s="27"/>
-      <c r="CY10" s="34"/>
-      <c r="CZ10" s="35"/>
-      <c r="DA10" s="36"/>
-      <c r="DB10" s="37"/>
-      <c r="DC10" s="38"/>
-      <c r="DD10" s="33">
+      <c r="CX10" s="28"/>
+      <c r="CY10" s="36"/>
+      <c r="CZ10" s="37"/>
+      <c r="DA10" s="38"/>
+      <c r="DB10" s="39"/>
+      <c r="DC10" s="40"/>
+      <c r="DD10" s="34">
         <f>IFERROR((VLOOKUP(CX10,Scoring!$A:$B,2,0))+IF(CZ10="y",1,0)+IF(DA10="y",1,0)+IF(DB10="y",1,0)+IF(DC10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE10" s="27"/>
-      <c r="DF10" s="34"/>
-      <c r="DG10" s="35"/>
-      <c r="DH10" s="36"/>
-      <c r="DI10" s="37"/>
-      <c r="DJ10" s="38"/>
-      <c r="DK10" s="33">
+      <c r="DE10" s="28"/>
+      <c r="DF10" s="36"/>
+      <c r="DG10" s="37"/>
+      <c r="DH10" s="38"/>
+      <c r="DI10" s="39"/>
+      <c r="DJ10" s="40"/>
+      <c r="DK10" s="34">
         <f>IFERROR((VLOOKUP(DE10,Scoring!$A:$B,2,0))+IF(DG10="y",1,0)+IF(DH10="y",1,0)+IF(DI10="y",1,0)+IF(DJ10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL10" s="27"/>
-      <c r="DM10" s="34"/>
-      <c r="DN10" s="35"/>
-      <c r="DO10" s="36"/>
-      <c r="DP10" s="37"/>
-      <c r="DQ10" s="38"/>
-      <c r="DR10" s="33">
+      <c r="DL10" s="28"/>
+      <c r="DM10" s="36"/>
+      <c r="DN10" s="37"/>
+      <c r="DO10" s="38"/>
+      <c r="DP10" s="39"/>
+      <c r="DQ10" s="40"/>
+      <c r="DR10" s="34">
         <f>IFERROR((VLOOKUP(DL10,Scoring!$A:$B,2,0))+IF(DN10="y",1,0)+IF(DO10="y",1,0)+IF(DP10="y",1,0)+IF(DQ10="y",1,0),0)</f>
         <v>0</v>
       </c>
@@ -11681,571 +11918,643 @@
       <c r="C11" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="28">
         <v>7.0</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="29">
         <v>12.0</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="J11" s="33">
+      <c r="F11" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J11" s="34">
         <f>IFERROR((VLOOKUP(D11,Scoring!$A:$B,2,0))+IF(F11="y",1,0)+IF(G11="y",1,0)+IF(H11="y",1,0)+IF(I11="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="33">
-        <f>IFERROR((VLOOKUP(K11,Scoring!$A:$B,2,0))+IF(M11="y",1,0)+IF(N11="y",1,0)+IF(O11="y",1,0)+IF(P11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="27"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="33">
+      <c r="K11" s="28">
+        <v>21.0</v>
+      </c>
+      <c r="L11" s="29">
+        <v>10.0</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q11" s="35">
+        <f>IFERROR((VLOOKUP(K11,Scoring!$D:$E,2,0))+IF(M11="y",1,0)+IF(N11="y",1,0)+IF(O11="y",1,0)+IF(P11="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="28">
+        <v>11.0</v>
+      </c>
+      <c r="S11" s="29">
+        <v>15.0</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="V11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="W11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="X11" s="34">
         <f>IFERROR((VLOOKUP(R11,Scoring!$A:$B,2,0))+IF(T11="y",1,0)+IF(U11="y",1,0)+IF(V11="y",1,0)+IF(W11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="33">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="34">
         <f>IFERROR((VLOOKUP(Y11,Scoring!$A:$B,2,0))+IF(AA11="y",1,0)+IF(AB11="y",1,0)+IF(AC11="y",1,0)+IF(AD11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="33">
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="40"/>
+      <c r="AL11" s="34">
         <f>IFERROR((VLOOKUP(AF11,Scoring!$A:$B,2,0))+IF(AH11="y",1,0)+IF(AI11="y",1,0)+IF(AJ11="y",1,0)+IF(AK11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="36"/>
-      <c r="AQ11" s="37"/>
-      <c r="AR11" s="38"/>
-      <c r="AS11" s="33">
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="37"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="39"/>
+      <c r="AR11" s="40"/>
+      <c r="AS11" s="34">
         <f>IFERROR((VLOOKUP(AM11,Scoring!$A:$B,2,0))+IF(AO11="y",1,0)+IF(AP11="y",1,0)+IF(AQ11="y",1,0)+IF(AR11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT11" s="27"/>
-      <c r="AU11" s="34"/>
-      <c r="AV11" s="35"/>
-      <c r="AW11" s="36"/>
-      <c r="AX11" s="37"/>
-      <c r="AY11" s="38"/>
-      <c r="AZ11" s="33">
+      <c r="AT11" s="28"/>
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="37"/>
+      <c r="AW11" s="38"/>
+      <c r="AX11" s="39"/>
+      <c r="AY11" s="40"/>
+      <c r="AZ11" s="34">
         <f>IFERROR((VLOOKUP(AT11,Scoring!$A:$B,2,0))+IF(AV11="y",1,0)+IF(AW11="y",1,0)+IF(AX11="y",1,0)+IF(AY11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA11" s="27"/>
-      <c r="BB11" s="34"/>
-      <c r="BC11" s="35"/>
-      <c r="BD11" s="36"/>
-      <c r="BE11" s="37"/>
-      <c r="BF11" s="38"/>
-      <c r="BG11" s="33">
+      <c r="BA11" s="28"/>
+      <c r="BB11" s="36"/>
+      <c r="BC11" s="37"/>
+      <c r="BD11" s="38"/>
+      <c r="BE11" s="39"/>
+      <c r="BF11" s="40"/>
+      <c r="BG11" s="34">
         <f>IFERROR((VLOOKUP(BA11,Scoring!$A:$B,2,0))+IF(BC11="y",1,0)+IF(BD11="y",1,0)+IF(BE11="y",1,0)+IF(BF11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH11" s="27"/>
-      <c r="BI11" s="34"/>
-      <c r="BJ11" s="35"/>
-      <c r="BK11" s="36"/>
-      <c r="BL11" s="37"/>
-      <c r="BM11" s="38"/>
-      <c r="BN11" s="33">
+      <c r="BH11" s="28"/>
+      <c r="BI11" s="36"/>
+      <c r="BJ11" s="37"/>
+      <c r="BK11" s="38"/>
+      <c r="BL11" s="39"/>
+      <c r="BM11" s="40"/>
+      <c r="BN11" s="34">
         <f>IFERROR((VLOOKUP(BH11,Scoring!$A:$B,2,0))+IF(BJ11="y",1,0)+IF(BK11="y",1,0)+IF(BL11="y",1,0)+IF(BM11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO11" s="27"/>
-      <c r="BP11" s="34"/>
-      <c r="BQ11" s="35"/>
-      <c r="BR11" s="36"/>
-      <c r="BS11" s="37"/>
-      <c r="BT11" s="38"/>
-      <c r="BU11" s="33">
+      <c r="BO11" s="28"/>
+      <c r="BP11" s="36"/>
+      <c r="BQ11" s="37"/>
+      <c r="BR11" s="38"/>
+      <c r="BS11" s="39"/>
+      <c r="BT11" s="40"/>
+      <c r="BU11" s="34">
         <f>IFERROR((VLOOKUP(BO11,Scoring!$A:$B,2,0))+IF(BQ11="y",1,0)+IF(BR11="y",1,0)+IF(BS11="y",1,0)+IF(BT11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV11" s="27"/>
-      <c r="BW11" s="34"/>
-      <c r="BX11" s="35"/>
-      <c r="BY11" s="36"/>
-      <c r="BZ11" s="37"/>
-      <c r="CA11" s="38"/>
-      <c r="CB11" s="33">
+      <c r="BV11" s="28"/>
+      <c r="BW11" s="36"/>
+      <c r="BX11" s="37"/>
+      <c r="BY11" s="38"/>
+      <c r="BZ11" s="39"/>
+      <c r="CA11" s="40"/>
+      <c r="CB11" s="34">
         <f>IFERROR((VLOOKUP(BV11,Scoring!$A:$B,2,0))+IF(BX11="y",1,0)+IF(BY11="y",1,0)+IF(BZ11="y",1,0)+IF(CA11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC11" s="27"/>
-      <c r="CD11" s="34"/>
-      <c r="CE11" s="35"/>
-      <c r="CF11" s="36"/>
-      <c r="CG11" s="37"/>
-      <c r="CH11" s="38"/>
-      <c r="CI11" s="33">
+      <c r="CC11" s="28"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="37"/>
+      <c r="CF11" s="38"/>
+      <c r="CG11" s="39"/>
+      <c r="CH11" s="40"/>
+      <c r="CI11" s="34">
         <f>IFERROR((VLOOKUP(CC11,Scoring!$A:$B,2,0))+IF(CE11="y",1,0)+IF(CF11="y",1,0)+IF(CG11="y",1,0)+IF(CH11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ11" s="27"/>
-      <c r="CK11" s="34"/>
-      <c r="CL11" s="35"/>
-      <c r="CM11" s="36"/>
-      <c r="CN11" s="37"/>
-      <c r="CO11" s="38"/>
-      <c r="CP11" s="33">
+      <c r="CJ11" s="28"/>
+      <c r="CK11" s="36"/>
+      <c r="CL11" s="37"/>
+      <c r="CM11" s="38"/>
+      <c r="CN11" s="39"/>
+      <c r="CO11" s="40"/>
+      <c r="CP11" s="34">
         <f>IFERROR((VLOOKUP(CJ11,Scoring!$A:$B,2,0))+IF(CL11="y",1,0)+IF(CM11="y",1,0)+IF(CN11="y",1,0)+IF(CO11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ11" s="27"/>
-      <c r="CR11" s="34"/>
-      <c r="CS11" s="35"/>
-      <c r="CT11" s="36"/>
-      <c r="CU11" s="37"/>
-      <c r="CV11" s="38"/>
-      <c r="CW11" s="33">
+      <c r="CQ11" s="28"/>
+      <c r="CR11" s="36"/>
+      <c r="CS11" s="37"/>
+      <c r="CT11" s="38"/>
+      <c r="CU11" s="39"/>
+      <c r="CV11" s="40"/>
+      <c r="CW11" s="34">
         <f>IFERROR((VLOOKUP(CQ11,Scoring!$A:$B,2,0))+IF(CS11="y",1,0)+IF(CT11="y",1,0)+IF(CU11="y",1,0)+IF(CV11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX11" s="27"/>
-      <c r="CY11" s="34"/>
-      <c r="CZ11" s="35"/>
-      <c r="DA11" s="36"/>
-      <c r="DB11" s="37"/>
-      <c r="DC11" s="38"/>
-      <c r="DD11" s="33">
+      <c r="CX11" s="28"/>
+      <c r="CY11" s="36"/>
+      <c r="CZ11" s="37"/>
+      <c r="DA11" s="38"/>
+      <c r="DB11" s="39"/>
+      <c r="DC11" s="40"/>
+      <c r="DD11" s="34">
         <f>IFERROR((VLOOKUP(CX11,Scoring!$A:$B,2,0))+IF(CZ11="y",1,0)+IF(DA11="y",1,0)+IF(DB11="y",1,0)+IF(DC11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE11" s="27"/>
-      <c r="DF11" s="34"/>
-      <c r="DG11" s="35"/>
-      <c r="DH11" s="36"/>
-      <c r="DI11" s="37"/>
-      <c r="DJ11" s="38"/>
-      <c r="DK11" s="33">
+      <c r="DE11" s="28"/>
+      <c r="DF11" s="36"/>
+      <c r="DG11" s="37"/>
+      <c r="DH11" s="38"/>
+      <c r="DI11" s="39"/>
+      <c r="DJ11" s="40"/>
+      <c r="DK11" s="34">
         <f>IFERROR((VLOOKUP(DE11,Scoring!$A:$B,2,0))+IF(DG11="y",1,0)+IF(DH11="y",1,0)+IF(DI11="y",1,0)+IF(DJ11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL11" s="27"/>
-      <c r="DM11" s="34"/>
-      <c r="DN11" s="35"/>
-      <c r="DO11" s="36"/>
-      <c r="DP11" s="37"/>
-      <c r="DQ11" s="38"/>
-      <c r="DR11" s="33">
+      <c r="DL11" s="28"/>
+      <c r="DM11" s="36"/>
+      <c r="DN11" s="37"/>
+      <c r="DO11" s="38"/>
+      <c r="DP11" s="39"/>
+      <c r="DQ11" s="40"/>
+      <c r="DR11" s="34">
         <f>IFERROR((VLOOKUP(DL11,Scoring!$A:$B,2,0))+IF(DN11="y",1,0)+IF(DO11="y",1,0)+IF(DP11="y",1,0)+IF(DQ11="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="44">
         <v>6.0</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="45">
         <v>9.0</v>
       </c>
-      <c r="F12" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="J12" s="48">
+      <c r="F12" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="J12" s="50">
         <f>IFERROR((VLOOKUP(D12,Scoring!$A:$B,2,0))+IF(F12="y",1,0)+IF(G12="y",1,0)+IF(H12="y",1,0)+IF(I12="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="48">
-        <f>IFERROR((VLOOKUP(K12,Scoring!$A:$B,2,0))+IF(M12="y",1,0)+IF(N12="y",1,0)+IF(O12="y",1,0)+IF(P12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="42"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="48">
+      <c r="K12" s="44">
+        <v>12.0</v>
+      </c>
+      <c r="L12" s="45">
+        <v>13.0</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="N12" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="O12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="P12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q12" s="51">
+        <f>IFERROR((VLOOKUP(K12,Scoring!$D:$E,2,0))+IF(M12="y",1,0)+IF(N12="y",1,0)+IF(O12="y",1,0)+IF(P12="y",1,0),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R12" s="44">
+        <v>5.0</v>
+      </c>
+      <c r="S12" s="45">
+        <v>4.0</v>
+      </c>
+      <c r="T12" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="U12" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="V12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="W12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="X12" s="50">
         <f>IFERROR((VLOOKUP(R12,Scoring!$A:$B,2,0))+IF(T12="y",1,0)+IF(U12="y",1,0)+IF(V12="y",1,0)+IF(W12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="48">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="50">
         <f>IFERROR((VLOOKUP(Y12,Scoring!$A:$B,2,0))+IF(AA12="y",1,0)+IF(AB12="y",1,0)+IF(AC12="y",1,0)+IF(AD12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="49"/>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="52"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="48">
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="54"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="50">
         <f>IFERROR((VLOOKUP(AF12,Scoring!$A:$B,2,0))+IF(AH12="y",1,0)+IF(AI12="y",1,0)+IF(AJ12="y",1,0)+IF(AK12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="42"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="50"/>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="52"/>
-      <c r="AR12" s="53"/>
-      <c r="AS12" s="48">
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="52"/>
+      <c r="AO12" s="53"/>
+      <c r="AP12" s="54"/>
+      <c r="AQ12" s="55"/>
+      <c r="AR12" s="56"/>
+      <c r="AS12" s="50">
         <f>IFERROR((VLOOKUP(AM12,Scoring!$A:$B,2,0))+IF(AO12="y",1,0)+IF(AP12="y",1,0)+IF(AQ12="y",1,0)+IF(AR12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="49"/>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="53"/>
-      <c r="AZ12" s="48">
+      <c r="AT12" s="44"/>
+      <c r="AU12" s="52"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="54"/>
+      <c r="AX12" s="55"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="50">
         <f>IFERROR((VLOOKUP(AT12,Scoring!$A:$B,2,0))+IF(AV12="y",1,0)+IF(AW12="y",1,0)+IF(AX12="y",1,0)+IF(AY12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA12" s="42"/>
-      <c r="BB12" s="49"/>
-      <c r="BC12" s="50"/>
-      <c r="BD12" s="51"/>
-      <c r="BE12" s="52"/>
-      <c r="BF12" s="53"/>
-      <c r="BG12" s="48">
+      <c r="BA12" s="44"/>
+      <c r="BB12" s="52"/>
+      <c r="BC12" s="53"/>
+      <c r="BD12" s="54"/>
+      <c r="BE12" s="55"/>
+      <c r="BF12" s="56"/>
+      <c r="BG12" s="50">
         <f>IFERROR((VLOOKUP(BA12,Scoring!$A:$B,2,0))+IF(BC12="y",1,0)+IF(BD12="y",1,0)+IF(BE12="y",1,0)+IF(BF12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH12" s="42"/>
-      <c r="BI12" s="49"/>
-      <c r="BJ12" s="50"/>
-      <c r="BK12" s="51"/>
-      <c r="BL12" s="52"/>
-      <c r="BM12" s="53"/>
-      <c r="BN12" s="48">
+      <c r="BH12" s="44"/>
+      <c r="BI12" s="52"/>
+      <c r="BJ12" s="53"/>
+      <c r="BK12" s="54"/>
+      <c r="BL12" s="55"/>
+      <c r="BM12" s="56"/>
+      <c r="BN12" s="50">
         <f>IFERROR((VLOOKUP(BH12,Scoring!$A:$B,2,0))+IF(BJ12="y",1,0)+IF(BK12="y",1,0)+IF(BL12="y",1,0)+IF(BM12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO12" s="42"/>
-      <c r="BP12" s="49"/>
-      <c r="BQ12" s="50"/>
-      <c r="BR12" s="51"/>
-      <c r="BS12" s="52"/>
-      <c r="BT12" s="53"/>
-      <c r="BU12" s="48">
+      <c r="BO12" s="44"/>
+      <c r="BP12" s="52"/>
+      <c r="BQ12" s="53"/>
+      <c r="BR12" s="54"/>
+      <c r="BS12" s="55"/>
+      <c r="BT12" s="56"/>
+      <c r="BU12" s="50">
         <f>IFERROR((VLOOKUP(BO12,Scoring!$A:$B,2,0))+IF(BQ12="y",1,0)+IF(BR12="y",1,0)+IF(BS12="y",1,0)+IF(BT12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV12" s="42"/>
-      <c r="BW12" s="49"/>
-      <c r="BX12" s="50"/>
-      <c r="BY12" s="51"/>
-      <c r="BZ12" s="52"/>
-      <c r="CA12" s="53"/>
-      <c r="CB12" s="48">
+      <c r="BV12" s="44"/>
+      <c r="BW12" s="52"/>
+      <c r="BX12" s="53"/>
+      <c r="BY12" s="54"/>
+      <c r="BZ12" s="55"/>
+      <c r="CA12" s="56"/>
+      <c r="CB12" s="50">
         <f>IFERROR((VLOOKUP(BV12,Scoring!$A:$B,2,0))+IF(BX12="y",1,0)+IF(BY12="y",1,0)+IF(BZ12="y",1,0)+IF(CA12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC12" s="42"/>
-      <c r="CD12" s="49"/>
-      <c r="CE12" s="50"/>
-      <c r="CF12" s="51"/>
-      <c r="CG12" s="52"/>
-      <c r="CH12" s="53"/>
-      <c r="CI12" s="48">
+      <c r="CC12" s="44"/>
+      <c r="CD12" s="52"/>
+      <c r="CE12" s="53"/>
+      <c r="CF12" s="54"/>
+      <c r="CG12" s="55"/>
+      <c r="CH12" s="56"/>
+      <c r="CI12" s="50">
         <f>IFERROR((VLOOKUP(CC12,Scoring!$A:$B,2,0))+IF(CE12="y",1,0)+IF(CF12="y",1,0)+IF(CG12="y",1,0)+IF(CH12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ12" s="42"/>
-      <c r="CK12" s="49"/>
-      <c r="CL12" s="50"/>
-      <c r="CM12" s="51"/>
-      <c r="CN12" s="52"/>
-      <c r="CO12" s="53"/>
-      <c r="CP12" s="48">
+      <c r="CJ12" s="44"/>
+      <c r="CK12" s="52"/>
+      <c r="CL12" s="53"/>
+      <c r="CM12" s="54"/>
+      <c r="CN12" s="55"/>
+      <c r="CO12" s="56"/>
+      <c r="CP12" s="50">
         <f>IFERROR((VLOOKUP(CJ12,Scoring!$A:$B,2,0))+IF(CL12="y",1,0)+IF(CM12="y",1,0)+IF(CN12="y",1,0)+IF(CO12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ12" s="42"/>
-      <c r="CR12" s="49"/>
-      <c r="CS12" s="50"/>
-      <c r="CT12" s="51"/>
-      <c r="CU12" s="52"/>
-      <c r="CV12" s="53"/>
-      <c r="CW12" s="48">
+      <c r="CQ12" s="44"/>
+      <c r="CR12" s="52"/>
+      <c r="CS12" s="53"/>
+      <c r="CT12" s="54"/>
+      <c r="CU12" s="55"/>
+      <c r="CV12" s="56"/>
+      <c r="CW12" s="50">
         <f>IFERROR((VLOOKUP(CQ12,Scoring!$A:$B,2,0))+IF(CS12="y",1,0)+IF(CT12="y",1,0)+IF(CU12="y",1,0)+IF(CV12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX12" s="42"/>
-      <c r="CY12" s="49"/>
-      <c r="CZ12" s="50"/>
-      <c r="DA12" s="51"/>
-      <c r="DB12" s="52"/>
-      <c r="DC12" s="53"/>
-      <c r="DD12" s="48">
+      <c r="CX12" s="44"/>
+      <c r="CY12" s="52"/>
+      <c r="CZ12" s="53"/>
+      <c r="DA12" s="54"/>
+      <c r="DB12" s="55"/>
+      <c r="DC12" s="56"/>
+      <c r="DD12" s="50">
         <f>IFERROR((VLOOKUP(CX12,Scoring!$A:$B,2,0))+IF(CZ12="y",1,0)+IF(DA12="y",1,0)+IF(DB12="y",1,0)+IF(DC12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE12" s="42"/>
-      <c r="DF12" s="49"/>
-      <c r="DG12" s="50"/>
-      <c r="DH12" s="51"/>
-      <c r="DI12" s="52"/>
-      <c r="DJ12" s="53"/>
-      <c r="DK12" s="48">
+      <c r="DE12" s="44"/>
+      <c r="DF12" s="52"/>
+      <c r="DG12" s="53"/>
+      <c r="DH12" s="54"/>
+      <c r="DI12" s="55"/>
+      <c r="DJ12" s="56"/>
+      <c r="DK12" s="50">
         <f>IFERROR((VLOOKUP(DE12,Scoring!$A:$B,2,0))+IF(DG12="y",1,0)+IF(DH12="y",1,0)+IF(DI12="y",1,0)+IF(DJ12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL12" s="42"/>
-      <c r="DM12" s="49"/>
-      <c r="DN12" s="50"/>
-      <c r="DO12" s="51"/>
-      <c r="DP12" s="52"/>
-      <c r="DQ12" s="53"/>
-      <c r="DR12" s="48">
+      <c r="DL12" s="44"/>
+      <c r="DM12" s="52"/>
+      <c r="DN12" s="53"/>
+      <c r="DO12" s="54"/>
+      <c r="DP12" s="55"/>
+      <c r="DQ12" s="56"/>
+      <c r="DR12" s="50">
         <f>IFERROR((VLOOKUP(DL12,Scoring!$A:$B,2,0))+IF(DN12="y",1,0)+IF(DO12="y",1,0)+IF(DP12="y",1,0)+IF(DQ12="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="60">
         <v>11.0</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="61">
         <v>15.0</v>
       </c>
-      <c r="F13" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="H13" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="I13" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="J13" s="63">
+      <c r="F13" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="I13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="J13" s="66">
         <f>IFERROR((VLOOKUP(D13,Scoring!$A:$B,2,0))+IF(F13="y",1,0)+IF(G13="y",1,0)+IF(H13="y",1,0)+IF(I13="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="63">
-        <f>IFERROR((VLOOKUP(K13,Scoring!$A:$B,2,0))+IF(M13="y",1,0)+IF(N13="y",1,0)+IF(O13="y",1,0)+IF(P13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="57"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="63">
+      <c r="K13" s="60">
+        <v>11.0</v>
+      </c>
+      <c r="L13" s="61">
+        <v>12.0</v>
+      </c>
+      <c r="M13" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="N13" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="O13" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="P13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q13" s="67">
+        <f>IFERROR((VLOOKUP(K13,Scoring!$D:$E,2,0))+IF(M13="y",1,0)+IF(N13="y",1,0)+IF(O13="y",1,0)+IF(P13="y",1,0),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R13" s="60">
+        <v>10.0</v>
+      </c>
+      <c r="S13" s="61">
+        <v>5.0</v>
+      </c>
+      <c r="T13" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="U13" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="V13" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="W13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="X13" s="66">
         <f>IFERROR((VLOOKUP(R13,Scoring!$A:$B,2,0))+IF(T13="y",1,0)+IF(U13="y",1,0)+IF(V13="y",1,0)+IF(W13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="63">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="66">
         <f>IFERROR((VLOOKUP(Y13,Scoring!$A:$B,2,0))+IF(AA13="y",1,0)+IF(AB13="y",1,0)+IF(AC13="y",1,0)+IF(AD13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="68"/>
-      <c r="AL13" s="63">
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="66">
         <f>IFERROR((VLOOKUP(AF13,Scoring!$A:$B,2,0))+IF(AH13="y",1,0)+IF(AI13="y",1,0)+IF(AJ13="y",1,0)+IF(AK13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="57"/>
-      <c r="AN13" s="64"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="67"/>
-      <c r="AR13" s="68"/>
-      <c r="AS13" s="63">
+      <c r="AM13" s="60"/>
+      <c r="AN13" s="68"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="70"/>
+      <c r="AQ13" s="71"/>
+      <c r="AR13" s="72"/>
+      <c r="AS13" s="66">
         <f>IFERROR((VLOOKUP(AM13,Scoring!$A:$B,2,0))+IF(AO13="y",1,0)+IF(AP13="y",1,0)+IF(AQ13="y",1,0)+IF(AR13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT13" s="57"/>
-      <c r="AU13" s="64"/>
-      <c r="AV13" s="65"/>
-      <c r="AW13" s="66"/>
-      <c r="AX13" s="67"/>
-      <c r="AY13" s="68"/>
-      <c r="AZ13" s="63">
+      <c r="AT13" s="60"/>
+      <c r="AU13" s="68"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="70"/>
+      <c r="AX13" s="71"/>
+      <c r="AY13" s="72"/>
+      <c r="AZ13" s="66">
         <f>IFERROR((VLOOKUP(AT13,Scoring!$A:$B,2,0))+IF(AV13="y",1,0)+IF(AW13="y",1,0)+IF(AX13="y",1,0)+IF(AY13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA13" s="57"/>
-      <c r="BB13" s="64"/>
-      <c r="BC13" s="65"/>
-      <c r="BD13" s="66"/>
-      <c r="BE13" s="67"/>
-      <c r="BF13" s="68"/>
-      <c r="BG13" s="63">
+      <c r="BA13" s="60"/>
+      <c r="BB13" s="68"/>
+      <c r="BC13" s="69"/>
+      <c r="BD13" s="70"/>
+      <c r="BE13" s="71"/>
+      <c r="BF13" s="72"/>
+      <c r="BG13" s="66">
         <f>IFERROR((VLOOKUP(BA13,Scoring!$A:$B,2,0))+IF(BC13="y",1,0)+IF(BD13="y",1,0)+IF(BE13="y",1,0)+IF(BF13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH13" s="57"/>
-      <c r="BI13" s="64"/>
-      <c r="BJ13" s="65"/>
-      <c r="BK13" s="66"/>
-      <c r="BL13" s="67"/>
-      <c r="BM13" s="68"/>
-      <c r="BN13" s="63">
+      <c r="BH13" s="60"/>
+      <c r="BI13" s="68"/>
+      <c r="BJ13" s="69"/>
+      <c r="BK13" s="70"/>
+      <c r="BL13" s="71"/>
+      <c r="BM13" s="72"/>
+      <c r="BN13" s="66">
         <f>IFERROR((VLOOKUP(BH13,Scoring!$A:$B,2,0))+IF(BJ13="y",1,0)+IF(BK13="y",1,0)+IF(BL13="y",1,0)+IF(BM13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO13" s="57"/>
-      <c r="BP13" s="64"/>
-      <c r="BQ13" s="65"/>
-      <c r="BR13" s="66"/>
-      <c r="BS13" s="67"/>
-      <c r="BT13" s="68"/>
-      <c r="BU13" s="63">
+      <c r="BO13" s="60"/>
+      <c r="BP13" s="68"/>
+      <c r="BQ13" s="69"/>
+      <c r="BR13" s="70"/>
+      <c r="BS13" s="71"/>
+      <c r="BT13" s="72"/>
+      <c r="BU13" s="66">
         <f>IFERROR((VLOOKUP(BO13,Scoring!$A:$B,2,0))+IF(BQ13="y",1,0)+IF(BR13="y",1,0)+IF(BS13="y",1,0)+IF(BT13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV13" s="57"/>
-      <c r="BW13" s="64"/>
-      <c r="BX13" s="65"/>
-      <c r="BY13" s="66"/>
-      <c r="BZ13" s="67"/>
-      <c r="CA13" s="68"/>
-      <c r="CB13" s="63">
+      <c r="BV13" s="60"/>
+      <c r="BW13" s="68"/>
+      <c r="BX13" s="69"/>
+      <c r="BY13" s="70"/>
+      <c r="BZ13" s="71"/>
+      <c r="CA13" s="72"/>
+      <c r="CB13" s="66">
         <f>IFERROR((VLOOKUP(BV13,Scoring!$A:$B,2,0))+IF(BX13="y",1,0)+IF(BY13="y",1,0)+IF(BZ13="y",1,0)+IF(CA13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC13" s="57"/>
-      <c r="CD13" s="64"/>
-      <c r="CE13" s="65"/>
-      <c r="CF13" s="66"/>
-      <c r="CG13" s="67"/>
-      <c r="CH13" s="68"/>
-      <c r="CI13" s="63">
+      <c r="CC13" s="60"/>
+      <c r="CD13" s="68"/>
+      <c r="CE13" s="69"/>
+      <c r="CF13" s="70"/>
+      <c r="CG13" s="71"/>
+      <c r="CH13" s="72"/>
+      <c r="CI13" s="66">
         <f>IFERROR((VLOOKUP(CC13,Scoring!$A:$B,2,0))+IF(CE13="y",1,0)+IF(CF13="y",1,0)+IF(CG13="y",1,0)+IF(CH13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ13" s="57"/>
-      <c r="CK13" s="64"/>
-      <c r="CL13" s="65"/>
-      <c r="CM13" s="66"/>
-      <c r="CN13" s="67"/>
-      <c r="CO13" s="68"/>
-      <c r="CP13" s="63">
+      <c r="CJ13" s="60"/>
+      <c r="CK13" s="68"/>
+      <c r="CL13" s="69"/>
+      <c r="CM13" s="70"/>
+      <c r="CN13" s="71"/>
+      <c r="CO13" s="72"/>
+      <c r="CP13" s="66">
         <f>IFERROR((VLOOKUP(CJ13,Scoring!$A:$B,2,0))+IF(CL13="y",1,0)+IF(CM13="y",1,0)+IF(CN13="y",1,0)+IF(CO13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ13" s="57"/>
-      <c r="CR13" s="64"/>
-      <c r="CS13" s="65"/>
-      <c r="CT13" s="66"/>
-      <c r="CU13" s="67"/>
-      <c r="CV13" s="68"/>
-      <c r="CW13" s="63">
+      <c r="CQ13" s="60"/>
+      <c r="CR13" s="68"/>
+      <c r="CS13" s="69"/>
+      <c r="CT13" s="70"/>
+      <c r="CU13" s="71"/>
+      <c r="CV13" s="72"/>
+      <c r="CW13" s="66">
         <f>IFERROR((VLOOKUP(CQ13,Scoring!$A:$B,2,0))+IF(CS13="y",1,0)+IF(CT13="y",1,0)+IF(CU13="y",1,0)+IF(CV13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX13" s="57"/>
-      <c r="CY13" s="64"/>
-      <c r="CZ13" s="65"/>
-      <c r="DA13" s="66"/>
-      <c r="DB13" s="67"/>
-      <c r="DC13" s="68"/>
-      <c r="DD13" s="63">
+      <c r="CX13" s="60"/>
+      <c r="CY13" s="68"/>
+      <c r="CZ13" s="69"/>
+      <c r="DA13" s="70"/>
+      <c r="DB13" s="71"/>
+      <c r="DC13" s="72"/>
+      <c r="DD13" s="66">
         <f>IFERROR((VLOOKUP(CX13,Scoring!$A:$B,2,0))+IF(CZ13="y",1,0)+IF(DA13="y",1,0)+IF(DB13="y",1,0)+IF(DC13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE13" s="57"/>
-      <c r="DF13" s="64"/>
-      <c r="DG13" s="65"/>
-      <c r="DH13" s="66"/>
-      <c r="DI13" s="67"/>
-      <c r="DJ13" s="68"/>
-      <c r="DK13" s="63">
+      <c r="DE13" s="60"/>
+      <c r="DF13" s="68"/>
+      <c r="DG13" s="69"/>
+      <c r="DH13" s="70"/>
+      <c r="DI13" s="71"/>
+      <c r="DJ13" s="72"/>
+      <c r="DK13" s="66">
         <f>IFERROR((VLOOKUP(DE13,Scoring!$A:$B,2,0))+IF(DG13="y",1,0)+IF(DH13="y",1,0)+IF(DI13="y",1,0)+IF(DJ13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL13" s="57"/>
-      <c r="DM13" s="64"/>
-      <c r="DN13" s="65"/>
-      <c r="DO13" s="66"/>
-      <c r="DP13" s="67"/>
-      <c r="DQ13" s="68"/>
-      <c r="DR13" s="63">
+      <c r="DL13" s="60"/>
+      <c r="DM13" s="68"/>
+      <c r="DN13" s="69"/>
+      <c r="DO13" s="70"/>
+      <c r="DP13" s="71"/>
+      <c r="DQ13" s="72"/>
+      <c r="DR13" s="66">
         <f>IFERROR((VLOOKUP(DL13,Scoring!$A:$B,2,0))+IF(DN13="y",1,0)+IF(DO13="y",1,0)+IF(DP13="y",1,0)+IF(DQ13="y",1,0),0)</f>
         <v>0</v>
       </c>
@@ -12260,378 +12569,426 @@
       <c r="C14" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="28">
         <v>8.0</v>
       </c>
-      <c r="E14" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="J14" s="33">
+      <c r="E14" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J14" s="34">
         <f>IFERROR((VLOOKUP(D14,Scoring!$A:$B,2,0))+IF(F14="y",1,0)+IF(G14="y",1,0)+IF(H14="y",1,0)+IF(I14="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="K14" s="27"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="33">
-        <f>IFERROR((VLOOKUP(K14,Scoring!$A:$B,2,0))+IF(M14="y",1,0)+IF(N14="y",1,0)+IF(O14="y",1,0)+IF(P14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="27"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="33">
+      <c r="K14" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="L14" s="29">
+        <v>4.0</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q14" s="35">
+        <f>IFERROR((VLOOKUP(K14,Scoring!$D:$E,2,0))+IF(M14="y",1,0)+IF(N14="y",1,0)+IF(O14="y",1,0)+IF(P14="y",1,0),0)</f>
+        <v>7</v>
+      </c>
+      <c r="R14" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="S14" s="29">
+        <v>13.0</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="U14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="V14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="W14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="X14" s="34">
         <f>IFERROR((VLOOKUP(R14,Scoring!$A:$B,2,0))+IF(T14="y",1,0)+IF(U14="y",1,0)+IF(V14="y",1,0)+IF(W14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="33">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="34">
         <f>IFERROR((VLOOKUP(Y14,Scoring!$A:$B,2,0))+IF(AA14="y",1,0)+IF(AB14="y",1,0)+IF(AC14="y",1,0)+IF(AD14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="33">
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="34">
         <f>IFERROR((VLOOKUP(AF14,Scoring!$A:$B,2,0))+IF(AH14="y",1,0)+IF(AI14="y",1,0)+IF(AJ14="y",1,0)+IF(AK14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="36"/>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="33">
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="37"/>
+      <c r="AP14" s="38"/>
+      <c r="AQ14" s="39"/>
+      <c r="AR14" s="40"/>
+      <c r="AS14" s="34">
         <f>IFERROR((VLOOKUP(AM14,Scoring!$A:$B,2,0))+IF(AO14="y",1,0)+IF(AP14="y",1,0)+IF(AQ14="y",1,0)+IF(AR14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT14" s="27"/>
-      <c r="AU14" s="34"/>
-      <c r="AV14" s="35"/>
-      <c r="AW14" s="36"/>
-      <c r="AX14" s="37"/>
-      <c r="AY14" s="38"/>
-      <c r="AZ14" s="33">
+      <c r="AT14" s="28"/>
+      <c r="AU14" s="36"/>
+      <c r="AV14" s="37"/>
+      <c r="AW14" s="38"/>
+      <c r="AX14" s="39"/>
+      <c r="AY14" s="40"/>
+      <c r="AZ14" s="34">
         <f>IFERROR((VLOOKUP(AT14,Scoring!$A:$B,2,0))+IF(AV14="y",1,0)+IF(AW14="y",1,0)+IF(AX14="y",1,0)+IF(AY14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA14" s="27"/>
-      <c r="BB14" s="34"/>
-      <c r="BC14" s="35"/>
-      <c r="BD14" s="36"/>
-      <c r="BE14" s="37"/>
-      <c r="BF14" s="38"/>
-      <c r="BG14" s="33">
+      <c r="BA14" s="28"/>
+      <c r="BB14" s="36"/>
+      <c r="BC14" s="37"/>
+      <c r="BD14" s="38"/>
+      <c r="BE14" s="39"/>
+      <c r="BF14" s="40"/>
+      <c r="BG14" s="34">
         <f>IFERROR((VLOOKUP(BA14,Scoring!$A:$B,2,0))+IF(BC14="y",1,0)+IF(BD14="y",1,0)+IF(BE14="y",1,0)+IF(BF14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH14" s="27"/>
-      <c r="BI14" s="34"/>
-      <c r="BJ14" s="35"/>
-      <c r="BK14" s="36"/>
-      <c r="BL14" s="37"/>
-      <c r="BM14" s="38"/>
-      <c r="BN14" s="33">
+      <c r="BH14" s="28"/>
+      <c r="BI14" s="36"/>
+      <c r="BJ14" s="37"/>
+      <c r="BK14" s="38"/>
+      <c r="BL14" s="39"/>
+      <c r="BM14" s="40"/>
+      <c r="BN14" s="34">
         <f>IFERROR((VLOOKUP(BH14,Scoring!$A:$B,2,0))+IF(BJ14="y",1,0)+IF(BK14="y",1,0)+IF(BL14="y",1,0)+IF(BM14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO14" s="27"/>
-      <c r="BP14" s="34"/>
-      <c r="BQ14" s="35"/>
-      <c r="BR14" s="36"/>
-      <c r="BS14" s="37"/>
-      <c r="BT14" s="38"/>
-      <c r="BU14" s="33">
+      <c r="BO14" s="28"/>
+      <c r="BP14" s="36"/>
+      <c r="BQ14" s="37"/>
+      <c r="BR14" s="38"/>
+      <c r="BS14" s="39"/>
+      <c r="BT14" s="40"/>
+      <c r="BU14" s="34">
         <f>IFERROR((VLOOKUP(BO14,Scoring!$A:$B,2,0))+IF(BQ14="y",1,0)+IF(BR14="y",1,0)+IF(BS14="y",1,0)+IF(BT14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV14" s="27"/>
-      <c r="BW14" s="34"/>
-      <c r="BX14" s="35"/>
-      <c r="BY14" s="36"/>
-      <c r="BZ14" s="37"/>
-      <c r="CA14" s="38"/>
-      <c r="CB14" s="33">
+      <c r="BV14" s="28"/>
+      <c r="BW14" s="36"/>
+      <c r="BX14" s="37"/>
+      <c r="BY14" s="38"/>
+      <c r="BZ14" s="39"/>
+      <c r="CA14" s="40"/>
+      <c r="CB14" s="34">
         <f>IFERROR((VLOOKUP(BV14,Scoring!$A:$B,2,0))+IF(BX14="y",1,0)+IF(BY14="y",1,0)+IF(BZ14="y",1,0)+IF(CA14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC14" s="27"/>
-      <c r="CD14" s="34"/>
-      <c r="CE14" s="35"/>
-      <c r="CF14" s="36"/>
-      <c r="CG14" s="37"/>
-      <c r="CH14" s="38"/>
-      <c r="CI14" s="33">
+      <c r="CC14" s="28"/>
+      <c r="CD14" s="36"/>
+      <c r="CE14" s="37"/>
+      <c r="CF14" s="38"/>
+      <c r="CG14" s="39"/>
+      <c r="CH14" s="40"/>
+      <c r="CI14" s="34">
         <f>IFERROR((VLOOKUP(CC14,Scoring!$A:$B,2,0))+IF(CE14="y",1,0)+IF(CF14="y",1,0)+IF(CG14="y",1,0)+IF(CH14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ14" s="27"/>
-      <c r="CK14" s="34"/>
-      <c r="CL14" s="35"/>
-      <c r="CM14" s="36"/>
-      <c r="CN14" s="37"/>
-      <c r="CO14" s="38"/>
-      <c r="CP14" s="33">
+      <c r="CJ14" s="28"/>
+      <c r="CK14" s="36"/>
+      <c r="CL14" s="37"/>
+      <c r="CM14" s="38"/>
+      <c r="CN14" s="39"/>
+      <c r="CO14" s="40"/>
+      <c r="CP14" s="34">
         <f>IFERROR((VLOOKUP(CJ14,Scoring!$A:$B,2,0))+IF(CL14="y",1,0)+IF(CM14="y",1,0)+IF(CN14="y",1,0)+IF(CO14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ14" s="27"/>
-      <c r="CR14" s="34"/>
-      <c r="CS14" s="35"/>
-      <c r="CT14" s="36"/>
-      <c r="CU14" s="37"/>
-      <c r="CV14" s="38"/>
-      <c r="CW14" s="33">
+      <c r="CQ14" s="28"/>
+      <c r="CR14" s="36"/>
+      <c r="CS14" s="37"/>
+      <c r="CT14" s="38"/>
+      <c r="CU14" s="39"/>
+      <c r="CV14" s="40"/>
+      <c r="CW14" s="34">
         <f>IFERROR((VLOOKUP(CQ14,Scoring!$A:$B,2,0))+IF(CS14="y",1,0)+IF(CT14="y",1,0)+IF(CU14="y",1,0)+IF(CV14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX14" s="27"/>
-      <c r="CY14" s="34"/>
-      <c r="CZ14" s="35"/>
-      <c r="DA14" s="36"/>
-      <c r="DB14" s="37"/>
-      <c r="DC14" s="38"/>
-      <c r="DD14" s="33">
+      <c r="CX14" s="28"/>
+      <c r="CY14" s="36"/>
+      <c r="CZ14" s="37"/>
+      <c r="DA14" s="38"/>
+      <c r="DB14" s="39"/>
+      <c r="DC14" s="40"/>
+      <c r="DD14" s="34">
         <f>IFERROR((VLOOKUP(CX14,Scoring!$A:$B,2,0))+IF(CZ14="y",1,0)+IF(DA14="y",1,0)+IF(DB14="y",1,0)+IF(DC14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE14" s="27"/>
-      <c r="DF14" s="34"/>
-      <c r="DG14" s="35"/>
-      <c r="DH14" s="36"/>
-      <c r="DI14" s="37"/>
-      <c r="DJ14" s="38"/>
-      <c r="DK14" s="33">
+      <c r="DE14" s="28"/>
+      <c r="DF14" s="36"/>
+      <c r="DG14" s="37"/>
+      <c r="DH14" s="38"/>
+      <c r="DI14" s="39"/>
+      <c r="DJ14" s="40"/>
+      <c r="DK14" s="34">
         <f>IFERROR((VLOOKUP(DE14,Scoring!$A:$B,2,0))+IF(DG14="y",1,0)+IF(DH14="y",1,0)+IF(DI14="y",1,0)+IF(DJ14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL14" s="27"/>
-      <c r="DM14" s="34"/>
-      <c r="DN14" s="35"/>
-      <c r="DO14" s="36"/>
-      <c r="DP14" s="37"/>
-      <c r="DQ14" s="38"/>
-      <c r="DR14" s="33">
+      <c r="DL14" s="28"/>
+      <c r="DM14" s="36"/>
+      <c r="DN14" s="37"/>
+      <c r="DO14" s="38"/>
+      <c r="DP14" s="39"/>
+      <c r="DQ14" s="40"/>
+      <c r="DR14" s="34">
         <f>IFERROR((VLOOKUP(DL14,Scoring!$A:$B,2,0))+IF(DN14="y",1,0)+IF(DO14="y",1,0)+IF(DP14="y",1,0)+IF(DQ14="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="72">
+      <c r="D15" s="76">
         <v>21.0</v>
       </c>
-      <c r="E15" s="73">
-        <v>22.0</v>
-      </c>
-      <c r="F15" s="74" t="s">
-        <v>267</v>
-      </c>
-      <c r="G15" s="75" t="s">
-        <v>267</v>
-      </c>
-      <c r="H15" s="76" t="s">
-        <v>267</v>
-      </c>
-      <c r="I15" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="J15" s="78">
+      <c r="E15" s="77">
+        <v>22.0</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="79" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>267</v>
+      </c>
+      <c r="J15" s="82">
         <f>IFERROR((VLOOKUP(D15,Scoring!$A:$B,2,0))+IF(F15="y",1,0)+IF(G15="y",1,0)+IF(H15="y",1,0)+IF(I15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="72"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="78">
-        <f>IFERROR((VLOOKUP(K15,Scoring!$A:$B,2,0))+IF(M15="y",1,0)+IF(N15="y",1,0)+IF(O15="y",1,0)+IF(P15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="72"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="78">
+      <c r="K15" s="76">
+        <v>1.0</v>
+      </c>
+      <c r="L15" s="77">
+        <v>1.0</v>
+      </c>
+      <c r="M15" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="N15" s="79" t="s">
+        <v>267</v>
+      </c>
+      <c r="O15" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="P15" s="81" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q15" s="83">
+        <f>IFERROR((VLOOKUP(K15,Scoring!$D:$E,2,0))+IF(M15="y",1,0)+IF(N15="y",1,0)+IF(O15="y",1,0)+IF(P15="y",1,0),0)</f>
+        <v>8</v>
+      </c>
+      <c r="R15" s="76">
+        <v>21.0</v>
+      </c>
+      <c r="S15" s="77">
+        <v>14.0</v>
+      </c>
+      <c r="T15" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="U15" s="79" t="s">
+        <v>267</v>
+      </c>
+      <c r="V15" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="W15" s="81" t="s">
+        <v>267</v>
+      </c>
+      <c r="X15" s="82">
         <f>IFERROR((VLOOKUP(R15,Scoring!$A:$B,2,0))+IF(T15="y",1,0)+IF(U15="y",1,0)+IF(V15="y",1,0)+IF(W15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="80"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="83"/>
-      <c r="AE15" s="78">
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="88"/>
+      <c r="AE15" s="82">
         <f>IFERROR((VLOOKUP(Y15,Scoring!$A:$B,2,0))+IF(AA15="y",1,0)+IF(AB15="y",1,0)+IF(AC15="y",1,0)+IF(AD15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="79"/>
-      <c r="AH15" s="80"/>
-      <c r="AI15" s="81"/>
-      <c r="AJ15" s="82"/>
-      <c r="AK15" s="83"/>
-      <c r="AL15" s="78">
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="85"/>
+      <c r="AI15" s="86"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="88"/>
+      <c r="AL15" s="82">
         <f>IFERROR((VLOOKUP(AF15,Scoring!$A:$B,2,0))+IF(AH15="y",1,0)+IF(AI15="y",1,0)+IF(AJ15="y",1,0)+IF(AK15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="72"/>
-      <c r="AN15" s="79"/>
-      <c r="AO15" s="80"/>
-      <c r="AP15" s="81"/>
-      <c r="AQ15" s="82"/>
-      <c r="AR15" s="83"/>
-      <c r="AS15" s="78">
+      <c r="AM15" s="76"/>
+      <c r="AN15" s="84"/>
+      <c r="AO15" s="85"/>
+      <c r="AP15" s="86"/>
+      <c r="AQ15" s="87"/>
+      <c r="AR15" s="88"/>
+      <c r="AS15" s="82">
         <f>IFERROR((VLOOKUP(AM15,Scoring!$A:$B,2,0))+IF(AO15="y",1,0)+IF(AP15="y",1,0)+IF(AQ15="y",1,0)+IF(AR15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="79"/>
-      <c r="AV15" s="80"/>
-      <c r="AW15" s="81"/>
-      <c r="AX15" s="82"/>
-      <c r="AY15" s="83"/>
-      <c r="AZ15" s="78">
+      <c r="AT15" s="76"/>
+      <c r="AU15" s="84"/>
+      <c r="AV15" s="85"/>
+      <c r="AW15" s="86"/>
+      <c r="AX15" s="87"/>
+      <c r="AY15" s="88"/>
+      <c r="AZ15" s="82">
         <f>IFERROR((VLOOKUP(AT15,Scoring!$A:$B,2,0))+IF(AV15="y",1,0)+IF(AW15="y",1,0)+IF(AX15="y",1,0)+IF(AY15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA15" s="72"/>
-      <c r="BB15" s="79"/>
-      <c r="BC15" s="80"/>
-      <c r="BD15" s="81"/>
-      <c r="BE15" s="82"/>
-      <c r="BF15" s="83"/>
-      <c r="BG15" s="78">
+      <c r="BA15" s="76"/>
+      <c r="BB15" s="84"/>
+      <c r="BC15" s="85"/>
+      <c r="BD15" s="86"/>
+      <c r="BE15" s="87"/>
+      <c r="BF15" s="88"/>
+      <c r="BG15" s="82">
         <f>IFERROR((VLOOKUP(BA15,Scoring!$A:$B,2,0))+IF(BC15="y",1,0)+IF(BD15="y",1,0)+IF(BE15="y",1,0)+IF(BF15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH15" s="72"/>
-      <c r="BI15" s="79"/>
-      <c r="BJ15" s="80"/>
-      <c r="BK15" s="81"/>
-      <c r="BL15" s="82"/>
-      <c r="BM15" s="83"/>
-      <c r="BN15" s="78">
+      <c r="BH15" s="76"/>
+      <c r="BI15" s="84"/>
+      <c r="BJ15" s="85"/>
+      <c r="BK15" s="86"/>
+      <c r="BL15" s="87"/>
+      <c r="BM15" s="88"/>
+      <c r="BN15" s="82">
         <f>IFERROR((VLOOKUP(BH15,Scoring!$A:$B,2,0))+IF(BJ15="y",1,0)+IF(BK15="y",1,0)+IF(BL15="y",1,0)+IF(BM15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO15" s="72"/>
-      <c r="BP15" s="79"/>
-      <c r="BQ15" s="80"/>
-      <c r="BR15" s="81"/>
-      <c r="BS15" s="82"/>
-      <c r="BT15" s="83"/>
-      <c r="BU15" s="78">
+      <c r="BO15" s="76"/>
+      <c r="BP15" s="84"/>
+      <c r="BQ15" s="85"/>
+      <c r="BR15" s="86"/>
+      <c r="BS15" s="87"/>
+      <c r="BT15" s="88"/>
+      <c r="BU15" s="82">
         <f>IFERROR((VLOOKUP(BO15,Scoring!$A:$B,2,0))+IF(BQ15="y",1,0)+IF(BR15="y",1,0)+IF(BS15="y",1,0)+IF(BT15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV15" s="72"/>
-      <c r="BW15" s="79"/>
-      <c r="BX15" s="80"/>
-      <c r="BY15" s="81"/>
-      <c r="BZ15" s="82"/>
-      <c r="CA15" s="83"/>
-      <c r="CB15" s="78">
+      <c r="BV15" s="76"/>
+      <c r="BW15" s="84"/>
+      <c r="BX15" s="85"/>
+      <c r="BY15" s="86"/>
+      <c r="BZ15" s="87"/>
+      <c r="CA15" s="88"/>
+      <c r="CB15" s="82">
         <f>IFERROR((VLOOKUP(BV15,Scoring!$A:$B,2,0))+IF(BX15="y",1,0)+IF(BY15="y",1,0)+IF(BZ15="y",1,0)+IF(CA15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC15" s="72"/>
-      <c r="CD15" s="79"/>
-      <c r="CE15" s="80"/>
-      <c r="CF15" s="81"/>
-      <c r="CG15" s="82"/>
-      <c r="CH15" s="83"/>
-      <c r="CI15" s="78">
+      <c r="CC15" s="76"/>
+      <c r="CD15" s="84"/>
+      <c r="CE15" s="85"/>
+      <c r="CF15" s="86"/>
+      <c r="CG15" s="87"/>
+      <c r="CH15" s="88"/>
+      <c r="CI15" s="82">
         <f>IFERROR((VLOOKUP(CC15,Scoring!$A:$B,2,0))+IF(CE15="y",1,0)+IF(CF15="y",1,0)+IF(CG15="y",1,0)+IF(CH15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ15" s="72"/>
-      <c r="CK15" s="79"/>
-      <c r="CL15" s="80"/>
-      <c r="CM15" s="81"/>
-      <c r="CN15" s="82"/>
-      <c r="CO15" s="83"/>
-      <c r="CP15" s="78">
+      <c r="CJ15" s="76"/>
+      <c r="CK15" s="84"/>
+      <c r="CL15" s="85"/>
+      <c r="CM15" s="86"/>
+      <c r="CN15" s="87"/>
+      <c r="CO15" s="88"/>
+      <c r="CP15" s="82">
         <f>IFERROR((VLOOKUP(CJ15,Scoring!$A:$B,2,0))+IF(CL15="y",1,0)+IF(CM15="y",1,0)+IF(CN15="y",1,0)+IF(CO15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ15" s="72"/>
-      <c r="CR15" s="79"/>
-      <c r="CS15" s="80"/>
-      <c r="CT15" s="81"/>
-      <c r="CU15" s="82"/>
-      <c r="CV15" s="83"/>
-      <c r="CW15" s="78">
+      <c r="CQ15" s="76"/>
+      <c r="CR15" s="84"/>
+      <c r="CS15" s="85"/>
+      <c r="CT15" s="86"/>
+      <c r="CU15" s="87"/>
+      <c r="CV15" s="88"/>
+      <c r="CW15" s="82">
         <f>IFERROR((VLOOKUP(CQ15,Scoring!$A:$B,2,0))+IF(CS15="y",1,0)+IF(CT15="y",1,0)+IF(CU15="y",1,0)+IF(CV15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX15" s="72"/>
-      <c r="CY15" s="79"/>
-      <c r="CZ15" s="80"/>
-      <c r="DA15" s="81"/>
-      <c r="DB15" s="82"/>
-      <c r="DC15" s="83"/>
-      <c r="DD15" s="78">
+      <c r="CX15" s="76"/>
+      <c r="CY15" s="84"/>
+      <c r="CZ15" s="85"/>
+      <c r="DA15" s="86"/>
+      <c r="DB15" s="87"/>
+      <c r="DC15" s="88"/>
+      <c r="DD15" s="82">
         <f>IFERROR((VLOOKUP(CX15,Scoring!$A:$B,2,0))+IF(CZ15="y",1,0)+IF(DA15="y",1,0)+IF(DB15="y",1,0)+IF(DC15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE15" s="72"/>
-      <c r="DF15" s="79"/>
-      <c r="DG15" s="80"/>
-      <c r="DH15" s="81"/>
-      <c r="DI15" s="82"/>
-      <c r="DJ15" s="83"/>
-      <c r="DK15" s="78">
+      <c r="DE15" s="76"/>
+      <c r="DF15" s="84"/>
+      <c r="DG15" s="85"/>
+      <c r="DH15" s="86"/>
+      <c r="DI15" s="87"/>
+      <c r="DJ15" s="88"/>
+      <c r="DK15" s="82">
         <f>IFERROR((VLOOKUP(DE15,Scoring!$A:$B,2,0))+IF(DG15="y",1,0)+IF(DH15="y",1,0)+IF(DI15="y",1,0)+IF(DJ15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL15" s="72"/>
-      <c r="DM15" s="79"/>
-      <c r="DN15" s="80"/>
-      <c r="DO15" s="81"/>
-      <c r="DP15" s="82"/>
-      <c r="DQ15" s="83"/>
-      <c r="DR15" s="78">
+      <c r="DL15" s="76"/>
+      <c r="DM15" s="84"/>
+      <c r="DN15" s="85"/>
+      <c r="DO15" s="86"/>
+      <c r="DP15" s="87"/>
+      <c r="DQ15" s="88"/>
+      <c r="DR15" s="82">
         <f>IFERROR((VLOOKUP(DL15,Scoring!$A:$B,2,0))+IF(DN15="y",1,0)+IF(DO15="y",1,0)+IF(DP15="y",1,0)+IF(DQ15="y",1,0),0)</f>
         <v>0</v>
       </c>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="310">
   <si>
     <t>Positions</t>
   </si>
@@ -49,6 +49,117 @@
     <t>DSQ</t>
   </si>
   <si>
+    <t>Miami OG</t>
+  </si>
+  <si>
+    <t>Miami Updated</t>
+  </si>
+  <si>
+    <t>Alpine</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>JoshuaRosario89</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
+    <t>penguin2780</t>
+  </si>
+  <si>
+    <t>McLaren</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>infmsmantis</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>PrisonMike</t>
+  </si>
+  <si>
+    <t>VCARB</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>PKnowlez</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>JellyWaffles37</t>
+  </si>
+  <si>
+    <t>Red Bull</t>
+  </si>
+  <si>
+    <t>Brently</t>
+  </si>
+  <si>
+    <t>Brentuar</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>NC_Newman</t>
+  </si>
+  <si>
+    <t>Aston Martin</t>
+  </si>
+  <si>
+    <t>Del</t>
+  </si>
+  <si>
+    <t>DELREAL718</t>
+  </si>
+  <si>
+    <t>Boz</t>
+  </si>
+  <si>
+    <t>Bositive</t>
+  </si>
+  <si>
+    <t>Ferrari</t>
+  </si>
+  <si>
+    <t>Erick</t>
+  </si>
+  <si>
+    <t>penguinator2780</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>LeonelM17</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>Jayden</t>
+  </si>
+  <si>
+    <t>Jvytrbl</t>
+  </si>
+  <si>
+    <t>Jairo</t>
+  </si>
+  <si>
+    <t>JairoFSO</t>
+  </si>
+  <si>
     <t>Race</t>
   </si>
   <si>
@@ -295,30 +406,15 @@
     <t>Starting</t>
   </si>
   <si>
-    <t>McLaren</t>
-  </si>
-  <si>
-    <t>Nick</t>
-  </si>
-  <si>
-    <t>infmsmantis</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Travis</t>
-  </si>
-  <si>
     <t>ImHuntinWabit</t>
   </si>
   <si>
-    <t>Aston Martin</t>
-  </si>
-  <si>
     <t>Zane</t>
   </si>
   <si>
@@ -331,39 +427,18 @@
     <t>KingDavidLivee</t>
   </si>
   <si>
-    <t>Mercedes</t>
-  </si>
-  <si>
-    <t>Erick</t>
-  </si>
-  <si>
-    <t>penguinator2780</t>
-  </si>
-  <si>
     <t>Marcus</t>
   </si>
   <si>
     <t>oItsBigM</t>
   </si>
   <si>
-    <t>Red Bull</t>
-  </si>
-  <si>
     <t>Josh L</t>
   </si>
   <si>
     <t>WannaGetRowdy</t>
   </si>
   <si>
-    <t>Boz</t>
-  </si>
-  <si>
-    <t>Bositive</t>
-  </si>
-  <si>
-    <t>Ferrari</t>
-  </si>
-  <si>
     <t>Gary</t>
   </si>
   <si>
@@ -451,27 +526,6 @@
     <t>ChinaPoints</t>
   </si>
   <si>
-    <t>Del</t>
-  </si>
-  <si>
-    <t>DELREAL718</t>
-  </si>
-  <si>
-    <t>Alpine</t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
-    <t>JoshuaRosario89</t>
-  </si>
-  <si>
-    <t>Eddie</t>
-  </si>
-  <si>
-    <t>penguin2780</t>
-  </si>
-  <si>
     <t>Alfa Romeo</t>
   </si>
   <si>
@@ -538,24 +592,6 @@
     <t>COTA SprintPoints</t>
   </si>
   <si>
-    <t>PrisonMike</t>
-  </si>
-  <si>
-    <t>VCARB</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>PKnowlez</t>
-  </si>
-  <si>
-    <t>Brently</t>
-  </si>
-  <si>
-    <t>Brentuar</t>
-  </si>
-  <si>
     <t>aYETI</t>
   </si>
   <si>
@@ -824,36 +860,6 @@
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>Josh</t>
-  </si>
-  <si>
-    <t>JellyWaffles37</t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>NC_Newman</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>LeonelM17</t>
-  </si>
-  <si>
-    <t>Jayden</t>
-  </si>
-  <si>
-    <t>Jvytrbl</t>
-  </si>
-  <si>
-    <t>Jairo</t>
-  </si>
-  <si>
-    <t>JairoFSO</t>
   </si>
   <si>
     <t>Date</t>
@@ -1665,6 +1671,225 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10">
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="1">
+        <v>21.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1685,222 +1910,222 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B6" s="89" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B8" s="89" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B12" s="89" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -1920,10 +2145,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -2289,255 +2514,255 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>1.0</v>
@@ -2546,7 +2771,7 @@
         <v>1.0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G2" s="1">
         <v>30.0</v>
@@ -2558,7 +2783,7 @@
         <v>1.0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="K2" s="1">
         <v>31.0</v>
@@ -2570,7 +2795,7 @@
         <v>1.0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="O2" s="1">
         <v>24.0</v>
@@ -2582,7 +2807,7 @@
         <v>1.0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="S2" s="1">
         <v>31.0</v>
@@ -2594,7 +2819,7 @@
         <v>2.0</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W2" s="1">
         <v>29.0</v>
@@ -2606,7 +2831,7 @@
         <v>4.0</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AA2" s="1">
         <v>3.0</v>
@@ -2618,7 +2843,7 @@
         <v>4.0</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE2" s="1">
         <v>27.0</v>
@@ -2630,7 +2855,7 @@
         <v>2.0</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI2" s="1">
         <v>22.0</v>
@@ -2642,7 +2867,7 @@
         <v>1.0</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM2" s="1">
         <v>30.0</v>
@@ -2654,7 +2879,7 @@
         <v>2.0</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AQ2" s="1">
         <v>23.0</v>
@@ -2666,7 +2891,7 @@
         <v>17.0</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU2" s="1">
         <v>0.0</v>
@@ -2678,7 +2903,7 @@
         <v>2.0</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY2" s="1">
         <v>5.0</v>
@@ -2690,7 +2915,7 @@
         <v>1.0</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="BC2" s="1">
         <v>31.0</v>
@@ -2702,7 +2927,7 @@
         <v>2.0</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG2" s="1">
         <v>29.0</v>
@@ -2714,7 +2939,7 @@
         <v>5.0</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="BK2" s="1">
         <v>20.0</v>
@@ -2726,7 +2951,7 @@
         <v>6.0</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BO2" s="1">
         <v>18.0</v>
@@ -2738,7 +2963,7 @@
         <v>4.0</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BS2" s="1">
         <v>27.0</v>
@@ -2750,7 +2975,7 @@
         <v>1.0</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BW2" s="1">
         <v>23.0</v>
@@ -2762,7 +2987,7 @@
         <v>1.0</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="CA2" s="1">
         <v>31.0</v>
@@ -2773,13 +2998,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1">
         <v>22.0</v>
@@ -2788,7 +3013,7 @@
         <v>22.0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G3" s="1">
         <v>0.0</v>
@@ -2800,7 +3025,7 @@
         <v>22.0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K3" s="1">
         <v>0.0</v>
@@ -2812,7 +3037,7 @@
         <v>5.0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O3" s="1">
         <v>2.0</v>
@@ -2824,7 +3049,7 @@
         <v>3.0</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S3" s="1">
         <v>4.0</v>
@@ -2836,7 +3061,7 @@
         <v>22.0</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W3" s="1">
         <v>0.0</v>
@@ -2848,7 +3073,7 @@
         <v>22.0</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA3" s="1">
         <v>0.0</v>
@@ -2860,7 +3085,7 @@
         <v>6.0</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE3" s="1">
         <v>12.0</v>
@@ -2872,7 +3097,7 @@
         <v>1.0</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI3" s="1">
         <v>20.0</v>
@@ -2884,7 +3109,7 @@
         <v>3.0</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM3" s="1">
         <v>18.0</v>
@@ -2896,7 +3121,7 @@
         <v>22.0</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ3" s="1">
         <v>0.0</v>
@@ -2908,7 +3133,7 @@
         <v>2.0</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU3" s="1">
         <v>16.0</v>
@@ -2920,7 +3145,7 @@
         <v>22.0</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY3" s="1">
         <v>0.0</v>
@@ -2932,7 +3157,7 @@
         <v>5.0</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC3" s="1">
         <v>2.0</v>
@@ -2944,7 +3169,7 @@
         <v>22.0</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG3" s="1">
         <v>0.0</v>
@@ -2956,7 +3181,7 @@
         <v>1.0</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK3" s="1">
         <v>15.0</v>
@@ -2968,7 +3193,7 @@
         <v>7.0</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BO3" s="1">
         <v>8.0</v>
@@ -2980,7 +3205,7 @@
         <v>22.0</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BS3" s="1">
         <v>0.0</v>
@@ -2992,7 +3217,7 @@
         <v>22.0</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BW3" s="1">
         <v>0.0</v>
@@ -3004,7 +3229,7 @@
         <v>22.0</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="CA3" s="1">
         <v>0.0</v>
@@ -3015,13 +3240,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D4" s="1">
         <v>4.0</v>
@@ -3030,7 +3255,7 @@
         <v>2.0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G4" s="1">
         <v>14.0</v>
@@ -3042,7 +3267,7 @@
         <v>4.0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K4" s="1">
         <v>1.0</v>
@@ -3054,7 +3279,7 @@
         <v>3.0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O4" s="1">
         <v>13.0</v>
@@ -3066,7 +3291,7 @@
         <v>4.0</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S4" s="1">
         <v>8.0</v>
@@ -3078,7 +3303,7 @@
         <v>4.0</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W4" s="1">
         <v>17.0</v>
@@ -3090,7 +3315,7 @@
         <v>3.0</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA4" s="1">
         <v>0.0</v>
@@ -3102,7 +3327,7 @@
         <v>2.0</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE4" s="1">
         <v>22.0</v>
@@ -3114,7 +3339,7 @@
         <v>8.0</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI4" s="1">
         <v>12.0</v>
@@ -3126,7 +3351,7 @@
         <v>6.0</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM4" s="1">
         <v>12.0</v>
@@ -3138,7 +3363,7 @@
         <v>1.0</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ4" s="1">
         <v>5.0</v>
@@ -3150,7 +3375,7 @@
         <v>1.0</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU4" s="1">
         <v>13.0</v>
@@ -3162,7 +3387,7 @@
         <v>1.0</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY4" s="1">
         <v>5.0</v>
@@ -3174,7 +3399,7 @@
         <v>4.0</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC4" s="1">
         <v>3.0</v>
@@ -3186,7 +3411,7 @@
         <v>1.0</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG4" s="1">
         <v>20.0</v>
@@ -3198,7 +3423,7 @@
         <v>2.0</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK4" s="1">
         <v>29.0</v>
@@ -3210,7 +3435,7 @@
         <v>1.0</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="BO4" s="1">
         <v>31.0</v>
@@ -3222,7 +3447,7 @@
         <v>1.0</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BS4" s="1">
         <v>17.0</v>
@@ -3234,7 +3459,7 @@
         <v>3.0</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BW4" s="1">
         <v>4.0</v>
@@ -3246,7 +3471,7 @@
         <v>5.0</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="CA4" s="1">
         <v>11.0</v>
@@ -3257,13 +3482,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1">
         <v>10.0</v>
@@ -3272,7 +3497,7 @@
         <v>5.0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G5" s="1">
         <v>2.0</v>
@@ -3284,7 +3509,7 @@
         <v>5.0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K5" s="1">
         <v>3.0</v>
@@ -3296,7 +3521,7 @@
         <v>4.0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O5" s="1">
         <v>2.0</v>
@@ -3308,7 +3533,7 @@
         <v>22.0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S5" s="1">
         <v>0.0</v>
@@ -3320,7 +3545,7 @@
         <v>3.0</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W5" s="1">
         <v>13.0</v>
@@ -3332,7 +3557,7 @@
         <v>5.0</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA5" s="1">
         <v>2.0</v>
@@ -3344,7 +3569,7 @@
         <v>5.0</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE5" s="1">
         <v>1.0</v>
@@ -3356,7 +3581,7 @@
         <v>6.0</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI5" s="1">
         <v>0.0</v>
@@ -3368,7 +3593,7 @@
         <v>7.0</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM5" s="1">
         <v>0.0</v>
@@ -3380,7 +3605,7 @@
         <v>12.0</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ5" s="1">
         <v>1.0</v>
@@ -3392,7 +3617,7 @@
         <v>4.0</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU5" s="1">
         <v>17.0</v>
@@ -3404,7 +3629,7 @@
         <v>6.0</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY5" s="1">
         <v>1.0</v>
@@ -3416,7 +3641,7 @@
         <v>3.0</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC5" s="1">
         <v>4.0</v>
@@ -3428,7 +3653,7 @@
         <v>5.0</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG5" s="1">
         <v>11.0</v>
@@ -3440,7 +3665,7 @@
         <v>4.0</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK5" s="1">
         <v>10.0</v>
@@ -3452,7 +3677,7 @@
         <v>3.0</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BO5" s="1">
         <v>3.0</v>
@@ -3464,7 +3689,7 @@
         <v>3.0</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BS5" s="1">
         <v>3.0</v>
@@ -3476,7 +3701,7 @@
         <v>6.0</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BW5" s="1">
         <v>0.0</v>
@@ -3488,7 +3713,7 @@
         <v>22.0</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="CA5" s="1">
         <v>0.0</v>
@@ -3499,13 +3724,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1">
         <v>7.0</v>
@@ -3514,7 +3739,7 @@
         <v>3.0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G6" s="1">
         <v>8.0</v>
@@ -3526,7 +3751,7 @@
         <v>2.0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K6" s="1">
         <v>22.0</v>
@@ -3538,7 +3763,7 @@
         <v>2.0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O6" s="1">
         <v>29.0</v>
@@ -3550,7 +3775,7 @@
         <v>2.0</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S6" s="1">
         <v>22.0</v>
@@ -3562,7 +3787,7 @@
         <v>1.0</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="W6" s="1">
         <v>24.0</v>
@@ -3574,7 +3799,7 @@
         <v>1.0</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA6" s="1">
         <v>6.0</v>
@@ -3586,7 +3811,7 @@
         <v>1.0</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AE6" s="1">
         <v>21.0</v>
@@ -3598,7 +3823,7 @@
         <v>3.0</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AI6" s="1">
         <v>29.0</v>
@@ -3610,7 +3835,7 @@
         <v>2.0</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AM6" s="1">
         <v>24.0</v>
@@ -3622,7 +3847,7 @@
         <v>3.0</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ6" s="1">
         <v>28.0</v>
@@ -3634,7 +3859,7 @@
         <v>20.0</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AU6" s="1">
         <v>19.0</v>
@@ -3646,7 +3871,7 @@
         <v>4.0</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AY6" s="1">
         <v>28.0</v>
@@ -3658,7 +3883,7 @@
         <v>2.0</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC6" s="1">
         <v>22.0</v>
@@ -3670,7 +3895,7 @@
         <v>3.0</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="BG6" s="1">
         <v>22.0</v>
@@ -3682,7 +3907,7 @@
         <v>6.0</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK6" s="1">
         <v>12.0</v>
@@ -3694,7 +3919,7 @@
         <v>5.0</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BO6" s="1">
         <v>13.0</v>
@@ -3706,7 +3931,7 @@
         <v>5.0</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="BS6" s="1">
         <v>17.0</v>
@@ -3718,7 +3943,7 @@
         <v>2.0</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="BW6" s="1">
         <v>30.0</v>
@@ -3730,7 +3955,7 @@
         <v>2.0</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="CA6" s="1">
         <v>19.0</v>
@@ -3741,13 +3966,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="D7" s="1">
         <v>14.0</v>
@@ -3756,7 +3981,7 @@
         <v>18.0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G7" s="1">
         <v>1.0</v>
@@ -3768,7 +3993,7 @@
         <v>3.0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K7" s="1">
         <v>18.0</v>
@@ -3780,7 +4005,7 @@
         <v>5.0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O7" s="1">
         <v>15.0</v>
@@ -3792,7 +4017,7 @@
         <v>5.0</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S7" s="1">
         <v>16.0</v>
@@ -3804,7 +4029,7 @@
         <v>5.0</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W7" s="1">
         <v>13.0</v>
@@ -3816,7 +4041,7 @@
         <v>2.0</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA7" s="1">
         <v>29.0</v>
@@ -3828,7 +4053,7 @@
         <v>3.0</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE7" s="1">
         <v>11.0</v>
@@ -3840,7 +4065,7 @@
         <v>5.0</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI7" s="1">
         <v>5.0</v>
@@ -3852,7 +4077,7 @@
         <v>4.0</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM7" s="1">
         <v>3.0</v>
@@ -3864,7 +4089,7 @@
         <v>19.0</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ7" s="1">
         <v>0.0</v>
@@ -3876,7 +4101,7 @@
         <v>3.0</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU7" s="1">
         <v>28.0</v>
@@ -3888,7 +4113,7 @@
         <v>3.0</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY7" s="1">
         <v>3.0</v>
@@ -3900,7 +4125,7 @@
         <v>7.0</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC7" s="1">
         <v>1.0</v>
@@ -3912,7 +4137,7 @@
         <v>22.0</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG7" s="1">
         <v>0.0</v>
@@ -3924,7 +4149,7 @@
         <v>22.0</v>
       </c>
       <c r="BJ7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK7" s="1">
         <v>0.0</v>
@@ -3936,7 +4161,7 @@
         <v>4.0</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BO7" s="1">
         <v>12.0</v>
@@ -3948,7 +4173,7 @@
         <v>6.0</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BS7" s="1">
         <v>0.0</v>
@@ -3960,7 +4185,7 @@
         <v>5.0</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BW7" s="1">
         <v>16.0</v>
@@ -3972,7 +4197,7 @@
         <v>4.0</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="CA7" s="1">
         <v>20.0</v>
@@ -3983,13 +4208,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1">
         <v>11.0</v>
@@ -3998,7 +4223,7 @@
         <v>4.0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G8" s="1">
         <v>2.0</v>
@@ -4010,7 +4235,7 @@
         <v>22.0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K8" s="1">
         <v>0.0</v>
@@ -4022,7 +4247,7 @@
         <v>22.0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O8" s="1">
         <v>0.0</v>
@@ -4034,7 +4259,7 @@
         <v>22.0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S8" s="1">
         <v>0.0</v>
@@ -4046,7 +4271,7 @@
         <v>22.0</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W8" s="1">
         <v>0.0</v>
@@ -4058,7 +4283,7 @@
         <v>22.0</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA8" s="1">
         <v>0.0</v>
@@ -4070,7 +4295,7 @@
         <v>22.0</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE8" s="1">
         <v>0.0</v>
@@ -4082,7 +4307,7 @@
         <v>22.0</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI8" s="1">
         <v>0.0</v>
@@ -4094,7 +4319,7 @@
         <v>22.0</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM8" s="1">
         <v>0.0</v>
@@ -4106,7 +4331,7 @@
         <v>22.0</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ8" s="1">
         <v>0.0</v>
@@ -4118,7 +4343,7 @@
         <v>22.0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU8" s="1">
         <v>0.0</v>
@@ -4130,7 +4355,7 @@
         <v>22.0</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY8" s="1">
         <v>0.0</v>
@@ -4142,7 +4367,7 @@
         <v>22.0</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC8" s="1">
         <v>0.0</v>
@@ -4154,7 +4379,7 @@
         <v>22.0</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG8" s="1">
         <v>0.0</v>
@@ -4166,7 +4391,7 @@
         <v>22.0</v>
       </c>
       <c r="BJ8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK8" s="1">
         <v>0.0</v>
@@ -4178,7 +4403,7 @@
         <v>22.0</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BO8" s="1">
         <v>0.0</v>
@@ -4190,7 +4415,7 @@
         <v>22.0</v>
       </c>
       <c r="BR8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BS8" s="1">
         <v>0.0</v>
@@ -4202,7 +4427,7 @@
         <v>22.0</v>
       </c>
       <c r="BV8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BW8" s="1">
         <v>0.0</v>
@@ -4214,7 +4439,7 @@
         <v>22.0</v>
       </c>
       <c r="BZ8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="CA8" s="1">
         <v>0.0</v>
@@ -4225,13 +4450,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1">
         <v>13.0</v>
@@ -4240,7 +4465,7 @@
         <v>10.0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G9" s="1">
         <v>1.0</v>
@@ -4252,7 +4477,7 @@
         <v>22.0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K9" s="1">
         <v>0.0</v>
@@ -4264,7 +4489,7 @@
         <v>22.0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O9" s="1">
         <v>0.0</v>
@@ -4276,7 +4501,7 @@
         <v>6.0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S9" s="1">
         <v>12.0</v>
@@ -4288,7 +4513,7 @@
         <v>6.0</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W9" s="1">
         <v>1.0</v>
@@ -4300,7 +4525,7 @@
         <v>7.0</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA9" s="1">
         <v>1.0</v>
@@ -4312,7 +4537,7 @@
         <v>7.0</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE9" s="1">
         <v>10.0</v>
@@ -4324,7 +4549,7 @@
         <v>4.0</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI9" s="1">
         <v>12.0</v>
@@ -4336,7 +4561,7 @@
         <v>5.0</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM9" s="1">
         <v>1.0</v>
@@ -4348,7 +4573,7 @@
         <v>18.0</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ9" s="1">
         <v>2.0</v>
@@ -4360,7 +4585,7 @@
         <v>5.0</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU9" s="1">
         <v>11.0</v>
@@ -4372,7 +4597,7 @@
         <v>5.0</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY9" s="1">
         <v>1.0</v>
@@ -4384,7 +4609,7 @@
         <v>6.0</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC9" s="1">
         <v>1.0</v>
@@ -4396,7 +4621,7 @@
         <v>4.0</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG9" s="1">
         <v>14.0</v>
@@ -4408,7 +4633,7 @@
         <v>3.0</v>
       </c>
       <c r="BJ9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK9" s="1">
         <v>18.0</v>
@@ -4420,7 +4645,7 @@
         <v>2.0</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BO9" s="1">
         <v>19.0</v>
@@ -4432,7 +4657,7 @@
         <v>2.0</v>
       </c>
       <c r="BR9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BS9" s="1">
         <v>22.0</v>
@@ -4444,7 +4669,7 @@
         <v>4.0</v>
       </c>
       <c r="BV9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BW9" s="1">
         <v>14.0</v>
@@ -4456,7 +4681,7 @@
         <v>3.0</v>
       </c>
       <c r="BZ9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="CA9" s="1">
         <v>15.0</v>
@@ -4467,13 +4692,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D10" s="1">
         <v>22.0</v>
@@ -4482,7 +4707,7 @@
         <v>22.0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G10" s="1">
         <v>0.0</v>
@@ -4494,7 +4719,7 @@
         <v>22.0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K10" s="1">
         <v>0.0</v>
@@ -4506,7 +4731,7 @@
         <v>22.0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O10" s="1">
         <v>0.0</v>
@@ -4518,7 +4743,7 @@
         <v>22.0</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S10" s="1">
         <v>0.0</v>
@@ -4530,7 +4755,7 @@
         <v>22.0</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W10" s="1">
         <v>0.0</v>
@@ -4542,7 +4767,7 @@
         <v>22.0</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA10" s="1">
         <v>0.0</v>
@@ -4554,7 +4779,7 @@
         <v>22.0</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE10" s="1">
         <v>0.0</v>
@@ -4566,7 +4791,7 @@
         <v>22.0</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI10" s="1">
         <v>0.0</v>
@@ -4578,7 +4803,7 @@
         <v>22.0</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM10" s="1">
         <v>0.0</v>
@@ -4590,7 +4815,7 @@
         <v>20.0</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ10" s="1">
         <v>0.0</v>
@@ -4602,7 +4827,7 @@
         <v>12.0</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU10" s="1">
         <v>1.0</v>
@@ -4614,7 +4839,7 @@
         <v>22.0</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY10" s="1">
         <v>0.0</v>
@@ -4626,7 +4851,7 @@
         <v>22.0</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC10" s="1">
         <v>0.0</v>
@@ -4638,7 +4863,7 @@
         <v>22.0</v>
       </c>
       <c r="BF10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG10" s="1">
         <v>0.0</v>
@@ -4650,7 +4875,7 @@
         <v>14.0</v>
       </c>
       <c r="BJ10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK10" s="1">
         <v>1.0</v>
@@ -4662,7 +4887,7 @@
         <v>8.0</v>
       </c>
       <c r="BN10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BO10" s="1">
         <v>4.0</v>
@@ -4674,7 +4899,7 @@
         <v>22.0</v>
       </c>
       <c r="BR10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BS10" s="1">
         <v>0.0</v>
@@ -4686,7 +4911,7 @@
         <v>7.0</v>
       </c>
       <c r="BV10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BW10" s="1">
         <v>0.0</v>
@@ -4698,7 +4923,7 @@
         <v>6.0</v>
       </c>
       <c r="BZ10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="CA10" s="1">
         <v>4.0</v>
@@ -4724,102 +4949,102 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4845,147 +5070,147 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>1.0</v>
@@ -4994,7 +5219,7 @@
         <v>2.0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G2" s="1">
         <v>30.0</v>
@@ -5006,7 +5231,7 @@
         <v>1.0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K2" s="1">
         <v>6.0</v>
@@ -5018,7 +5243,7 @@
         <v>2.0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O2" s="1">
         <v>31.0</v>
@@ -5030,7 +5255,7 @@
         <v>2.0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S2" s="1">
         <v>30.0</v>
@@ -5042,7 +5267,7 @@
         <v>3.0</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W2" s="1">
         <v>30.0</v>
@@ -5054,7 +5279,7 @@
         <v>1.0</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AA2" s="1">
         <v>18.0</v>
@@ -5066,7 +5291,7 @@
         <v>1.0</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AE2" s="1">
         <v>31.0</v>
@@ -5078,7 +5303,7 @@
         <v>2.0</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI2" s="1">
         <v>23.0</v>
@@ -5090,7 +5315,7 @@
         <v>1.0</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM2" s="1">
         <v>30.0</v>
@@ -5102,7 +5327,7 @@
         <v>1.0</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AQ2" s="1">
         <v>19.0</v>
@@ -5113,13 +5338,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D3" s="1">
         <v>21.0</v>
@@ -5128,7 +5353,7 @@
         <v>19.0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G3" s="1">
         <v>0.0</v>
@@ -5140,7 +5365,7 @@
         <v>17.0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K3" s="1">
         <v>0.0</v>
@@ -5152,7 +5377,7 @@
         <v>10.0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O3" s="1">
         <v>4.0</v>
@@ -5164,7 +5389,7 @@
         <v>13.0</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S3" s="1">
         <v>1.0</v>
@@ -5176,7 +5401,7 @@
         <v>19.0</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W3" s="1">
         <v>1.0</v>
@@ -5188,7 +5413,7 @@
         <v>10.0</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA3" s="1">
         <v>3.0</v>
@@ -5200,7 +5425,7 @@
         <v>22.0</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE3" s="1">
         <v>0.0</v>
@@ -5212,7 +5437,7 @@
         <v>20.0</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI3" s="1">
         <v>1.0</v>
@@ -5224,7 +5449,7 @@
         <v>17.0</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM3" s="1">
         <v>0.0</v>
@@ -5236,7 +5461,7 @@
         <v>22.0</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ3" s="1">
         <v>0.0</v>
@@ -5247,13 +5472,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1">
         <v>3.0</v>
@@ -5262,7 +5487,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G4" s="1">
         <v>21.0</v>
@@ -5274,7 +5499,7 @@
         <v>3.0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="K4" s="1">
         <v>10.0</v>
@@ -5286,7 +5511,7 @@
         <v>3.0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O4" s="1">
         <v>6.0</v>
@@ -5298,7 +5523,7 @@
         <v>3.0</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S4" s="1">
         <v>20.0</v>
@@ -5310,7 +5535,7 @@
         <v>1.0</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W4" s="1">
         <v>13.0</v>
@@ -5322,7 +5547,7 @@
         <v>6.0</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA4" s="1">
         <v>30.0</v>
@@ -5334,7 +5559,7 @@
         <v>3.0</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE4" s="1">
         <v>23.0</v>
@@ -5346,7 +5571,7 @@
         <v>7.0</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI4" s="1">
         <v>20.0</v>
@@ -5358,7 +5583,7 @@
         <v>7.0</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM4" s="1">
         <v>23.0</v>
@@ -5370,7 +5595,7 @@
         <v>5.0</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ4" s="1">
         <v>25.0</v>
@@ -5381,13 +5606,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1">
         <v>6.0</v>
@@ -5396,7 +5621,7 @@
         <v>5.0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G5" s="1">
         <v>9.0</v>
@@ -5408,7 +5633,7 @@
         <v>19.0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K5" s="1">
         <v>0.0</v>
@@ -5420,7 +5645,7 @@
         <v>9.0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O5" s="1">
         <v>1.0</v>
@@ -5432,7 +5657,7 @@
         <v>7.0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S5" s="1">
         <v>0.0</v>
@@ -5444,7 +5669,7 @@
         <v>20.0</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W5" s="1">
         <v>0.0</v>
@@ -5456,7 +5681,7 @@
         <v>9.0</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA5" s="1">
         <v>2.0</v>
@@ -5468,7 +5693,7 @@
         <v>4.0</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE5" s="1">
         <v>6.0</v>
@@ -5480,7 +5705,7 @@
         <v>6.0</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI5" s="1">
         <v>6.0</v>
@@ -5492,7 +5717,7 @@
         <v>10.0</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM5" s="1">
         <v>4.0</v>
@@ -5504,7 +5729,7 @@
         <v>22.0</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ5" s="1">
         <v>0.0</v>
@@ -5515,13 +5740,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1">
         <v>4.0</v>
@@ -5530,7 +5755,7 @@
         <v>4.0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G6" s="1">
         <v>17.0</v>
@@ -5542,7 +5767,7 @@
         <v>4.0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K6" s="1">
         <v>12.0</v>
@@ -5554,7 +5779,7 @@
         <v>4.0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="O6" s="1">
         <v>22.0</v>
@@ -5566,7 +5791,7 @@
         <v>4.0</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S6" s="1">
         <v>17.0</v>
@@ -5578,7 +5803,7 @@
         <v>5.0</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W6" s="1">
         <v>23.0</v>
@@ -5590,7 +5815,7 @@
         <v>4.0</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA6" s="1">
         <v>20.0</v>
@@ -5602,7 +5827,7 @@
         <v>8.0</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE6" s="1">
         <v>5.0</v>
@@ -5614,7 +5839,7 @@
         <v>5.0</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI6" s="1">
         <v>30.0</v>
@@ -5626,7 +5851,7 @@
         <v>3.0</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AM6" s="1">
         <v>21.0</v>
@@ -5638,7 +5863,7 @@
         <v>20.0</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ6" s="1">
         <v>0.0</v>
@@ -5649,13 +5874,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D7" s="1">
         <v>10.0</v>
@@ -5664,7 +5889,7 @@
         <v>8.0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G7" s="1">
         <v>3.0</v>
@@ -5676,7 +5901,7 @@
         <v>18.0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K7" s="1">
         <v>1.0</v>
@@ -5688,7 +5913,7 @@
         <v>8.0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O7" s="1">
         <v>11.0</v>
@@ -5700,7 +5925,7 @@
         <v>6.0</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S7" s="1">
         <v>9.0</v>
@@ -5712,7 +5937,7 @@
         <v>12.0</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W7" s="1">
         <v>13.0</v>
@@ -5724,7 +5949,7 @@
         <v>8.0</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA7" s="1">
         <v>3.0</v>
@@ -5736,7 +5961,7 @@
         <v>11.0</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE7" s="1">
         <v>5.0</v>
@@ -5748,7 +5973,7 @@
         <v>4.0</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI7" s="1">
         <v>9.0</v>
@@ -5760,7 +5985,7 @@
         <v>5.0</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM7" s="1">
         <v>13.0</v>
@@ -5772,7 +5997,7 @@
         <v>22.0</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ7" s="1">
         <v>0.0</v>
@@ -5783,13 +6008,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>2.0</v>
@@ -5798,7 +6023,7 @@
         <v>3.0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G8" s="1">
         <v>23.0</v>
@@ -5810,7 +6035,7 @@
         <v>2.0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K8" s="1">
         <v>6.0</v>
@@ -5822,7 +6047,7 @@
         <v>1.0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O8" s="1">
         <v>24.0</v>
@@ -5834,7 +6059,7 @@
         <v>1.0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="S8" s="1">
         <v>24.0</v>
@@ -5846,7 +6071,7 @@
         <v>2.0</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W8" s="1">
         <v>20.0</v>
@@ -5858,7 +6083,7 @@
         <v>2.0</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA8" s="1">
         <v>23.0</v>
@@ -5870,7 +6095,7 @@
         <v>2.0</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE8" s="1">
         <v>17.0</v>
@@ -5882,7 +6107,7 @@
         <v>1.0</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AI8" s="1">
         <v>18.0</v>
@@ -5894,7 +6119,7 @@
         <v>22.0</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM8" s="1">
         <v>0.0</v>
@@ -5906,7 +6131,7 @@
         <v>2.0</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ8" s="1">
         <v>15.0</v>
@@ -5917,13 +6142,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>12.0</v>
@@ -5932,7 +6157,7 @@
         <v>18.0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G9" s="1">
         <v>1.0</v>
@@ -5944,7 +6169,7 @@
         <v>14.0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K9" s="1">
         <v>0.0</v>
@@ -5956,7 +6181,7 @@
         <v>22.0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O9" s="1">
         <v>0.0</v>
@@ -5968,7 +6193,7 @@
         <v>5.0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S9" s="1">
         <v>13.0</v>
@@ -5980,7 +6205,7 @@
         <v>18.0</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W9" s="1">
         <v>6.0</v>
@@ -5992,7 +6217,7 @@
         <v>7.0</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA9" s="1">
         <v>4.0</v>
@@ -6004,7 +6229,7 @@
         <v>5.0</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE9" s="1">
         <v>4.0</v>
@@ -6016,7 +6241,7 @@
         <v>9.0</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI9" s="1">
         <v>13.0</v>
@@ -6028,7 +6253,7 @@
         <v>6.0</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM9" s="1">
         <v>15.0</v>
@@ -6040,7 +6265,7 @@
         <v>6.0</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ9" s="1">
         <v>0.0</v>
@@ -6051,13 +6276,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D10" s="1">
         <v>9.0</v>
@@ -6066,7 +6291,7 @@
         <v>6.0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G10" s="1">
         <v>6.0</v>
@@ -6078,7 +6303,7 @@
         <v>5.0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K10" s="1">
         <v>7.0</v>
@@ -6090,7 +6315,7 @@
         <v>5.0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O10" s="1">
         <v>16.0</v>
@@ -6102,7 +6327,7 @@
         <v>8.0</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S10" s="1">
         <v>13.0</v>
@@ -6114,7 +6339,7 @@
         <v>7.0</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W10" s="1">
         <v>7.0</v>
@@ -6126,7 +6351,7 @@
         <v>3.0</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA10" s="1">
         <v>5.0</v>
@@ -6138,7 +6363,7 @@
         <v>6.0</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE10" s="1">
         <v>20.0</v>
@@ -6150,7 +6375,7 @@
         <v>3.0</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI10" s="1">
         <v>15.0</v>
@@ -6162,7 +6387,7 @@
         <v>2.0</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM10" s="1">
         <v>16.0</v>
@@ -6174,7 +6399,7 @@
         <v>3.0</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ10" s="1">
         <v>0.0</v>
@@ -6185,13 +6410,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="D11" s="1">
         <v>14.0</v>
@@ -6200,7 +6425,7 @@
         <v>10.0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G11" s="1">
         <v>1.0</v>
@@ -6212,7 +6437,7 @@
         <v>16.0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K11" s="1">
         <v>0.0</v>
@@ -6224,7 +6449,7 @@
         <v>6.0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O11" s="1">
         <v>17.0</v>
@@ -6236,7 +6461,7 @@
         <v>22.0</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S11" s="1">
         <v>0.0</v>
@@ -6248,7 +6473,7 @@
         <v>6.0</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W11" s="1">
         <v>15.0</v>
@@ -6260,7 +6485,7 @@
         <v>22.0</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA11" s="1">
         <v>0.0</v>
@@ -6272,7 +6497,7 @@
         <v>22.0</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE11" s="1">
         <v>0.0</v>
@@ -6284,7 +6509,7 @@
         <v>22.0</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI11" s="1">
         <v>0.0</v>
@@ -6296,7 +6521,7 @@
         <v>22.0</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM11" s="1">
         <v>0.0</v>
@@ -6308,7 +6533,7 @@
         <v>22.0</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ11" s="1">
         <v>0.0</v>
@@ -6319,13 +6544,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D12" s="1">
         <v>15.0</v>
@@ -6334,7 +6559,7 @@
         <v>17.0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G12" s="1">
         <v>0.0</v>
@@ -6346,7 +6571,7 @@
         <v>20.0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K12" s="1">
         <v>0.0</v>
@@ -6358,7 +6583,7 @@
         <v>22.0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O12" s="1">
         <v>0.0</v>
@@ -6370,7 +6595,7 @@
         <v>22.0</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S12" s="1">
         <v>0.0</v>
@@ -6382,7 +6607,7 @@
         <v>22.0</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W12" s="1">
         <v>0.0</v>
@@ -6394,7 +6619,7 @@
         <v>22.0</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA12" s="1">
         <v>0.0</v>
@@ -6406,7 +6631,7 @@
         <v>22.0</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE12" s="1">
         <v>0.0</v>
@@ -6418,7 +6643,7 @@
         <v>22.0</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI12" s="1">
         <v>0.0</v>
@@ -6430,7 +6655,7 @@
         <v>22.0</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM12" s="1">
         <v>0.0</v>
@@ -6442,7 +6667,7 @@
         <v>22.0</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ12" s="1">
         <v>0.0</v>
@@ -6453,13 +6678,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D13" s="1">
         <v>22.0</v>
@@ -6468,7 +6693,7 @@
         <v>22.0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G13" s="1">
         <v>0.0</v>
@@ -6480,7 +6705,7 @@
         <v>8.0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K13" s="1">
         <v>4.0</v>
@@ -6492,7 +6717,7 @@
         <v>7.0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O13" s="1">
         <v>8.0</v>
@@ -6504,7 +6729,7 @@
         <v>9.0</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S13" s="1">
         <v>8.0</v>
@@ -6516,7 +6741,7 @@
         <v>4.0</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W13" s="1">
         <v>11.0</v>
@@ -6528,7 +6753,7 @@
         <v>5.0</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA13" s="1">
         <v>6.0</v>
@@ -6540,7 +6765,7 @@
         <v>7.0</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE13" s="1">
         <v>5.0</v>
@@ -6552,7 +6777,7 @@
         <v>8.0</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI13" s="1">
         <v>6.0</v>
@@ -6564,7 +6789,7 @@
         <v>4.0</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM13" s="1">
         <v>6.0</v>
@@ -6576,7 +6801,7 @@
         <v>4.0</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ13" s="1">
         <v>12.0</v>
@@ -6587,13 +6812,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="D14" s="1">
         <v>22.0</v>
@@ -6602,7 +6827,7 @@
         <v>22.0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G14" s="1">
         <v>0.0</v>
@@ -6614,7 +6839,7 @@
         <v>22.0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K14" s="1">
         <v>0.0</v>
@@ -6626,7 +6851,7 @@
         <v>22.0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O14" s="1">
         <v>0.0</v>
@@ -6638,7 +6863,7 @@
         <v>20.0</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S14" s="1">
         <v>1.0</v>
@@ -6650,7 +6875,7 @@
         <v>22.0</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W14" s="1">
         <v>0.0</v>
@@ -6662,7 +6887,7 @@
         <v>22.0</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA14" s="1">
         <v>0.0</v>
@@ -6674,7 +6899,7 @@
         <v>22.0</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE14" s="1">
         <v>0.0</v>
@@ -6686,7 +6911,7 @@
         <v>22.0</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI14" s="1">
         <v>0.0</v>
@@ -6698,7 +6923,7 @@
         <v>22.0</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM14" s="1">
         <v>0.0</v>
@@ -6710,7 +6935,7 @@
         <v>22.0</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ14" s="1">
         <v>0.0</v>
@@ -6736,57 +6961,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6812,207 +7037,207 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>2.0</v>
@@ -7021,7 +7246,7 @@
         <v>2.0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G2" s="1">
         <v>18.0</v>
@@ -7033,7 +7258,7 @@
         <v>1.0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K2" s="1">
         <v>18.0</v>
@@ -7045,7 +7270,7 @@
         <v>2.0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O2" s="1">
         <v>25.0</v>
@@ -7057,7 +7282,7 @@
         <v>4.0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S2" s="1">
         <v>25.0</v>
@@ -7069,7 +7294,7 @@
         <v>1.0</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W2" s="1">
         <v>18.0</v>
@@ -7081,7 +7306,7 @@
         <v>2.0</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA2" s="1">
         <v>8.0</v>
@@ -7093,7 +7318,7 @@
         <v>20.0</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE2" s="1">
         <v>15.0</v>
@@ -7105,7 +7330,7 @@
         <v>1.0</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AI2" s="1">
         <v>26.0</v>
@@ -7117,7 +7342,7 @@
         <v>3.0</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM2" s="1">
         <v>18.0</v>
@@ -7129,7 +7354,7 @@
         <v>2.0</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ2" s="1">
         <v>25.0</v>
@@ -7141,7 +7366,7 @@
         <v>1.0</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU2" s="1">
         <v>25.0</v>
@@ -7153,7 +7378,7 @@
         <v>2.0</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY2" s="1">
         <v>7.0</v>
@@ -7165,7 +7390,7 @@
         <v>19.0</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC2" s="1">
         <v>18.0</v>
@@ -7177,7 +7402,7 @@
         <v>2.0</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG2" s="1">
         <v>8.0</v>
@@ -7189,7 +7414,7 @@
         <v>20.0</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK2" s="1">
         <v>8.0</v>
@@ -7200,13 +7425,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>16.0</v>
@@ -7215,7 +7440,7 @@
         <v>10.0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G3" s="1">
         <v>1.0</v>
@@ -7227,7 +7452,7 @@
         <v>10.0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K3" s="1">
         <v>3.0</v>
@@ -7239,7 +7464,7 @@
         <v>7.0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O3" s="1">
         <v>1.0</v>
@@ -7251,7 +7476,7 @@
         <v>22.0</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S3" s="1">
         <v>0.0</v>
@@ -7263,7 +7488,7 @@
         <v>8.0</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W3" s="1">
         <v>1.0</v>
@@ -7275,7 +7500,7 @@
         <v>22.0</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA3" s="1">
         <v>0.0</v>
@@ -7287,7 +7512,7 @@
         <v>22.0</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE3" s="1">
         <v>0.0</v>
@@ -7299,7 +7524,7 @@
         <v>6.0</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI3" s="1">
         <v>1.0</v>
@@ -7311,7 +7536,7 @@
         <v>8.0</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM3" s="1">
         <v>8.0</v>
@@ -7323,7 +7548,7 @@
         <v>22.0</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ3" s="1">
         <v>0.0</v>
@@ -7335,7 +7560,7 @@
         <v>7.0</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU3" s="1">
         <v>8.0</v>
@@ -7347,7 +7572,7 @@
         <v>16.0</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY3" s="1">
         <v>0.5</v>
@@ -7359,7 +7584,7 @@
         <v>13.0</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC3" s="1">
         <v>8.0</v>
@@ -7371,7 +7596,7 @@
         <v>7.0</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG3" s="1">
         <v>2.0</v>
@@ -7383,7 +7608,7 @@
         <v>14.0</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK3" s="1">
         <v>6.0</v>
@@ -7394,13 +7619,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>11.0</v>
@@ -7409,7 +7634,7 @@
         <v>4.0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G4" s="1">
         <v>1.0</v>
@@ -7421,7 +7646,7 @@
         <v>8.0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K4" s="1">
         <v>12.0</v>
@@ -7433,7 +7658,7 @@
         <v>4.0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O4" s="1">
         <v>12.0</v>
@@ -7445,7 +7670,7 @@
         <v>5.0</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S4" s="1">
         <v>10.0</v>
@@ -7457,7 +7682,7 @@
         <v>6.0</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="W4" s="1">
         <v>9.0</v>
@@ -7469,7 +7694,7 @@
         <v>1.0</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA4" s="1">
         <v>0.5</v>
@@ -7481,7 +7706,7 @@
         <v>3.0</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE4" s="1">
         <v>25.0</v>
@@ -7493,7 +7718,7 @@
         <v>2.0</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI4" s="1">
         <v>18.0</v>
@@ -7505,7 +7730,7 @@
         <v>5.0</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM4" s="1">
         <v>10.0</v>
@@ -7517,7 +7742,7 @@
         <v>22.0</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ4" s="1">
         <v>0.0</v>
@@ -7529,7 +7754,7 @@
         <v>2.0</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AU4" s="1">
         <v>2.0</v>
@@ -7541,7 +7766,7 @@
         <v>5.0</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY4" s="1">
         <v>3.0</v>
@@ -7553,7 +7778,7 @@
         <v>15.0</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC4" s="1">
         <v>0.0</v>
@@ -7565,7 +7790,7 @@
         <v>5.0</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG4" s="1">
         <v>3.0</v>
@@ -7577,7 +7802,7 @@
         <v>15.0</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK4" s="1">
         <v>12.0</v>
@@ -7588,13 +7813,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>5.0</v>
@@ -7603,7 +7828,7 @@
         <v>16.0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G5" s="1">
         <v>10.0</v>
@@ -7615,7 +7840,7 @@
         <v>6.0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K5" s="1">
         <v>4.0</v>
@@ -7627,7 +7852,7 @@
         <v>8.0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O5" s="1">
         <v>10.0</v>
@@ -7639,7 +7864,7 @@
         <v>9.0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S5" s="1">
         <v>12.0</v>
@@ -7651,7 +7876,7 @@
         <v>7.0</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W5" s="1">
         <v>12.0</v>
@@ -7663,7 +7888,7 @@
         <v>3.0</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA5" s="1">
         <v>6.0</v>
@@ -7675,7 +7900,7 @@
         <v>18.0</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE5" s="1">
         <v>6.0</v>
@@ -7687,7 +7912,7 @@
         <v>3.0</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI5" s="1">
         <v>1.0</v>
@@ -7699,7 +7924,7 @@
         <v>7.0</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM5" s="1">
         <v>4.0</v>
@@ -7711,7 +7936,7 @@
         <v>3.0</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ5" s="1">
         <v>15.0</v>
@@ -7723,7 +7948,7 @@
         <v>3.0</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU5" s="1">
         <v>15.0</v>
@@ -7735,7 +7960,7 @@
         <v>6.0</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY5" s="1">
         <v>2.0</v>
@@ -7747,7 +7972,7 @@
         <v>14.0</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC5" s="1">
         <v>12.0</v>
@@ -7759,7 +7984,7 @@
         <v>8.0</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG5" s="1">
         <v>1.0</v>
@@ -7771,7 +7996,7 @@
         <v>13.0</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK5" s="1">
         <v>1.0</v>
@@ -7782,13 +8007,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1">
         <v>7.0</v>
@@ -7797,7 +8022,7 @@
         <v>7.0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G6" s="1">
         <v>6.0</v>
@@ -7809,7 +8034,7 @@
         <v>4.0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K6" s="1">
         <v>15.0</v>
@@ -7821,7 +8046,7 @@
         <v>5.0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O6" s="1">
         <v>15.0</v>
@@ -7833,7 +8058,7 @@
         <v>8.0</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S6" s="1">
         <v>8.0</v>
@@ -7845,7 +8070,7 @@
         <v>2.0</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W6" s="1">
         <v>15.0</v>
@@ -7857,7 +8082,7 @@
         <v>4.0</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA6" s="1">
         <v>7.0</v>
@@ -7869,7 +8094,7 @@
         <v>19.0</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE6" s="1">
         <v>18.0</v>
@@ -7881,7 +8106,7 @@
         <v>22.0</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI6" s="1">
         <v>0.0</v>
@@ -7893,7 +8118,7 @@
         <v>6.0</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM6" s="1">
         <v>12.0</v>
@@ -7905,7 +8130,7 @@
         <v>5.0</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ6" s="1">
         <v>10.0</v>
@@ -7917,7 +8142,7 @@
         <v>6.0</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU6" s="1">
         <v>6.0</v>
@@ -7929,7 +8154,7 @@
         <v>4.0</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY6" s="1">
         <v>6.0</v>
@@ -7941,7 +8166,7 @@
         <v>18.0</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC6" s="1">
         <v>1.0</v>
@@ -7953,7 +8178,7 @@
         <v>6.0</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG6" s="1">
         <v>4.0</v>
@@ -7965,7 +8190,7 @@
         <v>16.0</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK6" s="1">
         <v>18.0</v>
@@ -7976,13 +8201,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1">
         <v>4.0</v>
@@ -7991,7 +8216,7 @@
         <v>3.0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G7" s="1">
         <v>12.0</v>
@@ -8003,7 +8228,7 @@
         <v>3.0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K7" s="1">
         <v>10.0</v>
@@ -8015,7 +8240,7 @@
         <v>6.0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O7" s="1">
         <v>1.0</v>
@@ -8027,7 +8252,7 @@
         <v>22.0</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S7" s="1">
         <v>0.0</v>
@@ -8039,7 +8264,7 @@
         <v>22.0</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W7" s="1">
         <v>0.0</v>
@@ -8051,7 +8276,7 @@
         <v>22.0</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA7" s="1">
         <v>0.0</v>
@@ -8063,7 +8288,7 @@
         <v>22.0</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE7" s="1">
         <v>0.0</v>
@@ -8075,7 +8300,7 @@
         <v>22.0</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI7" s="1">
         <v>0.0</v>
@@ -8087,7 +8312,7 @@
         <v>22.0</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM7" s="1">
         <v>0.0</v>
@@ -8099,7 +8324,7 @@
         <v>22.0</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ7" s="1">
         <v>0.0</v>
@@ -8125,13 +8350,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1">
         <v>0.0</v>
@@ -8170,7 +8395,7 @@
         <v>4.0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU8" s="1">
         <v>10.0</v>
@@ -8182,7 +8407,7 @@
         <v>3.0</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY8" s="1">
         <v>8.0</v>
@@ -8194,7 +8419,7 @@
         <v>20.0</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC8" s="1">
         <v>15.0</v>
@@ -8206,7 +8431,7 @@
         <v>4.0</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG8" s="1">
         <v>5.0</v>
@@ -8218,7 +8443,7 @@
         <v>17.0</v>
       </c>
       <c r="BJ8" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK8" s="1">
         <v>15.0</v>
@@ -8229,13 +8454,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>8.0</v>
@@ -8244,7 +8469,7 @@
         <v>13.0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G9" s="1">
         <v>4.0</v>
@@ -8256,7 +8481,7 @@
         <v>9.0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K9" s="1">
         <v>6.0</v>
@@ -8268,7 +8493,7 @@
         <v>15.0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O9" s="1">
         <v>1.0</v>
@@ -8280,7 +8505,7 @@
         <v>6.0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S9" s="1">
         <v>6.0</v>
@@ -8292,7 +8517,7 @@
         <v>5.0</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W9" s="1">
         <v>1.0</v>
@@ -8304,7 +8529,7 @@
         <v>14.0</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA9" s="1">
         <v>5.0</v>
@@ -8316,7 +8541,7 @@
         <v>17.0</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE9" s="1">
         <v>10.0</v>
@@ -8328,7 +8553,7 @@
         <v>4.0</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI9" s="1">
         <v>1.0</v>
@@ -8340,7 +8565,7 @@
         <v>4.0</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM9" s="1">
         <v>6.0</v>
@@ -8352,7 +8577,7 @@
         <v>4.0</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ9" s="1">
         <v>12.0</v>
@@ -8364,7 +8589,7 @@
         <v>10.0</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU9" s="1">
         <v>12.0</v>
@@ -8376,7 +8601,7 @@
         <v>1.0</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY9" s="1">
         <v>5.0</v>
@@ -8388,7 +8613,7 @@
         <v>17.0</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC9" s="1">
         <v>0.0</v>
@@ -8400,7 +8625,7 @@
         <v>3.0</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG9" s="1">
         <v>6.0</v>
@@ -8412,7 +8637,7 @@
         <v>18.0</v>
       </c>
       <c r="BJ9" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK9" s="1">
         <v>10.0</v>
@@ -8423,13 +8648,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1">
         <v>1.0</v>
@@ -8438,7 +8663,7 @@
         <v>1.0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G10" s="1">
         <v>26.0</v>
@@ -8450,7 +8675,7 @@
         <v>2.0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="K10" s="1">
         <v>26.0</v>
@@ -8462,7 +8687,7 @@
         <v>1.0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="O10" s="1">
         <v>19.0</v>
@@ -8474,7 +8699,7 @@
         <v>3.0</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="S10" s="1">
         <v>19.0</v>
@@ -8486,7 +8711,7 @@
         <v>3.0</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W10" s="1">
         <v>25.0</v>
@@ -8498,7 +8723,7 @@
         <v>6.0</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA10" s="1">
         <v>0.0</v>
@@ -8510,7 +8735,7 @@
         <v>2.0</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AE10" s="1">
         <v>13.0</v>
@@ -8522,7 +8747,7 @@
         <v>22.0</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI10" s="1">
         <v>0.0</v>
@@ -8534,7 +8759,7 @@
         <v>1.0</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AM10" s="1">
         <v>16.0</v>
@@ -8546,7 +8771,7 @@
         <v>22.0</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ10" s="1">
         <v>0.0</v>
@@ -8558,7 +8783,7 @@
         <v>15.0</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU10" s="1">
         <v>18.0</v>
@@ -8570,7 +8795,7 @@
         <v>15.0</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AY10" s="1">
         <v>5.0</v>
@@ -8582,7 +8807,7 @@
         <v>16.0</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="BC10" s="1">
         <v>26.0</v>
@@ -8594,7 +8819,7 @@
         <v>1.0</v>
       </c>
       <c r="BF10" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="BG10" s="1">
         <v>8.0</v>
@@ -8606,7 +8831,7 @@
         <v>19.0</v>
       </c>
       <c r="BJ10" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="BK10" s="1">
         <v>26.0</v>
@@ -8617,13 +8842,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D11" s="1">
         <v>14.0</v>
@@ -8632,7 +8857,7 @@
         <v>19.0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G11" s="1">
         <v>1.0</v>
@@ -8644,7 +8869,7 @@
         <v>5.0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K11" s="1">
         <v>8.0</v>
@@ -8656,7 +8881,7 @@
         <v>20.0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O11" s="1">
         <v>0.0</v>
@@ -8668,7 +8893,7 @@
         <v>10.0</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S11" s="1">
         <v>1.0</v>
@@ -8680,7 +8905,7 @@
         <v>14.0</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W11" s="1">
         <v>10.0</v>
@@ -8692,7 +8917,7 @@
         <v>22.0</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA11" s="1">
         <v>0.0</v>
@@ -8704,7 +8929,7 @@
         <v>22.0</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE11" s="1">
         <v>0.0</v>
@@ -8716,7 +8941,7 @@
         <v>22.0</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI11" s="1">
         <v>0.0</v>
@@ -8728,7 +8953,7 @@
         <v>22.0</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM11" s="1">
         <v>0.0</v>
@@ -8740,7 +8965,7 @@
         <v>22.0</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ11" s="1">
         <v>0.0</v>
@@ -8752,7 +8977,7 @@
         <v>22.0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU11" s="1">
         <v>0.0</v>
@@ -8764,7 +8989,7 @@
         <v>22.0</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY11" s="1">
         <v>0.0</v>
@@ -8776,7 +9001,7 @@
         <v>22.0</v>
       </c>
       <c r="BB11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC11" s="1">
         <v>0.0</v>
@@ -8788,7 +9013,7 @@
         <v>22.0</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG11" s="1">
         <v>0.0</v>
@@ -8800,7 +9025,7 @@
         <v>22.0</v>
       </c>
       <c r="BJ11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK11" s="1">
         <v>0.0</v>
@@ -8811,13 +9036,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1">
         <v>17.0</v>
@@ -8826,7 +9051,7 @@
         <v>8.0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G12" s="1">
         <v>1.0</v>
@@ -8838,7 +9063,7 @@
         <v>7.0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K12" s="1">
         <v>1.0</v>
@@ -8850,7 +9075,7 @@
         <v>19.0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O12" s="1">
         <v>0.0</v>
@@ -8862,7 +9087,7 @@
         <v>11.0</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S12" s="1">
         <v>1.0</v>
@@ -8874,7 +9099,7 @@
         <v>22.0</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W12" s="1">
         <v>0.0</v>
@@ -8886,7 +9111,7 @@
         <v>15.0</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA12" s="1">
         <v>4.0</v>
@@ -8898,7 +9123,7 @@
         <v>16.0</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE12" s="1">
         <v>8.0</v>
@@ -8910,7 +9135,7 @@
         <v>5.0</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI12" s="1">
         <v>1.0</v>
@@ -8922,7 +9147,7 @@
         <v>20.0</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM12" s="1">
         <v>1.0</v>
@@ -8934,7 +9159,7 @@
         <v>22.0</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ12" s="1">
         <v>0.0</v>
@@ -8946,7 +9171,7 @@
         <v>5.0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU12" s="1">
         <v>2.0</v>
@@ -8958,7 +9183,7 @@
         <v>22.0</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY12" s="1">
         <v>0.0</v>
@@ -8970,7 +9195,7 @@
         <v>22.0</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC12" s="1">
         <v>0.0</v>
@@ -8982,7 +9207,7 @@
         <v>20.0</v>
       </c>
       <c r="BF12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG12" s="1">
         <v>0.5</v>
@@ -8994,7 +9219,7 @@
         <v>12.0</v>
       </c>
       <c r="BJ12" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK12" s="1">
         <v>1.0</v>
@@ -9005,13 +9230,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D13" s="1">
         <v>18.0</v>
@@ -9020,7 +9245,7 @@
         <v>20.0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G13" s="1">
         <v>1.0</v>
@@ -9032,7 +9257,7 @@
         <v>19.0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K13" s="1">
         <v>1.0</v>
@@ -9044,7 +9269,7 @@
         <v>22.0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O13" s="1">
         <v>0.0</v>
@@ -9056,7 +9281,7 @@
         <v>22.0</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S13" s="1">
         <v>0.0</v>
@@ -9068,7 +9293,7 @@
         <v>22.0</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W13" s="1">
         <v>0.0</v>
@@ -9080,7 +9305,7 @@
         <v>22.0</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA13" s="1">
         <v>0.0</v>
@@ -9092,7 +9317,7 @@
         <v>22.0</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE13" s="1">
         <v>0.0</v>
@@ -9104,7 +9329,7 @@
         <v>22.0</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI13" s="1">
         <v>0.0</v>
@@ -9116,7 +9341,7 @@
         <v>22.0</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM13" s="1">
         <v>0.0</v>
@@ -9128,7 +9353,7 @@
         <v>22.0</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AQ13" s="1">
         <v>0.0</v>
@@ -9140,7 +9365,7 @@
         <v>22.0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU13" s="1">
         <v>0.0</v>
@@ -9152,7 +9377,7 @@
         <v>22.0</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY13" s="1">
         <v>0.0</v>
@@ -9164,7 +9389,7 @@
         <v>22.0</v>
       </c>
       <c r="BB13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC13" s="1">
         <v>0.0</v>
@@ -9176,7 +9401,7 @@
         <v>22.0</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG13" s="1">
         <v>0.0</v>
@@ -9188,7 +9413,7 @@
         <v>22.0</v>
       </c>
       <c r="BJ13" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK13" s="1">
         <v>0.0</v>
@@ -9199,13 +9424,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="G14" s="1">
         <v>0.0</v>
@@ -9244,7 +9469,7 @@
         <v>22.0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AU14" s="1">
         <v>0.0</v>
@@ -9256,7 +9481,7 @@
         <v>22.0</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AY14" s="1">
         <v>0.0</v>
@@ -9268,7 +9493,7 @@
         <v>22.0</v>
       </c>
       <c r="BB14" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BC14" s="1">
         <v>0.0</v>
@@ -9280,7 +9505,7 @@
         <v>22.0</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BG14" s="1">
         <v>0.0</v>
@@ -9292,7 +9517,7 @@
         <v>22.0</v>
       </c>
       <c r="BJ14" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BK14" s="1">
         <v>0.0</v>
@@ -9303,13 +9528,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
         <v>3.0</v>
@@ -9318,7 +9543,7 @@
         <v>18.0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G15" s="1">
         <v>15.0</v>
@@ -9330,7 +9555,7 @@
         <v>22.0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K15" s="1">
         <v>0.0</v>
@@ -9342,7 +9567,7 @@
         <v>3.0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O15" s="1">
         <v>1.0</v>
@@ -9354,7 +9579,7 @@
         <v>7.0</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="S15" s="1">
         <v>15.0</v>
@@ -9366,7 +9591,7 @@
         <v>4.0</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W15" s="1">
         <v>4.0</v>
@@ -9378,7 +9603,7 @@
         <v>22.0</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AA15" s="1">
         <v>0.0</v>
@@ -9390,7 +9615,7 @@
         <v>22.0</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AE15" s="1">
         <v>0.0</v>
@@ -9402,7 +9627,7 @@
         <v>22.0</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AI15" s="1">
         <v>0.0</v>
@@ -9414,7 +9639,7 @@
         <v>2.0</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AM15" s="1">
         <v>25.0</v>
@@ -9426,7 +9651,7 @@
         <v>1.0</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AQ15" s="1">
         <v>19.0</v>
@@ -9467,96 +9692,96 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="B16" s="2"/>
     </row>
@@ -9589,381 +9814,381 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="AB1" s="9" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="AE1" s="12" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AF1" s="6" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AG1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR1" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AU1" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AY1" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="BB1" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="BC1" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="BD1" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="BE1" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="BF1" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG1" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK1" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="BL1" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="BM1" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="BN1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO1" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="BP1" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="BQ1" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="BR1" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="BS1" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="BT1" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="BU1" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="BV1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="BW1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BX1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY1" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="BZ1" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="CA1" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="CB1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="CC1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="CD1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AI1" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AK1" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL1" s="12" t="s">
+      <c r="CE1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AM1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN1" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP1" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AQ1" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AR1" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS1" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AU1" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AV1" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW1" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX1" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AY1" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AZ1" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="BB1" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="BC1" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="BD1" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="BE1" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="BF1" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="BG1" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="BH1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="BI1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="BJ1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="BK1" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="BL1" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="BM1" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="BN1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="BO1" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="BP1" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="BQ1" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="BR1" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="BS1" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="BT1" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="BU1" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="BV1" s="6" t="s">
+      <c r="CF1" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="CG1" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="CH1" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="CI1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="BW1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BY1" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="BZ1" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="CA1" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="CB1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="CC1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CD1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="CE1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="CF1" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="CG1" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="CH1" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="CI1" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="CJ1" s="6" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="CK1" s="7" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="CL1" s="8" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="CM1" s="9" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="CN1" s="10" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="CO1" s="11" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="CP1" s="12" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="CQ1" s="6" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="CR1" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="CS1" s="8" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="CT1" s="9" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="CU1" s="10" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="CV1" s="11" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="CW1" s="12" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="CX1" s="6" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="CY1" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="CZ1" s="8" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="DA1" s="9" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="DB1" s="10" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="DC1" s="11" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="DD1" s="12" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="DE1" s="6" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="DF1" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="DG1" s="8" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="DH1" s="9" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="DI1" s="10" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="DJ1" s="11" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="DK1" s="12" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="DL1" s="6" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="DM1" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="DN1" s="8" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="DO1" s="9" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="DP1" s="10" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="DQ1" s="11" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="DR1" s="12" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="D2" s="15">
         <v>2.0</v>
@@ -9972,16 +10197,16 @@
         <v>3.0</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="J2" s="21">
         <f>IFERROR((VLOOKUP(D2,Scoring!$A:$B,2,0))+IF(F2="y",1,0)+IF(G2="y",1,0)+IF(H2="y",1,0)+IF(I2="y",1,0),0)</f>
@@ -9994,42 +10219,42 @@
         <v>2.0</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="Q2" s="22">
         <f>IFERROR((VLOOKUP(K2,Scoring!$D:$E,2,0))+IF(M2="y",1,0)+IF(N2="y",1,0)+IF(O2="y",1,0)+IF(P2="y",1,0),0)</f>
         <v>1</v>
       </c>
       <c r="R2" s="15">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="S2" s="16">
         <v>7.0</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="V2" s="19" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="W2" s="20" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="X2" s="21">
         <f>IFERROR((VLOOKUP(R2,Scoring!$A:$B,2,0))+IF(T2="y",1,0)+IF(U2="y",1,0)+IF(V2="y",1,0)+IF(W2="y",1,0),0)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y2" s="15"/>
       <c r="Z2" s="23"/>
@@ -10174,13 +10399,13 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="D3" s="28">
         <v>10.0</v>
@@ -10189,16 +10414,16 @@
         <v>6.0</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="J3" s="34">
         <f>IFERROR((VLOOKUP(D3,Scoring!$A:$B,2,0))+IF(F3="y",1,0)+IF(G3="y",1,0)+IF(H3="y",1,0)+IF(I3="y",1,0),0)</f>
@@ -10211,16 +10436,16 @@
         <v>22.0</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="Q3" s="35">
         <f>IFERROR((VLOOKUP(K3,Scoring!$D:$E,2,0))+IF(M3="y",1,0)+IF(N3="y",1,0)+IF(O3="y",1,0)+IF(P3="y",1,0),0)</f>
@@ -10233,16 +10458,16 @@
         <v>22.0</v>
       </c>
       <c r="T3" s="30" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U3" s="31" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="V3" s="32" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="W3" s="33" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="X3" s="34">
         <f>IFERROR((VLOOKUP(R3,Scoring!$A:$B,2,0))+IF(T3="y",1,0)+IF(U3="y",1,0)+IF(V3="y",1,0)+IF(W3="y",1,0),0)</f>
@@ -10391,13 +10616,13 @@
     </row>
     <row r="4">
       <c r="A4" s="41" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="D4" s="44">
         <v>3.0</v>
@@ -10406,16 +10631,16 @@
         <v>2.0</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="I4" s="49" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="J4" s="50">
         <f>IFERROR((VLOOKUP(D4,Scoring!$A:$B,2,0))+IF(F4="y",1,0)+IF(G4="y",1,0)+IF(H4="y",1,0)+IF(I4="y",1,0),0)</f>
@@ -10428,16 +10653,16 @@
         <v>3.0</v>
       </c>
       <c r="M4" s="46" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N4" s="47" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O4" s="48" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P4" s="49" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="51">
         <f>IFERROR((VLOOKUP(K4,Scoring!$D:$E,2,0))+IF(M4="y",1,0)+IF(N4="y",1,0)+IF(O4="y",1,0)+IF(P4="y",1,0),0)</f>
@@ -10450,16 +10675,16 @@
         <v>11.0</v>
       </c>
       <c r="T4" s="46" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U4" s="47" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="V4" s="48" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="W4" s="49" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="X4" s="50">
         <f>IFERROR((VLOOKUP(R4,Scoring!$A:$B,2,0))+IF(T4="y",1,0)+IF(U4="y",1,0)+IF(V4="y",1,0)+IF(W4="y",1,0),0)</f>
@@ -10608,13 +10833,13 @@
     </row>
     <row r="5">
       <c r="A5" s="57" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="D5" s="60">
         <v>22.0</v>
@@ -10623,16 +10848,16 @@
         <v>22.0</v>
       </c>
       <c r="F5" s="62" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="I5" s="65" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="J5" s="66">
         <f>IFERROR((VLOOKUP(D5,Scoring!$A:$B,2,0))+IF(F5="y",1,0)+IF(G5="y",1,0)+IF(H5="y",1,0)+IF(I5="y",1,0),0)</f>
@@ -10645,42 +10870,42 @@
         <v>9.0</v>
       </c>
       <c r="M5" s="62" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N5" s="63" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O5" s="64" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P5" s="65" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="67">
         <f>IFERROR((VLOOKUP(K5,Scoring!$D:$E,2,0))+IF(M5="y",1,0)+IF(N5="y",1,0)+IF(O5="y",1,0)+IF(P5="y",1,0),0)</f>
         <v>2</v>
       </c>
       <c r="R5" s="60">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="S5" s="61">
         <v>8.0</v>
       </c>
       <c r="T5" s="62" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U5" s="63" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="V5" s="64" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="W5" s="65" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="X5" s="66">
         <f>IFERROR((VLOOKUP(R5,Scoring!$A:$B,2,0))+IF(T5="y",1,0)+IF(U5="y",1,0)+IF(V5="y",1,0)+IF(W5="y",1,0),0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y5" s="60"/>
       <c r="Z5" s="68"/>
@@ -10825,13 +11050,13 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="D6" s="28">
         <v>1.0</v>
@@ -10840,16 +11065,16 @@
         <v>4.0</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="J6" s="34">
         <f>IFERROR((VLOOKUP(D6,Scoring!$A:$B,2,0))+IF(F6="y",1,0)+IF(G6="y",1,0)+IF(H6="y",1,0)+IF(I6="y",1,0),0)</f>
@@ -10862,16 +11087,16 @@
         <v>5.0</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="Q6" s="35">
         <f>IFERROR((VLOOKUP(K6,Scoring!$D:$E,2,0))+IF(M6="y",1,0)+IF(N6="y",1,0)+IF(O6="y",1,0)+IF(P6="y",1,0),0)</f>
@@ -10884,16 +11109,16 @@
         <v>12.0</v>
       </c>
       <c r="T6" s="30" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="U6" s="31" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="V6" s="32" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="W6" s="33" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="X6" s="34">
         <f>IFERROR((VLOOKUP(R6,Scoring!$A:$B,2,0))+IF(T6="y",1,0)+IF(U6="y",1,0)+IF(V6="y",1,0)+IF(W6="y",1,0),0)</f>
@@ -11042,13 +11267,13 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>269</v>
+        <v>25</v>
       </c>
       <c r="D7" s="28">
         <v>9.0</v>
@@ -11057,16 +11282,16 @@
         <v>7.0</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="J7" s="34">
         <f>IFERROR((VLOOKUP(D7,Scoring!$A:$B,2,0))+IF(F7="y",1,0)+IF(G7="y",1,0)+IF(H7="y",1,0)+IF(I7="y",1,0),0)</f>
@@ -11079,16 +11304,16 @@
         <v>7.0</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="Q7" s="35">
         <f>IFERROR((VLOOKUP(K7,Scoring!$D:$E,2,0))+IF(M7="y",1,0)+IF(N7="y",1,0)+IF(O7="y",1,0)+IF(P7="y",1,0),0)</f>
@@ -11101,16 +11326,16 @@
         <v>9.0</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U7" s="31" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="V7" s="32" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="W7" s="33" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="X7" s="34">
         <f>IFERROR((VLOOKUP(R7,Scoring!$A:$B,2,0))+IF(T7="y",1,0)+IF(U7="y",1,0)+IF(V7="y",1,0)+IF(W7="y",1,0),0)</f>
@@ -11259,13 +11484,13 @@
     </row>
     <row r="8">
       <c r="A8" s="41" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="D8" s="44">
         <v>4.0</v>
@@ -11274,16 +11499,16 @@
         <v>10.0</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="J8" s="50">
         <f>IFERROR((VLOOKUP(D8,Scoring!$A:$B,2,0))+IF(F8="y",1,0)+IF(G8="y",1,0)+IF(H8="y",1,0)+IF(I8="y",1,0),0)</f>
@@ -11296,16 +11521,16 @@
         <v>6.0</v>
       </c>
       <c r="M8" s="46" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N8" s="47" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O8" s="48" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P8" s="49" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="Q8" s="51">
         <f>IFERROR((VLOOKUP(K8,Scoring!$D:$E,2,0))+IF(M8="y",1,0)+IF(N8="y",1,0)+IF(O8="y",1,0)+IF(P8="y",1,0),0)</f>
@@ -11318,16 +11543,16 @@
         <v>3.0</v>
       </c>
       <c r="T8" s="46" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U8" s="47" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="V8" s="48" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="W8" s="49" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="X8" s="50">
         <f>IFERROR((VLOOKUP(R8,Scoring!$A:$B,2,0))+IF(T8="y",1,0)+IF(U8="y",1,0)+IF(V8="y",1,0)+IF(W8="y",1,0),0)</f>
@@ -11476,13 +11701,13 @@
     </row>
     <row r="9">
       <c r="A9" s="57" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>270</v>
+        <v>29</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>271</v>
+        <v>30</v>
       </c>
       <c r="D9" s="60">
         <v>15.0</v>
@@ -11491,16 +11716,16 @@
         <v>5.0</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H9" s="64" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="J9" s="66">
         <f>IFERROR((VLOOKUP(D9,Scoring!$A:$B,2,0))+IF(F9="y",1,0)+IF(G9="y",1,0)+IF(H9="y",1,0)+IF(I9="y",1,0),0)</f>
@@ -11513,16 +11738,16 @@
         <v>8.0</v>
       </c>
       <c r="M9" s="62" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N9" s="63" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O9" s="64" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P9" s="65" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="Q9" s="67">
         <f>IFERROR((VLOOKUP(K9,Scoring!$D:$E,2,0))+IF(M9="y",1,0)+IF(N9="y",1,0)+IF(O9="y",1,0)+IF(P9="y",1,0),0)</f>
@@ -11535,16 +11760,16 @@
         <v>6.0</v>
       </c>
       <c r="T9" s="62" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U9" s="63" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="V9" s="64" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="W9" s="65" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="X9" s="66">
         <f>IFERROR((VLOOKUP(R9,Scoring!$A:$B,2,0))+IF(T9="y",1,0)+IF(U9="y",1,0)+IF(V9="y",1,0)+IF(W9="y",1,0),0)</f>
@@ -11693,13 +11918,13 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="D10" s="28">
         <v>5.0</v>
@@ -11708,16 +11933,16 @@
         <v>8.0</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="J10" s="34">
         <f>IFERROR((VLOOKUP(D10,Scoring!$A:$B,2,0))+IF(F10="y",1,0)+IF(G10="y",1,0)+IF(H10="y",1,0)+IF(I10="y",1,0),0)</f>
@@ -11730,42 +11955,42 @@
         <v>11.0</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N10" s="31" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="Q10" s="35">
         <f>IFERROR((VLOOKUP(K10,Scoring!$D:$E,2,0))+IF(M10="y",1,0)+IF(N10="y",1,0)+IF(O10="y",1,0)+IF(P10="y",1,0),0)</f>
         <v>4</v>
       </c>
       <c r="R10" s="28">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="S10" s="29">
         <v>10.0</v>
       </c>
       <c r="T10" s="30" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U10" s="31" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="V10" s="32" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="X10" s="34">
         <f>IFERROR((VLOOKUP(R10,Scoring!$A:$B,2,0))+IF(T10="y",1,0)+IF(U10="y",1,0)+IF(V10="y",1,0)+IF(W10="y",1,0),0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y10" s="28"/>
       <c r="Z10" s="36"/>
@@ -11910,13 +12135,13 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="D11" s="28">
         <v>7.0</v>
@@ -11925,16 +12150,16 @@
         <v>12.0</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="J11" s="34">
         <f>IFERROR((VLOOKUP(D11,Scoring!$A:$B,2,0))+IF(F11="y",1,0)+IF(G11="y",1,0)+IF(H11="y",1,0)+IF(I11="y",1,0),0)</f>
@@ -11947,16 +12172,16 @@
         <v>10.0</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N11" s="31" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="35">
         <f>IFERROR((VLOOKUP(K11,Scoring!$D:$E,2,0))+IF(M11="y",1,0)+IF(N11="y",1,0)+IF(O11="y",1,0)+IF(P11="y",1,0),0)</f>
@@ -11969,16 +12194,16 @@
         <v>15.0</v>
       </c>
       <c r="T11" s="30" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U11" s="31" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="V11" s="32" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="W11" s="33" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="X11" s="34">
         <f>IFERROR((VLOOKUP(R11,Scoring!$A:$B,2,0))+IF(T11="y",1,0)+IF(U11="y",1,0)+IF(V11="y",1,0)+IF(W11="y",1,0),0)</f>
@@ -12127,13 +12352,13 @@
     </row>
     <row r="12">
       <c r="A12" s="41" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="D12" s="44">
         <v>6.0</v>
@@ -12142,16 +12367,16 @@
         <v>9.0</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="I12" s="49" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="J12" s="50">
         <f>IFERROR((VLOOKUP(D12,Scoring!$A:$B,2,0))+IF(F12="y",1,0)+IF(G12="y",1,0)+IF(H12="y",1,0)+IF(I12="y",1,0),0)</f>
@@ -12164,42 +12389,42 @@
         <v>13.0</v>
       </c>
       <c r="M12" s="46" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N12" s="47" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O12" s="48" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P12" s="49" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="Q12" s="51">
         <f>IFERROR((VLOOKUP(K12,Scoring!$D:$E,2,0))+IF(M12="y",1,0)+IF(N12="y",1,0)+IF(O12="y",1,0)+IF(P12="y",1,0),0)</f>
         <v>0.5</v>
       </c>
       <c r="R12" s="44">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="S12" s="45">
         <v>4.0</v>
       </c>
       <c r="T12" s="46" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U12" s="47" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="V12" s="48" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="W12" s="49" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="X12" s="50">
         <f>IFERROR((VLOOKUP(R12,Scoring!$A:$B,2,0))+IF(T12="y",1,0)+IF(U12="y",1,0)+IF(V12="y",1,0)+IF(W12="y",1,0),0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y12" s="44"/>
       <c r="Z12" s="52"/>
@@ -12344,13 +12569,13 @@
     </row>
     <row r="13">
       <c r="A13" s="57" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>272</v>
+        <v>39</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="D13" s="60">
         <v>11.0</v>
@@ -12359,16 +12584,16 @@
         <v>15.0</v>
       </c>
       <c r="F13" s="62" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H13" s="64" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="I13" s="65" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="J13" s="66">
         <f>IFERROR((VLOOKUP(D13,Scoring!$A:$B,2,0))+IF(F13="y",1,0)+IF(G13="y",1,0)+IF(H13="y",1,0)+IF(I13="y",1,0),0)</f>
@@ -12381,16 +12606,16 @@
         <v>12.0</v>
       </c>
       <c r="M13" s="62" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N13" s="63" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O13" s="64" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P13" s="65" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="67">
         <f>IFERROR((VLOOKUP(K13,Scoring!$D:$E,2,0))+IF(M13="y",1,0)+IF(N13="y",1,0)+IF(O13="y",1,0)+IF(P13="y",1,0),0)</f>
@@ -12403,16 +12628,16 @@
         <v>5.0</v>
       </c>
       <c r="T13" s="62" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U13" s="63" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="V13" s="64" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="W13" s="65" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="X13" s="66">
         <f>IFERROR((VLOOKUP(R13,Scoring!$A:$B,2,0))+IF(T13="y",1,0)+IF(U13="y",1,0)+IF(V13="y",1,0)+IF(W13="y",1,0),0)</f>
@@ -12561,13 +12786,13 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>274</v>
+        <v>42</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>275</v>
+        <v>43</v>
       </c>
       <c r="D14" s="28">
         <v>8.0</v>
@@ -12576,16 +12801,16 @@
         <v>1.0</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="J14" s="34">
         <f>IFERROR((VLOOKUP(D14,Scoring!$A:$B,2,0))+IF(F14="y",1,0)+IF(G14="y",1,0)+IF(H14="y",1,0)+IF(I14="y",1,0),0)</f>
@@ -12598,42 +12823,42 @@
         <v>4.0</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N14" s="31" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="35">
         <f>IFERROR((VLOOKUP(K14,Scoring!$D:$E,2,0))+IF(M14="y",1,0)+IF(N14="y",1,0)+IF(O14="y",1,0)+IF(P14="y",1,0),0)</f>
         <v>7</v>
       </c>
       <c r="R14" s="28">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="S14" s="29">
         <v>13.0</v>
       </c>
       <c r="T14" s="30" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U14" s="31" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="V14" s="32" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="W14" s="33" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="X14" s="34">
         <f>IFERROR((VLOOKUP(R14,Scoring!$A:$B,2,0))+IF(T14="y",1,0)+IF(U14="y",1,0)+IF(V14="y",1,0)+IF(W14="y",1,0),0)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Y14" s="28"/>
       <c r="Z14" s="36"/>
@@ -12778,13 +13003,13 @@
     </row>
     <row r="15">
       <c r="A15" s="73" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="D15" s="76">
         <v>21.0</v>
@@ -12793,16 +13018,16 @@
         <v>22.0</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G15" s="79" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H15" s="80" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="I15" s="81" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="J15" s="82">
         <f>IFERROR((VLOOKUP(D15,Scoring!$A:$B,2,0))+IF(F15="y",1,0)+IF(G15="y",1,0)+IF(H15="y",1,0)+IF(I15="y",1,0),0)</f>
@@ -12815,16 +13040,16 @@
         <v>1.0</v>
       </c>
       <c r="M15" s="78" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N15" s="79" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O15" s="80" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P15" s="81" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="Q15" s="83">
         <f>IFERROR((VLOOKUP(K15,Scoring!$D:$E,2,0))+IF(M15="y",1,0)+IF(N15="y",1,0)+IF(O15="y",1,0)+IF(P15="y",1,0),0)</f>
@@ -12837,16 +13062,16 @@
         <v>14.0</v>
       </c>
       <c r="T15" s="78" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U15" s="79" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="V15" s="80" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="W15" s="81" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="X15" s="82">
         <f>IFERROR((VLOOKUP(R15,Scoring!$A:$B,2,0))+IF(T15="y",1,0)+IF(U15="y",1,0)+IF(V15="y",1,0)+IF(W15="y",1,0),0)</f>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="310">
   <si>
     <t>Positions</t>
   </si>
@@ -10256,15 +10256,27 @@
         <f>IFERROR((VLOOKUP(R2,Scoring!$A:$B,2,0))+IF(T2="y",1,0)+IF(U2="y",1,0)+IF(V2="y",1,0)+IF(W2="y",1,0),0)</f>
         <v>16</v>
       </c>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="27"/>
+      <c r="Y2" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="Z2" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC2" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>279</v>
+      </c>
       <c r="AE2" s="21">
         <f>IFERROR((VLOOKUP(Y2,Scoring!$A:$B,2,0))+IF(AA2="y",1,0)+IF(AB2="y",1,0)+IF(AC2="y",1,0)+IF(AD2="y",1,0),0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AF2" s="15"/>
       <c r="AG2" s="23"/>
@@ -10473,15 +10485,27 @@
         <f>IFERROR((VLOOKUP(R3,Scoring!$A:$B,2,0))+IF(T3="y",1,0)+IF(U3="y",1,0)+IF(V3="y",1,0)+IF(W3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="40"/>
+      <c r="Y3" s="28">
+        <v>11.0</v>
+      </c>
+      <c r="Z3" s="29">
+        <v>7.0</v>
+      </c>
+      <c r="AA3" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB3" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC3" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD3" s="33" t="s">
+        <v>279</v>
+      </c>
       <c r="AE3" s="34">
         <f>IFERROR((VLOOKUP(Y3,Scoring!$A:$B,2,0))+IF(AA3="y",1,0)+IF(AB3="y",1,0)+IF(AC3="y",1,0)+IF(AD3="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3" s="28"/>
       <c r="AG3" s="36"/>
@@ -10690,15 +10714,27 @@
         <f>IFERROR((VLOOKUP(R4,Scoring!$A:$B,2,0))+IF(T4="y",1,0)+IF(U4="y",1,0)+IF(V4="y",1,0)+IF(W4="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="56"/>
+      <c r="Y4" s="44">
+        <v>10.0</v>
+      </c>
+      <c r="Z4" s="45">
+        <v>14.0</v>
+      </c>
+      <c r="AA4" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB4" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC4" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD4" s="49" t="s">
+        <v>278</v>
+      </c>
       <c r="AE4" s="50">
         <f>IFERROR((VLOOKUP(Y4,Scoring!$A:$B,2,0))+IF(AA4="y",1,0)+IF(AB4="y",1,0)+IF(AC4="y",1,0)+IF(AD4="y",1,0),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF4" s="44"/>
       <c r="AG4" s="52"/>
@@ -10907,15 +10943,27 @@
         <f>IFERROR((VLOOKUP(R5,Scoring!$A:$B,2,0))+IF(T5="y",1,0)+IF(U5="y",1,0)+IF(V5="y",1,0)+IF(W5="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="72"/>
+      <c r="Y5" s="60">
+        <v>13.0</v>
+      </c>
+      <c r="Z5" s="61">
+        <v>13.0</v>
+      </c>
+      <c r="AA5" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB5" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC5" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD5" s="65" t="s">
+        <v>279</v>
+      </c>
       <c r="AE5" s="66">
         <f>IFERROR((VLOOKUP(Y5,Scoring!$A:$B,2,0))+IF(AA5="y",1,0)+IF(AB5="y",1,0)+IF(AC5="y",1,0)+IF(AD5="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="60"/>
       <c r="AG5" s="68"/>
@@ -11124,15 +11172,27 @@
         <f>IFERROR((VLOOKUP(R6,Scoring!$A:$B,2,0))+IF(T6="y",1,0)+IF(U6="y",1,0)+IF(V6="y",1,0)+IF(W6="y",1,0),0)</f>
         <v>5</v>
       </c>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="40"/>
+      <c r="Y6" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>6.0</v>
+      </c>
+      <c r="AA6" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB6" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC6" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD6" s="33" t="s">
+        <v>279</v>
+      </c>
       <c r="AE6" s="34">
         <f>IFERROR((VLOOKUP(Y6,Scoring!$A:$B,2,0))+IF(AA6="y",1,0)+IF(AB6="y",1,0)+IF(AC6="y",1,0)+IF(AD6="y",1,0),0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF6" s="28"/>
       <c r="AG6" s="36"/>
@@ -11341,15 +11401,27 @@
         <f>IFERROR((VLOOKUP(R7,Scoring!$A:$B,2,0))+IF(T7="y",1,0)+IF(U7="y",1,0)+IF(V7="y",1,0)+IF(W7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="40"/>
+      <c r="Y7" s="28">
+        <v>4.0</v>
+      </c>
+      <c r="Z7" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="AA7" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB7" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC7" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD7" s="33" t="s">
+        <v>279</v>
+      </c>
       <c r="AE7" s="34">
         <f>IFERROR((VLOOKUP(Y7,Scoring!$A:$B,2,0))+IF(AA7="y",1,0)+IF(AB7="y",1,0)+IF(AC7="y",1,0)+IF(AD7="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF7" s="28"/>
       <c r="AG7" s="36"/>
@@ -11558,15 +11630,27 @@
         <f>IFERROR((VLOOKUP(R8,Scoring!$A:$B,2,0))+IF(T8="y",1,0)+IF(U8="y",1,0)+IF(V8="y",1,0)+IF(W8="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="56"/>
+      <c r="Y8" s="44">
+        <v>6.0</v>
+      </c>
+      <c r="Z8" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="AA8" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB8" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC8" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD8" s="49" t="s">
+        <v>279</v>
+      </c>
       <c r="AE8" s="50">
         <f>IFERROR((VLOOKUP(Y8,Scoring!$A:$B,2,0))+IF(AA8="y",1,0)+IF(AB8="y",1,0)+IF(AC8="y",1,0)+IF(AD8="y",1,0),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF8" s="44"/>
       <c r="AG8" s="52"/>
@@ -11775,15 +11859,27 @@
         <f>IFERROR((VLOOKUP(R9,Scoring!$A:$B,2,0))+IF(T9="y",1,0)+IF(U9="y",1,0)+IF(V9="y",1,0)+IF(W9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="72"/>
+      <c r="Y9" s="60">
+        <v>5.0</v>
+      </c>
+      <c r="Z9" s="61">
+        <v>4.0</v>
+      </c>
+      <c r="AA9" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB9" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC9" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD9" s="65" t="s">
+        <v>279</v>
+      </c>
       <c r="AE9" s="66">
         <f>IFERROR((VLOOKUP(Y9,Scoring!$A:$B,2,0))+IF(AA9="y",1,0)+IF(AB9="y",1,0)+IF(AC9="y",1,0)+IF(AD9="y",1,0),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF9" s="60"/>
       <c r="AG9" s="68"/>
@@ -11992,15 +12088,27 @@
         <f>IFERROR((VLOOKUP(R10,Scoring!$A:$B,2,0))+IF(T10="y",1,0)+IF(U10="y",1,0)+IF(V10="y",1,0)+IF(W10="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="40"/>
+      <c r="Y10" s="28">
+        <v>8.0</v>
+      </c>
+      <c r="Z10" s="29">
+        <v>15.0</v>
+      </c>
+      <c r="AA10" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB10" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD10" s="33" t="s">
+        <v>279</v>
+      </c>
       <c r="AE10" s="34">
         <f>IFERROR((VLOOKUP(Y10,Scoring!$A:$B,2,0))+IF(AA10="y",1,0)+IF(AB10="y",1,0)+IF(AC10="y",1,0)+IF(AD10="y",1,0),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF10" s="28"/>
       <c r="AG10" s="36"/>
@@ -12209,12 +12317,24 @@
         <f>IFERROR((VLOOKUP(R11,Scoring!$A:$B,2,0))+IF(T11="y",1,0)+IF(U11="y",1,0)+IF(V11="y",1,0)+IF(W11="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="40"/>
+      <c r="Y11" s="28">
+        <v>21.0</v>
+      </c>
+      <c r="Z11" s="29">
+        <v>11.0</v>
+      </c>
+      <c r="AA11" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB11" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC11" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD11" s="33" t="s">
+        <v>279</v>
+      </c>
       <c r="AE11" s="34">
         <f>IFERROR((VLOOKUP(Y11,Scoring!$A:$B,2,0))+IF(AA11="y",1,0)+IF(AB11="y",1,0)+IF(AC11="y",1,0)+IF(AD11="y",1,0),0)</f>
         <v>0</v>
@@ -12426,15 +12546,27 @@
         <f>IFERROR((VLOOKUP(R12,Scoring!$A:$B,2,0))+IF(T12="y",1,0)+IF(U12="y",1,0)+IF(V12="y",1,0)+IF(W12="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="56"/>
+      <c r="Y12" s="44">
+        <v>7.0</v>
+      </c>
+      <c r="Z12" s="45">
+        <v>9.0</v>
+      </c>
+      <c r="AA12" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB12" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC12" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD12" s="49" t="s">
+        <v>279</v>
+      </c>
       <c r="AE12" s="50">
         <f>IFERROR((VLOOKUP(Y12,Scoring!$A:$B,2,0))+IF(AA12="y",1,0)+IF(AB12="y",1,0)+IF(AC12="y",1,0)+IF(AD12="y",1,0),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF12" s="44"/>
       <c r="AG12" s="52"/>
@@ -12643,15 +12775,27 @@
         <f>IFERROR((VLOOKUP(R13,Scoring!$A:$B,2,0))+IF(T13="y",1,0)+IF(U13="y",1,0)+IF(V13="y",1,0)+IF(W13="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="72"/>
+      <c r="Y13" s="60">
+        <v>12.0</v>
+      </c>
+      <c r="Z13" s="61">
+        <v>10.0</v>
+      </c>
+      <c r="AA13" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB13" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC13" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD13" s="65" t="s">
+        <v>279</v>
+      </c>
       <c r="AE13" s="66">
         <f>IFERROR((VLOOKUP(Y13,Scoring!$A:$B,2,0))+IF(AA13="y",1,0)+IF(AB13="y",1,0)+IF(AC13="y",1,0)+IF(AD13="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="60"/>
       <c r="AG13" s="68"/>
@@ -12860,15 +13004,27 @@
         <f>IFERROR((VLOOKUP(R14,Scoring!$A:$B,2,0))+IF(T14="y",1,0)+IF(U14="y",1,0)+IF(V14="y",1,0)+IF(W14="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="40"/>
+      <c r="Y14" s="28">
+        <v>9.0</v>
+      </c>
+      <c r="Z14" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="AA14" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB14" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC14" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD14" s="33" t="s">
+        <v>279</v>
+      </c>
       <c r="AE14" s="34">
         <f>IFERROR((VLOOKUP(Y14,Scoring!$A:$B,2,0))+IF(AA14="y",1,0)+IF(AB14="y",1,0)+IF(AC14="y",1,0)+IF(AD14="y",1,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF14" s="28"/>
       <c r="AG14" s="36"/>
@@ -13077,15 +13233,27 @@
         <f>IFERROR((VLOOKUP(R15,Scoring!$A:$B,2,0))+IF(T15="y",1,0)+IF(U15="y",1,0)+IF(V15="y",1,0)+IF(W15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="88"/>
+      <c r="Y15" s="76">
+        <v>1.0</v>
+      </c>
+      <c r="Z15" s="77">
+        <v>1.0</v>
+      </c>
+      <c r="AA15" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB15" s="79" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC15" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD15" s="81" t="s">
+        <v>279</v>
+      </c>
       <c r="AE15" s="82">
         <f>IFERROR((VLOOKUP(Y15,Scoring!$A:$B,2,0))+IF(AA15="y",1,0)+IF(AB15="y",1,0)+IF(AC15="y",1,0)+IF(AD15="y",1,0),0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF15" s="76"/>
       <c r="AG15" s="84"/>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -11402,7 +11402,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="28">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z7" s="29">
         <v>3.0</v>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="AE7" s="34">
         <f>IFERROR((VLOOKUP(Y7,Scoring!$A:$B,2,0))+IF(AA7="y",1,0)+IF(AB7="y",1,0)+IF(AC7="y",1,0)+IF(AD7="y",1,0),0)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF7" s="28"/>
       <c r="AG7" s="36"/>
@@ -11860,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="60">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z9" s="61">
         <v>4.0</v>
@@ -11879,7 +11879,7 @@
       </c>
       <c r="AE9" s="66">
         <f>IFERROR((VLOOKUP(Y9,Scoring!$A:$B,2,0))+IF(AA9="y",1,0)+IF(AB9="y",1,0)+IF(AC9="y",1,0)+IF(AD9="y",1,0),0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF9" s="60"/>
       <c r="AG9" s="68"/>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -886,19 +886,19 @@
     <t>10/8/2025</t>
   </si>
   <si>
+    <t>10/22/2025</t>
+  </si>
+  <si>
+    <t>10/29/2025</t>
+  </si>
+  <si>
     <t>Confirmed</t>
   </si>
   <si>
-    <t>10/22/2025</t>
+    <t>11/5/2025</t>
   </si>
   <si>
     <t>Tentative</t>
-  </si>
-  <si>
-    <t>10/29/2025</t>
-  </si>
-  <si>
-    <t>11/5/2025</t>
   </si>
   <si>
     <t>Austria (Reverse)</t>
@@ -1949,7 +1949,7 @@
         <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5">
@@ -1960,7 +1960,7 @@
         <v>287</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6">
@@ -1968,10 +1968,10 @@
         <v>145</v>
       </c>
       <c r="B6" s="89" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7">
@@ -1979,7 +1979,7 @@
         <v>156</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>290</v>
@@ -1990,10 +1990,10 @@
         <v>192</v>
       </c>
       <c r="B8" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="9">
@@ -2004,7 +2004,7 @@
         <v>294</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10">
@@ -2015,7 +2015,7 @@
         <v>296</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11">
@@ -2026,7 +2026,7 @@
         <v>296</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12">
@@ -2037,7 +2037,7 @@
         <v>298</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13">
@@ -2048,7 +2048,7 @@
         <v>298</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14">
@@ -2059,7 +2059,7 @@
         <v>299</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15">
@@ -2070,7 +2070,7 @@
         <v>300</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16">
@@ -2081,7 +2081,7 @@
         <v>302</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17">
@@ -2092,7 +2092,7 @@
         <v>304</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18">
@@ -2103,7 +2103,7 @@
         <v>305</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19">
@@ -2114,7 +2114,7 @@
         <v>307</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20">
@@ -2125,7 +2125,7 @@
         <v>309</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="310">
   <si>
     <t>Positions</t>
   </si>
@@ -1164,7 +1164,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1259,6 +1259,9 @@
     <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1293,6 +1296,9 @@
     </xf>
     <xf borderId="10" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1331,6 +1337,9 @@
     <xf borderId="13" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="13" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1365,6 +1374,9 @@
     </xf>
     <xf borderId="16" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="16" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1923,7 +1935,7 @@
       <c r="A2" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="93" t="s">
         <v>283</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1934,7 +1946,7 @@
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="93" t="s">
         <v>285</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1945,7 +1957,7 @@
       <c r="A4" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="93" t="s">
         <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1956,7 +1968,7 @@
       <c r="A5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="93" t="s">
         <v>287</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1967,7 +1979,7 @@
       <c r="A6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="93" t="s">
         <v>288</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1978,7 +1990,7 @@
       <c r="A7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="93" t="s">
         <v>289</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1989,7 +2001,7 @@
       <c r="A8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="93" t="s">
         <v>291</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2000,7 +2012,7 @@
       <c r="A9" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="93" t="s">
         <v>294</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2011,7 +2023,7 @@
       <c r="A10" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="93" t="s">
         <v>296</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2022,7 +2034,7 @@
       <c r="A11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="93" t="s">
         <v>296</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2033,7 +2045,7 @@
       <c r="A12" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="93" t="s">
         <v>298</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2044,7 +2056,7 @@
       <c r="A13" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="93" t="s">
         <v>298</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2055,7 +2067,7 @@
       <c r="A14" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="93" t="s">
         <v>299</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2066,7 +2078,7 @@
       <c r="A15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="93" t="s">
         <v>300</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2077,7 +2089,7 @@
       <c r="A16" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="93" t="s">
         <v>302</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2088,7 +2100,7 @@
       <c r="A17" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="93" t="s">
         <v>304</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2099,7 +2111,7 @@
       <c r="A18" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="93" t="s">
         <v>305</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2110,7 +2122,7 @@
       <c r="A19" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="93" t="s">
         <v>307</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2121,7 +2133,7 @@
       <c r="A20" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="93" t="s">
         <v>309</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -10278,15 +10290,27 @@
         <f>IFERROR((VLOOKUP(Y2,Scoring!$A:$B,2,0))+IF(AA2="y",1,0)+IF(AB2="y",1,0)+IF(AC2="y",1,0)+IF(AD2="y",1,0),0)</f>
         <v>19</v>
       </c>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="27"/>
+      <c r="AF2" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="AG2" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="AH2" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI2" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ2" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="AL2" s="21">
         <f>IFERROR((VLOOKUP(AF2,Scoring!$A:$B,2,0))+IF(AH2="y",1,0)+IF(AI2="y",1,0)+IF(AJ2="y",1,0)+IF(AK2="y",1,0),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM2" s="15"/>
       <c r="AN2" s="23"/>
@@ -10507,591 +10531,627 @@
         <f>IFERROR((VLOOKUP(Y3,Scoring!$A:$B,2,0))+IF(AA3="y",1,0)+IF(AB3="y",1,0)+IF(AC3="y",1,0)+IF(AD3="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="40"/>
+      <c r="AF3" s="28">
+        <v>22.0</v>
+      </c>
+      <c r="AG3" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="AH3" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI3" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ3" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK3" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="AL3" s="34">
         <f>IFERROR((VLOOKUP(AF3,Scoring!$A:$B,2,0))+IF(AH3="y",1,0)+IF(AI3="y",1,0)+IF(AJ3="y",1,0)+IF(AK3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AM3" s="28"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="39"/>
-      <c r="AR3" s="40"/>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="41"/>
       <c r="AS3" s="34">
         <f>IFERROR((VLOOKUP(AM3,Scoring!$A:$B,2,0))+IF(AO3="y",1,0)+IF(AP3="y",1,0)+IF(AQ3="y",1,0)+IF(AR3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AT3" s="28"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="40"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="41"/>
       <c r="AZ3" s="34">
         <f>IFERROR((VLOOKUP(AT3,Scoring!$A:$B,2,0))+IF(AV3="y",1,0)+IF(AW3="y",1,0)+IF(AX3="y",1,0)+IF(AY3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BA3" s="28"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="38"/>
-      <c r="BE3" s="39"/>
-      <c r="BF3" s="40"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="38"/>
+      <c r="BD3" s="39"/>
+      <c r="BE3" s="40"/>
+      <c r="BF3" s="41"/>
       <c r="BG3" s="34">
         <f>IFERROR((VLOOKUP(BA3,Scoring!$A:$B,2,0))+IF(BC3="y",1,0)+IF(BD3="y",1,0)+IF(BE3="y",1,0)+IF(BF3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BH3" s="28"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="38"/>
-      <c r="BL3" s="39"/>
-      <c r="BM3" s="40"/>
+      <c r="BI3" s="37"/>
+      <c r="BJ3" s="38"/>
+      <c r="BK3" s="39"/>
+      <c r="BL3" s="40"/>
+      <c r="BM3" s="41"/>
       <c r="BN3" s="34">
         <f>IFERROR((VLOOKUP(BH3,Scoring!$A:$B,2,0))+IF(BJ3="y",1,0)+IF(BK3="y",1,0)+IF(BL3="y",1,0)+IF(BM3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BO3" s="28"/>
-      <c r="BP3" s="36"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="38"/>
-      <c r="BS3" s="39"/>
-      <c r="BT3" s="40"/>
+      <c r="BP3" s="37"/>
+      <c r="BQ3" s="38"/>
+      <c r="BR3" s="39"/>
+      <c r="BS3" s="40"/>
+      <c r="BT3" s="41"/>
       <c r="BU3" s="34">
         <f>IFERROR((VLOOKUP(BO3,Scoring!$A:$B,2,0))+IF(BQ3="y",1,0)+IF(BR3="y",1,0)+IF(BS3="y",1,0)+IF(BT3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BV3" s="28"/>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="37"/>
-      <c r="BY3" s="38"/>
-      <c r="BZ3" s="39"/>
-      <c r="CA3" s="40"/>
+      <c r="BW3" s="37"/>
+      <c r="BX3" s="38"/>
+      <c r="BY3" s="39"/>
+      <c r="BZ3" s="40"/>
+      <c r="CA3" s="41"/>
       <c r="CB3" s="34">
         <f>IFERROR((VLOOKUP(BV3,Scoring!$A:$B,2,0))+IF(BX3="y",1,0)+IF(BY3="y",1,0)+IF(BZ3="y",1,0)+IF(CA3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CC3" s="28"/>
-      <c r="CD3" s="36"/>
-      <c r="CE3" s="37"/>
-      <c r="CF3" s="38"/>
-      <c r="CG3" s="39"/>
-      <c r="CH3" s="40"/>
+      <c r="CD3" s="37"/>
+      <c r="CE3" s="38"/>
+      <c r="CF3" s="39"/>
+      <c r="CG3" s="40"/>
+      <c r="CH3" s="41"/>
       <c r="CI3" s="34">
         <f>IFERROR((VLOOKUP(CC3,Scoring!$A:$B,2,0))+IF(CE3="y",1,0)+IF(CF3="y",1,0)+IF(CG3="y",1,0)+IF(CH3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CJ3" s="28"/>
-      <c r="CK3" s="36"/>
-      <c r="CL3" s="37"/>
-      <c r="CM3" s="38"/>
-      <c r="CN3" s="39"/>
-      <c r="CO3" s="40"/>
+      <c r="CK3" s="37"/>
+      <c r="CL3" s="38"/>
+      <c r="CM3" s="39"/>
+      <c r="CN3" s="40"/>
+      <c r="CO3" s="41"/>
       <c r="CP3" s="34">
         <f>IFERROR((VLOOKUP(CJ3,Scoring!$A:$B,2,0))+IF(CL3="y",1,0)+IF(CM3="y",1,0)+IF(CN3="y",1,0)+IF(CO3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CQ3" s="28"/>
-      <c r="CR3" s="36"/>
-      <c r="CS3" s="37"/>
-      <c r="CT3" s="38"/>
-      <c r="CU3" s="39"/>
-      <c r="CV3" s="40"/>
+      <c r="CR3" s="37"/>
+      <c r="CS3" s="38"/>
+      <c r="CT3" s="39"/>
+      <c r="CU3" s="40"/>
+      <c r="CV3" s="41"/>
       <c r="CW3" s="34">
         <f>IFERROR((VLOOKUP(CQ3,Scoring!$A:$B,2,0))+IF(CS3="y",1,0)+IF(CT3="y",1,0)+IF(CU3="y",1,0)+IF(CV3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CX3" s="28"/>
-      <c r="CY3" s="36"/>
-      <c r="CZ3" s="37"/>
-      <c r="DA3" s="38"/>
-      <c r="DB3" s="39"/>
-      <c r="DC3" s="40"/>
+      <c r="CY3" s="37"/>
+      <c r="CZ3" s="38"/>
+      <c r="DA3" s="39"/>
+      <c r="DB3" s="40"/>
+      <c r="DC3" s="41"/>
       <c r="DD3" s="34">
         <f>IFERROR((VLOOKUP(CX3,Scoring!$A:$B,2,0))+IF(CZ3="y",1,0)+IF(DA3="y",1,0)+IF(DB3="y",1,0)+IF(DC3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="DE3" s="28"/>
-      <c r="DF3" s="36"/>
-      <c r="DG3" s="37"/>
-      <c r="DH3" s="38"/>
-      <c r="DI3" s="39"/>
-      <c r="DJ3" s="40"/>
+      <c r="DF3" s="37"/>
+      <c r="DG3" s="38"/>
+      <c r="DH3" s="39"/>
+      <c r="DI3" s="40"/>
+      <c r="DJ3" s="41"/>
       <c r="DK3" s="34">
         <f>IFERROR((VLOOKUP(DE3,Scoring!$A:$B,2,0))+IF(DG3="y",1,0)+IF(DH3="y",1,0)+IF(DI3="y",1,0)+IF(DJ3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="DL3" s="28"/>
-      <c r="DM3" s="36"/>
-      <c r="DN3" s="37"/>
-      <c r="DO3" s="38"/>
-      <c r="DP3" s="39"/>
-      <c r="DQ3" s="40"/>
+      <c r="DM3" s="37"/>
+      <c r="DN3" s="38"/>
+      <c r="DO3" s="39"/>
+      <c r="DP3" s="40"/>
+      <c r="DQ3" s="41"/>
       <c r="DR3" s="34">
         <f>IFERROR((VLOOKUP(DL3,Scoring!$A:$B,2,0))+IF(DN3="y",1,0)+IF(DO3="y",1,0)+IF(DP3="y",1,0)+IF(DQ3="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="45">
         <v>3.0</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="46">
         <v>2.0</v>
       </c>
-      <c r="F4" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="J4" s="50">
+      <c r="F4" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="J4" s="51">
         <f>IFERROR((VLOOKUP(D4,Scoring!$A:$B,2,0))+IF(F4="y",1,0)+IF(G4="y",1,0)+IF(H4="y",1,0)+IF(I4="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="45">
         <v>4.0</v>
       </c>
-      <c r="L4" s="45">
+      <c r="L4" s="46">
         <v>3.0</v>
       </c>
-      <c r="M4" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="N4" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="O4" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="P4" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q4" s="51">
+      <c r="M4" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="O4" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="P4" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q4" s="52">
         <f>IFERROR((VLOOKUP(K4,Scoring!$D:$E,2,0))+IF(M4="y",1,0)+IF(N4="y",1,0)+IF(O4="y",1,0)+IF(P4="y",1,0),0)</f>
         <v>5</v>
       </c>
-      <c r="R4" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="S4" s="45">
+      <c r="R4" s="45">
+        <v>1.0</v>
+      </c>
+      <c r="S4" s="46">
         <v>11.0</v>
       </c>
-      <c r="T4" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="U4" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="V4" s="48" t="s">
+      <c r="T4" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="U4" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="V4" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="W4" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="X4" s="50">
+      <c r="W4" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="X4" s="51">
         <f>IFERROR((VLOOKUP(R4,Scoring!$A:$B,2,0))+IF(T4="y",1,0)+IF(U4="y",1,0)+IF(V4="y",1,0)+IF(W4="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="Y4" s="44">
+      <c r="Y4" s="45">
         <v>10.0</v>
       </c>
-      <c r="Z4" s="45">
+      <c r="Z4" s="46">
         <v>14.0</v>
       </c>
-      <c r="AA4" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB4" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC4" s="48" t="s">
+      <c r="AA4" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB4" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC4" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="AD4" s="49" t="s">
+      <c r="AD4" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="AE4" s="50">
+      <c r="AE4" s="51">
         <f>IFERROR((VLOOKUP(Y4,Scoring!$A:$B,2,0))+IF(AA4="y",1,0)+IF(AB4="y",1,0)+IF(AC4="y",1,0)+IF(AD4="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="50">
+      <c r="AF4" s="45">
+        <v>6.0</v>
+      </c>
+      <c r="AG4" s="46">
+        <v>4.0</v>
+      </c>
+      <c r="AH4" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI4" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ4" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK4" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="AL4" s="51">
         <f>IFERROR((VLOOKUP(AF4,Scoring!$A:$B,2,0))+IF(AH4="y",1,0)+IF(AI4="y",1,0)+IF(AJ4="y",1,0)+IF(AK4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="56"/>
-      <c r="AS4" s="50">
+        <v>9</v>
+      </c>
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="51">
         <f>IFERROR((VLOOKUP(AM4,Scoring!$A:$B,2,0))+IF(AO4="y",1,0)+IF(AP4="y",1,0)+IF(AQ4="y",1,0)+IF(AR4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="50">
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="57"/>
+      <c r="AY4" s="58"/>
+      <c r="AZ4" s="51">
         <f>IFERROR((VLOOKUP(AT4,Scoring!$A:$B,2,0))+IF(AV4="y",1,0)+IF(AW4="y",1,0)+IF(AX4="y",1,0)+IF(AY4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="53"/>
-      <c r="BD4" s="54"/>
-      <c r="BE4" s="55"/>
-      <c r="BF4" s="56"/>
-      <c r="BG4" s="50">
+      <c r="BA4" s="45"/>
+      <c r="BB4" s="54"/>
+      <c r="BC4" s="55"/>
+      <c r="BD4" s="56"/>
+      <c r="BE4" s="57"/>
+      <c r="BF4" s="58"/>
+      <c r="BG4" s="51">
         <f>IFERROR((VLOOKUP(BA4,Scoring!$A:$B,2,0))+IF(BC4="y",1,0)+IF(BD4="y",1,0)+IF(BE4="y",1,0)+IF(BF4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH4" s="44"/>
-      <c r="BI4" s="52"/>
-      <c r="BJ4" s="53"/>
-      <c r="BK4" s="54"/>
-      <c r="BL4" s="55"/>
-      <c r="BM4" s="56"/>
-      <c r="BN4" s="50">
+      <c r="BH4" s="45"/>
+      <c r="BI4" s="54"/>
+      <c r="BJ4" s="55"/>
+      <c r="BK4" s="56"/>
+      <c r="BL4" s="57"/>
+      <c r="BM4" s="58"/>
+      <c r="BN4" s="51">
         <f>IFERROR((VLOOKUP(BH4,Scoring!$A:$B,2,0))+IF(BJ4="y",1,0)+IF(BK4="y",1,0)+IF(BL4="y",1,0)+IF(BM4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO4" s="44"/>
-      <c r="BP4" s="52"/>
-      <c r="BQ4" s="53"/>
-      <c r="BR4" s="54"/>
-      <c r="BS4" s="55"/>
-      <c r="BT4" s="56"/>
-      <c r="BU4" s="50">
+      <c r="BO4" s="45"/>
+      <c r="BP4" s="54"/>
+      <c r="BQ4" s="55"/>
+      <c r="BR4" s="56"/>
+      <c r="BS4" s="57"/>
+      <c r="BT4" s="58"/>
+      <c r="BU4" s="51">
         <f>IFERROR((VLOOKUP(BO4,Scoring!$A:$B,2,0))+IF(BQ4="y",1,0)+IF(BR4="y",1,0)+IF(BS4="y",1,0)+IF(BT4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV4" s="44"/>
-      <c r="BW4" s="52"/>
-      <c r="BX4" s="53"/>
-      <c r="BY4" s="54"/>
-      <c r="BZ4" s="55"/>
-      <c r="CA4" s="56"/>
-      <c r="CB4" s="50">
+      <c r="BV4" s="45"/>
+      <c r="BW4" s="54"/>
+      <c r="BX4" s="55"/>
+      <c r="BY4" s="56"/>
+      <c r="BZ4" s="57"/>
+      <c r="CA4" s="58"/>
+      <c r="CB4" s="51">
         <f>IFERROR((VLOOKUP(BV4,Scoring!$A:$B,2,0))+IF(BX4="y",1,0)+IF(BY4="y",1,0)+IF(BZ4="y",1,0)+IF(CA4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC4" s="44"/>
-      <c r="CD4" s="52"/>
-      <c r="CE4" s="53"/>
-      <c r="CF4" s="54"/>
-      <c r="CG4" s="55"/>
-      <c r="CH4" s="56"/>
-      <c r="CI4" s="50">
+      <c r="CC4" s="45"/>
+      <c r="CD4" s="54"/>
+      <c r="CE4" s="55"/>
+      <c r="CF4" s="56"/>
+      <c r="CG4" s="57"/>
+      <c r="CH4" s="58"/>
+      <c r="CI4" s="51">
         <f>IFERROR((VLOOKUP(CC4,Scoring!$A:$B,2,0))+IF(CE4="y",1,0)+IF(CF4="y",1,0)+IF(CG4="y",1,0)+IF(CH4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ4" s="44"/>
-      <c r="CK4" s="52"/>
-      <c r="CL4" s="53"/>
-      <c r="CM4" s="54"/>
-      <c r="CN4" s="55"/>
-      <c r="CO4" s="56"/>
-      <c r="CP4" s="50">
+      <c r="CJ4" s="45"/>
+      <c r="CK4" s="54"/>
+      <c r="CL4" s="55"/>
+      <c r="CM4" s="56"/>
+      <c r="CN4" s="57"/>
+      <c r="CO4" s="58"/>
+      <c r="CP4" s="51">
         <f>IFERROR((VLOOKUP(CJ4,Scoring!$A:$B,2,0))+IF(CL4="y",1,0)+IF(CM4="y",1,0)+IF(CN4="y",1,0)+IF(CO4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ4" s="44"/>
-      <c r="CR4" s="52"/>
-      <c r="CS4" s="53"/>
-      <c r="CT4" s="54"/>
-      <c r="CU4" s="55"/>
-      <c r="CV4" s="56"/>
-      <c r="CW4" s="50">
+      <c r="CQ4" s="45"/>
+      <c r="CR4" s="54"/>
+      <c r="CS4" s="55"/>
+      <c r="CT4" s="56"/>
+      <c r="CU4" s="57"/>
+      <c r="CV4" s="58"/>
+      <c r="CW4" s="51">
         <f>IFERROR((VLOOKUP(CQ4,Scoring!$A:$B,2,0))+IF(CS4="y",1,0)+IF(CT4="y",1,0)+IF(CU4="y",1,0)+IF(CV4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX4" s="44"/>
-      <c r="CY4" s="52"/>
-      <c r="CZ4" s="53"/>
-      <c r="DA4" s="54"/>
-      <c r="DB4" s="55"/>
-      <c r="DC4" s="56"/>
-      <c r="DD4" s="50">
+      <c r="CX4" s="45"/>
+      <c r="CY4" s="54"/>
+      <c r="CZ4" s="55"/>
+      <c r="DA4" s="56"/>
+      <c r="DB4" s="57"/>
+      <c r="DC4" s="58"/>
+      <c r="DD4" s="51">
         <f>IFERROR((VLOOKUP(CX4,Scoring!$A:$B,2,0))+IF(CZ4="y",1,0)+IF(DA4="y",1,0)+IF(DB4="y",1,0)+IF(DC4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE4" s="44"/>
-      <c r="DF4" s="52"/>
-      <c r="DG4" s="53"/>
-      <c r="DH4" s="54"/>
-      <c r="DI4" s="55"/>
-      <c r="DJ4" s="56"/>
-      <c r="DK4" s="50">
+      <c r="DE4" s="45"/>
+      <c r="DF4" s="54"/>
+      <c r="DG4" s="55"/>
+      <c r="DH4" s="56"/>
+      <c r="DI4" s="57"/>
+      <c r="DJ4" s="58"/>
+      <c r="DK4" s="51">
         <f>IFERROR((VLOOKUP(DE4,Scoring!$A:$B,2,0))+IF(DG4="y",1,0)+IF(DH4="y",1,0)+IF(DI4="y",1,0)+IF(DJ4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL4" s="44"/>
-      <c r="DM4" s="52"/>
-      <c r="DN4" s="53"/>
-      <c r="DO4" s="54"/>
-      <c r="DP4" s="55"/>
-      <c r="DQ4" s="56"/>
-      <c r="DR4" s="50">
+      <c r="DL4" s="45"/>
+      <c r="DM4" s="54"/>
+      <c r="DN4" s="55"/>
+      <c r="DO4" s="56"/>
+      <c r="DP4" s="57"/>
+      <c r="DQ4" s="58"/>
+      <c r="DR4" s="51">
         <f>IFERROR((VLOOKUP(DL4,Scoring!$A:$B,2,0))+IF(DN4="y",1,0)+IF(DO4="y",1,0)+IF(DP4="y",1,0)+IF(DQ4="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="60">
-        <v>22.0</v>
-      </c>
-      <c r="E5" s="61">
-        <v>22.0</v>
-      </c>
-      <c r="F5" s="62" t="s">
-        <v>279</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="I5" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="J5" s="66">
+      <c r="D5" s="62">
+        <v>22.0</v>
+      </c>
+      <c r="E5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="J5" s="68">
         <f>IFERROR((VLOOKUP(D5,Scoring!$A:$B,2,0))+IF(F5="y",1,0)+IF(G5="y",1,0)+IF(H5="y",1,0)+IF(I5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="60">
+      <c r="K5" s="62">
         <v>7.0</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="63">
         <v>9.0</v>
       </c>
-      <c r="M5" s="62" t="s">
-        <v>279</v>
-      </c>
-      <c r="N5" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="O5" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="P5" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q5" s="67">
+      <c r="M5" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="N5" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="O5" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="P5" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q5" s="69">
         <f>IFERROR((VLOOKUP(K5,Scoring!$D:$E,2,0))+IF(M5="y",1,0)+IF(N5="y",1,0)+IF(O5="y",1,0)+IF(P5="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="R5" s="60">
+      <c r="R5" s="62">
         <v>5.0</v>
       </c>
-      <c r="S5" s="61">
+      <c r="S5" s="63">
         <v>8.0</v>
       </c>
-      <c r="T5" s="62" t="s">
-        <v>279</v>
-      </c>
-      <c r="U5" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="V5" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="W5" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="X5" s="66">
+      <c r="T5" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="U5" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="V5" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="W5" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="X5" s="68">
         <f>IFERROR((VLOOKUP(R5,Scoring!$A:$B,2,0))+IF(T5="y",1,0)+IF(U5="y",1,0)+IF(V5="y",1,0)+IF(W5="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="Y5" s="60">
+      <c r="Y5" s="62">
         <v>13.0</v>
       </c>
-      <c r="Z5" s="61">
+      <c r="Z5" s="63">
         <v>13.0</v>
       </c>
-      <c r="AA5" s="62" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB5" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC5" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD5" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="AE5" s="66">
+      <c r="AA5" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB5" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC5" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD5" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE5" s="68">
         <f>IFERROR((VLOOKUP(Y5,Scoring!$A:$B,2,0))+IF(AA5="y",1,0)+IF(AB5="y",1,0)+IF(AC5="y",1,0)+IF(AD5="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="71"/>
-      <c r="AK5" s="72"/>
-      <c r="AL5" s="66">
+      <c r="AF5" s="62">
+        <v>10.0</v>
+      </c>
+      <c r="AG5" s="63">
+        <v>11.0</v>
+      </c>
+      <c r="AH5" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI5" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ5" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK5" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL5" s="68">
         <f>IFERROR((VLOOKUP(AF5,Scoring!$A:$B,2,0))+IF(AH5="y",1,0)+IF(AI5="y",1,0)+IF(AJ5="y",1,0)+IF(AK5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM5" s="60"/>
-      <c r="AN5" s="68"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="70"/>
-      <c r="AQ5" s="71"/>
-      <c r="AR5" s="72"/>
-      <c r="AS5" s="66">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="71"/>
+      <c r="AO5" s="72"/>
+      <c r="AP5" s="73"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="75"/>
+      <c r="AS5" s="68">
         <f>IFERROR((VLOOKUP(AM5,Scoring!$A:$B,2,0))+IF(AO5="y",1,0)+IF(AP5="y",1,0)+IF(AQ5="y",1,0)+IF(AR5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="60"/>
-      <c r="AU5" s="68"/>
-      <c r="AV5" s="69"/>
-      <c r="AW5" s="70"/>
-      <c r="AX5" s="71"/>
-      <c r="AY5" s="72"/>
-      <c r="AZ5" s="66">
+      <c r="AT5" s="62"/>
+      <c r="AU5" s="71"/>
+      <c r="AV5" s="72"/>
+      <c r="AW5" s="73"/>
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="68">
         <f>IFERROR((VLOOKUP(AT5,Scoring!$A:$B,2,0))+IF(AV5="y",1,0)+IF(AW5="y",1,0)+IF(AX5="y",1,0)+IF(AY5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA5" s="60"/>
-      <c r="BB5" s="68"/>
-      <c r="BC5" s="69"/>
-      <c r="BD5" s="70"/>
-      <c r="BE5" s="71"/>
-      <c r="BF5" s="72"/>
-      <c r="BG5" s="66">
+      <c r="BA5" s="62"/>
+      <c r="BB5" s="71"/>
+      <c r="BC5" s="72"/>
+      <c r="BD5" s="73"/>
+      <c r="BE5" s="74"/>
+      <c r="BF5" s="75"/>
+      <c r="BG5" s="68">
         <f>IFERROR((VLOOKUP(BA5,Scoring!$A:$B,2,0))+IF(BC5="y",1,0)+IF(BD5="y",1,0)+IF(BE5="y",1,0)+IF(BF5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH5" s="60"/>
-      <c r="BI5" s="68"/>
-      <c r="BJ5" s="69"/>
-      <c r="BK5" s="70"/>
-      <c r="BL5" s="71"/>
-      <c r="BM5" s="72"/>
-      <c r="BN5" s="66">
+      <c r="BH5" s="62"/>
+      <c r="BI5" s="71"/>
+      <c r="BJ5" s="72"/>
+      <c r="BK5" s="73"/>
+      <c r="BL5" s="74"/>
+      <c r="BM5" s="75"/>
+      <c r="BN5" s="68">
         <f>IFERROR((VLOOKUP(BH5,Scoring!$A:$B,2,0))+IF(BJ5="y",1,0)+IF(BK5="y",1,0)+IF(BL5="y",1,0)+IF(BM5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO5" s="60"/>
-      <c r="BP5" s="68"/>
-      <c r="BQ5" s="69"/>
-      <c r="BR5" s="70"/>
-      <c r="BS5" s="71"/>
-      <c r="BT5" s="72"/>
-      <c r="BU5" s="66">
+      <c r="BO5" s="62"/>
+      <c r="BP5" s="71"/>
+      <c r="BQ5" s="72"/>
+      <c r="BR5" s="73"/>
+      <c r="BS5" s="74"/>
+      <c r="BT5" s="75"/>
+      <c r="BU5" s="68">
         <f>IFERROR((VLOOKUP(BO5,Scoring!$A:$B,2,0))+IF(BQ5="y",1,0)+IF(BR5="y",1,0)+IF(BS5="y",1,0)+IF(BT5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV5" s="60"/>
-      <c r="BW5" s="68"/>
-      <c r="BX5" s="69"/>
-      <c r="BY5" s="70"/>
-      <c r="BZ5" s="71"/>
-      <c r="CA5" s="72"/>
-      <c r="CB5" s="66">
+      <c r="BV5" s="62"/>
+      <c r="BW5" s="71"/>
+      <c r="BX5" s="72"/>
+      <c r="BY5" s="73"/>
+      <c r="BZ5" s="74"/>
+      <c r="CA5" s="75"/>
+      <c r="CB5" s="68">
         <f>IFERROR((VLOOKUP(BV5,Scoring!$A:$B,2,0))+IF(BX5="y",1,0)+IF(BY5="y",1,0)+IF(BZ5="y",1,0)+IF(CA5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC5" s="60"/>
-      <c r="CD5" s="68"/>
-      <c r="CE5" s="69"/>
-      <c r="CF5" s="70"/>
-      <c r="CG5" s="71"/>
-      <c r="CH5" s="72"/>
-      <c r="CI5" s="66">
+      <c r="CC5" s="62"/>
+      <c r="CD5" s="71"/>
+      <c r="CE5" s="72"/>
+      <c r="CF5" s="73"/>
+      <c r="CG5" s="74"/>
+      <c r="CH5" s="75"/>
+      <c r="CI5" s="68">
         <f>IFERROR((VLOOKUP(CC5,Scoring!$A:$B,2,0))+IF(CE5="y",1,0)+IF(CF5="y",1,0)+IF(CG5="y",1,0)+IF(CH5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ5" s="60"/>
-      <c r="CK5" s="68"/>
-      <c r="CL5" s="69"/>
-      <c r="CM5" s="70"/>
-      <c r="CN5" s="71"/>
-      <c r="CO5" s="72"/>
-      <c r="CP5" s="66">
+      <c r="CJ5" s="62"/>
+      <c r="CK5" s="71"/>
+      <c r="CL5" s="72"/>
+      <c r="CM5" s="73"/>
+      <c r="CN5" s="74"/>
+      <c r="CO5" s="75"/>
+      <c r="CP5" s="68">
         <f>IFERROR((VLOOKUP(CJ5,Scoring!$A:$B,2,0))+IF(CL5="y",1,0)+IF(CM5="y",1,0)+IF(CN5="y",1,0)+IF(CO5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ5" s="60"/>
-      <c r="CR5" s="68"/>
-      <c r="CS5" s="69"/>
-      <c r="CT5" s="70"/>
-      <c r="CU5" s="71"/>
-      <c r="CV5" s="72"/>
-      <c r="CW5" s="66">
+      <c r="CQ5" s="62"/>
+      <c r="CR5" s="71"/>
+      <c r="CS5" s="72"/>
+      <c r="CT5" s="73"/>
+      <c r="CU5" s="74"/>
+      <c r="CV5" s="75"/>
+      <c r="CW5" s="68">
         <f>IFERROR((VLOOKUP(CQ5,Scoring!$A:$B,2,0))+IF(CS5="y",1,0)+IF(CT5="y",1,0)+IF(CU5="y",1,0)+IF(CV5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX5" s="60"/>
-      <c r="CY5" s="68"/>
-      <c r="CZ5" s="69"/>
-      <c r="DA5" s="70"/>
-      <c r="DB5" s="71"/>
-      <c r="DC5" s="72"/>
-      <c r="DD5" s="66">
+      <c r="CX5" s="62"/>
+      <c r="CY5" s="71"/>
+      <c r="CZ5" s="72"/>
+      <c r="DA5" s="73"/>
+      <c r="DB5" s="74"/>
+      <c r="DC5" s="75"/>
+      <c r="DD5" s="68">
         <f>IFERROR((VLOOKUP(CX5,Scoring!$A:$B,2,0))+IF(CZ5="y",1,0)+IF(DA5="y",1,0)+IF(DB5="y",1,0)+IF(DC5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE5" s="60"/>
-      <c r="DF5" s="68"/>
-      <c r="DG5" s="69"/>
-      <c r="DH5" s="70"/>
-      <c r="DI5" s="71"/>
-      <c r="DJ5" s="72"/>
-      <c r="DK5" s="66">
+      <c r="DE5" s="62"/>
+      <c r="DF5" s="71"/>
+      <c r="DG5" s="72"/>
+      <c r="DH5" s="73"/>
+      <c r="DI5" s="74"/>
+      <c r="DJ5" s="75"/>
+      <c r="DK5" s="68">
         <f>IFERROR((VLOOKUP(DE5,Scoring!$A:$B,2,0))+IF(DG5="y",1,0)+IF(DH5="y",1,0)+IF(DI5="y",1,0)+IF(DJ5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL5" s="60"/>
-      <c r="DM5" s="68"/>
-      <c r="DN5" s="69"/>
-      <c r="DO5" s="70"/>
-      <c r="DP5" s="71"/>
-      <c r="DQ5" s="72"/>
-      <c r="DR5" s="66">
+      <c r="DL5" s="62"/>
+      <c r="DM5" s="71"/>
+      <c r="DN5" s="72"/>
+      <c r="DO5" s="73"/>
+      <c r="DP5" s="74"/>
+      <c r="DQ5" s="75"/>
+      <c r="DR5" s="68">
         <f>IFERROR((VLOOKUP(DL5,Scoring!$A:$B,2,0))+IF(DN5="y",1,0)+IF(DO5="y",1,0)+IF(DP5="y",1,0)+IF(DQ5="y",1,0),0)</f>
         <v>0</v>
       </c>
@@ -11194,132 +11254,144 @@
         <f>IFERROR((VLOOKUP(Y6,Scoring!$A:$B,2,0))+IF(AA6="y",1,0)+IF(AB6="y",1,0)+IF(AC6="y",1,0)+IF(AD6="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="40"/>
+      <c r="AF6" s="28">
+        <v>4.0</v>
+      </c>
+      <c r="AG6" s="29">
+        <v>6.0</v>
+      </c>
+      <c r="AH6" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI6" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ6" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK6" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="AL6" s="34">
         <f>IFERROR((VLOOKUP(AF6,Scoring!$A:$B,2,0))+IF(AH6="y",1,0)+IF(AI6="y",1,0)+IF(AJ6="y",1,0)+IF(AK6="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM6" s="28"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="40"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="41"/>
       <c r="AS6" s="34">
         <f>IFERROR((VLOOKUP(AM6,Scoring!$A:$B,2,0))+IF(AO6="y",1,0)+IF(AP6="y",1,0)+IF(AQ6="y",1,0)+IF(AR6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AT6" s="28"/>
-      <c r="AU6" s="36"/>
-      <c r="AV6" s="37"/>
-      <c r="AW6" s="38"/>
-      <c r="AX6" s="39"/>
-      <c r="AY6" s="40"/>
+      <c r="AU6" s="37"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="39"/>
+      <c r="AX6" s="40"/>
+      <c r="AY6" s="41"/>
       <c r="AZ6" s="34">
         <f>IFERROR((VLOOKUP(AT6,Scoring!$A:$B,2,0))+IF(AV6="y",1,0)+IF(AW6="y",1,0)+IF(AX6="y",1,0)+IF(AY6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BA6" s="28"/>
-      <c r="BB6" s="36"/>
-      <c r="BC6" s="37"/>
-      <c r="BD6" s="38"/>
-      <c r="BE6" s="39"/>
-      <c r="BF6" s="40"/>
+      <c r="BB6" s="37"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="39"/>
+      <c r="BE6" s="40"/>
+      <c r="BF6" s="41"/>
       <c r="BG6" s="34">
         <f>IFERROR((VLOOKUP(BA6,Scoring!$A:$B,2,0))+IF(BC6="y",1,0)+IF(BD6="y",1,0)+IF(BE6="y",1,0)+IF(BF6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BH6" s="28"/>
-      <c r="BI6" s="36"/>
-      <c r="BJ6" s="37"/>
-      <c r="BK6" s="38"/>
-      <c r="BL6" s="39"/>
-      <c r="BM6" s="40"/>
+      <c r="BI6" s="37"/>
+      <c r="BJ6" s="38"/>
+      <c r="BK6" s="39"/>
+      <c r="BL6" s="40"/>
+      <c r="BM6" s="41"/>
       <c r="BN6" s="34">
         <f>IFERROR((VLOOKUP(BH6,Scoring!$A:$B,2,0))+IF(BJ6="y",1,0)+IF(BK6="y",1,0)+IF(BL6="y",1,0)+IF(BM6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BO6" s="28"/>
-      <c r="BP6" s="36"/>
-      <c r="BQ6" s="37"/>
-      <c r="BR6" s="38"/>
-      <c r="BS6" s="39"/>
-      <c r="BT6" s="40"/>
+      <c r="BP6" s="37"/>
+      <c r="BQ6" s="38"/>
+      <c r="BR6" s="39"/>
+      <c r="BS6" s="40"/>
+      <c r="BT6" s="41"/>
       <c r="BU6" s="34">
         <f>IFERROR((VLOOKUP(BO6,Scoring!$A:$B,2,0))+IF(BQ6="y",1,0)+IF(BR6="y",1,0)+IF(BS6="y",1,0)+IF(BT6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BV6" s="28"/>
-      <c r="BW6" s="36"/>
-      <c r="BX6" s="37"/>
-      <c r="BY6" s="38"/>
-      <c r="BZ6" s="39"/>
-      <c r="CA6" s="40"/>
+      <c r="BW6" s="37"/>
+      <c r="BX6" s="38"/>
+      <c r="BY6" s="39"/>
+      <c r="BZ6" s="40"/>
+      <c r="CA6" s="41"/>
       <c r="CB6" s="34">
         <f>IFERROR((VLOOKUP(BV6,Scoring!$A:$B,2,0))+IF(BX6="y",1,0)+IF(BY6="y",1,0)+IF(BZ6="y",1,0)+IF(CA6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CC6" s="28"/>
-      <c r="CD6" s="36"/>
-      <c r="CE6" s="37"/>
-      <c r="CF6" s="38"/>
-      <c r="CG6" s="39"/>
-      <c r="CH6" s="40"/>
+      <c r="CD6" s="37"/>
+      <c r="CE6" s="38"/>
+      <c r="CF6" s="39"/>
+      <c r="CG6" s="40"/>
+      <c r="CH6" s="41"/>
       <c r="CI6" s="34">
         <f>IFERROR((VLOOKUP(CC6,Scoring!$A:$B,2,0))+IF(CE6="y",1,0)+IF(CF6="y",1,0)+IF(CG6="y",1,0)+IF(CH6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CJ6" s="28"/>
-      <c r="CK6" s="36"/>
-      <c r="CL6" s="37"/>
-      <c r="CM6" s="38"/>
-      <c r="CN6" s="39"/>
-      <c r="CO6" s="40"/>
+      <c r="CK6" s="37"/>
+      <c r="CL6" s="38"/>
+      <c r="CM6" s="39"/>
+      <c r="CN6" s="40"/>
+      <c r="CO6" s="41"/>
       <c r="CP6" s="34">
         <f>IFERROR((VLOOKUP(CJ6,Scoring!$A:$B,2,0))+IF(CL6="y",1,0)+IF(CM6="y",1,0)+IF(CN6="y",1,0)+IF(CO6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CQ6" s="28"/>
-      <c r="CR6" s="36"/>
-      <c r="CS6" s="37"/>
-      <c r="CT6" s="38"/>
-      <c r="CU6" s="39"/>
-      <c r="CV6" s="40"/>
+      <c r="CR6" s="37"/>
+      <c r="CS6" s="38"/>
+      <c r="CT6" s="39"/>
+      <c r="CU6" s="40"/>
+      <c r="CV6" s="41"/>
       <c r="CW6" s="34">
         <f>IFERROR((VLOOKUP(CQ6,Scoring!$A:$B,2,0))+IF(CS6="y",1,0)+IF(CT6="y",1,0)+IF(CU6="y",1,0)+IF(CV6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CX6" s="28"/>
-      <c r="CY6" s="36"/>
-      <c r="CZ6" s="37"/>
-      <c r="DA6" s="38"/>
-      <c r="DB6" s="39"/>
-      <c r="DC6" s="40"/>
+      <c r="CY6" s="37"/>
+      <c r="CZ6" s="38"/>
+      <c r="DA6" s="39"/>
+      <c r="DB6" s="40"/>
+      <c r="DC6" s="41"/>
       <c r="DD6" s="34">
         <f>IFERROR((VLOOKUP(CX6,Scoring!$A:$B,2,0))+IF(CZ6="y",1,0)+IF(DA6="y",1,0)+IF(DB6="y",1,0)+IF(DC6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="DE6" s="28"/>
-      <c r="DF6" s="36"/>
-      <c r="DG6" s="37"/>
-      <c r="DH6" s="38"/>
-      <c r="DI6" s="39"/>
-      <c r="DJ6" s="40"/>
+      <c r="DF6" s="37"/>
+      <c r="DG6" s="38"/>
+      <c r="DH6" s="39"/>
+      <c r="DI6" s="40"/>
+      <c r="DJ6" s="41"/>
       <c r="DK6" s="34">
         <f>IFERROR((VLOOKUP(DE6,Scoring!$A:$B,2,0))+IF(DG6="y",1,0)+IF(DH6="y",1,0)+IF(DI6="y",1,0)+IF(DJ6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="DL6" s="28"/>
-      <c r="DM6" s="36"/>
-      <c r="DN6" s="37"/>
-      <c r="DO6" s="38"/>
-      <c r="DP6" s="39"/>
-      <c r="DQ6" s="40"/>
+      <c r="DM6" s="37"/>
+      <c r="DN6" s="38"/>
+      <c r="DO6" s="39"/>
+      <c r="DP6" s="40"/>
+      <c r="DQ6" s="41"/>
       <c r="DR6" s="34">
         <f>IFERROR((VLOOKUP(DL6,Scoring!$A:$B,2,0))+IF(DN6="y",1,0)+IF(DO6="y",1,0)+IF(DP6="y",1,0)+IF(DQ6="y",1,0),0)</f>
         <v>0</v>
@@ -11423,591 +11495,627 @@
         <f>IFERROR((VLOOKUP(Y7,Scoring!$A:$B,2,0))+IF(AA7="y",1,0)+IF(AB7="y",1,0)+IF(AC7="y",1,0)+IF(AD7="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="40"/>
+      <c r="AF7" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="AG7" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="AH7" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI7" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ7" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK7" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="AL7" s="34">
         <f>IFERROR((VLOOKUP(AF7,Scoring!$A:$B,2,0))+IF(AH7="y",1,0)+IF(AI7="y",1,0)+IF(AJ7="y",1,0)+IF(AK7="y",1,0),0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AM7" s="28"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="40"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="41"/>
       <c r="AS7" s="34">
         <f>IFERROR((VLOOKUP(AM7,Scoring!$A:$B,2,0))+IF(AO7="y",1,0)+IF(AP7="y",1,0)+IF(AQ7="y",1,0)+IF(AR7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AT7" s="28"/>
-      <c r="AU7" s="36"/>
-      <c r="AV7" s="37"/>
-      <c r="AW7" s="38"/>
-      <c r="AX7" s="39"/>
-      <c r="AY7" s="40"/>
+      <c r="AU7" s="37"/>
+      <c r="AV7" s="38"/>
+      <c r="AW7" s="39"/>
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="41"/>
       <c r="AZ7" s="34">
         <f>IFERROR((VLOOKUP(AT7,Scoring!$A:$B,2,0))+IF(AV7="y",1,0)+IF(AW7="y",1,0)+IF(AX7="y",1,0)+IF(AY7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BA7" s="28"/>
-      <c r="BB7" s="36"/>
-      <c r="BC7" s="37"/>
-      <c r="BD7" s="38"/>
-      <c r="BE7" s="39"/>
-      <c r="BF7" s="40"/>
+      <c r="BB7" s="37"/>
+      <c r="BC7" s="38"/>
+      <c r="BD7" s="39"/>
+      <c r="BE7" s="40"/>
+      <c r="BF7" s="41"/>
       <c r="BG7" s="34">
         <f>IFERROR((VLOOKUP(BA7,Scoring!$A:$B,2,0))+IF(BC7="y",1,0)+IF(BD7="y",1,0)+IF(BE7="y",1,0)+IF(BF7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BH7" s="28"/>
-      <c r="BI7" s="36"/>
-      <c r="BJ7" s="37"/>
-      <c r="BK7" s="38"/>
-      <c r="BL7" s="39"/>
-      <c r="BM7" s="40"/>
+      <c r="BI7" s="37"/>
+      <c r="BJ7" s="38"/>
+      <c r="BK7" s="39"/>
+      <c r="BL7" s="40"/>
+      <c r="BM7" s="41"/>
       <c r="BN7" s="34">
         <f>IFERROR((VLOOKUP(BH7,Scoring!$A:$B,2,0))+IF(BJ7="y",1,0)+IF(BK7="y",1,0)+IF(BL7="y",1,0)+IF(BM7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BO7" s="28"/>
-      <c r="BP7" s="36"/>
-      <c r="BQ7" s="37"/>
-      <c r="BR7" s="38"/>
-      <c r="BS7" s="39"/>
-      <c r="BT7" s="40"/>
+      <c r="BP7" s="37"/>
+      <c r="BQ7" s="38"/>
+      <c r="BR7" s="39"/>
+      <c r="BS7" s="40"/>
+      <c r="BT7" s="41"/>
       <c r="BU7" s="34">
         <f>IFERROR((VLOOKUP(BO7,Scoring!$A:$B,2,0))+IF(BQ7="y",1,0)+IF(BR7="y",1,0)+IF(BS7="y",1,0)+IF(BT7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BV7" s="28"/>
-      <c r="BW7" s="36"/>
-      <c r="BX7" s="37"/>
-      <c r="BY7" s="38"/>
-      <c r="BZ7" s="39"/>
-      <c r="CA7" s="40"/>
+      <c r="BW7" s="37"/>
+      <c r="BX7" s="38"/>
+      <c r="BY7" s="39"/>
+      <c r="BZ7" s="40"/>
+      <c r="CA7" s="41"/>
       <c r="CB7" s="34">
         <f>IFERROR((VLOOKUP(BV7,Scoring!$A:$B,2,0))+IF(BX7="y",1,0)+IF(BY7="y",1,0)+IF(BZ7="y",1,0)+IF(CA7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CC7" s="28"/>
-      <c r="CD7" s="36"/>
-      <c r="CE7" s="37"/>
-      <c r="CF7" s="38"/>
-      <c r="CG7" s="39"/>
-      <c r="CH7" s="40"/>
+      <c r="CD7" s="37"/>
+      <c r="CE7" s="38"/>
+      <c r="CF7" s="39"/>
+      <c r="CG7" s="40"/>
+      <c r="CH7" s="41"/>
       <c r="CI7" s="34">
         <f>IFERROR((VLOOKUP(CC7,Scoring!$A:$B,2,0))+IF(CE7="y",1,0)+IF(CF7="y",1,0)+IF(CG7="y",1,0)+IF(CH7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CJ7" s="28"/>
-      <c r="CK7" s="36"/>
-      <c r="CL7" s="37"/>
-      <c r="CM7" s="38"/>
-      <c r="CN7" s="39"/>
-      <c r="CO7" s="40"/>
+      <c r="CK7" s="37"/>
+      <c r="CL7" s="38"/>
+      <c r="CM7" s="39"/>
+      <c r="CN7" s="40"/>
+      <c r="CO7" s="41"/>
       <c r="CP7" s="34">
         <f>IFERROR((VLOOKUP(CJ7,Scoring!$A:$B,2,0))+IF(CL7="y",1,0)+IF(CM7="y",1,0)+IF(CN7="y",1,0)+IF(CO7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CQ7" s="28"/>
-      <c r="CR7" s="36"/>
-      <c r="CS7" s="37"/>
-      <c r="CT7" s="38"/>
-      <c r="CU7" s="39"/>
-      <c r="CV7" s="40"/>
+      <c r="CR7" s="37"/>
+      <c r="CS7" s="38"/>
+      <c r="CT7" s="39"/>
+      <c r="CU7" s="40"/>
+      <c r="CV7" s="41"/>
       <c r="CW7" s="34">
         <f>IFERROR((VLOOKUP(CQ7,Scoring!$A:$B,2,0))+IF(CS7="y",1,0)+IF(CT7="y",1,0)+IF(CU7="y",1,0)+IF(CV7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CX7" s="28"/>
-      <c r="CY7" s="36"/>
-      <c r="CZ7" s="37"/>
-      <c r="DA7" s="38"/>
-      <c r="DB7" s="39"/>
-      <c r="DC7" s="40"/>
+      <c r="CY7" s="37"/>
+      <c r="CZ7" s="38"/>
+      <c r="DA7" s="39"/>
+      <c r="DB7" s="40"/>
+      <c r="DC7" s="41"/>
       <c r="DD7" s="34">
         <f>IFERROR((VLOOKUP(CX7,Scoring!$A:$B,2,0))+IF(CZ7="y",1,0)+IF(DA7="y",1,0)+IF(DB7="y",1,0)+IF(DC7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="DE7" s="28"/>
-      <c r="DF7" s="36"/>
-      <c r="DG7" s="37"/>
-      <c r="DH7" s="38"/>
-      <c r="DI7" s="39"/>
-      <c r="DJ7" s="40"/>
+      <c r="DF7" s="37"/>
+      <c r="DG7" s="38"/>
+      <c r="DH7" s="39"/>
+      <c r="DI7" s="40"/>
+      <c r="DJ7" s="41"/>
       <c r="DK7" s="34">
         <f>IFERROR((VLOOKUP(DE7,Scoring!$A:$B,2,0))+IF(DG7="y",1,0)+IF(DH7="y",1,0)+IF(DI7="y",1,0)+IF(DJ7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="DL7" s="28"/>
-      <c r="DM7" s="36"/>
-      <c r="DN7" s="37"/>
-      <c r="DO7" s="38"/>
-      <c r="DP7" s="39"/>
-      <c r="DQ7" s="40"/>
+      <c r="DM7" s="37"/>
+      <c r="DN7" s="38"/>
+      <c r="DO7" s="39"/>
+      <c r="DP7" s="40"/>
+      <c r="DQ7" s="41"/>
       <c r="DR7" s="34">
         <f>IFERROR((VLOOKUP(DL7,Scoring!$A:$B,2,0))+IF(DN7="y",1,0)+IF(DO7="y",1,0)+IF(DP7="y",1,0)+IF(DQ7="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="45">
         <v>4.0</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="46">
         <v>10.0</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="I8" s="49" t="s">
+      <c r="F8" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="I8" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="51">
         <f>IFERROR((VLOOKUP(D8,Scoring!$A:$B,2,0))+IF(F8="y",1,0)+IF(G8="y",1,0)+IF(H8="y",1,0)+IF(I8="y",1,0),0)</f>
         <v>13</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="45">
         <v>13.0</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="46">
         <v>6.0</v>
       </c>
-      <c r="M8" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="N8" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="O8" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="P8" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q8" s="51">
+      <c r="M8" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="O8" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q8" s="52">
         <f>IFERROR((VLOOKUP(K8,Scoring!$D:$E,2,0))+IF(M8="y",1,0)+IF(N8="y",1,0)+IF(O8="y",1,0)+IF(P8="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="R8" s="44">
+      <c r="R8" s="45">
         <v>2.0</v>
       </c>
-      <c r="S8" s="45">
+      <c r="S8" s="46">
         <v>3.0</v>
       </c>
-      <c r="T8" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="U8" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="V8" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="W8" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="X8" s="50">
+      <c r="T8" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="U8" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="V8" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="W8" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="X8" s="51">
         <f>IFERROR((VLOOKUP(R8,Scoring!$A:$B,2,0))+IF(T8="y",1,0)+IF(U8="y",1,0)+IF(V8="y",1,0)+IF(W8="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="Y8" s="44">
+      <c r="Y8" s="45">
         <v>6.0</v>
       </c>
-      <c r="Z8" s="45">
+      <c r="Z8" s="46">
         <v>8.0</v>
       </c>
-      <c r="AA8" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB8" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC8" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD8" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="AE8" s="50">
+      <c r="AA8" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB8" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC8" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD8" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE8" s="51">
         <f>IFERROR((VLOOKUP(Y8,Scoring!$A:$B,2,0))+IF(AA8="y",1,0)+IF(AB8="y",1,0)+IF(AC8="y",1,0)+IF(AD8="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="50">
+      <c r="AF8" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="AG8" s="46">
+        <v>10.0</v>
+      </c>
+      <c r="AH8" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI8" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ8" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK8" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL8" s="51">
         <f>IFERROR((VLOOKUP(AF8,Scoring!$A:$B,2,0))+IF(AH8="y",1,0)+IF(AI8="y",1,0)+IF(AJ8="y",1,0)+IF(AK8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="52"/>
-      <c r="AO8" s="53"/>
-      <c r="AP8" s="54"/>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="50">
+        <v>5</v>
+      </c>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="55"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="58"/>
+      <c r="AS8" s="51">
         <f>IFERROR((VLOOKUP(AM8,Scoring!$A:$B,2,0))+IF(AO8="y",1,0)+IF(AP8="y",1,0)+IF(AQ8="y",1,0)+IF(AR8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="52"/>
-      <c r="AV8" s="53"/>
-      <c r="AW8" s="54"/>
-      <c r="AX8" s="55"/>
-      <c r="AY8" s="56"/>
-      <c r="AZ8" s="50">
+      <c r="AT8" s="45"/>
+      <c r="AU8" s="54"/>
+      <c r="AV8" s="55"/>
+      <c r="AW8" s="56"/>
+      <c r="AX8" s="57"/>
+      <c r="AY8" s="58"/>
+      <c r="AZ8" s="51">
         <f>IFERROR((VLOOKUP(AT8,Scoring!$A:$B,2,0))+IF(AV8="y",1,0)+IF(AW8="y",1,0)+IF(AX8="y",1,0)+IF(AY8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="52"/>
-      <c r="BC8" s="53"/>
-      <c r="BD8" s="54"/>
-      <c r="BE8" s="55"/>
-      <c r="BF8" s="56"/>
-      <c r="BG8" s="50">
+      <c r="BA8" s="45"/>
+      <c r="BB8" s="54"/>
+      <c r="BC8" s="55"/>
+      <c r="BD8" s="56"/>
+      <c r="BE8" s="57"/>
+      <c r="BF8" s="58"/>
+      <c r="BG8" s="51">
         <f>IFERROR((VLOOKUP(BA8,Scoring!$A:$B,2,0))+IF(BC8="y",1,0)+IF(BD8="y",1,0)+IF(BE8="y",1,0)+IF(BF8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH8" s="44"/>
-      <c r="BI8" s="52"/>
-      <c r="BJ8" s="53"/>
-      <c r="BK8" s="54"/>
-      <c r="BL8" s="55"/>
-      <c r="BM8" s="56"/>
-      <c r="BN8" s="50">
+      <c r="BH8" s="45"/>
+      <c r="BI8" s="54"/>
+      <c r="BJ8" s="55"/>
+      <c r="BK8" s="56"/>
+      <c r="BL8" s="57"/>
+      <c r="BM8" s="58"/>
+      <c r="BN8" s="51">
         <f>IFERROR((VLOOKUP(BH8,Scoring!$A:$B,2,0))+IF(BJ8="y",1,0)+IF(BK8="y",1,0)+IF(BL8="y",1,0)+IF(BM8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO8" s="44"/>
-      <c r="BP8" s="52"/>
-      <c r="BQ8" s="53"/>
-      <c r="BR8" s="54"/>
-      <c r="BS8" s="55"/>
-      <c r="BT8" s="56"/>
-      <c r="BU8" s="50">
+      <c r="BO8" s="45"/>
+      <c r="BP8" s="54"/>
+      <c r="BQ8" s="55"/>
+      <c r="BR8" s="56"/>
+      <c r="BS8" s="57"/>
+      <c r="BT8" s="58"/>
+      <c r="BU8" s="51">
         <f>IFERROR((VLOOKUP(BO8,Scoring!$A:$B,2,0))+IF(BQ8="y",1,0)+IF(BR8="y",1,0)+IF(BS8="y",1,0)+IF(BT8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV8" s="44"/>
-      <c r="BW8" s="52"/>
-      <c r="BX8" s="53"/>
-      <c r="BY8" s="54"/>
-      <c r="BZ8" s="55"/>
-      <c r="CA8" s="56"/>
-      <c r="CB8" s="50">
+      <c r="BV8" s="45"/>
+      <c r="BW8" s="54"/>
+      <c r="BX8" s="55"/>
+      <c r="BY8" s="56"/>
+      <c r="BZ8" s="57"/>
+      <c r="CA8" s="58"/>
+      <c r="CB8" s="51">
         <f>IFERROR((VLOOKUP(BV8,Scoring!$A:$B,2,0))+IF(BX8="y",1,0)+IF(BY8="y",1,0)+IF(BZ8="y",1,0)+IF(CA8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC8" s="44"/>
-      <c r="CD8" s="52"/>
-      <c r="CE8" s="53"/>
-      <c r="CF8" s="54"/>
-      <c r="CG8" s="55"/>
-      <c r="CH8" s="56"/>
-      <c r="CI8" s="50">
+      <c r="CC8" s="45"/>
+      <c r="CD8" s="54"/>
+      <c r="CE8" s="55"/>
+      <c r="CF8" s="56"/>
+      <c r="CG8" s="57"/>
+      <c r="CH8" s="58"/>
+      <c r="CI8" s="51">
         <f>IFERROR((VLOOKUP(CC8,Scoring!$A:$B,2,0))+IF(CE8="y",1,0)+IF(CF8="y",1,0)+IF(CG8="y",1,0)+IF(CH8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ8" s="44"/>
-      <c r="CK8" s="52"/>
-      <c r="CL8" s="53"/>
-      <c r="CM8" s="54"/>
-      <c r="CN8" s="55"/>
-      <c r="CO8" s="56"/>
-      <c r="CP8" s="50">
+      <c r="CJ8" s="45"/>
+      <c r="CK8" s="54"/>
+      <c r="CL8" s="55"/>
+      <c r="CM8" s="56"/>
+      <c r="CN8" s="57"/>
+      <c r="CO8" s="58"/>
+      <c r="CP8" s="51">
         <f>IFERROR((VLOOKUP(CJ8,Scoring!$A:$B,2,0))+IF(CL8="y",1,0)+IF(CM8="y",1,0)+IF(CN8="y",1,0)+IF(CO8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ8" s="44"/>
-      <c r="CR8" s="52"/>
-      <c r="CS8" s="53"/>
-      <c r="CT8" s="54"/>
-      <c r="CU8" s="55"/>
-      <c r="CV8" s="56"/>
-      <c r="CW8" s="50">
+      <c r="CQ8" s="45"/>
+      <c r="CR8" s="54"/>
+      <c r="CS8" s="55"/>
+      <c r="CT8" s="56"/>
+      <c r="CU8" s="57"/>
+      <c r="CV8" s="58"/>
+      <c r="CW8" s="51">
         <f>IFERROR((VLOOKUP(CQ8,Scoring!$A:$B,2,0))+IF(CS8="y",1,0)+IF(CT8="y",1,0)+IF(CU8="y",1,0)+IF(CV8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX8" s="44"/>
-      <c r="CY8" s="52"/>
-      <c r="CZ8" s="53"/>
-      <c r="DA8" s="54"/>
-      <c r="DB8" s="55"/>
-      <c r="DC8" s="56"/>
-      <c r="DD8" s="50">
+      <c r="CX8" s="45"/>
+      <c r="CY8" s="54"/>
+      <c r="CZ8" s="55"/>
+      <c r="DA8" s="56"/>
+      <c r="DB8" s="57"/>
+      <c r="DC8" s="58"/>
+      <c r="DD8" s="51">
         <f>IFERROR((VLOOKUP(CX8,Scoring!$A:$B,2,0))+IF(CZ8="y",1,0)+IF(DA8="y",1,0)+IF(DB8="y",1,0)+IF(DC8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE8" s="44"/>
-      <c r="DF8" s="52"/>
-      <c r="DG8" s="53"/>
-      <c r="DH8" s="54"/>
-      <c r="DI8" s="55"/>
-      <c r="DJ8" s="56"/>
-      <c r="DK8" s="50">
+      <c r="DE8" s="45"/>
+      <c r="DF8" s="54"/>
+      <c r="DG8" s="55"/>
+      <c r="DH8" s="56"/>
+      <c r="DI8" s="57"/>
+      <c r="DJ8" s="58"/>
+      <c r="DK8" s="51">
         <f>IFERROR((VLOOKUP(DE8,Scoring!$A:$B,2,0))+IF(DG8="y",1,0)+IF(DH8="y",1,0)+IF(DI8="y",1,0)+IF(DJ8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL8" s="44"/>
-      <c r="DM8" s="52"/>
-      <c r="DN8" s="53"/>
-      <c r="DO8" s="54"/>
-      <c r="DP8" s="55"/>
-      <c r="DQ8" s="56"/>
-      <c r="DR8" s="50">
+      <c r="DL8" s="45"/>
+      <c r="DM8" s="54"/>
+      <c r="DN8" s="55"/>
+      <c r="DO8" s="56"/>
+      <c r="DP8" s="57"/>
+      <c r="DQ8" s="58"/>
+      <c r="DR8" s="51">
         <f>IFERROR((VLOOKUP(DL8,Scoring!$A:$B,2,0))+IF(DN8="y",1,0)+IF(DO8="y",1,0)+IF(DP8="y",1,0)+IF(DQ8="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="62">
         <v>15.0</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="63">
         <v>5.0</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>279</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="I9" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="J9" s="66">
+      <c r="F9" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="I9" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="J9" s="68">
         <f>IFERROR((VLOOKUP(D9,Scoring!$A:$B,2,0))+IF(F9="y",1,0)+IF(G9="y",1,0)+IF(H9="y",1,0)+IF(I9="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="62">
         <v>9.0</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="63">
         <v>8.0</v>
       </c>
-      <c r="M9" s="62" t="s">
-        <v>279</v>
-      </c>
-      <c r="N9" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="O9" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="P9" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q9" s="67">
+      <c r="M9" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="N9" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="O9" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="P9" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q9" s="69">
         <f>IFERROR((VLOOKUP(K9,Scoring!$D:$E,2,0))+IF(M9="y",1,0)+IF(N9="y",1,0)+IF(O9="y",1,0)+IF(P9="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="R9" s="60">
+      <c r="R9" s="62">
         <v>21.0</v>
       </c>
-      <c r="S9" s="61">
+      <c r="S9" s="63">
         <v>6.0</v>
       </c>
-      <c r="T9" s="62" t="s">
-        <v>279</v>
-      </c>
-      <c r="U9" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="V9" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="W9" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="X9" s="66">
+      <c r="T9" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="U9" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="V9" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="W9" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="X9" s="68">
         <f>IFERROR((VLOOKUP(R9,Scoring!$A:$B,2,0))+IF(T9="y",1,0)+IF(U9="y",1,0)+IF(V9="y",1,0)+IF(W9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="60">
+      <c r="Y9" s="62">
         <v>4.0</v>
       </c>
-      <c r="Z9" s="61">
+      <c r="Z9" s="63">
         <v>4.0</v>
       </c>
-      <c r="AA9" s="62" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB9" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC9" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD9" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="AE9" s="66">
+      <c r="AA9" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB9" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC9" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD9" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE9" s="68">
         <f>IFERROR((VLOOKUP(Y9,Scoring!$A:$B,2,0))+IF(AA9="y",1,0)+IF(AB9="y",1,0)+IF(AC9="y",1,0)+IF(AD9="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="68"/>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="72"/>
-      <c r="AL9" s="66">
+      <c r="AF9" s="62">
+        <v>9.0</v>
+      </c>
+      <c r="AG9" s="63">
+        <v>8.0</v>
+      </c>
+      <c r="AH9" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI9" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ9" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK9" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL9" s="68">
         <f>IFERROR((VLOOKUP(AF9,Scoring!$A:$B,2,0))+IF(AH9="y",1,0)+IF(AI9="y",1,0)+IF(AJ9="y",1,0)+IF(AK9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM9" s="60"/>
-      <c r="AN9" s="68"/>
-      <c r="AO9" s="69"/>
-      <c r="AP9" s="70"/>
-      <c r="AQ9" s="71"/>
-      <c r="AR9" s="72"/>
-      <c r="AS9" s="66">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="62"/>
+      <c r="AN9" s="71"/>
+      <c r="AO9" s="72"/>
+      <c r="AP9" s="73"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="75"/>
+      <c r="AS9" s="68">
         <f>IFERROR((VLOOKUP(AM9,Scoring!$A:$B,2,0))+IF(AO9="y",1,0)+IF(AP9="y",1,0)+IF(AQ9="y",1,0)+IF(AR9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT9" s="60"/>
-      <c r="AU9" s="68"/>
-      <c r="AV9" s="69"/>
-      <c r="AW9" s="70"/>
-      <c r="AX9" s="71"/>
-      <c r="AY9" s="72"/>
-      <c r="AZ9" s="66">
+      <c r="AT9" s="62"/>
+      <c r="AU9" s="71"/>
+      <c r="AV9" s="72"/>
+      <c r="AW9" s="73"/>
+      <c r="AX9" s="74"/>
+      <c r="AY9" s="75"/>
+      <c r="AZ9" s="68">
         <f>IFERROR((VLOOKUP(AT9,Scoring!$A:$B,2,0))+IF(AV9="y",1,0)+IF(AW9="y",1,0)+IF(AX9="y",1,0)+IF(AY9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA9" s="60"/>
-      <c r="BB9" s="68"/>
-      <c r="BC9" s="69"/>
-      <c r="BD9" s="70"/>
-      <c r="BE9" s="71"/>
-      <c r="BF9" s="72"/>
-      <c r="BG9" s="66">
+      <c r="BA9" s="62"/>
+      <c r="BB9" s="71"/>
+      <c r="BC9" s="72"/>
+      <c r="BD9" s="73"/>
+      <c r="BE9" s="74"/>
+      <c r="BF9" s="75"/>
+      <c r="BG9" s="68">
         <f>IFERROR((VLOOKUP(BA9,Scoring!$A:$B,2,0))+IF(BC9="y",1,0)+IF(BD9="y",1,0)+IF(BE9="y",1,0)+IF(BF9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH9" s="60"/>
-      <c r="BI9" s="68"/>
-      <c r="BJ9" s="69"/>
-      <c r="BK9" s="70"/>
-      <c r="BL9" s="71"/>
-      <c r="BM9" s="72"/>
-      <c r="BN9" s="66">
+      <c r="BH9" s="62"/>
+      <c r="BI9" s="71"/>
+      <c r="BJ9" s="72"/>
+      <c r="BK9" s="73"/>
+      <c r="BL9" s="74"/>
+      <c r="BM9" s="75"/>
+      <c r="BN9" s="68">
         <f>IFERROR((VLOOKUP(BH9,Scoring!$A:$B,2,0))+IF(BJ9="y",1,0)+IF(BK9="y",1,0)+IF(BL9="y",1,0)+IF(BM9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO9" s="60"/>
-      <c r="BP9" s="68"/>
-      <c r="BQ9" s="69"/>
-      <c r="BR9" s="70"/>
-      <c r="BS9" s="71"/>
-      <c r="BT9" s="72"/>
-      <c r="BU9" s="66">
+      <c r="BO9" s="62"/>
+      <c r="BP9" s="71"/>
+      <c r="BQ9" s="72"/>
+      <c r="BR9" s="73"/>
+      <c r="BS9" s="74"/>
+      <c r="BT9" s="75"/>
+      <c r="BU9" s="68">
         <f>IFERROR((VLOOKUP(BO9,Scoring!$A:$B,2,0))+IF(BQ9="y",1,0)+IF(BR9="y",1,0)+IF(BS9="y",1,0)+IF(BT9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV9" s="60"/>
-      <c r="BW9" s="68"/>
-      <c r="BX9" s="69"/>
-      <c r="BY9" s="70"/>
-      <c r="BZ9" s="71"/>
-      <c r="CA9" s="72"/>
-      <c r="CB9" s="66">
+      <c r="BV9" s="62"/>
+      <c r="BW9" s="71"/>
+      <c r="BX9" s="72"/>
+      <c r="BY9" s="73"/>
+      <c r="BZ9" s="74"/>
+      <c r="CA9" s="75"/>
+      <c r="CB9" s="68">
         <f>IFERROR((VLOOKUP(BV9,Scoring!$A:$B,2,0))+IF(BX9="y",1,0)+IF(BY9="y",1,0)+IF(BZ9="y",1,0)+IF(CA9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC9" s="60"/>
-      <c r="CD9" s="68"/>
-      <c r="CE9" s="69"/>
-      <c r="CF9" s="70"/>
-      <c r="CG9" s="71"/>
-      <c r="CH9" s="72"/>
-      <c r="CI9" s="66">
+      <c r="CC9" s="62"/>
+      <c r="CD9" s="71"/>
+      <c r="CE9" s="72"/>
+      <c r="CF9" s="73"/>
+      <c r="CG9" s="74"/>
+      <c r="CH9" s="75"/>
+      <c r="CI9" s="68">
         <f>IFERROR((VLOOKUP(CC9,Scoring!$A:$B,2,0))+IF(CE9="y",1,0)+IF(CF9="y",1,0)+IF(CG9="y",1,0)+IF(CH9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ9" s="60"/>
-      <c r="CK9" s="68"/>
-      <c r="CL9" s="69"/>
-      <c r="CM9" s="70"/>
-      <c r="CN9" s="71"/>
-      <c r="CO9" s="72"/>
-      <c r="CP9" s="66">
+      <c r="CJ9" s="62"/>
+      <c r="CK9" s="71"/>
+      <c r="CL9" s="72"/>
+      <c r="CM9" s="73"/>
+      <c r="CN9" s="74"/>
+      <c r="CO9" s="75"/>
+      <c r="CP9" s="68">
         <f>IFERROR((VLOOKUP(CJ9,Scoring!$A:$B,2,0))+IF(CL9="y",1,0)+IF(CM9="y",1,0)+IF(CN9="y",1,0)+IF(CO9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ9" s="60"/>
-      <c r="CR9" s="68"/>
-      <c r="CS9" s="69"/>
-      <c r="CT9" s="70"/>
-      <c r="CU9" s="71"/>
-      <c r="CV9" s="72"/>
-      <c r="CW9" s="66">
+      <c r="CQ9" s="62"/>
+      <c r="CR9" s="71"/>
+      <c r="CS9" s="72"/>
+      <c r="CT9" s="73"/>
+      <c r="CU9" s="74"/>
+      <c r="CV9" s="75"/>
+      <c r="CW9" s="68">
         <f>IFERROR((VLOOKUP(CQ9,Scoring!$A:$B,2,0))+IF(CS9="y",1,0)+IF(CT9="y",1,0)+IF(CU9="y",1,0)+IF(CV9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX9" s="60"/>
-      <c r="CY9" s="68"/>
-      <c r="CZ9" s="69"/>
-      <c r="DA9" s="70"/>
-      <c r="DB9" s="71"/>
-      <c r="DC9" s="72"/>
-      <c r="DD9" s="66">
+      <c r="CX9" s="62"/>
+      <c r="CY9" s="71"/>
+      <c r="CZ9" s="72"/>
+      <c r="DA9" s="73"/>
+      <c r="DB9" s="74"/>
+      <c r="DC9" s="75"/>
+      <c r="DD9" s="68">
         <f>IFERROR((VLOOKUP(CX9,Scoring!$A:$B,2,0))+IF(CZ9="y",1,0)+IF(DA9="y",1,0)+IF(DB9="y",1,0)+IF(DC9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE9" s="60"/>
-      <c r="DF9" s="68"/>
-      <c r="DG9" s="69"/>
-      <c r="DH9" s="70"/>
-      <c r="DI9" s="71"/>
-      <c r="DJ9" s="72"/>
-      <c r="DK9" s="66">
+      <c r="DE9" s="62"/>
+      <c r="DF9" s="71"/>
+      <c r="DG9" s="72"/>
+      <c r="DH9" s="73"/>
+      <c r="DI9" s="74"/>
+      <c r="DJ9" s="75"/>
+      <c r="DK9" s="68">
         <f>IFERROR((VLOOKUP(DE9,Scoring!$A:$B,2,0))+IF(DG9="y",1,0)+IF(DH9="y",1,0)+IF(DI9="y",1,0)+IF(DJ9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL9" s="60"/>
-      <c r="DM9" s="68"/>
-      <c r="DN9" s="69"/>
-      <c r="DO9" s="70"/>
-      <c r="DP9" s="71"/>
-      <c r="DQ9" s="72"/>
-      <c r="DR9" s="66">
+      <c r="DL9" s="62"/>
+      <c r="DM9" s="71"/>
+      <c r="DN9" s="72"/>
+      <c r="DO9" s="73"/>
+      <c r="DP9" s="74"/>
+      <c r="DQ9" s="75"/>
+      <c r="DR9" s="68">
         <f>IFERROR((VLOOKUP(DL9,Scoring!$A:$B,2,0))+IF(DN9="y",1,0)+IF(DO9="y",1,0)+IF(DP9="y",1,0)+IF(DQ9="y",1,0),0)</f>
         <v>0</v>
       </c>
@@ -12110,132 +12218,144 @@
         <f>IFERROR((VLOOKUP(Y10,Scoring!$A:$B,2,0))+IF(AA10="y",1,0)+IF(AB10="y",1,0)+IF(AC10="y",1,0)+IF(AD10="y",1,0),0)</f>
         <v>5</v>
       </c>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="40"/>
+      <c r="AF10" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="AG10" s="29">
+        <v>7.0</v>
+      </c>
+      <c r="AH10" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI10" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK10" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="AL10" s="34">
         <f>IFERROR((VLOOKUP(AF10,Scoring!$A:$B,2,0))+IF(AH10="y",1,0)+IF(AI10="y",1,0)+IF(AJ10="y",1,0)+IF(AK10="y",1,0),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM10" s="28"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="38"/>
-      <c r="AQ10" s="39"/>
-      <c r="AR10" s="40"/>
+      <c r="AN10" s="37"/>
+      <c r="AO10" s="38"/>
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="40"/>
+      <c r="AR10" s="41"/>
       <c r="AS10" s="34">
         <f>IFERROR((VLOOKUP(AM10,Scoring!$A:$B,2,0))+IF(AO10="y",1,0)+IF(AP10="y",1,0)+IF(AQ10="y",1,0)+IF(AR10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AT10" s="28"/>
-      <c r="AU10" s="36"/>
-      <c r="AV10" s="37"/>
-      <c r="AW10" s="38"/>
-      <c r="AX10" s="39"/>
-      <c r="AY10" s="40"/>
+      <c r="AU10" s="37"/>
+      <c r="AV10" s="38"/>
+      <c r="AW10" s="39"/>
+      <c r="AX10" s="40"/>
+      <c r="AY10" s="41"/>
       <c r="AZ10" s="34">
         <f>IFERROR((VLOOKUP(AT10,Scoring!$A:$B,2,0))+IF(AV10="y",1,0)+IF(AW10="y",1,0)+IF(AX10="y",1,0)+IF(AY10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BA10" s="28"/>
-      <c r="BB10" s="36"/>
-      <c r="BC10" s="37"/>
-      <c r="BD10" s="38"/>
-      <c r="BE10" s="39"/>
-      <c r="BF10" s="40"/>
+      <c r="BB10" s="37"/>
+      <c r="BC10" s="38"/>
+      <c r="BD10" s="39"/>
+      <c r="BE10" s="40"/>
+      <c r="BF10" s="41"/>
       <c r="BG10" s="34">
         <f>IFERROR((VLOOKUP(BA10,Scoring!$A:$B,2,0))+IF(BC10="y",1,0)+IF(BD10="y",1,0)+IF(BE10="y",1,0)+IF(BF10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BH10" s="28"/>
-      <c r="BI10" s="36"/>
-      <c r="BJ10" s="37"/>
-      <c r="BK10" s="38"/>
-      <c r="BL10" s="39"/>
-      <c r="BM10" s="40"/>
+      <c r="BI10" s="37"/>
+      <c r="BJ10" s="38"/>
+      <c r="BK10" s="39"/>
+      <c r="BL10" s="40"/>
+      <c r="BM10" s="41"/>
       <c r="BN10" s="34">
         <f>IFERROR((VLOOKUP(BH10,Scoring!$A:$B,2,0))+IF(BJ10="y",1,0)+IF(BK10="y",1,0)+IF(BL10="y",1,0)+IF(BM10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BO10" s="28"/>
-      <c r="BP10" s="36"/>
-      <c r="BQ10" s="37"/>
-      <c r="BR10" s="38"/>
-      <c r="BS10" s="39"/>
-      <c r="BT10" s="40"/>
+      <c r="BP10" s="37"/>
+      <c r="BQ10" s="38"/>
+      <c r="BR10" s="39"/>
+      <c r="BS10" s="40"/>
+      <c r="BT10" s="41"/>
       <c r="BU10" s="34">
         <f>IFERROR((VLOOKUP(BO10,Scoring!$A:$B,2,0))+IF(BQ10="y",1,0)+IF(BR10="y",1,0)+IF(BS10="y",1,0)+IF(BT10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BV10" s="28"/>
-      <c r="BW10" s="36"/>
-      <c r="BX10" s="37"/>
-      <c r="BY10" s="38"/>
-      <c r="BZ10" s="39"/>
-      <c r="CA10" s="40"/>
+      <c r="BW10" s="37"/>
+      <c r="BX10" s="38"/>
+      <c r="BY10" s="39"/>
+      <c r="BZ10" s="40"/>
+      <c r="CA10" s="41"/>
       <c r="CB10" s="34">
         <f>IFERROR((VLOOKUP(BV10,Scoring!$A:$B,2,0))+IF(BX10="y",1,0)+IF(BY10="y",1,0)+IF(BZ10="y",1,0)+IF(CA10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CC10" s="28"/>
-      <c r="CD10" s="36"/>
-      <c r="CE10" s="37"/>
-      <c r="CF10" s="38"/>
-      <c r="CG10" s="39"/>
-      <c r="CH10" s="40"/>
+      <c r="CD10" s="37"/>
+      <c r="CE10" s="38"/>
+      <c r="CF10" s="39"/>
+      <c r="CG10" s="40"/>
+      <c r="CH10" s="41"/>
       <c r="CI10" s="34">
         <f>IFERROR((VLOOKUP(CC10,Scoring!$A:$B,2,0))+IF(CE10="y",1,0)+IF(CF10="y",1,0)+IF(CG10="y",1,0)+IF(CH10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CJ10" s="28"/>
-      <c r="CK10" s="36"/>
-      <c r="CL10" s="37"/>
-      <c r="CM10" s="38"/>
-      <c r="CN10" s="39"/>
-      <c r="CO10" s="40"/>
+      <c r="CK10" s="37"/>
+      <c r="CL10" s="38"/>
+      <c r="CM10" s="39"/>
+      <c r="CN10" s="40"/>
+      <c r="CO10" s="41"/>
       <c r="CP10" s="34">
         <f>IFERROR((VLOOKUP(CJ10,Scoring!$A:$B,2,0))+IF(CL10="y",1,0)+IF(CM10="y",1,0)+IF(CN10="y",1,0)+IF(CO10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CQ10" s="28"/>
-      <c r="CR10" s="36"/>
-      <c r="CS10" s="37"/>
-      <c r="CT10" s="38"/>
-      <c r="CU10" s="39"/>
-      <c r="CV10" s="40"/>
+      <c r="CR10" s="37"/>
+      <c r="CS10" s="38"/>
+      <c r="CT10" s="39"/>
+      <c r="CU10" s="40"/>
+      <c r="CV10" s="41"/>
       <c r="CW10" s="34">
         <f>IFERROR((VLOOKUP(CQ10,Scoring!$A:$B,2,0))+IF(CS10="y",1,0)+IF(CT10="y",1,0)+IF(CU10="y",1,0)+IF(CV10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CX10" s="28"/>
-      <c r="CY10" s="36"/>
-      <c r="CZ10" s="37"/>
-      <c r="DA10" s="38"/>
-      <c r="DB10" s="39"/>
-      <c r="DC10" s="40"/>
+      <c r="CY10" s="37"/>
+      <c r="CZ10" s="38"/>
+      <c r="DA10" s="39"/>
+      <c r="DB10" s="40"/>
+      <c r="DC10" s="41"/>
       <c r="DD10" s="34">
         <f>IFERROR((VLOOKUP(CX10,Scoring!$A:$B,2,0))+IF(CZ10="y",1,0)+IF(DA10="y",1,0)+IF(DB10="y",1,0)+IF(DC10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="DE10" s="28"/>
-      <c r="DF10" s="36"/>
-      <c r="DG10" s="37"/>
-      <c r="DH10" s="38"/>
-      <c r="DI10" s="39"/>
-      <c r="DJ10" s="40"/>
+      <c r="DF10" s="37"/>
+      <c r="DG10" s="38"/>
+      <c r="DH10" s="39"/>
+      <c r="DI10" s="40"/>
+      <c r="DJ10" s="41"/>
       <c r="DK10" s="34">
         <f>IFERROR((VLOOKUP(DE10,Scoring!$A:$B,2,0))+IF(DG10="y",1,0)+IF(DH10="y",1,0)+IF(DI10="y",1,0)+IF(DJ10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="DL10" s="28"/>
-      <c r="DM10" s="36"/>
-      <c r="DN10" s="37"/>
-      <c r="DO10" s="38"/>
-      <c r="DP10" s="39"/>
-      <c r="DQ10" s="40"/>
+      <c r="DM10" s="37"/>
+      <c r="DN10" s="38"/>
+      <c r="DO10" s="39"/>
+      <c r="DP10" s="40"/>
+      <c r="DQ10" s="41"/>
       <c r="DR10" s="34">
         <f>IFERROR((VLOOKUP(DL10,Scoring!$A:$B,2,0))+IF(DN10="y",1,0)+IF(DO10="y",1,0)+IF(DP10="y",1,0)+IF(DQ10="y",1,0),0)</f>
         <v>0</v>
@@ -12339,591 +12459,627 @@
         <f>IFERROR((VLOOKUP(Y11,Scoring!$A:$B,2,0))+IF(AA11="y",1,0)+IF(AB11="y",1,0)+IF(AC11="y",1,0)+IF(AD11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="40"/>
+      <c r="AF11" s="28">
+        <v>13.0</v>
+      </c>
+      <c r="AG11" s="29">
+        <v>12.0</v>
+      </c>
+      <c r="AH11" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI11" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ11" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK11" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="AL11" s="34">
         <f>IFERROR((VLOOKUP(AF11,Scoring!$A:$B,2,0))+IF(AH11="y",1,0)+IF(AI11="y",1,0)+IF(AJ11="y",1,0)+IF(AK11="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11" s="28"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="38"/>
-      <c r="AQ11" s="39"/>
-      <c r="AR11" s="40"/>
+      <c r="AN11" s="37"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="40"/>
+      <c r="AR11" s="41"/>
       <c r="AS11" s="34">
         <f>IFERROR((VLOOKUP(AM11,Scoring!$A:$B,2,0))+IF(AO11="y",1,0)+IF(AP11="y",1,0)+IF(AQ11="y",1,0)+IF(AR11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AT11" s="28"/>
-      <c r="AU11" s="36"/>
-      <c r="AV11" s="37"/>
-      <c r="AW11" s="38"/>
-      <c r="AX11" s="39"/>
-      <c r="AY11" s="40"/>
+      <c r="AU11" s="37"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="39"/>
+      <c r="AX11" s="40"/>
+      <c r="AY11" s="41"/>
       <c r="AZ11" s="34">
         <f>IFERROR((VLOOKUP(AT11,Scoring!$A:$B,2,0))+IF(AV11="y",1,0)+IF(AW11="y",1,0)+IF(AX11="y",1,0)+IF(AY11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BA11" s="28"/>
-      <c r="BB11" s="36"/>
-      <c r="BC11" s="37"/>
-      <c r="BD11" s="38"/>
-      <c r="BE11" s="39"/>
-      <c r="BF11" s="40"/>
+      <c r="BB11" s="37"/>
+      <c r="BC11" s="38"/>
+      <c r="BD11" s="39"/>
+      <c r="BE11" s="40"/>
+      <c r="BF11" s="41"/>
       <c r="BG11" s="34">
         <f>IFERROR((VLOOKUP(BA11,Scoring!$A:$B,2,0))+IF(BC11="y",1,0)+IF(BD11="y",1,0)+IF(BE11="y",1,0)+IF(BF11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BH11" s="28"/>
-      <c r="BI11" s="36"/>
-      <c r="BJ11" s="37"/>
-      <c r="BK11" s="38"/>
-      <c r="BL11" s="39"/>
-      <c r="BM11" s="40"/>
+      <c r="BI11" s="37"/>
+      <c r="BJ11" s="38"/>
+      <c r="BK11" s="39"/>
+      <c r="BL11" s="40"/>
+      <c r="BM11" s="41"/>
       <c r="BN11" s="34">
         <f>IFERROR((VLOOKUP(BH11,Scoring!$A:$B,2,0))+IF(BJ11="y",1,0)+IF(BK11="y",1,0)+IF(BL11="y",1,0)+IF(BM11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BO11" s="28"/>
-      <c r="BP11" s="36"/>
-      <c r="BQ11" s="37"/>
-      <c r="BR11" s="38"/>
-      <c r="BS11" s="39"/>
-      <c r="BT11" s="40"/>
+      <c r="BP11" s="37"/>
+      <c r="BQ11" s="38"/>
+      <c r="BR11" s="39"/>
+      <c r="BS11" s="40"/>
+      <c r="BT11" s="41"/>
       <c r="BU11" s="34">
         <f>IFERROR((VLOOKUP(BO11,Scoring!$A:$B,2,0))+IF(BQ11="y",1,0)+IF(BR11="y",1,0)+IF(BS11="y",1,0)+IF(BT11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BV11" s="28"/>
-      <c r="BW11" s="36"/>
-      <c r="BX11" s="37"/>
-      <c r="BY11" s="38"/>
-      <c r="BZ11" s="39"/>
-      <c r="CA11" s="40"/>
+      <c r="BW11" s="37"/>
+      <c r="BX11" s="38"/>
+      <c r="BY11" s="39"/>
+      <c r="BZ11" s="40"/>
+      <c r="CA11" s="41"/>
       <c r="CB11" s="34">
         <f>IFERROR((VLOOKUP(BV11,Scoring!$A:$B,2,0))+IF(BX11="y",1,0)+IF(BY11="y",1,0)+IF(BZ11="y",1,0)+IF(CA11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CC11" s="28"/>
-      <c r="CD11" s="36"/>
-      <c r="CE11" s="37"/>
-      <c r="CF11" s="38"/>
-      <c r="CG11" s="39"/>
-      <c r="CH11" s="40"/>
+      <c r="CD11" s="37"/>
+      <c r="CE11" s="38"/>
+      <c r="CF11" s="39"/>
+      <c r="CG11" s="40"/>
+      <c r="CH11" s="41"/>
       <c r="CI11" s="34">
         <f>IFERROR((VLOOKUP(CC11,Scoring!$A:$B,2,0))+IF(CE11="y",1,0)+IF(CF11="y",1,0)+IF(CG11="y",1,0)+IF(CH11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CJ11" s="28"/>
-      <c r="CK11" s="36"/>
-      <c r="CL11" s="37"/>
-      <c r="CM11" s="38"/>
-      <c r="CN11" s="39"/>
-      <c r="CO11" s="40"/>
+      <c r="CK11" s="37"/>
+      <c r="CL11" s="38"/>
+      <c r="CM11" s="39"/>
+      <c r="CN11" s="40"/>
+      <c r="CO11" s="41"/>
       <c r="CP11" s="34">
         <f>IFERROR((VLOOKUP(CJ11,Scoring!$A:$B,2,0))+IF(CL11="y",1,0)+IF(CM11="y",1,0)+IF(CN11="y",1,0)+IF(CO11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CQ11" s="28"/>
-      <c r="CR11" s="36"/>
-      <c r="CS11" s="37"/>
-      <c r="CT11" s="38"/>
-      <c r="CU11" s="39"/>
-      <c r="CV11" s="40"/>
+      <c r="CR11" s="37"/>
+      <c r="CS11" s="38"/>
+      <c r="CT11" s="39"/>
+      <c r="CU11" s="40"/>
+      <c r="CV11" s="41"/>
       <c r="CW11" s="34">
         <f>IFERROR((VLOOKUP(CQ11,Scoring!$A:$B,2,0))+IF(CS11="y",1,0)+IF(CT11="y",1,0)+IF(CU11="y",1,0)+IF(CV11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CX11" s="28"/>
-      <c r="CY11" s="36"/>
-      <c r="CZ11" s="37"/>
-      <c r="DA11" s="38"/>
-      <c r="DB11" s="39"/>
-      <c r="DC11" s="40"/>
+      <c r="CY11" s="37"/>
+      <c r="CZ11" s="38"/>
+      <c r="DA11" s="39"/>
+      <c r="DB11" s="40"/>
+      <c r="DC11" s="41"/>
       <c r="DD11" s="34">
         <f>IFERROR((VLOOKUP(CX11,Scoring!$A:$B,2,0))+IF(CZ11="y",1,0)+IF(DA11="y",1,0)+IF(DB11="y",1,0)+IF(DC11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="DE11" s="28"/>
-      <c r="DF11" s="36"/>
-      <c r="DG11" s="37"/>
-      <c r="DH11" s="38"/>
-      <c r="DI11" s="39"/>
-      <c r="DJ11" s="40"/>
+      <c r="DF11" s="37"/>
+      <c r="DG11" s="38"/>
+      <c r="DH11" s="39"/>
+      <c r="DI11" s="40"/>
+      <c r="DJ11" s="41"/>
       <c r="DK11" s="34">
         <f>IFERROR((VLOOKUP(DE11,Scoring!$A:$B,2,0))+IF(DG11="y",1,0)+IF(DH11="y",1,0)+IF(DI11="y",1,0)+IF(DJ11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="DL11" s="28"/>
-      <c r="DM11" s="36"/>
-      <c r="DN11" s="37"/>
-      <c r="DO11" s="38"/>
-      <c r="DP11" s="39"/>
-      <c r="DQ11" s="40"/>
+      <c r="DM11" s="37"/>
+      <c r="DN11" s="38"/>
+      <c r="DO11" s="39"/>
+      <c r="DP11" s="40"/>
+      <c r="DQ11" s="41"/>
       <c r="DR11" s="34">
         <f>IFERROR((VLOOKUP(DL11,Scoring!$A:$B,2,0))+IF(DN11="y",1,0)+IF(DO11="y",1,0)+IF(DP11="y",1,0)+IF(DQ11="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="45">
         <v>6.0</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="46">
         <v>9.0</v>
       </c>
-      <c r="F12" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="I12" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="J12" s="50">
+      <c r="F12" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="J12" s="51">
         <f>IFERROR((VLOOKUP(D12,Scoring!$A:$B,2,0))+IF(F12="y",1,0)+IF(G12="y",1,0)+IF(H12="y",1,0)+IF(I12="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="45">
         <v>12.0</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="46">
         <v>13.0</v>
       </c>
-      <c r="M12" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="N12" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="O12" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="P12" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q12" s="51">
+      <c r="M12" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="N12" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="O12" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="P12" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q12" s="52">
         <f>IFERROR((VLOOKUP(K12,Scoring!$D:$E,2,0))+IF(M12="y",1,0)+IF(N12="y",1,0)+IF(O12="y",1,0)+IF(P12="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="R12" s="44">
+      <c r="R12" s="45">
         <v>4.0</v>
       </c>
-      <c r="S12" s="45">
+      <c r="S12" s="46">
         <v>4.0</v>
       </c>
-      <c r="T12" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="U12" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="V12" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="W12" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="X12" s="50">
+      <c r="T12" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="U12" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="V12" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="W12" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="X12" s="51">
         <f>IFERROR((VLOOKUP(R12,Scoring!$A:$B,2,0))+IF(T12="y",1,0)+IF(U12="y",1,0)+IF(V12="y",1,0)+IF(W12="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="Y12" s="44">
+      <c r="Y12" s="45">
         <v>7.0</v>
       </c>
-      <c r="Z12" s="45">
+      <c r="Z12" s="46">
         <v>9.0</v>
       </c>
-      <c r="AA12" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB12" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC12" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD12" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="AE12" s="50">
+      <c r="AA12" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB12" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC12" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD12" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE12" s="51">
         <f>IFERROR((VLOOKUP(Y12,Scoring!$A:$B,2,0))+IF(AA12="y",1,0)+IF(AB12="y",1,0)+IF(AC12="y",1,0)+IF(AD12="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="54"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="50">
+      <c r="AF12" s="45">
+        <v>22.0</v>
+      </c>
+      <c r="AG12" s="46">
+        <v>22.0</v>
+      </c>
+      <c r="AH12" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI12" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ12" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK12" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL12" s="51">
         <f>IFERROR((VLOOKUP(AF12,Scoring!$A:$B,2,0))+IF(AH12="y",1,0)+IF(AI12="y",1,0)+IF(AJ12="y",1,0)+IF(AK12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="52"/>
-      <c r="AO12" s="53"/>
-      <c r="AP12" s="54"/>
-      <c r="AQ12" s="55"/>
-      <c r="AR12" s="56"/>
-      <c r="AS12" s="50">
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="54"/>
+      <c r="AO12" s="55"/>
+      <c r="AP12" s="56"/>
+      <c r="AQ12" s="57"/>
+      <c r="AR12" s="58"/>
+      <c r="AS12" s="51">
         <f>IFERROR((VLOOKUP(AM12,Scoring!$A:$B,2,0))+IF(AO12="y",1,0)+IF(AP12="y",1,0)+IF(AQ12="y",1,0)+IF(AR12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT12" s="44"/>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="53"/>
-      <c r="AW12" s="54"/>
-      <c r="AX12" s="55"/>
-      <c r="AY12" s="56"/>
-      <c r="AZ12" s="50">
+      <c r="AT12" s="45"/>
+      <c r="AU12" s="54"/>
+      <c r="AV12" s="55"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="57"/>
+      <c r="AY12" s="58"/>
+      <c r="AZ12" s="51">
         <f>IFERROR((VLOOKUP(AT12,Scoring!$A:$B,2,0))+IF(AV12="y",1,0)+IF(AW12="y",1,0)+IF(AX12="y",1,0)+IF(AY12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA12" s="44"/>
-      <c r="BB12" s="52"/>
-      <c r="BC12" s="53"/>
-      <c r="BD12" s="54"/>
-      <c r="BE12" s="55"/>
-      <c r="BF12" s="56"/>
-      <c r="BG12" s="50">
+      <c r="BA12" s="45"/>
+      <c r="BB12" s="54"/>
+      <c r="BC12" s="55"/>
+      <c r="BD12" s="56"/>
+      <c r="BE12" s="57"/>
+      <c r="BF12" s="58"/>
+      <c r="BG12" s="51">
         <f>IFERROR((VLOOKUP(BA12,Scoring!$A:$B,2,0))+IF(BC12="y",1,0)+IF(BD12="y",1,0)+IF(BE12="y",1,0)+IF(BF12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH12" s="44"/>
-      <c r="BI12" s="52"/>
-      <c r="BJ12" s="53"/>
-      <c r="BK12" s="54"/>
-      <c r="BL12" s="55"/>
-      <c r="BM12" s="56"/>
-      <c r="BN12" s="50">
+      <c r="BH12" s="45"/>
+      <c r="BI12" s="54"/>
+      <c r="BJ12" s="55"/>
+      <c r="BK12" s="56"/>
+      <c r="BL12" s="57"/>
+      <c r="BM12" s="58"/>
+      <c r="BN12" s="51">
         <f>IFERROR((VLOOKUP(BH12,Scoring!$A:$B,2,0))+IF(BJ12="y",1,0)+IF(BK12="y",1,0)+IF(BL12="y",1,0)+IF(BM12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO12" s="44"/>
-      <c r="BP12" s="52"/>
-      <c r="BQ12" s="53"/>
-      <c r="BR12" s="54"/>
-      <c r="BS12" s="55"/>
-      <c r="BT12" s="56"/>
-      <c r="BU12" s="50">
+      <c r="BO12" s="45"/>
+      <c r="BP12" s="54"/>
+      <c r="BQ12" s="55"/>
+      <c r="BR12" s="56"/>
+      <c r="BS12" s="57"/>
+      <c r="BT12" s="58"/>
+      <c r="BU12" s="51">
         <f>IFERROR((VLOOKUP(BO12,Scoring!$A:$B,2,0))+IF(BQ12="y",1,0)+IF(BR12="y",1,0)+IF(BS12="y",1,0)+IF(BT12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV12" s="44"/>
-      <c r="BW12" s="52"/>
-      <c r="BX12" s="53"/>
-      <c r="BY12" s="54"/>
-      <c r="BZ12" s="55"/>
-      <c r="CA12" s="56"/>
-      <c r="CB12" s="50">
+      <c r="BV12" s="45"/>
+      <c r="BW12" s="54"/>
+      <c r="BX12" s="55"/>
+      <c r="BY12" s="56"/>
+      <c r="BZ12" s="57"/>
+      <c r="CA12" s="58"/>
+      <c r="CB12" s="51">
         <f>IFERROR((VLOOKUP(BV12,Scoring!$A:$B,2,0))+IF(BX12="y",1,0)+IF(BY12="y",1,0)+IF(BZ12="y",1,0)+IF(CA12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC12" s="44"/>
-      <c r="CD12" s="52"/>
-      <c r="CE12" s="53"/>
-      <c r="CF12" s="54"/>
-      <c r="CG12" s="55"/>
-      <c r="CH12" s="56"/>
-      <c r="CI12" s="50">
+      <c r="CC12" s="45"/>
+      <c r="CD12" s="54"/>
+      <c r="CE12" s="55"/>
+      <c r="CF12" s="56"/>
+      <c r="CG12" s="57"/>
+      <c r="CH12" s="58"/>
+      <c r="CI12" s="51">
         <f>IFERROR((VLOOKUP(CC12,Scoring!$A:$B,2,0))+IF(CE12="y",1,0)+IF(CF12="y",1,0)+IF(CG12="y",1,0)+IF(CH12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ12" s="44"/>
-      <c r="CK12" s="52"/>
-      <c r="CL12" s="53"/>
-      <c r="CM12" s="54"/>
-      <c r="CN12" s="55"/>
-      <c r="CO12" s="56"/>
-      <c r="CP12" s="50">
+      <c r="CJ12" s="45"/>
+      <c r="CK12" s="54"/>
+      <c r="CL12" s="55"/>
+      <c r="CM12" s="56"/>
+      <c r="CN12" s="57"/>
+      <c r="CO12" s="58"/>
+      <c r="CP12" s="51">
         <f>IFERROR((VLOOKUP(CJ12,Scoring!$A:$B,2,0))+IF(CL12="y",1,0)+IF(CM12="y",1,0)+IF(CN12="y",1,0)+IF(CO12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ12" s="44"/>
-      <c r="CR12" s="52"/>
-      <c r="CS12" s="53"/>
-      <c r="CT12" s="54"/>
-      <c r="CU12" s="55"/>
-      <c r="CV12" s="56"/>
-      <c r="CW12" s="50">
+      <c r="CQ12" s="45"/>
+      <c r="CR12" s="54"/>
+      <c r="CS12" s="55"/>
+      <c r="CT12" s="56"/>
+      <c r="CU12" s="57"/>
+      <c r="CV12" s="58"/>
+      <c r="CW12" s="51">
         <f>IFERROR((VLOOKUP(CQ12,Scoring!$A:$B,2,0))+IF(CS12="y",1,0)+IF(CT12="y",1,0)+IF(CU12="y",1,0)+IF(CV12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX12" s="44"/>
-      <c r="CY12" s="52"/>
-      <c r="CZ12" s="53"/>
-      <c r="DA12" s="54"/>
-      <c r="DB12" s="55"/>
-      <c r="DC12" s="56"/>
-      <c r="DD12" s="50">
+      <c r="CX12" s="45"/>
+      <c r="CY12" s="54"/>
+      <c r="CZ12" s="55"/>
+      <c r="DA12" s="56"/>
+      <c r="DB12" s="57"/>
+      <c r="DC12" s="58"/>
+      <c r="DD12" s="51">
         <f>IFERROR((VLOOKUP(CX12,Scoring!$A:$B,2,0))+IF(CZ12="y",1,0)+IF(DA12="y",1,0)+IF(DB12="y",1,0)+IF(DC12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE12" s="44"/>
-      <c r="DF12" s="52"/>
-      <c r="DG12" s="53"/>
-      <c r="DH12" s="54"/>
-      <c r="DI12" s="55"/>
-      <c r="DJ12" s="56"/>
-      <c r="DK12" s="50">
+      <c r="DE12" s="45"/>
+      <c r="DF12" s="54"/>
+      <c r="DG12" s="55"/>
+      <c r="DH12" s="56"/>
+      <c r="DI12" s="57"/>
+      <c r="DJ12" s="58"/>
+      <c r="DK12" s="51">
         <f>IFERROR((VLOOKUP(DE12,Scoring!$A:$B,2,0))+IF(DG12="y",1,0)+IF(DH12="y",1,0)+IF(DI12="y",1,0)+IF(DJ12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL12" s="44"/>
-      <c r="DM12" s="52"/>
-      <c r="DN12" s="53"/>
-      <c r="DO12" s="54"/>
-      <c r="DP12" s="55"/>
-      <c r="DQ12" s="56"/>
-      <c r="DR12" s="50">
+      <c r="DL12" s="45"/>
+      <c r="DM12" s="54"/>
+      <c r="DN12" s="55"/>
+      <c r="DO12" s="56"/>
+      <c r="DP12" s="57"/>
+      <c r="DQ12" s="58"/>
+      <c r="DR12" s="51">
         <f>IFERROR((VLOOKUP(DL12,Scoring!$A:$B,2,0))+IF(DN12="y",1,0)+IF(DO12="y",1,0)+IF(DP12="y",1,0)+IF(DQ12="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="62">
         <v>11.0</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="63">
         <v>15.0</v>
       </c>
-      <c r="F13" s="62" t="s">
-        <v>279</v>
-      </c>
-      <c r="G13" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="I13" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="J13" s="66">
+      <c r="F13" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="H13" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="J13" s="68">
         <f>IFERROR((VLOOKUP(D13,Scoring!$A:$B,2,0))+IF(F13="y",1,0)+IF(G13="y",1,0)+IF(H13="y",1,0)+IF(I13="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="62">
         <v>11.0</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13" s="63">
         <v>12.0</v>
       </c>
-      <c r="M13" s="62" t="s">
-        <v>279</v>
-      </c>
-      <c r="N13" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="O13" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="P13" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q13" s="67">
+      <c r="M13" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="N13" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="O13" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="P13" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q13" s="69">
         <f>IFERROR((VLOOKUP(K13,Scoring!$D:$E,2,0))+IF(M13="y",1,0)+IF(N13="y",1,0)+IF(O13="y",1,0)+IF(P13="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="R13" s="60">
+      <c r="R13" s="62">
         <v>10.0</v>
       </c>
-      <c r="S13" s="61">
+      <c r="S13" s="63">
         <v>5.0</v>
       </c>
-      <c r="T13" s="62" t="s">
-        <v>279</v>
-      </c>
-      <c r="U13" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="V13" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="W13" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="X13" s="66">
+      <c r="T13" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="U13" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="V13" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="W13" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="X13" s="68">
         <f>IFERROR((VLOOKUP(R13,Scoring!$A:$B,2,0))+IF(T13="y",1,0)+IF(U13="y",1,0)+IF(V13="y",1,0)+IF(W13="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="Y13" s="60">
+      <c r="Y13" s="62">
         <v>12.0</v>
       </c>
-      <c r="Z13" s="61">
+      <c r="Z13" s="63">
         <v>10.0</v>
       </c>
-      <c r="AA13" s="62" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB13" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC13" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD13" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="AE13" s="66">
+      <c r="AA13" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB13" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC13" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD13" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE13" s="68">
         <f>IFERROR((VLOOKUP(Y13,Scoring!$A:$B,2,0))+IF(AA13="y",1,0)+IF(AB13="y",1,0)+IF(AC13="y",1,0)+IF(AD13="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="68"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="70"/>
-      <c r="AJ13" s="71"/>
-      <c r="AK13" s="72"/>
-      <c r="AL13" s="66">
+      <c r="AF13" s="62">
+        <v>11.0</v>
+      </c>
+      <c r="AG13" s="63">
+        <v>9.0</v>
+      </c>
+      <c r="AH13" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI13" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ13" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK13" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL13" s="68">
         <f>IFERROR((VLOOKUP(AF13,Scoring!$A:$B,2,0))+IF(AH13="y",1,0)+IF(AI13="y",1,0)+IF(AJ13="y",1,0)+IF(AK13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM13" s="60"/>
-      <c r="AN13" s="68"/>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="70"/>
-      <c r="AQ13" s="71"/>
-      <c r="AR13" s="72"/>
-      <c r="AS13" s="66">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="62"/>
+      <c r="AN13" s="71"/>
+      <c r="AO13" s="72"/>
+      <c r="AP13" s="73"/>
+      <c r="AQ13" s="74"/>
+      <c r="AR13" s="75"/>
+      <c r="AS13" s="68">
         <f>IFERROR((VLOOKUP(AM13,Scoring!$A:$B,2,0))+IF(AO13="y",1,0)+IF(AP13="y",1,0)+IF(AQ13="y",1,0)+IF(AR13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT13" s="60"/>
-      <c r="AU13" s="68"/>
-      <c r="AV13" s="69"/>
-      <c r="AW13" s="70"/>
-      <c r="AX13" s="71"/>
-      <c r="AY13" s="72"/>
-      <c r="AZ13" s="66">
+      <c r="AT13" s="62"/>
+      <c r="AU13" s="71"/>
+      <c r="AV13" s="72"/>
+      <c r="AW13" s="73"/>
+      <c r="AX13" s="74"/>
+      <c r="AY13" s="75"/>
+      <c r="AZ13" s="68">
         <f>IFERROR((VLOOKUP(AT13,Scoring!$A:$B,2,0))+IF(AV13="y",1,0)+IF(AW13="y",1,0)+IF(AX13="y",1,0)+IF(AY13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA13" s="60"/>
-      <c r="BB13" s="68"/>
-      <c r="BC13" s="69"/>
-      <c r="BD13" s="70"/>
-      <c r="BE13" s="71"/>
-      <c r="BF13" s="72"/>
-      <c r="BG13" s="66">
+      <c r="BA13" s="62"/>
+      <c r="BB13" s="71"/>
+      <c r="BC13" s="72"/>
+      <c r="BD13" s="73"/>
+      <c r="BE13" s="74"/>
+      <c r="BF13" s="75"/>
+      <c r="BG13" s="68">
         <f>IFERROR((VLOOKUP(BA13,Scoring!$A:$B,2,0))+IF(BC13="y",1,0)+IF(BD13="y",1,0)+IF(BE13="y",1,0)+IF(BF13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH13" s="60"/>
-      <c r="BI13" s="68"/>
-      <c r="BJ13" s="69"/>
-      <c r="BK13" s="70"/>
-      <c r="BL13" s="71"/>
-      <c r="BM13" s="72"/>
-      <c r="BN13" s="66">
+      <c r="BH13" s="62"/>
+      <c r="BI13" s="71"/>
+      <c r="BJ13" s="72"/>
+      <c r="BK13" s="73"/>
+      <c r="BL13" s="74"/>
+      <c r="BM13" s="75"/>
+      <c r="BN13" s="68">
         <f>IFERROR((VLOOKUP(BH13,Scoring!$A:$B,2,0))+IF(BJ13="y",1,0)+IF(BK13="y",1,0)+IF(BL13="y",1,0)+IF(BM13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO13" s="60"/>
-      <c r="BP13" s="68"/>
-      <c r="BQ13" s="69"/>
-      <c r="BR13" s="70"/>
-      <c r="BS13" s="71"/>
-      <c r="BT13" s="72"/>
-      <c r="BU13" s="66">
+      <c r="BO13" s="62"/>
+      <c r="BP13" s="71"/>
+      <c r="BQ13" s="72"/>
+      <c r="BR13" s="73"/>
+      <c r="BS13" s="74"/>
+      <c r="BT13" s="75"/>
+      <c r="BU13" s="68">
         <f>IFERROR((VLOOKUP(BO13,Scoring!$A:$B,2,0))+IF(BQ13="y",1,0)+IF(BR13="y",1,0)+IF(BS13="y",1,0)+IF(BT13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV13" s="60"/>
-      <c r="BW13" s="68"/>
-      <c r="BX13" s="69"/>
-      <c r="BY13" s="70"/>
-      <c r="BZ13" s="71"/>
-      <c r="CA13" s="72"/>
-      <c r="CB13" s="66">
+      <c r="BV13" s="62"/>
+      <c r="BW13" s="71"/>
+      <c r="BX13" s="72"/>
+      <c r="BY13" s="73"/>
+      <c r="BZ13" s="74"/>
+      <c r="CA13" s="75"/>
+      <c r="CB13" s="68">
         <f>IFERROR((VLOOKUP(BV13,Scoring!$A:$B,2,0))+IF(BX13="y",1,0)+IF(BY13="y",1,0)+IF(BZ13="y",1,0)+IF(CA13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC13" s="60"/>
-      <c r="CD13" s="68"/>
-      <c r="CE13" s="69"/>
-      <c r="CF13" s="70"/>
-      <c r="CG13" s="71"/>
-      <c r="CH13" s="72"/>
-      <c r="CI13" s="66">
+      <c r="CC13" s="62"/>
+      <c r="CD13" s="71"/>
+      <c r="CE13" s="72"/>
+      <c r="CF13" s="73"/>
+      <c r="CG13" s="74"/>
+      <c r="CH13" s="75"/>
+      <c r="CI13" s="68">
         <f>IFERROR((VLOOKUP(CC13,Scoring!$A:$B,2,0))+IF(CE13="y",1,0)+IF(CF13="y",1,0)+IF(CG13="y",1,0)+IF(CH13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ13" s="60"/>
-      <c r="CK13" s="68"/>
-      <c r="CL13" s="69"/>
-      <c r="CM13" s="70"/>
-      <c r="CN13" s="71"/>
-      <c r="CO13" s="72"/>
-      <c r="CP13" s="66">
+      <c r="CJ13" s="62"/>
+      <c r="CK13" s="71"/>
+      <c r="CL13" s="72"/>
+      <c r="CM13" s="73"/>
+      <c r="CN13" s="74"/>
+      <c r="CO13" s="75"/>
+      <c r="CP13" s="68">
         <f>IFERROR((VLOOKUP(CJ13,Scoring!$A:$B,2,0))+IF(CL13="y",1,0)+IF(CM13="y",1,0)+IF(CN13="y",1,0)+IF(CO13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ13" s="60"/>
-      <c r="CR13" s="68"/>
-      <c r="CS13" s="69"/>
-      <c r="CT13" s="70"/>
-      <c r="CU13" s="71"/>
-      <c r="CV13" s="72"/>
-      <c r="CW13" s="66">
+      <c r="CQ13" s="62"/>
+      <c r="CR13" s="71"/>
+      <c r="CS13" s="72"/>
+      <c r="CT13" s="73"/>
+      <c r="CU13" s="74"/>
+      <c r="CV13" s="75"/>
+      <c r="CW13" s="68">
         <f>IFERROR((VLOOKUP(CQ13,Scoring!$A:$B,2,0))+IF(CS13="y",1,0)+IF(CT13="y",1,0)+IF(CU13="y",1,0)+IF(CV13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX13" s="60"/>
-      <c r="CY13" s="68"/>
-      <c r="CZ13" s="69"/>
-      <c r="DA13" s="70"/>
-      <c r="DB13" s="71"/>
-      <c r="DC13" s="72"/>
-      <c r="DD13" s="66">
+      <c r="CX13" s="62"/>
+      <c r="CY13" s="71"/>
+      <c r="CZ13" s="72"/>
+      <c r="DA13" s="73"/>
+      <c r="DB13" s="74"/>
+      <c r="DC13" s="75"/>
+      <c r="DD13" s="68">
         <f>IFERROR((VLOOKUP(CX13,Scoring!$A:$B,2,0))+IF(CZ13="y",1,0)+IF(DA13="y",1,0)+IF(DB13="y",1,0)+IF(DC13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE13" s="60"/>
-      <c r="DF13" s="68"/>
-      <c r="DG13" s="69"/>
-      <c r="DH13" s="70"/>
-      <c r="DI13" s="71"/>
-      <c r="DJ13" s="72"/>
-      <c r="DK13" s="66">
+      <c r="DE13" s="62"/>
+      <c r="DF13" s="71"/>
+      <c r="DG13" s="72"/>
+      <c r="DH13" s="73"/>
+      <c r="DI13" s="74"/>
+      <c r="DJ13" s="75"/>
+      <c r="DK13" s="68">
         <f>IFERROR((VLOOKUP(DE13,Scoring!$A:$B,2,0))+IF(DG13="y",1,0)+IF(DH13="y",1,0)+IF(DI13="y",1,0)+IF(DJ13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL13" s="60"/>
-      <c r="DM13" s="68"/>
-      <c r="DN13" s="69"/>
-      <c r="DO13" s="70"/>
-      <c r="DP13" s="71"/>
-      <c r="DQ13" s="72"/>
-      <c r="DR13" s="66">
+      <c r="DL13" s="62"/>
+      <c r="DM13" s="71"/>
+      <c r="DN13" s="72"/>
+      <c r="DO13" s="73"/>
+      <c r="DP13" s="74"/>
+      <c r="DQ13" s="75"/>
+      <c r="DR13" s="68">
         <f>IFERROR((VLOOKUP(DL13,Scoring!$A:$B,2,0))+IF(DN13="y",1,0)+IF(DO13="y",1,0)+IF(DP13="y",1,0)+IF(DQ13="y",1,0),0)</f>
         <v>0</v>
       </c>
@@ -13026,362 +13182,386 @@
         <f>IFERROR((VLOOKUP(Y14,Scoring!$A:$B,2,0))+IF(AA14="y",1,0)+IF(AB14="y",1,0)+IF(AC14="y",1,0)+IF(AD14="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="39"/>
-      <c r="AK14" s="40"/>
+      <c r="AF14" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="AG14" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="AH14" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI14" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="AJ14" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK14" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="AL14" s="34">
         <f>IFERROR((VLOOKUP(AF14,Scoring!$A:$B,2,0))+IF(AH14="y",1,0)+IF(AI14="y",1,0)+IF(AJ14="y",1,0)+IF(AK14="y",1,0),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AM14" s="28"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="39"/>
-      <c r="AR14" s="40"/>
+      <c r="AN14" s="37"/>
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="39"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="41"/>
       <c r="AS14" s="34">
         <f>IFERROR((VLOOKUP(AM14,Scoring!$A:$B,2,0))+IF(AO14="y",1,0)+IF(AP14="y",1,0)+IF(AQ14="y",1,0)+IF(AR14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AT14" s="28"/>
-      <c r="AU14" s="36"/>
-      <c r="AV14" s="37"/>
-      <c r="AW14" s="38"/>
-      <c r="AX14" s="39"/>
-      <c r="AY14" s="40"/>
+      <c r="AU14" s="37"/>
+      <c r="AV14" s="38"/>
+      <c r="AW14" s="39"/>
+      <c r="AX14" s="40"/>
+      <c r="AY14" s="41"/>
       <c r="AZ14" s="34">
         <f>IFERROR((VLOOKUP(AT14,Scoring!$A:$B,2,0))+IF(AV14="y",1,0)+IF(AW14="y",1,0)+IF(AX14="y",1,0)+IF(AY14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BA14" s="28"/>
-      <c r="BB14" s="36"/>
-      <c r="BC14" s="37"/>
-      <c r="BD14" s="38"/>
-      <c r="BE14" s="39"/>
-      <c r="BF14" s="40"/>
+      <c r="BB14" s="37"/>
+      <c r="BC14" s="38"/>
+      <c r="BD14" s="39"/>
+      <c r="BE14" s="40"/>
+      <c r="BF14" s="41"/>
       <c r="BG14" s="34">
         <f>IFERROR((VLOOKUP(BA14,Scoring!$A:$B,2,0))+IF(BC14="y",1,0)+IF(BD14="y",1,0)+IF(BE14="y",1,0)+IF(BF14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BH14" s="28"/>
-      <c r="BI14" s="36"/>
-      <c r="BJ14" s="37"/>
-      <c r="BK14" s="38"/>
-      <c r="BL14" s="39"/>
-      <c r="BM14" s="40"/>
+      <c r="BI14" s="37"/>
+      <c r="BJ14" s="38"/>
+      <c r="BK14" s="39"/>
+      <c r="BL14" s="40"/>
+      <c r="BM14" s="41"/>
       <c r="BN14" s="34">
         <f>IFERROR((VLOOKUP(BH14,Scoring!$A:$B,2,0))+IF(BJ14="y",1,0)+IF(BK14="y",1,0)+IF(BL14="y",1,0)+IF(BM14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BO14" s="28"/>
-      <c r="BP14" s="36"/>
-      <c r="BQ14" s="37"/>
-      <c r="BR14" s="38"/>
-      <c r="BS14" s="39"/>
-      <c r="BT14" s="40"/>
+      <c r="BP14" s="37"/>
+      <c r="BQ14" s="38"/>
+      <c r="BR14" s="39"/>
+      <c r="BS14" s="40"/>
+      <c r="BT14" s="41"/>
       <c r="BU14" s="34">
         <f>IFERROR((VLOOKUP(BO14,Scoring!$A:$B,2,0))+IF(BQ14="y",1,0)+IF(BR14="y",1,0)+IF(BS14="y",1,0)+IF(BT14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BV14" s="28"/>
-      <c r="BW14" s="36"/>
-      <c r="BX14" s="37"/>
-      <c r="BY14" s="38"/>
-      <c r="BZ14" s="39"/>
-      <c r="CA14" s="40"/>
+      <c r="BW14" s="37"/>
+      <c r="BX14" s="38"/>
+      <c r="BY14" s="39"/>
+      <c r="BZ14" s="40"/>
+      <c r="CA14" s="41"/>
       <c r="CB14" s="34">
         <f>IFERROR((VLOOKUP(BV14,Scoring!$A:$B,2,0))+IF(BX14="y",1,0)+IF(BY14="y",1,0)+IF(BZ14="y",1,0)+IF(CA14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CC14" s="28"/>
-      <c r="CD14" s="36"/>
-      <c r="CE14" s="37"/>
-      <c r="CF14" s="38"/>
-      <c r="CG14" s="39"/>
-      <c r="CH14" s="40"/>
+      <c r="CD14" s="37"/>
+      <c r="CE14" s="38"/>
+      <c r="CF14" s="39"/>
+      <c r="CG14" s="40"/>
+      <c r="CH14" s="41"/>
       <c r="CI14" s="34">
         <f>IFERROR((VLOOKUP(CC14,Scoring!$A:$B,2,0))+IF(CE14="y",1,0)+IF(CF14="y",1,0)+IF(CG14="y",1,0)+IF(CH14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CJ14" s="28"/>
-      <c r="CK14" s="36"/>
-      <c r="CL14" s="37"/>
-      <c r="CM14" s="38"/>
-      <c r="CN14" s="39"/>
-      <c r="CO14" s="40"/>
+      <c r="CK14" s="37"/>
+      <c r="CL14" s="38"/>
+      <c r="CM14" s="39"/>
+      <c r="CN14" s="40"/>
+      <c r="CO14" s="41"/>
       <c r="CP14" s="34">
         <f>IFERROR((VLOOKUP(CJ14,Scoring!$A:$B,2,0))+IF(CL14="y",1,0)+IF(CM14="y",1,0)+IF(CN14="y",1,0)+IF(CO14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CQ14" s="28"/>
-      <c r="CR14" s="36"/>
-      <c r="CS14" s="37"/>
-      <c r="CT14" s="38"/>
-      <c r="CU14" s="39"/>
-      <c r="CV14" s="40"/>
+      <c r="CR14" s="37"/>
+      <c r="CS14" s="38"/>
+      <c r="CT14" s="39"/>
+      <c r="CU14" s="40"/>
+      <c r="CV14" s="41"/>
       <c r="CW14" s="34">
         <f>IFERROR((VLOOKUP(CQ14,Scoring!$A:$B,2,0))+IF(CS14="y",1,0)+IF(CT14="y",1,0)+IF(CU14="y",1,0)+IF(CV14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="CX14" s="28"/>
-      <c r="CY14" s="36"/>
-      <c r="CZ14" s="37"/>
-      <c r="DA14" s="38"/>
-      <c r="DB14" s="39"/>
-      <c r="DC14" s="40"/>
+      <c r="CY14" s="37"/>
+      <c r="CZ14" s="38"/>
+      <c r="DA14" s="39"/>
+      <c r="DB14" s="40"/>
+      <c r="DC14" s="41"/>
       <c r="DD14" s="34">
         <f>IFERROR((VLOOKUP(CX14,Scoring!$A:$B,2,0))+IF(CZ14="y",1,0)+IF(DA14="y",1,0)+IF(DB14="y",1,0)+IF(DC14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="DE14" s="28"/>
-      <c r="DF14" s="36"/>
-      <c r="DG14" s="37"/>
-      <c r="DH14" s="38"/>
-      <c r="DI14" s="39"/>
-      <c r="DJ14" s="40"/>
+      <c r="DF14" s="37"/>
+      <c r="DG14" s="38"/>
+      <c r="DH14" s="39"/>
+      <c r="DI14" s="40"/>
+      <c r="DJ14" s="41"/>
       <c r="DK14" s="34">
         <f>IFERROR((VLOOKUP(DE14,Scoring!$A:$B,2,0))+IF(DG14="y",1,0)+IF(DH14="y",1,0)+IF(DI14="y",1,0)+IF(DJ14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="DL14" s="28"/>
-      <c r="DM14" s="36"/>
-      <c r="DN14" s="37"/>
-      <c r="DO14" s="38"/>
-      <c r="DP14" s="39"/>
-      <c r="DQ14" s="40"/>
+      <c r="DM14" s="37"/>
+      <c r="DN14" s="38"/>
+      <c r="DO14" s="39"/>
+      <c r="DP14" s="40"/>
+      <c r="DQ14" s="41"/>
       <c r="DR14" s="34">
         <f>IFERROR((VLOOKUP(DL14,Scoring!$A:$B,2,0))+IF(DN14="y",1,0)+IF(DO14="y",1,0)+IF(DP14="y",1,0)+IF(DQ14="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="79">
         <v>21.0</v>
       </c>
-      <c r="E15" s="77">
-        <v>22.0</v>
-      </c>
-      <c r="F15" s="78" t="s">
-        <v>279</v>
-      </c>
-      <c r="G15" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="H15" s="80" t="s">
-        <v>279</v>
-      </c>
-      <c r="I15" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="J15" s="82">
+      <c r="E15" s="80">
+        <v>22.0</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="G15" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="H15" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="I15" s="84" t="s">
+        <v>279</v>
+      </c>
+      <c r="J15" s="85">
         <f>IFERROR((VLOOKUP(D15,Scoring!$A:$B,2,0))+IF(F15="y",1,0)+IF(G15="y",1,0)+IF(H15="y",1,0)+IF(I15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="76">
-        <v>1.0</v>
-      </c>
-      <c r="L15" s="77">
-        <v>1.0</v>
-      </c>
-      <c r="M15" s="78" t="s">
-        <v>279</v>
-      </c>
-      <c r="N15" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="O15" s="80" t="s">
-        <v>279</v>
-      </c>
-      <c r="P15" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q15" s="83">
+      <c r="K15" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="L15" s="80">
+        <v>1.0</v>
+      </c>
+      <c r="M15" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="N15" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="O15" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="P15" s="84" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q15" s="86">
         <f>IFERROR((VLOOKUP(K15,Scoring!$D:$E,2,0))+IF(M15="y",1,0)+IF(N15="y",1,0)+IF(O15="y",1,0)+IF(P15="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="R15" s="76">
+      <c r="R15" s="79">
         <v>21.0</v>
       </c>
-      <c r="S15" s="77">
+      <c r="S15" s="80">
         <v>14.0</v>
       </c>
-      <c r="T15" s="78" t="s">
-        <v>279</v>
-      </c>
-      <c r="U15" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="V15" s="80" t="s">
-        <v>279</v>
-      </c>
-      <c r="W15" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="X15" s="82">
+      <c r="T15" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="U15" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="V15" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="W15" s="84" t="s">
+        <v>279</v>
+      </c>
+      <c r="X15" s="85">
         <f>IFERROR((VLOOKUP(R15,Scoring!$A:$B,2,0))+IF(T15="y",1,0)+IF(U15="y",1,0)+IF(V15="y",1,0)+IF(W15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="76">
-        <v>1.0</v>
-      </c>
-      <c r="Z15" s="77">
-        <v>1.0</v>
-      </c>
-      <c r="AA15" s="78" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB15" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC15" s="80" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD15" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="AE15" s="82">
+      <c r="Y15" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="Z15" s="80">
+        <v>1.0</v>
+      </c>
+      <c r="AA15" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB15" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC15" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD15" s="84" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE15" s="85">
         <f>IFERROR((VLOOKUP(Y15,Scoring!$A:$B,2,0))+IF(AA15="y",1,0)+IF(AB15="y",1,0)+IF(AC15="y",1,0)+IF(AD15="y",1,0),0)</f>
         <v>25</v>
       </c>
-      <c r="AF15" s="76"/>
-      <c r="AG15" s="84"/>
-      <c r="AH15" s="85"/>
-      <c r="AI15" s="86"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="88"/>
-      <c r="AL15" s="82">
+      <c r="AF15" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="AG15" s="80">
+        <v>1.0</v>
+      </c>
+      <c r="AH15" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI15" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ15" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK15" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL15" s="85">
         <f>IFERROR((VLOOKUP(AF15,Scoring!$A:$B,2,0))+IF(AH15="y",1,0)+IF(AI15="y",1,0)+IF(AJ15="y",1,0)+IF(AK15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM15" s="76"/>
-      <c r="AN15" s="84"/>
-      <c r="AO15" s="85"/>
-      <c r="AP15" s="86"/>
-      <c r="AQ15" s="87"/>
-      <c r="AR15" s="88"/>
-      <c r="AS15" s="82">
+        <v>25</v>
+      </c>
+      <c r="AM15" s="79"/>
+      <c r="AN15" s="88"/>
+      <c r="AO15" s="89"/>
+      <c r="AP15" s="90"/>
+      <c r="AQ15" s="91"/>
+      <c r="AR15" s="92"/>
+      <c r="AS15" s="85">
         <f>IFERROR((VLOOKUP(AM15,Scoring!$A:$B,2,0))+IF(AO15="y",1,0)+IF(AP15="y",1,0)+IF(AQ15="y",1,0)+IF(AR15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT15" s="76"/>
-      <c r="AU15" s="84"/>
-      <c r="AV15" s="85"/>
-      <c r="AW15" s="86"/>
-      <c r="AX15" s="87"/>
-      <c r="AY15" s="88"/>
-      <c r="AZ15" s="82">
+      <c r="AT15" s="79"/>
+      <c r="AU15" s="88"/>
+      <c r="AV15" s="89"/>
+      <c r="AW15" s="90"/>
+      <c r="AX15" s="91"/>
+      <c r="AY15" s="92"/>
+      <c r="AZ15" s="85">
         <f>IFERROR((VLOOKUP(AT15,Scoring!$A:$B,2,0))+IF(AV15="y",1,0)+IF(AW15="y",1,0)+IF(AX15="y",1,0)+IF(AY15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA15" s="76"/>
-      <c r="BB15" s="84"/>
-      <c r="BC15" s="85"/>
-      <c r="BD15" s="86"/>
-      <c r="BE15" s="87"/>
-      <c r="BF15" s="88"/>
-      <c r="BG15" s="82">
+      <c r="BA15" s="79"/>
+      <c r="BB15" s="88"/>
+      <c r="BC15" s="89"/>
+      <c r="BD15" s="90"/>
+      <c r="BE15" s="91"/>
+      <c r="BF15" s="92"/>
+      <c r="BG15" s="85">
         <f>IFERROR((VLOOKUP(BA15,Scoring!$A:$B,2,0))+IF(BC15="y",1,0)+IF(BD15="y",1,0)+IF(BE15="y",1,0)+IF(BF15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH15" s="76"/>
-      <c r="BI15" s="84"/>
-      <c r="BJ15" s="85"/>
-      <c r="BK15" s="86"/>
-      <c r="BL15" s="87"/>
-      <c r="BM15" s="88"/>
-      <c r="BN15" s="82">
+      <c r="BH15" s="79"/>
+      <c r="BI15" s="88"/>
+      <c r="BJ15" s="89"/>
+      <c r="BK15" s="90"/>
+      <c r="BL15" s="91"/>
+      <c r="BM15" s="92"/>
+      <c r="BN15" s="85">
         <f>IFERROR((VLOOKUP(BH15,Scoring!$A:$B,2,0))+IF(BJ15="y",1,0)+IF(BK15="y",1,0)+IF(BL15="y",1,0)+IF(BM15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO15" s="76"/>
-      <c r="BP15" s="84"/>
-      <c r="BQ15" s="85"/>
-      <c r="BR15" s="86"/>
-      <c r="BS15" s="87"/>
-      <c r="BT15" s="88"/>
-      <c r="BU15" s="82">
+      <c r="BO15" s="79"/>
+      <c r="BP15" s="88"/>
+      <c r="BQ15" s="89"/>
+      <c r="BR15" s="90"/>
+      <c r="BS15" s="91"/>
+      <c r="BT15" s="92"/>
+      <c r="BU15" s="85">
         <f>IFERROR((VLOOKUP(BO15,Scoring!$A:$B,2,0))+IF(BQ15="y",1,0)+IF(BR15="y",1,0)+IF(BS15="y",1,0)+IF(BT15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV15" s="76"/>
-      <c r="BW15" s="84"/>
-      <c r="BX15" s="85"/>
-      <c r="BY15" s="86"/>
-      <c r="BZ15" s="87"/>
-      <c r="CA15" s="88"/>
-      <c r="CB15" s="82">
+      <c r="BV15" s="79"/>
+      <c r="BW15" s="88"/>
+      <c r="BX15" s="89"/>
+      <c r="BY15" s="90"/>
+      <c r="BZ15" s="91"/>
+      <c r="CA15" s="92"/>
+      <c r="CB15" s="85">
         <f>IFERROR((VLOOKUP(BV15,Scoring!$A:$B,2,0))+IF(BX15="y",1,0)+IF(BY15="y",1,0)+IF(BZ15="y",1,0)+IF(CA15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC15" s="76"/>
-      <c r="CD15" s="84"/>
-      <c r="CE15" s="85"/>
-      <c r="CF15" s="86"/>
-      <c r="CG15" s="87"/>
-      <c r="CH15" s="88"/>
-      <c r="CI15" s="82">
+      <c r="CC15" s="79"/>
+      <c r="CD15" s="88"/>
+      <c r="CE15" s="89"/>
+      <c r="CF15" s="90"/>
+      <c r="CG15" s="91"/>
+      <c r="CH15" s="92"/>
+      <c r="CI15" s="85">
         <f>IFERROR((VLOOKUP(CC15,Scoring!$A:$B,2,0))+IF(CE15="y",1,0)+IF(CF15="y",1,0)+IF(CG15="y",1,0)+IF(CH15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ15" s="76"/>
-      <c r="CK15" s="84"/>
-      <c r="CL15" s="85"/>
-      <c r="CM15" s="86"/>
-      <c r="CN15" s="87"/>
-      <c r="CO15" s="88"/>
-      <c r="CP15" s="82">
+      <c r="CJ15" s="79"/>
+      <c r="CK15" s="88"/>
+      <c r="CL15" s="89"/>
+      <c r="CM15" s="90"/>
+      <c r="CN15" s="91"/>
+      <c r="CO15" s="92"/>
+      <c r="CP15" s="85">
         <f>IFERROR((VLOOKUP(CJ15,Scoring!$A:$B,2,0))+IF(CL15="y",1,0)+IF(CM15="y",1,0)+IF(CN15="y",1,0)+IF(CO15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ15" s="76"/>
-      <c r="CR15" s="84"/>
-      <c r="CS15" s="85"/>
-      <c r="CT15" s="86"/>
-      <c r="CU15" s="87"/>
-      <c r="CV15" s="88"/>
-      <c r="CW15" s="82">
+      <c r="CQ15" s="79"/>
+      <c r="CR15" s="88"/>
+      <c r="CS15" s="89"/>
+      <c r="CT15" s="90"/>
+      <c r="CU15" s="91"/>
+      <c r="CV15" s="92"/>
+      <c r="CW15" s="85">
         <f>IFERROR((VLOOKUP(CQ15,Scoring!$A:$B,2,0))+IF(CS15="y",1,0)+IF(CT15="y",1,0)+IF(CU15="y",1,0)+IF(CV15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX15" s="76"/>
-      <c r="CY15" s="84"/>
-      <c r="CZ15" s="85"/>
-      <c r="DA15" s="86"/>
-      <c r="DB15" s="87"/>
-      <c r="DC15" s="88"/>
-      <c r="DD15" s="82">
+      <c r="CX15" s="79"/>
+      <c r="CY15" s="88"/>
+      <c r="CZ15" s="89"/>
+      <c r="DA15" s="90"/>
+      <c r="DB15" s="91"/>
+      <c r="DC15" s="92"/>
+      <c r="DD15" s="85">
         <f>IFERROR((VLOOKUP(CX15,Scoring!$A:$B,2,0))+IF(CZ15="y",1,0)+IF(DA15="y",1,0)+IF(DB15="y",1,0)+IF(DC15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE15" s="76"/>
-      <c r="DF15" s="84"/>
-      <c r="DG15" s="85"/>
-      <c r="DH15" s="86"/>
-      <c r="DI15" s="87"/>
-      <c r="DJ15" s="88"/>
-      <c r="DK15" s="82">
+      <c r="DE15" s="79"/>
+      <c r="DF15" s="88"/>
+      <c r="DG15" s="89"/>
+      <c r="DH15" s="90"/>
+      <c r="DI15" s="91"/>
+      <c r="DJ15" s="92"/>
+      <c r="DK15" s="85">
         <f>IFERROR((VLOOKUP(DE15,Scoring!$A:$B,2,0))+IF(DG15="y",1,0)+IF(DH15="y",1,0)+IF(DI15="y",1,0)+IF(DJ15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL15" s="76"/>
-      <c r="DM15" s="84"/>
-      <c r="DN15" s="85"/>
-      <c r="DO15" s="86"/>
-      <c r="DP15" s="87"/>
-      <c r="DQ15" s="88"/>
-      <c r="DR15" s="82">
+      <c r="DL15" s="79"/>
+      <c r="DM15" s="88"/>
+      <c r="DN15" s="89"/>
+      <c r="DO15" s="90"/>
+      <c r="DP15" s="91"/>
+      <c r="DQ15" s="92"/>
+      <c r="DR15" s="85">
         <f>IFERROR((VLOOKUP(DL15,Scoring!$A:$B,2,0))+IF(DN15="y",1,0)+IF(DO15="y",1,0)+IF(DP15="y",1,0)+IF(DQ15="y",1,0),0)</f>
         <v>0</v>
       </c>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="311">
   <si>
     <t>Positions</t>
   </si>
@@ -860,6 +860,9 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>Jaden</t>
   </si>
   <si>
     <t>Date</t>
@@ -1925,21 +1928,21 @@
         <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3">
@@ -1947,21 +1950,21 @@
         <v>141</v>
       </c>
       <c r="B3" s="93" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +1972,10 @@
         <v>144</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6">
@@ -1980,10 +1983,10 @@
         <v>145</v>
       </c>
       <c r="B6" s="93" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7">
@@ -1991,10 +1994,10 @@
         <v>156</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8">
@@ -2002,32 +2005,32 @@
         <v>192</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="93" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B9" s="93" t="s">
-        <v>294</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B10" s="93" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11">
@@ -2035,21 +2038,21 @@
         <v>149</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B12" s="93" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13">
@@ -2057,10 +2060,10 @@
         <v>157</v>
       </c>
       <c r="B13" s="93" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14">
@@ -2068,10 +2071,10 @@
         <v>147</v>
       </c>
       <c r="B14" s="93" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15">
@@ -2079,32 +2082,32 @@
         <v>150</v>
       </c>
       <c r="B15" s="93" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B16" s="93" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18">
@@ -2112,32 +2115,32 @@
         <v>159</v>
       </c>
       <c r="B18" s="93" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B20" s="93" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -10312,15 +10315,27 @@
         <f>IFERROR((VLOOKUP(AF2,Scoring!$A:$B,2,0))+IF(AH2="y",1,0)+IF(AI2="y",1,0)+IF(AJ2="y",1,0)+IF(AK2="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="27"/>
+      <c r="AM2" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="AN2" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="AO2" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP2" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ2" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="AS2" s="21">
         <f>IFERROR((VLOOKUP(AM2,Scoring!$A:$B,2,0))+IF(AO2="y",1,0)+IF(AP2="y",1,0)+IF(AQ2="y",1,0)+IF(AR2="y",1,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AT2" s="15"/>
       <c r="AU2" s="23"/>
@@ -10553,12 +10568,24 @@
         <f>IFERROR((VLOOKUP(AF3,Scoring!$A:$B,2,0))+IF(AH3="y",1,0)+IF(AI3="y",1,0)+IF(AJ3="y",1,0)+IF(AK3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="41"/>
+      <c r="AM3" s="28">
+        <v>21.0</v>
+      </c>
+      <c r="AN3" s="29">
+        <v>6.0</v>
+      </c>
+      <c r="AO3" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP3" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ3" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR3" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="AS3" s="34">
         <f>IFERROR((VLOOKUP(AM3,Scoring!$A:$B,2,0))+IF(AO3="y",1,0)+IF(AP3="y",1,0)+IF(AQ3="y",1,0)+IF(AR3="y",1,0),0)</f>
         <v>0</v>
@@ -10794,15 +10821,27 @@
         <f>IFERROR((VLOOKUP(AF4,Scoring!$A:$B,2,0))+IF(AH4="y",1,0)+IF(AI4="y",1,0)+IF(AJ4="y",1,0)+IF(AK4="y",1,0),0)</f>
         <v>9</v>
       </c>
-      <c r="AM4" s="45"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="56"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="58"/>
+      <c r="AM4" s="45">
+        <v>3.0</v>
+      </c>
+      <c r="AN4" s="46">
+        <v>5.0</v>
+      </c>
+      <c r="AO4" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP4" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ4" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR4" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="AS4" s="51">
         <f>IFERROR((VLOOKUP(AM4,Scoring!$A:$B,2,0))+IF(AO4="y",1,0)+IF(AP4="y",1,0)+IF(AQ4="y",1,0)+IF(AR4="y",1,0),0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AT4" s="45"/>
       <c r="AU4" s="54"/>
@@ -11035,12 +11074,24 @@
         <f>IFERROR((VLOOKUP(AF5,Scoring!$A:$B,2,0))+IF(AH5="y",1,0)+IF(AI5="y",1,0)+IF(AJ5="y",1,0)+IF(AK5="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="AM5" s="62"/>
-      <c r="AN5" s="71"/>
-      <c r="AO5" s="72"/>
-      <c r="AP5" s="73"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="75"/>
+      <c r="AM5" s="62">
+        <v>21.0</v>
+      </c>
+      <c r="AN5" s="63">
+        <v>9.0</v>
+      </c>
+      <c r="AO5" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP5" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ5" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR5" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="AS5" s="68">
         <f>IFERROR((VLOOKUP(AM5,Scoring!$A:$B,2,0))+IF(AO5="y",1,0)+IF(AP5="y",1,0)+IF(AQ5="y",1,0)+IF(AR5="y",1,0),0)</f>
         <v>0</v>
@@ -11276,12 +11327,24 @@
         <f>IFERROR((VLOOKUP(AF6,Scoring!$A:$B,2,0))+IF(AH6="y",1,0)+IF(AI6="y",1,0)+IF(AJ6="y",1,0)+IF(AK6="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="41"/>
+      <c r="AM6" s="28">
+        <v>21.0</v>
+      </c>
+      <c r="AN6" s="29">
+        <v>4.0</v>
+      </c>
+      <c r="AO6" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP6" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ6" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR6" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="AS6" s="34">
         <f>IFERROR((VLOOKUP(AM6,Scoring!$A:$B,2,0))+IF(AO6="y",1,0)+IF(AP6="y",1,0)+IF(AQ6="y",1,0)+IF(AR6="y",1,0),0)</f>
         <v>0</v>
@@ -11517,15 +11580,27 @@
         <f>IFERROR((VLOOKUP(AF7,Scoring!$A:$B,2,0))+IF(AH7="y",1,0)+IF(AI7="y",1,0)+IF(AJ7="y",1,0)+IF(AK7="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="40"/>
-      <c r="AR7" s="41"/>
+      <c r="AM7" s="28">
+        <v>5.0</v>
+      </c>
+      <c r="AN7" s="29">
+        <v>15.0</v>
+      </c>
+      <c r="AO7" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP7" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="AQ7" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="AR7" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="AS7" s="34">
         <f>IFERROR((VLOOKUP(AM7,Scoring!$A:$B,2,0))+IF(AO7="y",1,0)+IF(AP7="y",1,0)+IF(AQ7="y",1,0)+IF(AR7="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AT7" s="28"/>
       <c r="AU7" s="37"/>
@@ -11758,15 +11833,27 @@
         <f>IFERROR((VLOOKUP(AF8,Scoring!$A:$B,2,0))+IF(AH8="y",1,0)+IF(AI8="y",1,0)+IF(AJ8="y",1,0)+IF(AK8="y",1,0),0)</f>
         <v>5</v>
       </c>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="54"/>
-      <c r="AO8" s="55"/>
-      <c r="AP8" s="56"/>
-      <c r="AQ8" s="57"/>
-      <c r="AR8" s="58"/>
+      <c r="AM8" s="45">
+        <v>9.0</v>
+      </c>
+      <c r="AN8" s="46">
+        <v>13.0</v>
+      </c>
+      <c r="AO8" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP8" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ8" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR8" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="AS8" s="51">
         <f>IFERROR((VLOOKUP(AM8,Scoring!$A:$B,2,0))+IF(AO8="y",1,0)+IF(AP8="y",1,0)+IF(AQ8="y",1,0)+IF(AR8="y",1,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT8" s="45"/>
       <c r="AU8" s="54"/>
@@ -11999,15 +12086,27 @@
         <f>IFERROR((VLOOKUP(AF9,Scoring!$A:$B,2,0))+IF(AH9="y",1,0)+IF(AI9="y",1,0)+IF(AJ9="y",1,0)+IF(AK9="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="AM9" s="62"/>
-      <c r="AN9" s="71"/>
-      <c r="AO9" s="72"/>
-      <c r="AP9" s="73"/>
-      <c r="AQ9" s="74"/>
-      <c r="AR9" s="75"/>
+      <c r="AM9" s="62">
+        <v>8.0</v>
+      </c>
+      <c r="AN9" s="63">
+        <v>11.0</v>
+      </c>
+      <c r="AO9" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP9" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ9" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR9" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="AS9" s="68">
         <f>IFERROR((VLOOKUP(AM9,Scoring!$A:$B,2,0))+IF(AO9="y",1,0)+IF(AP9="y",1,0)+IF(AQ9="y",1,0)+IF(AR9="y",1,0),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT9" s="62"/>
       <c r="AU9" s="71"/>
@@ -12240,15 +12339,27 @@
         <f>IFERROR((VLOOKUP(AF10,Scoring!$A:$B,2,0))+IF(AH10="y",1,0)+IF(AI10="y",1,0)+IF(AJ10="y",1,0)+IF(AK10="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="38"/>
-      <c r="AP10" s="39"/>
-      <c r="AQ10" s="40"/>
-      <c r="AR10" s="41"/>
+      <c r="AM10" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="AN10" s="29">
+        <v>7.0</v>
+      </c>
+      <c r="AO10" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP10" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR10" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="AS10" s="34">
         <f>IFERROR((VLOOKUP(AM10,Scoring!$A:$B,2,0))+IF(AO10="y",1,0)+IF(AP10="y",1,0)+IF(AQ10="y",1,0)+IF(AR10="y",1,0),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT10" s="28"/>
       <c r="AU10" s="37"/>
@@ -12481,15 +12592,27 @@
         <f>IFERROR((VLOOKUP(AF11,Scoring!$A:$B,2,0))+IF(AH11="y",1,0)+IF(AI11="y",1,0)+IF(AJ11="y",1,0)+IF(AK11="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="37"/>
-      <c r="AO11" s="38"/>
-      <c r="AP11" s="39"/>
-      <c r="AQ11" s="40"/>
-      <c r="AR11" s="41"/>
+      <c r="AM11" s="28">
+        <v>11.0</v>
+      </c>
+      <c r="AN11" s="29">
+        <v>14.0</v>
+      </c>
+      <c r="AO11" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP11" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ11" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR11" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="AS11" s="34">
         <f>IFERROR((VLOOKUP(AM11,Scoring!$A:$B,2,0))+IF(AO11="y",1,0)+IF(AP11="y",1,0)+IF(AQ11="y",1,0)+IF(AR11="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="28"/>
       <c r="AU11" s="37"/>
@@ -12722,15 +12845,27 @@
         <f>IFERROR((VLOOKUP(AF12,Scoring!$A:$B,2,0))+IF(AH12="y",1,0)+IF(AI12="y",1,0)+IF(AJ12="y",1,0)+IF(AK12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="54"/>
-      <c r="AO12" s="55"/>
-      <c r="AP12" s="56"/>
-      <c r="AQ12" s="57"/>
-      <c r="AR12" s="58"/>
+      <c r="AM12" s="45">
+        <v>6.0</v>
+      </c>
+      <c r="AN12" s="46">
+        <v>10.0</v>
+      </c>
+      <c r="AO12" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP12" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ12" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR12" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="AS12" s="51">
         <f>IFERROR((VLOOKUP(AM12,Scoring!$A:$B,2,0))+IF(AO12="y",1,0)+IF(AP12="y",1,0)+IF(AQ12="y",1,0)+IF(AR12="y",1,0),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT12" s="45"/>
       <c r="AU12" s="54"/>
@@ -12963,15 +13098,27 @@
         <f>IFERROR((VLOOKUP(AF13,Scoring!$A:$B,2,0))+IF(AH13="y",1,0)+IF(AI13="y",1,0)+IF(AJ13="y",1,0)+IF(AK13="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AM13" s="62"/>
-      <c r="AN13" s="71"/>
-      <c r="AO13" s="72"/>
-      <c r="AP13" s="73"/>
-      <c r="AQ13" s="74"/>
-      <c r="AR13" s="75"/>
+      <c r="AM13" s="62">
+        <v>10.0</v>
+      </c>
+      <c r="AN13" s="63">
+        <v>8.0</v>
+      </c>
+      <c r="AO13" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP13" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ13" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR13" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="AS13" s="68">
         <f>IFERROR((VLOOKUP(AM13,Scoring!$A:$B,2,0))+IF(AO13="y",1,0)+IF(AP13="y",1,0)+IF(AQ13="y",1,0)+IF(AR13="y",1,0),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT13" s="62"/>
       <c r="AU13" s="71"/>
@@ -13089,7 +13236,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>43</v>
@@ -13204,15 +13351,27 @@
         <f>IFERROR((VLOOKUP(AF14,Scoring!$A:$B,2,0))+IF(AH14="y",1,0)+IF(AI14="y",1,0)+IF(AJ14="y",1,0)+IF(AK14="y",1,0),0)</f>
         <v>20</v>
       </c>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="39"/>
-      <c r="AQ14" s="40"/>
-      <c r="AR14" s="41"/>
+      <c r="AM14" s="28">
+        <v>4.0</v>
+      </c>
+      <c r="AN14" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="AO14" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP14" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ14" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR14" s="36" t="s">
+        <v>278</v>
+      </c>
       <c r="AS14" s="34">
         <f>IFERROR((VLOOKUP(AM14,Scoring!$A:$B,2,0))+IF(AO14="y",1,0)+IF(AP14="y",1,0)+IF(AQ14="y",1,0)+IF(AR14="y",1,0),0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AT14" s="28"/>
       <c r="AU14" s="37"/>
@@ -13445,15 +13604,27 @@
         <f>IFERROR((VLOOKUP(AF15,Scoring!$A:$B,2,0))+IF(AH15="y",1,0)+IF(AI15="y",1,0)+IF(AJ15="y",1,0)+IF(AK15="y",1,0),0)</f>
         <v>25</v>
       </c>
-      <c r="AM15" s="79"/>
-      <c r="AN15" s="88"/>
-      <c r="AO15" s="89"/>
-      <c r="AP15" s="90"/>
-      <c r="AQ15" s="91"/>
-      <c r="AR15" s="92"/>
+      <c r="AM15" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="AN15" s="80">
+        <v>1.0</v>
+      </c>
+      <c r="AO15" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP15" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ15" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR15" s="87" t="s">
+        <v>279</v>
+      </c>
       <c r="AS15" s="85">
         <f>IFERROR((VLOOKUP(AM15,Scoring!$A:$B,2,0))+IF(AO15="y",1,0)+IF(AP15="y",1,0)+IF(AQ15="y",1,0)+IF(AR15="y",1,0),0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AT15" s="79"/>
       <c r="AU15" s="88"/>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="311">
   <si>
     <t>Positions</t>
   </si>
@@ -895,31 +895,31 @@
     <t>10/29/2025</t>
   </si>
   <si>
+    <t>11/5/2025</t>
+  </si>
+  <si>
+    <t>Austria (Reverse)</t>
+  </si>
+  <si>
+    <t>11/12/2025</t>
+  </si>
+  <si>
+    <t>Spa Sprint</t>
+  </si>
+  <si>
+    <t>11/19/2025</t>
+  </si>
+  <si>
     <t>Confirmed</t>
   </si>
   <si>
-    <t>11/5/2025</t>
+    <t>Brazil Sprint</t>
+  </si>
+  <si>
+    <t>12/3/2025</t>
   </si>
   <si>
     <t>Tentative</t>
-  </si>
-  <si>
-    <t>Austria (Reverse)</t>
-  </si>
-  <si>
-    <t>11/12/2025</t>
-  </si>
-  <si>
-    <t>Spa Sprint</t>
-  </si>
-  <si>
-    <t>11/19/2025</t>
-  </si>
-  <si>
-    <t>Brazil Sprint</t>
-  </si>
-  <si>
-    <t>12/3/2025</t>
   </si>
   <si>
     <t>12/10/2025</t>
@@ -1997,7 +1997,7 @@
         <v>290</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8">
@@ -2005,32 +2005,32 @@
         <v>192</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B9" s="93" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B10" s="93" t="s">
-        <v>297</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="11">
@@ -2038,21 +2038,21 @@
         <v>149</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="C12" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="13">
@@ -2060,10 +2060,10 @@
         <v>157</v>
       </c>
       <c r="B13" s="93" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="14">
@@ -2074,7 +2074,7 @@
         <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15">
@@ -2085,7 +2085,7 @@
         <v>301</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16">
@@ -2096,7 +2096,7 @@
         <v>303</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17">
@@ -2107,7 +2107,7 @@
         <v>305</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18">
@@ -2118,7 +2118,7 @@
         <v>306</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19">
@@ -2129,7 +2129,7 @@
         <v>308</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20">
@@ -2140,7 +2140,7 @@
         <v>310</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -10337,15 +10337,27 @@
         <f>IFERROR((VLOOKUP(AM2,Scoring!$A:$B,2,0))+IF(AO2="y",1,0)+IF(AP2="y",1,0)+IF(AQ2="y",1,0)+IF(AR2="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="25"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="27"/>
+      <c r="AT2" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="AU2" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="AV2" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW2" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX2" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY2" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="AZ2" s="21">
         <f>IFERROR((VLOOKUP(AT2,Scoring!$A:$B,2,0))+IF(AV2="y",1,0)+IF(AW2="y",1,0)+IF(AX2="y",1,0)+IF(AY2="y",1,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BA2" s="15"/>
       <c r="BB2" s="23"/>
@@ -10590,15 +10602,27 @@
         <f>IFERROR((VLOOKUP(AM3,Scoring!$A:$B,2,0))+IF(AO3="y",1,0)+IF(AP3="y",1,0)+IF(AQ3="y",1,0)+IF(AR3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="39"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="41"/>
+      <c r="AT3" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="AU3" s="29">
+        <v>6.0</v>
+      </c>
+      <c r="AV3" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW3" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX3" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY3" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="AZ3" s="34">
         <f>IFERROR((VLOOKUP(AT3,Scoring!$A:$B,2,0))+IF(AV3="y",1,0)+IF(AW3="y",1,0)+IF(AX3="y",1,0)+IF(AY3="y",1,0),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BA3" s="28"/>
       <c r="BB3" s="37"/>
@@ -10843,15 +10867,27 @@
         <f>IFERROR((VLOOKUP(AM4,Scoring!$A:$B,2,0))+IF(AO4="y",1,0)+IF(AP4="y",1,0)+IF(AQ4="y",1,0)+IF(AR4="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="AT4" s="45"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="57"/>
-      <c r="AY4" s="58"/>
+      <c r="AT4" s="45">
+        <v>4.0</v>
+      </c>
+      <c r="AU4" s="46">
+        <v>2.0</v>
+      </c>
+      <c r="AV4" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW4" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX4" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY4" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="AZ4" s="51">
         <f>IFERROR((VLOOKUP(AT4,Scoring!$A:$B,2,0))+IF(AV4="y",1,0)+IF(AW4="y",1,0)+IF(AX4="y",1,0)+IF(AY4="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA4" s="45"/>
       <c r="BB4" s="54"/>
@@ -11096,12 +11132,24 @@
         <f>IFERROR((VLOOKUP(AM5,Scoring!$A:$B,2,0))+IF(AO5="y",1,0)+IF(AP5="y",1,0)+IF(AQ5="y",1,0)+IF(AR5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="62"/>
-      <c r="AU5" s="71"/>
-      <c r="AV5" s="72"/>
-      <c r="AW5" s="73"/>
-      <c r="AX5" s="74"/>
-      <c r="AY5" s="75"/>
+      <c r="AT5" s="62">
+        <v>22.0</v>
+      </c>
+      <c r="AU5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="AV5" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW5" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX5" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY5" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="AZ5" s="68">
         <f>IFERROR((VLOOKUP(AT5,Scoring!$A:$B,2,0))+IF(AV5="y",1,0)+IF(AW5="y",1,0)+IF(AX5="y",1,0)+IF(AY5="y",1,0),0)</f>
         <v>0</v>
@@ -11349,15 +11397,27 @@
         <f>IFERROR((VLOOKUP(AM6,Scoring!$A:$B,2,0))+IF(AO6="y",1,0)+IF(AP6="y",1,0)+IF(AQ6="y",1,0)+IF(AR6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT6" s="28"/>
-      <c r="AU6" s="37"/>
-      <c r="AV6" s="38"/>
-      <c r="AW6" s="39"/>
-      <c r="AX6" s="40"/>
-      <c r="AY6" s="41"/>
+      <c r="AT6" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="AU6" s="29">
+        <v>7.0</v>
+      </c>
+      <c r="AV6" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW6" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="AX6" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="AY6" s="36" t="s">
+        <v>278</v>
+      </c>
       <c r="AZ6" s="34">
         <f>IFERROR((VLOOKUP(AT6,Scoring!$A:$B,2,0))+IF(AV6="y",1,0)+IF(AW6="y",1,0)+IF(AX6="y",1,0)+IF(AY6="y",1,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BA6" s="28"/>
       <c r="BB6" s="37"/>
@@ -11602,12 +11662,24 @@
         <f>IFERROR((VLOOKUP(AM7,Scoring!$A:$B,2,0))+IF(AO7="y",1,0)+IF(AP7="y",1,0)+IF(AQ7="y",1,0)+IF(AR7="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="AT7" s="28"/>
-      <c r="AU7" s="37"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="39"/>
-      <c r="AX7" s="40"/>
-      <c r="AY7" s="41"/>
+      <c r="AT7" s="28">
+        <v>21.0</v>
+      </c>
+      <c r="AU7" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="AV7" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW7" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX7" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY7" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="AZ7" s="34">
         <f>IFERROR((VLOOKUP(AT7,Scoring!$A:$B,2,0))+IF(AV7="y",1,0)+IF(AW7="y",1,0)+IF(AX7="y",1,0)+IF(AY7="y",1,0),0)</f>
         <v>0</v>
@@ -11855,15 +11927,27 @@
         <f>IFERROR((VLOOKUP(AM8,Scoring!$A:$B,2,0))+IF(AO8="y",1,0)+IF(AP8="y",1,0)+IF(AQ8="y",1,0)+IF(AR8="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="54"/>
-      <c r="AV8" s="55"/>
-      <c r="AW8" s="56"/>
-      <c r="AX8" s="57"/>
-      <c r="AY8" s="58"/>
+      <c r="AT8" s="45">
+        <v>12.0</v>
+      </c>
+      <c r="AU8" s="46">
+        <v>10.0</v>
+      </c>
+      <c r="AV8" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW8" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX8" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY8" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="AZ8" s="51">
         <f>IFERROR((VLOOKUP(AT8,Scoring!$A:$B,2,0))+IF(AV8="y",1,0)+IF(AW8="y",1,0)+IF(AX8="y",1,0)+IF(AY8="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="45"/>
       <c r="BB8" s="54"/>
@@ -12108,15 +12192,27 @@
         <f>IFERROR((VLOOKUP(AM9,Scoring!$A:$B,2,0))+IF(AO9="y",1,0)+IF(AP9="y",1,0)+IF(AQ9="y",1,0)+IF(AR9="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="71"/>
-      <c r="AV9" s="72"/>
-      <c r="AW9" s="73"/>
-      <c r="AX9" s="74"/>
-      <c r="AY9" s="75"/>
+      <c r="AT9" s="62">
+        <v>15.0</v>
+      </c>
+      <c r="AU9" s="63">
+        <v>9.0</v>
+      </c>
+      <c r="AV9" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW9" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX9" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY9" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="AZ9" s="68">
         <f>IFERROR((VLOOKUP(AT9,Scoring!$A:$B,2,0))+IF(AV9="y",1,0)+IF(AW9="y",1,0)+IF(AX9="y",1,0)+IF(AY9="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="62"/>
       <c r="BB9" s="71"/>
@@ -12361,15 +12457,27 @@
         <f>IFERROR((VLOOKUP(AM10,Scoring!$A:$B,2,0))+IF(AO10="y",1,0)+IF(AP10="y",1,0)+IF(AQ10="y",1,0)+IF(AR10="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="AT10" s="28"/>
-      <c r="AU10" s="37"/>
-      <c r="AV10" s="38"/>
-      <c r="AW10" s="39"/>
-      <c r="AX10" s="40"/>
-      <c r="AY10" s="41"/>
+      <c r="AT10" s="28">
+        <v>6.0</v>
+      </c>
+      <c r="AU10" s="29">
+        <v>15.0</v>
+      </c>
+      <c r="AV10" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW10" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY10" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="AZ10" s="34">
         <f>IFERROR((VLOOKUP(AT10,Scoring!$A:$B,2,0))+IF(AV10="y",1,0)+IF(AW10="y",1,0)+IF(AX10="y",1,0)+IF(AY10="y",1,0),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BA10" s="28"/>
       <c r="BB10" s="37"/>
@@ -12614,15 +12722,27 @@
         <f>IFERROR((VLOOKUP(AM11,Scoring!$A:$B,2,0))+IF(AO11="y",1,0)+IF(AP11="y",1,0)+IF(AQ11="y",1,0)+IF(AR11="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AT11" s="28"/>
-      <c r="AU11" s="37"/>
-      <c r="AV11" s="38"/>
-      <c r="AW11" s="39"/>
-      <c r="AX11" s="40"/>
-      <c r="AY11" s="41"/>
+      <c r="AT11" s="28">
+        <v>10.0</v>
+      </c>
+      <c r="AU11" s="29">
+        <v>12.0</v>
+      </c>
+      <c r="AV11" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW11" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX11" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY11" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="AZ11" s="34">
         <f>IFERROR((VLOOKUP(AT11,Scoring!$A:$B,2,0))+IF(AV11="y",1,0)+IF(AW11="y",1,0)+IF(AX11="y",1,0)+IF(AY11="y",1,0),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA11" s="28"/>
       <c r="BB11" s="37"/>
@@ -12867,15 +12987,27 @@
         <f>IFERROR((VLOOKUP(AM12,Scoring!$A:$B,2,0))+IF(AO12="y",1,0)+IF(AP12="y",1,0)+IF(AQ12="y",1,0)+IF(AR12="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="AT12" s="45"/>
-      <c r="AU12" s="54"/>
-      <c r="AV12" s="55"/>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="57"/>
-      <c r="AY12" s="58"/>
+      <c r="AT12" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="AU12" s="46">
+        <v>11.0</v>
+      </c>
+      <c r="AV12" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW12" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX12" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY12" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="AZ12" s="51">
         <f>IFERROR((VLOOKUP(AT12,Scoring!$A:$B,2,0))+IF(AV12="y",1,0)+IF(AW12="y",1,0)+IF(AX12="y",1,0)+IF(AY12="y",1,0),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA12" s="45"/>
       <c r="BB12" s="54"/>
@@ -13120,15 +13252,27 @@
         <f>IFERROR((VLOOKUP(AM13,Scoring!$A:$B,2,0))+IF(AO13="y",1,0)+IF(AP13="y",1,0)+IF(AQ13="y",1,0)+IF(AR13="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="AT13" s="62"/>
-      <c r="AU13" s="71"/>
-      <c r="AV13" s="72"/>
-      <c r="AW13" s="73"/>
-      <c r="AX13" s="74"/>
-      <c r="AY13" s="75"/>
+      <c r="AT13" s="62">
+        <v>11.0</v>
+      </c>
+      <c r="AU13" s="63">
+        <v>8.0</v>
+      </c>
+      <c r="AV13" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW13" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX13" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY13" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="AZ13" s="68">
         <f>IFERROR((VLOOKUP(AT13,Scoring!$A:$B,2,0))+IF(AV13="y",1,0)+IF(AW13="y",1,0)+IF(AX13="y",1,0)+IF(AY13="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="62"/>
       <c r="BB13" s="71"/>
@@ -13373,15 +13517,27 @@
         <f>IFERROR((VLOOKUP(AM14,Scoring!$A:$B,2,0))+IF(AO14="y",1,0)+IF(AP14="y",1,0)+IF(AQ14="y",1,0)+IF(AR14="y",1,0),0)</f>
         <v>13</v>
       </c>
-      <c r="AT14" s="28"/>
-      <c r="AU14" s="37"/>
-      <c r="AV14" s="38"/>
-      <c r="AW14" s="39"/>
-      <c r="AX14" s="40"/>
-      <c r="AY14" s="41"/>
+      <c r="AT14" s="28">
+        <v>5.0</v>
+      </c>
+      <c r="AU14" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="AV14" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW14" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX14" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY14" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="AZ14" s="34">
         <f>IFERROR((VLOOKUP(AT14,Scoring!$A:$B,2,0))+IF(AV14="y",1,0)+IF(AW14="y",1,0)+IF(AX14="y",1,0)+IF(AY14="y",1,0),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA14" s="28"/>
       <c r="BB14" s="37"/>
@@ -13626,15 +13782,27 @@
         <f>IFERROR((VLOOKUP(AM15,Scoring!$A:$B,2,0))+IF(AO15="y",1,0)+IF(AP15="y",1,0)+IF(AQ15="y",1,0)+IF(AR15="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="AT15" s="79"/>
-      <c r="AU15" s="88"/>
-      <c r="AV15" s="89"/>
-      <c r="AW15" s="90"/>
-      <c r="AX15" s="91"/>
-      <c r="AY15" s="92"/>
+      <c r="AT15" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="AU15" s="80">
+        <v>4.0</v>
+      </c>
+      <c r="AV15" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="AW15" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX15" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY15" s="87" t="s">
+        <v>279</v>
+      </c>
       <c r="AZ15" s="85">
         <f>IFERROR((VLOOKUP(AT15,Scoring!$A:$B,2,0))+IF(AV15="y",1,0)+IF(AW15="y",1,0)+IF(AX15="y",1,0)+IF(AY15="y",1,0),0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BA15" s="79"/>
       <c r="BB15" s="88"/>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="311">
   <si>
     <t>Positions</t>
   </si>
@@ -10359,25 +10359,49 @@
         <f>IFERROR((VLOOKUP(AT2,Scoring!$A:$B,2,0))+IF(AV2="y",1,0)+IF(AW2="y",1,0)+IF(AX2="y",1,0)+IF(AY2="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="BA2" s="15"/>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="25"/>
-      <c r="BE2" s="26"/>
-      <c r="BF2" s="27"/>
+      <c r="BA2" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="BB2" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="BC2" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD2" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE2" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="BF2" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="BG2" s="21">
-        <f>IFERROR((VLOOKUP(BA2,Scoring!$A:$B,2,0))+IF(BC2="y",1,0)+IF(BD2="y",1,0)+IF(BE2="y",1,0)+IF(BF2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BH2" s="15"/>
-      <c r="BI2" s="23"/>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="25"/>
-      <c r="BL2" s="26"/>
-      <c r="BM2" s="27"/>
+        <f>IFERROR((VLOOKUP(BA2,Scoring!$D:$E,2,0))+IF(BC2="y",1,0)+IF(BD2="y",1,0)+IF(BE2="y",1,0)+IF(BF2="y",1,0),0)</f>
+        <v>5</v>
+      </c>
+      <c r="BH2" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="BI2" s="16">
+        <v>12.0</v>
+      </c>
+      <c r="BJ2" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="BK2" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL2" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM2" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="BN2" s="21">
         <f>IFERROR((VLOOKUP(BH2,Scoring!$A:$B,2,0))+IF(BJ2="y",1,0)+IF(BK2="y",1,0)+IF(BL2="y",1,0)+IF(BM2="y",1,0),0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BO2" s="15"/>
       <c r="BP2" s="23"/>
@@ -10624,25 +10648,49 @@
         <f>IFERROR((VLOOKUP(AT3,Scoring!$A:$B,2,0))+IF(AV3="y",1,0)+IF(AW3="y",1,0)+IF(AX3="y",1,0)+IF(AY3="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="BA3" s="28"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="38"/>
-      <c r="BD3" s="39"/>
-      <c r="BE3" s="40"/>
-      <c r="BF3" s="41"/>
+      <c r="BA3" s="28">
+        <v>6.0</v>
+      </c>
+      <c r="BB3" s="29">
+        <v>8.0</v>
+      </c>
+      <c r="BC3" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD3" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE3" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="BF3" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="BG3" s="34">
-        <f>IFERROR((VLOOKUP(BA3,Scoring!$A:$B,2,0))+IF(BC3="y",1,0)+IF(BD3="y",1,0)+IF(BE3="y",1,0)+IF(BF3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BH3" s="28"/>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="38"/>
-      <c r="BK3" s="39"/>
-      <c r="BL3" s="40"/>
-      <c r="BM3" s="41"/>
+        <f>IFERROR((VLOOKUP(BA3,Scoring!$D:$E,2,0))+IF(BC3="y",1,0)+IF(BD3="y",1,0)+IF(BE3="y",1,0)+IF(BF3="y",1,0),0)</f>
+        <v>3</v>
+      </c>
+      <c r="BH3" s="28">
+        <v>5.0</v>
+      </c>
+      <c r="BI3" s="29">
+        <v>10.0</v>
+      </c>
+      <c r="BJ3" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK3" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL3" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM3" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="BN3" s="34">
         <f>IFERROR((VLOOKUP(BH3,Scoring!$A:$B,2,0))+IF(BJ3="y",1,0)+IF(BK3="y",1,0)+IF(BL3="y",1,0)+IF(BM3="y",1,0),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BO3" s="28"/>
       <c r="BP3" s="37"/>
@@ -10889,25 +10937,49 @@
         <f>IFERROR((VLOOKUP(AT4,Scoring!$A:$B,2,0))+IF(AV4="y",1,0)+IF(AW4="y",1,0)+IF(AX4="y",1,0)+IF(AY4="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="BA4" s="45"/>
-      <c r="BB4" s="54"/>
-      <c r="BC4" s="55"/>
-      <c r="BD4" s="56"/>
-      <c r="BE4" s="57"/>
-      <c r="BF4" s="58"/>
+      <c r="BA4" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="BB4" s="46">
+        <v>6.0</v>
+      </c>
+      <c r="BC4" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD4" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE4" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="BF4" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="BG4" s="51">
-        <f>IFERROR((VLOOKUP(BA4,Scoring!$A:$B,2,0))+IF(BC4="y",1,0)+IF(BD4="y",1,0)+IF(BE4="y",1,0)+IF(BF4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BH4" s="45"/>
-      <c r="BI4" s="54"/>
-      <c r="BJ4" s="55"/>
-      <c r="BK4" s="56"/>
-      <c r="BL4" s="57"/>
-      <c r="BM4" s="58"/>
+        <f>IFERROR((VLOOKUP(BA4,Scoring!$D:$E,2,0))+IF(BC4="y",1,0)+IF(BD4="y",1,0)+IF(BE4="y",1,0)+IF(BF4="y",1,0),0)</f>
+        <v>2</v>
+      </c>
+      <c r="BH4" s="45">
+        <v>1.0</v>
+      </c>
+      <c r="BI4" s="46">
+        <v>9.0</v>
+      </c>
+      <c r="BJ4" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK4" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL4" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM4" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="BN4" s="51">
         <f>IFERROR((VLOOKUP(BH4,Scoring!$A:$B,2,0))+IF(BJ4="y",1,0)+IF(BK4="y",1,0)+IF(BL4="y",1,0)+IF(BM4="y",1,0),0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BO4" s="45"/>
       <c r="BP4" s="54"/>
@@ -11154,22 +11226,46 @@
         <f>IFERROR((VLOOKUP(AT5,Scoring!$A:$B,2,0))+IF(AV5="y",1,0)+IF(AW5="y",1,0)+IF(AX5="y",1,0)+IF(AY5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA5" s="62"/>
-      <c r="BB5" s="71"/>
-      <c r="BC5" s="72"/>
-      <c r="BD5" s="73"/>
-      <c r="BE5" s="74"/>
-      <c r="BF5" s="75"/>
+      <c r="BA5" s="62">
+        <v>22.0</v>
+      </c>
+      <c r="BB5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="BC5" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD5" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE5" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="BF5" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="BG5" s="68">
-        <f>IFERROR((VLOOKUP(BA5,Scoring!$A:$B,2,0))+IF(BC5="y",1,0)+IF(BD5="y",1,0)+IF(BE5="y",1,0)+IF(BF5="y",1,0),0)</f>
+        <f>IFERROR((VLOOKUP(BA5,Scoring!$D:$E,2,0))+IF(BC5="y",1,0)+IF(BD5="y",1,0)+IF(BE5="y",1,0)+IF(BF5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH5" s="62"/>
-      <c r="BI5" s="71"/>
-      <c r="BJ5" s="72"/>
-      <c r="BK5" s="73"/>
-      <c r="BL5" s="74"/>
-      <c r="BM5" s="75"/>
+      <c r="BH5" s="62">
+        <v>22.0</v>
+      </c>
+      <c r="BI5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="BJ5" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK5" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL5" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM5" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="BN5" s="68">
         <f>IFERROR((VLOOKUP(BH5,Scoring!$A:$B,2,0))+IF(BJ5="y",1,0)+IF(BK5="y",1,0)+IF(BL5="y",1,0)+IF(BM5="y",1,0),0)</f>
         <v>0</v>
@@ -11419,25 +11515,49 @@
         <f>IFERROR((VLOOKUP(AT6,Scoring!$A:$B,2,0))+IF(AV6="y",1,0)+IF(AW6="y",1,0)+IF(AX6="y",1,0)+IF(AY6="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="BA6" s="28"/>
-      <c r="BB6" s="37"/>
-      <c r="BC6" s="38"/>
-      <c r="BD6" s="39"/>
-      <c r="BE6" s="40"/>
-      <c r="BF6" s="41"/>
+      <c r="BA6" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="BB6" s="29">
+        <v>4.0</v>
+      </c>
+      <c r="BC6" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD6" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE6" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="BF6" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="BG6" s="34">
-        <f>IFERROR((VLOOKUP(BA6,Scoring!$A:$B,2,0))+IF(BC6="y",1,0)+IF(BD6="y",1,0)+IF(BE6="y",1,0)+IF(BF6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BH6" s="28"/>
-      <c r="BI6" s="37"/>
-      <c r="BJ6" s="38"/>
-      <c r="BK6" s="39"/>
-      <c r="BL6" s="40"/>
-      <c r="BM6" s="41"/>
+        <f>IFERROR((VLOOKUP(BA6,Scoring!$D:$E,2,0))+IF(BC6="y",1,0)+IF(BD6="y",1,0)+IF(BE6="y",1,0)+IF(BF6="y",1,0),0)</f>
+        <v>6</v>
+      </c>
+      <c r="BH6" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="BI6" s="29">
+        <v>13.0</v>
+      </c>
+      <c r="BJ6" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK6" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL6" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="BM6" s="36" t="s">
+        <v>278</v>
+      </c>
       <c r="BN6" s="34">
         <f>IFERROR((VLOOKUP(BH6,Scoring!$A:$B,2,0))+IF(BJ6="y",1,0)+IF(BK6="y",1,0)+IF(BL6="y",1,0)+IF(BM6="y",1,0),0)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BO6" s="28"/>
       <c r="BP6" s="37"/>
@@ -11684,25 +11804,49 @@
         <f>IFERROR((VLOOKUP(AT7,Scoring!$A:$B,2,0))+IF(AV7="y",1,0)+IF(AW7="y",1,0)+IF(AX7="y",1,0)+IF(AY7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="28"/>
-      <c r="BB7" s="37"/>
-      <c r="BC7" s="38"/>
-      <c r="BD7" s="39"/>
-      <c r="BE7" s="40"/>
-      <c r="BF7" s="41"/>
+      <c r="BA7" s="28">
+        <v>5.0</v>
+      </c>
+      <c r="BB7" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="BC7" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD7" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE7" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="BF7" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="BG7" s="34">
-        <f>IFERROR((VLOOKUP(BA7,Scoring!$A:$B,2,0))+IF(BC7="y",1,0)+IF(BD7="y",1,0)+IF(BE7="y",1,0)+IF(BF7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BH7" s="28"/>
-      <c r="BI7" s="37"/>
-      <c r="BJ7" s="38"/>
-      <c r="BK7" s="39"/>
-      <c r="BL7" s="40"/>
-      <c r="BM7" s="41"/>
+        <f>IFERROR((VLOOKUP(BA7,Scoring!$D:$E,2,0))+IF(BC7="y",1,0)+IF(BD7="y",1,0)+IF(BE7="y",1,0)+IF(BF7="y",1,0),0)</f>
+        <v>4</v>
+      </c>
+      <c r="BH7" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="BI7" s="29">
+        <v>11.0</v>
+      </c>
+      <c r="BJ7" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK7" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL7" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM7" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="BN7" s="34">
         <f>IFERROR((VLOOKUP(BH7,Scoring!$A:$B,2,0))+IF(BJ7="y",1,0)+IF(BK7="y",1,0)+IF(BL7="y",1,0)+IF(BM7="y",1,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BO7" s="28"/>
       <c r="BP7" s="37"/>
@@ -11949,22 +12093,46 @@
         <f>IFERROR((VLOOKUP(AT8,Scoring!$A:$B,2,0))+IF(AV8="y",1,0)+IF(AW8="y",1,0)+IF(AX8="y",1,0)+IF(AY8="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="BA8" s="45"/>
-      <c r="BB8" s="54"/>
-      <c r="BC8" s="55"/>
-      <c r="BD8" s="56"/>
-      <c r="BE8" s="57"/>
-      <c r="BF8" s="58"/>
+      <c r="BA8" s="45">
+        <v>13.0</v>
+      </c>
+      <c r="BB8" s="46">
+        <v>9.0</v>
+      </c>
+      <c r="BC8" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD8" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE8" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="BF8" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="BG8" s="51">
-        <f>IFERROR((VLOOKUP(BA8,Scoring!$A:$B,2,0))+IF(BC8="y",1,0)+IF(BD8="y",1,0)+IF(BE8="y",1,0)+IF(BF8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BH8" s="45"/>
-      <c r="BI8" s="54"/>
-      <c r="BJ8" s="55"/>
-      <c r="BK8" s="56"/>
-      <c r="BL8" s="57"/>
-      <c r="BM8" s="58"/>
+        <f>IFERROR((VLOOKUP(BA8,Scoring!$D:$E,2,0))+IF(BC8="y",1,0)+IF(BD8="y",1,0)+IF(BE8="y",1,0)+IF(BF8="y",1,0),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BH8" s="45">
+        <v>21.0</v>
+      </c>
+      <c r="BI8" s="46">
+        <v>6.0</v>
+      </c>
+      <c r="BJ8" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK8" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL8" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM8" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="BN8" s="51">
         <f>IFERROR((VLOOKUP(BH8,Scoring!$A:$B,2,0))+IF(BJ8="y",1,0)+IF(BK8="y",1,0)+IF(BL8="y",1,0)+IF(BM8="y",1,0),0)</f>
         <v>0</v>
@@ -12214,25 +12382,49 @@
         <f>IFERROR((VLOOKUP(AT9,Scoring!$A:$B,2,0))+IF(AV9="y",1,0)+IF(AW9="y",1,0)+IF(AX9="y",1,0)+IF(AY9="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="BA9" s="62"/>
-      <c r="BB9" s="71"/>
-      <c r="BC9" s="72"/>
-      <c r="BD9" s="73"/>
-      <c r="BE9" s="74"/>
-      <c r="BF9" s="75"/>
+      <c r="BA9" s="62">
+        <v>9.0</v>
+      </c>
+      <c r="BB9" s="63">
+        <v>7.0</v>
+      </c>
+      <c r="BC9" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD9" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE9" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="BF9" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="BG9" s="68">
-        <f>IFERROR((VLOOKUP(BA9,Scoring!$A:$B,2,0))+IF(BC9="y",1,0)+IF(BD9="y",1,0)+IF(BE9="y",1,0)+IF(BF9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BH9" s="62"/>
-      <c r="BI9" s="71"/>
-      <c r="BJ9" s="72"/>
-      <c r="BK9" s="73"/>
-      <c r="BL9" s="74"/>
-      <c r="BM9" s="75"/>
+        <f>IFERROR((VLOOKUP(BA9,Scoring!$D:$E,2,0))+IF(BC9="y",1,0)+IF(BD9="y",1,0)+IF(BE9="y",1,0)+IF(BF9="y",1,0),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BH9" s="62">
+        <v>8.0</v>
+      </c>
+      <c r="BI9" s="63">
+        <v>7.0</v>
+      </c>
+      <c r="BJ9" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK9" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL9" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM9" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="BN9" s="68">
         <f>IFERROR((VLOOKUP(BH9,Scoring!$A:$B,2,0))+IF(BJ9="y",1,0)+IF(BK9="y",1,0)+IF(BL9="y",1,0)+IF(BM9="y",1,0),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO9" s="62"/>
       <c r="BP9" s="71"/>
@@ -12479,22 +12671,46 @@
         <f>IFERROR((VLOOKUP(AT10,Scoring!$A:$B,2,0))+IF(AV10="y",1,0)+IF(AW10="y",1,0)+IF(AX10="y",1,0)+IF(AY10="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="BA10" s="28"/>
-      <c r="BB10" s="37"/>
-      <c r="BC10" s="38"/>
-      <c r="BD10" s="39"/>
-      <c r="BE10" s="40"/>
-      <c r="BF10" s="41"/>
+      <c r="BA10" s="28">
+        <v>22.0</v>
+      </c>
+      <c r="BB10" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="BC10" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD10" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="BF10" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="BG10" s="34">
-        <f>IFERROR((VLOOKUP(BA10,Scoring!$A:$B,2,0))+IF(BC10="y",1,0)+IF(BD10="y",1,0)+IF(BE10="y",1,0)+IF(BF10="y",1,0),0)</f>
+        <f>IFERROR((VLOOKUP(BA10,Scoring!$D:$E,2,0))+IF(BC10="y",1,0)+IF(BD10="y",1,0)+IF(BE10="y",1,0)+IF(BF10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH10" s="28"/>
-      <c r="BI10" s="37"/>
-      <c r="BJ10" s="38"/>
-      <c r="BK10" s="39"/>
-      <c r="BL10" s="40"/>
-      <c r="BM10" s="41"/>
+      <c r="BH10" s="28">
+        <v>22.0</v>
+      </c>
+      <c r="BI10" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="BJ10" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK10" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM10" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="BN10" s="34">
         <f>IFERROR((VLOOKUP(BH10,Scoring!$A:$B,2,0))+IF(BJ10="y",1,0)+IF(BK10="y",1,0)+IF(BL10="y",1,0)+IF(BM10="y",1,0),0)</f>
         <v>0</v>
@@ -12744,25 +12960,49 @@
         <f>IFERROR((VLOOKUP(AT11,Scoring!$A:$B,2,0))+IF(AV11="y",1,0)+IF(AW11="y",1,0)+IF(AX11="y",1,0)+IF(AY11="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="BA11" s="28"/>
-      <c r="BB11" s="37"/>
-      <c r="BC11" s="38"/>
-      <c r="BD11" s="39"/>
-      <c r="BE11" s="40"/>
-      <c r="BF11" s="41"/>
+      <c r="BA11" s="28">
+        <v>15.0</v>
+      </c>
+      <c r="BB11" s="29">
+        <v>14.0</v>
+      </c>
+      <c r="BC11" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD11" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE11" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="BF11" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="BG11" s="34">
-        <f>IFERROR((VLOOKUP(BA11,Scoring!$A:$B,2,0))+IF(BC11="y",1,0)+IF(BD11="y",1,0)+IF(BE11="y",1,0)+IF(BF11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BH11" s="28"/>
-      <c r="BI11" s="37"/>
-      <c r="BJ11" s="38"/>
-      <c r="BK11" s="39"/>
-      <c r="BL11" s="40"/>
-      <c r="BM11" s="41"/>
+        <f>IFERROR((VLOOKUP(BA11,Scoring!$D:$E,2,0))+IF(BC11="y",1,0)+IF(BD11="y",1,0)+IF(BE11="y",1,0)+IF(BF11="y",1,0),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BH11" s="28">
+        <v>10.0</v>
+      </c>
+      <c r="BI11" s="29">
+        <v>4.0</v>
+      </c>
+      <c r="BJ11" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK11" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL11" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM11" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="BN11" s="34">
         <f>IFERROR((VLOOKUP(BH11,Scoring!$A:$B,2,0))+IF(BJ11="y",1,0)+IF(BK11="y",1,0)+IF(BL11="y",1,0)+IF(BM11="y",1,0),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO11" s="28"/>
       <c r="BP11" s="37"/>
@@ -13009,25 +13249,49 @@
         <f>IFERROR((VLOOKUP(AT12,Scoring!$A:$B,2,0))+IF(AV12="y",1,0)+IF(AW12="y",1,0)+IF(AX12="y",1,0)+IF(AY12="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="BA12" s="45"/>
-      <c r="BB12" s="54"/>
-      <c r="BC12" s="55"/>
-      <c r="BD12" s="56"/>
-      <c r="BE12" s="57"/>
-      <c r="BF12" s="58"/>
+      <c r="BA12" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="BB12" s="46">
+        <v>13.0</v>
+      </c>
+      <c r="BC12" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD12" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE12" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="BF12" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="BG12" s="51">
-        <f>IFERROR((VLOOKUP(BA12,Scoring!$A:$B,2,0))+IF(BC12="y",1,0)+IF(BD12="y",1,0)+IF(BE12="y",1,0)+IF(BF12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BH12" s="45"/>
-      <c r="BI12" s="54"/>
-      <c r="BJ12" s="55"/>
-      <c r="BK12" s="56"/>
-      <c r="BL12" s="57"/>
-      <c r="BM12" s="58"/>
+        <f>IFERROR((VLOOKUP(BA12,Scoring!$D:$E,2,0))+IF(BC12="y",1,0)+IF(BD12="y",1,0)+IF(BE12="y",1,0)+IF(BF12="y",1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="BH12" s="45">
+        <v>11.0</v>
+      </c>
+      <c r="BI12" s="46">
+        <v>8.0</v>
+      </c>
+      <c r="BJ12" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK12" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL12" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM12" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="BN12" s="51">
         <f>IFERROR((VLOOKUP(BH12,Scoring!$A:$B,2,0))+IF(BJ12="y",1,0)+IF(BK12="y",1,0)+IF(BL12="y",1,0)+IF(BM12="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO12" s="45"/>
       <c r="BP12" s="54"/>
@@ -13274,22 +13538,46 @@
         <f>IFERROR((VLOOKUP(AT13,Scoring!$A:$B,2,0))+IF(AV13="y",1,0)+IF(AW13="y",1,0)+IF(AX13="y",1,0)+IF(AY13="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="BA13" s="62"/>
-      <c r="BB13" s="71"/>
-      <c r="BC13" s="72"/>
-      <c r="BD13" s="73"/>
-      <c r="BE13" s="74"/>
-      <c r="BF13" s="75"/>
+      <c r="BA13" s="62">
+        <v>14.0</v>
+      </c>
+      <c r="BB13" s="63">
+        <v>15.0</v>
+      </c>
+      <c r="BC13" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD13" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE13" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="BF13" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="BG13" s="68">
-        <f>IFERROR((VLOOKUP(BA13,Scoring!$A:$B,2,0))+IF(BC13="y",1,0)+IF(BD13="y",1,0)+IF(BE13="y",1,0)+IF(BF13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BH13" s="62"/>
-      <c r="BI13" s="71"/>
-      <c r="BJ13" s="72"/>
-      <c r="BK13" s="73"/>
-      <c r="BL13" s="74"/>
-      <c r="BM13" s="75"/>
+        <f>IFERROR((VLOOKUP(BA13,Scoring!$D:$E,2,0))+IF(BC13="y",1,0)+IF(BD13="y",1,0)+IF(BE13="y",1,0)+IF(BF13="y",1,0),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BH13" s="62">
+        <v>21.0</v>
+      </c>
+      <c r="BI13" s="63">
+        <v>5.0</v>
+      </c>
+      <c r="BJ13" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK13" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL13" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM13" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="BN13" s="68">
         <f>IFERROR((VLOOKUP(BH13,Scoring!$A:$B,2,0))+IF(BJ13="y",1,0)+IF(BK13="y",1,0)+IF(BL13="y",1,0)+IF(BM13="y",1,0),0)</f>
         <v>0</v>
@@ -13539,25 +13827,49 @@
         <f>IFERROR((VLOOKUP(AT14,Scoring!$A:$B,2,0))+IF(AV14="y",1,0)+IF(AW14="y",1,0)+IF(AX14="y",1,0)+IF(AY14="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="BA14" s="28"/>
-      <c r="BB14" s="37"/>
-      <c r="BC14" s="38"/>
-      <c r="BD14" s="39"/>
-      <c r="BE14" s="40"/>
-      <c r="BF14" s="41"/>
+      <c r="BA14" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="BB14" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="BC14" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD14" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE14" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="BF14" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="BG14" s="34">
-        <f>IFERROR((VLOOKUP(BA14,Scoring!$A:$B,2,0))+IF(BC14="y",1,0)+IF(BD14="y",1,0)+IF(BE14="y",1,0)+IF(BF14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BH14" s="28"/>
-      <c r="BI14" s="37"/>
-      <c r="BJ14" s="38"/>
-      <c r="BK14" s="39"/>
-      <c r="BL14" s="40"/>
-      <c r="BM14" s="41"/>
+        <f>IFERROR((VLOOKUP(BA14,Scoring!$D:$E,2,0))+IF(BC14="y",1,0)+IF(BD14="y",1,0)+IF(BE14="y",1,0)+IF(BF14="y",1,0),0)</f>
+        <v>8</v>
+      </c>
+      <c r="BH14" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="BI14" s="29">
+        <v>15.0</v>
+      </c>
+      <c r="BJ14" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK14" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL14" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM14" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="BN14" s="34">
         <f>IFERROR((VLOOKUP(BH14,Scoring!$A:$B,2,0))+IF(BJ14="y",1,0)+IF(BK14="y",1,0)+IF(BL14="y",1,0)+IF(BM14="y",1,0),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BO14" s="28"/>
       <c r="BP14" s="37"/>
@@ -13804,25 +14116,49 @@
         <f>IFERROR((VLOOKUP(AT15,Scoring!$A:$B,2,0))+IF(AV15="y",1,0)+IF(AW15="y",1,0)+IF(AX15="y",1,0)+IF(AY15="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="BA15" s="79"/>
-      <c r="BB15" s="88"/>
-      <c r="BC15" s="89"/>
-      <c r="BD15" s="90"/>
-      <c r="BE15" s="91"/>
-      <c r="BF15" s="92"/>
+      <c r="BA15" s="79">
+        <v>2.0</v>
+      </c>
+      <c r="BB15" s="80">
+        <v>2.0</v>
+      </c>
+      <c r="BC15" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD15" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE15" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="BF15" s="87" t="s">
+        <v>279</v>
+      </c>
       <c r="BG15" s="85">
-        <f>IFERROR((VLOOKUP(BA15,Scoring!$A:$B,2,0))+IF(BC15="y",1,0)+IF(BD15="y",1,0)+IF(BE15="y",1,0)+IF(BF15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BH15" s="79"/>
-      <c r="BI15" s="88"/>
-      <c r="BJ15" s="89"/>
-      <c r="BK15" s="90"/>
-      <c r="BL15" s="91"/>
-      <c r="BM15" s="92"/>
+        <f>IFERROR((VLOOKUP(BA15,Scoring!$D:$E,2,0))+IF(BC15="y",1,0)+IF(BD15="y",1,0)+IF(BE15="y",1,0)+IF(BF15="y",1,0),0)</f>
+        <v>7</v>
+      </c>
+      <c r="BH15" s="79">
+        <v>4.0</v>
+      </c>
+      <c r="BI15" s="80">
+        <v>14.0</v>
+      </c>
+      <c r="BJ15" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK15" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="BL15" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM15" s="87" t="s">
+        <v>279</v>
+      </c>
       <c r="BN15" s="85">
         <f>IFERROR((VLOOKUP(BH15,Scoring!$A:$B,2,0))+IF(BJ15="y",1,0)+IF(BK15="y",1,0)+IF(BL15="y",1,0)+IF(BM15="y",1,0),0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BO15" s="79"/>
       <c r="BP15" s="88"/>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -11550,14 +11550,14 @@
         <v>279</v>
       </c>
       <c r="BL6" s="32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BM6" s="36" t="s">
         <v>278</v>
       </c>
       <c r="BN6" s="34">
         <f>IFERROR((VLOOKUP(BH6,Scoring!$A:$B,2,0))+IF(BJ6="y",1,0)+IF(BK6="y",1,0)+IF(BL6="y",1,0)+IF(BM6="y",1,0),0)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BO6" s="28"/>
       <c r="BP6" s="37"/>
@@ -11839,14 +11839,14 @@
         <v>279</v>
       </c>
       <c r="BL7" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BM7" s="36" t="s">
         <v>279</v>
       </c>
       <c r="BN7" s="34">
         <f>IFERROR((VLOOKUP(BH7,Scoring!$A:$B,2,0))+IF(BJ7="y",1,0)+IF(BK7="y",1,0)+IF(BL7="y",1,0)+IF(BM7="y",1,0),0)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BO7" s="28"/>
       <c r="BP7" s="37"/>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="311">
   <si>
     <t>Positions</t>
   </si>
@@ -10403,25 +10403,49 @@
         <f>IFERROR((VLOOKUP(BH2,Scoring!$A:$B,2,0))+IF(BJ2="y",1,0)+IF(BK2="y",1,0)+IF(BL2="y",1,0)+IF(BM2="y",1,0),0)</f>
         <v>9</v>
       </c>
-      <c r="BO2" s="15"/>
-      <c r="BP2" s="23"/>
-      <c r="BQ2" s="24"/>
-      <c r="BR2" s="25"/>
-      <c r="BS2" s="26"/>
-      <c r="BT2" s="27"/>
+      <c r="BO2" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="BP2" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="BQ2" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="BR2" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS2" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT2" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="BU2" s="21">
-        <f>IFERROR((VLOOKUP(BO2,Scoring!$A:$B,2,0))+IF(BQ2="y",1,0)+IF(BR2="y",1,0)+IF(BS2="y",1,0)+IF(BT2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BV2" s="15"/>
-      <c r="BW2" s="23"/>
-      <c r="BX2" s="24"/>
-      <c r="BY2" s="25"/>
-      <c r="BZ2" s="26"/>
-      <c r="CA2" s="27"/>
+        <f>IFERROR((VLOOKUP(BO2,Scoring!$D:$E,2,0))+IF(BQ2="y",1,0)+IF(BR2="y",1,0)+IF(BS2="y",1,0)+IF(BT2="y",1,0),0)</f>
+        <v>8</v>
+      </c>
+      <c r="BV2" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="BW2" s="16">
+        <v>15.0</v>
+      </c>
+      <c r="BX2" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="BY2" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ2" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="CA2" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="CB2" s="21">
         <f>IFERROR((VLOOKUP(BV2,Scoring!$A:$B,2,0))+IF(BX2="y",1,0)+IF(BY2="y",1,0)+IF(BZ2="y",1,0)+IF(CA2="y",1,0),0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CC2" s="15"/>
       <c r="CD2" s="23"/>
@@ -10692,25 +10716,49 @@
         <f>IFERROR((VLOOKUP(BH3,Scoring!$A:$B,2,0))+IF(BJ3="y",1,0)+IF(BK3="y",1,0)+IF(BL3="y",1,0)+IF(BM3="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="BO3" s="28"/>
-      <c r="BP3" s="37"/>
-      <c r="BQ3" s="38"/>
-      <c r="BR3" s="39"/>
-      <c r="BS3" s="40"/>
-      <c r="BT3" s="41"/>
+      <c r="BO3" s="28">
+        <v>8.0</v>
+      </c>
+      <c r="BP3" s="29">
+        <v>9.0</v>
+      </c>
+      <c r="BQ3" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BR3" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS3" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT3" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="BU3" s="34">
-        <f>IFERROR((VLOOKUP(BO3,Scoring!$A:$B,2,0))+IF(BQ3="y",1,0)+IF(BR3="y",1,0)+IF(BS3="y",1,0)+IF(BT3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BV3" s="28"/>
-      <c r="BW3" s="37"/>
-      <c r="BX3" s="38"/>
-      <c r="BY3" s="39"/>
-      <c r="BZ3" s="40"/>
-      <c r="CA3" s="41"/>
+        <f>IFERROR((VLOOKUP(BO3,Scoring!$D:$E,2,0))+IF(BQ3="y",1,0)+IF(BR3="y",1,0)+IF(BS3="y",1,0)+IF(BT3="y",1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="BV3" s="28">
+        <v>8.0</v>
+      </c>
+      <c r="BW3" s="29">
+        <v>8.0</v>
+      </c>
+      <c r="BX3" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BY3" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ3" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA3" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CB3" s="34">
         <f>IFERROR((VLOOKUP(BV3,Scoring!$A:$B,2,0))+IF(BX3="y",1,0)+IF(BY3="y",1,0)+IF(BZ3="y",1,0)+IF(CA3="y",1,0),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CC3" s="28"/>
       <c r="CD3" s="37"/>
@@ -10981,25 +11029,49 @@
         <f>IFERROR((VLOOKUP(BH4,Scoring!$A:$B,2,0))+IF(BJ4="y",1,0)+IF(BK4="y",1,0)+IF(BL4="y",1,0)+IF(BM4="y",1,0),0)</f>
         <v>25</v>
       </c>
-      <c r="BO4" s="45"/>
-      <c r="BP4" s="54"/>
-      <c r="BQ4" s="55"/>
-      <c r="BR4" s="56"/>
-      <c r="BS4" s="57"/>
-      <c r="BT4" s="58"/>
+      <c r="BO4" s="45">
+        <v>3.0</v>
+      </c>
+      <c r="BP4" s="46">
+        <v>4.0</v>
+      </c>
+      <c r="BQ4" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="BR4" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS4" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT4" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="BU4" s="51">
-        <f>IFERROR((VLOOKUP(BO4,Scoring!$A:$B,2,0))+IF(BQ4="y",1,0)+IF(BR4="y",1,0)+IF(BS4="y",1,0)+IF(BT4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BV4" s="45"/>
-      <c r="BW4" s="54"/>
-      <c r="BX4" s="55"/>
-      <c r="BY4" s="56"/>
-      <c r="BZ4" s="57"/>
-      <c r="CA4" s="58"/>
+        <f>IFERROR((VLOOKUP(BO4,Scoring!$D:$E,2,0))+IF(BQ4="y",1,0)+IF(BR4="y",1,0)+IF(BS4="y",1,0)+IF(BT4="y",1,0),0)</f>
+        <v>6</v>
+      </c>
+      <c r="BV4" s="45">
+        <v>3.0</v>
+      </c>
+      <c r="BW4" s="46">
+        <v>12.0</v>
+      </c>
+      <c r="BX4" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="BY4" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ4" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA4" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="CB4" s="51">
         <f>IFERROR((VLOOKUP(BV4,Scoring!$A:$B,2,0))+IF(BX4="y",1,0)+IF(BY4="y",1,0)+IF(BZ4="y",1,0)+IF(CA4="y",1,0),0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="CC4" s="45"/>
       <c r="CD4" s="54"/>
@@ -11270,22 +11342,46 @@
         <f>IFERROR((VLOOKUP(BH5,Scoring!$A:$B,2,0))+IF(BJ5="y",1,0)+IF(BK5="y",1,0)+IF(BL5="y",1,0)+IF(BM5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO5" s="62"/>
-      <c r="BP5" s="71"/>
-      <c r="BQ5" s="72"/>
-      <c r="BR5" s="73"/>
-      <c r="BS5" s="74"/>
-      <c r="BT5" s="75"/>
+      <c r="BO5" s="62">
+        <v>22.0</v>
+      </c>
+      <c r="BP5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="BQ5" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="BR5" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS5" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT5" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="BU5" s="68">
-        <f>IFERROR((VLOOKUP(BO5,Scoring!$A:$B,2,0))+IF(BQ5="y",1,0)+IF(BR5="y",1,0)+IF(BS5="y",1,0)+IF(BT5="y",1,0),0)</f>
+        <f>IFERROR((VLOOKUP(BO5,Scoring!$D:$E,2,0))+IF(BQ5="y",1,0)+IF(BR5="y",1,0)+IF(BS5="y",1,0)+IF(BT5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV5" s="62"/>
-      <c r="BW5" s="71"/>
-      <c r="BX5" s="72"/>
-      <c r="BY5" s="73"/>
-      <c r="BZ5" s="74"/>
-      <c r="CA5" s="75"/>
+      <c r="BV5" s="62">
+        <v>22.0</v>
+      </c>
+      <c r="BW5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="BX5" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="BY5" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ5" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA5" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="CB5" s="68">
         <f>IFERROR((VLOOKUP(BV5,Scoring!$A:$B,2,0))+IF(BX5="y",1,0)+IF(BY5="y",1,0)+IF(BZ5="y",1,0)+IF(CA5="y",1,0),0)</f>
         <v>0</v>
@@ -11559,25 +11655,49 @@
         <f>IFERROR((VLOOKUP(BH6,Scoring!$A:$B,2,0))+IF(BJ6="y",1,0)+IF(BK6="y",1,0)+IF(BL6="y",1,0)+IF(BM6="y",1,0),0)</f>
         <v>16</v>
       </c>
-      <c r="BO6" s="28"/>
-      <c r="BP6" s="37"/>
-      <c r="BQ6" s="38"/>
-      <c r="BR6" s="39"/>
-      <c r="BS6" s="40"/>
-      <c r="BT6" s="41"/>
+      <c r="BO6" s="28">
+        <v>4.0</v>
+      </c>
+      <c r="BP6" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="BQ6" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BR6" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS6" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT6" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="BU6" s="34">
-        <f>IFERROR((VLOOKUP(BO6,Scoring!$A:$B,2,0))+IF(BQ6="y",1,0)+IF(BR6="y",1,0)+IF(BS6="y",1,0)+IF(BT6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BV6" s="28"/>
-      <c r="BW6" s="37"/>
-      <c r="BX6" s="38"/>
-      <c r="BY6" s="39"/>
-      <c r="BZ6" s="40"/>
-      <c r="CA6" s="41"/>
+        <f>IFERROR((VLOOKUP(BO6,Scoring!$D:$E,2,0))+IF(BQ6="y",1,0)+IF(BR6="y",1,0)+IF(BS6="y",1,0)+IF(BT6="y",1,0),0)</f>
+        <v>5</v>
+      </c>
+      <c r="BV6" s="28">
+        <v>4.0</v>
+      </c>
+      <c r="BW6" s="29">
+        <v>11.0</v>
+      </c>
+      <c r="BX6" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BY6" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ6" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA6" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CB6" s="34">
         <f>IFERROR((VLOOKUP(BV6,Scoring!$A:$B,2,0))+IF(BX6="y",1,0)+IF(BY6="y",1,0)+IF(BZ6="y",1,0)+IF(CA6="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CC6" s="28"/>
       <c r="CD6" s="37"/>
@@ -11848,25 +11968,49 @@
         <f>IFERROR((VLOOKUP(BH7,Scoring!$A:$B,2,0))+IF(BJ7="y",1,0)+IF(BK7="y",1,0)+IF(BL7="y",1,0)+IF(BM7="y",1,0),0)</f>
         <v>19</v>
       </c>
-      <c r="BO7" s="28"/>
-      <c r="BP7" s="37"/>
-      <c r="BQ7" s="38"/>
-      <c r="BR7" s="39"/>
-      <c r="BS7" s="40"/>
-      <c r="BT7" s="41"/>
+      <c r="BO7" s="28">
+        <v>5.0</v>
+      </c>
+      <c r="BP7" s="29">
+        <v>6.0</v>
+      </c>
+      <c r="BQ7" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BR7" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS7" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT7" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="BU7" s="34">
-        <f>IFERROR((VLOOKUP(BO7,Scoring!$A:$B,2,0))+IF(BQ7="y",1,0)+IF(BR7="y",1,0)+IF(BS7="y",1,0)+IF(BT7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BV7" s="28"/>
-      <c r="BW7" s="37"/>
-      <c r="BX7" s="38"/>
-      <c r="BY7" s="39"/>
-      <c r="BZ7" s="40"/>
-      <c r="CA7" s="41"/>
+        <f>IFERROR((VLOOKUP(BO7,Scoring!$D:$E,2,0))+IF(BQ7="y",1,0)+IF(BR7="y",1,0)+IF(BS7="y",1,0)+IF(BT7="y",1,0),0)</f>
+        <v>4</v>
+      </c>
+      <c r="BV7" s="28">
+        <v>6.0</v>
+      </c>
+      <c r="BW7" s="29">
+        <v>10.0</v>
+      </c>
+      <c r="BX7" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BY7" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ7" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA7" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CB7" s="34">
         <f>IFERROR((VLOOKUP(BV7,Scoring!$A:$B,2,0))+IF(BX7="y",1,0)+IF(BY7="y",1,0)+IF(BZ7="y",1,0)+IF(CA7="y",1,0),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CC7" s="28"/>
       <c r="CD7" s="37"/>
@@ -12137,25 +12281,49 @@
         <f>IFERROR((VLOOKUP(BH8,Scoring!$A:$B,2,0))+IF(BJ8="y",1,0)+IF(BK8="y",1,0)+IF(BL8="y",1,0)+IF(BM8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO8" s="45"/>
-      <c r="BP8" s="54"/>
-      <c r="BQ8" s="55"/>
-      <c r="BR8" s="56"/>
-      <c r="BS8" s="57"/>
-      <c r="BT8" s="58"/>
+      <c r="BO8" s="45">
+        <v>9.0</v>
+      </c>
+      <c r="BP8" s="46">
+        <v>8.0</v>
+      </c>
+      <c r="BQ8" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="BR8" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS8" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT8" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="BU8" s="51">
-        <f>IFERROR((VLOOKUP(BO8,Scoring!$A:$B,2,0))+IF(BQ8="y",1,0)+IF(BR8="y",1,0)+IF(BS8="y",1,0)+IF(BT8="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BV8" s="45"/>
-      <c r="BW8" s="54"/>
-      <c r="BX8" s="55"/>
-      <c r="BY8" s="56"/>
-      <c r="BZ8" s="57"/>
-      <c r="CA8" s="58"/>
+        <f>IFERROR((VLOOKUP(BO8,Scoring!$D:$E,2,0))+IF(BQ8="y",1,0)+IF(BR8="y",1,0)+IF(BS8="y",1,0)+IF(BT8="y",1,0),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BV8" s="45">
+        <v>9.0</v>
+      </c>
+      <c r="BW8" s="46">
+        <v>7.0</v>
+      </c>
+      <c r="BX8" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="BY8" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ8" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA8" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="CB8" s="51">
         <f>IFERROR((VLOOKUP(BV8,Scoring!$A:$B,2,0))+IF(BX8="y",1,0)+IF(BY8="y",1,0)+IF(BZ8="y",1,0)+IF(CA8="y",1,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CC8" s="45"/>
       <c r="CD8" s="54"/>
@@ -12426,25 +12594,49 @@
         <f>IFERROR((VLOOKUP(BH9,Scoring!$A:$B,2,0))+IF(BJ9="y",1,0)+IF(BK9="y",1,0)+IF(BL9="y",1,0)+IF(BM9="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="BO9" s="62"/>
-      <c r="BP9" s="71"/>
-      <c r="BQ9" s="72"/>
-      <c r="BR9" s="73"/>
-      <c r="BS9" s="74"/>
-      <c r="BT9" s="75"/>
+      <c r="BO9" s="62">
+        <v>14.0</v>
+      </c>
+      <c r="BP9" s="63">
+        <v>7.0</v>
+      </c>
+      <c r="BQ9" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="BR9" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS9" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT9" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="BU9" s="68">
-        <f>IFERROR((VLOOKUP(BO9,Scoring!$A:$B,2,0))+IF(BQ9="y",1,0)+IF(BR9="y",1,0)+IF(BS9="y",1,0)+IF(BT9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BV9" s="62"/>
-      <c r="BW9" s="71"/>
-      <c r="BX9" s="72"/>
-      <c r="BY9" s="73"/>
-      <c r="BZ9" s="74"/>
-      <c r="CA9" s="75"/>
+        <f>IFERROR((VLOOKUP(BO9,Scoring!$D:$E,2,0))+IF(BQ9="y",1,0)+IF(BR9="y",1,0)+IF(BS9="y",1,0)+IF(BT9="y",1,0),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BV9" s="62">
+        <v>10.0</v>
+      </c>
+      <c r="BW9" s="63">
+        <v>6.0</v>
+      </c>
+      <c r="BX9" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="BY9" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ9" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA9" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="CB9" s="68">
         <f>IFERROR((VLOOKUP(BV9,Scoring!$A:$B,2,0))+IF(BX9="y",1,0)+IF(BY9="y",1,0)+IF(BZ9="y",1,0)+IF(CA9="y",1,0),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC9" s="62"/>
       <c r="CD9" s="71"/>
@@ -12715,22 +12907,46 @@
         <f>IFERROR((VLOOKUP(BH10,Scoring!$A:$B,2,0))+IF(BJ10="y",1,0)+IF(BK10="y",1,0)+IF(BL10="y",1,0)+IF(BM10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO10" s="28"/>
-      <c r="BP10" s="37"/>
-      <c r="BQ10" s="38"/>
-      <c r="BR10" s="39"/>
-      <c r="BS10" s="40"/>
-      <c r="BT10" s="41"/>
+      <c r="BO10" s="28">
+        <v>22.0</v>
+      </c>
+      <c r="BP10" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="BQ10" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BR10" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT10" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="BU10" s="34">
-        <f>IFERROR((VLOOKUP(BO10,Scoring!$A:$B,2,0))+IF(BQ10="y",1,0)+IF(BR10="y",1,0)+IF(BS10="y",1,0)+IF(BT10="y",1,0),0)</f>
+        <f>IFERROR((VLOOKUP(BO10,Scoring!$D:$E,2,0))+IF(BQ10="y",1,0)+IF(BR10="y",1,0)+IF(BS10="y",1,0)+IF(BT10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV10" s="28"/>
-      <c r="BW10" s="37"/>
-      <c r="BX10" s="38"/>
-      <c r="BY10" s="39"/>
-      <c r="BZ10" s="40"/>
-      <c r="CA10" s="41"/>
+      <c r="BV10" s="28">
+        <v>22.0</v>
+      </c>
+      <c r="BW10" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="BX10" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BY10" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA10" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CB10" s="34">
         <f>IFERROR((VLOOKUP(BV10,Scoring!$A:$B,2,0))+IF(BX10="y",1,0)+IF(BY10="y",1,0)+IF(BZ10="y",1,0)+IF(CA10="y",1,0),0)</f>
         <v>0</v>
@@ -13004,22 +13220,46 @@
         <f>IFERROR((VLOOKUP(BH11,Scoring!$A:$B,2,0))+IF(BJ11="y",1,0)+IF(BK11="y",1,0)+IF(BL11="y",1,0)+IF(BM11="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="BO11" s="28"/>
-      <c r="BP11" s="37"/>
-      <c r="BQ11" s="38"/>
-      <c r="BR11" s="39"/>
-      <c r="BS11" s="40"/>
-      <c r="BT11" s="41"/>
+      <c r="BO11" s="28">
+        <v>22.0</v>
+      </c>
+      <c r="BP11" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="BQ11" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BR11" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS11" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT11" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="BU11" s="34">
-        <f>IFERROR((VLOOKUP(BO11,Scoring!$A:$B,2,0))+IF(BQ11="y",1,0)+IF(BR11="y",1,0)+IF(BS11="y",1,0)+IF(BT11="y",1,0),0)</f>
+        <f>IFERROR((VLOOKUP(BO11,Scoring!$D:$E,2,0))+IF(BQ11="y",1,0)+IF(BR11="y",1,0)+IF(BS11="y",1,0)+IF(BT11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV11" s="28"/>
-      <c r="BW11" s="37"/>
-      <c r="BX11" s="38"/>
-      <c r="BY11" s="39"/>
-      <c r="BZ11" s="40"/>
-      <c r="CA11" s="41"/>
+      <c r="BV11" s="28">
+        <v>22.0</v>
+      </c>
+      <c r="BW11" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="BX11" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BY11" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ11" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA11" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CB11" s="34">
         <f>IFERROR((VLOOKUP(BV11,Scoring!$A:$B,2,0))+IF(BX11="y",1,0)+IF(BY11="y",1,0)+IF(BZ11="y",1,0)+IF(CA11="y",1,0),0)</f>
         <v>0</v>
@@ -13293,25 +13533,49 @@
         <f>IFERROR((VLOOKUP(BH12,Scoring!$A:$B,2,0))+IF(BJ12="y",1,0)+IF(BK12="y",1,0)+IF(BL12="y",1,0)+IF(BM12="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="BO12" s="45"/>
-      <c r="BP12" s="54"/>
-      <c r="BQ12" s="55"/>
-      <c r="BR12" s="56"/>
-      <c r="BS12" s="57"/>
-      <c r="BT12" s="58"/>
+      <c r="BO12" s="45">
+        <v>15.0</v>
+      </c>
+      <c r="BP12" s="46">
+        <v>15.0</v>
+      </c>
+      <c r="BQ12" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="BR12" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS12" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT12" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="BU12" s="51">
-        <f>IFERROR((VLOOKUP(BO12,Scoring!$A:$B,2,0))+IF(BQ12="y",1,0)+IF(BR12="y",1,0)+IF(BS12="y",1,0)+IF(BT12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BV12" s="45"/>
-      <c r="BW12" s="54"/>
-      <c r="BX12" s="55"/>
-      <c r="BY12" s="56"/>
-      <c r="BZ12" s="57"/>
-      <c r="CA12" s="58"/>
+        <f>IFERROR((VLOOKUP(BO12,Scoring!$D:$E,2,0))+IF(BQ12="y",1,0)+IF(BR12="y",1,0)+IF(BS12="y",1,0)+IF(BT12="y",1,0),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BV12" s="45">
+        <v>13.0</v>
+      </c>
+      <c r="BW12" s="46">
+        <v>5.0</v>
+      </c>
+      <c r="BX12" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="BY12" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ12" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA12" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="CB12" s="51">
         <f>IFERROR((VLOOKUP(BV12,Scoring!$A:$B,2,0))+IF(BX12="y",1,0)+IF(BY12="y",1,0)+IF(BZ12="y",1,0)+IF(CA12="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC12" s="45"/>
       <c r="CD12" s="54"/>
@@ -13582,25 +13846,49 @@
         <f>IFERROR((VLOOKUP(BH13,Scoring!$A:$B,2,0))+IF(BJ13="y",1,0)+IF(BK13="y",1,0)+IF(BL13="y",1,0)+IF(BM13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO13" s="62"/>
-      <c r="BP13" s="71"/>
-      <c r="BQ13" s="72"/>
-      <c r="BR13" s="73"/>
-      <c r="BS13" s="74"/>
-      <c r="BT13" s="75"/>
+      <c r="BO13" s="62">
+        <v>7.0</v>
+      </c>
+      <c r="BP13" s="63">
+        <v>10.0</v>
+      </c>
+      <c r="BQ13" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="BR13" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS13" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT13" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="BU13" s="68">
-        <f>IFERROR((VLOOKUP(BO13,Scoring!$A:$B,2,0))+IF(BQ13="y",1,0)+IF(BR13="y",1,0)+IF(BS13="y",1,0)+IF(BT13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BV13" s="62"/>
-      <c r="BW13" s="71"/>
-      <c r="BX13" s="72"/>
-      <c r="BY13" s="73"/>
-      <c r="BZ13" s="74"/>
-      <c r="CA13" s="75"/>
+        <f>IFERROR((VLOOKUP(BO13,Scoring!$D:$E,2,0))+IF(BQ13="y",1,0)+IF(BR13="y",1,0)+IF(BS13="y",1,0)+IF(BT13="y",1,0),0)</f>
+        <v>2</v>
+      </c>
+      <c r="BV13" s="62">
+        <v>7.0</v>
+      </c>
+      <c r="BW13" s="63">
+        <v>14.0</v>
+      </c>
+      <c r="BX13" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="BY13" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ13" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA13" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="CB13" s="68">
         <f>IFERROR((VLOOKUP(BV13,Scoring!$A:$B,2,0))+IF(BX13="y",1,0)+IF(BY13="y",1,0)+IF(BZ13="y",1,0)+IF(CA13="y",1,0),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CC13" s="62"/>
       <c r="CD13" s="71"/>
@@ -13871,25 +14159,49 @@
         <f>IFERROR((VLOOKUP(BH14,Scoring!$A:$B,2,0))+IF(BJ14="y",1,0)+IF(BK14="y",1,0)+IF(BL14="y",1,0)+IF(BM14="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="BO14" s="28"/>
-      <c r="BP14" s="37"/>
-      <c r="BQ14" s="38"/>
-      <c r="BR14" s="39"/>
-      <c r="BS14" s="40"/>
-      <c r="BT14" s="41"/>
+      <c r="BO14" s="28">
+        <v>6.0</v>
+      </c>
+      <c r="BP14" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="BQ14" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BR14" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS14" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT14" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="BU14" s="34">
-        <f>IFERROR((VLOOKUP(BO14,Scoring!$A:$B,2,0))+IF(BQ14="y",1,0)+IF(BR14="y",1,0)+IF(BS14="y",1,0)+IF(BT14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BV14" s="28"/>
-      <c r="BW14" s="37"/>
-      <c r="BX14" s="38"/>
-      <c r="BY14" s="39"/>
-      <c r="BZ14" s="40"/>
-      <c r="CA14" s="41"/>
+        <f>IFERROR((VLOOKUP(BO14,Scoring!$D:$E,2,0))+IF(BQ14="y",1,0)+IF(BR14="y",1,0)+IF(BS14="y",1,0)+IF(BT14="y",1,0),0)</f>
+        <v>3</v>
+      </c>
+      <c r="BV14" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="BW14" s="29">
+        <v>9.0</v>
+      </c>
+      <c r="BX14" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BY14" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ14" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA14" s="36" t="s">
+        <v>278</v>
+      </c>
       <c r="CB14" s="34">
         <f>IFERROR((VLOOKUP(BV14,Scoring!$A:$B,2,0))+IF(BX14="y",1,0)+IF(BY14="y",1,0)+IF(BZ14="y",1,0)+IF(CA14="y",1,0),0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="CC14" s="28"/>
       <c r="CD14" s="37"/>
@@ -14160,25 +14472,49 @@
         <f>IFERROR((VLOOKUP(BH15,Scoring!$A:$B,2,0))+IF(BJ15="y",1,0)+IF(BK15="y",1,0)+IF(BL15="y",1,0)+IF(BM15="y",1,0),0)</f>
         <v>13</v>
       </c>
-      <c r="BO15" s="79"/>
-      <c r="BP15" s="88"/>
-      <c r="BQ15" s="89"/>
-      <c r="BR15" s="90"/>
-      <c r="BS15" s="91"/>
-      <c r="BT15" s="92"/>
+      <c r="BO15" s="79">
+        <v>2.0</v>
+      </c>
+      <c r="BP15" s="80">
+        <v>2.0</v>
+      </c>
+      <c r="BQ15" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="BR15" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS15" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT15" s="87" t="s">
+        <v>279</v>
+      </c>
       <c r="BU15" s="85">
-        <f>IFERROR((VLOOKUP(BO15,Scoring!$A:$B,2,0))+IF(BQ15="y",1,0)+IF(BR15="y",1,0)+IF(BS15="y",1,0)+IF(BT15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BV15" s="79"/>
-      <c r="BW15" s="88"/>
-      <c r="BX15" s="89"/>
-      <c r="BY15" s="90"/>
-      <c r="BZ15" s="91"/>
-      <c r="CA15" s="92"/>
+        <f>IFERROR((VLOOKUP(BO15,Scoring!$D:$E,2,0))+IF(BQ15="y",1,0)+IF(BR15="y",1,0)+IF(BS15="y",1,0)+IF(BT15="y",1,0),0)</f>
+        <v>7</v>
+      </c>
+      <c r="BV15" s="79">
+        <v>5.0</v>
+      </c>
+      <c r="BW15" s="80">
+        <v>13.0</v>
+      </c>
+      <c r="BX15" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="BY15" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="BZ15" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA15" s="87" t="s">
+        <v>279</v>
+      </c>
       <c r="CB15" s="85">
         <f>IFERROR((VLOOKUP(BV15,Scoring!$A:$B,2,0))+IF(BX15="y",1,0)+IF(BY15="y",1,0)+IF(BZ15="y",1,0)+IF(CA15="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CC15" s="79"/>
       <c r="CD15" s="88"/>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="311">
   <si>
     <t>Positions</t>
   </si>
@@ -910,28 +910,28 @@
     <t>11/19/2025</t>
   </si>
   <si>
+    <t>Brazil Sprint</t>
+  </si>
+  <si>
+    <t>12/3/2025</t>
+  </si>
+  <si>
+    <t>12/10/2025</t>
+  </si>
+  <si>
+    <t>12/17/2025</t>
+  </si>
+  <si>
     <t>Confirmed</t>
   </si>
   <si>
-    <t>Brazil Sprint</t>
-  </si>
-  <si>
-    <t>12/3/2025</t>
+    <t>Jeddah</t>
+  </si>
+  <si>
+    <t>1/1/2026</t>
   </si>
   <si>
     <t>Tentative</t>
-  </si>
-  <si>
-    <t>12/10/2025</t>
-  </si>
-  <si>
-    <t>12/17/2025</t>
-  </si>
-  <si>
-    <t>Jeddah</t>
-  </si>
-  <si>
-    <t>1/1/2026</t>
   </si>
   <si>
     <t>Las Vegas</t>
@@ -2030,7 +2030,7 @@
         <v>295</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11">
@@ -2041,18 +2041,18 @@
         <v>295</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" s="93" t="s">
         <v>297</v>
       </c>
-      <c r="B12" s="93" t="s">
-        <v>298</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13">
@@ -2060,10 +2060,10 @@
         <v>157</v>
       </c>
       <c r="B13" s="93" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14">
@@ -2071,10 +2071,10 @@
         <v>147</v>
       </c>
       <c r="B14" s="93" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15">
@@ -2082,21 +2082,21 @@
         <v>150</v>
       </c>
       <c r="B15" s="93" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" s="93" t="s">
         <v>302</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="C16" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="17">
@@ -2107,7 +2107,7 @@
         <v>305</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18">
@@ -2118,7 +2118,7 @@
         <v>306</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19">
@@ -2129,7 +2129,7 @@
         <v>308</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20">
@@ -2140,7 +2140,7 @@
         <v>310</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -10447,15 +10447,27 @@
         <f>IFERROR((VLOOKUP(BV2,Scoring!$A:$B,2,0))+IF(BX2="y",1,0)+IF(BY2="y",1,0)+IF(BZ2="y",1,0)+IF(CA2="y",1,0),0)</f>
         <v>19</v>
       </c>
-      <c r="CC2" s="15"/>
-      <c r="CD2" s="23"/>
-      <c r="CE2" s="24"/>
-      <c r="CF2" s="25"/>
-      <c r="CG2" s="26"/>
-      <c r="CH2" s="27"/>
+      <c r="CC2" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="CD2" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="CE2" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="CF2" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="CG2" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="CH2" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="CI2" s="21">
         <f>IFERROR((VLOOKUP(CC2,Scoring!$A:$B,2,0))+IF(CE2="y",1,0)+IF(CF2="y",1,0)+IF(CG2="y",1,0)+IF(CH2="y",1,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="CJ2" s="15"/>
       <c r="CK2" s="23"/>
@@ -10760,15 +10772,27 @@
         <f>IFERROR((VLOOKUP(BV3,Scoring!$A:$B,2,0))+IF(BX3="y",1,0)+IF(BY3="y",1,0)+IF(BZ3="y",1,0)+IF(CA3="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="CC3" s="28"/>
-      <c r="CD3" s="37"/>
-      <c r="CE3" s="38"/>
-      <c r="CF3" s="39"/>
-      <c r="CG3" s="40"/>
-      <c r="CH3" s="41"/>
+      <c r="CC3" s="28">
+        <v>10.0</v>
+      </c>
+      <c r="CD3" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="CE3" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="CF3" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="CG3" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="CH3" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CI3" s="34">
         <f>IFERROR((VLOOKUP(CC3,Scoring!$A:$B,2,0))+IF(CE3="y",1,0)+IF(CF3="y",1,0)+IF(CG3="y",1,0)+IF(CH3="y",1,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ3" s="28"/>
       <c r="CK3" s="37"/>
@@ -11073,12 +11097,24 @@
         <f>IFERROR((VLOOKUP(BV4,Scoring!$A:$B,2,0))+IF(BX4="y",1,0)+IF(BY4="y",1,0)+IF(BZ4="y",1,0)+IF(CA4="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="CC4" s="45"/>
-      <c r="CD4" s="54"/>
-      <c r="CE4" s="55"/>
-      <c r="CF4" s="56"/>
-      <c r="CG4" s="57"/>
-      <c r="CH4" s="58"/>
+      <c r="CC4" s="45">
+        <v>21.0</v>
+      </c>
+      <c r="CD4" s="46">
+        <v>3.0</v>
+      </c>
+      <c r="CE4" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="CF4" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="CG4" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="CH4" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="CI4" s="51">
         <f>IFERROR((VLOOKUP(CC4,Scoring!$A:$B,2,0))+IF(CE4="y",1,0)+IF(CF4="y",1,0)+IF(CG4="y",1,0)+IF(CH4="y",1,0),0)</f>
         <v>0</v>
@@ -11386,12 +11422,24 @@
         <f>IFERROR((VLOOKUP(BV5,Scoring!$A:$B,2,0))+IF(BX5="y",1,0)+IF(BY5="y",1,0)+IF(BZ5="y",1,0)+IF(CA5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC5" s="62"/>
-      <c r="CD5" s="71"/>
-      <c r="CE5" s="72"/>
-      <c r="CF5" s="73"/>
-      <c r="CG5" s="74"/>
-      <c r="CH5" s="75"/>
+      <c r="CC5" s="62">
+        <v>22.0</v>
+      </c>
+      <c r="CD5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="CE5" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="CF5" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="CG5" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="CH5" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="CI5" s="68">
         <f>IFERROR((VLOOKUP(CC5,Scoring!$A:$B,2,0))+IF(CE5="y",1,0)+IF(CF5="y",1,0)+IF(CG5="y",1,0)+IF(CH5="y",1,0),0)</f>
         <v>0</v>
@@ -11699,15 +11747,27 @@
         <f>IFERROR((VLOOKUP(BV6,Scoring!$A:$B,2,0))+IF(BX6="y",1,0)+IF(BY6="y",1,0)+IF(BZ6="y",1,0)+IF(CA6="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="CC6" s="28"/>
-      <c r="CD6" s="37"/>
-      <c r="CE6" s="38"/>
-      <c r="CF6" s="39"/>
-      <c r="CG6" s="40"/>
-      <c r="CH6" s="41"/>
+      <c r="CC6" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="CD6" s="29">
+        <v>6.0</v>
+      </c>
+      <c r="CE6" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="CF6" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="CG6" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CH6" s="36" t="s">
+        <v>278</v>
+      </c>
       <c r="CI6" s="34">
         <f>IFERROR((VLOOKUP(CC6,Scoring!$A:$B,2,0))+IF(CE6="y",1,0)+IF(CF6="y",1,0)+IF(CG6="y",1,0)+IF(CH6="y",1,0),0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="CJ6" s="28"/>
       <c r="CK6" s="37"/>
@@ -12012,15 +12072,27 @@
         <f>IFERROR((VLOOKUP(BV7,Scoring!$A:$B,2,0))+IF(BX7="y",1,0)+IF(BY7="y",1,0)+IF(BZ7="y",1,0)+IF(CA7="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="CC7" s="28"/>
-      <c r="CD7" s="37"/>
-      <c r="CE7" s="38"/>
-      <c r="CF7" s="39"/>
-      <c r="CG7" s="40"/>
-      <c r="CH7" s="41"/>
+      <c r="CC7" s="28">
+        <v>8.0</v>
+      </c>
+      <c r="CD7" s="29">
+        <v>4.0</v>
+      </c>
+      <c r="CE7" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="CF7" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="CG7" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CH7" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CI7" s="34">
         <f>IFERROR((VLOOKUP(CC7,Scoring!$A:$B,2,0))+IF(CE7="y",1,0)+IF(CF7="y",1,0)+IF(CG7="y",1,0)+IF(CH7="y",1,0),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CJ7" s="28"/>
       <c r="CK7" s="37"/>
@@ -12325,15 +12397,27 @@
         <f>IFERROR((VLOOKUP(BV8,Scoring!$A:$B,2,0))+IF(BX8="y",1,0)+IF(BY8="y",1,0)+IF(BZ8="y",1,0)+IF(CA8="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="CC8" s="45"/>
-      <c r="CD8" s="54"/>
-      <c r="CE8" s="55"/>
-      <c r="CF8" s="56"/>
-      <c r="CG8" s="57"/>
-      <c r="CH8" s="58"/>
+      <c r="CC8" s="45">
+        <v>11.0</v>
+      </c>
+      <c r="CD8" s="46">
+        <v>7.0</v>
+      </c>
+      <c r="CE8" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="CF8" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="CG8" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="CH8" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="CI8" s="51">
         <f>IFERROR((VLOOKUP(CC8,Scoring!$A:$B,2,0))+IF(CE8="y",1,0)+IF(CF8="y",1,0)+IF(CG8="y",1,0)+IF(CH8="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ8" s="45"/>
       <c r="CK8" s="54"/>
@@ -12638,15 +12722,27 @@
         <f>IFERROR((VLOOKUP(BV9,Scoring!$A:$B,2,0))+IF(BX9="y",1,0)+IF(BY9="y",1,0)+IF(BZ9="y",1,0)+IF(CA9="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="CC9" s="62"/>
-      <c r="CD9" s="71"/>
-      <c r="CE9" s="72"/>
-      <c r="CF9" s="73"/>
-      <c r="CG9" s="74"/>
-      <c r="CH9" s="75"/>
+      <c r="CC9" s="62">
+        <v>5.0</v>
+      </c>
+      <c r="CD9" s="63">
+        <v>14.0</v>
+      </c>
+      <c r="CE9" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="CF9" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="CG9" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="CH9" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="CI9" s="68">
         <f>IFERROR((VLOOKUP(CC9,Scoring!$A:$B,2,0))+IF(CE9="y",1,0)+IF(CF9="y",1,0)+IF(CG9="y",1,0)+IF(CH9="y",1,0),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CJ9" s="62"/>
       <c r="CK9" s="71"/>
@@ -12951,15 +13047,27 @@
         <f>IFERROR((VLOOKUP(BV10,Scoring!$A:$B,2,0))+IF(BX10="y",1,0)+IF(BY10="y",1,0)+IF(BZ10="y",1,0)+IF(CA10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC10" s="28"/>
-      <c r="CD10" s="37"/>
-      <c r="CE10" s="38"/>
-      <c r="CF10" s="39"/>
-      <c r="CG10" s="40"/>
-      <c r="CH10" s="41"/>
+      <c r="CC10" s="28">
+        <v>4.0</v>
+      </c>
+      <c r="CD10" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="CE10" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="CF10" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="CG10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CH10" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CI10" s="34">
         <f>IFERROR((VLOOKUP(CC10,Scoring!$A:$B,2,0))+IF(CE10="y",1,0)+IF(CF10="y",1,0)+IF(CG10="y",1,0)+IF(CH10="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CJ10" s="28"/>
       <c r="CK10" s="37"/>
@@ -13264,15 +13372,27 @@
         <f>IFERROR((VLOOKUP(BV11,Scoring!$A:$B,2,0))+IF(BX11="y",1,0)+IF(BY11="y",1,0)+IF(BZ11="y",1,0)+IF(CA11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC11" s="28"/>
-      <c r="CD11" s="37"/>
-      <c r="CE11" s="38"/>
-      <c r="CF11" s="39"/>
-      <c r="CG11" s="40"/>
-      <c r="CH11" s="41"/>
+      <c r="CC11" s="28">
+        <v>12.0</v>
+      </c>
+      <c r="CD11" s="29">
+        <v>9.0</v>
+      </c>
+      <c r="CE11" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="CF11" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="CG11" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CH11" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CI11" s="34">
         <f>IFERROR((VLOOKUP(CC11,Scoring!$A:$B,2,0))+IF(CE11="y",1,0)+IF(CF11="y",1,0)+IF(CG11="y",1,0)+IF(CH11="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ11" s="28"/>
       <c r="CK11" s="37"/>
@@ -13577,15 +13697,27 @@
         <f>IFERROR((VLOOKUP(BV12,Scoring!$A:$B,2,0))+IF(BX12="y",1,0)+IF(BY12="y",1,0)+IF(BZ12="y",1,0)+IF(CA12="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="CC12" s="45"/>
-      <c r="CD12" s="54"/>
-      <c r="CE12" s="55"/>
-      <c r="CF12" s="56"/>
-      <c r="CG12" s="57"/>
-      <c r="CH12" s="58"/>
+      <c r="CC12" s="45">
+        <v>6.0</v>
+      </c>
+      <c r="CD12" s="46">
+        <v>13.0</v>
+      </c>
+      <c r="CE12" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="CF12" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="CG12" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="CH12" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="CI12" s="51">
         <f>IFERROR((VLOOKUP(CC12,Scoring!$A:$B,2,0))+IF(CE12="y",1,0)+IF(CF12="y",1,0)+IF(CG12="y",1,0)+IF(CH12="y",1,0),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CJ12" s="45"/>
       <c r="CK12" s="54"/>
@@ -13890,15 +14022,27 @@
         <f>IFERROR((VLOOKUP(BV13,Scoring!$A:$B,2,0))+IF(BX13="y",1,0)+IF(BY13="y",1,0)+IF(BZ13="y",1,0)+IF(CA13="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="CC13" s="62"/>
-      <c r="CD13" s="71"/>
-      <c r="CE13" s="72"/>
-      <c r="CF13" s="73"/>
-      <c r="CG13" s="74"/>
-      <c r="CH13" s="75"/>
+      <c r="CC13" s="62">
+        <v>9.0</v>
+      </c>
+      <c r="CD13" s="63">
+        <v>8.0</v>
+      </c>
+      <c r="CE13" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="CF13" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="CG13" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="CH13" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="CI13" s="68">
         <f>IFERROR((VLOOKUP(CC13,Scoring!$A:$B,2,0))+IF(CE13="y",1,0)+IF(CF13="y",1,0)+IF(CG13="y",1,0)+IF(CH13="y",1,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ13" s="62"/>
       <c r="CK13" s="71"/>
@@ -14203,15 +14347,27 @@
         <f>IFERROR((VLOOKUP(BV14,Scoring!$A:$B,2,0))+IF(BX14="y",1,0)+IF(BY14="y",1,0)+IF(BZ14="y",1,0)+IF(CA14="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="CC14" s="28"/>
-      <c r="CD14" s="37"/>
-      <c r="CE14" s="38"/>
-      <c r="CF14" s="39"/>
-      <c r="CG14" s="40"/>
-      <c r="CH14" s="41"/>
+      <c r="CC14" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="CD14" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="CE14" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="CF14" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="CG14" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CH14" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CI14" s="34">
         <f>IFERROR((VLOOKUP(CC14,Scoring!$A:$B,2,0))+IF(CE14="y",1,0)+IF(CF14="y",1,0)+IF(CG14="y",1,0)+IF(CH14="y",1,0),0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="CJ14" s="28"/>
       <c r="CK14" s="37"/>
@@ -14516,15 +14672,27 @@
         <f>IFERROR((VLOOKUP(BV15,Scoring!$A:$B,2,0))+IF(BX15="y",1,0)+IF(BY15="y",1,0)+IF(BZ15="y",1,0)+IF(CA15="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="CC15" s="79"/>
-      <c r="CD15" s="88"/>
-      <c r="CE15" s="89"/>
-      <c r="CF15" s="90"/>
-      <c r="CG15" s="91"/>
-      <c r="CH15" s="92"/>
+      <c r="CC15" s="79">
+        <v>7.0</v>
+      </c>
+      <c r="CD15" s="80">
+        <v>10.0</v>
+      </c>
+      <c r="CE15" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="CF15" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="CG15" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="CH15" s="87" t="s">
+        <v>279</v>
+      </c>
       <c r="CI15" s="85">
         <f>IFERROR((VLOOKUP(CC15,Scoring!$A:$B,2,0))+IF(CE15="y",1,0)+IF(CF15="y",1,0)+IF(CG15="y",1,0)+IF(CH15="y",1,0),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CJ15" s="79"/>
       <c r="CK15" s="88"/>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="311">
   <si>
     <t>Positions</t>
   </si>
@@ -10469,15 +10469,27 @@
         <f>IFERROR((VLOOKUP(CC2,Scoring!$A:$B,2,0))+IF(CE2="y",1,0)+IF(CF2="y",1,0)+IF(CG2="y",1,0)+IF(CH2="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="CJ2" s="15"/>
-      <c r="CK2" s="23"/>
-      <c r="CL2" s="24"/>
-      <c r="CM2" s="25"/>
-      <c r="CN2" s="26"/>
-      <c r="CO2" s="27"/>
+      <c r="CJ2" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="CK2" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="CL2" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="CM2" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="CN2" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="CO2" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="CP2" s="21">
         <f>IFERROR((VLOOKUP(CJ2,Scoring!$A:$B,2,0))+IF(CL2="y",1,0)+IF(CM2="y",1,0)+IF(CN2="y",1,0)+IF(CO2="y",1,0),0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="CQ2" s="15"/>
       <c r="CR2" s="23"/>
@@ -10794,15 +10806,27 @@
         <f>IFERROR((VLOOKUP(CC3,Scoring!$A:$B,2,0))+IF(CE3="y",1,0)+IF(CF3="y",1,0)+IF(CG3="y",1,0)+IF(CH3="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="CJ3" s="28"/>
-      <c r="CK3" s="37"/>
-      <c r="CL3" s="38"/>
-      <c r="CM3" s="39"/>
-      <c r="CN3" s="40"/>
-      <c r="CO3" s="41"/>
+      <c r="CJ3" s="28">
+        <v>12.0</v>
+      </c>
+      <c r="CK3" s="29">
+        <v>6.0</v>
+      </c>
+      <c r="CL3" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="CM3" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="CN3" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CO3" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CP3" s="34">
         <f>IFERROR((VLOOKUP(CJ3,Scoring!$A:$B,2,0))+IF(CL3="y",1,0)+IF(CM3="y",1,0)+IF(CN3="y",1,0)+IF(CO3="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ3" s="28"/>
       <c r="CR3" s="37"/>
@@ -11119,15 +11143,27 @@
         <f>IFERROR((VLOOKUP(CC4,Scoring!$A:$B,2,0))+IF(CE4="y",1,0)+IF(CF4="y",1,0)+IF(CG4="y",1,0)+IF(CH4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ4" s="45"/>
-      <c r="CK4" s="54"/>
-      <c r="CL4" s="55"/>
-      <c r="CM4" s="56"/>
-      <c r="CN4" s="57"/>
-      <c r="CO4" s="58"/>
+      <c r="CJ4" s="45">
+        <v>4.0</v>
+      </c>
+      <c r="CK4" s="46">
+        <v>2.0</v>
+      </c>
+      <c r="CL4" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="CM4" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="CN4" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="CO4" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="CP4" s="51">
         <f>IFERROR((VLOOKUP(CJ4,Scoring!$A:$B,2,0))+IF(CL4="y",1,0)+IF(CM4="y",1,0)+IF(CN4="y",1,0)+IF(CO4="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CQ4" s="45"/>
       <c r="CR4" s="54"/>
@@ -11444,12 +11480,24 @@
         <f>IFERROR((VLOOKUP(CC5,Scoring!$A:$B,2,0))+IF(CE5="y",1,0)+IF(CF5="y",1,0)+IF(CG5="y",1,0)+IF(CH5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ5" s="62"/>
-      <c r="CK5" s="71"/>
-      <c r="CL5" s="72"/>
-      <c r="CM5" s="73"/>
-      <c r="CN5" s="74"/>
-      <c r="CO5" s="75"/>
+      <c r="CJ5" s="62">
+        <v>22.0</v>
+      </c>
+      <c r="CK5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="CL5" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="CM5" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="CN5" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="CO5" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="CP5" s="68">
         <f>IFERROR((VLOOKUP(CJ5,Scoring!$A:$B,2,0))+IF(CL5="y",1,0)+IF(CM5="y",1,0)+IF(CN5="y",1,0)+IF(CO5="y",1,0),0)</f>
         <v>0</v>
@@ -11769,15 +11817,27 @@
         <f>IFERROR((VLOOKUP(CC6,Scoring!$A:$B,2,0))+IF(CE6="y",1,0)+IF(CF6="y",1,0)+IF(CG6="y",1,0)+IF(CH6="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="CJ6" s="28"/>
-      <c r="CK6" s="37"/>
-      <c r="CL6" s="38"/>
-      <c r="CM6" s="39"/>
-      <c r="CN6" s="40"/>
-      <c r="CO6" s="41"/>
+      <c r="CJ6" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="CK6" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="CL6" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="CM6" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="CN6" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CO6" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CP6" s="34">
         <f>IFERROR((VLOOKUP(CJ6,Scoring!$A:$B,2,0))+IF(CL6="y",1,0)+IF(CM6="y",1,0)+IF(CN6="y",1,0)+IF(CO6="y",1,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="CQ6" s="28"/>
       <c r="CR6" s="37"/>
@@ -12094,15 +12154,27 @@
         <f>IFERROR((VLOOKUP(CC7,Scoring!$A:$B,2,0))+IF(CE7="y",1,0)+IF(CF7="y",1,0)+IF(CG7="y",1,0)+IF(CH7="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="CJ7" s="28"/>
-      <c r="CK7" s="37"/>
-      <c r="CL7" s="38"/>
-      <c r="CM7" s="39"/>
-      <c r="CN7" s="40"/>
-      <c r="CO7" s="41"/>
+      <c r="CJ7" s="28">
+        <v>5.0</v>
+      </c>
+      <c r="CK7" s="29">
+        <v>8.0</v>
+      </c>
+      <c r="CL7" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="CM7" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="CN7" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CO7" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CP7" s="34">
         <f>IFERROR((VLOOKUP(CJ7,Scoring!$A:$B,2,0))+IF(CL7="y",1,0)+IF(CM7="y",1,0)+IF(CN7="y",1,0)+IF(CO7="y",1,0),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CQ7" s="28"/>
       <c r="CR7" s="37"/>
@@ -12419,15 +12491,27 @@
         <f>IFERROR((VLOOKUP(CC8,Scoring!$A:$B,2,0))+IF(CE8="y",1,0)+IF(CF8="y",1,0)+IF(CG8="y",1,0)+IF(CH8="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="CJ8" s="45"/>
-      <c r="CK8" s="54"/>
-      <c r="CL8" s="55"/>
-      <c r="CM8" s="56"/>
-      <c r="CN8" s="57"/>
-      <c r="CO8" s="58"/>
+      <c r="CJ8" s="45">
+        <v>10.0</v>
+      </c>
+      <c r="CK8" s="46">
+        <v>9.0</v>
+      </c>
+      <c r="CL8" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="CM8" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="CN8" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="CO8" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="CP8" s="51">
         <f>IFERROR((VLOOKUP(CJ8,Scoring!$A:$B,2,0))+IF(CL8="y",1,0)+IF(CM8="y",1,0)+IF(CN8="y",1,0)+IF(CO8="y",1,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CQ8" s="45"/>
       <c r="CR8" s="54"/>
@@ -12744,15 +12828,27 @@
         <f>IFERROR((VLOOKUP(CC9,Scoring!$A:$B,2,0))+IF(CE9="y",1,0)+IF(CF9="y",1,0)+IF(CG9="y",1,0)+IF(CH9="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="CJ9" s="62"/>
-      <c r="CK9" s="71"/>
-      <c r="CL9" s="72"/>
-      <c r="CM9" s="73"/>
-      <c r="CN9" s="74"/>
-      <c r="CO9" s="75"/>
+      <c r="CJ9" s="62">
+        <v>6.0</v>
+      </c>
+      <c r="CK9" s="63">
+        <v>11.0</v>
+      </c>
+      <c r="CL9" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="CM9" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="CN9" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="CO9" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="CP9" s="68">
         <f>IFERROR((VLOOKUP(CJ9,Scoring!$A:$B,2,0))+IF(CL9="y",1,0)+IF(CM9="y",1,0)+IF(CN9="y",1,0)+IF(CO9="y",1,0),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CQ9" s="62"/>
       <c r="CR9" s="71"/>
@@ -13069,15 +13165,27 @@
         <f>IFERROR((VLOOKUP(CC10,Scoring!$A:$B,2,0))+IF(CE10="y",1,0)+IF(CF10="y",1,0)+IF(CG10="y",1,0)+IF(CH10="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="CJ10" s="28"/>
-      <c r="CK10" s="37"/>
-      <c r="CL10" s="38"/>
-      <c r="CM10" s="39"/>
-      <c r="CN10" s="40"/>
-      <c r="CO10" s="41"/>
+      <c r="CJ10" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="CK10" s="29">
+        <v>7.0</v>
+      </c>
+      <c r="CL10" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="CM10" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="CN10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CO10" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CP10" s="34">
         <f>IFERROR((VLOOKUP(CJ10,Scoring!$A:$B,2,0))+IF(CL10="y",1,0)+IF(CM10="y",1,0)+IF(CN10="y",1,0)+IF(CO10="y",1,0),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CQ10" s="28"/>
       <c r="CR10" s="37"/>
@@ -13394,15 +13502,27 @@
         <f>IFERROR((VLOOKUP(CC11,Scoring!$A:$B,2,0))+IF(CE11="y",1,0)+IF(CF11="y",1,0)+IF(CG11="y",1,0)+IF(CH11="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="CJ11" s="28"/>
-      <c r="CK11" s="37"/>
-      <c r="CL11" s="38"/>
-      <c r="CM11" s="39"/>
-      <c r="CN11" s="40"/>
-      <c r="CO11" s="41"/>
+      <c r="CJ11" s="28">
+        <v>13.0</v>
+      </c>
+      <c r="CK11" s="29">
+        <v>12.0</v>
+      </c>
+      <c r="CL11" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="CM11" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="CN11" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CO11" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CP11" s="34">
         <f>IFERROR((VLOOKUP(CJ11,Scoring!$A:$B,2,0))+IF(CL11="y",1,0)+IF(CM11="y",1,0)+IF(CN11="y",1,0)+IF(CO11="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ11" s="28"/>
       <c r="CR11" s="37"/>
@@ -13719,15 +13839,27 @@
         <f>IFERROR((VLOOKUP(CC12,Scoring!$A:$B,2,0))+IF(CE12="y",1,0)+IF(CF12="y",1,0)+IF(CG12="y",1,0)+IF(CH12="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="CJ12" s="45"/>
-      <c r="CK12" s="54"/>
-      <c r="CL12" s="55"/>
-      <c r="CM12" s="56"/>
-      <c r="CN12" s="57"/>
-      <c r="CO12" s="58"/>
+      <c r="CJ12" s="45">
+        <v>9.0</v>
+      </c>
+      <c r="CK12" s="46">
+        <v>22.0</v>
+      </c>
+      <c r="CL12" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="CM12" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="CN12" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="CO12" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="CP12" s="51">
         <f>IFERROR((VLOOKUP(CJ12,Scoring!$A:$B,2,0))+IF(CL12="y",1,0)+IF(CM12="y",1,0)+IF(CN12="y",1,0)+IF(CO12="y",1,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CQ12" s="45"/>
       <c r="CR12" s="54"/>
@@ -14044,15 +14176,27 @@
         <f>IFERROR((VLOOKUP(CC13,Scoring!$A:$B,2,0))+IF(CE13="y",1,0)+IF(CF13="y",1,0)+IF(CG13="y",1,0)+IF(CH13="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="CJ13" s="62"/>
-      <c r="CK13" s="71"/>
-      <c r="CL13" s="72"/>
-      <c r="CM13" s="73"/>
-      <c r="CN13" s="74"/>
-      <c r="CO13" s="75"/>
+      <c r="CJ13" s="62">
+        <v>8.0</v>
+      </c>
+      <c r="CK13" s="63">
+        <v>5.0</v>
+      </c>
+      <c r="CL13" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="CM13" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="CN13" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="CO13" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="CP13" s="68">
         <f>IFERROR((VLOOKUP(CJ13,Scoring!$A:$B,2,0))+IF(CL13="y",1,0)+IF(CM13="y",1,0)+IF(CN13="y",1,0)+IF(CO13="y",1,0),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ13" s="62"/>
       <c r="CR13" s="71"/>
@@ -14369,15 +14513,27 @@
         <f>IFERROR((VLOOKUP(CC14,Scoring!$A:$B,2,0))+IF(CE14="y",1,0)+IF(CF14="y",1,0)+IF(CG14="y",1,0)+IF(CH14="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="CJ14" s="28"/>
-      <c r="CK14" s="37"/>
-      <c r="CL14" s="38"/>
-      <c r="CM14" s="39"/>
-      <c r="CN14" s="40"/>
-      <c r="CO14" s="41"/>
+      <c r="CJ14" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="CK14" s="29">
+        <v>10.0</v>
+      </c>
+      <c r="CL14" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="CM14" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="CN14" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CO14" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CP14" s="34">
         <f>IFERROR((VLOOKUP(CJ14,Scoring!$A:$B,2,0))+IF(CL14="y",1,0)+IF(CM14="y",1,0)+IF(CN14="y",1,0)+IF(CO14="y",1,0),0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="CQ14" s="28"/>
       <c r="CR14" s="37"/>
@@ -14694,15 +14850,27 @@
         <f>IFERROR((VLOOKUP(CC15,Scoring!$A:$B,2,0))+IF(CE15="y",1,0)+IF(CF15="y",1,0)+IF(CG15="y",1,0)+IF(CH15="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="CJ15" s="79"/>
-      <c r="CK15" s="88"/>
-      <c r="CL15" s="89"/>
-      <c r="CM15" s="90"/>
-      <c r="CN15" s="91"/>
-      <c r="CO15" s="92"/>
+      <c r="CJ15" s="79">
+        <v>11.0</v>
+      </c>
+      <c r="CK15" s="80">
+        <v>4.0</v>
+      </c>
+      <c r="CL15" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="CM15" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="CN15" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="CO15" s="87" t="s">
+        <v>278</v>
+      </c>
       <c r="CP15" s="85">
         <f>IFERROR((VLOOKUP(CJ15,Scoring!$A:$B,2,0))+IF(CL15="y",1,0)+IF(CM15="y",1,0)+IF(CN15="y",1,0)+IF(CO15="y",1,0),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CQ15" s="79"/>
       <c r="CR15" s="88"/>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="309">
   <si>
     <t>Positions</t>
   </si>
@@ -922,25 +922,19 @@
     <t>12/17/2025</t>
   </si>
   <si>
-    <t>Confirmed</t>
-  </si>
-  <si>
     <t>Jeddah</t>
   </si>
   <si>
-    <t>1/1/2026</t>
+    <t>1/7/2026</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>1/14/2026</t>
   </si>
   <si>
     <t>Tentative</t>
-  </si>
-  <si>
-    <t>Las Vegas</t>
-  </si>
-  <si>
-    <t>1/7/2026</t>
-  </si>
-  <si>
-    <t>1/14/2026</t>
   </si>
   <si>
     <t>Imola</t>
@@ -2085,29 +2079,29 @@
         <v>299</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" s="93" t="s">
         <v>301</v>
       </c>
-      <c r="B16" s="93" t="s">
-        <v>302</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18">
@@ -2115,32 +2109,32 @@
         <v>159</v>
       </c>
       <c r="B18" s="93" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B20" s="93" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -10491,25 +10485,49 @@
         <f>IFERROR((VLOOKUP(CJ2,Scoring!$A:$B,2,0))+IF(CL2="y",1,0)+IF(CM2="y",1,0)+IF(CN2="y",1,0)+IF(CO2="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="CQ2" s="15"/>
-      <c r="CR2" s="23"/>
-      <c r="CS2" s="24"/>
-      <c r="CT2" s="25"/>
-      <c r="CU2" s="26"/>
-      <c r="CV2" s="27"/>
+      <c r="CQ2" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="CR2" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="CS2" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="CT2" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="CU2" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV2" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="CW2" s="21">
         <f>IFERROR((VLOOKUP(CQ2,Scoring!$A:$B,2,0))+IF(CS2="y",1,0)+IF(CT2="y",1,0)+IF(CU2="y",1,0)+IF(CV2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CX2" s="15"/>
-      <c r="CY2" s="23"/>
-      <c r="CZ2" s="24"/>
-      <c r="DA2" s="25"/>
-      <c r="DB2" s="26"/>
-      <c r="DC2" s="27"/>
+        <v>26</v>
+      </c>
+      <c r="CX2" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="CY2" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="CZ2" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="DA2" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="DB2" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC2" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="DD2" s="21">
         <f>IFERROR((VLOOKUP(CX2,Scoring!$A:$B,2,0))+IF(CZ2="y",1,0)+IF(DA2="y",1,0)+IF(DB2="y",1,0)+IF(DC2="y",1,0),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="DE2" s="15"/>
       <c r="DF2" s="23"/>
@@ -10828,22 +10846,46 @@
         <f>IFERROR((VLOOKUP(CJ3,Scoring!$A:$B,2,0))+IF(CL3="y",1,0)+IF(CM3="y",1,0)+IF(CN3="y",1,0)+IF(CO3="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="CQ3" s="28"/>
-      <c r="CR3" s="37"/>
-      <c r="CS3" s="38"/>
-      <c r="CT3" s="39"/>
-      <c r="CU3" s="40"/>
-      <c r="CV3" s="41"/>
+      <c r="CQ3" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="CR3" s="29">
+        <v>14.0</v>
+      </c>
+      <c r="CS3" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="CT3" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="CU3" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV3" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CW3" s="34">
         <f>IFERROR((VLOOKUP(CQ3,Scoring!$A:$B,2,0))+IF(CS3="y",1,0)+IF(CT3="y",1,0)+IF(CU3="y",1,0)+IF(CV3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CX3" s="28"/>
-      <c r="CY3" s="37"/>
-      <c r="CZ3" s="38"/>
-      <c r="DA3" s="39"/>
-      <c r="DB3" s="40"/>
-      <c r="DC3" s="41"/>
+        <v>6</v>
+      </c>
+      <c r="CX3" s="28">
+        <v>22.0</v>
+      </c>
+      <c r="CY3" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="CZ3" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="DA3" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="DB3" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC3" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="DD3" s="34">
         <f>IFERROR((VLOOKUP(CX3,Scoring!$A:$B,2,0))+IF(CZ3="y",1,0)+IF(DA3="y",1,0)+IF(DB3="y",1,0)+IF(DC3="y",1,0),0)</f>
         <v>0</v>
@@ -11165,25 +11207,49 @@
         <f>IFERROR((VLOOKUP(CJ4,Scoring!$A:$B,2,0))+IF(CL4="y",1,0)+IF(CM4="y",1,0)+IF(CN4="y",1,0)+IF(CO4="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="CQ4" s="45"/>
-      <c r="CR4" s="54"/>
-      <c r="CS4" s="55"/>
-      <c r="CT4" s="56"/>
-      <c r="CU4" s="57"/>
-      <c r="CV4" s="58"/>
+      <c r="CQ4" s="45">
+        <v>4.0</v>
+      </c>
+      <c r="CR4" s="46">
+        <v>15.0</v>
+      </c>
+      <c r="CS4" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="CT4" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="CU4" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="CV4" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="CW4" s="51">
         <f>IFERROR((VLOOKUP(CQ4,Scoring!$A:$B,2,0))+IF(CS4="y",1,0)+IF(CT4="y",1,0)+IF(CU4="y",1,0)+IF(CV4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CX4" s="45"/>
-      <c r="CY4" s="54"/>
-      <c r="CZ4" s="55"/>
-      <c r="DA4" s="56"/>
-      <c r="DB4" s="57"/>
-      <c r="DC4" s="58"/>
+        <v>14</v>
+      </c>
+      <c r="CX4" s="45">
+        <v>3.0</v>
+      </c>
+      <c r="CY4" s="46">
+        <v>3.0</v>
+      </c>
+      <c r="CZ4" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="DA4" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="DB4" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC4" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="DD4" s="51">
         <f>IFERROR((VLOOKUP(CX4,Scoring!$A:$B,2,0))+IF(CZ4="y",1,0)+IF(DA4="y",1,0)+IF(DB4="y",1,0)+IF(DC4="y",1,0),0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="DE4" s="45"/>
       <c r="DF4" s="54"/>
@@ -11502,22 +11568,46 @@
         <f>IFERROR((VLOOKUP(CJ5,Scoring!$A:$B,2,0))+IF(CL5="y",1,0)+IF(CM5="y",1,0)+IF(CN5="y",1,0)+IF(CO5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ5" s="62"/>
-      <c r="CR5" s="71"/>
-      <c r="CS5" s="72"/>
-      <c r="CT5" s="73"/>
-      <c r="CU5" s="74"/>
-      <c r="CV5" s="75"/>
+      <c r="CQ5" s="62">
+        <v>22.0</v>
+      </c>
+      <c r="CR5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="CS5" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="CT5" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="CU5" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV5" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="CW5" s="68">
         <f>IFERROR((VLOOKUP(CQ5,Scoring!$A:$B,2,0))+IF(CS5="y",1,0)+IF(CT5="y",1,0)+IF(CU5="y",1,0)+IF(CV5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX5" s="62"/>
-      <c r="CY5" s="71"/>
-      <c r="CZ5" s="72"/>
-      <c r="DA5" s="73"/>
-      <c r="DB5" s="74"/>
-      <c r="DC5" s="75"/>
+      <c r="CX5" s="62">
+        <v>22.0</v>
+      </c>
+      <c r="CY5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="CZ5" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="DA5" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="DB5" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC5" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="DD5" s="68">
         <f>IFERROR((VLOOKUP(CX5,Scoring!$A:$B,2,0))+IF(CZ5="y",1,0)+IF(DA5="y",1,0)+IF(DB5="y",1,0)+IF(DC5="y",1,0),0)</f>
         <v>0</v>
@@ -11839,25 +11929,49 @@
         <f>IFERROR((VLOOKUP(CJ6,Scoring!$A:$B,2,0))+IF(CL6="y",1,0)+IF(CM6="y",1,0)+IF(CN6="y",1,0)+IF(CO6="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="CQ6" s="28"/>
-      <c r="CR6" s="37"/>
-      <c r="CS6" s="38"/>
-      <c r="CT6" s="39"/>
-      <c r="CU6" s="40"/>
-      <c r="CV6" s="41"/>
+      <c r="CQ6" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="CR6" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="CS6" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="CT6" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="CU6" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV6" s="36" t="s">
+        <v>278</v>
+      </c>
       <c r="CW6" s="34">
         <f>IFERROR((VLOOKUP(CQ6,Scoring!$A:$B,2,0))+IF(CS6="y",1,0)+IF(CT6="y",1,0)+IF(CU6="y",1,0)+IF(CV6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CX6" s="28"/>
-      <c r="CY6" s="37"/>
-      <c r="CZ6" s="38"/>
-      <c r="DA6" s="39"/>
-      <c r="DB6" s="40"/>
-      <c r="DC6" s="41"/>
+        <v>19</v>
+      </c>
+      <c r="CX6" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="CY6" s="29">
+        <v>4.0</v>
+      </c>
+      <c r="CZ6" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="DA6" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="DB6" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC6" s="36" t="s">
+        <v>278</v>
+      </c>
       <c r="DD6" s="34">
         <f>IFERROR((VLOOKUP(CX6,Scoring!$A:$B,2,0))+IF(CZ6="y",1,0)+IF(DA6="y",1,0)+IF(DB6="y",1,0)+IF(DC6="y",1,0),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="DE6" s="28"/>
       <c r="DF6" s="37"/>
@@ -12176,22 +12290,46 @@
         <f>IFERROR((VLOOKUP(CJ7,Scoring!$A:$B,2,0))+IF(CL7="y",1,0)+IF(CM7="y",1,0)+IF(CN7="y",1,0)+IF(CO7="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="CQ7" s="28"/>
-      <c r="CR7" s="37"/>
-      <c r="CS7" s="38"/>
-      <c r="CT7" s="39"/>
-      <c r="CU7" s="40"/>
-      <c r="CV7" s="41"/>
+      <c r="CQ7" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="CR7" s="29">
+        <v>6.0</v>
+      </c>
+      <c r="CS7" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="CT7" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="CU7" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV7" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CW7" s="34">
         <f>IFERROR((VLOOKUP(CQ7,Scoring!$A:$B,2,0))+IF(CS7="y",1,0)+IF(CT7="y",1,0)+IF(CU7="y",1,0)+IF(CV7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CX7" s="28"/>
-      <c r="CY7" s="37"/>
-      <c r="CZ7" s="38"/>
-      <c r="DA7" s="39"/>
-      <c r="DB7" s="40"/>
-      <c r="DC7" s="41"/>
+        <v>15</v>
+      </c>
+      <c r="CX7" s="28">
+        <v>21.0</v>
+      </c>
+      <c r="CY7" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="CZ7" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="DA7" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="DB7" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC7" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="DD7" s="34">
         <f>IFERROR((VLOOKUP(CX7,Scoring!$A:$B,2,0))+IF(CZ7="y",1,0)+IF(DA7="y",1,0)+IF(DB7="y",1,0)+IF(DC7="y",1,0),0)</f>
         <v>0</v>
@@ -12513,22 +12651,46 @@
         <f>IFERROR((VLOOKUP(CJ8,Scoring!$A:$B,2,0))+IF(CL8="y",1,0)+IF(CM8="y",1,0)+IF(CN8="y",1,0)+IF(CO8="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="CQ8" s="45"/>
-      <c r="CR8" s="54"/>
-      <c r="CS8" s="55"/>
-      <c r="CT8" s="56"/>
-      <c r="CU8" s="57"/>
-      <c r="CV8" s="58"/>
+      <c r="CQ8" s="45">
+        <v>22.0</v>
+      </c>
+      <c r="CR8" s="46">
+        <v>22.0</v>
+      </c>
+      <c r="CS8" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="CT8" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="CU8" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV8" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="CW8" s="51">
         <f>IFERROR((VLOOKUP(CQ8,Scoring!$A:$B,2,0))+IF(CS8="y",1,0)+IF(CT8="y",1,0)+IF(CU8="y",1,0)+IF(CV8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX8" s="45"/>
-      <c r="CY8" s="54"/>
-      <c r="CZ8" s="55"/>
-      <c r="DA8" s="56"/>
-      <c r="DB8" s="57"/>
-      <c r="DC8" s="58"/>
+      <c r="CX8" s="45">
+        <v>22.0</v>
+      </c>
+      <c r="CY8" s="46">
+        <v>22.0</v>
+      </c>
+      <c r="CZ8" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="DA8" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="DB8" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC8" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="DD8" s="51">
         <f>IFERROR((VLOOKUP(CX8,Scoring!$A:$B,2,0))+IF(CZ8="y",1,0)+IF(DA8="y",1,0)+IF(DB8="y",1,0)+IF(DC8="y",1,0),0)</f>
         <v>0</v>
@@ -12850,22 +13012,46 @@
         <f>IFERROR((VLOOKUP(CJ9,Scoring!$A:$B,2,0))+IF(CL9="y",1,0)+IF(CM9="y",1,0)+IF(CN9="y",1,0)+IF(CO9="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="CQ9" s="62"/>
-      <c r="CR9" s="71"/>
-      <c r="CS9" s="72"/>
-      <c r="CT9" s="73"/>
-      <c r="CU9" s="74"/>
-      <c r="CV9" s="75"/>
+      <c r="CQ9" s="62">
+        <v>11.0</v>
+      </c>
+      <c r="CR9" s="63">
+        <v>4.0</v>
+      </c>
+      <c r="CS9" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="CT9" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="CU9" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV9" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="CW9" s="68">
         <f>IFERROR((VLOOKUP(CQ9,Scoring!$A:$B,2,0))+IF(CS9="y",1,0)+IF(CT9="y",1,0)+IF(CU9="y",1,0)+IF(CV9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CX9" s="62"/>
-      <c r="CY9" s="71"/>
-      <c r="CZ9" s="72"/>
-      <c r="DA9" s="73"/>
-      <c r="DB9" s="74"/>
-      <c r="DC9" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="CX9" s="62">
+        <v>21.0</v>
+      </c>
+      <c r="CY9" s="63">
+        <v>8.0</v>
+      </c>
+      <c r="CZ9" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="DA9" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="DB9" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC9" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="DD9" s="68">
         <f>IFERROR((VLOOKUP(CX9,Scoring!$A:$B,2,0))+IF(CZ9="y",1,0)+IF(DA9="y",1,0)+IF(DB9="y",1,0)+IF(DC9="y",1,0),0)</f>
         <v>0</v>
@@ -13187,25 +13373,49 @@
         <f>IFERROR((VLOOKUP(CJ10,Scoring!$A:$B,2,0))+IF(CL10="y",1,0)+IF(CM10="y",1,0)+IF(CN10="y",1,0)+IF(CO10="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="CQ10" s="28"/>
-      <c r="CR10" s="37"/>
-      <c r="CS10" s="38"/>
-      <c r="CT10" s="39"/>
-      <c r="CU10" s="40"/>
-      <c r="CV10" s="41"/>
+      <c r="CQ10" s="28">
+        <v>21.0</v>
+      </c>
+      <c r="CR10" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="CS10" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="CT10" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="CU10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV10" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CW10" s="34">
         <f>IFERROR((VLOOKUP(CQ10,Scoring!$A:$B,2,0))+IF(CS10="y",1,0)+IF(CT10="y",1,0)+IF(CU10="y",1,0)+IF(CV10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX10" s="28"/>
-      <c r="CY10" s="37"/>
-      <c r="CZ10" s="38"/>
-      <c r="DA10" s="39"/>
-      <c r="DB10" s="40"/>
-      <c r="DC10" s="41"/>
+      <c r="CX10" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="CY10" s="29">
+        <v>7.0</v>
+      </c>
+      <c r="CZ10" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="DA10" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="DB10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC10" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="DD10" s="34">
         <f>IFERROR((VLOOKUP(CX10,Scoring!$A:$B,2,0))+IF(CZ10="y",1,0)+IF(DA10="y",1,0)+IF(DB10="y",1,0)+IF(DC10="y",1,0),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="DE10" s="28"/>
       <c r="DF10" s="37"/>
@@ -13524,22 +13734,46 @@
         <f>IFERROR((VLOOKUP(CJ11,Scoring!$A:$B,2,0))+IF(CL11="y",1,0)+IF(CM11="y",1,0)+IF(CN11="y",1,0)+IF(CO11="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="CQ11" s="28"/>
-      <c r="CR11" s="37"/>
-      <c r="CS11" s="38"/>
-      <c r="CT11" s="39"/>
-      <c r="CU11" s="40"/>
-      <c r="CV11" s="41"/>
+      <c r="CQ11" s="28">
+        <v>22.0</v>
+      </c>
+      <c r="CR11" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="CS11" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="CT11" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="CU11" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV11" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CW11" s="34">
         <f>IFERROR((VLOOKUP(CQ11,Scoring!$A:$B,2,0))+IF(CS11="y",1,0)+IF(CT11="y",1,0)+IF(CU11="y",1,0)+IF(CV11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX11" s="28"/>
-      <c r="CY11" s="37"/>
-      <c r="CZ11" s="38"/>
-      <c r="DA11" s="39"/>
-      <c r="DB11" s="40"/>
-      <c r="DC11" s="41"/>
+      <c r="CX11" s="28">
+        <v>22.0</v>
+      </c>
+      <c r="CY11" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="CZ11" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="DA11" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="DB11" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC11" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="DD11" s="34">
         <f>IFERROR((VLOOKUP(CX11,Scoring!$A:$B,2,0))+IF(CZ11="y",1,0)+IF(DA11="y",1,0)+IF(DB11="y",1,0)+IF(DC11="y",1,0),0)</f>
         <v>0</v>
@@ -13861,25 +14095,49 @@
         <f>IFERROR((VLOOKUP(CJ12,Scoring!$A:$B,2,0))+IF(CL12="y",1,0)+IF(CM12="y",1,0)+IF(CN12="y",1,0)+IF(CO12="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="CQ12" s="45"/>
-      <c r="CR12" s="54"/>
-      <c r="CS12" s="55"/>
-      <c r="CT12" s="56"/>
-      <c r="CU12" s="57"/>
-      <c r="CV12" s="58"/>
+      <c r="CQ12" s="45">
+        <v>5.0</v>
+      </c>
+      <c r="CR12" s="46">
+        <v>7.0</v>
+      </c>
+      <c r="CS12" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="CT12" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="CU12" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV12" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="CW12" s="51">
         <f>IFERROR((VLOOKUP(CQ12,Scoring!$A:$B,2,0))+IF(CS12="y",1,0)+IF(CT12="y",1,0)+IF(CU12="y",1,0)+IF(CV12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CX12" s="45"/>
-      <c r="CY12" s="54"/>
-      <c r="CZ12" s="55"/>
-      <c r="DA12" s="56"/>
-      <c r="DB12" s="57"/>
-      <c r="DC12" s="58"/>
+        <v>10</v>
+      </c>
+      <c r="CX12" s="45">
+        <v>6.0</v>
+      </c>
+      <c r="CY12" s="46">
+        <v>6.0</v>
+      </c>
+      <c r="CZ12" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="DA12" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="DB12" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC12" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="DD12" s="51">
         <f>IFERROR((VLOOKUP(CX12,Scoring!$A:$B,2,0))+IF(CZ12="y",1,0)+IF(DA12="y",1,0)+IF(DB12="y",1,0)+IF(DC12="y",1,0),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="DE12" s="45"/>
       <c r="DF12" s="54"/>
@@ -14198,25 +14456,49 @@
         <f>IFERROR((VLOOKUP(CJ13,Scoring!$A:$B,2,0))+IF(CL13="y",1,0)+IF(CM13="y",1,0)+IF(CN13="y",1,0)+IF(CO13="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="CQ13" s="62"/>
-      <c r="CR13" s="71"/>
-      <c r="CS13" s="72"/>
-      <c r="CT13" s="73"/>
-      <c r="CU13" s="74"/>
-      <c r="CV13" s="75"/>
+      <c r="CQ13" s="62">
+        <v>6.0</v>
+      </c>
+      <c r="CR13" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="CS13" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="CT13" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="CU13" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV13" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="CW13" s="68">
         <f>IFERROR((VLOOKUP(CQ13,Scoring!$A:$B,2,0))+IF(CS13="y",1,0)+IF(CT13="y",1,0)+IF(CU13="y",1,0)+IF(CV13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CX13" s="62"/>
-      <c r="CY13" s="71"/>
-      <c r="CZ13" s="72"/>
-      <c r="DA13" s="73"/>
-      <c r="DB13" s="74"/>
-      <c r="DC13" s="75"/>
+        <v>8</v>
+      </c>
+      <c r="CX13" s="62">
+        <v>4.0</v>
+      </c>
+      <c r="CY13" s="63">
+        <v>9.0</v>
+      </c>
+      <c r="CZ13" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="DA13" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="DB13" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="DC13" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="DD13" s="68">
         <f>IFERROR((VLOOKUP(CX13,Scoring!$A:$B,2,0))+IF(CZ13="y",1,0)+IF(DA13="y",1,0)+IF(DB13="y",1,0)+IF(DC13="y",1,0),0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="DE13" s="62"/>
       <c r="DF13" s="71"/>
@@ -14535,22 +14817,46 @@
         <f>IFERROR((VLOOKUP(CJ14,Scoring!$A:$B,2,0))+IF(CL14="y",1,0)+IF(CM14="y",1,0)+IF(CN14="y",1,0)+IF(CO14="y",1,0),0)</f>
         <v>16</v>
       </c>
-      <c r="CQ14" s="28"/>
-      <c r="CR14" s="37"/>
-      <c r="CS14" s="38"/>
-      <c r="CT14" s="39"/>
-      <c r="CU14" s="40"/>
-      <c r="CV14" s="41"/>
+      <c r="CQ14" s="28">
+        <v>22.0</v>
+      </c>
+      <c r="CR14" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="CS14" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="CT14" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="CU14" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV14" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="CW14" s="34">
         <f>IFERROR((VLOOKUP(CQ14,Scoring!$A:$B,2,0))+IF(CS14="y",1,0)+IF(CT14="y",1,0)+IF(CU14="y",1,0)+IF(CV14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX14" s="28"/>
-      <c r="CY14" s="37"/>
-      <c r="CZ14" s="38"/>
-      <c r="DA14" s="39"/>
-      <c r="DB14" s="40"/>
-      <c r="DC14" s="41"/>
+      <c r="CX14" s="28">
+        <v>22.0</v>
+      </c>
+      <c r="CY14" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="CZ14" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="DA14" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="DB14" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC14" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="DD14" s="34">
         <f>IFERROR((VLOOKUP(CX14,Scoring!$A:$B,2,0))+IF(CZ14="y",1,0)+IF(DA14="y",1,0)+IF(DB14="y",1,0)+IF(DC14="y",1,0),0)</f>
         <v>0</v>
@@ -14872,25 +15178,49 @@
         <f>IFERROR((VLOOKUP(CJ15,Scoring!$A:$B,2,0))+IF(CL15="y",1,0)+IF(CM15="y",1,0)+IF(CN15="y",1,0)+IF(CO15="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="CQ15" s="79"/>
-      <c r="CR15" s="88"/>
-      <c r="CS15" s="89"/>
-      <c r="CT15" s="90"/>
-      <c r="CU15" s="91"/>
-      <c r="CV15" s="92"/>
+      <c r="CQ15" s="79">
+        <v>9.0</v>
+      </c>
+      <c r="CR15" s="80">
+        <v>1.0</v>
+      </c>
+      <c r="CS15" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="CT15" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="CU15" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV15" s="87" t="s">
+        <v>279</v>
+      </c>
       <c r="CW15" s="85">
         <f>IFERROR((VLOOKUP(CQ15,Scoring!$A:$B,2,0))+IF(CS15="y",1,0)+IF(CT15="y",1,0)+IF(CU15="y",1,0)+IF(CV15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CX15" s="79"/>
-      <c r="CY15" s="88"/>
-      <c r="CZ15" s="89"/>
-      <c r="DA15" s="90"/>
-      <c r="DB15" s="91"/>
-      <c r="DC15" s="92"/>
+        <v>3</v>
+      </c>
+      <c r="CX15" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="CY15" s="80">
+        <v>2.0</v>
+      </c>
+      <c r="CZ15" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="DA15" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="DB15" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC15" s="87" t="s">
+        <v>279</v>
+      </c>
       <c r="DD15" s="85">
         <f>IFERROR((VLOOKUP(CX15,Scoring!$A:$B,2,0))+IF(CZ15="y",1,0)+IF(DA15="y",1,0)+IF(DB15="y",1,0)+IF(DC15="y",1,0),0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="DE15" s="79"/>
       <c r="DF15" s="88"/>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -14460,7 +14460,7 @@
         <v>6.0</v>
       </c>
       <c r="CR13" s="63">
-        <v>22.0</v>
+        <v>5.0</v>
       </c>
       <c r="CS13" s="64" t="s">
         <v>279</v>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="302">
   <si>
     <t>Positions</t>
   </si>
@@ -616,25 +616,25 @@
     <t>BahrainCD</t>
   </si>
   <si>
-    <t>MiamiSprintPlace</t>
-  </si>
-  <si>
-    <t>MiamiSprintQualifying</t>
-  </si>
-  <si>
-    <t>MiamiSprintFastestLap</t>
-  </si>
-  <si>
-    <t>MiamiSprintDOTD</t>
-  </si>
-  <si>
-    <t>MiamiSprintMOT</t>
-  </si>
-  <si>
-    <t>MiamiSprintCD</t>
-  </si>
-  <si>
-    <t>MiamiSprintPoints</t>
+    <t>Miami SprintPlace</t>
+  </si>
+  <si>
+    <t>Miami SprintQualifying</t>
+  </si>
+  <si>
+    <t>Miami SprintFastestLap</t>
+  </si>
+  <si>
+    <t>Miami SprintDOTD</t>
+  </si>
+  <si>
+    <t>Miami SprintMOT</t>
+  </si>
+  <si>
+    <t>Miami SprintCD</t>
+  </si>
+  <si>
+    <t>Miami SprintPoints</t>
   </si>
   <si>
     <t>MiamiDOTD</t>
@@ -694,25 +694,25 @@
     <t>AustriaReversePoints</t>
   </si>
   <si>
-    <t>SpaSprintPlace</t>
-  </si>
-  <si>
-    <t>SpaSprintQualifying</t>
-  </si>
-  <si>
-    <t>SpaSprintFastestLap</t>
-  </si>
-  <si>
-    <t>SpaSprintDOTD</t>
-  </si>
-  <si>
-    <t>SpaSprintMOT</t>
-  </si>
-  <si>
-    <t>SpaSprintCD</t>
-  </si>
-  <si>
-    <t>SpaSprintPoints</t>
+    <t>Spa SprintPlace</t>
+  </si>
+  <si>
+    <t>Spa SprintQualifying</t>
+  </si>
+  <si>
+    <t>Spa SprintFastestLap</t>
+  </si>
+  <si>
+    <t>Spa SprintDOTD</t>
+  </si>
+  <si>
+    <t>Spa SprintMOT</t>
+  </si>
+  <si>
+    <t>Spa SprintCD</t>
+  </si>
+  <si>
+    <t>Spa SprintPoints</t>
   </si>
   <si>
     <t>SpaDOTD</t>
@@ -724,25 +724,25 @@
     <t>SpaCD</t>
   </si>
   <si>
-    <t>BrazilSprintPlace</t>
-  </si>
-  <si>
-    <t>BrazilSprintQualifying</t>
-  </si>
-  <si>
-    <t>BrazilSprintFastestLap</t>
-  </si>
-  <si>
-    <t>BrazilSprintDOTD</t>
-  </si>
-  <si>
-    <t>BrazilSprintMOT</t>
-  </si>
-  <si>
-    <t>BrazilSprintCD</t>
-  </si>
-  <si>
-    <t>BrazilSprintPoints</t>
+    <t>Brazil SprintPlace</t>
+  </si>
+  <si>
+    <t>Brazil SprintQualifying</t>
+  </si>
+  <si>
+    <t>Brazil SprintFastestLap</t>
+  </si>
+  <si>
+    <t>Brazil SprintDOTD</t>
+  </si>
+  <si>
+    <t>Brazil SprintMOT</t>
+  </si>
+  <si>
+    <t>Brazil SprintCD</t>
+  </si>
+  <si>
+    <t>Brazil SprintPoints</t>
   </si>
   <si>
     <t>BrazilDOTD</t>
@@ -793,67 +793,43 @@
     <t>JeddahPoints</t>
   </si>
   <si>
-    <t>LasVegasPlace</t>
-  </si>
-  <si>
-    <t>LasVegasQualifying</t>
-  </si>
-  <si>
-    <t>LasVegasFastestLap</t>
-  </si>
-  <si>
-    <t>LasVegasDOTD</t>
-  </si>
-  <si>
-    <t>LasVegasMOT</t>
-  </si>
-  <si>
-    <t>LasVegasCD</t>
-  </si>
-  <si>
-    <t>LasVegasPoints</t>
-  </si>
-  <si>
-    <t>AbuDhabiPlace</t>
-  </si>
-  <si>
-    <t>AbuDhabiQualifying</t>
-  </si>
-  <si>
-    <t>AbuDhabiFastestLap</t>
-  </si>
-  <si>
-    <t>AbuDhabiDOTD</t>
-  </si>
-  <si>
-    <t>AbuDhabiMOT</t>
-  </si>
-  <si>
-    <t>AbuDhabiCD</t>
-  </si>
-  <si>
-    <t>AbuDhabiPoints</t>
-  </si>
-  <si>
-    <t>ImolaPlace</t>
-  </si>
-  <si>
-    <t>ImolaQualifying</t>
-  </si>
-  <si>
-    <t>ImolaFastestLap</t>
-  </si>
-  <si>
-    <t>ImolaDOTD</t>
-  </si>
-  <si>
-    <t>ImolaMOT</t>
-  </si>
-  <si>
-    <t>ImolaCD</t>
-  </si>
-  <si>
-    <t>ImolaPoints</t>
+    <t>Las VegasPlace</t>
+  </si>
+  <si>
+    <t>Las VegasQualifying</t>
+  </si>
+  <si>
+    <t>Las VegasFastestLap</t>
+  </si>
+  <si>
+    <t>Las VegasDOTD</t>
+  </si>
+  <si>
+    <t>Las VegasMOT</t>
+  </si>
+  <si>
+    <t>Las VegasCD</t>
+  </si>
+  <si>
+    <t>Las VegasPoints</t>
+  </si>
+  <si>
+    <t>Abu DhabiDOTD</t>
+  </si>
+  <si>
+    <t>Abu DhabiMOT</t>
+  </si>
+  <si>
+    <t>Abu DhabiCD</t>
+  </si>
+  <si>
+    <t>MonzaDOTD</t>
+  </si>
+  <si>
+    <t>MonzaMOT</t>
+  </si>
+  <si>
+    <t>MonzaCD</t>
   </si>
   <si>
     <t>y</t>
@@ -863,6 +839,9 @@
   </si>
   <si>
     <t>Jaden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Date</t>
@@ -1922,21 +1901,21 @@
         <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3">
@@ -1944,21 +1923,21 @@
         <v>141</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5">
@@ -1966,10 +1945,10 @@
         <v>144</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6">
@@ -1977,10 +1956,10 @@
         <v>145</v>
       </c>
       <c r="B6" s="93" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7">
@@ -1988,10 +1967,10 @@
         <v>156</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8">
@@ -1999,32 +1978,32 @@
         <v>192</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B9" s="93" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B10" s="93" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11">
@@ -2032,21 +2011,21 @@
         <v>149</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B12" s="93" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13">
@@ -2054,10 +2033,10 @@
         <v>157</v>
       </c>
       <c r="B13" s="93" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14">
@@ -2065,10 +2044,10 @@
         <v>147</v>
       </c>
       <c r="B14" s="93" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15">
@@ -2076,32 +2055,32 @@
         <v>150</v>
       </c>
       <c r="B15" s="93" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B16" s="93" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18">
@@ -2109,32 +2088,32 @@
         <v>159</v>
       </c>
       <c r="B18" s="93" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B20" s="93" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -10147,46 +10126,46 @@
         <v>263</v>
       </c>
       <c r="DE1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="DF1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="DG1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="DH1" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="DF1" s="7" t="s">
+      <c r="DI1" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="DG1" s="8" t="s">
+      <c r="DJ1" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="DH1" s="9" t="s">
+      <c r="DK1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="DL1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="DM1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="DO1" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="DI1" s="10" t="s">
+      <c r="DP1" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="DJ1" s="11" t="s">
+      <c r="DQ1" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="DK1" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="DL1" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="DM1" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="DN1" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="DO1" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="DP1" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="DQ1" s="11" t="s">
-        <v>276</v>
-      </c>
       <c r="DR1" s="12" t="s">
-        <v>277</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
@@ -10206,16 +10185,16 @@
         <v>3.0</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J2" s="21">
         <f>IFERROR((VLOOKUP(D2,Scoring!$A:$B,2,0))+IF(F2="y",1,0)+IF(G2="y",1,0)+IF(H2="y",1,0)+IF(I2="y",1,0),0)</f>
@@ -10228,16 +10207,16 @@
         <v>2.0</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q2" s="22">
         <f>IFERROR((VLOOKUP(K2,Scoring!$D:$E,2,0))+IF(M2="y",1,0)+IF(N2="y",1,0)+IF(O2="y",1,0)+IF(P2="y",1,0),0)</f>
@@ -10250,16 +10229,16 @@
         <v>7.0</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="V2" s="19" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="W2" s="20" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X2" s="21">
         <f>IFERROR((VLOOKUP(R2,Scoring!$A:$B,2,0))+IF(T2="y",1,0)+IF(U2="y",1,0)+IF(V2="y",1,0)+IF(W2="y",1,0),0)</f>
@@ -10272,16 +10251,16 @@
         <v>2.0</v>
       </c>
       <c r="AA2" s="17" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AB2" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AC2" s="19" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AD2" s="20" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AE2" s="21">
         <f>IFERROR((VLOOKUP(Y2,Scoring!$A:$B,2,0))+IF(AA2="y",1,0)+IF(AB2="y",1,0)+IF(AC2="y",1,0)+IF(AD2="y",1,0),0)</f>
@@ -10294,16 +10273,16 @@
         <v>2.0</v>
       </c>
       <c r="AH2" s="17" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AI2" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AJ2" s="19" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AK2" s="11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AL2" s="21">
         <f>IFERROR((VLOOKUP(AF2,Scoring!$A:$B,2,0))+IF(AH2="y",1,0)+IF(AI2="y",1,0)+IF(AJ2="y",1,0)+IF(AK2="y",1,0),0)</f>
@@ -10316,16 +10295,16 @@
         <v>2.0</v>
       </c>
       <c r="AO2" s="17" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AP2" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AQ2" s="19" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AR2" s="11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AS2" s="21">
         <f>IFERROR((VLOOKUP(AM2,Scoring!$A:$B,2,0))+IF(AO2="y",1,0)+IF(AP2="y",1,0)+IF(AQ2="y",1,0)+IF(AR2="y",1,0),0)</f>
@@ -10338,16 +10317,16 @@
         <v>1.0</v>
       </c>
       <c r="AV2" s="17" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AW2" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AX2" s="19" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AZ2" s="21">
         <f>IFERROR((VLOOKUP(AT2,Scoring!$A:$B,2,0))+IF(AV2="y",1,0)+IF(AW2="y",1,0)+IF(AX2="y",1,0)+IF(AY2="y",1,0),0)</f>
@@ -10360,16 +10339,16 @@
         <v>1.0</v>
       </c>
       <c r="BC2" s="17" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BD2" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BE2" s="19" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BF2" s="11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BG2" s="21">
         <f>IFERROR((VLOOKUP(BA2,Scoring!$D:$E,2,0))+IF(BC2="y",1,0)+IF(BD2="y",1,0)+IF(BE2="y",1,0)+IF(BF2="y",1,0),0)</f>
@@ -10382,16 +10361,16 @@
         <v>12.0</v>
       </c>
       <c r="BJ2" s="17" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="BK2" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BL2" s="19" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BM2" s="11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BN2" s="21">
         <f>IFERROR((VLOOKUP(BH2,Scoring!$A:$B,2,0))+IF(BJ2="y",1,0)+IF(BK2="y",1,0)+IF(BL2="y",1,0)+IF(BM2="y",1,0),0)</f>
@@ -10404,16 +10383,16 @@
         <v>1.0</v>
       </c>
       <c r="BQ2" s="17" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BR2" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BS2" s="19" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BT2" s="11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BU2" s="21">
         <f>IFERROR((VLOOKUP(BO2,Scoring!$D:$E,2,0))+IF(BQ2="y",1,0)+IF(BR2="y",1,0)+IF(BS2="y",1,0)+IF(BT2="y",1,0),0)</f>
@@ -10426,16 +10405,16 @@
         <v>15.0</v>
       </c>
       <c r="BX2" s="17" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BY2" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BZ2" s="19" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="CA2" s="11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CB2" s="21">
         <f>IFERROR((VLOOKUP(BV2,Scoring!$A:$B,2,0))+IF(BX2="y",1,0)+IF(BY2="y",1,0)+IF(BZ2="y",1,0)+IF(CA2="y",1,0),0)</f>
@@ -10448,16 +10427,16 @@
         <v>1.0</v>
       </c>
       <c r="CE2" s="17" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CF2" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CG2" s="19" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CH2" s="11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CI2" s="21">
         <f>IFERROR((VLOOKUP(CC2,Scoring!$A:$B,2,0))+IF(CE2="y",1,0)+IF(CF2="y",1,0)+IF(CG2="y",1,0)+IF(CH2="y",1,0),0)</f>
@@ -10470,16 +10449,16 @@
         <v>1.0</v>
       </c>
       <c r="CL2" s="17" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="CM2" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CN2" s="19" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CO2" s="11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CP2" s="21">
         <f>IFERROR((VLOOKUP(CJ2,Scoring!$A:$B,2,0))+IF(CL2="y",1,0)+IF(CM2="y",1,0)+IF(CN2="y",1,0)+IF(CO2="y",1,0),0)</f>
@@ -10492,16 +10471,16 @@
         <v>2.0</v>
       </c>
       <c r="CS2" s="17" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="CT2" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CU2" s="19" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CV2" s="11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CW2" s="21">
         <f>IFERROR((VLOOKUP(CQ2,Scoring!$A:$B,2,0))+IF(CS2="y",1,0)+IF(CT2="y",1,0)+IF(CU2="y",1,0)+IF(CV2="y",1,0),0)</f>
@@ -10514,16 +10493,16 @@
         <v>1.0</v>
       </c>
       <c r="CZ2" s="17" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DA2" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DB2" s="19" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DC2" s="11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DD2" s="21">
         <f>IFERROR((VLOOKUP(CX2,Scoring!$A:$B,2,0))+IF(CZ2="y",1,0)+IF(DA2="y",1,0)+IF(DB2="y",1,0)+IF(DC2="y",1,0),0)</f>
@@ -10567,16 +10546,16 @@
         <v>6.0</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J3" s="34">
         <f>IFERROR((VLOOKUP(D3,Scoring!$A:$B,2,0))+IF(F3="y",1,0)+IF(G3="y",1,0)+IF(H3="y",1,0)+IF(I3="y",1,0),0)</f>
@@ -10589,16 +10568,16 @@
         <v>22.0</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q3" s="35">
         <f>IFERROR((VLOOKUP(K3,Scoring!$D:$E,2,0))+IF(M3="y",1,0)+IF(N3="y",1,0)+IF(O3="y",1,0)+IF(P3="y",1,0),0)</f>
@@ -10611,16 +10590,16 @@
         <v>22.0</v>
       </c>
       <c r="T3" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="U3" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="V3" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="W3" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X3" s="34">
         <f>IFERROR((VLOOKUP(R3,Scoring!$A:$B,2,0))+IF(T3="y",1,0)+IF(U3="y",1,0)+IF(V3="y",1,0)+IF(W3="y",1,0),0)</f>
@@ -10633,16 +10612,16 @@
         <v>7.0</v>
       </c>
       <c r="AA3" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AB3" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AC3" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AD3" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AE3" s="34">
         <f>IFERROR((VLOOKUP(Y3,Scoring!$A:$B,2,0))+IF(AA3="y",1,0)+IF(AB3="y",1,0)+IF(AC3="y",1,0)+IF(AD3="y",1,0),0)</f>
@@ -10655,16 +10634,16 @@
         <v>22.0</v>
       </c>
       <c r="AH3" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AI3" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AJ3" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AK3" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AL3" s="34">
         <f>IFERROR((VLOOKUP(AF3,Scoring!$A:$B,2,0))+IF(AH3="y",1,0)+IF(AI3="y",1,0)+IF(AJ3="y",1,0)+IF(AK3="y",1,0),0)</f>
@@ -10677,16 +10656,16 @@
         <v>6.0</v>
       </c>
       <c r="AO3" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AP3" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AQ3" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AR3" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AS3" s="34">
         <f>IFERROR((VLOOKUP(AM3,Scoring!$A:$B,2,0))+IF(AO3="y",1,0)+IF(AP3="y",1,0)+IF(AQ3="y",1,0)+IF(AR3="y",1,0),0)</f>
@@ -10699,16 +10678,16 @@
         <v>6.0</v>
       </c>
       <c r="AV3" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AW3" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AX3" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AY3" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AZ3" s="34">
         <f>IFERROR((VLOOKUP(AT3,Scoring!$A:$B,2,0))+IF(AV3="y",1,0)+IF(AW3="y",1,0)+IF(AX3="y",1,0)+IF(AY3="y",1,0),0)</f>
@@ -10721,16 +10700,16 @@
         <v>8.0</v>
       </c>
       <c r="BC3" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BD3" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BE3" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BF3" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BG3" s="34">
         <f>IFERROR((VLOOKUP(BA3,Scoring!$D:$E,2,0))+IF(BC3="y",1,0)+IF(BD3="y",1,0)+IF(BE3="y",1,0)+IF(BF3="y",1,0),0)</f>
@@ -10743,16 +10722,16 @@
         <v>10.0</v>
       </c>
       <c r="BJ3" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BK3" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BL3" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BM3" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BN3" s="34">
         <f>IFERROR((VLOOKUP(BH3,Scoring!$A:$B,2,0))+IF(BJ3="y",1,0)+IF(BK3="y",1,0)+IF(BL3="y",1,0)+IF(BM3="y",1,0),0)</f>
@@ -10765,16 +10744,16 @@
         <v>9.0</v>
       </c>
       <c r="BQ3" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BR3" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BS3" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BT3" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BU3" s="34">
         <f>IFERROR((VLOOKUP(BO3,Scoring!$D:$E,2,0))+IF(BQ3="y",1,0)+IF(BR3="y",1,0)+IF(BS3="y",1,0)+IF(BT3="y",1,0),0)</f>
@@ -10787,16 +10766,16 @@
         <v>8.0</v>
       </c>
       <c r="BX3" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BY3" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BZ3" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CA3" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CB3" s="34">
         <f>IFERROR((VLOOKUP(BV3,Scoring!$A:$B,2,0))+IF(BX3="y",1,0)+IF(BY3="y",1,0)+IF(BZ3="y",1,0)+IF(CA3="y",1,0),0)</f>
@@ -10809,16 +10788,16 @@
         <v>22.0</v>
       </c>
       <c r="CE3" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CF3" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CG3" s="32" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="CH3" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CI3" s="34">
         <f>IFERROR((VLOOKUP(CC3,Scoring!$A:$B,2,0))+IF(CE3="y",1,0)+IF(CF3="y",1,0)+IF(CG3="y",1,0)+IF(CH3="y",1,0),0)</f>
@@ -10831,16 +10810,16 @@
         <v>6.0</v>
       </c>
       <c r="CL3" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CM3" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CN3" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CO3" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CP3" s="34">
         <f>IFERROR((VLOOKUP(CJ3,Scoring!$A:$B,2,0))+IF(CL3="y",1,0)+IF(CM3="y",1,0)+IF(CN3="y",1,0)+IF(CO3="y",1,0),0)</f>
@@ -10853,16 +10832,16 @@
         <v>14.0</v>
       </c>
       <c r="CS3" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CT3" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CU3" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CV3" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CW3" s="34">
         <f>IFERROR((VLOOKUP(CQ3,Scoring!$A:$B,2,0))+IF(CS3="y",1,0)+IF(CT3="y",1,0)+IF(CU3="y",1,0)+IF(CV3="y",1,0),0)</f>
@@ -10875,16 +10854,16 @@
         <v>22.0</v>
       </c>
       <c r="CZ3" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DA3" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DB3" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DC3" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DD3" s="34">
         <f>IFERROR((VLOOKUP(CX3,Scoring!$A:$B,2,0))+IF(CZ3="y",1,0)+IF(DA3="y",1,0)+IF(DB3="y",1,0)+IF(DC3="y",1,0),0)</f>
@@ -10928,16 +10907,16 @@
         <v>2.0</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J4" s="51">
         <f>IFERROR((VLOOKUP(D4,Scoring!$A:$B,2,0))+IF(F4="y",1,0)+IF(G4="y",1,0)+IF(H4="y",1,0)+IF(I4="y",1,0),0)</f>
@@ -10950,16 +10929,16 @@
         <v>3.0</v>
       </c>
       <c r="M4" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N4" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O4" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P4" s="50" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="52">
         <f>IFERROR((VLOOKUP(K4,Scoring!$D:$E,2,0))+IF(M4="y",1,0)+IF(N4="y",1,0)+IF(O4="y",1,0)+IF(P4="y",1,0),0)</f>
@@ -10972,16 +10951,16 @@
         <v>11.0</v>
       </c>
       <c r="T4" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="U4" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="V4" s="49" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="W4" s="50" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X4" s="51">
         <f>IFERROR((VLOOKUP(R4,Scoring!$A:$B,2,0))+IF(T4="y",1,0)+IF(U4="y",1,0)+IF(V4="y",1,0)+IF(W4="y",1,0),0)</f>
@@ -10994,16 +10973,16 @@
         <v>14.0</v>
       </c>
       <c r="AA4" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AB4" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AC4" s="49" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AD4" s="50" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AE4" s="51">
         <f>IFERROR((VLOOKUP(Y4,Scoring!$A:$B,2,0))+IF(AA4="y",1,0)+IF(AB4="y",1,0)+IF(AC4="y",1,0)+IF(AD4="y",1,0),0)</f>
@@ -11016,16 +10995,16 @@
         <v>4.0</v>
       </c>
       <c r="AH4" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AI4" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AJ4" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AK4" s="53" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AL4" s="51">
         <f>IFERROR((VLOOKUP(AF4,Scoring!$A:$B,2,0))+IF(AH4="y",1,0)+IF(AI4="y",1,0)+IF(AJ4="y",1,0)+IF(AK4="y",1,0),0)</f>
@@ -11038,16 +11017,16 @@
         <v>5.0</v>
       </c>
       <c r="AO4" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AP4" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AQ4" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AR4" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AS4" s="51">
         <f>IFERROR((VLOOKUP(AM4,Scoring!$A:$B,2,0))+IF(AO4="y",1,0)+IF(AP4="y",1,0)+IF(AQ4="y",1,0)+IF(AR4="y",1,0),0)</f>
@@ -11060,16 +11039,16 @@
         <v>2.0</v>
       </c>
       <c r="AV4" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AW4" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AX4" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AY4" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AZ4" s="51">
         <f>IFERROR((VLOOKUP(AT4,Scoring!$A:$B,2,0))+IF(AV4="y",1,0)+IF(AW4="y",1,0)+IF(AX4="y",1,0)+IF(AY4="y",1,0),0)</f>
@@ -11082,16 +11061,16 @@
         <v>6.0</v>
       </c>
       <c r="BC4" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BD4" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BE4" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BF4" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BG4" s="51">
         <f>IFERROR((VLOOKUP(BA4,Scoring!$D:$E,2,0))+IF(BC4="y",1,0)+IF(BD4="y",1,0)+IF(BE4="y",1,0)+IF(BF4="y",1,0),0)</f>
@@ -11104,16 +11083,16 @@
         <v>9.0</v>
       </c>
       <c r="BJ4" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BK4" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BL4" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BM4" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BN4" s="51">
         <f>IFERROR((VLOOKUP(BH4,Scoring!$A:$B,2,0))+IF(BJ4="y",1,0)+IF(BK4="y",1,0)+IF(BL4="y",1,0)+IF(BM4="y",1,0),0)</f>
@@ -11126,16 +11105,16 @@
         <v>4.0</v>
       </c>
       <c r="BQ4" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BR4" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BS4" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BT4" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BU4" s="51">
         <f>IFERROR((VLOOKUP(BO4,Scoring!$D:$E,2,0))+IF(BQ4="y",1,0)+IF(BR4="y",1,0)+IF(BS4="y",1,0)+IF(BT4="y",1,0),0)</f>
@@ -11148,16 +11127,16 @@
         <v>12.0</v>
       </c>
       <c r="BX4" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BY4" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BZ4" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CA4" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CB4" s="51">
         <f>IFERROR((VLOOKUP(BV4,Scoring!$A:$B,2,0))+IF(BX4="y",1,0)+IF(BY4="y",1,0)+IF(BZ4="y",1,0)+IF(CA4="y",1,0),0)</f>
@@ -11170,16 +11149,16 @@
         <v>3.0</v>
       </c>
       <c r="CE4" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CF4" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CG4" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CH4" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CI4" s="51">
         <f>IFERROR((VLOOKUP(CC4,Scoring!$A:$B,2,0))+IF(CE4="y",1,0)+IF(CF4="y",1,0)+IF(CG4="y",1,0)+IF(CH4="y",1,0),0)</f>
@@ -11192,16 +11171,16 @@
         <v>2.0</v>
       </c>
       <c r="CL4" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CM4" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CN4" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CO4" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CP4" s="51">
         <f>IFERROR((VLOOKUP(CJ4,Scoring!$A:$B,2,0))+IF(CL4="y",1,0)+IF(CM4="y",1,0)+IF(CN4="y",1,0)+IF(CO4="y",1,0),0)</f>
@@ -11214,16 +11193,16 @@
         <v>15.0</v>
       </c>
       <c r="CS4" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CT4" s="48" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="CU4" s="49" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="CV4" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CW4" s="51">
         <f>IFERROR((VLOOKUP(CQ4,Scoring!$A:$B,2,0))+IF(CS4="y",1,0)+IF(CT4="y",1,0)+IF(CU4="y",1,0)+IF(CV4="y",1,0),0)</f>
@@ -11236,16 +11215,16 @@
         <v>3.0</v>
       </c>
       <c r="CZ4" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DA4" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DB4" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DC4" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DD4" s="51">
         <f>IFERROR((VLOOKUP(CX4,Scoring!$A:$B,2,0))+IF(CZ4="y",1,0)+IF(DA4="y",1,0)+IF(DB4="y",1,0)+IF(DC4="y",1,0),0)</f>
@@ -11289,16 +11268,16 @@
         <v>22.0</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H5" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I5" s="67" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J5" s="68">
         <f>IFERROR((VLOOKUP(D5,Scoring!$A:$B,2,0))+IF(F5="y",1,0)+IF(G5="y",1,0)+IF(H5="y",1,0)+IF(I5="y",1,0),0)</f>
@@ -11311,16 +11290,16 @@
         <v>9.0</v>
       </c>
       <c r="M5" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N5" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O5" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P5" s="67" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="69">
         <f>IFERROR((VLOOKUP(K5,Scoring!$D:$E,2,0))+IF(M5="y",1,0)+IF(N5="y",1,0)+IF(O5="y",1,0)+IF(P5="y",1,0),0)</f>
@@ -11333,16 +11312,16 @@
         <v>8.0</v>
       </c>
       <c r="T5" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="U5" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="V5" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="W5" s="67" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X5" s="68">
         <f>IFERROR((VLOOKUP(R5,Scoring!$A:$B,2,0))+IF(T5="y",1,0)+IF(U5="y",1,0)+IF(V5="y",1,0)+IF(W5="y",1,0),0)</f>
@@ -11355,16 +11334,16 @@
         <v>13.0</v>
       </c>
       <c r="AA5" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AB5" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AC5" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AD5" s="67" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AE5" s="68">
         <f>IFERROR((VLOOKUP(Y5,Scoring!$A:$B,2,0))+IF(AA5="y",1,0)+IF(AB5="y",1,0)+IF(AC5="y",1,0)+IF(AD5="y",1,0),0)</f>
@@ -11377,16 +11356,16 @@
         <v>11.0</v>
       </c>
       <c r="AH5" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AI5" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AJ5" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AK5" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AL5" s="68">
         <f>IFERROR((VLOOKUP(AF5,Scoring!$A:$B,2,0))+IF(AH5="y",1,0)+IF(AI5="y",1,0)+IF(AJ5="y",1,0)+IF(AK5="y",1,0),0)</f>
@@ -11399,16 +11378,16 @@
         <v>9.0</v>
       </c>
       <c r="AO5" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AP5" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AQ5" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AR5" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AS5" s="68">
         <f>IFERROR((VLOOKUP(AM5,Scoring!$A:$B,2,0))+IF(AO5="y",1,0)+IF(AP5="y",1,0)+IF(AQ5="y",1,0)+IF(AR5="y",1,0),0)</f>
@@ -11421,16 +11400,16 @@
         <v>22.0</v>
       </c>
       <c r="AV5" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AW5" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AX5" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AY5" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AZ5" s="68">
         <f>IFERROR((VLOOKUP(AT5,Scoring!$A:$B,2,0))+IF(AV5="y",1,0)+IF(AW5="y",1,0)+IF(AX5="y",1,0)+IF(AY5="y",1,0),0)</f>
@@ -11443,16 +11422,16 @@
         <v>22.0</v>
       </c>
       <c r="BC5" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BD5" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BE5" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BF5" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BG5" s="68">
         <f>IFERROR((VLOOKUP(BA5,Scoring!$D:$E,2,0))+IF(BC5="y",1,0)+IF(BD5="y",1,0)+IF(BE5="y",1,0)+IF(BF5="y",1,0),0)</f>
@@ -11465,16 +11444,16 @@
         <v>22.0</v>
       </c>
       <c r="BJ5" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BK5" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BL5" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BM5" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BN5" s="68">
         <f>IFERROR((VLOOKUP(BH5,Scoring!$A:$B,2,0))+IF(BJ5="y",1,0)+IF(BK5="y",1,0)+IF(BL5="y",1,0)+IF(BM5="y",1,0),0)</f>
@@ -11487,16 +11466,16 @@
         <v>22.0</v>
       </c>
       <c r="BQ5" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BR5" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BS5" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BT5" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BU5" s="68">
         <f>IFERROR((VLOOKUP(BO5,Scoring!$D:$E,2,0))+IF(BQ5="y",1,0)+IF(BR5="y",1,0)+IF(BS5="y",1,0)+IF(BT5="y",1,0),0)</f>
@@ -11509,16 +11488,16 @@
         <v>22.0</v>
       </c>
       <c r="BX5" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BY5" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BZ5" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CA5" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CB5" s="68">
         <f>IFERROR((VLOOKUP(BV5,Scoring!$A:$B,2,0))+IF(BX5="y",1,0)+IF(BY5="y",1,0)+IF(BZ5="y",1,0)+IF(CA5="y",1,0),0)</f>
@@ -11531,16 +11510,16 @@
         <v>22.0</v>
       </c>
       <c r="CE5" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CF5" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CG5" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CH5" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CI5" s="68">
         <f>IFERROR((VLOOKUP(CC5,Scoring!$A:$B,2,0))+IF(CE5="y",1,0)+IF(CF5="y",1,0)+IF(CG5="y",1,0)+IF(CH5="y",1,0),0)</f>
@@ -11553,16 +11532,16 @@
         <v>22.0</v>
       </c>
       <c r="CL5" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CM5" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CN5" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CO5" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CP5" s="68">
         <f>IFERROR((VLOOKUP(CJ5,Scoring!$A:$B,2,0))+IF(CL5="y",1,0)+IF(CM5="y",1,0)+IF(CN5="y",1,0)+IF(CO5="y",1,0),0)</f>
@@ -11575,16 +11554,16 @@
         <v>22.0</v>
       </c>
       <c r="CS5" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CT5" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CU5" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CV5" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CW5" s="68">
         <f>IFERROR((VLOOKUP(CQ5,Scoring!$A:$B,2,0))+IF(CS5="y",1,0)+IF(CT5="y",1,0)+IF(CU5="y",1,0)+IF(CV5="y",1,0),0)</f>
@@ -11597,16 +11576,16 @@
         <v>22.0</v>
       </c>
       <c r="CZ5" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DA5" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DB5" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DC5" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DD5" s="68">
         <f>IFERROR((VLOOKUP(CX5,Scoring!$A:$B,2,0))+IF(CZ5="y",1,0)+IF(DA5="y",1,0)+IF(DB5="y",1,0)+IF(DC5="y",1,0),0)</f>
@@ -11650,16 +11629,16 @@
         <v>4.0</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J6" s="34">
         <f>IFERROR((VLOOKUP(D6,Scoring!$A:$B,2,0))+IF(F6="y",1,0)+IF(G6="y",1,0)+IF(H6="y",1,0)+IF(I6="y",1,0),0)</f>
@@ -11672,16 +11651,16 @@
         <v>5.0</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q6" s="35">
         <f>IFERROR((VLOOKUP(K6,Scoring!$D:$E,2,0))+IF(M6="y",1,0)+IF(N6="y",1,0)+IF(O6="y",1,0)+IF(P6="y",1,0),0)</f>
@@ -11694,16 +11673,16 @@
         <v>12.0</v>
       </c>
       <c r="T6" s="30" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="U6" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="V6" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="W6" s="33" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X6" s="34">
         <f>IFERROR((VLOOKUP(R6,Scoring!$A:$B,2,0))+IF(T6="y",1,0)+IF(U6="y",1,0)+IF(V6="y",1,0)+IF(W6="y",1,0),0)</f>
@@ -11716,16 +11695,16 @@
         <v>6.0</v>
       </c>
       <c r="AA6" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AB6" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AC6" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AD6" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AE6" s="34">
         <f>IFERROR((VLOOKUP(Y6,Scoring!$A:$B,2,0))+IF(AA6="y",1,0)+IF(AB6="y",1,0)+IF(AC6="y",1,0)+IF(AD6="y",1,0),0)</f>
@@ -11738,16 +11717,16 @@
         <v>6.0</v>
       </c>
       <c r="AH6" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AI6" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AJ6" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AK6" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AL6" s="34">
         <f>IFERROR((VLOOKUP(AF6,Scoring!$A:$B,2,0))+IF(AH6="y",1,0)+IF(AI6="y",1,0)+IF(AJ6="y",1,0)+IF(AK6="y",1,0),0)</f>
@@ -11760,16 +11739,16 @@
         <v>4.0</v>
       </c>
       <c r="AO6" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AP6" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AQ6" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AR6" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AS6" s="34">
         <f>IFERROR((VLOOKUP(AM6,Scoring!$A:$B,2,0))+IF(AO6="y",1,0)+IF(AP6="y",1,0)+IF(AQ6="y",1,0)+IF(AR6="y",1,0),0)</f>
@@ -11782,16 +11761,16 @@
         <v>7.0</v>
       </c>
       <c r="AV6" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AW6" s="31" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AX6" s="32" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AY6" s="36" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AZ6" s="34">
         <f>IFERROR((VLOOKUP(AT6,Scoring!$A:$B,2,0))+IF(AV6="y",1,0)+IF(AW6="y",1,0)+IF(AX6="y",1,0)+IF(AY6="y",1,0),0)</f>
@@ -11804,16 +11783,16 @@
         <v>4.0</v>
       </c>
       <c r="BC6" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BD6" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BE6" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BF6" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BG6" s="34">
         <f>IFERROR((VLOOKUP(BA6,Scoring!$D:$E,2,0))+IF(BC6="y",1,0)+IF(BD6="y",1,0)+IF(BE6="y",1,0)+IF(BF6="y",1,0),0)</f>
@@ -11826,16 +11805,16 @@
         <v>13.0</v>
       </c>
       <c r="BJ6" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BK6" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BL6" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BM6" s="36" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="BN6" s="34">
         <f>IFERROR((VLOOKUP(BH6,Scoring!$A:$B,2,0))+IF(BJ6="y",1,0)+IF(BK6="y",1,0)+IF(BL6="y",1,0)+IF(BM6="y",1,0),0)</f>
@@ -11848,16 +11827,16 @@
         <v>5.0</v>
       </c>
       <c r="BQ6" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BR6" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BS6" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BT6" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BU6" s="34">
         <f>IFERROR((VLOOKUP(BO6,Scoring!$D:$E,2,0))+IF(BQ6="y",1,0)+IF(BR6="y",1,0)+IF(BS6="y",1,0)+IF(BT6="y",1,0),0)</f>
@@ -11870,16 +11849,16 @@
         <v>11.0</v>
       </c>
       <c r="BX6" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BY6" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BZ6" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CA6" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CB6" s="34">
         <f>IFERROR((VLOOKUP(BV6,Scoring!$A:$B,2,0))+IF(BX6="y",1,0)+IF(BY6="y",1,0)+IF(BZ6="y",1,0)+IF(CA6="y",1,0),0)</f>
@@ -11892,16 +11871,16 @@
         <v>6.0</v>
       </c>
       <c r="CE6" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CF6" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CG6" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CH6" s="36" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="CI6" s="34">
         <f>IFERROR((VLOOKUP(CC6,Scoring!$A:$B,2,0))+IF(CE6="y",1,0)+IF(CF6="y",1,0)+IF(CG6="y",1,0)+IF(CH6="y",1,0),0)</f>
@@ -11914,16 +11893,16 @@
         <v>3.0</v>
       </c>
       <c r="CL6" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CM6" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CN6" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CO6" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CP6" s="34">
         <f>IFERROR((VLOOKUP(CJ6,Scoring!$A:$B,2,0))+IF(CL6="y",1,0)+IF(CM6="y",1,0)+IF(CN6="y",1,0)+IF(CO6="y",1,0),0)</f>
@@ -11936,16 +11915,16 @@
         <v>5.0</v>
       </c>
       <c r="CS6" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CT6" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CU6" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CV6" s="36" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="CW6" s="34">
         <f>IFERROR((VLOOKUP(CQ6,Scoring!$A:$B,2,0))+IF(CS6="y",1,0)+IF(CT6="y",1,0)+IF(CU6="y",1,0)+IF(CV6="y",1,0),0)</f>
@@ -11958,16 +11937,16 @@
         <v>4.0</v>
       </c>
       <c r="CZ6" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DA6" s="31" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="DB6" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DC6" s="36" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="DD6" s="34">
         <f>IFERROR((VLOOKUP(CX6,Scoring!$A:$B,2,0))+IF(CZ6="y",1,0)+IF(DA6="y",1,0)+IF(DB6="y",1,0)+IF(DC6="y",1,0),0)</f>
@@ -12011,16 +11990,16 @@
         <v>7.0</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J7" s="34">
         <f>IFERROR((VLOOKUP(D7,Scoring!$A:$B,2,0))+IF(F7="y",1,0)+IF(G7="y",1,0)+IF(H7="y",1,0)+IF(I7="y",1,0),0)</f>
@@ -12033,16 +12012,16 @@
         <v>7.0</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q7" s="35">
         <f>IFERROR((VLOOKUP(K7,Scoring!$D:$E,2,0))+IF(M7="y",1,0)+IF(N7="y",1,0)+IF(O7="y",1,0)+IF(P7="y",1,0),0)</f>
@@ -12055,16 +12034,16 @@
         <v>9.0</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="U7" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="V7" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="W7" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X7" s="34">
         <f>IFERROR((VLOOKUP(R7,Scoring!$A:$B,2,0))+IF(T7="y",1,0)+IF(U7="y",1,0)+IF(V7="y",1,0)+IF(W7="y",1,0),0)</f>
@@ -12077,16 +12056,16 @@
         <v>3.0</v>
       </c>
       <c r="AA7" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AB7" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AC7" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AD7" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AE7" s="34">
         <f>IFERROR((VLOOKUP(Y7,Scoring!$A:$B,2,0))+IF(AA7="y",1,0)+IF(AB7="y",1,0)+IF(AC7="y",1,0)+IF(AD7="y",1,0),0)</f>
@@ -12099,16 +12078,16 @@
         <v>3.0</v>
       </c>
       <c r="AH7" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AI7" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AJ7" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AK7" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AL7" s="34">
         <f>IFERROR((VLOOKUP(AF7,Scoring!$A:$B,2,0))+IF(AH7="y",1,0)+IF(AI7="y",1,0)+IF(AJ7="y",1,0)+IF(AK7="y",1,0),0)</f>
@@ -12121,16 +12100,16 @@
         <v>15.0</v>
       </c>
       <c r="AO7" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AP7" s="31" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AQ7" s="32" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AR7" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AS7" s="34">
         <f>IFERROR((VLOOKUP(AM7,Scoring!$A:$B,2,0))+IF(AO7="y",1,0)+IF(AP7="y",1,0)+IF(AQ7="y",1,0)+IF(AR7="y",1,0),0)</f>
@@ -12143,16 +12122,16 @@
         <v>5.0</v>
       </c>
       <c r="AV7" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AW7" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AX7" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AY7" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AZ7" s="34">
         <f>IFERROR((VLOOKUP(AT7,Scoring!$A:$B,2,0))+IF(AV7="y",1,0)+IF(AW7="y",1,0)+IF(AX7="y",1,0)+IF(AY7="y",1,0),0)</f>
@@ -12165,16 +12144,16 @@
         <v>5.0</v>
       </c>
       <c r="BC7" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BD7" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BE7" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BF7" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BG7" s="34">
         <f>IFERROR((VLOOKUP(BA7,Scoring!$D:$E,2,0))+IF(BC7="y",1,0)+IF(BD7="y",1,0)+IF(BE7="y",1,0)+IF(BF7="y",1,0),0)</f>
@@ -12187,16 +12166,16 @@
         <v>11.0</v>
       </c>
       <c r="BJ7" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BK7" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BL7" s="32" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="BM7" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BN7" s="34">
         <f>IFERROR((VLOOKUP(BH7,Scoring!$A:$B,2,0))+IF(BJ7="y",1,0)+IF(BK7="y",1,0)+IF(BL7="y",1,0)+IF(BM7="y",1,0),0)</f>
@@ -12209,16 +12188,16 @@
         <v>6.0</v>
       </c>
       <c r="BQ7" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BR7" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BS7" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BT7" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BU7" s="34">
         <f>IFERROR((VLOOKUP(BO7,Scoring!$D:$E,2,0))+IF(BQ7="y",1,0)+IF(BR7="y",1,0)+IF(BS7="y",1,0)+IF(BT7="y",1,0),0)</f>
@@ -12231,16 +12210,16 @@
         <v>10.0</v>
       </c>
       <c r="BX7" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BY7" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BZ7" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CA7" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CB7" s="34">
         <f>IFERROR((VLOOKUP(BV7,Scoring!$A:$B,2,0))+IF(BX7="y",1,0)+IF(BY7="y",1,0)+IF(BZ7="y",1,0)+IF(CA7="y",1,0),0)</f>
@@ -12253,16 +12232,16 @@
         <v>4.0</v>
       </c>
       <c r="CE7" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CF7" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CG7" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CH7" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CI7" s="34">
         <f>IFERROR((VLOOKUP(CC7,Scoring!$A:$B,2,0))+IF(CE7="y",1,0)+IF(CF7="y",1,0)+IF(CG7="y",1,0)+IF(CH7="y",1,0),0)</f>
@@ -12275,16 +12254,16 @@
         <v>8.0</v>
       </c>
       <c r="CL7" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CM7" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CN7" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CO7" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CP7" s="34">
         <f>IFERROR((VLOOKUP(CJ7,Scoring!$A:$B,2,0))+IF(CL7="y",1,0)+IF(CM7="y",1,0)+IF(CN7="y",1,0)+IF(CO7="y",1,0),0)</f>
@@ -12297,16 +12276,16 @@
         <v>6.0</v>
       </c>
       <c r="CS7" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CT7" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CU7" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CV7" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CW7" s="34">
         <f>IFERROR((VLOOKUP(CQ7,Scoring!$A:$B,2,0))+IF(CS7="y",1,0)+IF(CT7="y",1,0)+IF(CU7="y",1,0)+IF(CV7="y",1,0),0)</f>
@@ -12319,16 +12298,16 @@
         <v>5.0</v>
       </c>
       <c r="CZ7" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DA7" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DB7" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DC7" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DD7" s="34">
         <f>IFERROR((VLOOKUP(CX7,Scoring!$A:$B,2,0))+IF(CZ7="y",1,0)+IF(DA7="y",1,0)+IF(DB7="y",1,0)+IF(DC7="y",1,0),0)</f>
@@ -12372,16 +12351,16 @@
         <v>10.0</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="J8" s="51">
         <f>IFERROR((VLOOKUP(D8,Scoring!$A:$B,2,0))+IF(F8="y",1,0)+IF(G8="y",1,0)+IF(H8="y",1,0)+IF(I8="y",1,0),0)</f>
@@ -12394,16 +12373,16 @@
         <v>6.0</v>
       </c>
       <c r="M8" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N8" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O8" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P8" s="50" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="52">
         <f>IFERROR((VLOOKUP(K8,Scoring!$D:$E,2,0))+IF(M8="y",1,0)+IF(N8="y",1,0)+IF(O8="y",1,0)+IF(P8="y",1,0),0)</f>
@@ -12416,16 +12395,16 @@
         <v>3.0</v>
       </c>
       <c r="T8" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="U8" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="V8" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="W8" s="50" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X8" s="51">
         <f>IFERROR((VLOOKUP(R8,Scoring!$A:$B,2,0))+IF(T8="y",1,0)+IF(U8="y",1,0)+IF(V8="y",1,0)+IF(W8="y",1,0),0)</f>
@@ -12438,16 +12417,16 @@
         <v>8.0</v>
       </c>
       <c r="AA8" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AB8" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AC8" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AD8" s="50" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AE8" s="51">
         <f>IFERROR((VLOOKUP(Y8,Scoring!$A:$B,2,0))+IF(AA8="y",1,0)+IF(AB8="y",1,0)+IF(AC8="y",1,0)+IF(AD8="y",1,0),0)</f>
@@ -12460,16 +12439,16 @@
         <v>10.0</v>
       </c>
       <c r="AH8" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AI8" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AJ8" s="49" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AK8" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AL8" s="51">
         <f>IFERROR((VLOOKUP(AF8,Scoring!$A:$B,2,0))+IF(AH8="y",1,0)+IF(AI8="y",1,0)+IF(AJ8="y",1,0)+IF(AK8="y",1,0),0)</f>
@@ -12482,16 +12461,16 @@
         <v>13.0</v>
       </c>
       <c r="AO8" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AP8" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AQ8" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AR8" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AS8" s="51">
         <f>IFERROR((VLOOKUP(AM8,Scoring!$A:$B,2,0))+IF(AO8="y",1,0)+IF(AP8="y",1,0)+IF(AQ8="y",1,0)+IF(AR8="y",1,0),0)</f>
@@ -12504,16 +12483,16 @@
         <v>10.0</v>
       </c>
       <c r="AV8" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AW8" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AX8" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AY8" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AZ8" s="51">
         <f>IFERROR((VLOOKUP(AT8,Scoring!$A:$B,2,0))+IF(AV8="y",1,0)+IF(AW8="y",1,0)+IF(AX8="y",1,0)+IF(AY8="y",1,0),0)</f>
@@ -12526,16 +12505,16 @@
         <v>9.0</v>
       </c>
       <c r="BC8" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BD8" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BE8" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BF8" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BG8" s="51">
         <f>IFERROR((VLOOKUP(BA8,Scoring!$D:$E,2,0))+IF(BC8="y",1,0)+IF(BD8="y",1,0)+IF(BE8="y",1,0)+IF(BF8="y",1,0),0)</f>
@@ -12548,16 +12527,16 @@
         <v>6.0</v>
       </c>
       <c r="BJ8" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BK8" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BL8" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BM8" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BN8" s="51">
         <f>IFERROR((VLOOKUP(BH8,Scoring!$A:$B,2,0))+IF(BJ8="y",1,0)+IF(BK8="y",1,0)+IF(BL8="y",1,0)+IF(BM8="y",1,0),0)</f>
@@ -12570,16 +12549,16 @@
         <v>8.0</v>
       </c>
       <c r="BQ8" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BR8" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BS8" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BT8" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BU8" s="51">
         <f>IFERROR((VLOOKUP(BO8,Scoring!$D:$E,2,0))+IF(BQ8="y",1,0)+IF(BR8="y",1,0)+IF(BS8="y",1,0)+IF(BT8="y",1,0),0)</f>
@@ -12592,16 +12571,16 @@
         <v>7.0</v>
       </c>
       <c r="BX8" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BY8" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BZ8" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CA8" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CB8" s="51">
         <f>IFERROR((VLOOKUP(BV8,Scoring!$A:$B,2,0))+IF(BX8="y",1,0)+IF(BY8="y",1,0)+IF(BZ8="y",1,0)+IF(CA8="y",1,0),0)</f>
@@ -12614,16 +12593,16 @@
         <v>7.0</v>
       </c>
       <c r="CE8" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CF8" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CG8" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CH8" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CI8" s="51">
         <f>IFERROR((VLOOKUP(CC8,Scoring!$A:$B,2,0))+IF(CE8="y",1,0)+IF(CF8="y",1,0)+IF(CG8="y",1,0)+IF(CH8="y",1,0),0)</f>
@@ -12636,16 +12615,16 @@
         <v>9.0</v>
       </c>
       <c r="CL8" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CM8" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CN8" s="49" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="CO8" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CP8" s="51">
         <f>IFERROR((VLOOKUP(CJ8,Scoring!$A:$B,2,0))+IF(CL8="y",1,0)+IF(CM8="y",1,0)+IF(CN8="y",1,0)+IF(CO8="y",1,0),0)</f>
@@ -12658,16 +12637,16 @@
         <v>22.0</v>
       </c>
       <c r="CS8" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CT8" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CU8" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CV8" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CW8" s="51">
         <f>IFERROR((VLOOKUP(CQ8,Scoring!$A:$B,2,0))+IF(CS8="y",1,0)+IF(CT8="y",1,0)+IF(CU8="y",1,0)+IF(CV8="y",1,0),0)</f>
@@ -12680,16 +12659,16 @@
         <v>22.0</v>
       </c>
       <c r="CZ8" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DA8" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DB8" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DC8" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DD8" s="51">
         <f>IFERROR((VLOOKUP(CX8,Scoring!$A:$B,2,0))+IF(CZ8="y",1,0)+IF(DA8="y",1,0)+IF(DB8="y",1,0)+IF(DC8="y",1,0),0)</f>
@@ -12733,16 +12712,16 @@
         <v>5.0</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H9" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I9" s="67" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J9" s="68">
         <f>IFERROR((VLOOKUP(D9,Scoring!$A:$B,2,0))+IF(F9="y",1,0)+IF(G9="y",1,0)+IF(H9="y",1,0)+IF(I9="y",1,0),0)</f>
@@ -12755,16 +12734,16 @@
         <v>8.0</v>
       </c>
       <c r="M9" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N9" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O9" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P9" s="67" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="69">
         <f>IFERROR((VLOOKUP(K9,Scoring!$D:$E,2,0))+IF(M9="y",1,0)+IF(N9="y",1,0)+IF(O9="y",1,0)+IF(P9="y",1,0),0)</f>
@@ -12777,16 +12756,16 @@
         <v>6.0</v>
       </c>
       <c r="T9" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="U9" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="V9" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="W9" s="67" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X9" s="68">
         <f>IFERROR((VLOOKUP(R9,Scoring!$A:$B,2,0))+IF(T9="y",1,0)+IF(U9="y",1,0)+IF(V9="y",1,0)+IF(W9="y",1,0),0)</f>
@@ -12799,16 +12778,16 @@
         <v>4.0</v>
       </c>
       <c r="AA9" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AB9" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AC9" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AD9" s="67" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AE9" s="68">
         <f>IFERROR((VLOOKUP(Y9,Scoring!$A:$B,2,0))+IF(AA9="y",1,0)+IF(AB9="y",1,0)+IF(AC9="y",1,0)+IF(AD9="y",1,0),0)</f>
@@ -12821,16 +12800,16 @@
         <v>8.0</v>
       </c>
       <c r="AH9" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AI9" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AJ9" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AK9" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AL9" s="68">
         <f>IFERROR((VLOOKUP(AF9,Scoring!$A:$B,2,0))+IF(AH9="y",1,0)+IF(AI9="y",1,0)+IF(AJ9="y",1,0)+IF(AK9="y",1,0),0)</f>
@@ -12843,16 +12822,16 @@
         <v>11.0</v>
       </c>
       <c r="AO9" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AP9" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AQ9" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AR9" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AS9" s="68">
         <f>IFERROR((VLOOKUP(AM9,Scoring!$A:$B,2,0))+IF(AO9="y",1,0)+IF(AP9="y",1,0)+IF(AQ9="y",1,0)+IF(AR9="y",1,0),0)</f>
@@ -12865,16 +12844,16 @@
         <v>9.0</v>
       </c>
       <c r="AV9" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AW9" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AX9" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AY9" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AZ9" s="68">
         <f>IFERROR((VLOOKUP(AT9,Scoring!$A:$B,2,0))+IF(AV9="y",1,0)+IF(AW9="y",1,0)+IF(AX9="y",1,0)+IF(AY9="y",1,0),0)</f>
@@ -12887,16 +12866,16 @@
         <v>7.0</v>
       </c>
       <c r="BC9" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BD9" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BE9" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BF9" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BG9" s="68">
         <f>IFERROR((VLOOKUP(BA9,Scoring!$D:$E,2,0))+IF(BC9="y",1,0)+IF(BD9="y",1,0)+IF(BE9="y",1,0)+IF(BF9="y",1,0),0)</f>
@@ -12909,16 +12888,16 @@
         <v>7.0</v>
       </c>
       <c r="BJ9" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BK9" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BL9" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BM9" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BN9" s="68">
         <f>IFERROR((VLOOKUP(BH9,Scoring!$A:$B,2,0))+IF(BJ9="y",1,0)+IF(BK9="y",1,0)+IF(BL9="y",1,0)+IF(BM9="y",1,0),0)</f>
@@ -12931,16 +12910,16 @@
         <v>7.0</v>
       </c>
       <c r="BQ9" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BR9" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BS9" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BT9" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BU9" s="68">
         <f>IFERROR((VLOOKUP(BO9,Scoring!$D:$E,2,0))+IF(BQ9="y",1,0)+IF(BR9="y",1,0)+IF(BS9="y",1,0)+IF(BT9="y",1,0),0)</f>
@@ -12953,16 +12932,16 @@
         <v>6.0</v>
       </c>
       <c r="BX9" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BY9" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BZ9" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CA9" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CB9" s="68">
         <f>IFERROR((VLOOKUP(BV9,Scoring!$A:$B,2,0))+IF(BX9="y",1,0)+IF(BY9="y",1,0)+IF(BZ9="y",1,0)+IF(CA9="y",1,0),0)</f>
@@ -12975,16 +12954,16 @@
         <v>14.0</v>
       </c>
       <c r="CE9" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CF9" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CG9" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CH9" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CI9" s="68">
         <f>IFERROR((VLOOKUP(CC9,Scoring!$A:$B,2,0))+IF(CE9="y",1,0)+IF(CF9="y",1,0)+IF(CG9="y",1,0)+IF(CH9="y",1,0),0)</f>
@@ -12997,16 +12976,16 @@
         <v>11.0</v>
       </c>
       <c r="CL9" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CM9" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CN9" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CO9" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CP9" s="68">
         <f>IFERROR((VLOOKUP(CJ9,Scoring!$A:$B,2,0))+IF(CL9="y",1,0)+IF(CM9="y",1,0)+IF(CN9="y",1,0)+IF(CO9="y",1,0),0)</f>
@@ -13019,16 +12998,16 @@
         <v>4.0</v>
       </c>
       <c r="CS9" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CT9" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CU9" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CV9" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CW9" s="68">
         <f>IFERROR((VLOOKUP(CQ9,Scoring!$A:$B,2,0))+IF(CS9="y",1,0)+IF(CT9="y",1,0)+IF(CU9="y",1,0)+IF(CV9="y",1,0),0)</f>
@@ -13041,16 +13020,16 @@
         <v>8.0</v>
       </c>
       <c r="CZ9" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DA9" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DB9" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DC9" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DD9" s="68">
         <f>IFERROR((VLOOKUP(CX9,Scoring!$A:$B,2,0))+IF(CZ9="y",1,0)+IF(DA9="y",1,0)+IF(DB9="y",1,0)+IF(DC9="y",1,0),0)</f>
@@ -13094,16 +13073,16 @@
         <v>8.0</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J10" s="34">
         <f>IFERROR((VLOOKUP(D10,Scoring!$A:$B,2,0))+IF(F10="y",1,0)+IF(G10="y",1,0)+IF(H10="y",1,0)+IF(I10="y",1,0),0)</f>
@@ -13116,16 +13095,16 @@
         <v>11.0</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N10" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="35">
         <f>IFERROR((VLOOKUP(K10,Scoring!$D:$E,2,0))+IF(M10="y",1,0)+IF(N10="y",1,0)+IF(O10="y",1,0)+IF(P10="y",1,0),0)</f>
@@ -13138,16 +13117,16 @@
         <v>10.0</v>
       </c>
       <c r="T10" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="U10" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="V10" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X10" s="34">
         <f>IFERROR((VLOOKUP(R10,Scoring!$A:$B,2,0))+IF(T10="y",1,0)+IF(U10="y",1,0)+IF(V10="y",1,0)+IF(W10="y",1,0),0)</f>
@@ -13160,16 +13139,16 @@
         <v>15.0</v>
       </c>
       <c r="AA10" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AB10" s="31" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AC10" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AD10" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AE10" s="34">
         <f>IFERROR((VLOOKUP(Y10,Scoring!$A:$B,2,0))+IF(AA10="y",1,0)+IF(AB10="y",1,0)+IF(AC10="y",1,0)+IF(AD10="y",1,0),0)</f>
@@ -13182,16 +13161,16 @@
         <v>7.0</v>
       </c>
       <c r="AH10" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AI10" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AJ10" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AK10" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AL10" s="34">
         <f>IFERROR((VLOOKUP(AF10,Scoring!$A:$B,2,0))+IF(AH10="y",1,0)+IF(AI10="y",1,0)+IF(AJ10="y",1,0)+IF(AK10="y",1,0),0)</f>
@@ -13204,16 +13183,16 @@
         <v>7.0</v>
       </c>
       <c r="AO10" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AP10" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AQ10" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AR10" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AS10" s="34">
         <f>IFERROR((VLOOKUP(AM10,Scoring!$A:$B,2,0))+IF(AO10="y",1,0)+IF(AP10="y",1,0)+IF(AQ10="y",1,0)+IF(AR10="y",1,0),0)</f>
@@ -13226,16 +13205,16 @@
         <v>15.0</v>
       </c>
       <c r="AV10" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AW10" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AX10" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AY10" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AZ10" s="34">
         <f>IFERROR((VLOOKUP(AT10,Scoring!$A:$B,2,0))+IF(AV10="y",1,0)+IF(AW10="y",1,0)+IF(AX10="y",1,0)+IF(AY10="y",1,0),0)</f>
@@ -13248,16 +13227,16 @@
         <v>22.0</v>
       </c>
       <c r="BC10" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BD10" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BE10" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BF10" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BG10" s="34">
         <f>IFERROR((VLOOKUP(BA10,Scoring!$D:$E,2,0))+IF(BC10="y",1,0)+IF(BD10="y",1,0)+IF(BE10="y",1,0)+IF(BF10="y",1,0),0)</f>
@@ -13270,16 +13249,16 @@
         <v>22.0</v>
       </c>
       <c r="BJ10" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BK10" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BL10" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BM10" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BN10" s="34">
         <f>IFERROR((VLOOKUP(BH10,Scoring!$A:$B,2,0))+IF(BJ10="y",1,0)+IF(BK10="y",1,0)+IF(BL10="y",1,0)+IF(BM10="y",1,0),0)</f>
@@ -13292,16 +13271,16 @@
         <v>22.0</v>
       </c>
       <c r="BQ10" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BR10" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BS10" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BT10" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BU10" s="34">
         <f>IFERROR((VLOOKUP(BO10,Scoring!$D:$E,2,0))+IF(BQ10="y",1,0)+IF(BR10="y",1,0)+IF(BS10="y",1,0)+IF(BT10="y",1,0),0)</f>
@@ -13314,16 +13293,16 @@
         <v>22.0</v>
       </c>
       <c r="BX10" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BY10" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BZ10" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CA10" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CB10" s="34">
         <f>IFERROR((VLOOKUP(BV10,Scoring!$A:$B,2,0))+IF(BX10="y",1,0)+IF(BY10="y",1,0)+IF(BZ10="y",1,0)+IF(CA10="y",1,0),0)</f>
@@ -13336,16 +13315,16 @@
         <v>5.0</v>
       </c>
       <c r="CE10" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CF10" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CG10" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CH10" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CI10" s="34">
         <f>IFERROR((VLOOKUP(CC10,Scoring!$A:$B,2,0))+IF(CE10="y",1,0)+IF(CF10="y",1,0)+IF(CG10="y",1,0)+IF(CH10="y",1,0),0)</f>
@@ -13358,16 +13337,16 @@
         <v>7.0</v>
       </c>
       <c r="CL10" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CM10" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CN10" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CO10" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CP10" s="34">
         <f>IFERROR((VLOOKUP(CJ10,Scoring!$A:$B,2,0))+IF(CL10="y",1,0)+IF(CM10="y",1,0)+IF(CN10="y",1,0)+IF(CO10="y",1,0),0)</f>
@@ -13380,16 +13359,16 @@
         <v>3.0</v>
       </c>
       <c r="CS10" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CT10" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CU10" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CV10" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CW10" s="34">
         <f>IFERROR((VLOOKUP(CQ10,Scoring!$A:$B,2,0))+IF(CS10="y",1,0)+IF(CT10="y",1,0)+IF(CU10="y",1,0)+IF(CV10="y",1,0),0)</f>
@@ -13402,16 +13381,16 @@
         <v>7.0</v>
       </c>
       <c r="CZ10" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DA10" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DB10" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DC10" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DD10" s="34">
         <f>IFERROR((VLOOKUP(CX10,Scoring!$A:$B,2,0))+IF(CZ10="y",1,0)+IF(DA10="y",1,0)+IF(DB10="y",1,0)+IF(DC10="y",1,0),0)</f>
@@ -13455,16 +13434,16 @@
         <v>12.0</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J11" s="34">
         <f>IFERROR((VLOOKUP(D11,Scoring!$A:$B,2,0))+IF(F11="y",1,0)+IF(G11="y",1,0)+IF(H11="y",1,0)+IF(I11="y",1,0),0)</f>
@@ -13477,16 +13456,16 @@
         <v>10.0</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N11" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="35">
         <f>IFERROR((VLOOKUP(K11,Scoring!$D:$E,2,0))+IF(M11="y",1,0)+IF(N11="y",1,0)+IF(O11="y",1,0)+IF(P11="y",1,0),0)</f>
@@ -13499,16 +13478,16 @@
         <v>15.0</v>
       </c>
       <c r="T11" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="U11" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="V11" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="W11" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X11" s="34">
         <f>IFERROR((VLOOKUP(R11,Scoring!$A:$B,2,0))+IF(T11="y",1,0)+IF(U11="y",1,0)+IF(V11="y",1,0)+IF(W11="y",1,0),0)</f>
@@ -13521,16 +13500,16 @@
         <v>11.0</v>
       </c>
       <c r="AA11" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AB11" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AC11" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AD11" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AE11" s="34">
         <f>IFERROR((VLOOKUP(Y11,Scoring!$A:$B,2,0))+IF(AA11="y",1,0)+IF(AB11="y",1,0)+IF(AC11="y",1,0)+IF(AD11="y",1,0),0)</f>
@@ -13543,16 +13522,16 @@
         <v>12.0</v>
       </c>
       <c r="AH11" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AI11" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AJ11" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AK11" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AL11" s="34">
         <f>IFERROR((VLOOKUP(AF11,Scoring!$A:$B,2,0))+IF(AH11="y",1,0)+IF(AI11="y",1,0)+IF(AJ11="y",1,0)+IF(AK11="y",1,0),0)</f>
@@ -13565,16 +13544,16 @@
         <v>14.0</v>
       </c>
       <c r="AO11" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AP11" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AQ11" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AR11" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AS11" s="34">
         <f>IFERROR((VLOOKUP(AM11,Scoring!$A:$B,2,0))+IF(AO11="y",1,0)+IF(AP11="y",1,0)+IF(AQ11="y",1,0)+IF(AR11="y",1,0),0)</f>
@@ -13587,16 +13566,16 @@
         <v>12.0</v>
       </c>
       <c r="AV11" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AW11" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AX11" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AY11" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AZ11" s="34">
         <f>IFERROR((VLOOKUP(AT11,Scoring!$A:$B,2,0))+IF(AV11="y",1,0)+IF(AW11="y",1,0)+IF(AX11="y",1,0)+IF(AY11="y",1,0),0)</f>
@@ -13609,16 +13588,16 @@
         <v>14.0</v>
       </c>
       <c r="BC11" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BD11" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BE11" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BF11" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BG11" s="34">
         <f>IFERROR((VLOOKUP(BA11,Scoring!$D:$E,2,0))+IF(BC11="y",1,0)+IF(BD11="y",1,0)+IF(BE11="y",1,0)+IF(BF11="y",1,0),0)</f>
@@ -13631,16 +13610,16 @@
         <v>4.0</v>
       </c>
       <c r="BJ11" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BK11" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BL11" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BM11" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BN11" s="34">
         <f>IFERROR((VLOOKUP(BH11,Scoring!$A:$B,2,0))+IF(BJ11="y",1,0)+IF(BK11="y",1,0)+IF(BL11="y",1,0)+IF(BM11="y",1,0),0)</f>
@@ -13653,16 +13632,16 @@
         <v>22.0</v>
       </c>
       <c r="BQ11" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BR11" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BS11" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BT11" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BU11" s="34">
         <f>IFERROR((VLOOKUP(BO11,Scoring!$D:$E,2,0))+IF(BQ11="y",1,0)+IF(BR11="y",1,0)+IF(BS11="y",1,0)+IF(BT11="y",1,0),0)</f>
@@ -13675,16 +13654,16 @@
         <v>22.0</v>
       </c>
       <c r="BX11" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BY11" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BZ11" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CA11" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CB11" s="34">
         <f>IFERROR((VLOOKUP(BV11,Scoring!$A:$B,2,0))+IF(BX11="y",1,0)+IF(BY11="y",1,0)+IF(BZ11="y",1,0)+IF(CA11="y",1,0),0)</f>
@@ -13697,16 +13676,16 @@
         <v>9.0</v>
       </c>
       <c r="CE11" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CF11" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CG11" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CH11" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CI11" s="34">
         <f>IFERROR((VLOOKUP(CC11,Scoring!$A:$B,2,0))+IF(CE11="y",1,0)+IF(CF11="y",1,0)+IF(CG11="y",1,0)+IF(CH11="y",1,0),0)</f>
@@ -13719,16 +13698,16 @@
         <v>12.0</v>
       </c>
       <c r="CL11" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CM11" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CN11" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CO11" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CP11" s="34">
         <f>IFERROR((VLOOKUP(CJ11,Scoring!$A:$B,2,0))+IF(CL11="y",1,0)+IF(CM11="y",1,0)+IF(CN11="y",1,0)+IF(CO11="y",1,0),0)</f>
@@ -13741,16 +13720,16 @@
         <v>22.0</v>
       </c>
       <c r="CS11" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CT11" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CU11" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CV11" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CW11" s="34">
         <f>IFERROR((VLOOKUP(CQ11,Scoring!$A:$B,2,0))+IF(CS11="y",1,0)+IF(CT11="y",1,0)+IF(CU11="y",1,0)+IF(CV11="y",1,0),0)</f>
@@ -13763,16 +13742,16 @@
         <v>22.0</v>
       </c>
       <c r="CZ11" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DA11" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DB11" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DC11" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DD11" s="34">
         <f>IFERROR((VLOOKUP(CX11,Scoring!$A:$B,2,0))+IF(CZ11="y",1,0)+IF(DA11="y",1,0)+IF(DB11="y",1,0)+IF(DC11="y",1,0),0)</f>
@@ -13816,16 +13795,16 @@
         <v>9.0</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G12" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I12" s="50" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J12" s="51">
         <f>IFERROR((VLOOKUP(D12,Scoring!$A:$B,2,0))+IF(F12="y",1,0)+IF(G12="y",1,0)+IF(H12="y",1,0)+IF(I12="y",1,0),0)</f>
@@ -13838,16 +13817,16 @@
         <v>13.0</v>
       </c>
       <c r="M12" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N12" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O12" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P12" s="50" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q12" s="52">
         <f>IFERROR((VLOOKUP(K12,Scoring!$D:$E,2,0))+IF(M12="y",1,0)+IF(N12="y",1,0)+IF(O12="y",1,0)+IF(P12="y",1,0),0)</f>
@@ -13860,16 +13839,16 @@
         <v>4.0</v>
       </c>
       <c r="T12" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="U12" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="V12" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="W12" s="50" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X12" s="51">
         <f>IFERROR((VLOOKUP(R12,Scoring!$A:$B,2,0))+IF(T12="y",1,0)+IF(U12="y",1,0)+IF(V12="y",1,0)+IF(W12="y",1,0),0)</f>
@@ -13882,16 +13861,16 @@
         <v>9.0</v>
       </c>
       <c r="AA12" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AB12" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AC12" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AD12" s="50" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AE12" s="51">
         <f>IFERROR((VLOOKUP(Y12,Scoring!$A:$B,2,0))+IF(AA12="y",1,0)+IF(AB12="y",1,0)+IF(AC12="y",1,0)+IF(AD12="y",1,0),0)</f>
@@ -13904,16 +13883,16 @@
         <v>22.0</v>
       </c>
       <c r="AH12" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AI12" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AJ12" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AK12" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AL12" s="51">
         <f>IFERROR((VLOOKUP(AF12,Scoring!$A:$B,2,0))+IF(AH12="y",1,0)+IF(AI12="y",1,0)+IF(AJ12="y",1,0)+IF(AK12="y",1,0),0)</f>
@@ -13926,16 +13905,16 @@
         <v>10.0</v>
       </c>
       <c r="AO12" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AP12" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AQ12" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AR12" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AS12" s="51">
         <f>IFERROR((VLOOKUP(AM12,Scoring!$A:$B,2,0))+IF(AO12="y",1,0)+IF(AP12="y",1,0)+IF(AQ12="y",1,0)+IF(AR12="y",1,0),0)</f>
@@ -13948,16 +13927,16 @@
         <v>11.0</v>
       </c>
       <c r="AV12" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AW12" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AX12" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AY12" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AZ12" s="51">
         <f>IFERROR((VLOOKUP(AT12,Scoring!$A:$B,2,0))+IF(AV12="y",1,0)+IF(AW12="y",1,0)+IF(AX12="y",1,0)+IF(AY12="y",1,0),0)</f>
@@ -13970,16 +13949,16 @@
         <v>13.0</v>
       </c>
       <c r="BC12" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BD12" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BE12" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BF12" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BG12" s="51">
         <f>IFERROR((VLOOKUP(BA12,Scoring!$D:$E,2,0))+IF(BC12="y",1,0)+IF(BD12="y",1,0)+IF(BE12="y",1,0)+IF(BF12="y",1,0),0)</f>
@@ -13992,16 +13971,16 @@
         <v>8.0</v>
       </c>
       <c r="BJ12" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BK12" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BL12" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BM12" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BN12" s="51">
         <f>IFERROR((VLOOKUP(BH12,Scoring!$A:$B,2,0))+IF(BJ12="y",1,0)+IF(BK12="y",1,0)+IF(BL12="y",1,0)+IF(BM12="y",1,0),0)</f>
@@ -14014,16 +13993,16 @@
         <v>15.0</v>
       </c>
       <c r="BQ12" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BR12" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BS12" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BT12" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BU12" s="51">
         <f>IFERROR((VLOOKUP(BO12,Scoring!$D:$E,2,0))+IF(BQ12="y",1,0)+IF(BR12="y",1,0)+IF(BS12="y",1,0)+IF(BT12="y",1,0),0)</f>
@@ -14036,16 +14015,16 @@
         <v>5.0</v>
       </c>
       <c r="BX12" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BY12" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BZ12" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CA12" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CB12" s="51">
         <f>IFERROR((VLOOKUP(BV12,Scoring!$A:$B,2,0))+IF(BX12="y",1,0)+IF(BY12="y",1,0)+IF(BZ12="y",1,0)+IF(CA12="y",1,0),0)</f>
@@ -14058,16 +14037,16 @@
         <v>13.0</v>
       </c>
       <c r="CE12" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CF12" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CG12" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CH12" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CI12" s="51">
         <f>IFERROR((VLOOKUP(CC12,Scoring!$A:$B,2,0))+IF(CE12="y",1,0)+IF(CF12="y",1,0)+IF(CG12="y",1,0)+IF(CH12="y",1,0),0)</f>
@@ -14080,16 +14059,16 @@
         <v>22.0</v>
       </c>
       <c r="CL12" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CM12" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CN12" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CO12" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CP12" s="51">
         <f>IFERROR((VLOOKUP(CJ12,Scoring!$A:$B,2,0))+IF(CL12="y",1,0)+IF(CM12="y",1,0)+IF(CN12="y",1,0)+IF(CO12="y",1,0),0)</f>
@@ -14102,16 +14081,16 @@
         <v>7.0</v>
       </c>
       <c r="CS12" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CT12" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CU12" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CV12" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CW12" s="51">
         <f>IFERROR((VLOOKUP(CQ12,Scoring!$A:$B,2,0))+IF(CS12="y",1,0)+IF(CT12="y",1,0)+IF(CU12="y",1,0)+IF(CV12="y",1,0),0)</f>
@@ -14124,16 +14103,16 @@
         <v>6.0</v>
       </c>
       <c r="CZ12" s="47" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DA12" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DB12" s="49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DC12" s="53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DD12" s="51">
         <f>IFERROR((VLOOKUP(CX12,Scoring!$A:$B,2,0))+IF(CZ12="y",1,0)+IF(DA12="y",1,0)+IF(DB12="y",1,0)+IF(DC12="y",1,0),0)</f>
@@ -14177,16 +14156,16 @@
         <v>15.0</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H13" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I13" s="67" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J13" s="68">
         <f>IFERROR((VLOOKUP(D13,Scoring!$A:$B,2,0))+IF(F13="y",1,0)+IF(G13="y",1,0)+IF(H13="y",1,0)+IF(I13="y",1,0),0)</f>
@@ -14199,16 +14178,16 @@
         <v>12.0</v>
       </c>
       <c r="M13" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N13" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O13" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P13" s="67" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="69">
         <f>IFERROR((VLOOKUP(K13,Scoring!$D:$E,2,0))+IF(M13="y",1,0)+IF(N13="y",1,0)+IF(O13="y",1,0)+IF(P13="y",1,0),0)</f>
@@ -14221,16 +14200,16 @@
         <v>5.0</v>
       </c>
       <c r="T13" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="U13" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="V13" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="W13" s="67" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X13" s="68">
         <f>IFERROR((VLOOKUP(R13,Scoring!$A:$B,2,0))+IF(T13="y",1,0)+IF(U13="y",1,0)+IF(V13="y",1,0)+IF(W13="y",1,0),0)</f>
@@ -14243,16 +14222,16 @@
         <v>10.0</v>
       </c>
       <c r="AA13" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AB13" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AC13" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AD13" s="67" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AE13" s="68">
         <f>IFERROR((VLOOKUP(Y13,Scoring!$A:$B,2,0))+IF(AA13="y",1,0)+IF(AB13="y",1,0)+IF(AC13="y",1,0)+IF(AD13="y",1,0),0)</f>
@@ -14265,16 +14244,16 @@
         <v>9.0</v>
       </c>
       <c r="AH13" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AI13" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AJ13" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AK13" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AL13" s="68">
         <f>IFERROR((VLOOKUP(AF13,Scoring!$A:$B,2,0))+IF(AH13="y",1,0)+IF(AI13="y",1,0)+IF(AJ13="y",1,0)+IF(AK13="y",1,0),0)</f>
@@ -14287,16 +14266,16 @@
         <v>8.0</v>
       </c>
       <c r="AO13" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AP13" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AQ13" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AR13" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AS13" s="68">
         <f>IFERROR((VLOOKUP(AM13,Scoring!$A:$B,2,0))+IF(AO13="y",1,0)+IF(AP13="y",1,0)+IF(AQ13="y",1,0)+IF(AR13="y",1,0),0)</f>
@@ -14309,16 +14288,16 @@
         <v>8.0</v>
       </c>
       <c r="AV13" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AW13" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AX13" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AY13" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AZ13" s="68">
         <f>IFERROR((VLOOKUP(AT13,Scoring!$A:$B,2,0))+IF(AV13="y",1,0)+IF(AW13="y",1,0)+IF(AX13="y",1,0)+IF(AY13="y",1,0),0)</f>
@@ -14331,16 +14310,16 @@
         <v>15.0</v>
       </c>
       <c r="BC13" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BD13" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BE13" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BF13" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BG13" s="68">
         <f>IFERROR((VLOOKUP(BA13,Scoring!$D:$E,2,0))+IF(BC13="y",1,0)+IF(BD13="y",1,0)+IF(BE13="y",1,0)+IF(BF13="y",1,0),0)</f>
@@ -14353,16 +14332,16 @@
         <v>5.0</v>
       </c>
       <c r="BJ13" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BK13" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BL13" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BM13" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BN13" s="68">
         <f>IFERROR((VLOOKUP(BH13,Scoring!$A:$B,2,0))+IF(BJ13="y",1,0)+IF(BK13="y",1,0)+IF(BL13="y",1,0)+IF(BM13="y",1,0),0)</f>
@@ -14375,16 +14354,16 @@
         <v>10.0</v>
       </c>
       <c r="BQ13" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BR13" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BS13" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BT13" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BU13" s="68">
         <f>IFERROR((VLOOKUP(BO13,Scoring!$D:$E,2,0))+IF(BQ13="y",1,0)+IF(BR13="y",1,0)+IF(BS13="y",1,0)+IF(BT13="y",1,0),0)</f>
@@ -14397,16 +14376,16 @@
         <v>14.0</v>
       </c>
       <c r="BX13" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BY13" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BZ13" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CA13" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CB13" s="68">
         <f>IFERROR((VLOOKUP(BV13,Scoring!$A:$B,2,0))+IF(BX13="y",1,0)+IF(BY13="y",1,0)+IF(BZ13="y",1,0)+IF(CA13="y",1,0),0)</f>
@@ -14419,16 +14398,16 @@
         <v>8.0</v>
       </c>
       <c r="CE13" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CF13" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CG13" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CH13" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CI13" s="68">
         <f>IFERROR((VLOOKUP(CC13,Scoring!$A:$B,2,0))+IF(CE13="y",1,0)+IF(CF13="y",1,0)+IF(CG13="y",1,0)+IF(CH13="y",1,0),0)</f>
@@ -14441,16 +14420,16 @@
         <v>5.0</v>
       </c>
       <c r="CL13" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CM13" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CN13" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CO13" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CP13" s="68">
         <f>IFERROR((VLOOKUP(CJ13,Scoring!$A:$B,2,0))+IF(CL13="y",1,0)+IF(CM13="y",1,0)+IF(CN13="y",1,0)+IF(CO13="y",1,0),0)</f>
@@ -14463,16 +14442,16 @@
         <v>5.0</v>
       </c>
       <c r="CS13" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CT13" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CU13" s="66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CV13" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CW13" s="68">
         <f>IFERROR((VLOOKUP(CQ13,Scoring!$A:$B,2,0))+IF(CS13="y",1,0)+IF(CT13="y",1,0)+IF(CU13="y",1,0)+IF(CV13="y",1,0),0)</f>
@@ -14485,16 +14464,16 @@
         <v>9.0</v>
       </c>
       <c r="CZ13" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DA13" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DB13" s="66" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="DC13" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DD13" s="68">
         <f>IFERROR((VLOOKUP(CX13,Scoring!$A:$B,2,0))+IF(CZ13="y",1,0)+IF(DA13="y",1,0)+IF(DB13="y",1,0)+IF(DC13="y",1,0),0)</f>
@@ -14526,7 +14505,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>43</v>
@@ -14538,16 +14517,16 @@
         <v>1.0</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J14" s="34">
         <f>IFERROR((VLOOKUP(D14,Scoring!$A:$B,2,0))+IF(F14="y",1,0)+IF(G14="y",1,0)+IF(H14="y",1,0)+IF(I14="y",1,0),0)</f>
@@ -14560,16 +14539,16 @@
         <v>4.0</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N14" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="35">
         <f>IFERROR((VLOOKUP(K14,Scoring!$D:$E,2,0))+IF(M14="y",1,0)+IF(N14="y",1,0)+IF(O14="y",1,0)+IF(P14="y",1,0),0)</f>
@@ -14582,16 +14561,16 @@
         <v>13.0</v>
       </c>
       <c r="T14" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="U14" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="V14" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="W14" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X14" s="34">
         <f>IFERROR((VLOOKUP(R14,Scoring!$A:$B,2,0))+IF(T14="y",1,0)+IF(U14="y",1,0)+IF(V14="y",1,0)+IF(W14="y",1,0),0)</f>
@@ -14604,16 +14583,16 @@
         <v>5.0</v>
       </c>
       <c r="AA14" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AB14" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AC14" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AD14" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AE14" s="34">
         <f>IFERROR((VLOOKUP(Y14,Scoring!$A:$B,2,0))+IF(AA14="y",1,0)+IF(AB14="y",1,0)+IF(AC14="y",1,0)+IF(AD14="y",1,0),0)</f>
@@ -14626,16 +14605,16 @@
         <v>5.0</v>
       </c>
       <c r="AH14" s="30" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AI14" s="31" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AJ14" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AK14" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AL14" s="34">
         <f>IFERROR((VLOOKUP(AF14,Scoring!$A:$B,2,0))+IF(AH14="y",1,0)+IF(AI14="y",1,0)+IF(AJ14="y",1,0)+IF(AK14="y",1,0),0)</f>
@@ -14648,16 +14627,16 @@
         <v>3.0</v>
       </c>
       <c r="AO14" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AP14" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AQ14" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AR14" s="36" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AS14" s="34">
         <f>IFERROR((VLOOKUP(AM14,Scoring!$A:$B,2,0))+IF(AO14="y",1,0)+IF(AP14="y",1,0)+IF(AQ14="y",1,0)+IF(AR14="y",1,0),0)</f>
@@ -14670,16 +14649,16 @@
         <v>3.0</v>
       </c>
       <c r="AV14" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AW14" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AX14" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AY14" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AZ14" s="34">
         <f>IFERROR((VLOOKUP(AT14,Scoring!$A:$B,2,0))+IF(AV14="y",1,0)+IF(AW14="y",1,0)+IF(AX14="y",1,0)+IF(AY14="y",1,0),0)</f>
@@ -14692,16 +14671,16 @@
         <v>3.0</v>
       </c>
       <c r="BC14" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BD14" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BE14" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BF14" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BG14" s="34">
         <f>IFERROR((VLOOKUP(BA14,Scoring!$D:$E,2,0))+IF(BC14="y",1,0)+IF(BD14="y",1,0)+IF(BE14="y",1,0)+IF(BF14="y",1,0),0)</f>
@@ -14714,16 +14693,16 @@
         <v>15.0</v>
       </c>
       <c r="BJ14" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BK14" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BL14" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BM14" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BN14" s="34">
         <f>IFERROR((VLOOKUP(BH14,Scoring!$A:$B,2,0))+IF(BJ14="y",1,0)+IF(BK14="y",1,0)+IF(BL14="y",1,0)+IF(BM14="y",1,0),0)</f>
@@ -14736,16 +14715,16 @@
         <v>3.0</v>
       </c>
       <c r="BQ14" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BR14" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BS14" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BT14" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BU14" s="34">
         <f>IFERROR((VLOOKUP(BO14,Scoring!$D:$E,2,0))+IF(BQ14="y",1,0)+IF(BR14="y",1,0)+IF(BS14="y",1,0)+IF(BT14="y",1,0),0)</f>
@@ -14758,16 +14737,16 @@
         <v>9.0</v>
       </c>
       <c r="BX14" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BY14" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BZ14" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CA14" s="36" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="CB14" s="34">
         <f>IFERROR((VLOOKUP(BV14,Scoring!$A:$B,2,0))+IF(BX14="y",1,0)+IF(BY14="y",1,0)+IF(BZ14="y",1,0)+IF(CA14="y",1,0),0)</f>
@@ -14780,16 +14759,16 @@
         <v>2.0</v>
       </c>
       <c r="CE14" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CF14" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CG14" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CH14" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CI14" s="34">
         <f>IFERROR((VLOOKUP(CC14,Scoring!$A:$B,2,0))+IF(CE14="y",1,0)+IF(CF14="y",1,0)+IF(CG14="y",1,0)+IF(CH14="y",1,0),0)</f>
@@ -14802,16 +14781,16 @@
         <v>10.0</v>
       </c>
       <c r="CL14" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CM14" s="31" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="CN14" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CO14" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CP14" s="34">
         <f>IFERROR((VLOOKUP(CJ14,Scoring!$A:$B,2,0))+IF(CL14="y",1,0)+IF(CM14="y",1,0)+IF(CN14="y",1,0)+IF(CO14="y",1,0),0)</f>
@@ -14824,16 +14803,16 @@
         <v>22.0</v>
       </c>
       <c r="CS14" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CT14" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CU14" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CV14" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CW14" s="34">
         <f>IFERROR((VLOOKUP(CQ14,Scoring!$A:$B,2,0))+IF(CS14="y",1,0)+IF(CT14="y",1,0)+IF(CU14="y",1,0)+IF(CV14="y",1,0),0)</f>
@@ -14846,16 +14825,16 @@
         <v>22.0</v>
       </c>
       <c r="CZ14" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DA14" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DB14" s="32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DC14" s="36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DD14" s="34">
         <f>IFERROR((VLOOKUP(CX14,Scoring!$A:$B,2,0))+IF(CZ14="y",1,0)+IF(DA14="y",1,0)+IF(DB14="y",1,0)+IF(DC14="y",1,0),0)</f>
@@ -14899,16 +14878,16 @@
         <v>22.0</v>
       </c>
       <c r="F15" s="81" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G15" s="82" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H15" s="83" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I15" s="84" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J15" s="85">
         <f>IFERROR((VLOOKUP(D15,Scoring!$A:$B,2,0))+IF(F15="y",1,0)+IF(G15="y",1,0)+IF(H15="y",1,0)+IF(I15="y",1,0),0)</f>
@@ -14921,16 +14900,16 @@
         <v>1.0</v>
       </c>
       <c r="M15" s="81" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N15" s="82" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O15" s="83" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P15" s="84" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q15" s="86">
         <f>IFERROR((VLOOKUP(K15,Scoring!$D:$E,2,0))+IF(M15="y",1,0)+IF(N15="y",1,0)+IF(O15="y",1,0)+IF(P15="y",1,0),0)</f>
@@ -14943,16 +14922,16 @@
         <v>14.0</v>
       </c>
       <c r="T15" s="81" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="U15" s="82" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="V15" s="83" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="W15" s="84" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X15" s="85">
         <f>IFERROR((VLOOKUP(R15,Scoring!$A:$B,2,0))+IF(T15="y",1,0)+IF(U15="y",1,0)+IF(V15="y",1,0)+IF(W15="y",1,0),0)</f>
@@ -14965,16 +14944,16 @@
         <v>1.0</v>
       </c>
       <c r="AA15" s="81" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AB15" s="82" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AC15" s="83" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AD15" s="84" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AE15" s="85">
         <f>IFERROR((VLOOKUP(Y15,Scoring!$A:$B,2,0))+IF(AA15="y",1,0)+IF(AB15="y",1,0)+IF(AC15="y",1,0)+IF(AD15="y",1,0),0)</f>
@@ -14987,16 +14966,16 @@
         <v>1.0</v>
       </c>
       <c r="AH15" s="81" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AI15" s="82" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AJ15" s="83" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AK15" s="87" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AL15" s="85">
         <f>IFERROR((VLOOKUP(AF15,Scoring!$A:$B,2,0))+IF(AH15="y",1,0)+IF(AI15="y",1,0)+IF(AJ15="y",1,0)+IF(AK15="y",1,0),0)</f>
@@ -15009,16 +14988,16 @@
         <v>1.0</v>
       </c>
       <c r="AO15" s="81" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AP15" s="82" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AQ15" s="83" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AR15" s="87" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AS15" s="85">
         <f>IFERROR((VLOOKUP(AM15,Scoring!$A:$B,2,0))+IF(AO15="y",1,0)+IF(AP15="y",1,0)+IF(AQ15="y",1,0)+IF(AR15="y",1,0),0)</f>
@@ -15031,16 +15010,16 @@
         <v>4.0</v>
       </c>
       <c r="AV15" s="81" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AW15" s="82" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AX15" s="83" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AY15" s="87" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AZ15" s="85">
         <f>IFERROR((VLOOKUP(AT15,Scoring!$A:$B,2,0))+IF(AV15="y",1,0)+IF(AW15="y",1,0)+IF(AX15="y",1,0)+IF(AY15="y",1,0),0)</f>
@@ -15053,16 +15032,16 @@
         <v>2.0</v>
       </c>
       <c r="BC15" s="81" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BD15" s="82" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BE15" s="83" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BF15" s="87" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BG15" s="85">
         <f>IFERROR((VLOOKUP(BA15,Scoring!$D:$E,2,0))+IF(BC15="y",1,0)+IF(BD15="y",1,0)+IF(BE15="y",1,0)+IF(BF15="y",1,0),0)</f>
@@ -15075,16 +15054,16 @@
         <v>14.0</v>
       </c>
       <c r="BJ15" s="81" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BK15" s="82" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="BL15" s="83" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BM15" s="87" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BN15" s="85">
         <f>IFERROR((VLOOKUP(BH15,Scoring!$A:$B,2,0))+IF(BJ15="y",1,0)+IF(BK15="y",1,0)+IF(BL15="y",1,0)+IF(BM15="y",1,0),0)</f>
@@ -15097,16 +15076,16 @@
         <v>2.0</v>
       </c>
       <c r="BQ15" s="81" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BR15" s="82" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BS15" s="83" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BT15" s="87" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BU15" s="85">
         <f>IFERROR((VLOOKUP(BO15,Scoring!$D:$E,2,0))+IF(BQ15="y",1,0)+IF(BR15="y",1,0)+IF(BS15="y",1,0)+IF(BT15="y",1,0),0)</f>
@@ -15119,16 +15098,16 @@
         <v>13.0</v>
       </c>
       <c r="BX15" s="81" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="BY15" s="82" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="BZ15" s="83" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CA15" s="87" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CB15" s="85">
         <f>IFERROR((VLOOKUP(BV15,Scoring!$A:$B,2,0))+IF(BX15="y",1,0)+IF(BY15="y",1,0)+IF(BZ15="y",1,0)+IF(CA15="y",1,0),0)</f>
@@ -15141,16 +15120,16 @@
         <v>10.0</v>
       </c>
       <c r="CE15" s="81" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="CF15" s="82" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="CG15" s="83" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CH15" s="87" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CI15" s="85">
         <f>IFERROR((VLOOKUP(CC15,Scoring!$A:$B,2,0))+IF(CE15="y",1,0)+IF(CF15="y",1,0)+IF(CG15="y",1,0)+IF(CH15="y",1,0),0)</f>
@@ -15163,16 +15142,16 @@
         <v>4.0</v>
       </c>
       <c r="CL15" s="81" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CM15" s="82" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CN15" s="83" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CO15" s="87" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="CP15" s="85">
         <f>IFERROR((VLOOKUP(CJ15,Scoring!$A:$B,2,0))+IF(CL15="y",1,0)+IF(CM15="y",1,0)+IF(CN15="y",1,0)+IF(CO15="y",1,0),0)</f>
@@ -15185,16 +15164,16 @@
         <v>1.0</v>
       </c>
       <c r="CS15" s="81" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CT15" s="82" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CU15" s="83" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CV15" s="87" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="CW15" s="85">
         <f>IFERROR((VLOOKUP(CQ15,Scoring!$A:$B,2,0))+IF(CS15="y",1,0)+IF(CT15="y",1,0)+IF(CU15="y",1,0)+IF(CV15="y",1,0),0)</f>
@@ -15207,16 +15186,16 @@
         <v>2.0</v>
       </c>
       <c r="CZ15" s="81" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="DA15" s="82" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DB15" s="83" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DC15" s="87" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="DD15" s="85">
         <f>IFERROR((VLOOKUP(CX15,Scoring!$A:$B,2,0))+IF(CZ15="y",1,0)+IF(DA15="y",1,0)+IF(DB15="y",1,0)+IF(DC15="y",1,0),0)</f>
@@ -15243,6 +15222,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18">
+      <c r="DP18" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Notes" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Scoring" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Season1" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="S1Schedule" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Season2" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="S2Schedule" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Season3" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="S3Schedule" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Season4" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="S4Schedule" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="Notes" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="Scoring" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="Season1" sheetId="3" r:id="rId7"/>
+    <sheet state="visible" name="S1Schedule" sheetId="4" r:id="rId8"/>
+    <sheet state="visible" name="Season2" sheetId="5" r:id="rId9"/>
+    <sheet state="visible" name="S2Schedule" sheetId="6" r:id="rId10"/>
+    <sheet state="visible" name="Season3" sheetId="7" r:id="rId11"/>
+    <sheet state="visible" name="S3Schedule" sheetId="8" r:id="rId12"/>
+    <sheet state="visible" name="Season4" sheetId="9" r:id="rId13"/>
+    <sheet state="visible" name="S4Schedule" sheetId="10" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="296">
   <si>
     <t>Positions</t>
   </si>
@@ -379,16 +379,16 @@
     <t>BrazilPoints</t>
   </si>
   <si>
-    <t>VegasPlace</t>
-  </si>
-  <si>
-    <t>VegasQualifying</t>
-  </si>
-  <si>
-    <t>VegasFastestLap</t>
-  </si>
-  <si>
-    <t>VegasPoints</t>
+    <t>Las VegasPlace</t>
+  </si>
+  <si>
+    <t>Las VegasQualifying</t>
+  </si>
+  <si>
+    <t>Las VegasFastestLap</t>
+  </si>
+  <si>
+    <t>Las VegasPoints</t>
   </si>
   <si>
     <t>Abu DhabiPlace</t>
@@ -496,7 +496,7 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>Vegas</t>
+    <t>Las Vegas</t>
   </si>
   <si>
     <t>Abu Dhabi</t>
@@ -673,25 +673,25 @@
     <t>BakuCD</t>
   </si>
   <si>
-    <t>AustriaReversePlace</t>
-  </si>
-  <si>
-    <t>AustriaReverseQualifying</t>
-  </si>
-  <si>
-    <t>AustriaReverseFastestLap</t>
-  </si>
-  <si>
-    <t>AustriaReverseDOTD</t>
-  </si>
-  <si>
-    <t>AustriaReverseMOT</t>
-  </si>
-  <si>
-    <t>AustriaReverseCD</t>
-  </si>
-  <si>
-    <t>AustriaReversePoints</t>
+    <t>Austria ReversePlace</t>
+  </si>
+  <si>
+    <t>Austria ReverseQualifying</t>
+  </si>
+  <si>
+    <t>Austria ReverseFastestLap</t>
+  </si>
+  <si>
+    <t>Austria ReverseDOTD</t>
+  </si>
+  <si>
+    <t>Austria ReverseMOT</t>
+  </si>
+  <si>
+    <t>Austria ReverseCD</t>
+  </si>
+  <si>
+    <t>Austria ReversePoints</t>
   </si>
   <si>
     <t>Spa SprintPlace</t>
@@ -793,15 +793,6 @@
     <t>JeddahPoints</t>
   </si>
   <si>
-    <t>Las VegasPlace</t>
-  </si>
-  <si>
-    <t>Las VegasQualifying</t>
-  </si>
-  <si>
-    <t>Las VegasFastestLap</t>
-  </si>
-  <si>
     <t>Las VegasDOTD</t>
   </si>
   <si>
@@ -811,9 +802,6 @@
     <t>Las VegasCD</t>
   </si>
   <si>
-    <t>Las VegasPoints</t>
-  </si>
-  <si>
     <t>Abu DhabiDOTD</t>
   </si>
   <si>
@@ -877,7 +865,7 @@
     <t>11/5/2025</t>
   </si>
   <si>
-    <t>Austria (Reverse)</t>
+    <t>Austria Reverse</t>
   </si>
   <si>
     <t>11/12/2025</t>
@@ -907,16 +895,10 @@
     <t>1/7/2026</t>
   </si>
   <si>
-    <t>Las Vegas</t>
-  </si>
-  <si>
     <t>1/14/2026</t>
   </si>
   <si>
     <t>Tentative</t>
-  </si>
-  <si>
-    <t>Imola</t>
   </si>
   <si>
     <t>1/21/2026</t>
@@ -1140,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1178,6 +1160,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1411,6 +1396,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -1901,219 +1890,219 @@
         <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="93" t="s">
-        <v>277</v>
+        <v>272</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>273</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="93" t="s">
-        <v>279</v>
+      <c r="B3" s="94" t="s">
+        <v>275</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B4" s="93" t="s">
-        <v>281</v>
+        <v>276</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>277</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>281</v>
+      <c r="B5" s="94" t="s">
+        <v>277</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="93" t="s">
-        <v>282</v>
+      <c r="B6" s="94" t="s">
+        <v>278</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="93" t="s">
-        <v>283</v>
+      <c r="B7" s="94" t="s">
+        <v>279</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B8" s="93" t="s">
-        <v>284</v>
+      <c r="B8" s="94" t="s">
+        <v>280</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B9" s="93" t="s">
-        <v>286</v>
+        <v>281</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>282</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B10" s="93" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>284</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="93" t="s">
-        <v>288</v>
+      <c r="B11" s="94" t="s">
+        <v>284</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B12" s="93" t="s">
-        <v>290</v>
+        <v>285</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>286</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="93" t="s">
-        <v>290</v>
+      <c r="B13" s="94" t="s">
+        <v>286</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="93" t="s">
-        <v>291</v>
+      <c r="B14" s="94" t="s">
+        <v>287</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="93" t="s">
-        <v>292</v>
+      <c r="B15" s="94" t="s">
+        <v>288</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B16" s="93" t="s">
-        <v>294</v>
+        <v>289</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>290</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B17" s="93" t="s">
-        <v>294</v>
+        <v>158</v>
+      </c>
+      <c r="B17" s="94" t="s">
+        <v>290</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B18" s="93" t="s">
-        <v>296</v>
+      <c r="B18" s="94" t="s">
+        <v>291</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B19" s="93" t="s">
-        <v>299</v>
+        <v>151</v>
+      </c>
+      <c r="B19" s="94" t="s">
+        <v>293</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B20" s="93" t="s">
-        <v>301</v>
+        <v>294</v>
+      </c>
+      <c r="B20" s="94" t="s">
+        <v>295</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -10105,25 +10094,25 @@
         <v>256</v>
       </c>
       <c r="CX1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="CY1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="CZ1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="DA1" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="DB1" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="CZ1" s="8" t="s">
+      <c r="DC1" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="DA1" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="DB1" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="DC1" s="11" t="s">
-        <v>262</v>
-      </c>
       <c r="DD1" s="12" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="DE1" s="6" t="s">
         <v>123</v>
@@ -10135,13 +10124,13 @@
         <v>125</v>
       </c>
       <c r="DH1" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="DI1" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="DJ1" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="DK1" s="12" t="s">
         <v>126</v>
@@ -10156,5075 +10145,5288 @@
         <v>93</v>
       </c>
       <c r="DO1" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="DP1" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="DQ1" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="DR1" s="12" t="s">
         <v>94</v>
       </c>
+      <c r="DS1" s="13" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="16">
         <v>2.0</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="17">
         <v>3.0</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="J2" s="21">
+      <c r="F2" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="J2" s="22">
         <f>IFERROR((VLOOKUP(D2,Scoring!$A:$B,2,0))+IF(F2="y",1,0)+IF(G2="y",1,0)+IF(H2="y",1,0)+IF(I2="y",1,0),0)</f>
         <v>19</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="16">
         <v>8.0</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="17">
         <v>2.0</v>
       </c>
-      <c r="M2" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q2" s="22">
+      <c r="M2" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q2" s="23">
         <f>IFERROR((VLOOKUP(K2,Scoring!$D:$E,2,0))+IF(M2="y",1,0)+IF(N2="y",1,0)+IF(O2="y",1,0)+IF(P2="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="16">
         <v>3.0</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="17">
         <v>7.0</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="X2" s="21">
+      <c r="T2" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="X2" s="22">
         <f>IFERROR((VLOOKUP(R2,Scoring!$A:$B,2,0))+IF(T2="y",1,0)+IF(U2="y",1,0)+IF(V2="y",1,0)+IF(W2="y",1,0),0)</f>
         <v>16</v>
       </c>
-      <c r="Y2" s="15">
+      <c r="Y2" s="16">
         <v>2.0</v>
       </c>
-      <c r="Z2" s="16">
+      <c r="Z2" s="17">
         <v>2.0</v>
       </c>
-      <c r="AA2" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB2" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC2" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE2" s="21">
+      <c r="AA2" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD2" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE2" s="22">
         <f>IFERROR((VLOOKUP(Y2,Scoring!$A:$B,2,0))+IF(AA2="y",1,0)+IF(AB2="y",1,0)+IF(AC2="y",1,0)+IF(AD2="y",1,0),0)</f>
         <v>19</v>
       </c>
-      <c r="AF2" s="15">
+      <c r="AF2" s="16">
         <v>5.0</v>
       </c>
-      <c r="AG2" s="16">
+      <c r="AG2" s="17">
         <v>2.0</v>
       </c>
-      <c r="AH2" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI2" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ2" s="19" t="s">
-        <v>271</v>
+      <c r="AH2" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI2" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ2" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="AK2" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL2" s="21">
+        <v>267</v>
+      </c>
+      <c r="AL2" s="22">
         <f>IFERROR((VLOOKUP(AF2,Scoring!$A:$B,2,0))+IF(AH2="y",1,0)+IF(AI2="y",1,0)+IF(AJ2="y",1,0)+IF(AK2="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="AM2" s="15">
+      <c r="AM2" s="16">
         <v>2.0</v>
       </c>
-      <c r="AN2" s="16">
+      <c r="AN2" s="17">
         <v>2.0</v>
       </c>
-      <c r="AO2" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP2" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ2" s="19" t="s">
-        <v>271</v>
+      <c r="AO2" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP2" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ2" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="AR2" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS2" s="21">
+        <v>267</v>
+      </c>
+      <c r="AS2" s="22">
         <f>IFERROR((VLOOKUP(AM2,Scoring!$A:$B,2,0))+IF(AO2="y",1,0)+IF(AP2="y",1,0)+IF(AQ2="y",1,0)+IF(AR2="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="AT2" s="15">
+      <c r="AT2" s="16">
         <v>2.0</v>
       </c>
-      <c r="AU2" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AV2" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="AW2" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="AX2" s="19" t="s">
-        <v>271</v>
+      <c r="AU2" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="AV2" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW2" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX2" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ2" s="21">
+        <v>267</v>
+      </c>
+      <c r="AZ2" s="22">
         <f>IFERROR((VLOOKUP(AT2,Scoring!$A:$B,2,0))+IF(AV2="y",1,0)+IF(AW2="y",1,0)+IF(AX2="y",1,0)+IF(AY2="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="BA2" s="15">
+      <c r="BA2" s="16">
         <v>4.0</v>
       </c>
-      <c r="BB2" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="BC2" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD2" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE2" s="19" t="s">
-        <v>271</v>
+      <c r="BB2" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="BC2" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD2" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE2" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="BF2" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG2" s="21">
+        <v>267</v>
+      </c>
+      <c r="BG2" s="22">
         <f>IFERROR((VLOOKUP(BA2,Scoring!$D:$E,2,0))+IF(BC2="y",1,0)+IF(BD2="y",1,0)+IF(BE2="y",1,0)+IF(BF2="y",1,0),0)</f>
         <v>5</v>
       </c>
-      <c r="BH2" s="15">
+      <c r="BH2" s="16">
         <v>6.0</v>
       </c>
-      <c r="BI2" s="16">
+      <c r="BI2" s="17">
         <v>12.0</v>
       </c>
-      <c r="BJ2" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="BK2" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL2" s="19" t="s">
-        <v>271</v>
+      <c r="BJ2" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="BK2" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL2" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="BM2" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="BN2" s="21">
+        <v>267</v>
+      </c>
+      <c r="BN2" s="22">
         <f>IFERROR((VLOOKUP(BH2,Scoring!$A:$B,2,0))+IF(BJ2="y",1,0)+IF(BK2="y",1,0)+IF(BL2="y",1,0)+IF(BM2="y",1,0),0)</f>
         <v>9</v>
       </c>
-      <c r="BO2" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="BP2" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="BQ2" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="BR2" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="BS2" s="19" t="s">
-        <v>271</v>
+      <c r="BO2" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="BP2" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="BQ2" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR2" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS2" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="BT2" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="BU2" s="21">
+        <v>267</v>
+      </c>
+      <c r="BU2" s="22">
         <f>IFERROR((VLOOKUP(BO2,Scoring!$D:$E,2,0))+IF(BQ2="y",1,0)+IF(BR2="y",1,0)+IF(BS2="y",1,0)+IF(BT2="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="BV2" s="15">
+      <c r="BV2" s="16">
         <v>2.0</v>
       </c>
-      <c r="BW2" s="16">
+      <c r="BW2" s="17">
         <v>15.0</v>
       </c>
-      <c r="BX2" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="BY2" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="BZ2" s="19" t="s">
-        <v>270</v>
+      <c r="BX2" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY2" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ2" s="20" t="s">
+        <v>266</v>
       </c>
       <c r="CA2" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="CB2" s="21">
+        <v>267</v>
+      </c>
+      <c r="CB2" s="22">
         <f>IFERROR((VLOOKUP(BV2,Scoring!$A:$B,2,0))+IF(BX2="y",1,0)+IF(BY2="y",1,0)+IF(BZ2="y",1,0)+IF(CA2="y",1,0),0)</f>
         <v>19</v>
       </c>
-      <c r="CC2" s="15">
+      <c r="CC2" s="16">
         <v>2.0</v>
       </c>
-      <c r="CD2" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="CE2" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="CF2" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="CG2" s="19" t="s">
-        <v>271</v>
+      <c r="CD2" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="CE2" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF2" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG2" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="CH2" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="CI2" s="21">
+        <v>267</v>
+      </c>
+      <c r="CI2" s="22">
         <f>IFERROR((VLOOKUP(CC2,Scoring!$A:$B,2,0))+IF(CE2="y",1,0)+IF(CF2="y",1,0)+IF(CG2="y",1,0)+IF(CH2="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="CJ2" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="CK2" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="CL2" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="CM2" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="CN2" s="19" t="s">
-        <v>271</v>
+      <c r="CJ2" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="CK2" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="CL2" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="CM2" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN2" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="CO2" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="CP2" s="21">
+        <v>267</v>
+      </c>
+      <c r="CP2" s="22">
         <f>IFERROR((VLOOKUP(CJ2,Scoring!$A:$B,2,0))+IF(CL2="y",1,0)+IF(CM2="y",1,0)+IF(CN2="y",1,0)+IF(CO2="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="CQ2" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="CR2" s="16">
+      <c r="CQ2" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="CR2" s="17">
         <v>2.0</v>
       </c>
-      <c r="CS2" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="CT2" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="CU2" s="19" t="s">
-        <v>271</v>
+      <c r="CS2" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT2" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU2" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="CV2" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="CW2" s="21">
+        <v>267</v>
+      </c>
+      <c r="CW2" s="22">
         <f>IFERROR((VLOOKUP(CQ2,Scoring!$A:$B,2,0))+IF(CS2="y",1,0)+IF(CT2="y",1,0)+IF(CU2="y",1,0)+IF(CV2="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="CX2" s="15">
+      <c r="CX2" s="16">
         <v>5.0</v>
       </c>
-      <c r="CY2" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="CZ2" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="DA2" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="DB2" s="19" t="s">
-        <v>271</v>
+      <c r="CY2" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="CZ2" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA2" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB2" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="DC2" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="DD2" s="21">
+        <v>267</v>
+      </c>
+      <c r="DD2" s="22">
         <f>IFERROR((VLOOKUP(CX2,Scoring!$A:$B,2,0))+IF(CZ2="y",1,0)+IF(DA2="y",1,0)+IF(DB2="y",1,0)+IF(DC2="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="DE2" s="15"/>
-      <c r="DF2" s="23"/>
-      <c r="DG2" s="24"/>
-      <c r="DH2" s="25"/>
-      <c r="DI2" s="26"/>
-      <c r="DJ2" s="27"/>
-      <c r="DK2" s="21">
+      <c r="DE2" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="DF2" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="DG2" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH2" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI2" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ2" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK2" s="22">
         <f>IFERROR((VLOOKUP(DE2,Scoring!$A:$B,2,0))+IF(DG2="y",1,0)+IF(DH2="y",1,0)+IF(DI2="y",1,0)+IF(DJ2="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="DL2" s="15"/>
-      <c r="DM2" s="23"/>
-      <c r="DN2" s="24"/>
-      <c r="DO2" s="25"/>
-      <c r="DP2" s="26"/>
-      <c r="DQ2" s="27"/>
-      <c r="DR2" s="21">
+        <v>15</v>
+      </c>
+      <c r="DL2" s="16"/>
+      <c r="DM2" s="24"/>
+      <c r="DN2" s="25"/>
+      <c r="DO2" s="26"/>
+      <c r="DP2" s="27"/>
+      <c r="DQ2" s="28"/>
+      <c r="DR2" s="22">
         <f>IFERROR((VLOOKUP(DL2,Scoring!$A:$B,2,0))+IF(DN2="y",1,0)+IF(DO2="y",1,0)+IF(DP2="y",1,0)+IF(DQ2="y",1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="DS2" s="13">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="29">
         <v>10.0</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="30">
         <v>6.0</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="J3" s="34">
+      <c r="F3" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="J3" s="35">
         <f>IFERROR((VLOOKUP(D3,Scoring!$A:$B,2,0))+IF(F3="y",1,0)+IF(G3="y",1,0)+IF(H3="y",1,0)+IF(I3="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="K3" s="28">
-        <v>22.0</v>
-      </c>
-      <c r="L3" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="P3" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q3" s="35">
+      <c r="K3" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="L3" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q3" s="36">
         <f>IFERROR((VLOOKUP(K3,Scoring!$D:$E,2,0))+IF(M3="y",1,0)+IF(N3="y",1,0)+IF(O3="y",1,0)+IF(P3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="28">
-        <v>22.0</v>
-      </c>
-      <c r="S3" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="T3" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="U3" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="V3" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="W3" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="X3" s="34">
+      <c r="R3" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="S3" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="U3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="V3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="X3" s="35">
         <f>IFERROR((VLOOKUP(R3,Scoring!$A:$B,2,0))+IF(T3="y",1,0)+IF(U3="y",1,0)+IF(V3="y",1,0)+IF(W3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="28">
+      <c r="Y3" s="29">
         <v>11.0</v>
       </c>
-      <c r="Z3" s="29">
+      <c r="Z3" s="30">
         <v>7.0</v>
       </c>
-      <c r="AA3" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB3" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC3" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD3" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE3" s="34">
+      <c r="AA3" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD3" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE3" s="35">
         <f>IFERROR((VLOOKUP(Y3,Scoring!$A:$B,2,0))+IF(AA3="y",1,0)+IF(AB3="y",1,0)+IF(AC3="y",1,0)+IF(AD3="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AF3" s="28">
-        <v>22.0</v>
-      </c>
-      <c r="AG3" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="AH3" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI3" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ3" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK3" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL3" s="34">
+      <c r="AF3" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="AG3" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="AH3" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK3" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL3" s="35">
         <f>IFERROR((VLOOKUP(AF3,Scoring!$A:$B,2,0))+IF(AH3="y",1,0)+IF(AI3="y",1,0)+IF(AJ3="y",1,0)+IF(AK3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="28">
+      <c r="AM3" s="29">
         <v>21.0</v>
       </c>
-      <c r="AN3" s="29">
+      <c r="AN3" s="30">
         <v>6.0</v>
       </c>
-      <c r="AO3" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP3" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ3" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR3" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS3" s="34">
+      <c r="AO3" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR3" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS3" s="35">
         <f>IFERROR((VLOOKUP(AM3,Scoring!$A:$B,2,0))+IF(AO3="y",1,0)+IF(AP3="y",1,0)+IF(AQ3="y",1,0)+IF(AR3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT3" s="28">
+      <c r="AT3" s="29">
         <v>7.0</v>
       </c>
-      <c r="AU3" s="29">
+      <c r="AU3" s="30">
         <v>6.0</v>
       </c>
-      <c r="AV3" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AW3" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AX3" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY3" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ3" s="34">
+      <c r="AV3" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY3" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ3" s="35">
         <f>IFERROR((VLOOKUP(AT3,Scoring!$A:$B,2,0))+IF(AV3="y",1,0)+IF(AW3="y",1,0)+IF(AX3="y",1,0)+IF(AY3="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="BA3" s="28">
+      <c r="BA3" s="29">
         <v>6.0</v>
       </c>
-      <c r="BB3" s="29">
+      <c r="BB3" s="30">
         <v>8.0</v>
       </c>
-      <c r="BC3" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD3" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE3" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="BF3" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG3" s="34">
+      <c r="BC3" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF3" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG3" s="35">
         <f>IFERROR((VLOOKUP(BA3,Scoring!$D:$E,2,0))+IF(BC3="y",1,0)+IF(BD3="y",1,0)+IF(BE3="y",1,0)+IF(BF3="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="BH3" s="28">
+      <c r="BH3" s="29">
         <v>5.0</v>
       </c>
-      <c r="BI3" s="29">
+      <c r="BI3" s="30">
         <v>10.0</v>
       </c>
-      <c r="BJ3" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BK3" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL3" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM3" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="BN3" s="34">
+      <c r="BJ3" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM3" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN3" s="35">
         <f>IFERROR((VLOOKUP(BH3,Scoring!$A:$B,2,0))+IF(BJ3="y",1,0)+IF(BK3="y",1,0)+IF(BL3="y",1,0)+IF(BM3="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="BO3" s="28">
+      <c r="BO3" s="29">
         <v>8.0</v>
       </c>
-      <c r="BP3" s="29">
+      <c r="BP3" s="30">
         <v>9.0</v>
       </c>
-      <c r="BQ3" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BR3" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BS3" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="BT3" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="BU3" s="34">
+      <c r="BQ3" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT3" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU3" s="35">
         <f>IFERROR((VLOOKUP(BO3,Scoring!$D:$E,2,0))+IF(BQ3="y",1,0)+IF(BR3="y",1,0)+IF(BS3="y",1,0)+IF(BT3="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="BV3" s="28">
+      <c r="BV3" s="29">
         <v>8.0</v>
       </c>
-      <c r="BW3" s="29">
+      <c r="BW3" s="30">
         <v>8.0</v>
       </c>
-      <c r="BX3" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BY3" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BZ3" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CA3" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CB3" s="34">
+      <c r="BX3" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA3" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB3" s="35">
         <f>IFERROR((VLOOKUP(BV3,Scoring!$A:$B,2,0))+IF(BX3="y",1,0)+IF(BY3="y",1,0)+IF(BZ3="y",1,0)+IF(CA3="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="CC3" s="28">
+      <c r="CC3" s="29">
         <v>10.0</v>
       </c>
-      <c r="CD3" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="CE3" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="CF3" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="CG3" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="CH3" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CI3" s="34">
+      <c r="CD3" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="CE3" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG3" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="CH3" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI3" s="35">
         <f>IFERROR((VLOOKUP(CC3,Scoring!$A:$B,2,0))+IF(CE3="y",1,0)+IF(CF3="y",1,0)+IF(CG3="y",1,0)+IF(CH3="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="CJ3" s="28">
+      <c r="CJ3" s="29">
         <v>12.0</v>
       </c>
-      <c r="CK3" s="29">
+      <c r="CK3" s="30">
         <v>6.0</v>
       </c>
-      <c r="CL3" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="CM3" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="CN3" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CO3" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CP3" s="34">
+      <c r="CL3" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO3" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP3" s="35">
         <f>IFERROR((VLOOKUP(CJ3,Scoring!$A:$B,2,0))+IF(CL3="y",1,0)+IF(CM3="y",1,0)+IF(CN3="y",1,0)+IF(CO3="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="CQ3" s="28">
+      <c r="CQ3" s="29">
         <v>7.0</v>
       </c>
-      <c r="CR3" s="29">
+      <c r="CR3" s="30">
         <v>14.0</v>
       </c>
-      <c r="CS3" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="CT3" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="CU3" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CV3" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CW3" s="34">
+      <c r="CS3" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV3" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW3" s="35">
         <f>IFERROR((VLOOKUP(CQ3,Scoring!$A:$B,2,0))+IF(CS3="y",1,0)+IF(CT3="y",1,0)+IF(CU3="y",1,0)+IF(CV3="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="CX3" s="28">
-        <v>22.0</v>
-      </c>
-      <c r="CY3" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="CZ3" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="DA3" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="DB3" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="DC3" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="DD3" s="34">
+      <c r="CX3" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="CY3" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="CZ3" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC3" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD3" s="35">
         <f>IFERROR((VLOOKUP(CX3,Scoring!$A:$B,2,0))+IF(CZ3="y",1,0)+IF(DA3="y",1,0)+IF(DB3="y",1,0)+IF(DC3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE3" s="28"/>
-      <c r="DF3" s="37"/>
-      <c r="DG3" s="38"/>
-      <c r="DH3" s="39"/>
-      <c r="DI3" s="40"/>
-      <c r="DJ3" s="41"/>
-      <c r="DK3" s="34">
+      <c r="DE3" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="DF3" s="30">
+        <v>8.0</v>
+      </c>
+      <c r="DG3" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ3" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK3" s="35">
         <f>IFERROR((VLOOKUP(DE3,Scoring!$A:$B,2,0))+IF(DG3="y",1,0)+IF(DH3="y",1,0)+IF(DI3="y",1,0)+IF(DJ3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="DL3" s="28"/>
-      <c r="DM3" s="37"/>
-      <c r="DN3" s="38"/>
-      <c r="DO3" s="39"/>
-      <c r="DP3" s="40"/>
-      <c r="DQ3" s="41"/>
-      <c r="DR3" s="34">
+        <v>10</v>
+      </c>
+      <c r="DL3" s="29"/>
+      <c r="DM3" s="38"/>
+      <c r="DN3" s="39"/>
+      <c r="DO3" s="40"/>
+      <c r="DP3" s="41"/>
+      <c r="DQ3" s="42"/>
+      <c r="DR3" s="35">
         <f>IFERROR((VLOOKUP(DL3,Scoring!$A:$B,2,0))+IF(DN3="y",1,0)+IF(DO3="y",1,0)+IF(DP3="y",1,0)+IF(DQ3="y",1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="DS3" s="13">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="46">
         <v>3.0</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="47">
         <v>2.0</v>
       </c>
-      <c r="F4" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="J4" s="51">
+      <c r="F4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="J4" s="52">
         <f>IFERROR((VLOOKUP(D4,Scoring!$A:$B,2,0))+IF(F4="y",1,0)+IF(G4="y",1,0)+IF(H4="y",1,0)+IF(I4="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="46">
         <v>4.0</v>
       </c>
-      <c r="L4" s="46">
+      <c r="L4" s="47">
         <v>3.0</v>
       </c>
-      <c r="M4" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="N4" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="O4" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="P4" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q4" s="52">
+      <c r="M4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="O4" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="P4" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q4" s="53">
         <f>IFERROR((VLOOKUP(K4,Scoring!$D:$E,2,0))+IF(M4="y",1,0)+IF(N4="y",1,0)+IF(O4="y",1,0)+IF(P4="y",1,0),0)</f>
         <v>5</v>
       </c>
-      <c r="R4" s="45">
-        <v>1.0</v>
-      </c>
-      <c r="S4" s="46">
+      <c r="R4" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="S4" s="47">
         <v>11.0</v>
       </c>
-      <c r="T4" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="U4" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="V4" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="W4" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="X4" s="51">
+      <c r="T4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="U4" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="V4" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="W4" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="X4" s="52">
         <f>IFERROR((VLOOKUP(R4,Scoring!$A:$B,2,0))+IF(T4="y",1,0)+IF(U4="y",1,0)+IF(V4="y",1,0)+IF(W4="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="Y4" s="45">
+      <c r="Y4" s="46">
         <v>10.0</v>
       </c>
-      <c r="Z4" s="46">
+      <c r="Z4" s="47">
         <v>14.0</v>
       </c>
-      <c r="AA4" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB4" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC4" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="AD4" s="50" t="s">
-        <v>270</v>
-      </c>
-      <c r="AE4" s="51">
+      <c r="AA4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB4" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC4" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD4" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE4" s="52">
         <f>IFERROR((VLOOKUP(Y4,Scoring!$A:$B,2,0))+IF(AA4="y",1,0)+IF(AB4="y",1,0)+IF(AC4="y",1,0)+IF(AD4="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="AF4" s="45">
+      <c r="AF4" s="46">
         <v>6.0</v>
       </c>
-      <c r="AG4" s="46">
+      <c r="AG4" s="47">
         <v>4.0</v>
       </c>
-      <c r="AH4" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI4" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ4" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK4" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="AL4" s="51">
+      <c r="AH4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI4" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ4" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK4" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="AL4" s="52">
         <f>IFERROR((VLOOKUP(AF4,Scoring!$A:$B,2,0))+IF(AH4="y",1,0)+IF(AI4="y",1,0)+IF(AJ4="y",1,0)+IF(AK4="y",1,0),0)</f>
         <v>9</v>
       </c>
-      <c r="AM4" s="45">
+      <c r="AM4" s="46">
         <v>3.0</v>
       </c>
-      <c r="AN4" s="46">
+      <c r="AN4" s="47">
         <v>5.0</v>
       </c>
-      <c r="AO4" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP4" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ4" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR4" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS4" s="51">
+      <c r="AO4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP4" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ4" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR4" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS4" s="52">
         <f>IFERROR((VLOOKUP(AM4,Scoring!$A:$B,2,0))+IF(AO4="y",1,0)+IF(AP4="y",1,0)+IF(AQ4="y",1,0)+IF(AR4="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="AT4" s="45">
+      <c r="AT4" s="46">
         <v>4.0</v>
       </c>
-      <c r="AU4" s="46">
+      <c r="AU4" s="47">
         <v>2.0</v>
       </c>
-      <c r="AV4" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="AW4" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="AX4" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY4" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ4" s="51">
+      <c r="AV4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW4" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX4" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY4" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ4" s="52">
         <f>IFERROR((VLOOKUP(AT4,Scoring!$A:$B,2,0))+IF(AV4="y",1,0)+IF(AW4="y",1,0)+IF(AX4="y",1,0)+IF(AY4="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="BA4" s="45">
+      <c r="BA4" s="46">
         <v>7.0</v>
       </c>
-      <c r="BB4" s="46">
+      <c r="BB4" s="47">
         <v>6.0</v>
       </c>
-      <c r="BC4" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD4" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE4" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="BF4" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG4" s="51">
+      <c r="BC4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD4" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE4" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF4" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG4" s="52">
         <f>IFERROR((VLOOKUP(BA4,Scoring!$D:$E,2,0))+IF(BC4="y",1,0)+IF(BD4="y",1,0)+IF(BE4="y",1,0)+IF(BF4="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="BH4" s="45">
-        <v>1.0</v>
-      </c>
-      <c r="BI4" s="46">
+      <c r="BH4" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="BI4" s="47">
         <v>9.0</v>
       </c>
-      <c r="BJ4" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="BK4" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL4" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM4" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="BN4" s="51">
+      <c r="BJ4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK4" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL4" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM4" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN4" s="52">
         <f>IFERROR((VLOOKUP(BH4,Scoring!$A:$B,2,0))+IF(BJ4="y",1,0)+IF(BK4="y",1,0)+IF(BL4="y",1,0)+IF(BM4="y",1,0),0)</f>
         <v>25</v>
       </c>
-      <c r="BO4" s="45">
+      <c r="BO4" s="46">
         <v>3.0</v>
       </c>
-      <c r="BP4" s="46">
+      <c r="BP4" s="47">
         <v>4.0</v>
       </c>
-      <c r="BQ4" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="BR4" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="BS4" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="BT4" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="BU4" s="51">
+      <c r="BQ4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR4" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS4" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT4" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU4" s="52">
         <f>IFERROR((VLOOKUP(BO4,Scoring!$D:$E,2,0))+IF(BQ4="y",1,0)+IF(BR4="y",1,0)+IF(BS4="y",1,0)+IF(BT4="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="BV4" s="45">
+      <c r="BV4" s="46">
         <v>3.0</v>
       </c>
-      <c r="BW4" s="46">
+      <c r="BW4" s="47">
         <v>12.0</v>
       </c>
-      <c r="BX4" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="BY4" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="BZ4" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="CA4" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="CB4" s="51">
+      <c r="BX4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY4" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ4" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA4" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB4" s="52">
         <f>IFERROR((VLOOKUP(BV4,Scoring!$A:$B,2,0))+IF(BX4="y",1,0)+IF(BY4="y",1,0)+IF(BZ4="y",1,0)+IF(CA4="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="CC4" s="45">
+      <c r="CC4" s="46">
         <v>21.0</v>
       </c>
-      <c r="CD4" s="46">
+      <c r="CD4" s="47">
         <v>3.0</v>
       </c>
-      <c r="CE4" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="CF4" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="CG4" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="CH4" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="CI4" s="51">
+      <c r="CE4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF4" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG4" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH4" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI4" s="52">
         <f>IFERROR((VLOOKUP(CC4,Scoring!$A:$B,2,0))+IF(CE4="y",1,0)+IF(CF4="y",1,0)+IF(CG4="y",1,0)+IF(CH4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ4" s="45">
+      <c r="CJ4" s="46">
         <v>4.0</v>
       </c>
-      <c r="CK4" s="46">
+      <c r="CK4" s="47">
         <v>2.0</v>
       </c>
-      <c r="CL4" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="CM4" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="CN4" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="CO4" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="CP4" s="51">
+      <c r="CL4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM4" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN4" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO4" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP4" s="52">
         <f>IFERROR((VLOOKUP(CJ4,Scoring!$A:$B,2,0))+IF(CL4="y",1,0)+IF(CM4="y",1,0)+IF(CN4="y",1,0)+IF(CO4="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="CQ4" s="45">
+      <c r="CQ4" s="46">
         <v>4.0</v>
       </c>
-      <c r="CR4" s="46">
+      <c r="CR4" s="47">
         <v>15.0</v>
       </c>
-      <c r="CS4" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="CT4" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="CU4" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="CV4" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="CW4" s="51">
+      <c r="CS4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT4" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="CU4" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="CV4" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW4" s="52">
         <f>IFERROR((VLOOKUP(CQ4,Scoring!$A:$B,2,0))+IF(CS4="y",1,0)+IF(CT4="y",1,0)+IF(CU4="y",1,0)+IF(CV4="y",1,0),0)</f>
         <v>14</v>
       </c>
-      <c r="CX4" s="45">
+      <c r="CX4" s="46">
         <v>3.0</v>
       </c>
-      <c r="CY4" s="46">
+      <c r="CY4" s="47">
         <v>3.0</v>
       </c>
-      <c r="CZ4" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="DA4" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="DB4" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="DC4" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="DD4" s="51">
+      <c r="CZ4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA4" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB4" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC4" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD4" s="52">
         <f>IFERROR((VLOOKUP(CX4,Scoring!$A:$B,2,0))+IF(CZ4="y",1,0)+IF(DA4="y",1,0)+IF(DB4="y",1,0)+IF(DC4="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="DE4" s="45"/>
-      <c r="DF4" s="54"/>
-      <c r="DG4" s="55"/>
-      <c r="DH4" s="56"/>
-      <c r="DI4" s="57"/>
-      <c r="DJ4" s="58"/>
-      <c r="DK4" s="51">
+      <c r="DE4" s="46">
+        <v>21.0</v>
+      </c>
+      <c r="DF4" s="47">
+        <v>4.0</v>
+      </c>
+      <c r="DG4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH4" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI4" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ4" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK4" s="52">
         <f>IFERROR((VLOOKUP(DE4,Scoring!$A:$B,2,0))+IF(DG4="y",1,0)+IF(DH4="y",1,0)+IF(DI4="y",1,0)+IF(DJ4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL4" s="45"/>
-      <c r="DM4" s="54"/>
-      <c r="DN4" s="55"/>
-      <c r="DO4" s="56"/>
-      <c r="DP4" s="57"/>
-      <c r="DQ4" s="58"/>
-      <c r="DR4" s="51">
+      <c r="DL4" s="46"/>
+      <c r="DM4" s="55"/>
+      <c r="DN4" s="56"/>
+      <c r="DO4" s="57"/>
+      <c r="DP4" s="58"/>
+      <c r="DQ4" s="59"/>
+      <c r="DR4" s="52">
         <f>IFERROR((VLOOKUP(DL4,Scoring!$A:$B,2,0))+IF(DN4="y",1,0)+IF(DO4="y",1,0)+IF(DP4="y",1,0)+IF(DQ4="y",1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="DS4" s="13">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="62">
-        <v>22.0</v>
-      </c>
-      <c r="E5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="F5" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="G5" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="I5" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="J5" s="68">
+      <c r="D5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="E5" s="64">
+        <v>22.0</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="J5" s="69">
         <f>IFERROR((VLOOKUP(D5,Scoring!$A:$B,2,0))+IF(F5="y",1,0)+IF(G5="y",1,0)+IF(H5="y",1,0)+IF(I5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="63">
         <v>7.0</v>
       </c>
-      <c r="L5" s="63">
+      <c r="L5" s="64">
         <v>9.0</v>
       </c>
-      <c r="M5" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="N5" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="O5" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="P5" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q5" s="69">
+      <c r="M5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="N5" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="O5" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="P5" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q5" s="70">
         <f>IFERROR((VLOOKUP(K5,Scoring!$D:$E,2,0))+IF(M5="y",1,0)+IF(N5="y",1,0)+IF(O5="y",1,0)+IF(P5="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="R5" s="62">
+      <c r="R5" s="63">
         <v>5.0</v>
       </c>
-      <c r="S5" s="63">
+      <c r="S5" s="64">
         <v>8.0</v>
       </c>
-      <c r="T5" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="U5" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="V5" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="W5" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="X5" s="68">
+      <c r="T5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="U5" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="V5" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="W5" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="X5" s="69">
         <f>IFERROR((VLOOKUP(R5,Scoring!$A:$B,2,0))+IF(T5="y",1,0)+IF(U5="y",1,0)+IF(V5="y",1,0)+IF(W5="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="Y5" s="62">
+      <c r="Y5" s="63">
         <v>13.0</v>
       </c>
-      <c r="Z5" s="63">
+      <c r="Z5" s="64">
         <v>13.0</v>
       </c>
-      <c r="AA5" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB5" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC5" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD5" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE5" s="68">
+      <c r="AA5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB5" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC5" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD5" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE5" s="69">
         <f>IFERROR((VLOOKUP(Y5,Scoring!$A:$B,2,0))+IF(AA5="y",1,0)+IF(AB5="y",1,0)+IF(AC5="y",1,0)+IF(AD5="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AF5" s="62">
+      <c r="AF5" s="63">
         <v>10.0</v>
       </c>
-      <c r="AG5" s="63">
+      <c r="AG5" s="64">
         <v>11.0</v>
       </c>
-      <c r="AH5" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI5" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ5" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK5" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL5" s="68">
+      <c r="AH5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI5" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ5" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK5" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL5" s="69">
         <f>IFERROR((VLOOKUP(AF5,Scoring!$A:$B,2,0))+IF(AH5="y",1,0)+IF(AI5="y",1,0)+IF(AJ5="y",1,0)+IF(AK5="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="AM5" s="62">
+      <c r="AM5" s="63">
         <v>21.0</v>
       </c>
-      <c r="AN5" s="63">
+      <c r="AN5" s="64">
         <v>9.0</v>
       </c>
-      <c r="AO5" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP5" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ5" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR5" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS5" s="68">
+      <c r="AO5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP5" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ5" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR5" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS5" s="69">
         <f>IFERROR((VLOOKUP(AM5,Scoring!$A:$B,2,0))+IF(AO5="y",1,0)+IF(AP5="y",1,0)+IF(AQ5="y",1,0)+IF(AR5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="62">
-        <v>22.0</v>
-      </c>
-      <c r="AU5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="AV5" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="AW5" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="AX5" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY5" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ5" s="68">
+      <c r="AT5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="AU5" s="64">
+        <v>22.0</v>
+      </c>
+      <c r="AV5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW5" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX5" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY5" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ5" s="69">
         <f>IFERROR((VLOOKUP(AT5,Scoring!$A:$B,2,0))+IF(AV5="y",1,0)+IF(AW5="y",1,0)+IF(AX5="y",1,0)+IF(AY5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA5" s="62">
-        <v>22.0</v>
-      </c>
-      <c r="BB5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="BC5" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD5" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE5" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="BF5" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG5" s="68">
+      <c r="BA5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="BB5" s="64">
+        <v>22.0</v>
+      </c>
+      <c r="BC5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD5" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE5" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF5" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG5" s="69">
         <f>IFERROR((VLOOKUP(BA5,Scoring!$D:$E,2,0))+IF(BC5="y",1,0)+IF(BD5="y",1,0)+IF(BE5="y",1,0)+IF(BF5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH5" s="62">
-        <v>22.0</v>
-      </c>
-      <c r="BI5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="BJ5" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="BK5" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL5" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM5" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="BN5" s="68">
+      <c r="BH5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="BI5" s="64">
+        <v>22.0</v>
+      </c>
+      <c r="BJ5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK5" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL5" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM5" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN5" s="69">
         <f>IFERROR((VLOOKUP(BH5,Scoring!$A:$B,2,0))+IF(BJ5="y",1,0)+IF(BK5="y",1,0)+IF(BL5="y",1,0)+IF(BM5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO5" s="62">
-        <v>22.0</v>
-      </c>
-      <c r="BP5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="BQ5" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="BR5" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="BS5" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="BT5" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="BU5" s="68">
+      <c r="BO5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="BP5" s="64">
+        <v>22.0</v>
+      </c>
+      <c r="BQ5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR5" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS5" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT5" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU5" s="69">
         <f>IFERROR((VLOOKUP(BO5,Scoring!$D:$E,2,0))+IF(BQ5="y",1,0)+IF(BR5="y",1,0)+IF(BS5="y",1,0)+IF(BT5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV5" s="62">
-        <v>22.0</v>
-      </c>
-      <c r="BW5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="BX5" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="BY5" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="BZ5" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="CA5" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="CB5" s="68">
+      <c r="BV5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="BW5" s="64">
+        <v>22.0</v>
+      </c>
+      <c r="BX5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY5" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ5" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA5" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB5" s="69">
         <f>IFERROR((VLOOKUP(BV5,Scoring!$A:$B,2,0))+IF(BX5="y",1,0)+IF(BY5="y",1,0)+IF(BZ5="y",1,0)+IF(CA5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC5" s="62">
-        <v>22.0</v>
-      </c>
-      <c r="CD5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="CE5" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="CF5" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="CG5" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="CH5" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="CI5" s="68">
+      <c r="CC5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="CD5" s="64">
+        <v>22.0</v>
+      </c>
+      <c r="CE5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF5" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG5" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH5" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI5" s="69">
         <f>IFERROR((VLOOKUP(CC5,Scoring!$A:$B,2,0))+IF(CE5="y",1,0)+IF(CF5="y",1,0)+IF(CG5="y",1,0)+IF(CH5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ5" s="62">
-        <v>22.0</v>
-      </c>
-      <c r="CK5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="CL5" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="CM5" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="CN5" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="CO5" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="CP5" s="68">
+      <c r="CJ5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="CK5" s="64">
+        <v>22.0</v>
+      </c>
+      <c r="CL5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM5" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN5" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO5" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP5" s="69">
         <f>IFERROR((VLOOKUP(CJ5,Scoring!$A:$B,2,0))+IF(CL5="y",1,0)+IF(CM5="y",1,0)+IF(CN5="y",1,0)+IF(CO5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ5" s="62">
-        <v>22.0</v>
-      </c>
-      <c r="CR5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="CS5" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="CT5" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="CU5" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="CV5" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="CW5" s="68">
+      <c r="CQ5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="CR5" s="64">
+        <v>22.0</v>
+      </c>
+      <c r="CS5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT5" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU5" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV5" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW5" s="69">
         <f>IFERROR((VLOOKUP(CQ5,Scoring!$A:$B,2,0))+IF(CS5="y",1,0)+IF(CT5="y",1,0)+IF(CU5="y",1,0)+IF(CV5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX5" s="62">
-        <v>22.0</v>
-      </c>
-      <c r="CY5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="CZ5" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="DA5" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="DB5" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="DC5" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="DD5" s="68">
+      <c r="CX5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="CY5" s="64">
+        <v>22.0</v>
+      </c>
+      <c r="CZ5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA5" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB5" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC5" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD5" s="69">
         <f>IFERROR((VLOOKUP(CX5,Scoring!$A:$B,2,0))+IF(CZ5="y",1,0)+IF(DA5="y",1,0)+IF(DB5="y",1,0)+IF(DC5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE5" s="62"/>
-      <c r="DF5" s="71"/>
-      <c r="DG5" s="72"/>
-      <c r="DH5" s="73"/>
-      <c r="DI5" s="74"/>
-      <c r="DJ5" s="75"/>
-      <c r="DK5" s="68">
+      <c r="DE5" s="63">
+        <v>22.0</v>
+      </c>
+      <c r="DF5" s="64">
+        <v>22.0</v>
+      </c>
+      <c r="DG5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH5" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI5" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ5" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK5" s="69">
         <f>IFERROR((VLOOKUP(DE5,Scoring!$A:$B,2,0))+IF(DG5="y",1,0)+IF(DH5="y",1,0)+IF(DI5="y",1,0)+IF(DJ5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL5" s="62"/>
-      <c r="DM5" s="71"/>
-      <c r="DN5" s="72"/>
-      <c r="DO5" s="73"/>
-      <c r="DP5" s="74"/>
-      <c r="DQ5" s="75"/>
-      <c r="DR5" s="68">
+      <c r="DL5" s="63"/>
+      <c r="DM5" s="72"/>
+      <c r="DN5" s="73"/>
+      <c r="DO5" s="74"/>
+      <c r="DP5" s="75"/>
+      <c r="DQ5" s="76"/>
+      <c r="DR5" s="69">
         <f>IFERROR((VLOOKUP(DL5,Scoring!$A:$B,2,0))+IF(DN5="y",1,0)+IF(DO5="y",1,0)+IF(DP5="y",1,0)+IF(DQ5="y",1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="DS5" s="13">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="29">
+      <c r="D6" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="30">
         <v>4.0</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="J6" s="34">
+      <c r="F6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="J6" s="35">
         <f>IFERROR((VLOOKUP(D6,Scoring!$A:$B,2,0))+IF(F6="y",1,0)+IF(G6="y",1,0)+IF(H6="y",1,0)+IF(I6="y",1,0),0)</f>
         <v>25</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="29">
         <v>3.0</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="30">
         <v>5.0</v>
       </c>
-      <c r="M6" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q6" s="35">
+      <c r="M6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q6" s="36">
         <f>IFERROR((VLOOKUP(K6,Scoring!$D:$E,2,0))+IF(M6="y",1,0)+IF(N6="y",1,0)+IF(O6="y",1,0)+IF(P6="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="29">
         <v>9.0</v>
       </c>
-      <c r="S6" s="29">
+      <c r="S6" s="30">
         <v>12.0</v>
       </c>
-      <c r="T6" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="U6" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="V6" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="W6" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="X6" s="34">
+      <c r="T6" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="U6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="V6" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="W6" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="X6" s="35">
         <f>IFERROR((VLOOKUP(R6,Scoring!$A:$B,2,0))+IF(T6="y",1,0)+IF(U6="y",1,0)+IF(V6="y",1,0)+IF(W6="y",1,0),0)</f>
         <v>5</v>
       </c>
-      <c r="Y6" s="28">
+      <c r="Y6" s="29">
         <v>3.0</v>
       </c>
-      <c r="Z6" s="29">
+      <c r="Z6" s="30">
         <v>6.0</v>
       </c>
-      <c r="AA6" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB6" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC6" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD6" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE6" s="34">
+      <c r="AA6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC6" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD6" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE6" s="35">
         <f>IFERROR((VLOOKUP(Y6,Scoring!$A:$B,2,0))+IF(AA6="y",1,0)+IF(AB6="y",1,0)+IF(AC6="y",1,0)+IF(AD6="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="AF6" s="28">
+      <c r="AF6" s="29">
         <v>4.0</v>
       </c>
-      <c r="AG6" s="29">
+      <c r="AG6" s="30">
         <v>6.0</v>
       </c>
-      <c r="AH6" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI6" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ6" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK6" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL6" s="34">
+      <c r="AH6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ6" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK6" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL6" s="35">
         <f>IFERROR((VLOOKUP(AF6,Scoring!$A:$B,2,0))+IF(AH6="y",1,0)+IF(AI6="y",1,0)+IF(AJ6="y",1,0)+IF(AK6="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="AM6" s="28">
+      <c r="AM6" s="29">
         <v>21.0</v>
       </c>
-      <c r="AN6" s="29">
+      <c r="AN6" s="30">
         <v>4.0</v>
       </c>
-      <c r="AO6" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP6" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ6" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR6" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS6" s="34">
+      <c r="AO6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ6" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR6" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS6" s="35">
         <f>IFERROR((VLOOKUP(AM6,Scoring!$A:$B,2,0))+IF(AO6="y",1,0)+IF(AP6="y",1,0)+IF(AQ6="y",1,0)+IF(AR6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT6" s="28">
+      <c r="AT6" s="29">
         <v>3.0</v>
       </c>
-      <c r="AU6" s="29">
+      <c r="AU6" s="30">
         <v>7.0</v>
       </c>
-      <c r="AV6" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AW6" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="AX6" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="AY6" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="AZ6" s="34">
+      <c r="AV6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW6" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="AX6" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="AY6" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="AZ6" s="35">
         <f>IFERROR((VLOOKUP(AT6,Scoring!$A:$B,2,0))+IF(AV6="y",1,0)+IF(AW6="y",1,0)+IF(AX6="y",1,0)+IF(AY6="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="BA6" s="28">
+      <c r="BA6" s="29">
         <v>3.0</v>
       </c>
-      <c r="BB6" s="29">
+      <c r="BB6" s="30">
         <v>4.0</v>
       </c>
-      <c r="BC6" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD6" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE6" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="BF6" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG6" s="34">
+      <c r="BC6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE6" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF6" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG6" s="35">
         <f>IFERROR((VLOOKUP(BA6,Scoring!$D:$E,2,0))+IF(BC6="y",1,0)+IF(BD6="y",1,0)+IF(BE6="y",1,0)+IF(BF6="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="BH6" s="28">
+      <c r="BH6" s="29">
         <v>3.0</v>
       </c>
-      <c r="BI6" s="29">
+      <c r="BI6" s="30">
         <v>13.0</v>
       </c>
-      <c r="BJ6" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BK6" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL6" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM6" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="BN6" s="34">
+      <c r="BJ6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL6" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM6" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="BN6" s="35">
         <f>IFERROR((VLOOKUP(BH6,Scoring!$A:$B,2,0))+IF(BJ6="y",1,0)+IF(BK6="y",1,0)+IF(BL6="y",1,0)+IF(BM6="y",1,0),0)</f>
         <v>16</v>
       </c>
-      <c r="BO6" s="28">
+      <c r="BO6" s="29">
         <v>4.0</v>
       </c>
-      <c r="BP6" s="29">
+      <c r="BP6" s="30">
         <v>5.0</v>
       </c>
-      <c r="BQ6" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BR6" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BS6" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="BT6" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="BU6" s="34">
+      <c r="BQ6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS6" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT6" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU6" s="35">
         <f>IFERROR((VLOOKUP(BO6,Scoring!$D:$E,2,0))+IF(BQ6="y",1,0)+IF(BR6="y",1,0)+IF(BS6="y",1,0)+IF(BT6="y",1,0),0)</f>
         <v>5</v>
       </c>
-      <c r="BV6" s="28">
+      <c r="BV6" s="29">
         <v>4.0</v>
       </c>
-      <c r="BW6" s="29">
+      <c r="BW6" s="30">
         <v>11.0</v>
       </c>
-      <c r="BX6" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BY6" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BZ6" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CA6" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CB6" s="34">
+      <c r="BX6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ6" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA6" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB6" s="35">
         <f>IFERROR((VLOOKUP(BV6,Scoring!$A:$B,2,0))+IF(BX6="y",1,0)+IF(BY6="y",1,0)+IF(BZ6="y",1,0)+IF(CA6="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="CC6" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="CD6" s="29">
+      <c r="CC6" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="CD6" s="30">
         <v>6.0</v>
       </c>
-      <c r="CE6" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="CF6" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="CG6" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CH6" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="CI6" s="34">
+      <c r="CE6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG6" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH6" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="CI6" s="35">
         <f>IFERROR((VLOOKUP(CC6,Scoring!$A:$B,2,0))+IF(CE6="y",1,0)+IF(CF6="y",1,0)+IF(CG6="y",1,0)+IF(CH6="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="CJ6" s="28">
+      <c r="CJ6" s="29">
         <v>2.0</v>
       </c>
-      <c r="CK6" s="29">
+      <c r="CK6" s="30">
         <v>3.0</v>
       </c>
-      <c r="CL6" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="CM6" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="CN6" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CO6" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CP6" s="34">
+      <c r="CL6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN6" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO6" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP6" s="35">
         <f>IFERROR((VLOOKUP(CJ6,Scoring!$A:$B,2,0))+IF(CL6="y",1,0)+IF(CM6="y",1,0)+IF(CN6="y",1,0)+IF(CO6="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="CQ6" s="28">
+      <c r="CQ6" s="29">
         <v>2.0</v>
       </c>
-      <c r="CR6" s="29">
+      <c r="CR6" s="30">
         <v>5.0</v>
       </c>
-      <c r="CS6" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="CT6" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="CU6" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CV6" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="CW6" s="34">
+      <c r="CS6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU6" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV6" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="CW6" s="35">
         <f>IFERROR((VLOOKUP(CQ6,Scoring!$A:$B,2,0))+IF(CS6="y",1,0)+IF(CT6="y",1,0)+IF(CU6="y",1,0)+IF(CV6="y",1,0),0)</f>
         <v>19</v>
       </c>
-      <c r="CX6" s="28">
+      <c r="CX6" s="29">
         <v>2.0</v>
       </c>
-      <c r="CY6" s="29">
+      <c r="CY6" s="30">
         <v>4.0</v>
       </c>
-      <c r="CZ6" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="DA6" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="DB6" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="DC6" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="DD6" s="34">
+      <c r="CZ6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA6" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="DB6" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC6" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="DD6" s="35">
         <f>IFERROR((VLOOKUP(CX6,Scoring!$A:$B,2,0))+IF(CZ6="y",1,0)+IF(DA6="y",1,0)+IF(DB6="y",1,0)+IF(DC6="y",1,0),0)</f>
         <v>20</v>
       </c>
-      <c r="DE6" s="28"/>
-      <c r="DF6" s="37"/>
-      <c r="DG6" s="38"/>
-      <c r="DH6" s="39"/>
-      <c r="DI6" s="40"/>
-      <c r="DJ6" s="41"/>
-      <c r="DK6" s="34">
+      <c r="DE6" s="29">
+        <v>21.0</v>
+      </c>
+      <c r="DF6" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="DG6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI6" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ6" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK6" s="35">
         <f>IFERROR((VLOOKUP(DE6,Scoring!$A:$B,2,0))+IF(DG6="y",1,0)+IF(DH6="y",1,0)+IF(DI6="y",1,0)+IF(DJ6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL6" s="28"/>
-      <c r="DM6" s="37"/>
-      <c r="DN6" s="38"/>
-      <c r="DO6" s="39"/>
-      <c r="DP6" s="40"/>
-      <c r="DQ6" s="41"/>
-      <c r="DR6" s="34">
+      <c r="DL6" s="29"/>
+      <c r="DM6" s="38"/>
+      <c r="DN6" s="39"/>
+      <c r="DO6" s="40"/>
+      <c r="DP6" s="41"/>
+      <c r="DQ6" s="42"/>
+      <c r="DR6" s="35">
         <f>IFERROR((VLOOKUP(DL6,Scoring!$A:$B,2,0))+IF(DN6="y",1,0)+IF(DO6="y",1,0)+IF(DP6="y",1,0)+IF(DQ6="y",1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="DS6" s="13">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="29">
         <v>9.0</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="30">
         <v>7.0</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="J7" s="34">
+      <c r="F7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="J7" s="35">
         <f>IFERROR((VLOOKUP(D7,Scoring!$A:$B,2,0))+IF(F7="y",1,0)+IF(G7="y",1,0)+IF(H7="y",1,0)+IF(I7="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="29">
         <v>6.0</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="30">
         <v>7.0</v>
       </c>
-      <c r="M7" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="O7" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="P7" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q7" s="35">
+      <c r="M7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q7" s="36">
         <f>IFERROR((VLOOKUP(K7,Scoring!$D:$E,2,0))+IF(M7="y",1,0)+IF(N7="y",1,0)+IF(O7="y",1,0)+IF(P7="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="29">
         <v>21.0</v>
       </c>
-      <c r="S7" s="29">
+      <c r="S7" s="30">
         <v>9.0</v>
       </c>
-      <c r="T7" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="U7" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="V7" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="W7" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="X7" s="34">
+      <c r="T7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="U7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="V7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="W7" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="X7" s="35">
         <f>IFERROR((VLOOKUP(R7,Scoring!$A:$B,2,0))+IF(T7="y",1,0)+IF(U7="y",1,0)+IF(V7="y",1,0)+IF(W7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="28">
+      <c r="Y7" s="29">
         <v>5.0</v>
       </c>
-      <c r="Z7" s="29">
+      <c r="Z7" s="30">
         <v>3.0</v>
       </c>
-      <c r="AA7" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB7" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC7" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD7" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE7" s="34">
+      <c r="AA7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD7" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE7" s="35">
         <f>IFERROR((VLOOKUP(Y7,Scoring!$A:$B,2,0))+IF(AA7="y",1,0)+IF(AB7="y",1,0)+IF(AC7="y",1,0)+IF(AD7="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="AF7" s="28">
+      <c r="AF7" s="29">
         <v>3.0</v>
       </c>
-      <c r="AG7" s="29">
+      <c r="AG7" s="30">
         <v>3.0</v>
       </c>
-      <c r="AH7" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI7" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ7" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK7" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL7" s="34">
+      <c r="AH7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK7" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL7" s="35">
         <f>IFERROR((VLOOKUP(AF7,Scoring!$A:$B,2,0))+IF(AH7="y",1,0)+IF(AI7="y",1,0)+IF(AJ7="y",1,0)+IF(AK7="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="AM7" s="28">
+      <c r="AM7" s="29">
         <v>5.0</v>
       </c>
-      <c r="AN7" s="29">
+      <c r="AN7" s="30">
         <v>15.0</v>
       </c>
-      <c r="AO7" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP7" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="AQ7" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="AR7" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS7" s="34">
+      <c r="AO7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP7" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ7" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR7" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS7" s="35">
         <f>IFERROR((VLOOKUP(AM7,Scoring!$A:$B,2,0))+IF(AO7="y",1,0)+IF(AP7="y",1,0)+IF(AQ7="y",1,0)+IF(AR7="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="AT7" s="28">
+      <c r="AT7" s="29">
         <v>21.0</v>
       </c>
-      <c r="AU7" s="29">
+      <c r="AU7" s="30">
         <v>5.0</v>
       </c>
-      <c r="AV7" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AW7" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AX7" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY7" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ7" s="34">
+      <c r="AV7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY7" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ7" s="35">
         <f>IFERROR((VLOOKUP(AT7,Scoring!$A:$B,2,0))+IF(AV7="y",1,0)+IF(AW7="y",1,0)+IF(AX7="y",1,0)+IF(AY7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="28">
+      <c r="BA7" s="29">
         <v>5.0</v>
       </c>
-      <c r="BB7" s="29">
+      <c r="BB7" s="30">
         <v>5.0</v>
       </c>
-      <c r="BC7" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD7" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE7" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="BF7" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG7" s="34">
+      <c r="BC7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF7" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG7" s="35">
         <f>IFERROR((VLOOKUP(BA7,Scoring!$D:$E,2,0))+IF(BC7="y",1,0)+IF(BD7="y",1,0)+IF(BE7="y",1,0)+IF(BF7="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="BH7" s="28">
+      <c r="BH7" s="29">
         <v>2.0</v>
       </c>
-      <c r="BI7" s="29">
+      <c r="BI7" s="30">
         <v>11.0</v>
       </c>
-      <c r="BJ7" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BK7" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL7" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="BM7" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="BN7" s="34">
+      <c r="BJ7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL7" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="BM7" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN7" s="35">
         <f>IFERROR((VLOOKUP(BH7,Scoring!$A:$B,2,0))+IF(BJ7="y",1,0)+IF(BK7="y",1,0)+IF(BL7="y",1,0)+IF(BM7="y",1,0),0)</f>
         <v>19</v>
       </c>
-      <c r="BO7" s="28">
+      <c r="BO7" s="29">
         <v>5.0</v>
       </c>
-      <c r="BP7" s="29">
+      <c r="BP7" s="30">
         <v>6.0</v>
       </c>
-      <c r="BQ7" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BR7" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BS7" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="BT7" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="BU7" s="34">
+      <c r="BQ7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT7" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU7" s="35">
         <f>IFERROR((VLOOKUP(BO7,Scoring!$D:$E,2,0))+IF(BQ7="y",1,0)+IF(BR7="y",1,0)+IF(BS7="y",1,0)+IF(BT7="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="BV7" s="28">
+      <c r="BV7" s="29">
         <v>6.0</v>
       </c>
-      <c r="BW7" s="29">
+      <c r="BW7" s="30">
         <v>10.0</v>
       </c>
-      <c r="BX7" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BY7" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BZ7" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CA7" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CB7" s="34">
+      <c r="BX7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA7" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB7" s="35">
         <f>IFERROR((VLOOKUP(BV7,Scoring!$A:$B,2,0))+IF(BX7="y",1,0)+IF(BY7="y",1,0)+IF(BZ7="y",1,0)+IF(CA7="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="CC7" s="28">
+      <c r="CC7" s="29">
         <v>8.0</v>
       </c>
-      <c r="CD7" s="29">
+      <c r="CD7" s="30">
         <v>4.0</v>
       </c>
-      <c r="CE7" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="CF7" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="CG7" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CH7" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CI7" s="34">
+      <c r="CE7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH7" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI7" s="35">
         <f>IFERROR((VLOOKUP(CC7,Scoring!$A:$B,2,0))+IF(CE7="y",1,0)+IF(CF7="y",1,0)+IF(CG7="y",1,0)+IF(CH7="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="CJ7" s="28">
+      <c r="CJ7" s="29">
         <v>5.0</v>
       </c>
-      <c r="CK7" s="29">
+      <c r="CK7" s="30">
         <v>8.0</v>
       </c>
-      <c r="CL7" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="CM7" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="CN7" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CO7" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CP7" s="34">
+      <c r="CL7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO7" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP7" s="35">
         <f>IFERROR((VLOOKUP(CJ7,Scoring!$A:$B,2,0))+IF(CL7="y",1,0)+IF(CM7="y",1,0)+IF(CN7="y",1,0)+IF(CO7="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="CQ7" s="28">
+      <c r="CQ7" s="29">
         <v>3.0</v>
       </c>
-      <c r="CR7" s="29">
+      <c r="CR7" s="30">
         <v>6.0</v>
       </c>
-      <c r="CS7" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="CT7" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="CU7" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CV7" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CW7" s="34">
+      <c r="CS7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV7" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW7" s="35">
         <f>IFERROR((VLOOKUP(CQ7,Scoring!$A:$B,2,0))+IF(CS7="y",1,0)+IF(CT7="y",1,0)+IF(CU7="y",1,0)+IF(CV7="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="CX7" s="28">
+      <c r="CX7" s="29">
         <v>21.0</v>
       </c>
-      <c r="CY7" s="29">
+      <c r="CY7" s="30">
         <v>5.0</v>
       </c>
-      <c r="CZ7" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="DA7" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="DB7" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="DC7" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="DD7" s="34">
+      <c r="CZ7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC7" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD7" s="35">
         <f>IFERROR((VLOOKUP(CX7,Scoring!$A:$B,2,0))+IF(CZ7="y",1,0)+IF(DA7="y",1,0)+IF(DB7="y",1,0)+IF(DC7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE7" s="28"/>
-      <c r="DF7" s="37"/>
-      <c r="DG7" s="38"/>
-      <c r="DH7" s="39"/>
-      <c r="DI7" s="40"/>
-      <c r="DJ7" s="41"/>
-      <c r="DK7" s="34">
+      <c r="DE7" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="DF7" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="DG7" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ7" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="DK7" s="35">
         <f>IFERROR((VLOOKUP(DE7,Scoring!$A:$B,2,0))+IF(DG7="y",1,0)+IF(DH7="y",1,0)+IF(DI7="y",1,0)+IF(DJ7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="DL7" s="28"/>
-      <c r="DM7" s="37"/>
-      <c r="DN7" s="38"/>
-      <c r="DO7" s="39"/>
-      <c r="DP7" s="40"/>
-      <c r="DQ7" s="41"/>
-      <c r="DR7" s="34">
+        <v>19</v>
+      </c>
+      <c r="DL7" s="29"/>
+      <c r="DM7" s="38"/>
+      <c r="DN7" s="39"/>
+      <c r="DO7" s="40"/>
+      <c r="DP7" s="41"/>
+      <c r="DQ7" s="42"/>
+      <c r="DR7" s="35">
         <f>IFERROR((VLOOKUP(DL7,Scoring!$A:$B,2,0))+IF(DN7="y",1,0)+IF(DO7="y",1,0)+IF(DP7="y",1,0)+IF(DQ7="y",1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="DS7" s="13">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="46">
         <v>4.0</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="47">
         <v>10.0</v>
       </c>
-      <c r="F8" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="H8" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>270</v>
-      </c>
-      <c r="J8" s="51">
+      <c r="F8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="J8" s="52">
         <f>IFERROR((VLOOKUP(D8,Scoring!$A:$B,2,0))+IF(F8="y",1,0)+IF(G8="y",1,0)+IF(H8="y",1,0)+IF(I8="y",1,0),0)</f>
         <v>13</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="46">
         <v>13.0</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="47">
         <v>6.0</v>
       </c>
-      <c r="M8" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="N8" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="O8" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="P8" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q8" s="52">
+      <c r="M8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="N8" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="O8" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="P8" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q8" s="53">
         <f>IFERROR((VLOOKUP(K8,Scoring!$D:$E,2,0))+IF(M8="y",1,0)+IF(N8="y",1,0)+IF(O8="y",1,0)+IF(P8="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="R8" s="45">
+      <c r="R8" s="46">
         <v>2.0</v>
       </c>
-      <c r="S8" s="46">
+      <c r="S8" s="47">
         <v>3.0</v>
       </c>
-      <c r="T8" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="U8" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="V8" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="W8" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="X8" s="51">
+      <c r="T8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="U8" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="V8" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="W8" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="X8" s="52">
         <f>IFERROR((VLOOKUP(R8,Scoring!$A:$B,2,0))+IF(T8="y",1,0)+IF(U8="y",1,0)+IF(V8="y",1,0)+IF(W8="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="Y8" s="45">
+      <c r="Y8" s="46">
         <v>6.0</v>
       </c>
-      <c r="Z8" s="46">
+      <c r="Z8" s="47">
         <v>8.0</v>
       </c>
-      <c r="AA8" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB8" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC8" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD8" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE8" s="51">
+      <c r="AA8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB8" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC8" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD8" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE8" s="52">
         <f>IFERROR((VLOOKUP(Y8,Scoring!$A:$B,2,0))+IF(AA8="y",1,0)+IF(AB8="y",1,0)+IF(AC8="y",1,0)+IF(AD8="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="AF8" s="45">
+      <c r="AF8" s="46">
         <v>8.0</v>
       </c>
-      <c r="AG8" s="46">
+      <c r="AG8" s="47">
         <v>10.0</v>
       </c>
-      <c r="AH8" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI8" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ8" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="AK8" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL8" s="51">
+      <c r="AH8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI8" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ8" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK8" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL8" s="52">
         <f>IFERROR((VLOOKUP(AF8,Scoring!$A:$B,2,0))+IF(AH8="y",1,0)+IF(AI8="y",1,0)+IF(AJ8="y",1,0)+IF(AK8="y",1,0),0)</f>
         <v>5</v>
       </c>
-      <c r="AM8" s="45">
+      <c r="AM8" s="46">
         <v>9.0</v>
       </c>
-      <c r="AN8" s="46">
+      <c r="AN8" s="47">
         <v>13.0</v>
       </c>
-      <c r="AO8" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP8" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ8" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR8" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS8" s="51">
+      <c r="AO8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP8" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ8" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR8" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS8" s="52">
         <f>IFERROR((VLOOKUP(AM8,Scoring!$A:$B,2,0))+IF(AO8="y",1,0)+IF(AP8="y",1,0)+IF(AQ8="y",1,0)+IF(AR8="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="AT8" s="45">
+      <c r="AT8" s="46">
         <v>12.0</v>
       </c>
-      <c r="AU8" s="46">
+      <c r="AU8" s="47">
         <v>10.0</v>
       </c>
-      <c r="AV8" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="AW8" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="AX8" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY8" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ8" s="51">
+      <c r="AV8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW8" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX8" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY8" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ8" s="52">
         <f>IFERROR((VLOOKUP(AT8,Scoring!$A:$B,2,0))+IF(AV8="y",1,0)+IF(AW8="y",1,0)+IF(AX8="y",1,0)+IF(AY8="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="BA8" s="45">
+      <c r="BA8" s="46">
         <v>13.0</v>
       </c>
-      <c r="BB8" s="46">
+      <c r="BB8" s="47">
         <v>9.0</v>
       </c>
-      <c r="BC8" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD8" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE8" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="BF8" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG8" s="51">
+      <c r="BC8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD8" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE8" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF8" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG8" s="52">
         <f>IFERROR((VLOOKUP(BA8,Scoring!$D:$E,2,0))+IF(BC8="y",1,0)+IF(BD8="y",1,0)+IF(BE8="y",1,0)+IF(BF8="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="BH8" s="45">
+      <c r="BH8" s="46">
         <v>21.0</v>
       </c>
-      <c r="BI8" s="46">
+      <c r="BI8" s="47">
         <v>6.0</v>
       </c>
-      <c r="BJ8" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="BK8" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL8" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM8" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="BN8" s="51">
+      <c r="BJ8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK8" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL8" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM8" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN8" s="52">
         <f>IFERROR((VLOOKUP(BH8,Scoring!$A:$B,2,0))+IF(BJ8="y",1,0)+IF(BK8="y",1,0)+IF(BL8="y",1,0)+IF(BM8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO8" s="45">
+      <c r="BO8" s="46">
         <v>9.0</v>
       </c>
-      <c r="BP8" s="46">
+      <c r="BP8" s="47">
         <v>8.0</v>
       </c>
-      <c r="BQ8" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="BR8" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="BS8" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="BT8" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="BU8" s="51">
+      <c r="BQ8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR8" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS8" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT8" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU8" s="52">
         <f>IFERROR((VLOOKUP(BO8,Scoring!$D:$E,2,0))+IF(BQ8="y",1,0)+IF(BR8="y",1,0)+IF(BS8="y",1,0)+IF(BT8="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="BV8" s="45">
+      <c r="BV8" s="46">
         <v>9.0</v>
       </c>
-      <c r="BW8" s="46">
+      <c r="BW8" s="47">
         <v>7.0</v>
       </c>
-      <c r="BX8" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="BY8" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="BZ8" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="CA8" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="CB8" s="51">
+      <c r="BX8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY8" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ8" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA8" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB8" s="52">
         <f>IFERROR((VLOOKUP(BV8,Scoring!$A:$B,2,0))+IF(BX8="y",1,0)+IF(BY8="y",1,0)+IF(BZ8="y",1,0)+IF(CA8="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="CC8" s="45">
+      <c r="CC8" s="46">
         <v>11.0</v>
       </c>
-      <c r="CD8" s="46">
+      <c r="CD8" s="47">
         <v>7.0</v>
       </c>
-      <c r="CE8" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="CF8" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="CG8" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="CH8" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="CI8" s="51">
+      <c r="CE8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF8" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG8" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH8" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI8" s="52">
         <f>IFERROR((VLOOKUP(CC8,Scoring!$A:$B,2,0))+IF(CE8="y",1,0)+IF(CF8="y",1,0)+IF(CG8="y",1,0)+IF(CH8="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="CJ8" s="45">
+      <c r="CJ8" s="46">
         <v>10.0</v>
       </c>
-      <c r="CK8" s="46">
+      <c r="CK8" s="47">
         <v>9.0</v>
       </c>
-      <c r="CL8" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="CM8" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="CN8" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="CO8" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="CP8" s="51">
+      <c r="CL8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM8" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN8" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="CO8" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP8" s="52">
         <f>IFERROR((VLOOKUP(CJ8,Scoring!$A:$B,2,0))+IF(CL8="y",1,0)+IF(CM8="y",1,0)+IF(CN8="y",1,0)+IF(CO8="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="CQ8" s="45">
-        <v>22.0</v>
-      </c>
-      <c r="CR8" s="46">
-        <v>22.0</v>
-      </c>
-      <c r="CS8" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="CT8" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="CU8" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="CV8" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="CW8" s="51">
+      <c r="CQ8" s="46">
+        <v>22.0</v>
+      </c>
+      <c r="CR8" s="47">
+        <v>22.0</v>
+      </c>
+      <c r="CS8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT8" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU8" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV8" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW8" s="52">
         <f>IFERROR((VLOOKUP(CQ8,Scoring!$A:$B,2,0))+IF(CS8="y",1,0)+IF(CT8="y",1,0)+IF(CU8="y",1,0)+IF(CV8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX8" s="45">
-        <v>22.0</v>
-      </c>
-      <c r="CY8" s="46">
-        <v>22.0</v>
-      </c>
-      <c r="CZ8" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="DA8" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="DB8" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="DC8" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="DD8" s="51">
+      <c r="CX8" s="46">
+        <v>22.0</v>
+      </c>
+      <c r="CY8" s="47">
+        <v>22.0</v>
+      </c>
+      <c r="CZ8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA8" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB8" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC8" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD8" s="52">
         <f>IFERROR((VLOOKUP(CX8,Scoring!$A:$B,2,0))+IF(CZ8="y",1,0)+IF(DA8="y",1,0)+IF(DB8="y",1,0)+IF(DC8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE8" s="45"/>
-      <c r="DF8" s="54"/>
-      <c r="DG8" s="55"/>
-      <c r="DH8" s="56"/>
-      <c r="DI8" s="57"/>
-      <c r="DJ8" s="58"/>
-      <c r="DK8" s="51">
+      <c r="DE8" s="46">
+        <v>21.0</v>
+      </c>
+      <c r="DF8" s="47">
+        <v>9.0</v>
+      </c>
+      <c r="DG8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH8" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI8" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ8" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK8" s="52">
         <f>IFERROR((VLOOKUP(DE8,Scoring!$A:$B,2,0))+IF(DG8="y",1,0)+IF(DH8="y",1,0)+IF(DI8="y",1,0)+IF(DJ8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL8" s="45"/>
-      <c r="DM8" s="54"/>
-      <c r="DN8" s="55"/>
-      <c r="DO8" s="56"/>
-      <c r="DP8" s="57"/>
-      <c r="DQ8" s="58"/>
-      <c r="DR8" s="51">
+      <c r="DL8" s="46"/>
+      <c r="DM8" s="55"/>
+      <c r="DN8" s="56"/>
+      <c r="DO8" s="57"/>
+      <c r="DP8" s="58"/>
+      <c r="DQ8" s="59"/>
+      <c r="DR8" s="52">
         <f>IFERROR((VLOOKUP(DL8,Scoring!$A:$B,2,0))+IF(DN8="y",1,0)+IF(DO8="y",1,0)+IF(DP8="y",1,0)+IF(DQ8="y",1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="DS8" s="13">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="63">
         <v>15.0</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="64">
         <v>5.0</v>
       </c>
-      <c r="F9" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="H9" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="I9" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="J9" s="68">
+      <c r="F9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="I9" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="J9" s="69">
         <f>IFERROR((VLOOKUP(D9,Scoring!$A:$B,2,0))+IF(F9="y",1,0)+IF(G9="y",1,0)+IF(H9="y",1,0)+IF(I9="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="62">
+      <c r="K9" s="63">
         <v>9.0</v>
       </c>
-      <c r="L9" s="63">
+      <c r="L9" s="64">
         <v>8.0</v>
       </c>
-      <c r="M9" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="N9" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="O9" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="P9" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q9" s="69">
+      <c r="M9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="N9" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="O9" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="P9" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q9" s="70">
         <f>IFERROR((VLOOKUP(K9,Scoring!$D:$E,2,0))+IF(M9="y",1,0)+IF(N9="y",1,0)+IF(O9="y",1,0)+IF(P9="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="R9" s="62">
+      <c r="R9" s="63">
         <v>21.0</v>
       </c>
-      <c r="S9" s="63">
+      <c r="S9" s="64">
         <v>6.0</v>
       </c>
-      <c r="T9" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="U9" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="V9" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="W9" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="X9" s="68">
+      <c r="T9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="U9" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="V9" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="W9" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="X9" s="69">
         <f>IFERROR((VLOOKUP(R9,Scoring!$A:$B,2,0))+IF(T9="y",1,0)+IF(U9="y",1,0)+IF(V9="y",1,0)+IF(W9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="62">
+      <c r="Y9" s="63">
         <v>4.0</v>
       </c>
-      <c r="Z9" s="63">
+      <c r="Z9" s="64">
         <v>4.0</v>
       </c>
-      <c r="AA9" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB9" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC9" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD9" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE9" s="68">
+      <c r="AA9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB9" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC9" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD9" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE9" s="69">
         <f>IFERROR((VLOOKUP(Y9,Scoring!$A:$B,2,0))+IF(AA9="y",1,0)+IF(AB9="y",1,0)+IF(AC9="y",1,0)+IF(AD9="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="AF9" s="62">
+      <c r="AF9" s="63">
         <v>9.0</v>
       </c>
-      <c r="AG9" s="63">
+      <c r="AG9" s="64">
         <v>8.0</v>
       </c>
-      <c r="AH9" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI9" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ9" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK9" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL9" s="68">
+      <c r="AH9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI9" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ9" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK9" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL9" s="69">
         <f>IFERROR((VLOOKUP(AF9,Scoring!$A:$B,2,0))+IF(AH9="y",1,0)+IF(AI9="y",1,0)+IF(AJ9="y",1,0)+IF(AK9="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="AM9" s="62">
+      <c r="AM9" s="63">
         <v>8.0</v>
       </c>
-      <c r="AN9" s="63">
+      <c r="AN9" s="64">
         <v>11.0</v>
       </c>
-      <c r="AO9" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP9" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ9" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR9" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS9" s="68">
+      <c r="AO9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP9" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ9" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR9" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS9" s="69">
         <f>IFERROR((VLOOKUP(AM9,Scoring!$A:$B,2,0))+IF(AO9="y",1,0)+IF(AP9="y",1,0)+IF(AQ9="y",1,0)+IF(AR9="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="AT9" s="62">
+      <c r="AT9" s="63">
         <v>15.0</v>
       </c>
-      <c r="AU9" s="63">
+      <c r="AU9" s="64">
         <v>9.0</v>
       </c>
-      <c r="AV9" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="AW9" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="AX9" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY9" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ9" s="68">
+      <c r="AV9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW9" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX9" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY9" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ9" s="69">
         <f>IFERROR((VLOOKUP(AT9,Scoring!$A:$B,2,0))+IF(AV9="y",1,0)+IF(AW9="y",1,0)+IF(AX9="y",1,0)+IF(AY9="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="BA9" s="62">
+      <c r="BA9" s="63">
         <v>9.0</v>
       </c>
-      <c r="BB9" s="63">
+      <c r="BB9" s="64">
         <v>7.0</v>
       </c>
-      <c r="BC9" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD9" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE9" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="BF9" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG9" s="68">
+      <c r="BC9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD9" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE9" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF9" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG9" s="69">
         <f>IFERROR((VLOOKUP(BA9,Scoring!$D:$E,2,0))+IF(BC9="y",1,0)+IF(BD9="y",1,0)+IF(BE9="y",1,0)+IF(BF9="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="BH9" s="62">
+      <c r="BH9" s="63">
         <v>8.0</v>
       </c>
-      <c r="BI9" s="63">
+      <c r="BI9" s="64">
         <v>7.0</v>
       </c>
-      <c r="BJ9" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="BK9" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL9" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM9" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="BN9" s="68">
+      <c r="BJ9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK9" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL9" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM9" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN9" s="69">
         <f>IFERROR((VLOOKUP(BH9,Scoring!$A:$B,2,0))+IF(BJ9="y",1,0)+IF(BK9="y",1,0)+IF(BL9="y",1,0)+IF(BM9="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="BO9" s="62">
+      <c r="BO9" s="63">
         <v>14.0</v>
       </c>
-      <c r="BP9" s="63">
+      <c r="BP9" s="64">
         <v>7.0</v>
       </c>
-      <c r="BQ9" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="BR9" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="BS9" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="BT9" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="BU9" s="68">
+      <c r="BQ9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR9" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS9" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT9" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU9" s="69">
         <f>IFERROR((VLOOKUP(BO9,Scoring!$D:$E,2,0))+IF(BQ9="y",1,0)+IF(BR9="y",1,0)+IF(BS9="y",1,0)+IF(BT9="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="BV9" s="62">
+      <c r="BV9" s="63">
         <v>10.0</v>
       </c>
-      <c r="BW9" s="63">
+      <c r="BW9" s="64">
         <v>6.0</v>
       </c>
-      <c r="BX9" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="BY9" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="BZ9" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="CA9" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="CB9" s="68">
+      <c r="BX9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY9" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ9" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA9" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB9" s="69">
         <f>IFERROR((VLOOKUP(BV9,Scoring!$A:$B,2,0))+IF(BX9="y",1,0)+IF(BY9="y",1,0)+IF(BZ9="y",1,0)+IF(CA9="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="CC9" s="62">
+      <c r="CC9" s="63">
         <v>5.0</v>
       </c>
-      <c r="CD9" s="63">
+      <c r="CD9" s="64">
         <v>14.0</v>
       </c>
-      <c r="CE9" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="CF9" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="CG9" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="CH9" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="CI9" s="68">
+      <c r="CE9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF9" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG9" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH9" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI9" s="69">
         <f>IFERROR((VLOOKUP(CC9,Scoring!$A:$B,2,0))+IF(CE9="y",1,0)+IF(CF9="y",1,0)+IF(CG9="y",1,0)+IF(CH9="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="CJ9" s="62">
+      <c r="CJ9" s="63">
         <v>6.0</v>
       </c>
-      <c r="CK9" s="63">
+      <c r="CK9" s="64">
         <v>11.0</v>
       </c>
-      <c r="CL9" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="CM9" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="CN9" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="CO9" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="CP9" s="68">
+      <c r="CL9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM9" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN9" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO9" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP9" s="69">
         <f>IFERROR((VLOOKUP(CJ9,Scoring!$A:$B,2,0))+IF(CL9="y",1,0)+IF(CM9="y",1,0)+IF(CN9="y",1,0)+IF(CO9="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="CQ9" s="62">
+      <c r="CQ9" s="63">
         <v>11.0</v>
       </c>
-      <c r="CR9" s="63">
+      <c r="CR9" s="64">
         <v>4.0</v>
       </c>
-      <c r="CS9" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="CT9" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="CU9" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="CV9" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="CW9" s="68">
+      <c r="CS9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT9" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU9" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV9" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW9" s="69">
         <f>IFERROR((VLOOKUP(CQ9,Scoring!$A:$B,2,0))+IF(CS9="y",1,0)+IF(CT9="y",1,0)+IF(CU9="y",1,0)+IF(CV9="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="CX9" s="62">
+      <c r="CX9" s="63">
         <v>21.0</v>
       </c>
-      <c r="CY9" s="63">
+      <c r="CY9" s="64">
         <v>8.0</v>
       </c>
-      <c r="CZ9" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="DA9" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="DB9" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="DC9" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="DD9" s="68">
+      <c r="CZ9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA9" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB9" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC9" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD9" s="69">
         <f>IFERROR((VLOOKUP(CX9,Scoring!$A:$B,2,0))+IF(CZ9="y",1,0)+IF(DA9="y",1,0)+IF(DB9="y",1,0)+IF(DC9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE9" s="62"/>
-      <c r="DF9" s="71"/>
-      <c r="DG9" s="72"/>
-      <c r="DH9" s="73"/>
-      <c r="DI9" s="74"/>
-      <c r="DJ9" s="75"/>
-      <c r="DK9" s="68">
+      <c r="DE9" s="63">
+        <v>6.0</v>
+      </c>
+      <c r="DF9" s="64">
+        <v>10.0</v>
+      </c>
+      <c r="DG9" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH9" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI9" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ9" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK9" s="69">
         <f>IFERROR((VLOOKUP(DE9,Scoring!$A:$B,2,0))+IF(DG9="y",1,0)+IF(DH9="y",1,0)+IF(DI9="y",1,0)+IF(DJ9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="DL9" s="62"/>
-      <c r="DM9" s="71"/>
-      <c r="DN9" s="72"/>
-      <c r="DO9" s="73"/>
-      <c r="DP9" s="74"/>
-      <c r="DQ9" s="75"/>
-      <c r="DR9" s="68">
+        <v>8</v>
+      </c>
+      <c r="DL9" s="63"/>
+      <c r="DM9" s="72"/>
+      <c r="DN9" s="73"/>
+      <c r="DO9" s="74"/>
+      <c r="DP9" s="75"/>
+      <c r="DQ9" s="76"/>
+      <c r="DR9" s="69">
         <f>IFERROR((VLOOKUP(DL9,Scoring!$A:$B,2,0))+IF(DN9="y",1,0)+IF(DO9="y",1,0)+IF(DP9="y",1,0)+IF(DQ9="y",1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="DS9" s="13">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="29">
         <v>5.0</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="30">
         <v>8.0</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="J10" s="34">
+      <c r="F10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="J10" s="35">
         <f>IFERROR((VLOOKUP(D10,Scoring!$A:$B,2,0))+IF(F10="y",1,0)+IF(G10="y",1,0)+IF(H10="y",1,0)+IF(I10="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="29">
         <v>5.0</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="30">
         <v>11.0</v>
       </c>
-      <c r="M10" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="O10" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q10" s="35">
+      <c r="M10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q10" s="36">
         <f>IFERROR((VLOOKUP(K10,Scoring!$D:$E,2,0))+IF(M10="y",1,0)+IF(N10="y",1,0)+IF(O10="y",1,0)+IF(P10="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="R10" s="28">
+      <c r="R10" s="29">
         <v>6.0</v>
       </c>
-      <c r="S10" s="29">
+      <c r="S10" s="30">
         <v>10.0</v>
       </c>
-      <c r="T10" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="U10" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="V10" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="W10" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="X10" s="34">
+      <c r="T10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="U10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="V10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="W10" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="X10" s="35">
         <f>IFERROR((VLOOKUP(R10,Scoring!$A:$B,2,0))+IF(T10="y",1,0)+IF(U10="y",1,0)+IF(V10="y",1,0)+IF(W10="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="Y10" s="28">
+      <c r="Y10" s="29">
         <v>8.0</v>
       </c>
-      <c r="Z10" s="29">
+      <c r="Z10" s="30">
         <v>15.0</v>
       </c>
-      <c r="AA10" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB10" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="AC10" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD10" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE10" s="34">
+      <c r="AA10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB10" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD10" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE10" s="35">
         <f>IFERROR((VLOOKUP(Y10,Scoring!$A:$B,2,0))+IF(AA10="y",1,0)+IF(AB10="y",1,0)+IF(AC10="y",1,0)+IF(AD10="y",1,0),0)</f>
         <v>5</v>
       </c>
-      <c r="AF10" s="28">
+      <c r="AF10" s="29">
         <v>7.0</v>
       </c>
-      <c r="AG10" s="29">
+      <c r="AG10" s="30">
         <v>7.0</v>
       </c>
-      <c r="AH10" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI10" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ10" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK10" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL10" s="34">
+      <c r="AH10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK10" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL10" s="35">
         <f>IFERROR((VLOOKUP(AF10,Scoring!$A:$B,2,0))+IF(AH10="y",1,0)+IF(AI10="y",1,0)+IF(AJ10="y",1,0)+IF(AK10="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="AM10" s="28">
+      <c r="AM10" s="29">
         <v>7.0</v>
       </c>
-      <c r="AN10" s="29">
+      <c r="AN10" s="30">
         <v>7.0</v>
       </c>
-      <c r="AO10" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP10" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ10" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR10" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS10" s="34">
+      <c r="AO10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR10" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS10" s="35">
         <f>IFERROR((VLOOKUP(AM10,Scoring!$A:$B,2,0))+IF(AO10="y",1,0)+IF(AP10="y",1,0)+IF(AQ10="y",1,0)+IF(AR10="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="AT10" s="28">
+      <c r="AT10" s="29">
         <v>6.0</v>
       </c>
-      <c r="AU10" s="29">
+      <c r="AU10" s="30">
         <v>15.0</v>
       </c>
-      <c r="AV10" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AW10" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AX10" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY10" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ10" s="34">
+      <c r="AV10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY10" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ10" s="35">
         <f>IFERROR((VLOOKUP(AT10,Scoring!$A:$B,2,0))+IF(AV10="y",1,0)+IF(AW10="y",1,0)+IF(AX10="y",1,0)+IF(AY10="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="BA10" s="28">
-        <v>22.0</v>
-      </c>
-      <c r="BB10" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="BC10" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD10" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE10" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="BF10" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG10" s="34">
+      <c r="BA10" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="BB10" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="BC10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF10" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG10" s="35">
         <f>IFERROR((VLOOKUP(BA10,Scoring!$D:$E,2,0))+IF(BC10="y",1,0)+IF(BD10="y",1,0)+IF(BE10="y",1,0)+IF(BF10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH10" s="28">
-        <v>22.0</v>
-      </c>
-      <c r="BI10" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="BJ10" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BK10" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL10" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM10" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="BN10" s="34">
+      <c r="BH10" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="BI10" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="BJ10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM10" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN10" s="35">
         <f>IFERROR((VLOOKUP(BH10,Scoring!$A:$B,2,0))+IF(BJ10="y",1,0)+IF(BK10="y",1,0)+IF(BL10="y",1,0)+IF(BM10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO10" s="28">
-        <v>22.0</v>
-      </c>
-      <c r="BP10" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="BQ10" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BR10" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BS10" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="BT10" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="BU10" s="34">
+      <c r="BO10" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="BP10" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="BQ10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT10" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU10" s="35">
         <f>IFERROR((VLOOKUP(BO10,Scoring!$D:$E,2,0))+IF(BQ10="y",1,0)+IF(BR10="y",1,0)+IF(BS10="y",1,0)+IF(BT10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV10" s="28">
-        <v>22.0</v>
-      </c>
-      <c r="BW10" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="BX10" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BY10" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BZ10" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CA10" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CB10" s="34">
+      <c r="BV10" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="BW10" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="BX10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA10" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB10" s="35">
         <f>IFERROR((VLOOKUP(BV10,Scoring!$A:$B,2,0))+IF(BX10="y",1,0)+IF(BY10="y",1,0)+IF(BZ10="y",1,0)+IF(CA10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC10" s="28">
+      <c r="CC10" s="29">
         <v>4.0</v>
       </c>
-      <c r="CD10" s="29">
+      <c r="CD10" s="30">
         <v>5.0</v>
       </c>
-      <c r="CE10" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="CF10" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="CG10" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CH10" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CI10" s="34">
+      <c r="CE10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH10" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI10" s="35">
         <f>IFERROR((VLOOKUP(CC10,Scoring!$A:$B,2,0))+IF(CE10="y",1,0)+IF(CF10="y",1,0)+IF(CG10="y",1,0)+IF(CH10="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="CJ10" s="28">
+      <c r="CJ10" s="29">
         <v>7.0</v>
       </c>
-      <c r="CK10" s="29">
+      <c r="CK10" s="30">
         <v>7.0</v>
       </c>
-      <c r="CL10" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="CM10" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="CN10" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CO10" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CP10" s="34">
+      <c r="CL10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO10" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP10" s="35">
         <f>IFERROR((VLOOKUP(CJ10,Scoring!$A:$B,2,0))+IF(CL10="y",1,0)+IF(CM10="y",1,0)+IF(CN10="y",1,0)+IF(CO10="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="CQ10" s="28">
+      <c r="CQ10" s="29">
         <v>21.0</v>
       </c>
-      <c r="CR10" s="29">
+      <c r="CR10" s="30">
         <v>3.0</v>
       </c>
-      <c r="CS10" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="CT10" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="CU10" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CV10" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CW10" s="34">
+      <c r="CS10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV10" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW10" s="35">
         <f>IFERROR((VLOOKUP(CQ10,Scoring!$A:$B,2,0))+IF(CS10="y",1,0)+IF(CT10="y",1,0)+IF(CU10="y",1,0)+IF(CV10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX10" s="28">
+      <c r="CX10" s="29">
         <v>7.0</v>
       </c>
-      <c r="CY10" s="29">
+      <c r="CY10" s="30">
         <v>7.0</v>
       </c>
-      <c r="CZ10" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="DA10" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="DB10" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="DC10" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="DD10" s="34">
+      <c r="CZ10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC10" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD10" s="35">
         <f>IFERROR((VLOOKUP(CX10,Scoring!$A:$B,2,0))+IF(CZ10="y",1,0)+IF(DA10="y",1,0)+IF(DB10="y",1,0)+IF(DC10="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="DE10" s="28"/>
-      <c r="DF10" s="37"/>
-      <c r="DG10" s="38"/>
-      <c r="DH10" s="39"/>
-      <c r="DI10" s="40"/>
-      <c r="DJ10" s="41"/>
-      <c r="DK10" s="34">
+      <c r="DE10" s="29">
+        <v>8.0</v>
+      </c>
+      <c r="DF10" s="30">
+        <v>11.0</v>
+      </c>
+      <c r="DG10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI10" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="DJ10" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK10" s="35">
         <f>IFERROR((VLOOKUP(DE10,Scoring!$A:$B,2,0))+IF(DG10="y",1,0)+IF(DH10="y",1,0)+IF(DI10="y",1,0)+IF(DJ10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="DL10" s="28"/>
-      <c r="DM10" s="37"/>
-      <c r="DN10" s="38"/>
-      <c r="DO10" s="39"/>
-      <c r="DP10" s="40"/>
-      <c r="DQ10" s="41"/>
-      <c r="DR10" s="34">
+        <v>5</v>
+      </c>
+      <c r="DL10" s="29"/>
+      <c r="DM10" s="38"/>
+      <c r="DN10" s="39"/>
+      <c r="DO10" s="40"/>
+      <c r="DP10" s="41"/>
+      <c r="DQ10" s="42"/>
+      <c r="DR10" s="35">
         <f>IFERROR((VLOOKUP(DL10,Scoring!$A:$B,2,0))+IF(DN10="y",1,0)+IF(DO10="y",1,0)+IF(DP10="y",1,0)+IF(DQ10="y",1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="DS10" s="13">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="29">
         <v>7.0</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="30">
         <v>12.0</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="J11" s="34">
+      <c r="F11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="J11" s="35">
         <f>IFERROR((VLOOKUP(D11,Scoring!$A:$B,2,0))+IF(F11="y",1,0)+IF(G11="y",1,0)+IF(H11="y",1,0)+IF(I11="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="29">
         <v>21.0</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="30">
         <v>10.0</v>
       </c>
-      <c r="M11" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="N11" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="O11" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q11" s="35">
+      <c r="M11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q11" s="36">
         <f>IFERROR((VLOOKUP(K11,Scoring!$D:$E,2,0))+IF(M11="y",1,0)+IF(N11="y",1,0)+IF(O11="y",1,0)+IF(P11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="29">
         <v>11.0</v>
       </c>
-      <c r="S11" s="29">
+      <c r="S11" s="30">
         <v>15.0</v>
       </c>
-      <c r="T11" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="U11" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="V11" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="W11" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="X11" s="34">
+      <c r="T11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="U11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="V11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="W11" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="X11" s="35">
         <f>IFERROR((VLOOKUP(R11,Scoring!$A:$B,2,0))+IF(T11="y",1,0)+IF(U11="y",1,0)+IF(V11="y",1,0)+IF(W11="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="Y11" s="28">
+      <c r="Y11" s="29">
         <v>21.0</v>
       </c>
-      <c r="Z11" s="29">
+      <c r="Z11" s="30">
         <v>11.0</v>
       </c>
-      <c r="AA11" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB11" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC11" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD11" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE11" s="34">
+      <c r="AA11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD11" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE11" s="35">
         <f>IFERROR((VLOOKUP(Y11,Scoring!$A:$B,2,0))+IF(AA11="y",1,0)+IF(AB11="y",1,0)+IF(AC11="y",1,0)+IF(AD11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="28">
+      <c r="AF11" s="29">
         <v>13.0</v>
       </c>
-      <c r="AG11" s="29">
+      <c r="AG11" s="30">
         <v>12.0</v>
       </c>
-      <c r="AH11" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI11" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ11" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK11" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL11" s="34">
+      <c r="AH11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK11" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL11" s="35">
         <f>IFERROR((VLOOKUP(AF11,Scoring!$A:$B,2,0))+IF(AH11="y",1,0)+IF(AI11="y",1,0)+IF(AJ11="y",1,0)+IF(AK11="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AM11" s="28">
+      <c r="AM11" s="29">
         <v>11.0</v>
       </c>
-      <c r="AN11" s="29">
+      <c r="AN11" s="30">
         <v>14.0</v>
       </c>
-      <c r="AO11" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP11" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ11" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR11" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS11" s="34">
+      <c r="AO11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR11" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS11" s="35">
         <f>IFERROR((VLOOKUP(AM11,Scoring!$A:$B,2,0))+IF(AO11="y",1,0)+IF(AP11="y",1,0)+IF(AQ11="y",1,0)+IF(AR11="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AT11" s="28">
+      <c r="AT11" s="29">
         <v>10.0</v>
       </c>
-      <c r="AU11" s="29">
+      <c r="AU11" s="30">
         <v>12.0</v>
       </c>
-      <c r="AV11" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AW11" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AX11" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY11" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ11" s="34">
+      <c r="AV11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY11" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ11" s="35">
         <f>IFERROR((VLOOKUP(AT11,Scoring!$A:$B,2,0))+IF(AV11="y",1,0)+IF(AW11="y",1,0)+IF(AX11="y",1,0)+IF(AY11="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="BA11" s="28">
+      <c r="BA11" s="29">
         <v>15.0</v>
       </c>
-      <c r="BB11" s="29">
+      <c r="BB11" s="30">
         <v>14.0</v>
       </c>
-      <c r="BC11" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD11" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE11" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="BF11" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG11" s="34">
+      <c r="BC11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF11" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG11" s="35">
         <f>IFERROR((VLOOKUP(BA11,Scoring!$D:$E,2,0))+IF(BC11="y",1,0)+IF(BD11="y",1,0)+IF(BE11="y",1,0)+IF(BF11="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="BH11" s="28">
+      <c r="BH11" s="29">
         <v>10.0</v>
       </c>
-      <c r="BI11" s="29">
+      <c r="BI11" s="30">
         <v>4.0</v>
       </c>
-      <c r="BJ11" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BK11" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL11" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM11" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="BN11" s="34">
+      <c r="BJ11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM11" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN11" s="35">
         <f>IFERROR((VLOOKUP(BH11,Scoring!$A:$B,2,0))+IF(BJ11="y",1,0)+IF(BK11="y",1,0)+IF(BL11="y",1,0)+IF(BM11="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="BO11" s="28">
-        <v>22.0</v>
-      </c>
-      <c r="BP11" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="BQ11" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BR11" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BS11" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="BT11" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="BU11" s="34">
+      <c r="BO11" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="BP11" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="BQ11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT11" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU11" s="35">
         <f>IFERROR((VLOOKUP(BO11,Scoring!$D:$E,2,0))+IF(BQ11="y",1,0)+IF(BR11="y",1,0)+IF(BS11="y",1,0)+IF(BT11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV11" s="28">
-        <v>22.0</v>
-      </c>
-      <c r="BW11" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="BX11" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BY11" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BZ11" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CA11" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CB11" s="34">
+      <c r="BV11" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="BW11" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="BX11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA11" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB11" s="35">
         <f>IFERROR((VLOOKUP(BV11,Scoring!$A:$B,2,0))+IF(BX11="y",1,0)+IF(BY11="y",1,0)+IF(BZ11="y",1,0)+IF(CA11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC11" s="28">
+      <c r="CC11" s="29">
         <v>12.0</v>
       </c>
-      <c r="CD11" s="29">
+      <c r="CD11" s="30">
         <v>9.0</v>
       </c>
-      <c r="CE11" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="CF11" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="CG11" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CH11" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CI11" s="34">
+      <c r="CE11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH11" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI11" s="35">
         <f>IFERROR((VLOOKUP(CC11,Scoring!$A:$B,2,0))+IF(CE11="y",1,0)+IF(CF11="y",1,0)+IF(CG11="y",1,0)+IF(CH11="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="CJ11" s="28">
+      <c r="CJ11" s="29">
         <v>13.0</v>
       </c>
-      <c r="CK11" s="29">
+      <c r="CK11" s="30">
         <v>12.0</v>
       </c>
-      <c r="CL11" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="CM11" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="CN11" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CO11" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CP11" s="34">
+      <c r="CL11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO11" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP11" s="35">
         <f>IFERROR((VLOOKUP(CJ11,Scoring!$A:$B,2,0))+IF(CL11="y",1,0)+IF(CM11="y",1,0)+IF(CN11="y",1,0)+IF(CO11="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="CQ11" s="28">
-        <v>22.0</v>
-      </c>
-      <c r="CR11" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="CS11" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="CT11" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="CU11" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CV11" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CW11" s="34">
+      <c r="CQ11" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="CR11" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="CS11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV11" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW11" s="35">
         <f>IFERROR((VLOOKUP(CQ11,Scoring!$A:$B,2,0))+IF(CS11="y",1,0)+IF(CT11="y",1,0)+IF(CU11="y",1,0)+IF(CV11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX11" s="28">
-        <v>22.0</v>
-      </c>
-      <c r="CY11" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="CZ11" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="DA11" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="DB11" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="DC11" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="DD11" s="34">
+      <c r="CX11" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="CY11" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="CZ11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC11" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD11" s="35">
         <f>IFERROR((VLOOKUP(CX11,Scoring!$A:$B,2,0))+IF(CZ11="y",1,0)+IF(DA11="y",1,0)+IF(DB11="y",1,0)+IF(DC11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE11" s="28"/>
-      <c r="DF11" s="37"/>
-      <c r="DG11" s="38"/>
-      <c r="DH11" s="39"/>
-      <c r="DI11" s="40"/>
-      <c r="DJ11" s="41"/>
-      <c r="DK11" s="34">
+      <c r="DE11" s="29">
+        <v>9.0</v>
+      </c>
+      <c r="DF11" s="30">
+        <v>12.0</v>
+      </c>
+      <c r="DG11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI11" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ11" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK11" s="35">
         <f>IFERROR((VLOOKUP(DE11,Scoring!$A:$B,2,0))+IF(DG11="y",1,0)+IF(DH11="y",1,0)+IF(DI11="y",1,0)+IF(DJ11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="DL11" s="28"/>
-      <c r="DM11" s="37"/>
-      <c r="DN11" s="38"/>
-      <c r="DO11" s="39"/>
-      <c r="DP11" s="40"/>
-      <c r="DQ11" s="41"/>
-      <c r="DR11" s="34">
+        <v>3</v>
+      </c>
+      <c r="DL11" s="29"/>
+      <c r="DM11" s="38"/>
+      <c r="DN11" s="39"/>
+      <c r="DO11" s="40"/>
+      <c r="DP11" s="41"/>
+      <c r="DQ11" s="42"/>
+      <c r="DR11" s="35">
         <f>IFERROR((VLOOKUP(DL11,Scoring!$A:$B,2,0))+IF(DN11="y",1,0)+IF(DO11="y",1,0)+IF(DP11="y",1,0)+IF(DQ11="y",1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="DS11" s="13">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="46">
         <v>6.0</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="47">
         <v>9.0</v>
       </c>
-      <c r="F12" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="H12" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="J12" s="51">
+      <c r="F12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="J12" s="52">
         <f>IFERROR((VLOOKUP(D12,Scoring!$A:$B,2,0))+IF(F12="y",1,0)+IF(G12="y",1,0)+IF(H12="y",1,0)+IF(I12="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="K12" s="45">
+      <c r="K12" s="46">
         <v>12.0</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="47">
         <v>13.0</v>
       </c>
-      <c r="M12" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="N12" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="O12" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="P12" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q12" s="52">
+      <c r="M12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="N12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="O12" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="P12" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q12" s="53">
         <f>IFERROR((VLOOKUP(K12,Scoring!$D:$E,2,0))+IF(M12="y",1,0)+IF(N12="y",1,0)+IF(O12="y",1,0)+IF(P12="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="R12" s="45">
+      <c r="R12" s="46">
         <v>4.0</v>
       </c>
-      <c r="S12" s="46">
+      <c r="S12" s="47">
         <v>4.0</v>
       </c>
-      <c r="T12" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="U12" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="V12" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="W12" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="X12" s="51">
+      <c r="T12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="U12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="V12" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="W12" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="X12" s="52">
         <f>IFERROR((VLOOKUP(R12,Scoring!$A:$B,2,0))+IF(T12="y",1,0)+IF(U12="y",1,0)+IF(V12="y",1,0)+IF(W12="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="Y12" s="45">
+      <c r="Y12" s="46">
         <v>7.0</v>
       </c>
-      <c r="Z12" s="46">
+      <c r="Z12" s="47">
         <v>9.0</v>
       </c>
-      <c r="AA12" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB12" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC12" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD12" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE12" s="51">
+      <c r="AA12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC12" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD12" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE12" s="52">
         <f>IFERROR((VLOOKUP(Y12,Scoring!$A:$B,2,0))+IF(AA12="y",1,0)+IF(AB12="y",1,0)+IF(AC12="y",1,0)+IF(AD12="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="AF12" s="45">
-        <v>22.0</v>
-      </c>
-      <c r="AG12" s="46">
-        <v>22.0</v>
-      </c>
-      <c r="AH12" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI12" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ12" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK12" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL12" s="51">
+      <c r="AF12" s="46">
+        <v>22.0</v>
+      </c>
+      <c r="AG12" s="47">
+        <v>22.0</v>
+      </c>
+      <c r="AH12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ12" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK12" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL12" s="52">
         <f>IFERROR((VLOOKUP(AF12,Scoring!$A:$B,2,0))+IF(AH12="y",1,0)+IF(AI12="y",1,0)+IF(AJ12="y",1,0)+IF(AK12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="45">
+      <c r="AM12" s="46">
         <v>6.0</v>
       </c>
-      <c r="AN12" s="46">
+      <c r="AN12" s="47">
         <v>10.0</v>
       </c>
-      <c r="AO12" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP12" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ12" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR12" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS12" s="51">
+      <c r="AO12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ12" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR12" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS12" s="52">
         <f>IFERROR((VLOOKUP(AM12,Scoring!$A:$B,2,0))+IF(AO12="y",1,0)+IF(AP12="y",1,0)+IF(AQ12="y",1,0)+IF(AR12="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="AT12" s="45">
+      <c r="AT12" s="46">
         <v>8.0</v>
       </c>
-      <c r="AU12" s="46">
+      <c r="AU12" s="47">
         <v>11.0</v>
       </c>
-      <c r="AV12" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="AW12" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="AX12" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY12" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ12" s="51">
+      <c r="AV12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX12" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY12" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ12" s="52">
         <f>IFERROR((VLOOKUP(AT12,Scoring!$A:$B,2,0))+IF(AV12="y",1,0)+IF(AW12="y",1,0)+IF(AX12="y",1,0)+IF(AY12="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="BA12" s="45">
+      <c r="BA12" s="46">
         <v>8.0</v>
       </c>
-      <c r="BB12" s="46">
+      <c r="BB12" s="47">
         <v>13.0</v>
       </c>
-      <c r="BC12" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD12" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE12" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="BF12" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG12" s="51">
+      <c r="BC12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE12" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF12" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG12" s="52">
         <f>IFERROR((VLOOKUP(BA12,Scoring!$D:$E,2,0))+IF(BC12="y",1,0)+IF(BD12="y",1,0)+IF(BE12="y",1,0)+IF(BF12="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="BH12" s="45">
+      <c r="BH12" s="46">
         <v>11.0</v>
       </c>
-      <c r="BI12" s="46">
+      <c r="BI12" s="47">
         <v>8.0</v>
       </c>
-      <c r="BJ12" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="BK12" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL12" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM12" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="BN12" s="51">
+      <c r="BJ12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL12" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM12" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN12" s="52">
         <f>IFERROR((VLOOKUP(BH12,Scoring!$A:$B,2,0))+IF(BJ12="y",1,0)+IF(BK12="y",1,0)+IF(BL12="y",1,0)+IF(BM12="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="BO12" s="45">
+      <c r="BO12" s="46">
         <v>15.0</v>
       </c>
-      <c r="BP12" s="46">
+      <c r="BP12" s="47">
         <v>15.0</v>
       </c>
-      <c r="BQ12" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="BR12" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="BS12" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="BT12" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="BU12" s="51">
+      <c r="BQ12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS12" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT12" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU12" s="52">
         <f>IFERROR((VLOOKUP(BO12,Scoring!$D:$E,2,0))+IF(BQ12="y",1,0)+IF(BR12="y",1,0)+IF(BS12="y",1,0)+IF(BT12="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="BV12" s="45">
+      <c r="BV12" s="46">
         <v>13.0</v>
       </c>
-      <c r="BW12" s="46">
+      <c r="BW12" s="47">
         <v>5.0</v>
       </c>
-      <c r="BX12" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="BY12" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="BZ12" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="CA12" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="CB12" s="51">
+      <c r="BX12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ12" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA12" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB12" s="52">
         <f>IFERROR((VLOOKUP(BV12,Scoring!$A:$B,2,0))+IF(BX12="y",1,0)+IF(BY12="y",1,0)+IF(BZ12="y",1,0)+IF(CA12="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="CC12" s="45">
+      <c r="CC12" s="46">
         <v>6.0</v>
       </c>
-      <c r="CD12" s="46">
+      <c r="CD12" s="47">
         <v>13.0</v>
       </c>
-      <c r="CE12" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="CF12" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="CG12" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="CH12" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="CI12" s="51">
+      <c r="CE12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG12" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH12" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI12" s="52">
         <f>IFERROR((VLOOKUP(CC12,Scoring!$A:$B,2,0))+IF(CE12="y",1,0)+IF(CF12="y",1,0)+IF(CG12="y",1,0)+IF(CH12="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="CJ12" s="45">
+      <c r="CJ12" s="46">
         <v>9.0</v>
       </c>
-      <c r="CK12" s="46">
-        <v>22.0</v>
-      </c>
-      <c r="CL12" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="CM12" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="CN12" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="CO12" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="CP12" s="51">
+      <c r="CK12" s="47">
+        <v>22.0</v>
+      </c>
+      <c r="CL12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN12" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO12" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP12" s="52">
         <f>IFERROR((VLOOKUP(CJ12,Scoring!$A:$B,2,0))+IF(CL12="y",1,0)+IF(CM12="y",1,0)+IF(CN12="y",1,0)+IF(CO12="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="CQ12" s="45">
+      <c r="CQ12" s="46">
         <v>5.0</v>
       </c>
-      <c r="CR12" s="46">
+      <c r="CR12" s="47">
         <v>7.0</v>
       </c>
-      <c r="CS12" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="CT12" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="CU12" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="CV12" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="CW12" s="51">
+      <c r="CS12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU12" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV12" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW12" s="52">
         <f>IFERROR((VLOOKUP(CQ12,Scoring!$A:$B,2,0))+IF(CS12="y",1,0)+IF(CT12="y",1,0)+IF(CU12="y",1,0)+IF(CV12="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="CX12" s="45">
+      <c r="CX12" s="46">
         <v>6.0</v>
       </c>
-      <c r="CY12" s="46">
+      <c r="CY12" s="47">
         <v>6.0</v>
       </c>
-      <c r="CZ12" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="DA12" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="DB12" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="DC12" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="DD12" s="51">
+      <c r="CZ12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB12" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC12" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD12" s="52">
         <f>IFERROR((VLOOKUP(CX12,Scoring!$A:$B,2,0))+IF(CZ12="y",1,0)+IF(DA12="y",1,0)+IF(DB12="y",1,0)+IF(DC12="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="DE12" s="45"/>
-      <c r="DF12" s="54"/>
-      <c r="DG12" s="55"/>
-      <c r="DH12" s="56"/>
-      <c r="DI12" s="57"/>
-      <c r="DJ12" s="58"/>
-      <c r="DK12" s="51">
+      <c r="DE12" s="46">
+        <v>22.0</v>
+      </c>
+      <c r="DF12" s="47">
+        <v>22.0</v>
+      </c>
+      <c r="DG12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH12" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI12" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ12" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK12" s="52">
         <f>IFERROR((VLOOKUP(DE12,Scoring!$A:$B,2,0))+IF(DG12="y",1,0)+IF(DH12="y",1,0)+IF(DI12="y",1,0)+IF(DJ12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL12" s="45"/>
-      <c r="DM12" s="54"/>
-      <c r="DN12" s="55"/>
-      <c r="DO12" s="56"/>
-      <c r="DP12" s="57"/>
-      <c r="DQ12" s="58"/>
-      <c r="DR12" s="51">
+      <c r="DL12" s="46"/>
+      <c r="DM12" s="55"/>
+      <c r="DN12" s="56"/>
+      <c r="DO12" s="57"/>
+      <c r="DP12" s="58"/>
+      <c r="DQ12" s="59"/>
+      <c r="DR12" s="52">
         <f>IFERROR((VLOOKUP(DL12,Scoring!$A:$B,2,0))+IF(DN12="y",1,0)+IF(DO12="y",1,0)+IF(DP12="y",1,0)+IF(DQ12="y",1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="DS12" s="13">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="63">
         <v>11.0</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="64">
         <v>15.0</v>
       </c>
-      <c r="F13" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="G13" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="H13" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="J13" s="68">
+      <c r="F13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="I13" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="J13" s="69">
         <f>IFERROR((VLOOKUP(D13,Scoring!$A:$B,2,0))+IF(F13="y",1,0)+IF(G13="y",1,0)+IF(H13="y",1,0)+IF(I13="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="62">
+      <c r="K13" s="63">
         <v>11.0</v>
       </c>
-      <c r="L13" s="63">
+      <c r="L13" s="64">
         <v>12.0</v>
       </c>
-      <c r="M13" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="N13" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="O13" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="P13" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q13" s="69">
+      <c r="M13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="N13" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="O13" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="P13" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q13" s="70">
         <f>IFERROR((VLOOKUP(K13,Scoring!$D:$E,2,0))+IF(M13="y",1,0)+IF(N13="y",1,0)+IF(O13="y",1,0)+IF(P13="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="R13" s="62">
+      <c r="R13" s="63">
         <v>10.0</v>
       </c>
-      <c r="S13" s="63">
+      <c r="S13" s="64">
         <v>5.0</v>
       </c>
-      <c r="T13" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="U13" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="V13" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="W13" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="X13" s="68">
+      <c r="T13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="U13" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="V13" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="W13" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="X13" s="69">
         <f>IFERROR((VLOOKUP(R13,Scoring!$A:$B,2,0))+IF(T13="y",1,0)+IF(U13="y",1,0)+IF(V13="y",1,0)+IF(W13="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="Y13" s="62">
+      <c r="Y13" s="63">
         <v>12.0</v>
       </c>
-      <c r="Z13" s="63">
+      <c r="Z13" s="64">
         <v>10.0</v>
       </c>
-      <c r="AA13" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB13" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC13" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD13" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE13" s="68">
+      <c r="AA13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB13" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC13" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD13" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE13" s="69">
         <f>IFERROR((VLOOKUP(Y13,Scoring!$A:$B,2,0))+IF(AA13="y",1,0)+IF(AB13="y",1,0)+IF(AC13="y",1,0)+IF(AD13="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AF13" s="62">
+      <c r="AF13" s="63">
         <v>11.0</v>
       </c>
-      <c r="AG13" s="63">
+      <c r="AG13" s="64">
         <v>9.0</v>
       </c>
-      <c r="AH13" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI13" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ13" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK13" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL13" s="68">
+      <c r="AH13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI13" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ13" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK13" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL13" s="69">
         <f>IFERROR((VLOOKUP(AF13,Scoring!$A:$B,2,0))+IF(AH13="y",1,0)+IF(AI13="y",1,0)+IF(AJ13="y",1,0)+IF(AK13="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AM13" s="62">
+      <c r="AM13" s="63">
         <v>10.0</v>
       </c>
-      <c r="AN13" s="63">
+      <c r="AN13" s="64">
         <v>8.0</v>
       </c>
-      <c r="AO13" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP13" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ13" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR13" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS13" s="68">
+      <c r="AO13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP13" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ13" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR13" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS13" s="69">
         <f>IFERROR((VLOOKUP(AM13,Scoring!$A:$B,2,0))+IF(AO13="y",1,0)+IF(AP13="y",1,0)+IF(AQ13="y",1,0)+IF(AR13="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="AT13" s="62">
+      <c r="AT13" s="63">
         <v>11.0</v>
       </c>
-      <c r="AU13" s="63">
+      <c r="AU13" s="64">
         <v>8.0</v>
       </c>
-      <c r="AV13" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="AW13" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="AX13" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY13" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ13" s="68">
+      <c r="AV13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW13" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX13" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY13" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ13" s="69">
         <f>IFERROR((VLOOKUP(AT13,Scoring!$A:$B,2,0))+IF(AV13="y",1,0)+IF(AW13="y",1,0)+IF(AX13="y",1,0)+IF(AY13="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="BA13" s="62">
+      <c r="BA13" s="63">
         <v>14.0</v>
       </c>
-      <c r="BB13" s="63">
+      <c r="BB13" s="64">
         <v>15.0</v>
       </c>
-      <c r="BC13" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD13" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE13" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="BF13" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG13" s="68">
+      <c r="BC13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD13" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE13" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF13" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG13" s="69">
         <f>IFERROR((VLOOKUP(BA13,Scoring!$D:$E,2,0))+IF(BC13="y",1,0)+IF(BD13="y",1,0)+IF(BE13="y",1,0)+IF(BF13="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="BH13" s="62">
+      <c r="BH13" s="63">
         <v>21.0</v>
       </c>
-      <c r="BI13" s="63">
+      <c r="BI13" s="64">
         <v>5.0</v>
       </c>
-      <c r="BJ13" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="BK13" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL13" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM13" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="BN13" s="68">
+      <c r="BJ13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK13" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL13" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM13" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN13" s="69">
         <f>IFERROR((VLOOKUP(BH13,Scoring!$A:$B,2,0))+IF(BJ13="y",1,0)+IF(BK13="y",1,0)+IF(BL13="y",1,0)+IF(BM13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO13" s="62">
+      <c r="BO13" s="63">
         <v>7.0</v>
       </c>
-      <c r="BP13" s="63">
+      <c r="BP13" s="64">
         <v>10.0</v>
       </c>
-      <c r="BQ13" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="BR13" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="BS13" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="BT13" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="BU13" s="68">
+      <c r="BQ13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR13" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS13" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT13" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU13" s="69">
         <f>IFERROR((VLOOKUP(BO13,Scoring!$D:$E,2,0))+IF(BQ13="y",1,0)+IF(BR13="y",1,0)+IF(BS13="y",1,0)+IF(BT13="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="BV13" s="62">
+      <c r="BV13" s="63">
         <v>7.0</v>
       </c>
-      <c r="BW13" s="63">
+      <c r="BW13" s="64">
         <v>14.0</v>
       </c>
-      <c r="BX13" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="BY13" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="BZ13" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="CA13" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="CB13" s="68">
+      <c r="BX13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY13" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ13" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA13" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB13" s="69">
         <f>IFERROR((VLOOKUP(BV13,Scoring!$A:$B,2,0))+IF(BX13="y",1,0)+IF(BY13="y",1,0)+IF(BZ13="y",1,0)+IF(CA13="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="CC13" s="62">
+      <c r="CC13" s="63">
         <v>9.0</v>
       </c>
-      <c r="CD13" s="63">
+      <c r="CD13" s="64">
         <v>8.0</v>
       </c>
-      <c r="CE13" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="CF13" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="CG13" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="CH13" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="CI13" s="68">
+      <c r="CE13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF13" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG13" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH13" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI13" s="69">
         <f>IFERROR((VLOOKUP(CC13,Scoring!$A:$B,2,0))+IF(CE13="y",1,0)+IF(CF13="y",1,0)+IF(CG13="y",1,0)+IF(CH13="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="CJ13" s="62">
+      <c r="CJ13" s="63">
         <v>8.0</v>
       </c>
-      <c r="CK13" s="63">
+      <c r="CK13" s="64">
         <v>5.0</v>
       </c>
-      <c r="CL13" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="CM13" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="CN13" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="CO13" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="CP13" s="68">
+      <c r="CL13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM13" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN13" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO13" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP13" s="69">
         <f>IFERROR((VLOOKUP(CJ13,Scoring!$A:$B,2,0))+IF(CL13="y",1,0)+IF(CM13="y",1,0)+IF(CN13="y",1,0)+IF(CO13="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="CQ13" s="62">
+      <c r="CQ13" s="63">
         <v>6.0</v>
       </c>
-      <c r="CR13" s="63">
+      <c r="CR13" s="64">
         <v>5.0</v>
       </c>
-      <c r="CS13" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="CT13" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="CU13" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="CV13" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="CW13" s="68">
+      <c r="CS13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT13" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU13" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV13" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW13" s="69">
         <f>IFERROR((VLOOKUP(CQ13,Scoring!$A:$B,2,0))+IF(CS13="y",1,0)+IF(CT13="y",1,0)+IF(CU13="y",1,0)+IF(CV13="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="CX13" s="62">
+      <c r="CX13" s="63">
         <v>4.0</v>
       </c>
-      <c r="CY13" s="63">
+      <c r="CY13" s="64">
         <v>9.0</v>
       </c>
-      <c r="CZ13" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="DA13" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="DB13" s="66" t="s">
-        <v>270</v>
-      </c>
-      <c r="DC13" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="DD13" s="68">
+      <c r="CZ13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA13" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB13" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="DC13" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD13" s="69">
         <f>IFERROR((VLOOKUP(CX13,Scoring!$A:$B,2,0))+IF(CZ13="y",1,0)+IF(DA13="y",1,0)+IF(DB13="y",1,0)+IF(DC13="y",1,0),0)</f>
         <v>13</v>
       </c>
-      <c r="DE13" s="62"/>
-      <c r="DF13" s="71"/>
-      <c r="DG13" s="72"/>
-      <c r="DH13" s="73"/>
-      <c r="DI13" s="74"/>
-      <c r="DJ13" s="75"/>
-      <c r="DK13" s="68">
+      <c r="DE13" s="63">
+        <v>7.0</v>
+      </c>
+      <c r="DF13" s="64">
+        <v>6.0</v>
+      </c>
+      <c r="DG13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH13" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI13" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ13" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK13" s="69">
         <f>IFERROR((VLOOKUP(DE13,Scoring!$A:$B,2,0))+IF(DG13="y",1,0)+IF(DH13="y",1,0)+IF(DI13="y",1,0)+IF(DJ13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="DL13" s="62"/>
-      <c r="DM13" s="71"/>
-      <c r="DN13" s="72"/>
-      <c r="DO13" s="73"/>
-      <c r="DP13" s="74"/>
-      <c r="DQ13" s="75"/>
-      <c r="DR13" s="68">
+        <v>6</v>
+      </c>
+      <c r="DL13" s="63"/>
+      <c r="DM13" s="72"/>
+      <c r="DN13" s="73"/>
+      <c r="DO13" s="74"/>
+      <c r="DP13" s="75"/>
+      <c r="DQ13" s="76"/>
+      <c r="DR13" s="69">
         <f>IFERROR((VLOOKUP(DL13,Scoring!$A:$B,2,0))+IF(DN13="y",1,0)+IF(DO13="y",1,0)+IF(DP13="y",1,0)+IF(DQ13="y",1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="DS13" s="13">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C14" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="29">
         <v>8.0</v>
       </c>
-      <c r="E14" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="J14" s="34">
+      <c r="E14" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="J14" s="35">
         <f>IFERROR((VLOOKUP(D14,Scoring!$A:$B,2,0))+IF(F14="y",1,0)+IF(G14="y",1,0)+IF(H14="y",1,0)+IF(I14="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="29">
         <v>2.0</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="30">
         <v>4.0</v>
       </c>
-      <c r="M14" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="N14" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="O14" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="P14" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q14" s="35">
+      <c r="M14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q14" s="36">
         <f>IFERROR((VLOOKUP(K14,Scoring!$D:$E,2,0))+IF(M14="y",1,0)+IF(N14="y",1,0)+IF(O14="y",1,0)+IF(P14="y",1,0),0)</f>
         <v>7</v>
       </c>
-      <c r="R14" s="28">
+      <c r="R14" s="29">
         <v>8.0</v>
       </c>
-      <c r="S14" s="29">
+      <c r="S14" s="30">
         <v>13.0</v>
       </c>
-      <c r="T14" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="U14" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="V14" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="W14" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="X14" s="34">
+      <c r="T14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="U14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="V14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="W14" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="X14" s="35">
         <f>IFERROR((VLOOKUP(R14,Scoring!$A:$B,2,0))+IF(T14="y",1,0)+IF(U14="y",1,0)+IF(V14="y",1,0)+IF(W14="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="Y14" s="28">
+      <c r="Y14" s="29">
         <v>9.0</v>
       </c>
-      <c r="Z14" s="29">
+      <c r="Z14" s="30">
         <v>5.0</v>
       </c>
-      <c r="AA14" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB14" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC14" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD14" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE14" s="34">
+      <c r="AA14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD14" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE14" s="35">
         <f>IFERROR((VLOOKUP(Y14,Scoring!$A:$B,2,0))+IF(AA14="y",1,0)+IF(AB14="y",1,0)+IF(AC14="y",1,0)+IF(AD14="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="AF14" s="28">
+      <c r="AF14" s="29">
         <v>2.0</v>
       </c>
-      <c r="AG14" s="29">
+      <c r="AG14" s="30">
         <v>5.0</v>
       </c>
-      <c r="AH14" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="AI14" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="AJ14" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK14" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL14" s="34">
+      <c r="AH14" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="AI14" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK14" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL14" s="35">
         <f>IFERROR((VLOOKUP(AF14,Scoring!$A:$B,2,0))+IF(AH14="y",1,0)+IF(AI14="y",1,0)+IF(AJ14="y",1,0)+IF(AK14="y",1,0),0)</f>
         <v>20</v>
       </c>
-      <c r="AM14" s="28">
+      <c r="AM14" s="29">
         <v>4.0</v>
       </c>
-      <c r="AN14" s="29">
+      <c r="AN14" s="30">
         <v>3.0</v>
       </c>
-      <c r="AO14" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP14" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ14" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR14" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="AS14" s="34">
+      <c r="AO14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR14" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="AS14" s="35">
         <f>IFERROR((VLOOKUP(AM14,Scoring!$A:$B,2,0))+IF(AO14="y",1,0)+IF(AP14="y",1,0)+IF(AQ14="y",1,0)+IF(AR14="y",1,0),0)</f>
         <v>13</v>
       </c>
-      <c r="AT14" s="28">
+      <c r="AT14" s="29">
         <v>5.0</v>
       </c>
-      <c r="AU14" s="29">
+      <c r="AU14" s="30">
         <v>3.0</v>
       </c>
-      <c r="AV14" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AW14" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AX14" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY14" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ14" s="34">
+      <c r="AV14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY14" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ14" s="35">
         <f>IFERROR((VLOOKUP(AT14,Scoring!$A:$B,2,0))+IF(AV14="y",1,0)+IF(AW14="y",1,0)+IF(AX14="y",1,0)+IF(AY14="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="BA14" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="BB14" s="29">
+      <c r="BA14" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="BB14" s="30">
         <v>3.0</v>
       </c>
-      <c r="BC14" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD14" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE14" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="BF14" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG14" s="34">
+      <c r="BC14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF14" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG14" s="35">
         <f>IFERROR((VLOOKUP(BA14,Scoring!$D:$E,2,0))+IF(BC14="y",1,0)+IF(BD14="y",1,0)+IF(BE14="y",1,0)+IF(BF14="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="BH14" s="28">
+      <c r="BH14" s="29">
         <v>7.0</v>
       </c>
-      <c r="BI14" s="29">
+      <c r="BI14" s="30">
         <v>15.0</v>
       </c>
-      <c r="BJ14" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BK14" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL14" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM14" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="BN14" s="34">
+      <c r="BJ14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM14" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN14" s="35">
         <f>IFERROR((VLOOKUP(BH14,Scoring!$A:$B,2,0))+IF(BJ14="y",1,0)+IF(BK14="y",1,0)+IF(BL14="y",1,0)+IF(BM14="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="BO14" s="28">
+      <c r="BO14" s="29">
         <v>6.0</v>
       </c>
-      <c r="BP14" s="29">
+      <c r="BP14" s="30">
         <v>3.0</v>
       </c>
-      <c r="BQ14" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BR14" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BS14" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="BT14" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="BU14" s="34">
+      <c r="BQ14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT14" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU14" s="35">
         <f>IFERROR((VLOOKUP(BO14,Scoring!$D:$E,2,0))+IF(BQ14="y",1,0)+IF(BR14="y",1,0)+IF(BS14="y",1,0)+IF(BT14="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="BV14" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="BW14" s="29">
+      <c r="BV14" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="BW14" s="30">
         <v>9.0</v>
       </c>
-      <c r="BX14" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="BY14" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="BZ14" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CA14" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="CB14" s="34">
+      <c r="BX14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA14" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="CB14" s="35">
         <f>IFERROR((VLOOKUP(BV14,Scoring!$A:$B,2,0))+IF(BX14="y",1,0)+IF(BY14="y",1,0)+IF(BZ14="y",1,0)+IF(CA14="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="CC14" s="28">
+      <c r="CC14" s="29">
         <v>3.0</v>
       </c>
-      <c r="CD14" s="29">
+      <c r="CD14" s="30">
         <v>2.0</v>
       </c>
-      <c r="CE14" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="CF14" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="CG14" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CH14" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CI14" s="34">
+      <c r="CE14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH14" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI14" s="35">
         <f>IFERROR((VLOOKUP(CC14,Scoring!$A:$B,2,0))+IF(CE14="y",1,0)+IF(CF14="y",1,0)+IF(CG14="y",1,0)+IF(CH14="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="CJ14" s="28">
+      <c r="CJ14" s="29">
         <v>3.0</v>
       </c>
-      <c r="CK14" s="29">
+      <c r="CK14" s="30">
         <v>10.0</v>
       </c>
-      <c r="CL14" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="CM14" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="CN14" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CO14" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CP14" s="34">
+      <c r="CL14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM14" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="CN14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO14" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP14" s="35">
         <f>IFERROR((VLOOKUP(CJ14,Scoring!$A:$B,2,0))+IF(CL14="y",1,0)+IF(CM14="y",1,0)+IF(CN14="y",1,0)+IF(CO14="y",1,0),0)</f>
         <v>16</v>
       </c>
-      <c r="CQ14" s="28">
-        <v>22.0</v>
-      </c>
-      <c r="CR14" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="CS14" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="CT14" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="CU14" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="CV14" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="CW14" s="34">
+      <c r="CQ14" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="CR14" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="CS14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV14" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW14" s="35">
         <f>IFERROR((VLOOKUP(CQ14,Scoring!$A:$B,2,0))+IF(CS14="y",1,0)+IF(CT14="y",1,0)+IF(CU14="y",1,0)+IF(CV14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX14" s="28">
-        <v>22.0</v>
-      </c>
-      <c r="CY14" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="CZ14" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="DA14" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="DB14" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="DC14" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="DD14" s="34">
+      <c r="CX14" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="CY14" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="CZ14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC14" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD14" s="35">
         <f>IFERROR((VLOOKUP(CX14,Scoring!$A:$B,2,0))+IF(CZ14="y",1,0)+IF(DA14="y",1,0)+IF(DB14="y",1,0)+IF(DC14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE14" s="28"/>
-      <c r="DF14" s="37"/>
-      <c r="DG14" s="38"/>
-      <c r="DH14" s="39"/>
-      <c r="DI14" s="40"/>
-      <c r="DJ14" s="41"/>
-      <c r="DK14" s="34">
+      <c r="DE14" s="29">
+        <v>4.0</v>
+      </c>
+      <c r="DF14" s="30">
+        <v>5.0</v>
+      </c>
+      <c r="DG14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ14" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK14" s="35">
         <f>IFERROR((VLOOKUP(DE14,Scoring!$A:$B,2,0))+IF(DG14="y",1,0)+IF(DH14="y",1,0)+IF(DI14="y",1,0)+IF(DJ14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="DL14" s="28"/>
-      <c r="DM14" s="37"/>
-      <c r="DN14" s="38"/>
-      <c r="DO14" s="39"/>
-      <c r="DP14" s="40"/>
-      <c r="DQ14" s="41"/>
-      <c r="DR14" s="34">
+        <v>12</v>
+      </c>
+      <c r="DL14" s="29"/>
+      <c r="DM14" s="38"/>
+      <c r="DN14" s="39"/>
+      <c r="DO14" s="40"/>
+      <c r="DP14" s="41"/>
+      <c r="DQ14" s="42"/>
+      <c r="DR14" s="35">
         <f>IFERROR((VLOOKUP(DL14,Scoring!$A:$B,2,0))+IF(DN14="y",1,0)+IF(DO14="y",1,0)+IF(DP14="y",1,0)+IF(DQ14="y",1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="DS14" s="13">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="80">
         <v>21.0</v>
       </c>
-      <c r="E15" s="80">
-        <v>22.0</v>
-      </c>
-      <c r="F15" s="81" t="s">
-        <v>271</v>
-      </c>
-      <c r="G15" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="H15" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="I15" s="84" t="s">
-        <v>271</v>
-      </c>
-      <c r="J15" s="85">
+      <c r="E15" s="81">
+        <v>22.0</v>
+      </c>
+      <c r="F15" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="I15" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="J15" s="86">
         <f>IFERROR((VLOOKUP(D15,Scoring!$A:$B,2,0))+IF(F15="y",1,0)+IF(G15="y",1,0)+IF(H15="y",1,0)+IF(I15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="79">
-        <v>1.0</v>
-      </c>
-      <c r="L15" s="80">
-        <v>1.0</v>
-      </c>
-      <c r="M15" s="81" t="s">
-        <v>271</v>
-      </c>
-      <c r="N15" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="O15" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="P15" s="84" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q15" s="86">
+      <c r="K15" s="80">
+        <v>1.0</v>
+      </c>
+      <c r="L15" s="81">
+        <v>1.0</v>
+      </c>
+      <c r="M15" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="N15" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="O15" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="P15" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q15" s="87">
         <f>IFERROR((VLOOKUP(K15,Scoring!$D:$E,2,0))+IF(M15="y",1,0)+IF(N15="y",1,0)+IF(O15="y",1,0)+IF(P15="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="R15" s="79">
+      <c r="R15" s="80">
         <v>21.0</v>
       </c>
-      <c r="S15" s="80">
+      <c r="S15" s="81">
         <v>14.0</v>
       </c>
-      <c r="T15" s="81" t="s">
-        <v>271</v>
-      </c>
-      <c r="U15" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="V15" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="W15" s="84" t="s">
-        <v>271</v>
-      </c>
-      <c r="X15" s="85">
+      <c r="T15" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="U15" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="V15" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="W15" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="X15" s="86">
         <f>IFERROR((VLOOKUP(R15,Scoring!$A:$B,2,0))+IF(T15="y",1,0)+IF(U15="y",1,0)+IF(V15="y",1,0)+IF(W15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="79">
-        <v>1.0</v>
-      </c>
-      <c r="Z15" s="80">
-        <v>1.0</v>
-      </c>
-      <c r="AA15" s="81" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB15" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC15" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD15" s="84" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE15" s="85">
+      <c r="Y15" s="80">
+        <v>1.0</v>
+      </c>
+      <c r="Z15" s="81">
+        <v>1.0</v>
+      </c>
+      <c r="AA15" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB15" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC15" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD15" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE15" s="86">
         <f>IFERROR((VLOOKUP(Y15,Scoring!$A:$B,2,0))+IF(AA15="y",1,0)+IF(AB15="y",1,0)+IF(AC15="y",1,0)+IF(AD15="y",1,0),0)</f>
         <v>25</v>
       </c>
-      <c r="AF15" s="79">
-        <v>1.0</v>
-      </c>
-      <c r="AG15" s="80">
-        <v>1.0</v>
-      </c>
-      <c r="AH15" s="81" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI15" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ15" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK15" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL15" s="85">
+      <c r="AF15" s="80">
+        <v>1.0</v>
+      </c>
+      <c r="AG15" s="81">
+        <v>1.0</v>
+      </c>
+      <c r="AH15" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI15" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ15" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK15" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL15" s="86">
         <f>IFERROR((VLOOKUP(AF15,Scoring!$A:$B,2,0))+IF(AH15="y",1,0)+IF(AI15="y",1,0)+IF(AJ15="y",1,0)+IF(AK15="y",1,0),0)</f>
         <v>25</v>
       </c>
-      <c r="AM15" s="79">
-        <v>1.0</v>
-      </c>
-      <c r="AN15" s="80">
-        <v>1.0</v>
-      </c>
-      <c r="AO15" s="81" t="s">
-        <v>270</v>
-      </c>
-      <c r="AP15" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ15" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR15" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS15" s="85">
+      <c r="AM15" s="80">
+        <v>1.0</v>
+      </c>
+      <c r="AN15" s="81">
+        <v>1.0</v>
+      </c>
+      <c r="AO15" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="AP15" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ15" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR15" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS15" s="86">
         <f>IFERROR((VLOOKUP(AM15,Scoring!$A:$B,2,0))+IF(AO15="y",1,0)+IF(AP15="y",1,0)+IF(AQ15="y",1,0)+IF(AR15="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="AT15" s="79">
-        <v>1.0</v>
-      </c>
-      <c r="AU15" s="80">
+      <c r="AT15" s="80">
+        <v>1.0</v>
+      </c>
+      <c r="AU15" s="81">
         <v>4.0</v>
       </c>
-      <c r="AV15" s="81" t="s">
-        <v>270</v>
-      </c>
-      <c r="AW15" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="AX15" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY15" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ15" s="85">
+      <c r="AV15" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="AW15" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX15" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY15" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ15" s="86">
         <f>IFERROR((VLOOKUP(AT15,Scoring!$A:$B,2,0))+IF(AV15="y",1,0)+IF(AW15="y",1,0)+IF(AX15="y",1,0)+IF(AY15="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="BA15" s="79">
+      <c r="BA15" s="80">
         <v>2.0</v>
       </c>
-      <c r="BB15" s="80">
+      <c r="BB15" s="81">
         <v>2.0</v>
       </c>
-      <c r="BC15" s="81" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD15" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE15" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="BF15" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG15" s="85">
+      <c r="BC15" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD15" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE15" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF15" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG15" s="86">
         <f>IFERROR((VLOOKUP(BA15,Scoring!$D:$E,2,0))+IF(BC15="y",1,0)+IF(BD15="y",1,0)+IF(BE15="y",1,0)+IF(BF15="y",1,0),0)</f>
         <v>7</v>
       </c>
-      <c r="BH15" s="79">
+      <c r="BH15" s="80">
         <v>4.0</v>
       </c>
-      <c r="BI15" s="80">
+      <c r="BI15" s="81">
         <v>14.0</v>
       </c>
-      <c r="BJ15" s="81" t="s">
-        <v>271</v>
-      </c>
-      <c r="BK15" s="82" t="s">
-        <v>270</v>
-      </c>
-      <c r="BL15" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM15" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="BN15" s="85">
+      <c r="BJ15" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK15" s="83" t="s">
+        <v>266</v>
+      </c>
+      <c r="BL15" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM15" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN15" s="86">
         <f>IFERROR((VLOOKUP(BH15,Scoring!$A:$B,2,0))+IF(BJ15="y",1,0)+IF(BK15="y",1,0)+IF(BL15="y",1,0)+IF(BM15="y",1,0),0)</f>
         <v>13</v>
       </c>
-      <c r="BO15" s="79">
+      <c r="BO15" s="80">
         <v>2.0</v>
       </c>
-      <c r="BP15" s="80">
+      <c r="BP15" s="81">
         <v>2.0</v>
       </c>
-      <c r="BQ15" s="81" t="s">
-        <v>271</v>
-      </c>
-      <c r="BR15" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="BS15" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="BT15" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="BU15" s="85">
+      <c r="BQ15" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR15" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS15" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT15" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU15" s="86">
         <f>IFERROR((VLOOKUP(BO15,Scoring!$D:$E,2,0))+IF(BQ15="y",1,0)+IF(BR15="y",1,0)+IF(BS15="y",1,0)+IF(BT15="y",1,0),0)</f>
         <v>7</v>
       </c>
-      <c r="BV15" s="79">
+      <c r="BV15" s="80">
         <v>5.0</v>
       </c>
-      <c r="BW15" s="80">
+      <c r="BW15" s="81">
         <v>13.0</v>
       </c>
-      <c r="BX15" s="81" t="s">
-        <v>270</v>
-      </c>
-      <c r="BY15" s="82" t="s">
-        <v>270</v>
-      </c>
-      <c r="BZ15" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="CA15" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="CB15" s="85">
+      <c r="BX15" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="BY15" s="83" t="s">
+        <v>266</v>
+      </c>
+      <c r="BZ15" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA15" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB15" s="86">
         <f>IFERROR((VLOOKUP(BV15,Scoring!$A:$B,2,0))+IF(BX15="y",1,0)+IF(BY15="y",1,0)+IF(BZ15="y",1,0)+IF(CA15="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="CC15" s="79">
+      <c r="CC15" s="80">
         <v>7.0</v>
       </c>
-      <c r="CD15" s="80">
+      <c r="CD15" s="81">
         <v>10.0</v>
       </c>
-      <c r="CE15" s="81" t="s">
-        <v>270</v>
-      </c>
-      <c r="CF15" s="82" t="s">
-        <v>270</v>
-      </c>
-      <c r="CG15" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="CH15" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="CI15" s="85">
+      <c r="CE15" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="CF15" s="83" t="s">
+        <v>266</v>
+      </c>
+      <c r="CG15" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH15" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI15" s="86">
         <f>IFERROR((VLOOKUP(CC15,Scoring!$A:$B,2,0))+IF(CE15="y",1,0)+IF(CF15="y",1,0)+IF(CG15="y",1,0)+IF(CH15="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="CJ15" s="79">
+      <c r="CJ15" s="80">
         <v>11.0</v>
       </c>
-      <c r="CK15" s="80">
+      <c r="CK15" s="81">
         <v>4.0</v>
       </c>
-      <c r="CL15" s="81" t="s">
-        <v>271</v>
-      </c>
-      <c r="CM15" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="CN15" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="CO15" s="87" t="s">
-        <v>270</v>
-      </c>
-      <c r="CP15" s="85">
+      <c r="CL15" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM15" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN15" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO15" s="88" t="s">
+        <v>266</v>
+      </c>
+      <c r="CP15" s="86">
         <f>IFERROR((VLOOKUP(CJ15,Scoring!$A:$B,2,0))+IF(CL15="y",1,0)+IF(CM15="y",1,0)+IF(CN15="y",1,0)+IF(CO15="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="CQ15" s="79">
+      <c r="CQ15" s="80">
         <v>9.0</v>
       </c>
-      <c r="CR15" s="80">
-        <v>1.0</v>
-      </c>
-      <c r="CS15" s="81" t="s">
-        <v>271</v>
-      </c>
-      <c r="CT15" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="CU15" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="CV15" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="CW15" s="85">
+      <c r="CR15" s="81">
+        <v>1.0</v>
+      </c>
+      <c r="CS15" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT15" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU15" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV15" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW15" s="86">
         <f>IFERROR((VLOOKUP(CQ15,Scoring!$A:$B,2,0))+IF(CS15="y",1,0)+IF(CT15="y",1,0)+IF(CU15="y",1,0)+IF(CV15="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="CX15" s="79">
-        <v>1.0</v>
-      </c>
-      <c r="CY15" s="80">
+      <c r="CX15" s="80">
+        <v>1.0</v>
+      </c>
+      <c r="CY15" s="81">
         <v>2.0</v>
       </c>
-      <c r="CZ15" s="81" t="s">
-        <v>270</v>
-      </c>
-      <c r="DA15" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="DB15" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="DC15" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="DD15" s="85">
+      <c r="CZ15" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="DA15" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB15" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC15" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD15" s="86">
         <f>IFERROR((VLOOKUP(CX15,Scoring!$A:$B,2,0))+IF(CZ15="y",1,0)+IF(DA15="y",1,0)+IF(DB15="y",1,0)+IF(DC15="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="DE15" s="79"/>
-      <c r="DF15" s="88"/>
-      <c r="DG15" s="89"/>
-      <c r="DH15" s="90"/>
-      <c r="DI15" s="91"/>
-      <c r="DJ15" s="92"/>
-      <c r="DK15" s="85">
+      <c r="DE15" s="80">
+        <v>1.0</v>
+      </c>
+      <c r="DF15" s="81">
+        <v>1.0</v>
+      </c>
+      <c r="DG15" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="DH15" s="83" t="s">
+        <v>266</v>
+      </c>
+      <c r="DI15" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ15" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK15" s="86">
         <f>IFERROR((VLOOKUP(DE15,Scoring!$A:$B,2,0))+IF(DG15="y",1,0)+IF(DH15="y",1,0)+IF(DI15="y",1,0)+IF(DJ15="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="DL15" s="79"/>
-      <c r="DM15" s="88"/>
-      <c r="DN15" s="89"/>
-      <c r="DO15" s="90"/>
-      <c r="DP15" s="91"/>
-      <c r="DQ15" s="92"/>
-      <c r="DR15" s="85">
+        <v>27</v>
+      </c>
+      <c r="DL15" s="80"/>
+      <c r="DM15" s="89"/>
+      <c r="DN15" s="90"/>
+      <c r="DO15" s="91"/>
+      <c r="DP15" s="92"/>
+      <c r="DQ15" s="93"/>
+      <c r="DR15" s="86">
         <f>IFERROR((VLOOKUP(DL15,Scoring!$A:$B,2,0))+IF(DN15="y",1,0)+IF(DO15="y",1,0)+IF(DP15="y",1,0)+IF(DQ15="y",1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="DS15" s="13">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="DP18" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="296">
   <si>
     <t>Positions</t>
   </si>
@@ -1122,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1193,11 +1193,6 @@
     <xf borderId="5" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1223,11 +1218,6 @@
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1262,11 +1252,6 @@
     <xf borderId="10" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1301,11 +1286,6 @@
     <xf borderId="13" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1340,11 +1320,6 @@
     <xf borderId="16" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="16" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1900,7 +1875,7 @@
       <c r="A2" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="69" t="s">
         <v>273</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1911,7 +1886,7 @@
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="69" t="s">
         <v>275</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1922,7 +1897,7 @@
       <c r="A4" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="69" t="s">
         <v>277</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1933,7 +1908,7 @@
       <c r="A5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="69" t="s">
         <v>277</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1944,7 +1919,7 @@
       <c r="A6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="69" t="s">
         <v>278</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1955,7 +1930,7 @@
       <c r="A7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="69" t="s">
         <v>279</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1966,7 +1941,7 @@
       <c r="A8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="69" t="s">
         <v>280</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1977,7 +1952,7 @@
       <c r="A9" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="69" t="s">
         <v>282</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1988,7 +1963,7 @@
       <c r="A10" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="69" t="s">
         <v>284</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1999,7 +1974,7 @@
       <c r="A11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="69" t="s">
         <v>284</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2010,7 +1985,7 @@
       <c r="A12" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="69" t="s">
         <v>286</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2021,7 +1996,7 @@
       <c r="A13" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="69" t="s">
         <v>286</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2032,7 +2007,7 @@
       <c r="A14" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="69" t="s">
         <v>287</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2043,7 +2018,7 @@
       <c r="A15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="69" t="s">
         <v>288</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2054,7 +2029,7 @@
       <c r="A16" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="69" t="s">
         <v>290</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2065,7 +2040,7 @@
       <c r="A17" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="69" t="s">
         <v>290</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2076,7 +2051,7 @@
       <c r="A18" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="69" t="s">
         <v>291</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2087,7 +2062,7 @@
       <c r="A19" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="69" t="s">
         <v>293</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2098,7 +2073,7 @@
       <c r="A20" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="69" t="s">
         <v>295</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -10522,15 +10497,27 @@
         <f>IFERROR((VLOOKUP(DE2,Scoring!$A:$B,2,0))+IF(DG2="y",1,0)+IF(DH2="y",1,0)+IF(DI2="y",1,0)+IF(DJ2="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="DL2" s="16"/>
-      <c r="DM2" s="24"/>
-      <c r="DN2" s="25"/>
-      <c r="DO2" s="26"/>
-      <c r="DP2" s="27"/>
-      <c r="DQ2" s="28"/>
+      <c r="DL2" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="DM2" s="17">
+        <v>9.0</v>
+      </c>
+      <c r="DN2" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="DO2" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="DP2" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="DQ2" s="11" t="s">
+        <v>267</v>
+      </c>
       <c r="DR2" s="22">
         <f>IFERROR((VLOOKUP(DL2,Scoring!$A:$B,2,0))+IF(DN2="y",1,0)+IF(DO2="y",1,0)+IF(DP2="y",1,0)+IF(DQ2="y",1,0),0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="DS2" s="13">
         <v>0.0</v>
@@ -10546,1117 +10533,1153 @@
       <c r="C3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="24">
         <v>10.0</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="25">
         <v>6.0</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="I3" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="J3" s="35">
+      <c r="I3" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J3" s="30">
         <f>IFERROR((VLOOKUP(D3,Scoring!$A:$B,2,0))+IF(F3="y",1,0)+IF(G3="y",1,0)+IF(H3="y",1,0)+IF(I3="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="K3" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="L3" s="30">
-        <v>22.0</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q3" s="36">
+      <c r="K3" s="24">
+        <v>22.0</v>
+      </c>
+      <c r="L3" s="25">
+        <v>22.0</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q3" s="31">
         <f>IFERROR((VLOOKUP(K3,Scoring!$D:$E,2,0))+IF(M3="y",1,0)+IF(N3="y",1,0)+IF(O3="y",1,0)+IF(P3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="S3" s="30">
-        <v>22.0</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="U3" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="V3" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="W3" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="X3" s="35">
+      <c r="R3" s="24">
+        <v>22.0</v>
+      </c>
+      <c r="S3" s="25">
+        <v>22.0</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="U3" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="W3" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="X3" s="30">
         <f>IFERROR((VLOOKUP(R3,Scoring!$A:$B,2,0))+IF(T3="y",1,0)+IF(U3="y",1,0)+IF(V3="y",1,0)+IF(W3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="29">
+      <c r="Y3" s="24">
         <v>11.0</v>
       </c>
-      <c r="Z3" s="30">
+      <c r="Z3" s="25">
         <v>7.0</v>
       </c>
-      <c r="AA3" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB3" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC3" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD3" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE3" s="35">
+      <c r="AA3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB3" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC3" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD3" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE3" s="30">
         <f>IFERROR((VLOOKUP(Y3,Scoring!$A:$B,2,0))+IF(AA3="y",1,0)+IF(AB3="y",1,0)+IF(AC3="y",1,0)+IF(AD3="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AF3" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="AG3" s="30">
-        <v>22.0</v>
-      </c>
-      <c r="AH3" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI3" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ3" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK3" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL3" s="35">
+      <c r="AF3" s="24">
+        <v>22.0</v>
+      </c>
+      <c r="AG3" s="25">
+        <v>22.0</v>
+      </c>
+      <c r="AH3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI3" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ3" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL3" s="30">
         <f>IFERROR((VLOOKUP(AF3,Scoring!$A:$B,2,0))+IF(AH3="y",1,0)+IF(AI3="y",1,0)+IF(AJ3="y",1,0)+IF(AK3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="29">
+      <c r="AM3" s="24">
         <v>21.0</v>
       </c>
-      <c r="AN3" s="30">
+      <c r="AN3" s="25">
         <v>6.0</v>
       </c>
-      <c r="AO3" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AP3" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ3" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR3" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS3" s="35">
+      <c r="AO3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP3" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ3" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS3" s="30">
         <f>IFERROR((VLOOKUP(AM3,Scoring!$A:$B,2,0))+IF(AO3="y",1,0)+IF(AP3="y",1,0)+IF(AQ3="y",1,0)+IF(AR3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT3" s="29">
+      <c r="AT3" s="24">
         <v>7.0</v>
       </c>
-      <c r="AU3" s="30">
+      <c r="AU3" s="25">
         <v>6.0</v>
       </c>
-      <c r="AV3" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AW3" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX3" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AY3" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="AZ3" s="35">
+      <c r="AV3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW3" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX3" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ3" s="30">
         <f>IFERROR((VLOOKUP(AT3,Scoring!$A:$B,2,0))+IF(AV3="y",1,0)+IF(AW3="y",1,0)+IF(AX3="y",1,0)+IF(AY3="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="BA3" s="29">
+      <c r="BA3" s="24">
         <v>6.0</v>
       </c>
-      <c r="BB3" s="30">
+      <c r="BB3" s="25">
         <v>8.0</v>
       </c>
-      <c r="BC3" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BD3" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE3" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="BF3" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="BG3" s="35">
+      <c r="BC3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD3" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE3" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG3" s="30">
         <f>IFERROR((VLOOKUP(BA3,Scoring!$D:$E,2,0))+IF(BC3="y",1,0)+IF(BD3="y",1,0)+IF(BE3="y",1,0)+IF(BF3="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="BH3" s="29">
+      <c r="BH3" s="24">
         <v>5.0</v>
       </c>
-      <c r="BI3" s="30">
+      <c r="BI3" s="25">
         <v>10.0</v>
       </c>
-      <c r="BJ3" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK3" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BL3" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="BM3" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="BN3" s="35">
+      <c r="BJ3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK3" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL3" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN3" s="30">
         <f>IFERROR((VLOOKUP(BH3,Scoring!$A:$B,2,0))+IF(BJ3="y",1,0)+IF(BK3="y",1,0)+IF(BL3="y",1,0)+IF(BM3="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="BO3" s="29">
+      <c r="BO3" s="24">
         <v>8.0</v>
       </c>
-      <c r="BP3" s="30">
+      <c r="BP3" s="25">
         <v>9.0</v>
       </c>
-      <c r="BQ3" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BR3" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BS3" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="BT3" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU3" s="35">
+      <c r="BQ3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR3" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS3" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU3" s="30">
         <f>IFERROR((VLOOKUP(BO3,Scoring!$D:$E,2,0))+IF(BQ3="y",1,0)+IF(BR3="y",1,0)+IF(BS3="y",1,0)+IF(BT3="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="BV3" s="29">
+      <c r="BV3" s="24">
         <v>8.0</v>
       </c>
-      <c r="BW3" s="30">
+      <c r="BW3" s="25">
         <v>8.0</v>
       </c>
-      <c r="BX3" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BY3" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BZ3" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CA3" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CB3" s="35">
+      <c r="BX3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY3" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ3" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB3" s="30">
         <f>IFERROR((VLOOKUP(BV3,Scoring!$A:$B,2,0))+IF(BX3="y",1,0)+IF(BY3="y",1,0)+IF(BZ3="y",1,0)+IF(CA3="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="CC3" s="29">
+      <c r="CC3" s="24">
         <v>10.0</v>
       </c>
-      <c r="CD3" s="30">
-        <v>22.0</v>
-      </c>
-      <c r="CE3" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="CF3" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="CG3" s="33" t="s">
+      <c r="CD3" s="25">
+        <v>22.0</v>
+      </c>
+      <c r="CE3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF3" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG3" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="CH3" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CI3" s="35">
+      <c r="CH3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI3" s="30">
         <f>IFERROR((VLOOKUP(CC3,Scoring!$A:$B,2,0))+IF(CE3="y",1,0)+IF(CF3="y",1,0)+IF(CG3="y",1,0)+IF(CH3="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="CJ3" s="29">
+      <c r="CJ3" s="24">
         <v>12.0</v>
       </c>
-      <c r="CK3" s="30">
+      <c r="CK3" s="25">
         <v>6.0</v>
       </c>
-      <c r="CL3" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="CM3" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="CN3" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CO3" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CP3" s="35">
+      <c r="CL3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM3" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN3" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP3" s="30">
         <f>IFERROR((VLOOKUP(CJ3,Scoring!$A:$B,2,0))+IF(CL3="y",1,0)+IF(CM3="y",1,0)+IF(CN3="y",1,0)+IF(CO3="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="CQ3" s="29">
+      <c r="CQ3" s="24">
         <v>7.0</v>
       </c>
-      <c r="CR3" s="30">
+      <c r="CR3" s="25">
         <v>14.0</v>
       </c>
-      <c r="CS3" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="CT3" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="CU3" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CV3" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CW3" s="35">
+      <c r="CS3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT3" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU3" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW3" s="30">
         <f>IFERROR((VLOOKUP(CQ3,Scoring!$A:$B,2,0))+IF(CS3="y",1,0)+IF(CT3="y",1,0)+IF(CU3="y",1,0)+IF(CV3="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="CX3" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="CY3" s="30">
-        <v>22.0</v>
-      </c>
-      <c r="CZ3" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="DA3" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="DB3" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="DC3" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="DD3" s="35">
+      <c r="CX3" s="24">
+        <v>22.0</v>
+      </c>
+      <c r="CY3" s="25">
+        <v>22.0</v>
+      </c>
+      <c r="CZ3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA3" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB3" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD3" s="30">
         <f>IFERROR((VLOOKUP(CX3,Scoring!$A:$B,2,0))+IF(CZ3="y",1,0)+IF(DA3="y",1,0)+IF(DB3="y",1,0)+IF(DC3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE3" s="29">
+      <c r="DE3" s="24">
         <v>5.0</v>
       </c>
-      <c r="DF3" s="30">
+      <c r="DF3" s="25">
         <v>8.0</v>
       </c>
-      <c r="DG3" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="DH3" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="DI3" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="DJ3" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="DK3" s="35">
+      <c r="DG3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH3" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI3" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK3" s="30">
         <f>IFERROR((VLOOKUP(DE3,Scoring!$A:$B,2,0))+IF(DG3="y",1,0)+IF(DH3="y",1,0)+IF(DI3="y",1,0)+IF(DJ3="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="DL3" s="29"/>
-      <c r="DM3" s="38"/>
-      <c r="DN3" s="39"/>
-      <c r="DO3" s="40"/>
-      <c r="DP3" s="41"/>
-      <c r="DQ3" s="42"/>
-      <c r="DR3" s="35">
+      <c r="DL3" s="24">
+        <v>11.0</v>
+      </c>
+      <c r="DM3" s="25">
+        <v>16.0</v>
+      </c>
+      <c r="DN3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DO3" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="DP3" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="DQ3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DR3" s="30">
         <f>IFERROR((VLOOKUP(DL3,Scoring!$A:$B,2,0))+IF(DN3="y",1,0)+IF(DO3="y",1,0)+IF(DP3="y",1,0)+IF(DQ3="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS3" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="36">
         <v>3.0</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="37">
         <v>2.0</v>
       </c>
-      <c r="F4" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="J4" s="52">
+      <c r="F4" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="J4" s="42">
         <f>IFERROR((VLOOKUP(D4,Scoring!$A:$B,2,0))+IF(F4="y",1,0)+IF(G4="y",1,0)+IF(H4="y",1,0)+IF(I4="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="K4" s="46">
+      <c r="K4" s="36">
         <v>4.0</v>
       </c>
-      <c r="L4" s="47">
+      <c r="L4" s="37">
         <v>3.0</v>
       </c>
-      <c r="M4" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="N4" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="O4" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="P4" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q4" s="53">
+      <c r="M4" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="N4" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q4" s="43">
         <f>IFERROR((VLOOKUP(K4,Scoring!$D:$E,2,0))+IF(M4="y",1,0)+IF(N4="y",1,0)+IF(O4="y",1,0)+IF(P4="y",1,0),0)</f>
         <v>5</v>
       </c>
-      <c r="R4" s="46">
-        <v>1.0</v>
-      </c>
-      <c r="S4" s="47">
+      <c r="R4" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="S4" s="37">
         <v>11.0</v>
       </c>
-      <c r="T4" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="U4" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="V4" s="50" t="s">
+      <c r="T4" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="U4" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="V4" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="W4" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="X4" s="52">
+      <c r="W4" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="X4" s="42">
         <f>IFERROR((VLOOKUP(R4,Scoring!$A:$B,2,0))+IF(T4="y",1,0)+IF(U4="y",1,0)+IF(V4="y",1,0)+IF(W4="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="Y4" s="46">
+      <c r="Y4" s="36">
         <v>10.0</v>
       </c>
-      <c r="Z4" s="47">
+      <c r="Z4" s="37">
         <v>14.0</v>
       </c>
-      <c r="AA4" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB4" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC4" s="50" t="s">
+      <c r="AA4" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB4" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC4" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="AD4" s="51" t="s">
+      <c r="AD4" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="AE4" s="52">
+      <c r="AE4" s="42">
         <f>IFERROR((VLOOKUP(Y4,Scoring!$A:$B,2,0))+IF(AA4="y",1,0)+IF(AB4="y",1,0)+IF(AC4="y",1,0)+IF(AD4="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="AF4" s="46">
+      <c r="AF4" s="36">
         <v>6.0</v>
       </c>
-      <c r="AG4" s="47">
+      <c r="AG4" s="37">
         <v>4.0</v>
       </c>
-      <c r="AH4" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI4" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ4" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK4" s="54" t="s">
+      <c r="AH4" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI4" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ4" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK4" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="AL4" s="52">
+      <c r="AL4" s="42">
         <f>IFERROR((VLOOKUP(AF4,Scoring!$A:$B,2,0))+IF(AH4="y",1,0)+IF(AI4="y",1,0)+IF(AJ4="y",1,0)+IF(AK4="y",1,0),0)</f>
         <v>9</v>
       </c>
-      <c r="AM4" s="46">
+      <c r="AM4" s="36">
         <v>3.0</v>
       </c>
-      <c r="AN4" s="47">
+      <c r="AN4" s="37">
         <v>5.0</v>
       </c>
-      <c r="AO4" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="AP4" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ4" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR4" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS4" s="52">
+      <c r="AO4" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP4" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ4" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR4" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS4" s="42">
         <f>IFERROR((VLOOKUP(AM4,Scoring!$A:$B,2,0))+IF(AO4="y",1,0)+IF(AP4="y",1,0)+IF(AQ4="y",1,0)+IF(AR4="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="AT4" s="46">
+      <c r="AT4" s="36">
         <v>4.0</v>
       </c>
-      <c r="AU4" s="47">
+      <c r="AU4" s="37">
         <v>2.0</v>
       </c>
-      <c r="AV4" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="AW4" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX4" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="AY4" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="AZ4" s="52">
+      <c r="AV4" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW4" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX4" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY4" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ4" s="42">
         <f>IFERROR((VLOOKUP(AT4,Scoring!$A:$B,2,0))+IF(AV4="y",1,0)+IF(AW4="y",1,0)+IF(AX4="y",1,0)+IF(AY4="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="BA4" s="46">
+      <c r="BA4" s="36">
         <v>7.0</v>
       </c>
-      <c r="BB4" s="47">
+      <c r="BB4" s="37">
         <v>6.0</v>
       </c>
-      <c r="BC4" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="BD4" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE4" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="BF4" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="BG4" s="52">
+      <c r="BC4" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD4" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE4" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF4" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG4" s="42">
         <f>IFERROR((VLOOKUP(BA4,Scoring!$D:$E,2,0))+IF(BC4="y",1,0)+IF(BD4="y",1,0)+IF(BE4="y",1,0)+IF(BF4="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="BH4" s="46">
-        <v>1.0</v>
-      </c>
-      <c r="BI4" s="47">
+      <c r="BH4" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="BI4" s="37">
         <v>9.0</v>
       </c>
-      <c r="BJ4" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK4" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="BL4" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="BM4" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="BN4" s="52">
+      <c r="BJ4" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK4" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL4" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM4" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN4" s="42">
         <f>IFERROR((VLOOKUP(BH4,Scoring!$A:$B,2,0))+IF(BJ4="y",1,0)+IF(BK4="y",1,0)+IF(BL4="y",1,0)+IF(BM4="y",1,0),0)</f>
         <v>25</v>
       </c>
-      <c r="BO4" s="46">
+      <c r="BO4" s="36">
         <v>3.0</v>
       </c>
-      <c r="BP4" s="47">
+      <c r="BP4" s="37">
         <v>4.0</v>
       </c>
-      <c r="BQ4" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="BR4" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="BS4" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="BT4" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU4" s="52">
+      <c r="BQ4" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR4" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS4" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT4" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU4" s="42">
         <f>IFERROR((VLOOKUP(BO4,Scoring!$D:$E,2,0))+IF(BQ4="y",1,0)+IF(BR4="y",1,0)+IF(BS4="y",1,0)+IF(BT4="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="BV4" s="46">
+      <c r="BV4" s="36">
         <v>3.0</v>
       </c>
-      <c r="BW4" s="47">
+      <c r="BW4" s="37">
         <v>12.0</v>
       </c>
-      <c r="BX4" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="BY4" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="BZ4" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="CA4" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="CB4" s="52">
+      <c r="BX4" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY4" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ4" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA4" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB4" s="42">
         <f>IFERROR((VLOOKUP(BV4,Scoring!$A:$B,2,0))+IF(BX4="y",1,0)+IF(BY4="y",1,0)+IF(BZ4="y",1,0)+IF(CA4="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="CC4" s="46">
+      <c r="CC4" s="36">
         <v>21.0</v>
       </c>
-      <c r="CD4" s="47">
+      <c r="CD4" s="37">
         <v>3.0</v>
       </c>
-      <c r="CE4" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="CF4" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="CG4" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="CH4" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="CI4" s="52">
+      <c r="CE4" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF4" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG4" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH4" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI4" s="42">
         <f>IFERROR((VLOOKUP(CC4,Scoring!$A:$B,2,0))+IF(CE4="y",1,0)+IF(CF4="y",1,0)+IF(CG4="y",1,0)+IF(CH4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ4" s="46">
+      <c r="CJ4" s="36">
         <v>4.0</v>
       </c>
-      <c r="CK4" s="47">
+      <c r="CK4" s="37">
         <v>2.0</v>
       </c>
-      <c r="CL4" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="CM4" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="CN4" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="CO4" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="CP4" s="52">
+      <c r="CL4" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM4" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN4" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO4" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP4" s="42">
         <f>IFERROR((VLOOKUP(CJ4,Scoring!$A:$B,2,0))+IF(CL4="y",1,0)+IF(CM4="y",1,0)+IF(CN4="y",1,0)+IF(CO4="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="CQ4" s="46">
+      <c r="CQ4" s="36">
         <v>4.0</v>
       </c>
-      <c r="CR4" s="47">
+      <c r="CR4" s="37">
         <v>15.0</v>
       </c>
-      <c r="CS4" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="CT4" s="49" t="s">
+      <c r="CS4" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT4" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="CU4" s="50" t="s">
+      <c r="CU4" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="CV4" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="CW4" s="52">
+      <c r="CV4" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW4" s="42">
         <f>IFERROR((VLOOKUP(CQ4,Scoring!$A:$B,2,0))+IF(CS4="y",1,0)+IF(CT4="y",1,0)+IF(CU4="y",1,0)+IF(CV4="y",1,0),0)</f>
         <v>14</v>
       </c>
-      <c r="CX4" s="46">
+      <c r="CX4" s="36">
         <v>3.0</v>
       </c>
-      <c r="CY4" s="47">
+      <c r="CY4" s="37">
         <v>3.0</v>
       </c>
-      <c r="CZ4" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="DA4" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="DB4" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="DC4" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="DD4" s="52">
+      <c r="CZ4" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA4" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB4" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC4" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD4" s="42">
         <f>IFERROR((VLOOKUP(CX4,Scoring!$A:$B,2,0))+IF(CZ4="y",1,0)+IF(DA4="y",1,0)+IF(DB4="y",1,0)+IF(DC4="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="DE4" s="46">
+      <c r="DE4" s="36">
         <v>21.0</v>
       </c>
-      <c r="DF4" s="47">
+      <c r="DF4" s="37">
         <v>4.0</v>
       </c>
-      <c r="DG4" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="DH4" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="DI4" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="DJ4" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="DK4" s="52">
+      <c r="DG4" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH4" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI4" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ4" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK4" s="42">
         <f>IFERROR((VLOOKUP(DE4,Scoring!$A:$B,2,0))+IF(DG4="y",1,0)+IF(DH4="y",1,0)+IF(DI4="y",1,0)+IF(DJ4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL4" s="46"/>
-      <c r="DM4" s="55"/>
-      <c r="DN4" s="56"/>
-      <c r="DO4" s="57"/>
-      <c r="DP4" s="58"/>
-      <c r="DQ4" s="59"/>
-      <c r="DR4" s="52">
+      <c r="DL4" s="36">
+        <v>9.0</v>
+      </c>
+      <c r="DM4" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="DN4" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="DO4" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="DP4" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="DQ4" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="DR4" s="42">
         <f>IFERROR((VLOOKUP(DL4,Scoring!$A:$B,2,0))+IF(DN4="y",1,0)+IF(DO4="y",1,0)+IF(DP4="y",1,0)+IF(DQ4="y",1,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DS4" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="E5" s="64">
-        <v>22.0</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="G5" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="H5" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="I5" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="J5" s="69">
+      <c r="D5" s="48">
+        <v>22.0</v>
+      </c>
+      <c r="E5" s="49">
+        <v>22.0</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="J5" s="54">
         <f>IFERROR((VLOOKUP(D5,Scoring!$A:$B,2,0))+IF(F5="y",1,0)+IF(G5="y",1,0)+IF(H5="y",1,0)+IF(I5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="48">
         <v>7.0</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="49">
         <v>9.0</v>
       </c>
-      <c r="M5" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="N5" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="O5" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="P5" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q5" s="70">
+      <c r="M5" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="O5" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="P5" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q5" s="55">
         <f>IFERROR((VLOOKUP(K5,Scoring!$D:$E,2,0))+IF(M5="y",1,0)+IF(N5="y",1,0)+IF(O5="y",1,0)+IF(P5="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="R5" s="63">
+      <c r="R5" s="48">
         <v>5.0</v>
       </c>
-      <c r="S5" s="64">
+      <c r="S5" s="49">
         <v>8.0</v>
       </c>
-      <c r="T5" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="U5" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="V5" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="W5" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="X5" s="69">
+      <c r="T5" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="U5" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="V5" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="W5" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="X5" s="54">
         <f>IFERROR((VLOOKUP(R5,Scoring!$A:$B,2,0))+IF(T5="y",1,0)+IF(U5="y",1,0)+IF(V5="y",1,0)+IF(W5="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="Y5" s="63">
+      <c r="Y5" s="48">
         <v>13.0</v>
       </c>
-      <c r="Z5" s="64">
+      <c r="Z5" s="49">
         <v>13.0</v>
       </c>
-      <c r="AA5" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB5" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC5" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD5" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE5" s="69">
+      <c r="AA5" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB5" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC5" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD5" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE5" s="54">
         <f>IFERROR((VLOOKUP(Y5,Scoring!$A:$B,2,0))+IF(AA5="y",1,0)+IF(AB5="y",1,0)+IF(AC5="y",1,0)+IF(AD5="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AF5" s="63">
+      <c r="AF5" s="48">
         <v>10.0</v>
       </c>
-      <c r="AG5" s="64">
+      <c r="AG5" s="49">
         <v>11.0</v>
       </c>
-      <c r="AH5" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI5" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ5" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK5" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL5" s="69">
+      <c r="AH5" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI5" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ5" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK5" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL5" s="54">
         <f>IFERROR((VLOOKUP(AF5,Scoring!$A:$B,2,0))+IF(AH5="y",1,0)+IF(AI5="y",1,0)+IF(AJ5="y",1,0)+IF(AK5="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="AM5" s="63">
+      <c r="AM5" s="48">
         <v>21.0</v>
       </c>
-      <c r="AN5" s="64">
+      <c r="AN5" s="49">
         <v>9.0</v>
       </c>
-      <c r="AO5" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="AP5" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ5" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR5" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS5" s="69">
+      <c r="AO5" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP5" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ5" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR5" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS5" s="54">
         <f>IFERROR((VLOOKUP(AM5,Scoring!$A:$B,2,0))+IF(AO5="y",1,0)+IF(AP5="y",1,0)+IF(AQ5="y",1,0)+IF(AR5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="AU5" s="64">
-        <v>22.0</v>
-      </c>
-      <c r="AV5" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="AW5" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX5" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="AY5" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="AZ5" s="69">
+      <c r="AT5" s="48">
+        <v>22.0</v>
+      </c>
+      <c r="AU5" s="49">
+        <v>22.0</v>
+      </c>
+      <c r="AV5" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW5" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX5" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY5" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ5" s="54">
         <f>IFERROR((VLOOKUP(AT5,Scoring!$A:$B,2,0))+IF(AV5="y",1,0)+IF(AW5="y",1,0)+IF(AX5="y",1,0)+IF(AY5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="BB5" s="64">
-        <v>22.0</v>
-      </c>
-      <c r="BC5" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="BD5" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE5" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="BF5" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="BG5" s="69">
+      <c r="BA5" s="48">
+        <v>22.0</v>
+      </c>
+      <c r="BB5" s="49">
+        <v>22.0</v>
+      </c>
+      <c r="BC5" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD5" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE5" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF5" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG5" s="54">
         <f>IFERROR((VLOOKUP(BA5,Scoring!$D:$E,2,0))+IF(BC5="y",1,0)+IF(BD5="y",1,0)+IF(BE5="y",1,0)+IF(BF5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="BI5" s="64">
-        <v>22.0</v>
-      </c>
-      <c r="BJ5" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK5" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="BL5" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="BM5" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="BN5" s="69">
+      <c r="BH5" s="48">
+        <v>22.0</v>
+      </c>
+      <c r="BI5" s="49">
+        <v>22.0</v>
+      </c>
+      <c r="BJ5" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK5" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL5" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM5" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN5" s="54">
         <f>IFERROR((VLOOKUP(BH5,Scoring!$A:$B,2,0))+IF(BJ5="y",1,0)+IF(BK5="y",1,0)+IF(BL5="y",1,0)+IF(BM5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="BP5" s="64">
-        <v>22.0</v>
-      </c>
-      <c r="BQ5" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="BR5" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="BS5" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="BT5" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU5" s="69">
+      <c r="BO5" s="48">
+        <v>22.0</v>
+      </c>
+      <c r="BP5" s="49">
+        <v>22.0</v>
+      </c>
+      <c r="BQ5" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR5" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS5" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT5" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU5" s="54">
         <f>IFERROR((VLOOKUP(BO5,Scoring!$D:$E,2,0))+IF(BQ5="y",1,0)+IF(BR5="y",1,0)+IF(BS5="y",1,0)+IF(BT5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="BW5" s="64">
-        <v>22.0</v>
-      </c>
-      <c r="BX5" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="BY5" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="BZ5" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="CA5" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="CB5" s="69">
+      <c r="BV5" s="48">
+        <v>22.0</v>
+      </c>
+      <c r="BW5" s="49">
+        <v>22.0</v>
+      </c>
+      <c r="BX5" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY5" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ5" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA5" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB5" s="54">
         <f>IFERROR((VLOOKUP(BV5,Scoring!$A:$B,2,0))+IF(BX5="y",1,0)+IF(BY5="y",1,0)+IF(BZ5="y",1,0)+IF(CA5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="CD5" s="64">
-        <v>22.0</v>
-      </c>
-      <c r="CE5" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="CF5" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="CG5" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="CH5" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="CI5" s="69">
+      <c r="CC5" s="48">
+        <v>22.0</v>
+      </c>
+      <c r="CD5" s="49">
+        <v>22.0</v>
+      </c>
+      <c r="CE5" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF5" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG5" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH5" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI5" s="54">
         <f>IFERROR((VLOOKUP(CC5,Scoring!$A:$B,2,0))+IF(CE5="y",1,0)+IF(CF5="y",1,0)+IF(CG5="y",1,0)+IF(CH5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CJ5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="CK5" s="64">
-        <v>22.0</v>
-      </c>
-      <c r="CL5" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="CM5" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="CN5" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="CO5" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="CP5" s="69">
+      <c r="CJ5" s="48">
+        <v>22.0</v>
+      </c>
+      <c r="CK5" s="49">
+        <v>22.0</v>
+      </c>
+      <c r="CL5" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM5" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN5" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO5" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP5" s="54">
         <f>IFERROR((VLOOKUP(CJ5,Scoring!$A:$B,2,0))+IF(CL5="y",1,0)+IF(CM5="y",1,0)+IF(CN5="y",1,0)+IF(CO5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CQ5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="CR5" s="64">
-        <v>22.0</v>
-      </c>
-      <c r="CS5" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="CT5" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="CU5" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="CV5" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="CW5" s="69">
+      <c r="CQ5" s="48">
+        <v>22.0</v>
+      </c>
+      <c r="CR5" s="49">
+        <v>22.0</v>
+      </c>
+      <c r="CS5" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT5" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU5" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV5" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW5" s="54">
         <f>IFERROR((VLOOKUP(CQ5,Scoring!$A:$B,2,0))+IF(CS5="y",1,0)+IF(CT5="y",1,0)+IF(CU5="y",1,0)+IF(CV5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="CY5" s="64">
-        <v>22.0</v>
-      </c>
-      <c r="CZ5" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="DA5" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="DB5" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="DC5" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="DD5" s="69">
+      <c r="CX5" s="48">
+        <v>22.0</v>
+      </c>
+      <c r="CY5" s="49">
+        <v>22.0</v>
+      </c>
+      <c r="CZ5" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA5" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB5" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC5" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD5" s="54">
         <f>IFERROR((VLOOKUP(CX5,Scoring!$A:$B,2,0))+IF(CZ5="y",1,0)+IF(DA5="y",1,0)+IF(DB5="y",1,0)+IF(DC5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE5" s="63">
-        <v>22.0</v>
-      </c>
-      <c r="DF5" s="64">
-        <v>22.0</v>
-      </c>
-      <c r="DG5" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="DH5" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="DI5" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="DJ5" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="DK5" s="69">
+      <c r="DE5" s="48">
+        <v>22.0</v>
+      </c>
+      <c r="DF5" s="49">
+        <v>22.0</v>
+      </c>
+      <c r="DG5" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH5" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI5" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ5" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK5" s="54">
         <f>IFERROR((VLOOKUP(DE5,Scoring!$A:$B,2,0))+IF(DG5="y",1,0)+IF(DH5="y",1,0)+IF(DI5="y",1,0)+IF(DJ5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL5" s="63"/>
-      <c r="DM5" s="72"/>
-      <c r="DN5" s="73"/>
-      <c r="DO5" s="74"/>
-      <c r="DP5" s="75"/>
-      <c r="DQ5" s="76"/>
-      <c r="DR5" s="69">
+      <c r="DL5" s="48">
+        <v>22.0</v>
+      </c>
+      <c r="DM5" s="49">
+        <v>22.0</v>
+      </c>
+      <c r="DN5" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="DO5" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="DP5" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="DQ5" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="DR5" s="54">
         <f>IFERROR((VLOOKUP(DL5,Scoring!$A:$B,2,0))+IF(DN5="y",1,0)+IF(DO5="y",1,0)+IF(DP5="y",1,0)+IF(DQ5="y",1,0),0)</f>
         <v>0</v>
       </c>
@@ -11674,367 +11697,379 @@
       <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="30">
+      <c r="D6" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="25">
         <v>4.0</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="J6" s="35">
+      <c r="F6" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J6" s="30">
         <f>IFERROR((VLOOKUP(D6,Scoring!$A:$B,2,0))+IF(F6="y",1,0)+IF(G6="y",1,0)+IF(H6="y",1,0)+IF(I6="y",1,0),0)</f>
         <v>25</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="24">
         <v>3.0</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="25">
         <v>5.0</v>
       </c>
-      <c r="M6" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="O6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q6" s="36">
+      <c r="M6" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q6" s="31">
         <f>IFERROR((VLOOKUP(K6,Scoring!$D:$E,2,0))+IF(M6="y",1,0)+IF(N6="y",1,0)+IF(O6="y",1,0)+IF(P6="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="24">
         <v>9.0</v>
       </c>
-      <c r="S6" s="30">
+      <c r="S6" s="25">
         <v>12.0</v>
       </c>
-      <c r="T6" s="31" t="s">
+      <c r="T6" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="U6" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="V6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="W6" s="34" t="s">
+      <c r="U6" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="V6" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="W6" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="X6" s="35">
+      <c r="X6" s="30">
         <f>IFERROR((VLOOKUP(R6,Scoring!$A:$B,2,0))+IF(T6="y",1,0)+IF(U6="y",1,0)+IF(V6="y",1,0)+IF(W6="y",1,0),0)</f>
         <v>5</v>
       </c>
-      <c r="Y6" s="29">
+      <c r="Y6" s="24">
         <v>3.0</v>
       </c>
-      <c r="Z6" s="30">
+      <c r="Z6" s="25">
         <v>6.0</v>
       </c>
-      <c r="AA6" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB6" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD6" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE6" s="35">
+      <c r="AA6" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB6" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC6" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD6" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE6" s="30">
         <f>IFERROR((VLOOKUP(Y6,Scoring!$A:$B,2,0))+IF(AA6="y",1,0)+IF(AB6="y",1,0)+IF(AC6="y",1,0)+IF(AD6="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="AF6" s="29">
+      <c r="AF6" s="24">
         <v>4.0</v>
       </c>
-      <c r="AG6" s="30">
+      <c r="AG6" s="25">
         <v>6.0</v>
       </c>
-      <c r="AH6" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI6" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK6" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL6" s="35">
+      <c r="AH6" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI6" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ6" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL6" s="30">
         <f>IFERROR((VLOOKUP(AF6,Scoring!$A:$B,2,0))+IF(AH6="y",1,0)+IF(AI6="y",1,0)+IF(AJ6="y",1,0)+IF(AK6="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="AM6" s="29">
+      <c r="AM6" s="24">
         <v>21.0</v>
       </c>
-      <c r="AN6" s="30">
+      <c r="AN6" s="25">
         <v>4.0</v>
       </c>
-      <c r="AO6" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AP6" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR6" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS6" s="35">
+      <c r="AO6" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP6" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ6" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS6" s="30">
         <f>IFERROR((VLOOKUP(AM6,Scoring!$A:$B,2,0))+IF(AO6="y",1,0)+IF(AP6="y",1,0)+IF(AQ6="y",1,0)+IF(AR6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AT6" s="29">
+      <c r="AT6" s="24">
         <v>3.0</v>
       </c>
-      <c r="AU6" s="30">
+      <c r="AU6" s="25">
         <v>7.0</v>
       </c>
-      <c r="AV6" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AW6" s="32" t="s">
+      <c r="AV6" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW6" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="AX6" s="33" t="s">
+      <c r="AX6" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="AY6" s="37" t="s">
+      <c r="AY6" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="AZ6" s="35">
+      <c r="AZ6" s="30">
         <f>IFERROR((VLOOKUP(AT6,Scoring!$A:$B,2,0))+IF(AV6="y",1,0)+IF(AW6="y",1,0)+IF(AX6="y",1,0)+IF(AY6="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="BA6" s="29">
+      <c r="BA6" s="24">
         <v>3.0</v>
       </c>
-      <c r="BB6" s="30">
+      <c r="BB6" s="25">
         <v>4.0</v>
       </c>
-      <c r="BC6" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BD6" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="BF6" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="BG6" s="35">
+      <c r="BC6" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD6" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE6" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG6" s="30">
         <f>IFERROR((VLOOKUP(BA6,Scoring!$D:$E,2,0))+IF(BC6="y",1,0)+IF(BD6="y",1,0)+IF(BE6="y",1,0)+IF(BF6="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="BH6" s="29">
+      <c r="BH6" s="24">
         <v>3.0</v>
       </c>
-      <c r="BI6" s="30">
+      <c r="BI6" s="25">
         <v>13.0</v>
       </c>
-      <c r="BJ6" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK6" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BL6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="BM6" s="37" t="s">
+      <c r="BJ6" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK6" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL6" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM6" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="BN6" s="35">
+      <c r="BN6" s="30">
         <f>IFERROR((VLOOKUP(BH6,Scoring!$A:$B,2,0))+IF(BJ6="y",1,0)+IF(BK6="y",1,0)+IF(BL6="y",1,0)+IF(BM6="y",1,0),0)</f>
         <v>16</v>
       </c>
-      <c r="BO6" s="29">
+      <c r="BO6" s="24">
         <v>4.0</v>
       </c>
-      <c r="BP6" s="30">
+      <c r="BP6" s="25">
         <v>5.0</v>
       </c>
-      <c r="BQ6" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BR6" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BS6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="BT6" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU6" s="35">
+      <c r="BQ6" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR6" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS6" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU6" s="30">
         <f>IFERROR((VLOOKUP(BO6,Scoring!$D:$E,2,0))+IF(BQ6="y",1,0)+IF(BR6="y",1,0)+IF(BS6="y",1,0)+IF(BT6="y",1,0),0)</f>
         <v>5</v>
       </c>
-      <c r="BV6" s="29">
+      <c r="BV6" s="24">
         <v>4.0</v>
       </c>
-      <c r="BW6" s="30">
+      <c r="BW6" s="25">
         <v>11.0</v>
       </c>
-      <c r="BX6" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BY6" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BZ6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CA6" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CB6" s="35">
+      <c r="BX6" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY6" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ6" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB6" s="30">
         <f>IFERROR((VLOOKUP(BV6,Scoring!$A:$B,2,0))+IF(BX6="y",1,0)+IF(BY6="y",1,0)+IF(BZ6="y",1,0)+IF(CA6="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="CC6" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="CD6" s="30">
+      <c r="CC6" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="CD6" s="25">
         <v>6.0</v>
       </c>
-      <c r="CE6" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="CF6" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="CG6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CH6" s="37" t="s">
+      <c r="CE6" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF6" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG6" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH6" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="CI6" s="35">
+      <c r="CI6" s="30">
         <f>IFERROR((VLOOKUP(CC6,Scoring!$A:$B,2,0))+IF(CE6="y",1,0)+IF(CF6="y",1,0)+IF(CG6="y",1,0)+IF(CH6="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="CJ6" s="29">
+      <c r="CJ6" s="24">
         <v>2.0</v>
       </c>
-      <c r="CK6" s="30">
+      <c r="CK6" s="25">
         <v>3.0</v>
       </c>
-      <c r="CL6" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="CM6" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="CN6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CO6" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CP6" s="35">
+      <c r="CL6" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM6" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN6" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP6" s="30">
         <f>IFERROR((VLOOKUP(CJ6,Scoring!$A:$B,2,0))+IF(CL6="y",1,0)+IF(CM6="y",1,0)+IF(CN6="y",1,0)+IF(CO6="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="CQ6" s="29">
+      <c r="CQ6" s="24">
         <v>2.0</v>
       </c>
-      <c r="CR6" s="30">
+      <c r="CR6" s="25">
         <v>5.0</v>
       </c>
-      <c r="CS6" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="CT6" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="CU6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CV6" s="37" t="s">
+      <c r="CS6" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT6" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU6" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV6" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="CW6" s="35">
+      <c r="CW6" s="30">
         <f>IFERROR((VLOOKUP(CQ6,Scoring!$A:$B,2,0))+IF(CS6="y",1,0)+IF(CT6="y",1,0)+IF(CU6="y",1,0)+IF(CV6="y",1,0),0)</f>
         <v>19</v>
       </c>
-      <c r="CX6" s="29">
+      <c r="CX6" s="24">
         <v>2.0</v>
       </c>
-      <c r="CY6" s="30">
+      <c r="CY6" s="25">
         <v>4.0</v>
       </c>
-      <c r="CZ6" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="DA6" s="32" t="s">
+      <c r="CZ6" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA6" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="DB6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="DC6" s="37" t="s">
+      <c r="DB6" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC6" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="DD6" s="35">
+      <c r="DD6" s="30">
         <f>IFERROR((VLOOKUP(CX6,Scoring!$A:$B,2,0))+IF(CZ6="y",1,0)+IF(DA6="y",1,0)+IF(DB6="y",1,0)+IF(DC6="y",1,0),0)</f>
         <v>20</v>
       </c>
-      <c r="DE6" s="29">
+      <c r="DE6" s="24">
         <v>21.0</v>
       </c>
-      <c r="DF6" s="30">
+      <c r="DF6" s="25">
         <v>7.0</v>
       </c>
-      <c r="DG6" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="DH6" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="DI6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="DJ6" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="DK6" s="35">
+      <c r="DG6" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH6" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI6" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK6" s="30">
         <f>IFERROR((VLOOKUP(DE6,Scoring!$A:$B,2,0))+IF(DG6="y",1,0)+IF(DH6="y",1,0)+IF(DI6="y",1,0)+IF(DJ6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL6" s="29"/>
-      <c r="DM6" s="38"/>
-      <c r="DN6" s="39"/>
-      <c r="DO6" s="40"/>
-      <c r="DP6" s="41"/>
-      <c r="DQ6" s="42"/>
-      <c r="DR6" s="35">
+      <c r="DL6" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="DM6" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="DN6" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DO6" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="DP6" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="DQ6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DR6" s="30">
         <f>IFERROR((VLOOKUP(DL6,Scoring!$A:$B,2,0))+IF(DN6="y",1,0)+IF(DO6="y",1,0)+IF(DP6="y",1,0)+IF(DQ6="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="DS6" s="13">
         <v>0.0</v>
@@ -12050,1119 +12085,1155 @@
       <c r="C7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="24">
         <v>9.0</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="25">
         <v>7.0</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="J7" s="35">
+      <c r="F7" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J7" s="30">
         <f>IFERROR((VLOOKUP(D7,Scoring!$A:$B,2,0))+IF(F7="y",1,0)+IF(G7="y",1,0)+IF(H7="y",1,0)+IF(I7="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="24">
         <v>6.0</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="25">
         <v>7.0</v>
       </c>
-      <c r="M7" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="O7" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="P7" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q7" s="36">
+      <c r="M7" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q7" s="31">
         <f>IFERROR((VLOOKUP(K7,Scoring!$D:$E,2,0))+IF(M7="y",1,0)+IF(N7="y",1,0)+IF(O7="y",1,0)+IF(P7="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="R7" s="29">
+      <c r="R7" s="24">
         <v>21.0</v>
       </c>
-      <c r="S7" s="30">
+      <c r="S7" s="25">
         <v>9.0</v>
       </c>
-      <c r="T7" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="U7" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="V7" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="W7" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="X7" s="35">
+      <c r="T7" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="U7" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="W7" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="X7" s="30">
         <f>IFERROR((VLOOKUP(R7,Scoring!$A:$B,2,0))+IF(T7="y",1,0)+IF(U7="y",1,0)+IF(V7="y",1,0)+IF(W7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="29">
+      <c r="Y7" s="24">
         <v>5.0</v>
       </c>
-      <c r="Z7" s="30">
+      <c r="Z7" s="25">
         <v>3.0</v>
       </c>
-      <c r="AA7" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB7" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC7" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD7" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE7" s="35">
+      <c r="AA7" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB7" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC7" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD7" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE7" s="30">
         <f>IFERROR((VLOOKUP(Y7,Scoring!$A:$B,2,0))+IF(AA7="y",1,0)+IF(AB7="y",1,0)+IF(AC7="y",1,0)+IF(AD7="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="AF7" s="29">
+      <c r="AF7" s="24">
         <v>3.0</v>
       </c>
-      <c r="AG7" s="30">
+      <c r="AG7" s="25">
         <v>3.0</v>
       </c>
-      <c r="AH7" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI7" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ7" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK7" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL7" s="35">
+      <c r="AH7" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI7" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ7" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL7" s="30">
         <f>IFERROR((VLOOKUP(AF7,Scoring!$A:$B,2,0))+IF(AH7="y",1,0)+IF(AI7="y",1,0)+IF(AJ7="y",1,0)+IF(AK7="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="AM7" s="29">
+      <c r="AM7" s="24">
         <v>5.0</v>
       </c>
-      <c r="AN7" s="30">
+      <c r="AN7" s="25">
         <v>15.0</v>
       </c>
-      <c r="AO7" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AP7" s="32" t="s">
+      <c r="AO7" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP7" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="AQ7" s="33" t="s">
+      <c r="AQ7" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="AR7" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS7" s="35">
+      <c r="AR7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS7" s="30">
         <f>IFERROR((VLOOKUP(AM7,Scoring!$A:$B,2,0))+IF(AO7="y",1,0)+IF(AP7="y",1,0)+IF(AQ7="y",1,0)+IF(AR7="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="AT7" s="29">
+      <c r="AT7" s="24">
         <v>21.0</v>
       </c>
-      <c r="AU7" s="30">
+      <c r="AU7" s="25">
         <v>5.0</v>
       </c>
-      <c r="AV7" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AW7" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX7" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AY7" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="AZ7" s="35">
+      <c r="AV7" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW7" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX7" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ7" s="30">
         <f>IFERROR((VLOOKUP(AT7,Scoring!$A:$B,2,0))+IF(AV7="y",1,0)+IF(AW7="y",1,0)+IF(AX7="y",1,0)+IF(AY7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="29">
+      <c r="BA7" s="24">
         <v>5.0</v>
       </c>
-      <c r="BB7" s="30">
+      <c r="BB7" s="25">
         <v>5.0</v>
       </c>
-      <c r="BC7" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BD7" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE7" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="BF7" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="BG7" s="35">
+      <c r="BC7" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD7" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE7" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG7" s="30">
         <f>IFERROR((VLOOKUP(BA7,Scoring!$D:$E,2,0))+IF(BC7="y",1,0)+IF(BD7="y",1,0)+IF(BE7="y",1,0)+IF(BF7="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="BH7" s="29">
+      <c r="BH7" s="24">
         <v>2.0</v>
       </c>
-      <c r="BI7" s="30">
+      <c r="BI7" s="25">
         <v>11.0</v>
       </c>
-      <c r="BJ7" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK7" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BL7" s="33" t="s">
+      <c r="BJ7" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK7" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL7" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="BM7" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="BN7" s="35">
+      <c r="BM7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN7" s="30">
         <f>IFERROR((VLOOKUP(BH7,Scoring!$A:$B,2,0))+IF(BJ7="y",1,0)+IF(BK7="y",1,0)+IF(BL7="y",1,0)+IF(BM7="y",1,0),0)</f>
         <v>19</v>
       </c>
-      <c r="BO7" s="29">
+      <c r="BO7" s="24">
         <v>5.0</v>
       </c>
-      <c r="BP7" s="30">
+      <c r="BP7" s="25">
         <v>6.0</v>
       </c>
-      <c r="BQ7" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BR7" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BS7" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="BT7" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU7" s="35">
+      <c r="BQ7" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR7" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS7" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU7" s="30">
         <f>IFERROR((VLOOKUP(BO7,Scoring!$D:$E,2,0))+IF(BQ7="y",1,0)+IF(BR7="y",1,0)+IF(BS7="y",1,0)+IF(BT7="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="BV7" s="29">
+      <c r="BV7" s="24">
         <v>6.0</v>
       </c>
-      <c r="BW7" s="30">
+      <c r="BW7" s="25">
         <v>10.0</v>
       </c>
-      <c r="BX7" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BY7" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BZ7" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CA7" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CB7" s="35">
+      <c r="BX7" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY7" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ7" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB7" s="30">
         <f>IFERROR((VLOOKUP(BV7,Scoring!$A:$B,2,0))+IF(BX7="y",1,0)+IF(BY7="y",1,0)+IF(BZ7="y",1,0)+IF(CA7="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="CC7" s="29">
+      <c r="CC7" s="24">
         <v>8.0</v>
       </c>
-      <c r="CD7" s="30">
+      <c r="CD7" s="25">
         <v>4.0</v>
       </c>
-      <c r="CE7" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="CF7" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="CG7" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CH7" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CI7" s="35">
+      <c r="CE7" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF7" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG7" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI7" s="30">
         <f>IFERROR((VLOOKUP(CC7,Scoring!$A:$B,2,0))+IF(CE7="y",1,0)+IF(CF7="y",1,0)+IF(CG7="y",1,0)+IF(CH7="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="CJ7" s="29">
+      <c r="CJ7" s="24">
         <v>5.0</v>
       </c>
-      <c r="CK7" s="30">
+      <c r="CK7" s="25">
         <v>8.0</v>
       </c>
-      <c r="CL7" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="CM7" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="CN7" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CO7" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CP7" s="35">
+      <c r="CL7" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM7" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN7" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP7" s="30">
         <f>IFERROR((VLOOKUP(CJ7,Scoring!$A:$B,2,0))+IF(CL7="y",1,0)+IF(CM7="y",1,0)+IF(CN7="y",1,0)+IF(CO7="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="CQ7" s="29">
+      <c r="CQ7" s="24">
         <v>3.0</v>
       </c>
-      <c r="CR7" s="30">
+      <c r="CR7" s="25">
         <v>6.0</v>
       </c>
-      <c r="CS7" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="CT7" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="CU7" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CV7" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CW7" s="35">
+      <c r="CS7" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT7" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU7" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW7" s="30">
         <f>IFERROR((VLOOKUP(CQ7,Scoring!$A:$B,2,0))+IF(CS7="y",1,0)+IF(CT7="y",1,0)+IF(CU7="y",1,0)+IF(CV7="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="CX7" s="29">
+      <c r="CX7" s="24">
         <v>21.0</v>
       </c>
-      <c r="CY7" s="30">
+      <c r="CY7" s="25">
         <v>5.0</v>
       </c>
-      <c r="CZ7" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="DA7" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="DB7" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="DC7" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="DD7" s="35">
+      <c r="CZ7" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA7" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB7" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD7" s="30">
         <f>IFERROR((VLOOKUP(CX7,Scoring!$A:$B,2,0))+IF(CZ7="y",1,0)+IF(DA7="y",1,0)+IF(DB7="y",1,0)+IF(DC7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE7" s="29">
+      <c r="DE7" s="24">
         <v>2.0</v>
       </c>
-      <c r="DF7" s="30">
+      <c r="DF7" s="25">
         <v>2.0</v>
       </c>
-      <c r="DG7" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="DH7" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="DI7" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="DJ7" s="37" t="s">
+      <c r="DG7" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH7" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI7" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ7" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="DK7" s="35">
+      <c r="DK7" s="30">
         <f>IFERROR((VLOOKUP(DE7,Scoring!$A:$B,2,0))+IF(DG7="y",1,0)+IF(DH7="y",1,0)+IF(DI7="y",1,0)+IF(DJ7="y",1,0),0)</f>
         <v>19</v>
       </c>
-      <c r="DL7" s="29"/>
-      <c r="DM7" s="38"/>
-      <c r="DN7" s="39"/>
-      <c r="DO7" s="40"/>
-      <c r="DP7" s="41"/>
-      <c r="DQ7" s="42"/>
-      <c r="DR7" s="35">
+      <c r="DL7" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="DM7" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="DN7" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DO7" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="DP7" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="DQ7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DR7" s="30">
         <f>IFERROR((VLOOKUP(DL7,Scoring!$A:$B,2,0))+IF(DN7="y",1,0)+IF(DO7="y",1,0)+IF(DP7="y",1,0)+IF(DQ7="y",1,0),0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="DS7" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="36">
         <v>4.0</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="37">
         <v>10.0</v>
       </c>
-      <c r="F8" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="I8" s="51" t="s">
+      <c r="F8" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="J8" s="52">
+      <c r="J8" s="42">
         <f>IFERROR((VLOOKUP(D8,Scoring!$A:$B,2,0))+IF(F8="y",1,0)+IF(G8="y",1,0)+IF(H8="y",1,0)+IF(I8="y",1,0),0)</f>
         <v>13</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="36">
         <v>13.0</v>
       </c>
-      <c r="L8" s="47">
+      <c r="L8" s="37">
         <v>6.0</v>
       </c>
-      <c r="M8" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="N8" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="O8" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="P8" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="53">
+      <c r="M8" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="P8" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q8" s="43">
         <f>IFERROR((VLOOKUP(K8,Scoring!$D:$E,2,0))+IF(M8="y",1,0)+IF(N8="y",1,0)+IF(O8="y",1,0)+IF(P8="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="R8" s="46">
+      <c r="R8" s="36">
         <v>2.0</v>
       </c>
-      <c r="S8" s="47">
+      <c r="S8" s="37">
         <v>3.0</v>
       </c>
-      <c r="T8" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="U8" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="V8" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="W8" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="X8" s="52">
+      <c r="T8" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="U8" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="V8" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="W8" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="X8" s="42">
         <f>IFERROR((VLOOKUP(R8,Scoring!$A:$B,2,0))+IF(T8="y",1,0)+IF(U8="y",1,0)+IF(V8="y",1,0)+IF(W8="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="Y8" s="46">
+      <c r="Y8" s="36">
         <v>6.0</v>
       </c>
-      <c r="Z8" s="47">
+      <c r="Z8" s="37">
         <v>8.0</v>
       </c>
-      <c r="AA8" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB8" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC8" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD8" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE8" s="52">
+      <c r="AA8" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB8" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC8" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD8" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE8" s="42">
         <f>IFERROR((VLOOKUP(Y8,Scoring!$A:$B,2,0))+IF(AA8="y",1,0)+IF(AB8="y",1,0)+IF(AC8="y",1,0)+IF(AD8="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="AF8" s="46">
+      <c r="AF8" s="36">
         <v>8.0</v>
       </c>
-      <c r="AG8" s="47">
+      <c r="AG8" s="37">
         <v>10.0</v>
       </c>
-      <c r="AH8" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI8" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ8" s="50" t="s">
+      <c r="AH8" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI8" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ8" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="AK8" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL8" s="52">
+      <c r="AK8" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL8" s="42">
         <f>IFERROR((VLOOKUP(AF8,Scoring!$A:$B,2,0))+IF(AH8="y",1,0)+IF(AI8="y",1,0)+IF(AJ8="y",1,0)+IF(AK8="y",1,0),0)</f>
         <v>5</v>
       </c>
-      <c r="AM8" s="46">
+      <c r="AM8" s="36">
         <v>9.0</v>
       </c>
-      <c r="AN8" s="47">
+      <c r="AN8" s="37">
         <v>13.0</v>
       </c>
-      <c r="AO8" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="AP8" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ8" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR8" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS8" s="52">
+      <c r="AO8" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP8" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ8" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR8" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS8" s="42">
         <f>IFERROR((VLOOKUP(AM8,Scoring!$A:$B,2,0))+IF(AO8="y",1,0)+IF(AP8="y",1,0)+IF(AQ8="y",1,0)+IF(AR8="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="AT8" s="46">
+      <c r="AT8" s="36">
         <v>12.0</v>
       </c>
-      <c r="AU8" s="47">
+      <c r="AU8" s="37">
         <v>10.0</v>
       </c>
-      <c r="AV8" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="AW8" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX8" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="AY8" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="AZ8" s="52">
+      <c r="AV8" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW8" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX8" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY8" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ8" s="42">
         <f>IFERROR((VLOOKUP(AT8,Scoring!$A:$B,2,0))+IF(AV8="y",1,0)+IF(AW8="y",1,0)+IF(AX8="y",1,0)+IF(AY8="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="BA8" s="46">
+      <c r="BA8" s="36">
         <v>13.0</v>
       </c>
-      <c r="BB8" s="47">
+      <c r="BB8" s="37">
         <v>9.0</v>
       </c>
-      <c r="BC8" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="BD8" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE8" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="BF8" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="BG8" s="52">
+      <c r="BC8" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD8" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE8" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF8" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG8" s="42">
         <f>IFERROR((VLOOKUP(BA8,Scoring!$D:$E,2,0))+IF(BC8="y",1,0)+IF(BD8="y",1,0)+IF(BE8="y",1,0)+IF(BF8="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="BH8" s="46">
+      <c r="BH8" s="36">
         <v>21.0</v>
       </c>
-      <c r="BI8" s="47">
+      <c r="BI8" s="37">
         <v>6.0</v>
       </c>
-      <c r="BJ8" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK8" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="BL8" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="BM8" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="BN8" s="52">
+      <c r="BJ8" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK8" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL8" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM8" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN8" s="42">
         <f>IFERROR((VLOOKUP(BH8,Scoring!$A:$B,2,0))+IF(BJ8="y",1,0)+IF(BK8="y",1,0)+IF(BL8="y",1,0)+IF(BM8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO8" s="46">
+      <c r="BO8" s="36">
         <v>9.0</v>
       </c>
-      <c r="BP8" s="47">
+      <c r="BP8" s="37">
         <v>8.0</v>
       </c>
-      <c r="BQ8" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="BR8" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="BS8" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="BT8" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU8" s="52">
+      <c r="BQ8" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR8" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS8" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT8" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU8" s="42">
         <f>IFERROR((VLOOKUP(BO8,Scoring!$D:$E,2,0))+IF(BQ8="y",1,0)+IF(BR8="y",1,0)+IF(BS8="y",1,0)+IF(BT8="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="BV8" s="46">
+      <c r="BV8" s="36">
         <v>9.0</v>
       </c>
-      <c r="BW8" s="47">
+      <c r="BW8" s="37">
         <v>7.0</v>
       </c>
-      <c r="BX8" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="BY8" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="BZ8" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="CA8" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="CB8" s="52">
+      <c r="BX8" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY8" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ8" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA8" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB8" s="42">
         <f>IFERROR((VLOOKUP(BV8,Scoring!$A:$B,2,0))+IF(BX8="y",1,0)+IF(BY8="y",1,0)+IF(BZ8="y",1,0)+IF(CA8="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="CC8" s="46">
+      <c r="CC8" s="36">
         <v>11.0</v>
       </c>
-      <c r="CD8" s="47">
+      <c r="CD8" s="37">
         <v>7.0</v>
       </c>
-      <c r="CE8" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="CF8" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="CG8" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="CH8" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="CI8" s="52">
+      <c r="CE8" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF8" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG8" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH8" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI8" s="42">
         <f>IFERROR((VLOOKUP(CC8,Scoring!$A:$B,2,0))+IF(CE8="y",1,0)+IF(CF8="y",1,0)+IF(CG8="y",1,0)+IF(CH8="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="CJ8" s="46">
+      <c r="CJ8" s="36">
         <v>10.0</v>
       </c>
-      <c r="CK8" s="47">
+      <c r="CK8" s="37">
         <v>9.0</v>
       </c>
-      <c r="CL8" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="CM8" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="CN8" s="50" t="s">
+      <c r="CL8" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM8" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN8" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="CO8" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="CP8" s="52">
+      <c r="CO8" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP8" s="42">
         <f>IFERROR((VLOOKUP(CJ8,Scoring!$A:$B,2,0))+IF(CL8="y",1,0)+IF(CM8="y",1,0)+IF(CN8="y",1,0)+IF(CO8="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="CQ8" s="46">
-        <v>22.0</v>
-      </c>
-      <c r="CR8" s="47">
-        <v>22.0</v>
-      </c>
-      <c r="CS8" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="CT8" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="CU8" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="CV8" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="CW8" s="52">
+      <c r="CQ8" s="36">
+        <v>22.0</v>
+      </c>
+      <c r="CR8" s="37">
+        <v>22.0</v>
+      </c>
+      <c r="CS8" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT8" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU8" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV8" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW8" s="42">
         <f>IFERROR((VLOOKUP(CQ8,Scoring!$A:$B,2,0))+IF(CS8="y",1,0)+IF(CT8="y",1,0)+IF(CU8="y",1,0)+IF(CV8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX8" s="46">
-        <v>22.0</v>
-      </c>
-      <c r="CY8" s="47">
-        <v>22.0</v>
-      </c>
-      <c r="CZ8" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="DA8" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="DB8" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="DC8" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="DD8" s="52">
+      <c r="CX8" s="36">
+        <v>22.0</v>
+      </c>
+      <c r="CY8" s="37">
+        <v>22.0</v>
+      </c>
+      <c r="CZ8" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA8" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB8" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC8" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD8" s="42">
         <f>IFERROR((VLOOKUP(CX8,Scoring!$A:$B,2,0))+IF(CZ8="y",1,0)+IF(DA8="y",1,0)+IF(DB8="y",1,0)+IF(DC8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE8" s="46">
+      <c r="DE8" s="36">
         <v>21.0</v>
       </c>
-      <c r="DF8" s="47">
+      <c r="DF8" s="37">
         <v>9.0</v>
       </c>
-      <c r="DG8" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="DH8" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="DI8" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="DJ8" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="DK8" s="52">
+      <c r="DG8" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH8" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI8" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ8" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK8" s="42">
         <f>IFERROR((VLOOKUP(DE8,Scoring!$A:$B,2,0))+IF(DG8="y",1,0)+IF(DH8="y",1,0)+IF(DI8="y",1,0)+IF(DJ8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL8" s="46"/>
-      <c r="DM8" s="55"/>
-      <c r="DN8" s="56"/>
-      <c r="DO8" s="57"/>
-      <c r="DP8" s="58"/>
-      <c r="DQ8" s="59"/>
-      <c r="DR8" s="52">
+      <c r="DL8" s="36">
+        <v>12.0</v>
+      </c>
+      <c r="DM8" s="37">
+        <v>10.0</v>
+      </c>
+      <c r="DN8" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="DO8" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="DP8" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="DQ8" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="DR8" s="42">
         <f>IFERROR((VLOOKUP(DL8,Scoring!$A:$B,2,0))+IF(DN8="y",1,0)+IF(DO8="y",1,0)+IF(DP8="y",1,0)+IF(DQ8="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS8" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="48">
         <v>15.0</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="49">
         <v>5.0</v>
       </c>
-      <c r="F9" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="G9" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="H9" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="I9" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="J9" s="69">
+      <c r="F9" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="J9" s="54">
         <f>IFERROR((VLOOKUP(D9,Scoring!$A:$B,2,0))+IF(F9="y",1,0)+IF(G9="y",1,0)+IF(H9="y",1,0)+IF(I9="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K9" s="48">
         <v>9.0</v>
       </c>
-      <c r="L9" s="64">
+      <c r="L9" s="49">
         <v>8.0</v>
       </c>
-      <c r="M9" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="N9" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="O9" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="P9" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q9" s="70">
+      <c r="M9" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="N9" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="O9" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q9" s="55">
         <f>IFERROR((VLOOKUP(K9,Scoring!$D:$E,2,0))+IF(M9="y",1,0)+IF(N9="y",1,0)+IF(O9="y",1,0)+IF(P9="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="R9" s="63">
+      <c r="R9" s="48">
         <v>21.0</v>
       </c>
-      <c r="S9" s="64">
+      <c r="S9" s="49">
         <v>6.0</v>
       </c>
-      <c r="T9" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="U9" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="V9" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="W9" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="X9" s="69">
+      <c r="T9" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="U9" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="V9" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="W9" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="X9" s="54">
         <f>IFERROR((VLOOKUP(R9,Scoring!$A:$B,2,0))+IF(T9="y",1,0)+IF(U9="y",1,0)+IF(V9="y",1,0)+IF(W9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="63">
+      <c r="Y9" s="48">
         <v>4.0</v>
       </c>
-      <c r="Z9" s="64">
+      <c r="Z9" s="49">
         <v>4.0</v>
       </c>
-      <c r="AA9" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB9" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC9" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD9" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE9" s="69">
+      <c r="AA9" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB9" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC9" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD9" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE9" s="54">
         <f>IFERROR((VLOOKUP(Y9,Scoring!$A:$B,2,0))+IF(AA9="y",1,0)+IF(AB9="y",1,0)+IF(AC9="y",1,0)+IF(AD9="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="AF9" s="63">
+      <c r="AF9" s="48">
         <v>9.0</v>
       </c>
-      <c r="AG9" s="64">
+      <c r="AG9" s="49">
         <v>8.0</v>
       </c>
-      <c r="AH9" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI9" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ9" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK9" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL9" s="69">
+      <c r="AH9" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI9" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ9" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK9" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL9" s="54">
         <f>IFERROR((VLOOKUP(AF9,Scoring!$A:$B,2,0))+IF(AH9="y",1,0)+IF(AI9="y",1,0)+IF(AJ9="y",1,0)+IF(AK9="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="AM9" s="63">
+      <c r="AM9" s="48">
         <v>8.0</v>
       </c>
-      <c r="AN9" s="64">
+      <c r="AN9" s="49">
         <v>11.0</v>
       </c>
-      <c r="AO9" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="AP9" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ9" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR9" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS9" s="69">
+      <c r="AO9" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP9" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ9" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR9" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS9" s="54">
         <f>IFERROR((VLOOKUP(AM9,Scoring!$A:$B,2,0))+IF(AO9="y",1,0)+IF(AP9="y",1,0)+IF(AQ9="y",1,0)+IF(AR9="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="AT9" s="63">
+      <c r="AT9" s="48">
         <v>15.0</v>
       </c>
-      <c r="AU9" s="64">
+      <c r="AU9" s="49">
         <v>9.0</v>
       </c>
-      <c r="AV9" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="AW9" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX9" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="AY9" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="AZ9" s="69">
+      <c r="AV9" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW9" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX9" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY9" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ9" s="54">
         <f>IFERROR((VLOOKUP(AT9,Scoring!$A:$B,2,0))+IF(AV9="y",1,0)+IF(AW9="y",1,0)+IF(AX9="y",1,0)+IF(AY9="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="BA9" s="63">
+      <c r="BA9" s="48">
         <v>9.0</v>
       </c>
-      <c r="BB9" s="64">
+      <c r="BB9" s="49">
         <v>7.0</v>
       </c>
-      <c r="BC9" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="BD9" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE9" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="BF9" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="BG9" s="69">
+      <c r="BC9" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD9" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE9" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF9" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG9" s="54">
         <f>IFERROR((VLOOKUP(BA9,Scoring!$D:$E,2,0))+IF(BC9="y",1,0)+IF(BD9="y",1,0)+IF(BE9="y",1,0)+IF(BF9="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="BH9" s="63">
+      <c r="BH9" s="48">
         <v>8.0</v>
       </c>
-      <c r="BI9" s="64">
+      <c r="BI9" s="49">
         <v>7.0</v>
       </c>
-      <c r="BJ9" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK9" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="BL9" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="BM9" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="BN9" s="69">
+      <c r="BJ9" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK9" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL9" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM9" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN9" s="54">
         <f>IFERROR((VLOOKUP(BH9,Scoring!$A:$B,2,0))+IF(BJ9="y",1,0)+IF(BK9="y",1,0)+IF(BL9="y",1,0)+IF(BM9="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="BO9" s="63">
+      <c r="BO9" s="48">
         <v>14.0</v>
       </c>
-      <c r="BP9" s="64">
+      <c r="BP9" s="49">
         <v>7.0</v>
       </c>
-      <c r="BQ9" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="BR9" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="BS9" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="BT9" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU9" s="69">
+      <c r="BQ9" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR9" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS9" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT9" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU9" s="54">
         <f>IFERROR((VLOOKUP(BO9,Scoring!$D:$E,2,0))+IF(BQ9="y",1,0)+IF(BR9="y",1,0)+IF(BS9="y",1,0)+IF(BT9="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="BV9" s="63">
+      <c r="BV9" s="48">
         <v>10.0</v>
       </c>
-      <c r="BW9" s="64">
+      <c r="BW9" s="49">
         <v>6.0</v>
       </c>
-      <c r="BX9" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="BY9" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="BZ9" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="CA9" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="CB9" s="69">
+      <c r="BX9" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY9" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ9" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA9" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB9" s="54">
         <f>IFERROR((VLOOKUP(BV9,Scoring!$A:$B,2,0))+IF(BX9="y",1,0)+IF(BY9="y",1,0)+IF(BZ9="y",1,0)+IF(CA9="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="CC9" s="63">
+      <c r="CC9" s="48">
         <v>5.0</v>
       </c>
-      <c r="CD9" s="64">
+      <c r="CD9" s="49">
         <v>14.0</v>
       </c>
-      <c r="CE9" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="CF9" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="CG9" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="CH9" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="CI9" s="69">
+      <c r="CE9" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF9" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG9" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH9" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI9" s="54">
         <f>IFERROR((VLOOKUP(CC9,Scoring!$A:$B,2,0))+IF(CE9="y",1,0)+IF(CF9="y",1,0)+IF(CG9="y",1,0)+IF(CH9="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="CJ9" s="63">
+      <c r="CJ9" s="48">
         <v>6.0</v>
       </c>
-      <c r="CK9" s="64">
+      <c r="CK9" s="49">
         <v>11.0</v>
       </c>
-      <c r="CL9" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="CM9" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="CN9" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="CO9" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="CP9" s="69">
+      <c r="CL9" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM9" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN9" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO9" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP9" s="54">
         <f>IFERROR((VLOOKUP(CJ9,Scoring!$A:$B,2,0))+IF(CL9="y",1,0)+IF(CM9="y",1,0)+IF(CN9="y",1,0)+IF(CO9="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="CQ9" s="63">
+      <c r="CQ9" s="48">
         <v>11.0</v>
       </c>
-      <c r="CR9" s="64">
+      <c r="CR9" s="49">
         <v>4.0</v>
       </c>
-      <c r="CS9" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="CT9" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="CU9" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="CV9" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="CW9" s="69">
+      <c r="CS9" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT9" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU9" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV9" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW9" s="54">
         <f>IFERROR((VLOOKUP(CQ9,Scoring!$A:$B,2,0))+IF(CS9="y",1,0)+IF(CT9="y",1,0)+IF(CU9="y",1,0)+IF(CV9="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="CX9" s="63">
+      <c r="CX9" s="48">
         <v>21.0</v>
       </c>
-      <c r="CY9" s="64">
+      <c r="CY9" s="49">
         <v>8.0</v>
       </c>
-      <c r="CZ9" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="DA9" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="DB9" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="DC9" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="DD9" s="69">
+      <c r="CZ9" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA9" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB9" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC9" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD9" s="54">
         <f>IFERROR((VLOOKUP(CX9,Scoring!$A:$B,2,0))+IF(CZ9="y",1,0)+IF(DA9="y",1,0)+IF(DB9="y",1,0)+IF(DC9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE9" s="63">
+      <c r="DE9" s="48">
         <v>6.0</v>
       </c>
-      <c r="DF9" s="64">
+      <c r="DF9" s="49">
         <v>10.0</v>
       </c>
-      <c r="DG9" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="DH9" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="DI9" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="DJ9" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="DK9" s="69">
+      <c r="DG9" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH9" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI9" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ9" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK9" s="54">
         <f>IFERROR((VLOOKUP(DE9,Scoring!$A:$B,2,0))+IF(DG9="y",1,0)+IF(DH9="y",1,0)+IF(DI9="y",1,0)+IF(DJ9="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="DL9" s="63"/>
-      <c r="DM9" s="72"/>
-      <c r="DN9" s="73"/>
-      <c r="DO9" s="74"/>
-      <c r="DP9" s="75"/>
-      <c r="DQ9" s="76"/>
-      <c r="DR9" s="69">
+      <c r="DL9" s="48">
+        <v>8.0</v>
+      </c>
+      <c r="DM9" s="49">
+        <v>8.0</v>
+      </c>
+      <c r="DN9" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="DO9" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="DP9" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="DQ9" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="DR9" s="54">
         <f>IFERROR((VLOOKUP(DL9,Scoring!$A:$B,2,0))+IF(DN9="y",1,0)+IF(DO9="y",1,0)+IF(DP9="y",1,0)+IF(DQ9="y",1,0),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DS9" s="13">
         <v>0.0</v>
@@ -13178,367 +13249,379 @@
       <c r="C10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="24">
         <v>5.0</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="25">
         <v>8.0</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="J10" s="35">
+      <c r="F10" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J10" s="30">
         <f>IFERROR((VLOOKUP(D10,Scoring!$A:$B,2,0))+IF(F10="y",1,0)+IF(G10="y",1,0)+IF(H10="y",1,0)+IF(I10="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="24">
         <v>5.0</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="25">
         <v>11.0</v>
       </c>
-      <c r="M10" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="N10" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="O10" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q10" s="36">
+      <c r="M10" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q10" s="31">
         <f>IFERROR((VLOOKUP(K10,Scoring!$D:$E,2,0))+IF(M10="y",1,0)+IF(N10="y",1,0)+IF(O10="y",1,0)+IF(P10="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="R10" s="29">
+      <c r="R10" s="24">
         <v>6.0</v>
       </c>
-      <c r="S10" s="30">
+      <c r="S10" s="25">
         <v>10.0</v>
       </c>
-      <c r="T10" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="U10" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="V10" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="W10" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="X10" s="35">
+      <c r="T10" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="U10" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="V10" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="W10" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="X10" s="30">
         <f>IFERROR((VLOOKUP(R10,Scoring!$A:$B,2,0))+IF(T10="y",1,0)+IF(U10="y",1,0)+IF(V10="y",1,0)+IF(W10="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="Y10" s="29">
+      <c r="Y10" s="24">
         <v>8.0</v>
       </c>
-      <c r="Z10" s="30">
+      <c r="Z10" s="25">
         <v>15.0</v>
       </c>
-      <c r="AA10" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB10" s="32" t="s">
+      <c r="AA10" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB10" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="AC10" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD10" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE10" s="35">
+      <c r="AC10" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD10" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE10" s="30">
         <f>IFERROR((VLOOKUP(Y10,Scoring!$A:$B,2,0))+IF(AA10="y",1,0)+IF(AB10="y",1,0)+IF(AC10="y",1,0)+IF(AD10="y",1,0),0)</f>
         <v>5</v>
       </c>
-      <c r="AF10" s="29">
+      <c r="AF10" s="24">
         <v>7.0</v>
       </c>
-      <c r="AG10" s="30">
+      <c r="AG10" s="25">
         <v>7.0</v>
       </c>
-      <c r="AH10" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI10" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ10" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK10" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL10" s="35">
+      <c r="AH10" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI10" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ10" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL10" s="30">
         <f>IFERROR((VLOOKUP(AF10,Scoring!$A:$B,2,0))+IF(AH10="y",1,0)+IF(AI10="y",1,0)+IF(AJ10="y",1,0)+IF(AK10="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="AM10" s="29">
+      <c r="AM10" s="24">
         <v>7.0</v>
       </c>
-      <c r="AN10" s="30">
+      <c r="AN10" s="25">
         <v>7.0</v>
       </c>
-      <c r="AO10" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AP10" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ10" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR10" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS10" s="35">
+      <c r="AO10" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP10" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ10" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS10" s="30">
         <f>IFERROR((VLOOKUP(AM10,Scoring!$A:$B,2,0))+IF(AO10="y",1,0)+IF(AP10="y",1,0)+IF(AQ10="y",1,0)+IF(AR10="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="AT10" s="29">
+      <c r="AT10" s="24">
         <v>6.0</v>
       </c>
-      <c r="AU10" s="30">
+      <c r="AU10" s="25">
         <v>15.0</v>
       </c>
-      <c r="AV10" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AW10" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX10" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AY10" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="AZ10" s="35">
+      <c r="AV10" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW10" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX10" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ10" s="30">
         <f>IFERROR((VLOOKUP(AT10,Scoring!$A:$B,2,0))+IF(AV10="y",1,0)+IF(AW10="y",1,0)+IF(AX10="y",1,0)+IF(AY10="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="BA10" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="BB10" s="30">
-        <v>22.0</v>
-      </c>
-      <c r="BC10" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BD10" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE10" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="BF10" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="BG10" s="35">
+      <c r="BA10" s="24">
+        <v>22.0</v>
+      </c>
+      <c r="BB10" s="25">
+        <v>22.0</v>
+      </c>
+      <c r="BC10" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD10" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE10" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG10" s="30">
         <f>IFERROR((VLOOKUP(BA10,Scoring!$D:$E,2,0))+IF(BC10="y",1,0)+IF(BD10="y",1,0)+IF(BE10="y",1,0)+IF(BF10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BH10" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="BI10" s="30">
-        <v>22.0</v>
-      </c>
-      <c r="BJ10" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK10" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BL10" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="BM10" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="BN10" s="35">
+      <c r="BH10" s="24">
+        <v>22.0</v>
+      </c>
+      <c r="BI10" s="25">
+        <v>22.0</v>
+      </c>
+      <c r="BJ10" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK10" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL10" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN10" s="30">
         <f>IFERROR((VLOOKUP(BH10,Scoring!$A:$B,2,0))+IF(BJ10="y",1,0)+IF(BK10="y",1,0)+IF(BL10="y",1,0)+IF(BM10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO10" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="BP10" s="30">
-        <v>22.0</v>
-      </c>
-      <c r="BQ10" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BR10" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BS10" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="BT10" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU10" s="35">
+      <c r="BO10" s="24">
+        <v>22.0</v>
+      </c>
+      <c r="BP10" s="25">
+        <v>22.0</v>
+      </c>
+      <c r="BQ10" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR10" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS10" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU10" s="30">
         <f>IFERROR((VLOOKUP(BO10,Scoring!$D:$E,2,0))+IF(BQ10="y",1,0)+IF(BR10="y",1,0)+IF(BS10="y",1,0)+IF(BT10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV10" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="BW10" s="30">
-        <v>22.0</v>
-      </c>
-      <c r="BX10" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BY10" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BZ10" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CA10" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CB10" s="35">
+      <c r="BV10" s="24">
+        <v>22.0</v>
+      </c>
+      <c r="BW10" s="25">
+        <v>22.0</v>
+      </c>
+      <c r="BX10" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY10" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ10" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB10" s="30">
         <f>IFERROR((VLOOKUP(BV10,Scoring!$A:$B,2,0))+IF(BX10="y",1,0)+IF(BY10="y",1,0)+IF(BZ10="y",1,0)+IF(CA10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC10" s="29">
+      <c r="CC10" s="24">
         <v>4.0</v>
       </c>
-      <c r="CD10" s="30">
+      <c r="CD10" s="25">
         <v>5.0</v>
       </c>
-      <c r="CE10" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="CF10" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="CG10" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CH10" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CI10" s="35">
+      <c r="CE10" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF10" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG10" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI10" s="30">
         <f>IFERROR((VLOOKUP(CC10,Scoring!$A:$B,2,0))+IF(CE10="y",1,0)+IF(CF10="y",1,0)+IF(CG10="y",1,0)+IF(CH10="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="CJ10" s="29">
+      <c r="CJ10" s="24">
         <v>7.0</v>
       </c>
-      <c r="CK10" s="30">
+      <c r="CK10" s="25">
         <v>7.0</v>
       </c>
-      <c r="CL10" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="CM10" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="CN10" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CO10" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CP10" s="35">
+      <c r="CL10" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM10" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN10" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP10" s="30">
         <f>IFERROR((VLOOKUP(CJ10,Scoring!$A:$B,2,0))+IF(CL10="y",1,0)+IF(CM10="y",1,0)+IF(CN10="y",1,0)+IF(CO10="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="CQ10" s="29">
+      <c r="CQ10" s="24">
         <v>21.0</v>
       </c>
-      <c r="CR10" s="30">
+      <c r="CR10" s="25">
         <v>3.0</v>
       </c>
-      <c r="CS10" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="CT10" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="CU10" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CV10" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CW10" s="35">
+      <c r="CS10" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT10" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU10" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW10" s="30">
         <f>IFERROR((VLOOKUP(CQ10,Scoring!$A:$B,2,0))+IF(CS10="y",1,0)+IF(CT10="y",1,0)+IF(CU10="y",1,0)+IF(CV10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX10" s="29">
+      <c r="CX10" s="24">
         <v>7.0</v>
       </c>
-      <c r="CY10" s="30">
+      <c r="CY10" s="25">
         <v>7.0</v>
       </c>
-      <c r="CZ10" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="DA10" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="DB10" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="DC10" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="DD10" s="35">
+      <c r="CZ10" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA10" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB10" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD10" s="30">
         <f>IFERROR((VLOOKUP(CX10,Scoring!$A:$B,2,0))+IF(CZ10="y",1,0)+IF(DA10="y",1,0)+IF(DB10="y",1,0)+IF(DC10="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="DE10" s="29">
+      <c r="DE10" s="24">
         <v>8.0</v>
       </c>
-      <c r="DF10" s="30">
+      <c r="DF10" s="25">
         <v>11.0</v>
       </c>
-      <c r="DG10" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="DH10" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="DI10" s="33" t="s">
+      <c r="DG10" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH10" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI10" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="DJ10" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="DK10" s="35">
+      <c r="DJ10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK10" s="30">
         <f>IFERROR((VLOOKUP(DE10,Scoring!$A:$B,2,0))+IF(DG10="y",1,0)+IF(DH10="y",1,0)+IF(DI10="y",1,0)+IF(DJ10="y",1,0),0)</f>
         <v>5</v>
       </c>
-      <c r="DL10" s="29"/>
-      <c r="DM10" s="38"/>
-      <c r="DN10" s="39"/>
-      <c r="DO10" s="40"/>
-      <c r="DP10" s="41"/>
-      <c r="DQ10" s="42"/>
-      <c r="DR10" s="35">
+      <c r="DL10" s="24">
+        <v>5.0</v>
+      </c>
+      <c r="DM10" s="25">
+        <v>6.0</v>
+      </c>
+      <c r="DN10" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DO10" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="DP10" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="DQ10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DR10" s="30">
         <f>IFERROR((VLOOKUP(DL10,Scoring!$A:$B,2,0))+IF(DN10="y",1,0)+IF(DO10="y",1,0)+IF(DP10="y",1,0)+IF(DQ10="y",1,0),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="DS10" s="13">
         <v>0.0</v>
@@ -13554,1119 +13637,1155 @@
       <c r="C11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="24">
         <v>7.0</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="25">
         <v>12.0</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="J11" s="35">
+      <c r="F11" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J11" s="30">
         <f>IFERROR((VLOOKUP(D11,Scoring!$A:$B,2,0))+IF(F11="y",1,0)+IF(G11="y",1,0)+IF(H11="y",1,0)+IF(I11="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="24">
         <v>21.0</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="25">
         <v>10.0</v>
       </c>
-      <c r="M11" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="N11" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q11" s="36">
+      <c r="M11" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q11" s="31">
         <f>IFERROR((VLOOKUP(K11,Scoring!$D:$E,2,0))+IF(M11="y",1,0)+IF(N11="y",1,0)+IF(O11="y",1,0)+IF(P11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="29">
+      <c r="R11" s="24">
         <v>11.0</v>
       </c>
-      <c r="S11" s="30">
+      <c r="S11" s="25">
         <v>15.0</v>
       </c>
-      <c r="T11" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="U11" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="V11" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="W11" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="X11" s="35">
+      <c r="T11" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="U11" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="V11" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="W11" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="X11" s="30">
         <f>IFERROR((VLOOKUP(R11,Scoring!$A:$B,2,0))+IF(T11="y",1,0)+IF(U11="y",1,0)+IF(V11="y",1,0)+IF(W11="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="Y11" s="29">
+      <c r="Y11" s="24">
         <v>21.0</v>
       </c>
-      <c r="Z11" s="30">
+      <c r="Z11" s="25">
         <v>11.0</v>
       </c>
-      <c r="AA11" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB11" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC11" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD11" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE11" s="35">
+      <c r="AA11" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB11" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC11" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD11" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE11" s="30">
         <f>IFERROR((VLOOKUP(Y11,Scoring!$A:$B,2,0))+IF(AA11="y",1,0)+IF(AB11="y",1,0)+IF(AC11="y",1,0)+IF(AD11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="29">
+      <c r="AF11" s="24">
         <v>13.0</v>
       </c>
-      <c r="AG11" s="30">
+      <c r="AG11" s="25">
         <v>12.0</v>
       </c>
-      <c r="AH11" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI11" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ11" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK11" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL11" s="35">
+      <c r="AH11" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI11" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ11" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL11" s="30">
         <f>IFERROR((VLOOKUP(AF11,Scoring!$A:$B,2,0))+IF(AH11="y",1,0)+IF(AI11="y",1,0)+IF(AJ11="y",1,0)+IF(AK11="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AM11" s="29">
+      <c r="AM11" s="24">
         <v>11.0</v>
       </c>
-      <c r="AN11" s="30">
+      <c r="AN11" s="25">
         <v>14.0</v>
       </c>
-      <c r="AO11" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AP11" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ11" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR11" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS11" s="35">
+      <c r="AO11" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP11" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ11" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS11" s="30">
         <f>IFERROR((VLOOKUP(AM11,Scoring!$A:$B,2,0))+IF(AO11="y",1,0)+IF(AP11="y",1,0)+IF(AQ11="y",1,0)+IF(AR11="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AT11" s="29">
+      <c r="AT11" s="24">
         <v>10.0</v>
       </c>
-      <c r="AU11" s="30">
+      <c r="AU11" s="25">
         <v>12.0</v>
       </c>
-      <c r="AV11" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AW11" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX11" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AY11" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="AZ11" s="35">
+      <c r="AV11" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW11" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX11" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ11" s="30">
         <f>IFERROR((VLOOKUP(AT11,Scoring!$A:$B,2,0))+IF(AV11="y",1,0)+IF(AW11="y",1,0)+IF(AX11="y",1,0)+IF(AY11="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="BA11" s="29">
+      <c r="BA11" s="24">
         <v>15.0</v>
       </c>
-      <c r="BB11" s="30">
+      <c r="BB11" s="25">
         <v>14.0</v>
       </c>
-      <c r="BC11" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BD11" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE11" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="BF11" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="BG11" s="35">
+      <c r="BC11" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD11" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE11" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG11" s="30">
         <f>IFERROR((VLOOKUP(BA11,Scoring!$D:$E,2,0))+IF(BC11="y",1,0)+IF(BD11="y",1,0)+IF(BE11="y",1,0)+IF(BF11="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="BH11" s="29">
+      <c r="BH11" s="24">
         <v>10.0</v>
       </c>
-      <c r="BI11" s="30">
+      <c r="BI11" s="25">
         <v>4.0</v>
       </c>
-      <c r="BJ11" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK11" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BL11" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="BM11" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="BN11" s="35">
+      <c r="BJ11" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK11" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL11" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN11" s="30">
         <f>IFERROR((VLOOKUP(BH11,Scoring!$A:$B,2,0))+IF(BJ11="y",1,0)+IF(BK11="y",1,0)+IF(BL11="y",1,0)+IF(BM11="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="BO11" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="BP11" s="30">
-        <v>22.0</v>
-      </c>
-      <c r="BQ11" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BR11" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BS11" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="BT11" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU11" s="35">
+      <c r="BO11" s="24">
+        <v>22.0</v>
+      </c>
+      <c r="BP11" s="25">
+        <v>22.0</v>
+      </c>
+      <c r="BQ11" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR11" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS11" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU11" s="30">
         <f>IFERROR((VLOOKUP(BO11,Scoring!$D:$E,2,0))+IF(BQ11="y",1,0)+IF(BR11="y",1,0)+IF(BS11="y",1,0)+IF(BT11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BV11" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="BW11" s="30">
-        <v>22.0</v>
-      </c>
-      <c r="BX11" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BY11" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BZ11" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CA11" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CB11" s="35">
+      <c r="BV11" s="24">
+        <v>22.0</v>
+      </c>
+      <c r="BW11" s="25">
+        <v>22.0</v>
+      </c>
+      <c r="BX11" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY11" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ11" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB11" s="30">
         <f>IFERROR((VLOOKUP(BV11,Scoring!$A:$B,2,0))+IF(BX11="y",1,0)+IF(BY11="y",1,0)+IF(BZ11="y",1,0)+IF(CA11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CC11" s="29">
+      <c r="CC11" s="24">
         <v>12.0</v>
       </c>
-      <c r="CD11" s="30">
+      <c r="CD11" s="25">
         <v>9.0</v>
       </c>
-      <c r="CE11" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="CF11" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="CG11" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CH11" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CI11" s="35">
+      <c r="CE11" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF11" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG11" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI11" s="30">
         <f>IFERROR((VLOOKUP(CC11,Scoring!$A:$B,2,0))+IF(CE11="y",1,0)+IF(CF11="y",1,0)+IF(CG11="y",1,0)+IF(CH11="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="CJ11" s="29">
+      <c r="CJ11" s="24">
         <v>13.0</v>
       </c>
-      <c r="CK11" s="30">
+      <c r="CK11" s="25">
         <v>12.0</v>
       </c>
-      <c r="CL11" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="CM11" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="CN11" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CO11" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CP11" s="35">
+      <c r="CL11" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM11" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN11" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP11" s="30">
         <f>IFERROR((VLOOKUP(CJ11,Scoring!$A:$B,2,0))+IF(CL11="y",1,0)+IF(CM11="y",1,0)+IF(CN11="y",1,0)+IF(CO11="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="CQ11" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="CR11" s="30">
-        <v>22.0</v>
-      </c>
-      <c r="CS11" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="CT11" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="CU11" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CV11" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CW11" s="35">
+      <c r="CQ11" s="24">
+        <v>22.0</v>
+      </c>
+      <c r="CR11" s="25">
+        <v>22.0</v>
+      </c>
+      <c r="CS11" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT11" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU11" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW11" s="30">
         <f>IFERROR((VLOOKUP(CQ11,Scoring!$A:$B,2,0))+IF(CS11="y",1,0)+IF(CT11="y",1,0)+IF(CU11="y",1,0)+IF(CV11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX11" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="CY11" s="30">
-        <v>22.0</v>
-      </c>
-      <c r="CZ11" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="DA11" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="DB11" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="DC11" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="DD11" s="35">
+      <c r="CX11" s="24">
+        <v>22.0</v>
+      </c>
+      <c r="CY11" s="25">
+        <v>22.0</v>
+      </c>
+      <c r="CZ11" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA11" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB11" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD11" s="30">
         <f>IFERROR((VLOOKUP(CX11,Scoring!$A:$B,2,0))+IF(CZ11="y",1,0)+IF(DA11="y",1,0)+IF(DB11="y",1,0)+IF(DC11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE11" s="29">
+      <c r="DE11" s="24">
         <v>9.0</v>
       </c>
-      <c r="DF11" s="30">
+      <c r="DF11" s="25">
         <v>12.0</v>
       </c>
-      <c r="DG11" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="DH11" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="DI11" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="DJ11" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="DK11" s="35">
+      <c r="DG11" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH11" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI11" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK11" s="30">
         <f>IFERROR((VLOOKUP(DE11,Scoring!$A:$B,2,0))+IF(DG11="y",1,0)+IF(DH11="y",1,0)+IF(DI11="y",1,0)+IF(DJ11="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="DL11" s="29"/>
-      <c r="DM11" s="38"/>
-      <c r="DN11" s="39"/>
-      <c r="DO11" s="40"/>
-      <c r="DP11" s="41"/>
-      <c r="DQ11" s="42"/>
-      <c r="DR11" s="35">
+      <c r="DL11" s="24">
+        <v>14.0</v>
+      </c>
+      <c r="DM11" s="25">
+        <v>15.0</v>
+      </c>
+      <c r="DN11" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DO11" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="DP11" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="DQ11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DR11" s="30">
         <f>IFERROR((VLOOKUP(DL11,Scoring!$A:$B,2,0))+IF(DN11="y",1,0)+IF(DO11="y",1,0)+IF(DP11="y",1,0)+IF(DQ11="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS11" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="36">
         <v>6.0</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="37">
         <v>9.0</v>
       </c>
-      <c r="F12" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="J12" s="52">
+      <c r="F12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="J12" s="42">
         <f>IFERROR((VLOOKUP(D12,Scoring!$A:$B,2,0))+IF(F12="y",1,0)+IF(G12="y",1,0)+IF(H12="y",1,0)+IF(I12="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="36">
         <v>12.0</v>
       </c>
-      <c r="L12" s="47">
+      <c r="L12" s="37">
         <v>13.0</v>
       </c>
-      <c r="M12" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="N12" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="O12" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="P12" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q12" s="53">
+      <c r="M12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="O12" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="P12" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q12" s="43">
         <f>IFERROR((VLOOKUP(K12,Scoring!$D:$E,2,0))+IF(M12="y",1,0)+IF(N12="y",1,0)+IF(O12="y",1,0)+IF(P12="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="R12" s="46">
+      <c r="R12" s="36">
         <v>4.0</v>
       </c>
-      <c r="S12" s="47">
+      <c r="S12" s="37">
         <v>4.0</v>
       </c>
-      <c r="T12" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="U12" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="V12" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="W12" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="X12" s="52">
+      <c r="T12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="U12" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="V12" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="W12" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="X12" s="42">
         <f>IFERROR((VLOOKUP(R12,Scoring!$A:$B,2,0))+IF(T12="y",1,0)+IF(U12="y",1,0)+IF(V12="y",1,0)+IF(W12="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="Y12" s="46">
+      <c r="Y12" s="36">
         <v>7.0</v>
       </c>
-      <c r="Z12" s="47">
+      <c r="Z12" s="37">
         <v>9.0</v>
       </c>
-      <c r="AA12" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB12" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC12" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD12" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE12" s="52">
+      <c r="AA12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB12" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC12" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD12" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE12" s="42">
         <f>IFERROR((VLOOKUP(Y12,Scoring!$A:$B,2,0))+IF(AA12="y",1,0)+IF(AB12="y",1,0)+IF(AC12="y",1,0)+IF(AD12="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="AF12" s="46">
-        <v>22.0</v>
-      </c>
-      <c r="AG12" s="47">
-        <v>22.0</v>
-      </c>
-      <c r="AH12" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI12" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ12" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK12" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL12" s="52">
+      <c r="AF12" s="36">
+        <v>22.0</v>
+      </c>
+      <c r="AG12" s="37">
+        <v>22.0</v>
+      </c>
+      <c r="AH12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI12" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ12" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK12" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL12" s="42">
         <f>IFERROR((VLOOKUP(AF12,Scoring!$A:$B,2,0))+IF(AH12="y",1,0)+IF(AI12="y",1,0)+IF(AJ12="y",1,0)+IF(AK12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="46">
+      <c r="AM12" s="36">
         <v>6.0</v>
       </c>
-      <c r="AN12" s="47">
+      <c r="AN12" s="37">
         <v>10.0</v>
       </c>
-      <c r="AO12" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="AP12" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ12" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR12" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS12" s="52">
+      <c r="AO12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP12" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ12" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR12" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS12" s="42">
         <f>IFERROR((VLOOKUP(AM12,Scoring!$A:$B,2,0))+IF(AO12="y",1,0)+IF(AP12="y",1,0)+IF(AQ12="y",1,0)+IF(AR12="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="AT12" s="46">
+      <c r="AT12" s="36">
         <v>8.0</v>
       </c>
-      <c r="AU12" s="47">
+      <c r="AU12" s="37">
         <v>11.0</v>
       </c>
-      <c r="AV12" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="AW12" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX12" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="AY12" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="AZ12" s="52">
+      <c r="AV12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW12" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX12" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY12" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ12" s="42">
         <f>IFERROR((VLOOKUP(AT12,Scoring!$A:$B,2,0))+IF(AV12="y",1,0)+IF(AW12="y",1,0)+IF(AX12="y",1,0)+IF(AY12="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="BA12" s="46">
+      <c r="BA12" s="36">
         <v>8.0</v>
       </c>
-      <c r="BB12" s="47">
+      <c r="BB12" s="37">
         <v>13.0</v>
       </c>
-      <c r="BC12" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="BD12" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE12" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="BF12" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="BG12" s="52">
+      <c r="BC12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD12" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE12" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF12" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG12" s="42">
         <f>IFERROR((VLOOKUP(BA12,Scoring!$D:$E,2,0))+IF(BC12="y",1,0)+IF(BD12="y",1,0)+IF(BE12="y",1,0)+IF(BF12="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="BH12" s="46">
+      <c r="BH12" s="36">
         <v>11.0</v>
       </c>
-      <c r="BI12" s="47">
+      <c r="BI12" s="37">
         <v>8.0</v>
       </c>
-      <c r="BJ12" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK12" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="BL12" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="BM12" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="BN12" s="52">
+      <c r="BJ12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK12" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL12" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM12" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN12" s="42">
         <f>IFERROR((VLOOKUP(BH12,Scoring!$A:$B,2,0))+IF(BJ12="y",1,0)+IF(BK12="y",1,0)+IF(BL12="y",1,0)+IF(BM12="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="BO12" s="46">
+      <c r="BO12" s="36">
         <v>15.0</v>
       </c>
-      <c r="BP12" s="47">
+      <c r="BP12" s="37">
         <v>15.0</v>
       </c>
-      <c r="BQ12" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="BR12" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="BS12" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="BT12" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU12" s="52">
+      <c r="BQ12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR12" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS12" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT12" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU12" s="42">
         <f>IFERROR((VLOOKUP(BO12,Scoring!$D:$E,2,0))+IF(BQ12="y",1,0)+IF(BR12="y",1,0)+IF(BS12="y",1,0)+IF(BT12="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="BV12" s="46">
+      <c r="BV12" s="36">
         <v>13.0</v>
       </c>
-      <c r="BW12" s="47">
+      <c r="BW12" s="37">
         <v>5.0</v>
       </c>
-      <c r="BX12" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="BY12" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="BZ12" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="CA12" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="CB12" s="52">
+      <c r="BX12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY12" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ12" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA12" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB12" s="42">
         <f>IFERROR((VLOOKUP(BV12,Scoring!$A:$B,2,0))+IF(BX12="y",1,0)+IF(BY12="y",1,0)+IF(BZ12="y",1,0)+IF(CA12="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="CC12" s="46">
+      <c r="CC12" s="36">
         <v>6.0</v>
       </c>
-      <c r="CD12" s="47">
+      <c r="CD12" s="37">
         <v>13.0</v>
       </c>
-      <c r="CE12" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="CF12" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="CG12" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="CH12" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="CI12" s="52">
+      <c r="CE12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF12" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG12" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH12" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI12" s="42">
         <f>IFERROR((VLOOKUP(CC12,Scoring!$A:$B,2,0))+IF(CE12="y",1,0)+IF(CF12="y",1,0)+IF(CG12="y",1,0)+IF(CH12="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="CJ12" s="46">
+      <c r="CJ12" s="36">
         <v>9.0</v>
       </c>
-      <c r="CK12" s="47">
-        <v>22.0</v>
-      </c>
-      <c r="CL12" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="CM12" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="CN12" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="CO12" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="CP12" s="52">
+      <c r="CK12" s="37">
+        <v>22.0</v>
+      </c>
+      <c r="CL12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM12" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN12" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO12" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP12" s="42">
         <f>IFERROR((VLOOKUP(CJ12,Scoring!$A:$B,2,0))+IF(CL12="y",1,0)+IF(CM12="y",1,0)+IF(CN12="y",1,0)+IF(CO12="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="CQ12" s="46">
+      <c r="CQ12" s="36">
         <v>5.0</v>
       </c>
-      <c r="CR12" s="47">
+      <c r="CR12" s="37">
         <v>7.0</v>
       </c>
-      <c r="CS12" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="CT12" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="CU12" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="CV12" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="CW12" s="52">
+      <c r="CS12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT12" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU12" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV12" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW12" s="42">
         <f>IFERROR((VLOOKUP(CQ12,Scoring!$A:$B,2,0))+IF(CS12="y",1,0)+IF(CT12="y",1,0)+IF(CU12="y",1,0)+IF(CV12="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="CX12" s="46">
+      <c r="CX12" s="36">
         <v>6.0</v>
       </c>
-      <c r="CY12" s="47">
+      <c r="CY12" s="37">
         <v>6.0</v>
       </c>
-      <c r="CZ12" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="DA12" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="DB12" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="DC12" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="DD12" s="52">
+      <c r="CZ12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA12" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB12" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC12" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD12" s="42">
         <f>IFERROR((VLOOKUP(CX12,Scoring!$A:$B,2,0))+IF(CZ12="y",1,0)+IF(DA12="y",1,0)+IF(DB12="y",1,0)+IF(DC12="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="DE12" s="46">
-        <v>22.0</v>
-      </c>
-      <c r="DF12" s="47">
-        <v>22.0</v>
-      </c>
-      <c r="DG12" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="DH12" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="DI12" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="DJ12" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="DK12" s="52">
+      <c r="DE12" s="36">
+        <v>22.0</v>
+      </c>
+      <c r="DF12" s="37">
+        <v>22.0</v>
+      </c>
+      <c r="DG12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH12" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI12" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ12" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK12" s="42">
         <f>IFERROR((VLOOKUP(DE12,Scoring!$A:$B,2,0))+IF(DG12="y",1,0)+IF(DH12="y",1,0)+IF(DI12="y",1,0)+IF(DJ12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DL12" s="46"/>
-      <c r="DM12" s="55"/>
-      <c r="DN12" s="56"/>
-      <c r="DO12" s="57"/>
-      <c r="DP12" s="58"/>
-      <c r="DQ12" s="59"/>
-      <c r="DR12" s="52">
+      <c r="DL12" s="36">
+        <v>10.0</v>
+      </c>
+      <c r="DM12" s="37">
+        <v>14.0</v>
+      </c>
+      <c r="DN12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="DO12" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="DP12" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="DQ12" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="DR12" s="42">
         <f>IFERROR((VLOOKUP(DL12,Scoring!$A:$B,2,0))+IF(DN12="y",1,0)+IF(DO12="y",1,0)+IF(DP12="y",1,0)+IF(DQ12="y",1,0),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DS12" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="48">
         <v>11.0</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="49">
         <v>15.0</v>
       </c>
-      <c r="F13" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="G13" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="H13" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="I13" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="J13" s="69">
+      <c r="F13" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="J13" s="54">
         <f>IFERROR((VLOOKUP(D13,Scoring!$A:$B,2,0))+IF(F13="y",1,0)+IF(G13="y",1,0)+IF(H13="y",1,0)+IF(I13="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="63">
+      <c r="K13" s="48">
         <v>11.0</v>
       </c>
-      <c r="L13" s="64">
+      <c r="L13" s="49">
         <v>12.0</v>
       </c>
-      <c r="M13" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="N13" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="O13" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="P13" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q13" s="70">
+      <c r="M13" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="N13" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="O13" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="P13" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q13" s="55">
         <f>IFERROR((VLOOKUP(K13,Scoring!$D:$E,2,0))+IF(M13="y",1,0)+IF(N13="y",1,0)+IF(O13="y",1,0)+IF(P13="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="R13" s="63">
+      <c r="R13" s="48">
         <v>10.0</v>
       </c>
-      <c r="S13" s="64">
+      <c r="S13" s="49">
         <v>5.0</v>
       </c>
-      <c r="T13" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="U13" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="V13" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="W13" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="X13" s="69">
+      <c r="T13" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="U13" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="V13" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="W13" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="X13" s="54">
         <f>IFERROR((VLOOKUP(R13,Scoring!$A:$B,2,0))+IF(T13="y",1,0)+IF(U13="y",1,0)+IF(V13="y",1,0)+IF(W13="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="Y13" s="63">
+      <c r="Y13" s="48">
         <v>12.0</v>
       </c>
-      <c r="Z13" s="64">
+      <c r="Z13" s="49">
         <v>10.0</v>
       </c>
-      <c r="AA13" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB13" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC13" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD13" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE13" s="69">
+      <c r="AA13" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB13" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC13" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD13" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE13" s="54">
         <f>IFERROR((VLOOKUP(Y13,Scoring!$A:$B,2,0))+IF(AA13="y",1,0)+IF(AB13="y",1,0)+IF(AC13="y",1,0)+IF(AD13="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AF13" s="63">
+      <c r="AF13" s="48">
         <v>11.0</v>
       </c>
-      <c r="AG13" s="64">
+      <c r="AG13" s="49">
         <v>9.0</v>
       </c>
-      <c r="AH13" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI13" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ13" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK13" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL13" s="69">
+      <c r="AH13" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI13" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ13" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK13" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL13" s="54">
         <f>IFERROR((VLOOKUP(AF13,Scoring!$A:$B,2,0))+IF(AH13="y",1,0)+IF(AI13="y",1,0)+IF(AJ13="y",1,0)+IF(AK13="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AM13" s="63">
+      <c r="AM13" s="48">
         <v>10.0</v>
       </c>
-      <c r="AN13" s="64">
+      <c r="AN13" s="49">
         <v>8.0</v>
       </c>
-      <c r="AO13" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="AP13" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ13" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR13" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS13" s="69">
+      <c r="AO13" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP13" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ13" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR13" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS13" s="54">
         <f>IFERROR((VLOOKUP(AM13,Scoring!$A:$B,2,0))+IF(AO13="y",1,0)+IF(AP13="y",1,0)+IF(AQ13="y",1,0)+IF(AR13="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="AT13" s="63">
+      <c r="AT13" s="48">
         <v>11.0</v>
       </c>
-      <c r="AU13" s="64">
+      <c r="AU13" s="49">
         <v>8.0</v>
       </c>
-      <c r="AV13" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="AW13" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX13" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="AY13" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="AZ13" s="69">
+      <c r="AV13" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW13" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX13" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY13" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ13" s="54">
         <f>IFERROR((VLOOKUP(AT13,Scoring!$A:$B,2,0))+IF(AV13="y",1,0)+IF(AW13="y",1,0)+IF(AX13="y",1,0)+IF(AY13="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="BA13" s="63">
+      <c r="BA13" s="48">
         <v>14.0</v>
       </c>
-      <c r="BB13" s="64">
+      <c r="BB13" s="49">
         <v>15.0</v>
       </c>
-      <c r="BC13" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="BD13" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE13" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="BF13" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="BG13" s="69">
+      <c r="BC13" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD13" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE13" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF13" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG13" s="54">
         <f>IFERROR((VLOOKUP(BA13,Scoring!$D:$E,2,0))+IF(BC13="y",1,0)+IF(BD13="y",1,0)+IF(BE13="y",1,0)+IF(BF13="y",1,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="BH13" s="63">
+      <c r="BH13" s="48">
         <v>21.0</v>
       </c>
-      <c r="BI13" s="64">
+      <c r="BI13" s="49">
         <v>5.0</v>
       </c>
-      <c r="BJ13" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK13" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="BL13" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="BM13" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="BN13" s="69">
+      <c r="BJ13" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK13" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL13" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM13" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN13" s="54">
         <f>IFERROR((VLOOKUP(BH13,Scoring!$A:$B,2,0))+IF(BJ13="y",1,0)+IF(BK13="y",1,0)+IF(BL13="y",1,0)+IF(BM13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BO13" s="63">
+      <c r="BO13" s="48">
         <v>7.0</v>
       </c>
-      <c r="BP13" s="64">
+      <c r="BP13" s="49">
         <v>10.0</v>
       </c>
-      <c r="BQ13" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="BR13" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="BS13" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="BT13" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU13" s="69">
+      <c r="BQ13" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR13" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS13" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT13" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU13" s="54">
         <f>IFERROR((VLOOKUP(BO13,Scoring!$D:$E,2,0))+IF(BQ13="y",1,0)+IF(BR13="y",1,0)+IF(BS13="y",1,0)+IF(BT13="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="BV13" s="63">
+      <c r="BV13" s="48">
         <v>7.0</v>
       </c>
-      <c r="BW13" s="64">
+      <c r="BW13" s="49">
         <v>14.0</v>
       </c>
-      <c r="BX13" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="BY13" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="BZ13" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="CA13" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="CB13" s="69">
+      <c r="BX13" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY13" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ13" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA13" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB13" s="54">
         <f>IFERROR((VLOOKUP(BV13,Scoring!$A:$B,2,0))+IF(BX13="y",1,0)+IF(BY13="y",1,0)+IF(BZ13="y",1,0)+IF(CA13="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="CC13" s="63">
+      <c r="CC13" s="48">
         <v>9.0</v>
       </c>
-      <c r="CD13" s="64">
+      <c r="CD13" s="49">
         <v>8.0</v>
       </c>
-      <c r="CE13" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="CF13" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="CG13" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="CH13" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="CI13" s="69">
+      <c r="CE13" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF13" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG13" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH13" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI13" s="54">
         <f>IFERROR((VLOOKUP(CC13,Scoring!$A:$B,2,0))+IF(CE13="y",1,0)+IF(CF13="y",1,0)+IF(CG13="y",1,0)+IF(CH13="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="CJ13" s="63">
+      <c r="CJ13" s="48">
         <v>8.0</v>
       </c>
-      <c r="CK13" s="64">
+      <c r="CK13" s="49">
         <v>5.0</v>
       </c>
-      <c r="CL13" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="CM13" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="CN13" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="CO13" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="CP13" s="69">
+      <c r="CL13" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM13" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN13" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO13" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP13" s="54">
         <f>IFERROR((VLOOKUP(CJ13,Scoring!$A:$B,2,0))+IF(CL13="y",1,0)+IF(CM13="y",1,0)+IF(CN13="y",1,0)+IF(CO13="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="CQ13" s="63">
+      <c r="CQ13" s="48">
         <v>6.0</v>
       </c>
-      <c r="CR13" s="64">
+      <c r="CR13" s="49">
         <v>5.0</v>
       </c>
-      <c r="CS13" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="CT13" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="CU13" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="CV13" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="CW13" s="69">
+      <c r="CS13" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT13" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU13" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV13" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW13" s="54">
         <f>IFERROR((VLOOKUP(CQ13,Scoring!$A:$B,2,0))+IF(CS13="y",1,0)+IF(CT13="y",1,0)+IF(CU13="y",1,0)+IF(CV13="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="CX13" s="63">
+      <c r="CX13" s="48">
         <v>4.0</v>
       </c>
-      <c r="CY13" s="64">
+      <c r="CY13" s="49">
         <v>9.0</v>
       </c>
-      <c r="CZ13" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="DA13" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="DB13" s="67" t="s">
+      <c r="CZ13" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA13" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB13" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="DC13" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="DD13" s="69">
+      <c r="DC13" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD13" s="54">
         <f>IFERROR((VLOOKUP(CX13,Scoring!$A:$B,2,0))+IF(CZ13="y",1,0)+IF(DA13="y",1,0)+IF(DB13="y",1,0)+IF(DC13="y",1,0),0)</f>
         <v>13</v>
       </c>
-      <c r="DE13" s="63">
+      <c r="DE13" s="48">
         <v>7.0</v>
       </c>
-      <c r="DF13" s="64">
+      <c r="DF13" s="49">
         <v>6.0</v>
       </c>
-      <c r="DG13" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="DH13" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="DI13" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="DJ13" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="DK13" s="69">
+      <c r="DG13" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH13" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI13" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ13" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK13" s="54">
         <f>IFERROR((VLOOKUP(DE13,Scoring!$A:$B,2,0))+IF(DG13="y",1,0)+IF(DH13="y",1,0)+IF(DI13="y",1,0)+IF(DJ13="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="DL13" s="63"/>
-      <c r="DM13" s="72"/>
-      <c r="DN13" s="73"/>
-      <c r="DO13" s="74"/>
-      <c r="DP13" s="75"/>
-      <c r="DQ13" s="76"/>
-      <c r="DR13" s="69">
+      <c r="DL13" s="48">
+        <v>6.0</v>
+      </c>
+      <c r="DM13" s="49">
+        <v>7.0</v>
+      </c>
+      <c r="DN13" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="DO13" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="DP13" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="DQ13" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="DR13" s="54">
         <f>IFERROR((VLOOKUP(DL13,Scoring!$A:$B,2,0))+IF(DN13="y",1,0)+IF(DO13="y",1,0)+IF(DP13="y",1,0)+IF(DQ13="y",1,0),0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="DS13" s="13">
         <v>0.0</v>
@@ -14682,743 +14801,767 @@
       <c r="C14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="24">
         <v>8.0</v>
       </c>
-      <c r="E14" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="J14" s="35">
+      <c r="E14" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J14" s="30">
         <f>IFERROR((VLOOKUP(D14,Scoring!$A:$B,2,0))+IF(F14="y",1,0)+IF(G14="y",1,0)+IF(H14="y",1,0)+IF(I14="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="24">
         <v>2.0</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="25">
         <v>4.0</v>
       </c>
-      <c r="M14" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="N14" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="O14" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="P14" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q14" s="36">
+      <c r="M14" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q14" s="31">
         <f>IFERROR((VLOOKUP(K14,Scoring!$D:$E,2,0))+IF(M14="y",1,0)+IF(N14="y",1,0)+IF(O14="y",1,0)+IF(P14="y",1,0),0)</f>
         <v>7</v>
       </c>
-      <c r="R14" s="29">
+      <c r="R14" s="24">
         <v>8.0</v>
       </c>
-      <c r="S14" s="30">
+      <c r="S14" s="25">
         <v>13.0</v>
       </c>
-      <c r="T14" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="U14" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="V14" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="W14" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="X14" s="35">
+      <c r="T14" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="U14" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="V14" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="W14" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="X14" s="30">
         <f>IFERROR((VLOOKUP(R14,Scoring!$A:$B,2,0))+IF(T14="y",1,0)+IF(U14="y",1,0)+IF(V14="y",1,0)+IF(W14="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="Y14" s="29">
+      <c r="Y14" s="24">
         <v>9.0</v>
       </c>
-      <c r="Z14" s="30">
+      <c r="Z14" s="25">
         <v>5.0</v>
       </c>
-      <c r="AA14" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB14" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC14" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD14" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE14" s="35">
+      <c r="AA14" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB14" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC14" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD14" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE14" s="30">
         <f>IFERROR((VLOOKUP(Y14,Scoring!$A:$B,2,0))+IF(AA14="y",1,0)+IF(AB14="y",1,0)+IF(AC14="y",1,0)+IF(AD14="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="AF14" s="29">
+      <c r="AF14" s="24">
         <v>2.0</v>
       </c>
-      <c r="AG14" s="30">
+      <c r="AG14" s="25">
         <v>5.0</v>
       </c>
-      <c r="AH14" s="31" t="s">
+      <c r="AH14" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="AI14" s="32" t="s">
+      <c r="AI14" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="AJ14" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK14" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL14" s="35">
+      <c r="AJ14" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL14" s="30">
         <f>IFERROR((VLOOKUP(AF14,Scoring!$A:$B,2,0))+IF(AH14="y",1,0)+IF(AI14="y",1,0)+IF(AJ14="y",1,0)+IF(AK14="y",1,0),0)</f>
         <v>20</v>
       </c>
-      <c r="AM14" s="29">
+      <c r="AM14" s="24">
         <v>4.0</v>
       </c>
-      <c r="AN14" s="30">
+      <c r="AN14" s="25">
         <v>3.0</v>
       </c>
-      <c r="AO14" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AP14" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ14" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR14" s="37" t="s">
+      <c r="AO14" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP14" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ14" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR14" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="AS14" s="35">
+      <c r="AS14" s="30">
         <f>IFERROR((VLOOKUP(AM14,Scoring!$A:$B,2,0))+IF(AO14="y",1,0)+IF(AP14="y",1,0)+IF(AQ14="y",1,0)+IF(AR14="y",1,0),0)</f>
         <v>13</v>
       </c>
-      <c r="AT14" s="29">
+      <c r="AT14" s="24">
         <v>5.0</v>
       </c>
-      <c r="AU14" s="30">
+      <c r="AU14" s="25">
         <v>3.0</v>
       </c>
-      <c r="AV14" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AW14" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX14" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AY14" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="AZ14" s="35">
+      <c r="AV14" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW14" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX14" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ14" s="30">
         <f>IFERROR((VLOOKUP(AT14,Scoring!$A:$B,2,0))+IF(AV14="y",1,0)+IF(AW14="y",1,0)+IF(AX14="y",1,0)+IF(AY14="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="BA14" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="BB14" s="30">
+      <c r="BA14" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="BB14" s="25">
         <v>3.0</v>
       </c>
-      <c r="BC14" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BD14" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE14" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="BF14" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="BG14" s="35">
+      <c r="BC14" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD14" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE14" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG14" s="30">
         <f>IFERROR((VLOOKUP(BA14,Scoring!$D:$E,2,0))+IF(BC14="y",1,0)+IF(BD14="y",1,0)+IF(BE14="y",1,0)+IF(BF14="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="BH14" s="29">
+      <c r="BH14" s="24">
         <v>7.0</v>
       </c>
-      <c r="BI14" s="30">
+      <c r="BI14" s="25">
         <v>15.0</v>
       </c>
-      <c r="BJ14" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK14" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BL14" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="BM14" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="BN14" s="35">
+      <c r="BJ14" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK14" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL14" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN14" s="30">
         <f>IFERROR((VLOOKUP(BH14,Scoring!$A:$B,2,0))+IF(BJ14="y",1,0)+IF(BK14="y",1,0)+IF(BL14="y",1,0)+IF(BM14="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="BO14" s="29">
+      <c r="BO14" s="24">
         <v>6.0</v>
       </c>
-      <c r="BP14" s="30">
+      <c r="BP14" s="25">
         <v>3.0</v>
       </c>
-      <c r="BQ14" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BR14" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BS14" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="BT14" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU14" s="35">
+      <c r="BQ14" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR14" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS14" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU14" s="30">
         <f>IFERROR((VLOOKUP(BO14,Scoring!$D:$E,2,0))+IF(BQ14="y",1,0)+IF(BR14="y",1,0)+IF(BS14="y",1,0)+IF(BT14="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="BV14" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="BW14" s="30">
+      <c r="BV14" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="BW14" s="25">
         <v>9.0</v>
       </c>
-      <c r="BX14" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BY14" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BZ14" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CA14" s="37" t="s">
+      <c r="BX14" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY14" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ14" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA14" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="CB14" s="35">
+      <c r="CB14" s="30">
         <f>IFERROR((VLOOKUP(BV14,Scoring!$A:$B,2,0))+IF(BX14="y",1,0)+IF(BY14="y",1,0)+IF(BZ14="y",1,0)+IF(CA14="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="CC14" s="29">
+      <c r="CC14" s="24">
         <v>3.0</v>
       </c>
-      <c r="CD14" s="30">
+      <c r="CD14" s="25">
         <v>2.0</v>
       </c>
-      <c r="CE14" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="CF14" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="CG14" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CH14" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CI14" s="35">
+      <c r="CE14" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF14" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG14" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI14" s="30">
         <f>IFERROR((VLOOKUP(CC14,Scoring!$A:$B,2,0))+IF(CE14="y",1,0)+IF(CF14="y",1,0)+IF(CG14="y",1,0)+IF(CH14="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="CJ14" s="29">
+      <c r="CJ14" s="24">
         <v>3.0</v>
       </c>
-      <c r="CK14" s="30">
+      <c r="CK14" s="25">
         <v>10.0</v>
       </c>
-      <c r="CL14" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="CM14" s="32" t="s">
+      <c r="CL14" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM14" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="CN14" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CO14" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CP14" s="35">
+      <c r="CN14" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP14" s="30">
         <f>IFERROR((VLOOKUP(CJ14,Scoring!$A:$B,2,0))+IF(CL14="y",1,0)+IF(CM14="y",1,0)+IF(CN14="y",1,0)+IF(CO14="y",1,0),0)</f>
         <v>16</v>
       </c>
-      <c r="CQ14" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="CR14" s="30">
-        <v>22.0</v>
-      </c>
-      <c r="CS14" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="CT14" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="CU14" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="CV14" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="CW14" s="35">
+      <c r="CQ14" s="24">
+        <v>22.0</v>
+      </c>
+      <c r="CR14" s="25">
+        <v>22.0</v>
+      </c>
+      <c r="CS14" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT14" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU14" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW14" s="30">
         <f>IFERROR((VLOOKUP(CQ14,Scoring!$A:$B,2,0))+IF(CS14="y",1,0)+IF(CT14="y",1,0)+IF(CU14="y",1,0)+IF(CV14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="CX14" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="CY14" s="30">
-        <v>22.0</v>
-      </c>
-      <c r="CZ14" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="DA14" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="DB14" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="DC14" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="DD14" s="35">
+      <c r="CX14" s="24">
+        <v>22.0</v>
+      </c>
+      <c r="CY14" s="25">
+        <v>22.0</v>
+      </c>
+      <c r="CZ14" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA14" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB14" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD14" s="30">
         <f>IFERROR((VLOOKUP(CX14,Scoring!$A:$B,2,0))+IF(CZ14="y",1,0)+IF(DA14="y",1,0)+IF(DB14="y",1,0)+IF(DC14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DE14" s="29">
+      <c r="DE14" s="24">
         <v>4.0</v>
       </c>
-      <c r="DF14" s="30">
+      <c r="DF14" s="25">
         <v>5.0</v>
       </c>
-      <c r="DG14" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="DH14" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="DI14" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="DJ14" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="DK14" s="35">
+      <c r="DG14" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DH14" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI14" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK14" s="30">
         <f>IFERROR((VLOOKUP(DE14,Scoring!$A:$B,2,0))+IF(DG14="y",1,0)+IF(DH14="y",1,0)+IF(DI14="y",1,0)+IF(DJ14="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="DL14" s="29"/>
-      <c r="DM14" s="38"/>
-      <c r="DN14" s="39"/>
-      <c r="DO14" s="40"/>
-      <c r="DP14" s="41"/>
-      <c r="DQ14" s="42"/>
-      <c r="DR14" s="35">
+      <c r="DL14" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="DM14" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="DN14" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DO14" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="DP14" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="DQ14" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="DR14" s="30">
         <f>IFERROR((VLOOKUP(DL14,Scoring!$A:$B,2,0))+IF(DN14="y",1,0)+IF(DO14="y",1,0)+IF(DP14="y",1,0)+IF(DQ14="y",1,0),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="DS14" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="60">
         <v>21.0</v>
       </c>
-      <c r="E15" s="81">
-        <v>22.0</v>
-      </c>
-      <c r="F15" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="G15" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="H15" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="I15" s="85" t="s">
-        <v>267</v>
-      </c>
-      <c r="J15" s="86">
+      <c r="E15" s="61">
+        <v>22.0</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="I15" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="J15" s="66">
         <f>IFERROR((VLOOKUP(D15,Scoring!$A:$B,2,0))+IF(F15="y",1,0)+IF(G15="y",1,0)+IF(H15="y",1,0)+IF(I15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="80">
-        <v>1.0</v>
-      </c>
-      <c r="L15" s="81">
-        <v>1.0</v>
-      </c>
-      <c r="M15" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="N15" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="O15" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="P15" s="85" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q15" s="87">
+      <c r="K15" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="L15" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="M15" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="N15" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="O15" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="P15" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q15" s="67">
         <f>IFERROR((VLOOKUP(K15,Scoring!$D:$E,2,0))+IF(M15="y",1,0)+IF(N15="y",1,0)+IF(O15="y",1,0)+IF(P15="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="R15" s="80">
+      <c r="R15" s="60">
         <v>21.0</v>
       </c>
-      <c r="S15" s="81">
+      <c r="S15" s="61">
         <v>14.0</v>
       </c>
-      <c r="T15" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="U15" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="V15" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="W15" s="85" t="s">
-        <v>267</v>
-      </c>
-      <c r="X15" s="86">
+      <c r="T15" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="U15" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="V15" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="W15" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="X15" s="66">
         <f>IFERROR((VLOOKUP(R15,Scoring!$A:$B,2,0))+IF(T15="y",1,0)+IF(U15="y",1,0)+IF(V15="y",1,0)+IF(W15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="80">
-        <v>1.0</v>
-      </c>
-      <c r="Z15" s="81">
-        <v>1.0</v>
-      </c>
-      <c r="AA15" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB15" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC15" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD15" s="85" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE15" s="86">
+      <c r="Y15" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="Z15" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="AA15" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB15" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC15" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD15" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE15" s="66">
         <f>IFERROR((VLOOKUP(Y15,Scoring!$A:$B,2,0))+IF(AA15="y",1,0)+IF(AB15="y",1,0)+IF(AC15="y",1,0)+IF(AD15="y",1,0),0)</f>
         <v>25</v>
       </c>
-      <c r="AF15" s="80">
-        <v>1.0</v>
-      </c>
-      <c r="AG15" s="81">
-        <v>1.0</v>
-      </c>
-      <c r="AH15" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI15" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ15" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK15" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL15" s="86">
+      <c r="AF15" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="AG15" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="AH15" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI15" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ15" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK15" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL15" s="66">
         <f>IFERROR((VLOOKUP(AF15,Scoring!$A:$B,2,0))+IF(AH15="y",1,0)+IF(AI15="y",1,0)+IF(AJ15="y",1,0)+IF(AK15="y",1,0),0)</f>
         <v>25</v>
       </c>
-      <c r="AM15" s="80">
-        <v>1.0</v>
-      </c>
-      <c r="AN15" s="81">
-        <v>1.0</v>
-      </c>
-      <c r="AO15" s="82" t="s">
+      <c r="AM15" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="AN15" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="AO15" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="AP15" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ15" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR15" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS15" s="86">
+      <c r="AP15" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ15" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR15" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS15" s="66">
         <f>IFERROR((VLOOKUP(AM15,Scoring!$A:$B,2,0))+IF(AO15="y",1,0)+IF(AP15="y",1,0)+IF(AQ15="y",1,0)+IF(AR15="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="AT15" s="80">
-        <v>1.0</v>
-      </c>
-      <c r="AU15" s="81">
+      <c r="AT15" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="AU15" s="61">
         <v>4.0</v>
       </c>
-      <c r="AV15" s="82" t="s">
+      <c r="AV15" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="AW15" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX15" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="AY15" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="AZ15" s="86">
+      <c r="AW15" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX15" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY15" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ15" s="66">
         <f>IFERROR((VLOOKUP(AT15,Scoring!$A:$B,2,0))+IF(AV15="y",1,0)+IF(AW15="y",1,0)+IF(AX15="y",1,0)+IF(AY15="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="BA15" s="80">
+      <c r="BA15" s="60">
         <v>2.0</v>
       </c>
-      <c r="BB15" s="81">
+      <c r="BB15" s="61">
         <v>2.0</v>
       </c>
-      <c r="BC15" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="BD15" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE15" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="BF15" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="BG15" s="86">
+      <c r="BC15" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD15" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE15" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF15" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG15" s="66">
         <f>IFERROR((VLOOKUP(BA15,Scoring!$D:$E,2,0))+IF(BC15="y",1,0)+IF(BD15="y",1,0)+IF(BE15="y",1,0)+IF(BF15="y",1,0),0)</f>
         <v>7</v>
       </c>
-      <c r="BH15" s="80">
+      <c r="BH15" s="60">
         <v>4.0</v>
       </c>
-      <c r="BI15" s="81">
+      <c r="BI15" s="61">
         <v>14.0</v>
       </c>
-      <c r="BJ15" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK15" s="83" t="s">
+      <c r="BJ15" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK15" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="BL15" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="BM15" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="BN15" s="86">
+      <c r="BL15" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM15" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN15" s="66">
         <f>IFERROR((VLOOKUP(BH15,Scoring!$A:$B,2,0))+IF(BJ15="y",1,0)+IF(BK15="y",1,0)+IF(BL15="y",1,0)+IF(BM15="y",1,0),0)</f>
         <v>13</v>
       </c>
-      <c r="BO15" s="80">
+      <c r="BO15" s="60">
         <v>2.0</v>
       </c>
-      <c r="BP15" s="81">
+      <c r="BP15" s="61">
         <v>2.0</v>
       </c>
-      <c r="BQ15" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="BR15" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="BS15" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="BT15" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU15" s="86">
+      <c r="BQ15" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR15" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS15" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT15" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU15" s="66">
         <f>IFERROR((VLOOKUP(BO15,Scoring!$D:$E,2,0))+IF(BQ15="y",1,0)+IF(BR15="y",1,0)+IF(BS15="y",1,0)+IF(BT15="y",1,0),0)</f>
         <v>7</v>
       </c>
-      <c r="BV15" s="80">
+      <c r="BV15" s="60">
         <v>5.0</v>
       </c>
-      <c r="BW15" s="81">
+      <c r="BW15" s="61">
         <v>13.0</v>
       </c>
-      <c r="BX15" s="82" t="s">
+      <c r="BX15" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="BY15" s="83" t="s">
+      <c r="BY15" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="BZ15" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="CA15" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="CB15" s="86">
+      <c r="BZ15" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA15" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB15" s="66">
         <f>IFERROR((VLOOKUP(BV15,Scoring!$A:$B,2,0))+IF(BX15="y",1,0)+IF(BY15="y",1,0)+IF(BZ15="y",1,0)+IF(CA15="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="CC15" s="80">
+      <c r="CC15" s="60">
         <v>7.0</v>
       </c>
-      <c r="CD15" s="81">
+      <c r="CD15" s="61">
         <v>10.0</v>
       </c>
-      <c r="CE15" s="82" t="s">
+      <c r="CE15" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="CF15" s="83" t="s">
+      <c r="CF15" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="CG15" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="CH15" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="CI15" s="86">
+      <c r="CG15" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH15" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI15" s="66">
         <f>IFERROR((VLOOKUP(CC15,Scoring!$A:$B,2,0))+IF(CE15="y",1,0)+IF(CF15="y",1,0)+IF(CG15="y",1,0)+IF(CH15="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="CJ15" s="80">
+      <c r="CJ15" s="60">
         <v>11.0</v>
       </c>
-      <c r="CK15" s="81">
+      <c r="CK15" s="61">
         <v>4.0</v>
       </c>
-      <c r="CL15" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="CM15" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="CN15" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="CO15" s="88" t="s">
+      <c r="CL15" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM15" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN15" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO15" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="CP15" s="86">
+      <c r="CP15" s="66">
         <f>IFERROR((VLOOKUP(CJ15,Scoring!$A:$B,2,0))+IF(CL15="y",1,0)+IF(CM15="y",1,0)+IF(CN15="y",1,0)+IF(CO15="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="CQ15" s="80">
+      <c r="CQ15" s="60">
         <v>9.0</v>
       </c>
-      <c r="CR15" s="81">
-        <v>1.0</v>
-      </c>
-      <c r="CS15" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="CT15" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="CU15" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="CV15" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="CW15" s="86">
+      <c r="CR15" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="CS15" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="CT15" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU15" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV15" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW15" s="66">
         <f>IFERROR((VLOOKUP(CQ15,Scoring!$A:$B,2,0))+IF(CS15="y",1,0)+IF(CT15="y",1,0)+IF(CU15="y",1,0)+IF(CV15="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="CX15" s="80">
-        <v>1.0</v>
-      </c>
-      <c r="CY15" s="81">
+      <c r="CX15" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="CY15" s="61">
         <v>2.0</v>
       </c>
-      <c r="CZ15" s="82" t="s">
+      <c r="CZ15" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="DA15" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="DB15" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="DC15" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="DD15" s="86">
+      <c r="DA15" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB15" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="DC15" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD15" s="66">
         <f>IFERROR((VLOOKUP(CX15,Scoring!$A:$B,2,0))+IF(CZ15="y",1,0)+IF(DA15="y",1,0)+IF(DB15="y",1,0)+IF(DC15="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="DE15" s="80">
-        <v>1.0</v>
-      </c>
-      <c r="DF15" s="81">
-        <v>1.0</v>
-      </c>
-      <c r="DG15" s="82" t="s">
+      <c r="DE15" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="DF15" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="DG15" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="DH15" s="83" t="s">
+      <c r="DH15" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="DI15" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="DJ15" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="DK15" s="86">
+      <c r="DI15" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ15" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="DK15" s="66">
         <f>IFERROR((VLOOKUP(DE15,Scoring!$A:$B,2,0))+IF(DG15="y",1,0)+IF(DH15="y",1,0)+IF(DI15="y",1,0)+IF(DJ15="y",1,0),0)</f>
         <v>27</v>
       </c>
-      <c r="DL15" s="80"/>
-      <c r="DM15" s="89"/>
-      <c r="DN15" s="90"/>
-      <c r="DO15" s="91"/>
-      <c r="DP15" s="92"/>
-      <c r="DQ15" s="93"/>
-      <c r="DR15" s="86">
+      <c r="DL15" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="DM15" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="DN15" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="DO15" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="DP15" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="DQ15" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="DR15" s="66">
         <f>IFERROR((VLOOKUP(DL15,Scoring!$A:$B,2,0))+IF(DN15="y",1,0)+IF(DO15="y",1,0)+IF(DP15="y",1,0)+IF(DQ15="y",1,0),0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="DS15" s="13">
         <v>0.0</v>
